--- a/gd/任务系统/新版任务系统设计.xlsx
+++ b/gd/任务系统/新版任务系统设计.xlsx
@@ -28,6 +28,7 @@
     <definedName name="对话配置格式">数据记录!$B$22:$I$38</definedName>
     <definedName name="对话相关">数据记录!$R$49:$R$53</definedName>
     <definedName name="分页签开启规则">UI逻辑!$E$70:$J$75</definedName>
+    <definedName name="服务器拆分">需求拆分!$C$4:$D$12</definedName>
     <definedName name="奖励">数据记录!$O$50:$Q$52</definedName>
     <definedName name="奖励内容中的图标无tips显示">UI逻辑!$F$248</definedName>
     <definedName name="奖励配置">数据记录!$O$49:$Q$55</definedName>
@@ -47,6 +48,7 @@
     <definedName name="任务项奖励的图标无tips显示">UI逻辑!$F$155</definedName>
     <definedName name="任务项内容格式">UI逻辑!$F$113:$M$140</definedName>
     <definedName name="任务项内容刷新规则">UI逻辑!$F$212:$L$214</definedName>
+    <definedName name="三星">数据记录!$L$52:$N$53</definedName>
     <definedName name="时间">数据记录!$J$50:$K$52</definedName>
     <definedName name="时效性">基础规则!$F$67:$I$69</definedName>
     <definedName name="时效性配置需要有始有终_即需要配置起始点与终止点">基础规则!$H$70:$M$70</definedName>
@@ -465,7 +467,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="814">
   <si>
     <t>文档名称</t>
   </si>
@@ -2042,10 +2044,6 @@
   </si>
   <si>
     <t>任务目标</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>normal/hard</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -4129,21 +4127,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>任务配置、数据结构、统计数据建立 3d</t>
-  </si>
-  <si>
-    <t>任务初始化 1.5d</t>
-  </si>
-  <si>
-    <t>任务更新 2d</t>
-  </si>
-  <si>
-    <t>任务交付 1d</t>
-  </si>
-  <si>
-    <t>每日任务刷新 1d</t>
-  </si>
-  <si>
     <t>服务器</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -4193,6 +4176,81 @@
   </si>
   <si>
     <t>统一任务目标与参数名称对应</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务配置、数据结构 3d</t>
+  </si>
+  <si>
+    <t>统计数据&amp;任务目标映射 1d</t>
+  </si>
+  <si>
+    <t>任务初始化1.5d</t>
+  </si>
+  <si>
+    <t>任务更新框架 2d</t>
+  </si>
+  <si>
+    <t>任务交付 1d</t>
+  </si>
+  <si>
+    <t>每日任务刷新 1d</t>
+  </si>
+  <si>
+    <t>副本相关数据统计&amp;任务更新 1.5d</t>
+  </si>
+  <si>
+    <t>角色、宠物相关数据统计&amp;任务更新 1.5d</t>
+  </si>
+  <si>
+    <t>活动、商城相关数据统计&amp;任务更新 1.5d</t>
+  </si>
+  <si>
+    <t>3d</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1d</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5d</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2d</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5d</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器程序任务拆分更新</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ver 0.7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>qc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>yh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善三星挑战以及难度通关的任务目标配置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ver 0.7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>qc</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -9035,10 +9093,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N61"/>
+  <dimension ref="A1:N67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -9443,7 +9501,7 @@
       <c r="F24" s="5"/>
       <c r="G24" s="4"/>
       <c r="H24" s="27" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -9459,7 +9517,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="4"/>
       <c r="H25" s="27" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -9475,7 +9533,7 @@
       <c r="F26" s="5"/>
       <c r="G26" s="4"/>
       <c r="H26" s="27" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -9491,7 +9549,7 @@
       <c r="F27" s="5"/>
       <c r="G27" s="4"/>
       <c r="H27" s="27" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -9501,21 +9559,21 @@
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C28" s="7">
         <v>42156</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="5"/>
       <c r="G28" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="H28" s="27" t="s">
         <v>621</v>
-      </c>
-      <c r="H28" s="27" t="s">
-        <v>622</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -9531,7 +9589,7 @@
       <c r="F29" s="5"/>
       <c r="G29" s="4"/>
       <c r="H29" s="27" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -9547,7 +9605,7 @@
       <c r="F30" s="5"/>
       <c r="G30" s="4"/>
       <c r="H30" s="27" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -9557,21 +9615,21 @@
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="4" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C31" s="7">
         <v>42159</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="5"/>
       <c r="G31" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="H31" s="59" t="s">
         <v>649</v>
-      </c>
-      <c r="H31" s="59" t="s">
-        <v>650</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -9587,7 +9645,7 @@
       <c r="F32" s="5"/>
       <c r="G32" s="4"/>
       <c r="H32" s="59" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -9603,7 +9661,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="4"/>
       <c r="H33" s="57" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -9619,7 +9677,7 @@
       <c r="F34" s="5"/>
       <c r="G34" s="4"/>
       <c r="H34" s="59" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -9635,7 +9693,7 @@
       <c r="F35" s="5"/>
       <c r="G35" s="4"/>
       <c r="H35" s="59" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -9651,7 +9709,7 @@
       <c r="F36" s="5"/>
       <c r="G36" s="57"/>
       <c r="H36" s="59" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I36" s="57"/>
       <c r="J36" s="57"/>
@@ -9667,7 +9725,7 @@
       <c r="F37" s="5"/>
       <c r="G37" s="57"/>
       <c r="H37" s="59" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="I37" s="57"/>
       <c r="J37" s="57"/>
@@ -9683,7 +9741,7 @@
       <c r="F38" s="5"/>
       <c r="G38" s="57"/>
       <c r="H38" s="59" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="I38" s="57"/>
       <c r="J38" s="57"/>
@@ -9699,7 +9757,7 @@
       <c r="F39" s="5"/>
       <c r="G39" s="57"/>
       <c r="H39" s="59" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="I39" s="57"/>
       <c r="J39" s="57"/>
@@ -9715,7 +9773,7 @@
       <c r="F40" s="5"/>
       <c r="G40" s="4"/>
       <c r="H40" s="59" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
@@ -9725,21 +9783,21 @@
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="4" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C41" s="7">
         <v>42163</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="5"/>
       <c r="G41" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="H41" s="73" t="s">
         <v>751</v>
-      </c>
-      <c r="H41" s="73" t="s">
-        <v>752</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
@@ -9755,7 +9813,7 @@
       <c r="F42" s="5"/>
       <c r="G42" s="57"/>
       <c r="H42" s="73" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="I42" s="57"/>
       <c r="J42" s="57"/>
@@ -9771,7 +9829,7 @@
       <c r="F43" s="5"/>
       <c r="G43" s="57"/>
       <c r="H43" s="73" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I43" s="57"/>
       <c r="J43" s="57"/>
@@ -9787,7 +9845,7 @@
       <c r="F44" s="5"/>
       <c r="G44" s="57"/>
       <c r="H44" s="73" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I44" s="57"/>
       <c r="J44" s="57"/>
@@ -9803,7 +9861,7 @@
       <c r="F45" s="5"/>
       <c r="G45" s="57"/>
       <c r="H45" s="73" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="I45" s="57"/>
       <c r="J45" s="57"/>
@@ -9819,7 +9877,7 @@
       <c r="F46" s="5"/>
       <c r="G46" s="57"/>
       <c r="H46" s="71" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="I46" s="57"/>
       <c r="J46" s="57"/>
@@ -9835,148 +9893,252 @@
       <c r="F47" s="5"/>
       <c r="G47" s="57"/>
       <c r="H47" s="57" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="I47" s="57"/>
       <c r="J47" s="57"/>
       <c r="K47" s="8"/>
       <c r="L47" s="21"/>
     </row>
-    <row r="48" spans="1:12" s="56" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" s="70" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
-      <c r="B48" s="57"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="5"/>
+      <c r="B48" s="71" t="s">
+        <v>808</v>
+      </c>
+      <c r="C48" s="7">
+        <v>42164</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>809</v>
+      </c>
       <c r="E48" s="9"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="57"/>
-      <c r="H48" s="57"/>
-      <c r="I48" s="57"/>
-      <c r="J48" s="57"/>
+      <c r="G48" s="71" t="s">
+        <v>810</v>
+      </c>
+      <c r="H48" s="73" t="s">
+        <v>807</v>
+      </c>
+      <c r="I48" s="71"/>
+      <c r="J48" s="71"/>
       <c r="K48" s="8"/>
       <c r="L48" s="21"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
+    <row r="49" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3"/>
+      <c r="B49" s="71" t="s">
+        <v>812</v>
+      </c>
+      <c r="C49" s="7">
+        <v>42166</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="E49" s="9"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="71" t="s">
+        <v>208</v>
+      </c>
+      <c r="H49" s="73" t="s">
+        <v>811</v>
+      </c>
+      <c r="I49" s="71"/>
+      <c r="J49" s="71"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="21"/>
+    </row>
+    <row r="50" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="3"/>
+      <c r="B50" s="71"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="71"/>
+      <c r="H50" s="71"/>
+      <c r="I50" s="71"/>
+      <c r="J50" s="71"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="21"/>
+    </row>
+    <row r="51" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="3"/>
+      <c r="B51" s="71"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="71"/>
+      <c r="H51" s="71"/>
+      <c r="I51" s="71"/>
+      <c r="J51" s="71"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="21"/>
+    </row>
+    <row r="52" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="3"/>
+      <c r="B52" s="71"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="71"/>
+      <c r="H52" s="71"/>
+      <c r="I52" s="71"/>
+      <c r="J52" s="71"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="21"/>
+    </row>
+    <row r="53" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="3"/>
+      <c r="B53" s="71"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="71"/>
+      <c r="H53" s="71"/>
+      <c r="I53" s="71"/>
+      <c r="J53" s="71"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="21"/>
+    </row>
+    <row r="54" spans="1:14" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="3"/>
+      <c r="B54" s="57"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="57"/>
+      <c r="H54" s="57"/>
+      <c r="I54" s="57"/>
+      <c r="J54" s="57"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="21"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B55" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C55" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D55" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E55" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F49" s="5"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4" t="s">
+      <c r="F55" s="5"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="2"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B50" s="1" t="s">
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="2"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B56" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="C56" s="69">
+        <v>42161</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="C50" s="69">
-        <v>42161</v>
-      </c>
-      <c r="D50" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="H56" s="26" t="s">
         <v>697</v>
-      </c>
-      <c r="H50" s="26" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="H51" s="26" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="H52" s="26" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="H53" s="26" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="H54" s="26" t="s">
-        <v>702</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="N54" s="1" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="H55" s="26" t="s">
-        <v>703</v>
-      </c>
-      <c r="N55" s="1" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="59" t="s">
-        <v>704</v>
-      </c>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="10"/>
-      <c r="N56" s="1" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.15">
       <c r="H57" s="26" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.15">
       <c r="H58" s="26" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="H59" s="56" t="s">
-        <v>707</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>741</v>
+      <c r="H59" s="26" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.15">
       <c r="H60" s="26" t="s">
-        <v>708</v>
+        <v>701</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="H61" s="56"/>
+      <c r="H61" s="26" t="s">
+        <v>702</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="59" t="s">
+        <v>703</v>
+      </c>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="10"/>
+      <c r="N62" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="H63" s="26" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="H64" s="26" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="65" spans="8:12" x14ac:dyDescent="0.15">
+      <c r="H65" s="56" t="s">
+        <v>706</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="66" spans="8:12" x14ac:dyDescent="0.15">
+      <c r="H66" s="26" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="67" spans="8:12" x14ac:dyDescent="0.15">
+      <c r="H67" s="56"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -10007,21 +10169,23 @@
     <hyperlink ref="H38" location="是否可跳过" display="增加对话跳过的配置需求"/>
     <hyperlink ref="H39" location="分页签开启规则" display="补充分页签开启规则"/>
     <hyperlink ref="H40" location="_5.任务对话界面需求" display="补充跳过按钮美术需求"/>
-    <hyperlink ref="H50" location="当完成任意任务后_自动接取该任务后一个任务_任务配置表中顺序" display="任务组方式保留，刨除序号"/>
-    <hyperlink ref="H51" location="通关限制" display="接取条件是否需要通关副本"/>
-    <hyperlink ref="H52" location="对话配置格式" display="对话内容改为配置id"/>
-    <hyperlink ref="H53" location="NPC配置格式" display="对话相关NPC数据拆分"/>
-    <hyperlink ref="H55" location="奖励" display="任务奖励遵循通用配置方式"/>
-    <hyperlink ref="H56" location="时间" display="任务时效性配置拆开起止点"/>
-    <hyperlink ref="H57" location="对话界面出现时_点击屏幕任意位置_除跳过按钮区域__均响应跳过当前对话界面_不响应点击位置的其他功能" display="补充对话中下一步操作的响应范围"/>
-    <hyperlink ref="H58" location="任务项内容刷新规则" display="任务界面实时刷新"/>
-    <hyperlink ref="H60" location="已完成的任务_显示在对应分页的上方_多个已完成任务按照任务编号由小至大顺序从上至下显示" display="补充可完成的任务显示在上方的规则"/>
-    <hyperlink ref="H54" location="体力" display="时效性任务实现方法等待程序确认"/>
+    <hyperlink ref="H56" location="当完成任意任务后_自动接取该任务后一个任务_任务配置表中顺序" display="任务组方式保留，刨除序号"/>
+    <hyperlink ref="H57" location="通关限制" display="接取条件是否需要通关副本"/>
+    <hyperlink ref="H58" location="对话配置格式" display="对话内容改为配置id"/>
+    <hyperlink ref="H59" location="NPC配置格式" display="对话相关NPC数据拆分"/>
+    <hyperlink ref="H61" location="奖励" display="任务奖励遵循通用配置方式"/>
+    <hyperlink ref="H62" location="时间" display="任务时效性配置拆开起止点"/>
+    <hyperlink ref="H63" location="对话界面出现时_点击屏幕任意位置_除跳过按钮区域__均响应跳过当前对话界面_不响应点击位置的其他功能" display="补充对话中下一步操作的响应范围"/>
+    <hyperlink ref="H64" location="任务项内容刷新规则" display="任务界面实时刷新"/>
+    <hyperlink ref="H66" location="已完成的任务_显示在对应分页的上方_多个已完成任务按照任务编号由小至大顺序从上至下显示" display="补充可完成的任务显示在上方的规则"/>
+    <hyperlink ref="H60" location="体力" display="时效性任务实现方法等待程序确认"/>
     <hyperlink ref="H41" location="任务出现为即时刷新_如果有前后连续关系的情况_则上一个消失后_下一个跟随刷出" display="补充任务刷出为即时刷新"/>
     <hyperlink ref="H42" location="名称" display="完善对话配置格式"/>
     <hyperlink ref="H43" location="时效性配置需要有始有终_即需要配置起始点与终止点" display="完善时效性任务配置规则"/>
     <hyperlink ref="H44" location="金币" display="完善任务奖励配置规则"/>
     <hyperlink ref="H45" location="任务配置数值" display="将任务配置参数变更为数据形式"/>
+    <hyperlink ref="H48" location="服务器拆分" display="服务器程序任务拆分更新"/>
+    <hyperlink ref="H49" location="三星" display="完善三星挑战以及难度通关的任务目标配置"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10046,7 +10210,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B1" s="29" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>62</v>
@@ -10054,10 +10218,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="30" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>63</v>
@@ -10065,23 +10229,23 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="32" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="29" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" s="32" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C32" s="35"/>
       <c r="D32" s="33" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
@@ -10090,7 +10254,7 @@
       <c r="C33" s="35"/>
       <c r="D33" s="33"/>
       <c r="E33" s="33" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F33" s="33"/>
     </row>
@@ -10116,7 +10280,7 @@
     <row r="38" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C38" s="35"/>
       <c r="D38" s="33" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E38" s="33"/>
       <c r="F38" s="33"/>
@@ -10131,10 +10295,10 @@
       <c r="C39" s="35"/>
       <c r="D39" s="33"/>
       <c r="E39" s="33" t="s">
+        <v>612</v>
+      </c>
+      <c r="F39" s="33" t="s">
         <v>613</v>
-      </c>
-      <c r="F39" s="33" t="s">
-        <v>614</v>
       </c>
       <c r="G39" s="33"/>
       <c r="H39" s="33"/>
@@ -10147,10 +10311,10 @@
       <c r="C40" s="35"/>
       <c r="D40" s="33"/>
       <c r="E40" s="33" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F40" s="33" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G40" s="33"/>
       <c r="H40" s="33"/>
@@ -10163,10 +10327,10 @@
       <c r="C41" s="35"/>
       <c r="D41" s="33"/>
       <c r="E41" s="33" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F41" s="33" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G41" s="33"/>
       <c r="H41" s="33"/>
@@ -10205,13 +10369,13 @@
       <c r="C44" s="35"/>
       <c r="D44" s="33"/>
       <c r="E44" s="33" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
       <c r="H44" s="33"/>
       <c r="I44" s="33" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J44" s="33"/>
       <c r="K44" s="33"/>
@@ -10222,13 +10386,13 @@
       <c r="D45" s="33"/>
       <c r="E45" s="33"/>
       <c r="F45" s="33" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G45" s="33"/>
       <c r="H45" s="33"/>
       <c r="I45" s="33"/>
       <c r="J45" s="33" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K45" s="33"/>
       <c r="L45" s="33"/>
@@ -10237,13 +10401,13 @@
       <c r="C46" s="35"/>
       <c r="D46" s="33"/>
       <c r="E46" s="33" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F46" s="33"/>
       <c r="G46" s="33"/>
       <c r="H46" s="33"/>
       <c r="I46" s="33" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J46" s="33"/>
       <c r="K46" s="33"/>
@@ -10254,13 +10418,13 @@
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
       <c r="F47" s="33" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G47" s="33"/>
       <c r="H47" s="33"/>
       <c r="I47" s="33"/>
       <c r="J47" s="33" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K47" s="33"/>
       <c r="L47" s="33"/>
@@ -10269,13 +10433,13 @@
       <c r="C48" s="35"/>
       <c r="D48" s="33"/>
       <c r="E48" s="33" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F48" s="33"/>
       <c r="G48" s="33"/>
       <c r="H48" s="33"/>
       <c r="I48" s="33" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J48" s="33"/>
       <c r="K48" s="33"/>
@@ -10286,13 +10450,13 @@
       <c r="D49" s="33"/>
       <c r="E49" s="33"/>
       <c r="F49" s="33" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G49" s="33"/>
       <c r="H49" s="33"/>
       <c r="I49" s="33"/>
       <c r="J49" s="33" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K49" s="33"/>
       <c r="L49" s="33"/>
@@ -10301,14 +10465,14 @@
       <c r="C50" s="35"/>
       <c r="D50" s="33"/>
       <c r="E50" s="33" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F50" s="33"/>
       <c r="G50" s="33"/>
       <c r="H50" s="33"/>
       <c r="I50" s="33"/>
       <c r="J50" s="33" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="K50" s="33"/>
       <c r="L50" s="33"/>
@@ -10318,7 +10482,7 @@
       <c r="D51" s="33"/>
       <c r="E51" s="33"/>
       <c r="F51" s="33" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G51" s="33"/>
       <c r="H51" s="33"/>
@@ -10331,7 +10495,7 @@
       <c r="C52" s="35"/>
       <c r="D52" s="33"/>
       <c r="E52" s="33" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
@@ -10346,7 +10510,7 @@
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G53" s="33"/>
       <c r="H53" s="33"/>
@@ -10385,13 +10549,13 @@
       <c r="C56" s="35"/>
       <c r="D56" s="33"/>
       <c r="E56" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F56" s="33"/>
       <c r="G56" s="33"/>
       <c r="H56" s="33"/>
       <c r="I56" s="33" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J56" s="33"/>
       <c r="K56" s="33"/>
@@ -10402,13 +10566,13 @@
       <c r="D57" s="33"/>
       <c r="E57" s="33"/>
       <c r="F57" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G57" s="33"/>
       <c r="H57" s="33"/>
       <c r="I57" s="33"/>
       <c r="J57" s="33" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K57" s="33"/>
       <c r="L57" s="33"/>
@@ -10417,13 +10581,13 @@
       <c r="C58" s="35"/>
       <c r="D58" s="33"/>
       <c r="E58" s="33" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F58" s="33"/>
       <c r="G58" s="33"/>
       <c r="H58" s="33"/>
       <c r="I58" s="33" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J58" s="33"/>
       <c r="K58" s="33"/>
@@ -10434,13 +10598,13 @@
       <c r="D59" s="33"/>
       <c r="E59" s="33"/>
       <c r="F59" s="33" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G59" s="33"/>
       <c r="H59" s="33"/>
       <c r="I59" s="33"/>
       <c r="J59" s="33" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K59" s="33"/>
       <c r="L59" s="33"/>
@@ -10449,13 +10613,13 @@
       <c r="C60" s="35"/>
       <c r="D60" s="33"/>
       <c r="E60" s="33" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F60" s="33"/>
       <c r="G60" s="33"/>
       <c r="H60" s="33"/>
       <c r="I60" s="33" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J60" s="33"/>
       <c r="K60" s="33"/>
@@ -10466,13 +10630,13 @@
       <c r="D61" s="33"/>
       <c r="E61" s="33"/>
       <c r="F61" s="33" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G61" s="33"/>
       <c r="H61" s="33"/>
       <c r="I61" s="33"/>
       <c r="J61" s="33" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K61" s="33"/>
       <c r="L61" s="33"/>
@@ -10481,13 +10645,13 @@
       <c r="C62" s="35"/>
       <c r="D62" s="33"/>
       <c r="E62" s="33" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F62" s="33"/>
       <c r="G62" s="33"/>
       <c r="H62" s="33"/>
       <c r="I62" s="33" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J62" s="33"/>
       <c r="K62" s="33"/>
@@ -10498,15 +10662,15 @@
       <c r="D63" s="33"/>
       <c r="E63" s="33"/>
       <c r="F63" s="33" t="s">
+        <v>612</v>
+      </c>
+      <c r="G63" s="33" t="s">
         <v>613</v>
-      </c>
-      <c r="G63" s="33" t="s">
-        <v>614</v>
       </c>
       <c r="H63" s="33"/>
       <c r="I63" s="33"/>
       <c r="J63" s="33" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K63" s="33"/>
       <c r="L63" s="33"/>
@@ -10516,15 +10680,15 @@
       <c r="D64" s="33"/>
       <c r="E64" s="33"/>
       <c r="F64" s="33" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G64" s="33" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H64" s="33"/>
       <c r="I64" s="33"/>
       <c r="J64" s="33" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="K64" s="33"/>
       <c r="L64" s="33"/>
@@ -10533,14 +10697,14 @@
       <c r="C65" s="35"/>
       <c r="D65" s="33"/>
       <c r="E65" s="33" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F65" s="33"/>
       <c r="G65" s="33"/>
       <c r="H65" s="33"/>
       <c r="I65" s="33"/>
       <c r="J65" s="33" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K65" s="33"/>
       <c r="L65" s="33"/>
@@ -10550,7 +10714,7 @@
       <c r="D66" s="33"/>
       <c r="E66" s="33"/>
       <c r="F66" s="33" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G66" s="33"/>
       <c r="H66" s="33"/>
@@ -10564,7 +10728,7 @@
       <c r="D67" s="33"/>
       <c r="E67" s="33"/>
       <c r="F67" s="33" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G67" s="33"/>
       <c r="H67" s="33"/>
@@ -10578,7 +10742,7 @@
       <c r="D68" s="33"/>
       <c r="E68" s="33"/>
       <c r="F68" s="33" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G68" s="33"/>
       <c r="H68" s="33"/>
@@ -10602,7 +10766,7 @@
       <c r="C70" s="53"/>
       <c r="D70" s="58"/>
       <c r="E70" s="58" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F70" s="58"/>
       <c r="G70" s="58"/>
@@ -10617,7 +10781,7 @@
       <c r="D71" s="58"/>
       <c r="E71" s="58"/>
       <c r="F71" s="58" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G71" s="58"/>
       <c r="H71" s="58"/>
@@ -10631,7 +10795,7 @@
       <c r="D72" s="58"/>
       <c r="E72" s="58"/>
       <c r="F72" s="58" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G72" s="58">
         <v>1</v>
@@ -10647,13 +10811,13 @@
       <c r="D73" s="58"/>
       <c r="E73" s="58"/>
       <c r="F73" s="58" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G73" s="58">
         <v>10</v>
       </c>
       <c r="H73" s="58" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I73" s="58"/>
       <c r="J73" s="58"/>
@@ -10671,7 +10835,7 @@
         <v>20</v>
       </c>
       <c r="H74" s="58" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I74" s="58"/>
       <c r="J74" s="58"/>
@@ -10683,7 +10847,7 @@
       <c r="D75" s="58"/>
       <c r="E75" s="58"/>
       <c r="F75" s="58" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G75" s="58"/>
       <c r="H75" s="58"/>
@@ -10711,7 +10875,7 @@
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A91" s="30" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E91" s="64" t="s">
         <v>32</v>
@@ -10732,7 +10896,7 @@
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A92" s="38" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E92" s="64"/>
       <c r="F92" s="64" t="s">
@@ -10753,14 +10917,14 @@
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A93" s="30" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B93" s="29" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E93" s="64"/>
       <c r="F93" s="64" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G93" s="64"/>
       <c r="H93" s="64"/>
@@ -10768,7 +10932,7 @@
       <c r="J93" s="64"/>
       <c r="K93" s="64"/>
       <c r="L93" s="64" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="M93" s="64"/>
       <c r="N93" s="64"/>
@@ -10777,15 +10941,15 @@
       <c r="Q93" s="64"/>
       <c r="R93" s="64"/>
       <c r="S93" s="58" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A94" s="38" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B94" s="38" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E94" s="64"/>
       <c r="F94" s="64" t="s">
@@ -10797,7 +10961,7 @@
       <c r="J94" s="64"/>
       <c r="K94" s="64"/>
       <c r="L94" s="64" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="M94" s="64"/>
       <c r="N94" s="64"/>
@@ -10810,10 +10974,10 @@
       <c r="E95" s="64"/>
       <c r="F95" s="64"/>
       <c r="G95" s="64" t="s">
+        <v>630</v>
+      </c>
+      <c r="H95" s="64" t="s">
         <v>631</v>
-      </c>
-      <c r="H95" s="64" t="s">
-        <v>632</v>
       </c>
       <c r="I95" s="64"/>
       <c r="J95" s="64"/>
@@ -10830,10 +10994,10 @@
       <c r="E96" s="64"/>
       <c r="F96" s="64"/>
       <c r="G96" s="64" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H96" s="64" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I96" s="64"/>
       <c r="J96" s="64"/>
@@ -10850,10 +11014,10 @@
       <c r="E97" s="64"/>
       <c r="F97" s="64"/>
       <c r="G97" s="64" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H97" s="64" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I97" s="64"/>
       <c r="J97" s="64"/>
@@ -10884,7 +11048,7 @@
     </row>
     <row r="99" spans="1:18" ht="33" x14ac:dyDescent="0.15">
       <c r="A99" s="31" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E99" s="33" t="s">
         <v>35</v>
@@ -10898,7 +11062,7 @@
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A100" s="38" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E100" s="33"/>
       <c r="F100" s="33" t="s">
@@ -10914,7 +11078,7 @@
       <c r="A101" s="38"/>
       <c r="E101" s="33"/>
       <c r="F101" s="33" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G101" s="33"/>
       <c r="H101" s="33"/>
@@ -10935,11 +11099,11 @@
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A103" s="30" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E103" s="33"/>
       <c r="F103" s="33" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G103" s="33"/>
       <c r="H103" s="33"/>
@@ -10949,7 +11113,7 @@
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A104" s="32" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E104" s="33"/>
       <c r="F104" s="33" t="s">
@@ -10994,7 +11158,7 @@
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A111" s="30" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>226</v>
@@ -11002,7 +11166,7 @@
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A112" s="32" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.15">
@@ -11019,7 +11183,7 @@
     </row>
     <row r="114" spans="1:13" ht="33" x14ac:dyDescent="0.15">
       <c r="A114" s="31" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F114" s="33"/>
       <c r="G114" s="33" t="s">
@@ -11034,7 +11198,7 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A115" s="34" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F115" s="33"/>
       <c r="G115" s="33" t="s">
@@ -11262,7 +11426,7 @@
     </row>
     <row r="129" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B129" s="29" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C129" s="53"/>
       <c r="D129" s="56"/>
@@ -11280,7 +11444,7 @@
     </row>
     <row r="130" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B130" s="32" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C130" s="53"/>
       <c r="D130" s="56"/>
@@ -11300,14 +11464,14 @@
     </row>
     <row r="131" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B131" s="29" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C131" s="53"/>
       <c r="D131" s="56"/>
       <c r="E131" s="56"/>
       <c r="F131" s="33"/>
       <c r="G131" s="33" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H131" s="33"/>
       <c r="I131" s="33"/>
@@ -11318,7 +11482,7 @@
     </row>
     <row r="132" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B132" s="32" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C132" s="53"/>
       <c r="D132" s="56"/>
@@ -11338,7 +11502,7 @@
     </row>
     <row r="133" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B133" s="29" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C133" s="53"/>
       <c r="D133" s="56"/>
@@ -11356,7 +11520,7 @@
     </row>
     <row r="134" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B134" s="32" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C134" s="53"/>
       <c r="D134" s="56"/>
@@ -11408,7 +11572,7 @@
     </row>
     <row r="137" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B137" s="29" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C137" s="53"/>
       <c r="D137" s="56"/>
@@ -11426,7 +11590,7 @@
     </row>
     <row r="138" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B138" s="32" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C138" s="53"/>
       <c r="D138" s="56"/>
@@ -11482,7 +11646,7 @@
     <row r="141" spans="2:14" x14ac:dyDescent="0.15">
       <c r="F141" s="33"/>
       <c r="G141" s="33" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H141" s="33"/>
       <c r="I141" s="33"/>
@@ -11496,11 +11660,11 @@
       <c r="F142" s="33"/>
       <c r="G142" s="33"/>
       <c r="H142" s="33" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I142" s="33"/>
       <c r="J142" s="33" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K142" s="33"/>
       <c r="L142" s="33"/>
@@ -11510,7 +11674,7 @@
     <row r="143" spans="2:14" x14ac:dyDescent="0.15">
       <c r="F143" s="33"/>
       <c r="G143" s="33" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H143" s="33"/>
       <c r="I143" s="33"/>
@@ -11524,11 +11688,11 @@
       <c r="F144" s="33"/>
       <c r="G144" s="33"/>
       <c r="H144" s="33" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I144" s="33"/>
       <c r="J144" s="33" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K144" s="33"/>
       <c r="L144" s="33"/>
@@ -11537,11 +11701,11 @@
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B145" s="30" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F145" s="33"/>
       <c r="G145" s="33" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H145" s="33"/>
       <c r="I145" s="33"/>
@@ -11553,16 +11717,16 @@
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B146" s="32" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F146" s="33"/>
       <c r="G146" s="33"/>
       <c r="H146" s="33" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I146" s="33"/>
       <c r="J146" s="33" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K146" s="33"/>
       <c r="L146" s="33"/>
@@ -11641,14 +11805,14 @@
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A153" s="30" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B153" s="29" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E153" s="33"/>
       <c r="F153" s="33" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G153" s="33"/>
       <c r="H153" s="33"/>
@@ -11660,14 +11824,14 @@
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A154" s="32" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B154" s="32" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E154" s="33"/>
       <c r="F154" s="33" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G154" s="33"/>
       <c r="H154" s="33"/>
@@ -11682,7 +11846,7 @@
       <c r="B155" s="32"/>
       <c r="E155" s="33"/>
       <c r="F155" s="33" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G155" s="33"/>
       <c r="H155" s="33"/>
@@ -11712,12 +11876,12 @@
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B161" s="30" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B162" s="32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.15">
@@ -11775,7 +11939,7 @@
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A187" s="30" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F187" s="33"/>
       <c r="G187" s="33" t="s">
@@ -11789,13 +11953,13 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A188" s="32" t="s">
+        <v>539</v>
+      </c>
+      <c r="B188" s="29" t="s">
+        <v>425</v>
+      </c>
+      <c r="C188" s="32" t="s">
         <v>540</v>
-      </c>
-      <c r="B188" s="29" t="s">
-        <v>426</v>
-      </c>
-      <c r="C188" s="32" t="s">
-        <v>541</v>
       </c>
       <c r="F188" s="33" t="s">
         <v>53</v>
@@ -11809,13 +11973,13 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A189" s="30" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B189" s="29" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C189" s="32" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F189" s="33"/>
       <c r="G189" s="33" t="s">
@@ -11829,7 +11993,7 @@
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A190" s="32" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F190" s="33"/>
       <c r="G190" s="33" t="s">
@@ -11843,11 +12007,11 @@
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A191" s="30" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F191" s="33"/>
       <c r="G191" s="33" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H191" s="33"/>
       <c r="I191" s="33"/>
@@ -11857,12 +12021,12 @@
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A192" s="32" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F192" s="33"/>
       <c r="G192" s="33"/>
       <c r="H192" s="33" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I192" s="33"/>
       <c r="J192" s="33"/>
@@ -11925,10 +12089,10 @@
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A198" s="30" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F198" s="33" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G198" s="33"/>
       <c r="H198" s="33"/>
@@ -11939,10 +12103,10 @@
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A199" s="32" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B199" s="30" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F199" s="33"/>
       <c r="G199" s="33" t="s">
@@ -11959,7 +12123,7 @@
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B200" s="32" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F200" s="33" t="s">
         <v>57</v>
@@ -11994,10 +12158,10 @@
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A203" s="30" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B203" s="32" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F203" s="33" t="s">
         <v>189</v>
@@ -12011,10 +12175,10 @@
     </row>
     <row r="204" spans="1:13" ht="33" x14ac:dyDescent="0.15">
       <c r="A204" s="31" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B204" s="32" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E204" s="33"/>
       <c r="F204" s="33" t="s">
@@ -12033,7 +12197,7 @@
       <c r="C205" s="53"/>
       <c r="E205" s="61"/>
       <c r="F205" s="61" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G205" s="61"/>
       <c r="H205" s="61"/>
@@ -12069,11 +12233,11 @@
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A208" s="30" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E208" s="33"/>
       <c r="F208" s="33" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G208" s="33"/>
       <c r="H208" s="33"/>
@@ -12083,7 +12247,7 @@
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A209" s="32" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E209" s="33"/>
       <c r="F209" s="33" t="s">
@@ -12119,7 +12283,7 @@
       <c r="C212" s="53"/>
       <c r="E212" s="61"/>
       <c r="F212" s="61" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="G212" s="61"/>
       <c r="H212" s="61"/>
@@ -12132,7 +12296,7 @@
       <c r="E213" s="61"/>
       <c r="F213" s="61"/>
       <c r="G213" s="61" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H213" s="61"/>
       <c r="I213" s="61"/>
@@ -12144,7 +12308,7 @@
       <c r="E214" s="61"/>
       <c r="F214" s="61"/>
       <c r="G214" s="61" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H214" s="61"/>
       <c r="I214" s="61"/>
@@ -12156,7 +12320,7 @@
       <c r="E215" s="61"/>
       <c r="F215" s="61"/>
       <c r="G215" s="58" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H215" s="61"/>
       <c r="I215" s="61"/>
@@ -12185,16 +12349,16 @@
     </row>
     <row r="230" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B230" s="29" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="231" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B231" s="32" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D231" s="33"/>
       <c r="E231" s="33" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F231" s="33"/>
       <c r="G231" s="33"/>
@@ -12208,7 +12372,7 @@
       <c r="D232" s="33"/>
       <c r="E232" s="33"/>
       <c r="F232" s="33" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G232" s="33"/>
       <c r="H232" s="33"/>
@@ -12220,7 +12384,7 @@
     <row r="233" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D233" s="33"/>
       <c r="E233" s="33" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F233" s="33"/>
       <c r="G233" s="33"/>
@@ -12234,7 +12398,7 @@
       <c r="D234" s="33"/>
       <c r="E234" s="33"/>
       <c r="F234" s="33" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G234" s="33"/>
       <c r="H234" s="33"/>
@@ -12246,7 +12410,7 @@
     <row r="235" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D235" s="33"/>
       <c r="E235" s="33" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F235" s="33"/>
       <c r="G235" s="33"/>
@@ -12260,10 +12424,10 @@
       <c r="D236" s="33"/>
       <c r="E236" s="33"/>
       <c r="F236" s="33" t="s">
+        <v>612</v>
+      </c>
+      <c r="G236" s="33" t="s">
         <v>613</v>
-      </c>
-      <c r="G236" s="33" t="s">
-        <v>614</v>
       </c>
       <c r="H236" s="33"/>
       <c r="I236" s="33"/>
@@ -12275,10 +12439,10 @@
       <c r="D237" s="33"/>
       <c r="E237" s="33"/>
       <c r="F237" s="33" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G237" s="33" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H237" s="33"/>
       <c r="I237" s="33"/>
@@ -12418,7 +12582,7 @@
       <c r="D248" s="33"/>
       <c r="E248" s="33"/>
       <c r="F248" s="33" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G248" s="33"/>
       <c r="H248" s="33"/>
@@ -12477,7 +12641,7 @@
       <c r="C252" s="35"/>
       <c r="D252" s="33"/>
       <c r="E252" s="33" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F252" s="33"/>
       <c r="G252" s="33"/>
@@ -12494,13 +12658,13 @@
       <c r="D253" s="33"/>
       <c r="E253" s="33"/>
       <c r="F253" s="33" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G253" s="33"/>
       <c r="H253" s="33"/>
       <c r="I253" s="33"/>
       <c r="J253" s="33" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K253" s="33"/>
       <c r="L253" s="33"/>
@@ -12513,13 +12677,13 @@
       <c r="E254" s="33"/>
       <c r="F254" s="33"/>
       <c r="G254" s="33" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H254" s="33"/>
       <c r="I254" s="33"/>
       <c r="J254" s="33"/>
       <c r="K254" s="33" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L254" s="33"/>
       <c r="M254" s="33"/>
@@ -12530,13 +12694,13 @@
       <c r="D255" s="33"/>
       <c r="E255" s="33"/>
       <c r="F255" s="33" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G255" s="33"/>
       <c r="H255" s="33"/>
       <c r="I255" s="33"/>
       <c r="J255" s="33" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K255" s="33"/>
       <c r="L255" s="33"/>
@@ -12549,13 +12713,13 @@
       <c r="E256" s="33"/>
       <c r="F256" s="33"/>
       <c r="G256" s="33" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H256" s="33"/>
       <c r="I256" s="33"/>
       <c r="J256" s="33"/>
       <c r="K256" s="33" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L256" s="33"/>
       <c r="M256" s="33"/>
@@ -12566,13 +12730,13 @@
       <c r="D257" s="33"/>
       <c r="E257" s="33"/>
       <c r="F257" s="33" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G257" s="33"/>
       <c r="H257" s="33"/>
       <c r="I257" s="33"/>
       <c r="J257" s="33" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K257" s="33"/>
       <c r="L257" s="33"/>
@@ -12585,13 +12749,13 @@
       <c r="E258" s="33"/>
       <c r="F258" s="33"/>
       <c r="G258" s="33" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H258" s="33"/>
       <c r="I258" s="33"/>
       <c r="J258" s="33"/>
       <c r="K258" s="33" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L258" s="33"/>
       <c r="M258" s="33"/>
@@ -12602,14 +12766,14 @@
       <c r="D259" s="33"/>
       <c r="E259" s="33"/>
       <c r="F259" s="33" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G259" s="33"/>
       <c r="H259" s="33"/>
       <c r="I259" s="33"/>
       <c r="J259" s="33"/>
       <c r="K259" s="33" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="L259" s="33"/>
       <c r="M259" s="33"/>
@@ -12621,7 +12785,7 @@
       <c r="E260" s="33"/>
       <c r="F260" s="33"/>
       <c r="G260" s="33" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H260" s="33"/>
       <c r="I260" s="33"/>
@@ -12636,7 +12800,7 @@
       <c r="D261" s="33"/>
       <c r="E261" s="33"/>
       <c r="F261" s="33" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G261" s="33"/>
       <c r="H261" s="33"/>
@@ -12653,7 +12817,7 @@
       <c r="E262" s="33"/>
       <c r="F262" s="33"/>
       <c r="G262" s="33" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H262" s="33"/>
       <c r="I262" s="33"/>
@@ -12694,12 +12858,12 @@
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A265" s="30" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B265" s="33"/>
       <c r="C265" s="35"/>
       <c r="D265" s="33" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E265" s="33"/>
       <c r="F265" s="33"/>
@@ -12716,7 +12880,7 @@
       <c r="B266" s="61"/>
       <c r="C266" s="62"/>
       <c r="D266" s="58" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E266" s="61"/>
       <c r="F266" s="61"/>
@@ -12730,7 +12894,7 @@
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A267" s="32" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B267" s="33"/>
       <c r="C267" s="35"/>
@@ -12759,12 +12923,12 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A273" s="30" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A274" s="32" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.15">
@@ -12774,12 +12938,12 @@
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A289" s="30" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A290" s="32" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.15">
@@ -12789,7 +12953,7 @@
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B295" s="29" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E295" s="1" t="s">
         <v>289</v>
@@ -12797,7 +12961,7 @@
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B296" s="32" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F296" s="1" t="s">
         <v>290</v>
@@ -12816,7 +12980,7 @@
     <row r="298" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E298" s="33"/>
       <c r="F298" s="33" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G298" s="33"/>
       <c r="H298" s="33"/>
@@ -12827,7 +12991,7 @@
       <c r="E299" s="33"/>
       <c r="F299" s="33"/>
       <c r="G299" s="33" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H299" s="33"/>
       <c r="I299" s="33"/>
@@ -12837,7 +13001,7 @@
       <c r="E300" s="33"/>
       <c r="F300" s="33"/>
       <c r="G300" s="33" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H300" s="33"/>
       <c r="I300" s="33"/>
@@ -12898,15 +13062,15 @@
     </row>
     <row r="311" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B311" s="29" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="312" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B312" s="32" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F312" s="1" t="s">
         <v>299</v>
@@ -12914,17 +13078,17 @@
     </row>
     <row r="313" spans="2:12" x14ac:dyDescent="0.15">
       <c r="F313" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="315" spans="2:12" x14ac:dyDescent="0.15">
       <c r="F315" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="316" spans="2:12" x14ac:dyDescent="0.15">
       <c r="G316" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="317" spans="2:12" s="56" customFormat="1" x14ac:dyDescent="0.15">
@@ -12933,7 +13097,7 @@
     <row r="318" spans="2:12" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C318" s="53"/>
       <c r="E318" s="58" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F318" s="58"/>
       <c r="G318" s="58"/>
@@ -12947,7 +13111,7 @@
       <c r="C319" s="53"/>
       <c r="E319" s="58"/>
       <c r="F319" s="58" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G319" s="58"/>
       <c r="H319" s="58"/>
@@ -12960,13 +13124,13 @@
       <c r="C320" s="53"/>
       <c r="E320" s="58"/>
       <c r="F320" s="58" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G320" s="58"/>
       <c r="H320" s="58"/>
       <c r="I320" s="58"/>
       <c r="J320" s="58" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K320" s="58"/>
       <c r="L320" s="58"/>
@@ -12986,7 +13150,7 @@
       <c r="C322" s="53"/>
       <c r="E322" s="58"/>
       <c r="F322" s="58" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G322" s="58"/>
       <c r="H322" s="58"/>
@@ -13000,7 +13164,7 @@
       <c r="E323" s="58"/>
       <c r="F323" s="58"/>
       <c r="G323" s="58" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H323" s="58"/>
       <c r="I323" s="58"/>
@@ -13012,7 +13176,7 @@
       <c r="C324" s="53"/>
       <c r="E324" s="58"/>
       <c r="F324" s="58" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G324" s="58"/>
       <c r="H324" s="58"/>
@@ -13026,7 +13190,7 @@
       <c r="E325" s="58"/>
       <c r="F325" s="58"/>
       <c r="G325" s="58" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H325" s="58"/>
       <c r="I325" s="58"/>
@@ -13087,10 +13251,10 @@
         <v>318</v>
       </c>
       <c r="G333" s="58" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H333" s="58" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="I333" s="58"/>
       <c r="J333" s="58"/>
@@ -13103,10 +13267,10 @@
         <v>319</v>
       </c>
       <c r="G334" s="58" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H334" s="58" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="I334" s="58"/>
       <c r="J334" s="58"/>
@@ -13121,7 +13285,7 @@
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.15">
       <c r="E337" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.15">
@@ -13136,7 +13300,7 @@
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B340" s="29" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E340" s="39" t="s">
         <v>301</v>
@@ -13144,18 +13308,18 @@
     </row>
     <row r="341" spans="1:9" ht="33" x14ac:dyDescent="0.15">
       <c r="A341" s="31" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B341" s="32" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E341" s="25" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A342" s="32" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.15">
@@ -13167,7 +13331,7 @@
       <c r="G345" s="63"/>
       <c r="H345" s="63"/>
       <c r="I345" s="58" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.15">
@@ -13182,7 +13346,7 @@
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B347" s="29" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D347" s="63"/>
       <c r="E347" s="63"/>
@@ -13195,7 +13359,7 @@
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B348" s="32" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D348" s="63"/>
       <c r="E348" s="63"/>
@@ -13218,7 +13382,7 @@
     </row>
     <row r="350" spans="1:9" ht="33" x14ac:dyDescent="0.15">
       <c r="A350" s="31" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D350" s="63"/>
       <c r="E350" s="63"/>
@@ -13231,7 +13395,7 @@
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A351" s="40" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D351" s="63"/>
       <c r="E351" s="63"/>
@@ -13254,7 +13418,7 @@
     </row>
     <row r="353" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B353" s="29" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D353" s="63"/>
       <c r="E353" s="63"/>
@@ -13267,7 +13431,7 @@
     </row>
     <row r="354" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B354" s="32" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D354" s="63"/>
       <c r="E354" s="63"/>
@@ -13290,20 +13454,20 @@
     </row>
     <row r="357" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B357" s="29" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F357" s="32" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="358" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B358" s="30" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="359" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B359" s="32" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -13321,8 +13485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M164"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J92" sqref="J92:J140"/>
+    <sheetView topLeftCell="A92" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G114" sqref="G114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -13375,18 +13539,18 @@
     <row r="10" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C10" s="53"/>
       <c r="F10" s="58" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C11" s="53"/>
       <c r="F11" s="58" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A12" s="41" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>191</v>
@@ -13412,33 +13576,33 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="30" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="32" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I18" s="25" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I19" s="25" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="H20" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="H21" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -13481,28 +13645,28 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="51" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>94</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="50" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B32" s="50" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C32" s="48"/>
       <c r="I32" s="49" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
@@ -13533,7 +13697,7 @@
     </row>
     <row r="37" spans="1:9" ht="33" x14ac:dyDescent="0.15">
       <c r="A37" s="31" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F37" s="39" t="s">
         <v>100</v>
@@ -13542,7 +13706,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="32" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F38" s="39"/>
       <c r="G38" s="42" t="s">
@@ -13575,7 +13739,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="30" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>366</v>
@@ -13583,7 +13747,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="32" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>370</v>
@@ -13593,7 +13757,7 @@
       <c r="A46" s="55"/>
       <c r="C46" s="53"/>
       <c r="I46" s="58" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
@@ -13609,7 +13773,7 @@
     <row r="49" spans="1:10" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C49" s="53"/>
       <c r="I49" s="58" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
@@ -13621,14 +13785,14 @@
       <c r="C51" s="53"/>
       <c r="H51" s="38"/>
       <c r="I51" s="54" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="52" spans="1:10" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C52" s="53"/>
       <c r="H52" s="38"/>
       <c r="I52" s="56" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="56" customFormat="1" x14ac:dyDescent="0.15">
@@ -13643,7 +13807,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" s="30" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>370</v>
@@ -13651,10 +13815,10 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" s="32" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I56" s="58" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J56" s="58"/>
     </row>
@@ -13697,7 +13861,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" s="30" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>374</v>
@@ -13705,15 +13869,15 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64" s="32" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>116</v>
@@ -13721,24 +13885,24 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A68" s="30" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A69" s="30" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B69" s="32" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="70" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.15">
@@ -13746,7 +13910,7 @@
       <c r="B70" s="55"/>
       <c r="C70" s="53"/>
       <c r="H70" s="58" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="I70" s="58"/>
       <c r="J70" s="58"/>
@@ -13756,15 +13920,15 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A71" s="32" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.15">
       <c r="G72" s="25" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.15">
@@ -13780,10 +13944,10 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A77" s="30" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B77" s="29" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D77" s="11"/>
       <c r="F77" s="1" t="s">
@@ -13792,10 +13956,10 @@
     </row>
     <row r="78" spans="1:13" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A78" s="41" t="s">
+        <v>589</v>
+      </c>
+      <c r="B78" s="32" t="s">
         <v>590</v>
-      </c>
-      <c r="B78" s="32" t="s">
-        <v>591</v>
       </c>
       <c r="D78" s="11"/>
       <c r="G78" s="1" t="s">
@@ -13825,7 +13989,7 @@
     <row r="81" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D81" s="11"/>
       <c r="F81" s="63" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G81" s="63"/>
       <c r="H81" s="63"/>
@@ -13834,12 +13998,12 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A82" s="30" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D82" s="11"/>
       <c r="F82" s="63"/>
       <c r="G82" s="63" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H82" s="63"/>
       <c r="I82" s="63"/>
@@ -13847,7 +14011,7 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A83" s="32" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D83" s="11"/>
     </row>
@@ -13870,7 +14034,7 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A88" s="30" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D88" s="11"/>
       <c r="E88" s="1" t="s">
@@ -13879,7 +14043,7 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A89" s="32" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D89" s="11"/>
     </row>
@@ -13898,7 +14062,7 @@
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D92" s="11"/>
       <c r="E92" s="25" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F92" s="19" t="s">
         <v>129</v>
@@ -13927,14 +14091,14 @@
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D95" s="11"/>
       <c r="E95" s="25" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F95" s="19" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G95" s="16"/>
       <c r="J95" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M95" s="70"/>
     </row>
@@ -13955,7 +14119,7 @@
     <row r="98" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D98" s="11"/>
       <c r="E98" s="25" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F98" s="19" t="s">
         <v>388</v>
@@ -13983,7 +14147,7 @@
     <row r="101" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D101" s="11"/>
       <c r="E101" s="25" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F101" s="19" t="s">
         <v>389</v>
@@ -14011,7 +14175,7 @@
     <row r="104" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D104" s="11"/>
       <c r="E104" s="25" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F104" s="19" t="s">
         <v>392</v>
@@ -14065,14 +14229,14 @@
     <row r="110" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D110" s="11"/>
       <c r="E110" s="25" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F110" s="19" t="s">
         <v>134</v>
       </c>
       <c r="G110" s="16"/>
       <c r="J110" s="70" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="M110" s="70"/>
     </row>
@@ -14117,14 +14281,14 @@
     <row r="116" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D116" s="11"/>
       <c r="E116" s="25" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F116" s="19" t="s">
         <v>138</v>
       </c>
       <c r="G116" s="16"/>
       <c r="J116" s="70" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="117" spans="4:13" x14ac:dyDescent="0.15">
@@ -14141,14 +14305,14 @@
     <row r="119" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D119" s="11"/>
       <c r="E119" s="25" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>140</v>
       </c>
       <c r="G119" s="11"/>
       <c r="J119" s="70" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="120" spans="4:13" x14ac:dyDescent="0.15">
@@ -14165,7 +14329,7 @@
     <row r="122" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D122" s="11"/>
       <c r="E122" s="25" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>141</v>
@@ -14188,7 +14352,7 @@
     <row r="125" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D125" s="11"/>
       <c r="E125" s="25" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>142</v>
@@ -14211,7 +14375,7 @@
     <row r="128" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D128" s="11"/>
       <c r="E128" s="25" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>143</v>
@@ -14234,7 +14398,7 @@
     <row r="131" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D131" s="11"/>
       <c r="E131" s="25" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>144</v>
@@ -14257,7 +14421,7 @@
     <row r="134" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D134" s="11"/>
       <c r="E134" s="25" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>181</v>
@@ -14280,7 +14444,7 @@
     <row r="137" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D137" s="11"/>
       <c r="E137" s="25" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>182</v>
@@ -14303,7 +14467,7 @@
     <row r="140" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D140" s="11"/>
       <c r="E140" s="25" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>185</v>
@@ -14347,10 +14511,10 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A148" s="30" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B148" s="29" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>170</v>
@@ -14358,10 +14522,10 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A149" s="32" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B149" s="32" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>223</v>
@@ -14430,7 +14594,7 @@
     </row>
     <row r="164" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E164" s="25" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
   </sheetData>
@@ -15013,8 +15177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView topLeftCell="B43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L52" sqref="L52:L68"/>
+    <sheetView topLeftCell="B34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L52" sqref="L52:N53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -15058,10 +15222,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="30" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C3" s="70" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>206</v>
@@ -15069,10 +15233,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="32" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C4" s="70" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>206</v>
@@ -15080,7 +15244,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C5" s="70" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>206</v>
@@ -15088,7 +15252,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C6" s="70" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>206</v>
@@ -15096,7 +15260,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="30" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>192</v>
@@ -15110,7 +15274,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="32" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>193</v>
@@ -15231,7 +15395,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C19" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D19" s="72" t="s">
         <v>206</v>
@@ -15245,7 +15409,7 @@
         <v>329</v>
       </c>
       <c r="N22" s="32" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
@@ -15253,7 +15417,7 @@
         <v>303</v>
       </c>
       <c r="D23" s="67" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>307</v>
@@ -15262,18 +15426,18 @@
         <v>305</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="N23" s="30" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="30" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>304</v>
@@ -15288,18 +15452,18 @@
         <v>306</v>
       </c>
       <c r="G24" s="56" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="N24" s="30" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="32" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E25" s="1">
         <v>2</v>
@@ -15308,13 +15472,13 @@
         <v>384</v>
       </c>
       <c r="G25" s="56" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H25" s="56" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="N25" s="32" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
@@ -15325,10 +15489,10 @@
         <v>385</v>
       </c>
       <c r="G26" s="56" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H26" s="56" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
@@ -15339,10 +15503,10 @@
         <v>386</v>
       </c>
       <c r="G27" s="56" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H27" s="56" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
@@ -15353,10 +15517,10 @@
         <v>385</v>
       </c>
       <c r="G28" s="56" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H28" s="56" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
@@ -15364,13 +15528,13 @@
         <v>6</v>
       </c>
       <c r="F29" s="46" t="s">
+        <v>604</v>
+      </c>
+      <c r="G29" s="25" t="s">
         <v>605</v>
       </c>
-      <c r="G29" s="25" t="s">
-        <v>606</v>
-      </c>
       <c r="H29" s="56" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="L29" s="56"/>
     </row>
@@ -15379,7 +15543,7 @@
     </row>
     <row r="31" spans="1:14" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B31" s="56" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
@@ -15387,17 +15551,17 @@
     </row>
     <row r="32" spans="1:14" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C32" s="56" t="s">
+        <v>717</v>
+      </c>
+      <c r="D32" s="14" t="s">
         <v>718</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>719</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
     </row>
     <row r="33" spans="2:15" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C33" s="56" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D33" s="56" t="s">
         <v>363</v>
@@ -15407,7 +15571,7 @@
     </row>
     <row r="34" spans="2:15" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C34" s="56" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D34" s="56" t="s">
         <v>310</v>
@@ -15417,7 +15581,7 @@
     </row>
     <row r="35" spans="2:15" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C35" s="56" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D35" s="56" t="s">
         <v>311</v>
@@ -15427,7 +15591,7 @@
     </row>
     <row r="36" spans="2:15" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C36" s="56" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D36" s="56" t="s">
         <v>312</v>
@@ -15437,7 +15601,7 @@
     </row>
     <row r="37" spans="2:15" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C37" s="56" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D37" s="56" t="s">
         <v>313</v>
@@ -15447,35 +15611,35 @@
     </row>
     <row r="38" spans="2:15" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C38" s="56" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D38" s="58" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
     </row>
     <row r="40" spans="2:15" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B40" s="56" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
     </row>
     <row r="41" spans="2:15" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C41" s="56" t="s">
+        <v>721</v>
+      </c>
+      <c r="D41" s="14" t="s">
         <v>722</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="E41" s="14" t="s">
         <v>723</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="42" spans="2:15" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C42" s="56" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>308</v>
@@ -15484,7 +15648,7 @@
     </row>
     <row r="43" spans="2:15" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C43" s="56" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>309</v>
@@ -15493,7 +15657,7 @@
     </row>
     <row r="44" spans="2:15" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C44" s="56" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>308</v>
@@ -15502,7 +15666,7 @@
     </row>
     <row r="45" spans="2:15" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C45" s="56" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>309</v>
@@ -15511,7 +15675,7 @@
     </row>
     <row r="46" spans="2:15" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C46" s="56" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>308</v>
@@ -15523,7 +15687,7 @@
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.15">
       <c r="O48" s="29" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.15">
@@ -15531,7 +15695,7 @@
         <v>330</v>
       </c>
       <c r="P49" s="32" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.15">
@@ -15554,7 +15718,7 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A51" s="30" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>331</v>
@@ -15569,7 +15733,7 @@
         <v>334</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>340</v>
@@ -15578,10 +15742,10 @@
         <v>336</v>
       </c>
       <c r="J51" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="K51" s="56" t="s">
         <v>734</v>
-      </c>
-      <c r="K51" s="56" t="s">
-        <v>735</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>406</v>
@@ -15590,16 +15754,16 @@
         <v>339</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="O51" s="25" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="P51" s="25" t="s">
+        <v>730</v>
+      </c>
+      <c r="Q51" s="25" t="s">
         <v>731</v>
-      </c>
-      <c r="Q51" s="25" t="s">
-        <v>732</v>
       </c>
       <c r="R51" s="1" t="s">
         <v>379</v>
@@ -15607,7 +15771,7 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A52" s="32" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C52" s="1">
         <v>1</v>
@@ -15633,14 +15797,14 @@
       <c r="K52" s="56">
         <v>102</v>
       </c>
-      <c r="L52" s="1" t="s">
+      <c r="L52" s="58" t="s">
         <v>387</v>
       </c>
-      <c r="M52" s="1" t="s">
+      <c r="M52" s="58" t="s">
         <v>407</v>
       </c>
-      <c r="N52" s="1">
-        <v>10</v>
+      <c r="N52" s="58">
+        <v>1</v>
       </c>
       <c r="O52" s="25">
         <v>10001</v>
@@ -15660,14 +15824,14 @@
       <c r="F53" s="28">
         <v>2</v>
       </c>
-      <c r="L53" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="N53" s="1">
-        <v>10</v>
+      <c r="L53" s="58" t="s">
+        <v>410</v>
+      </c>
+      <c r="M53" s="58" t="s">
+        <v>407</v>
+      </c>
+      <c r="N53" s="58">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.15">
@@ -15678,8 +15842,8 @@
       <c r="L54" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="M54" s="1" t="s">
-        <v>408</v>
+      <c r="M54" s="70" t="s">
+        <v>413</v>
       </c>
       <c r="N54" s="1">
         <v>10</v>
@@ -15689,8 +15853,8 @@
       <c r="L55" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="M55" s="1" t="s">
-        <v>408</v>
+      <c r="M55" s="70" t="s">
+        <v>413</v>
       </c>
       <c r="N55" s="1">
         <v>10</v>
@@ -15698,10 +15862,10 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.15">
       <c r="L56" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N56" s="1">
         <v>10</v>
@@ -15712,7 +15876,7 @@
         <v>396</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N57" s="1">
         <v>50</v>
@@ -15720,10 +15884,10 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.15">
       <c r="L58" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="N58" s="1">
         <v>10</v>
@@ -15742,10 +15906,10 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.15">
       <c r="L60" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N60" s="1">
         <v>10</v>
@@ -15753,10 +15917,10 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.15">
       <c r="L61" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N61" s="1">
         <v>10</v>
@@ -15764,10 +15928,10 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.15">
       <c r="L62" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N62" s="1">
         <v>10</v>
@@ -15775,10 +15939,10 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.15">
       <c r="L63" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N63" s="1">
         <v>10</v>
@@ -15786,10 +15950,10 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.15">
       <c r="L64" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N64" s="1">
         <v>10</v>
@@ -15797,10 +15961,10 @@
     </row>
     <row r="65" spans="3:15" x14ac:dyDescent="0.15">
       <c r="L65" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N65" s="1">
         <v>10</v>
@@ -15808,10 +15972,10 @@
     </row>
     <row r="66" spans="3:15" x14ac:dyDescent="0.15">
       <c r="L66" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N66" s="1">
         <v>10</v>
@@ -15819,10 +15983,10 @@
     </row>
     <row r="67" spans="3:15" x14ac:dyDescent="0.15">
       <c r="L67" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N67" s="1">
         <v>10</v>
@@ -15830,10 +15994,10 @@
     </row>
     <row r="68" spans="3:15" x14ac:dyDescent="0.15">
       <c r="L68" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N68" s="1">
         <v>10</v>
@@ -15851,7 +16015,7 @@
         <v>30001</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F70" s="1">
         <v>2</v>
@@ -15880,7 +16044,7 @@
         <v>30002</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F71" s="1">
         <v>2</v>
@@ -15927,57 +16091,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C32" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B53" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C54" s="1" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B62" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C63" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B76" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C77" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
   </sheetData>
@@ -15989,94 +16153,143 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C24"/>
+  <dimension ref="A2:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="70"/>
+    <col min="1" max="2" width="9" style="70"/>
+    <col min="3" max="3" width="38.75" style="70" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="70"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="70" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B3" s="70" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B3" s="70" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C4" s="70" t="s">
+        <v>793</v>
+      </c>
+      <c r="D4" s="70" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C5" s="70" t="s">
+        <v>794</v>
+      </c>
+      <c r="D5" s="70" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C6" s="70" t="s">
+        <v>795</v>
+      </c>
+      <c r="D6" s="70" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C7" s="70" t="s">
+        <v>796</v>
+      </c>
+      <c r="D7" s="70" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C8" s="70" t="s">
+        <v>797</v>
+      </c>
+      <c r="D8" s="70" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C9" s="70" t="s">
+        <v>798</v>
+      </c>
+      <c r="D9" s="70" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C10" s="70" t="s">
+        <v>799</v>
+      </c>
+      <c r="D10" s="70" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C11" s="70" t="s">
+        <v>800</v>
+      </c>
+      <c r="D11" s="70" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C12" s="70" t="s">
+        <v>801</v>
+      </c>
+      <c r="D12" s="70" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B15" s="70" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C16" s="70" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="70" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B22" s="70" t="s">
+        <v>784</v>
+      </c>
+      <c r="C22" s="70" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C4" s="70" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C5" s="70" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C6" s="70" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C7" s="70" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C8" s="70" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B10" s="70" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="70" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C11" s="70" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B28" s="70" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="70" t="s">
+      <c r="C28" s="70" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B17" s="70" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B29" s="70" t="s">
         <v>790</v>
       </c>
-      <c r="C17" s="70" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="70" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B23" s="70" t="s">
-        <v>794</v>
-      </c>
-      <c r="C23" s="70" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B24" s="70" t="s">
-        <v>796</v>
-      </c>
-      <c r="C24" s="70" t="s">
-        <v>795</v>
+      <c r="C29" s="70" t="s">
+        <v>789</v>
       </c>
     </row>
   </sheetData>
@@ -16129,7 +16342,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="30" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>277</v>
@@ -16140,7 +16353,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="32" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>278</v>
@@ -16230,15 +16443,15 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B20" s="65" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C21" s="66" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
   </sheetData>

--- a/gd/任务系统/新版任务系统设计.xlsx
+++ b/gd/任务系统/新版任务系统设计.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn（策划）\任务系统\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="20475" windowHeight="8055"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="20475" windowHeight="8055" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -70,7 +75,7 @@
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="D23" authorId="0">
+    <comment ref="D23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -97,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C51" authorId="0">
+    <comment ref="C51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -127,7 +132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D51" authorId="0">
+    <comment ref="D51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -155,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E51" authorId="0">
+    <comment ref="E51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -181,7 +186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F51" authorId="0">
+    <comment ref="F51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -209,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G51" authorId="0">
+    <comment ref="G51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -235,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I51" authorId="0">
+    <comment ref="I51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -262,7 +267,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J51" authorId="1">
+    <comment ref="J51" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -288,7 +293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K51" authorId="1">
+    <comment ref="K51" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -314,7 +319,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L51" authorId="0">
+    <comment ref="L51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -357,7 +362,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M51" authorId="0">
+    <comment ref="M51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -383,7 +388,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O51" authorId="0">
+    <comment ref="O51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -410,7 +415,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P51" authorId="0">
+    <comment ref="P51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -436,7 +441,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q51" authorId="0">
+    <comment ref="Q51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -467,7 +472,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="818">
   <si>
     <t>文档名称</t>
   </si>
@@ -1071,9 +1076,6 @@
   </si>
   <si>
     <t>主线任务为一条线性任务链，完成前一个任务时后一个任务自动接取</t>
-  </si>
-  <si>
-    <t>第一个主线任务也是玩家进入游戏自动接取</t>
   </si>
   <si>
     <t>剧情任务</t>
@@ -4251,6 +4253,26 @@
   </si>
   <si>
     <t>qc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次通关奖励任务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家首次通关副本时，发放给玩家的奖励</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一个主线任务也是玩家进入游戏自动接取</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>同主线任务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>别忘了首次副本通关</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4679,6 +4701,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -8807,7 +8832,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -8849,7 +8874,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8884,7 +8909,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9095,7 +9120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
@@ -9294,7 +9319,7 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C12" s="7">
         <v>42150</v>
@@ -9305,10 +9330,10 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>209</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -9323,7 +9348,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -9338,7 +9363,7 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="27" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -9353,7 +9378,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -9368,7 +9393,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="27" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -9383,7 +9408,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="27" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -9398,7 +9423,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="27" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -9413,7 +9438,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="4"/>
       <c r="H19" s="27" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -9429,7 +9454,7 @@
       <c r="F20" s="5"/>
       <c r="G20" s="4"/>
       <c r="H20" s="27" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -9445,7 +9470,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="4"/>
       <c r="H21" s="27" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -9461,7 +9486,7 @@
       <c r="F22" s="5"/>
       <c r="G22" s="4"/>
       <c r="H22" s="27" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -9471,21 +9496,21 @@
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C23" s="7">
         <v>42154</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="5"/>
       <c r="G23" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="H23" s="27" t="s">
         <v>377</v>
-      </c>
-      <c r="H23" s="27" t="s">
-        <v>378</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -9501,7 +9526,7 @@
       <c r="F24" s="5"/>
       <c r="G24" s="4"/>
       <c r="H24" s="27" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -9517,7 +9542,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="4"/>
       <c r="H25" s="27" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -9533,7 +9558,7 @@
       <c r="F26" s="5"/>
       <c r="G26" s="4"/>
       <c r="H26" s="27" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -9549,7 +9574,7 @@
       <c r="F27" s="5"/>
       <c r="G27" s="4"/>
       <c r="H27" s="27" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -9559,21 +9584,21 @@
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C28" s="7">
         <v>42156</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="5"/>
       <c r="G28" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="H28" s="27" t="s">
         <v>620</v>
-      </c>
-      <c r="H28" s="27" t="s">
-        <v>621</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -9589,7 +9614,7 @@
       <c r="F29" s="5"/>
       <c r="G29" s="4"/>
       <c r="H29" s="27" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -9605,7 +9630,7 @@
       <c r="F30" s="5"/>
       <c r="G30" s="4"/>
       <c r="H30" s="27" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -9615,21 +9640,21 @@
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C31" s="7">
         <v>42159</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="5"/>
       <c r="G31" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="H31" s="59" t="s">
         <v>648</v>
-      </c>
-      <c r="H31" s="59" t="s">
-        <v>649</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -9645,7 +9670,7 @@
       <c r="F32" s="5"/>
       <c r="G32" s="4"/>
       <c r="H32" s="59" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -9661,7 +9686,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="4"/>
       <c r="H33" s="57" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -9677,7 +9702,7 @@
       <c r="F34" s="5"/>
       <c r="G34" s="4"/>
       <c r="H34" s="59" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -9693,7 +9718,7 @@
       <c r="F35" s="5"/>
       <c r="G35" s="4"/>
       <c r="H35" s="59" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -9709,7 +9734,7 @@
       <c r="F36" s="5"/>
       <c r="G36" s="57"/>
       <c r="H36" s="59" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I36" s="57"/>
       <c r="J36" s="57"/>
@@ -9725,7 +9750,7 @@
       <c r="F37" s="5"/>
       <c r="G37" s="57"/>
       <c r="H37" s="59" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="I37" s="57"/>
       <c r="J37" s="57"/>
@@ -9741,7 +9766,7 @@
       <c r="F38" s="5"/>
       <c r="G38" s="57"/>
       <c r="H38" s="59" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="I38" s="57"/>
       <c r="J38" s="57"/>
@@ -9757,7 +9782,7 @@
       <c r="F39" s="5"/>
       <c r="G39" s="57"/>
       <c r="H39" s="59" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="I39" s="57"/>
       <c r="J39" s="57"/>
@@ -9773,7 +9798,7 @@
       <c r="F40" s="5"/>
       <c r="G40" s="4"/>
       <c r="H40" s="59" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
@@ -9783,21 +9808,21 @@
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="4" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C41" s="7">
         <v>42163</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="5"/>
       <c r="G41" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="H41" s="73" t="s">
         <v>750</v>
-      </c>
-      <c r="H41" s="73" t="s">
-        <v>751</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
@@ -9813,7 +9838,7 @@
       <c r="F42" s="5"/>
       <c r="G42" s="57"/>
       <c r="H42" s="73" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="I42" s="57"/>
       <c r="J42" s="57"/>
@@ -9829,7 +9854,7 @@
       <c r="F43" s="5"/>
       <c r="G43" s="57"/>
       <c r="H43" s="73" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="I43" s="57"/>
       <c r="J43" s="57"/>
@@ -9845,7 +9870,7 @@
       <c r="F44" s="5"/>
       <c r="G44" s="57"/>
       <c r="H44" s="73" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I44" s="57"/>
       <c r="J44" s="57"/>
@@ -9861,7 +9886,7 @@
       <c r="F45" s="5"/>
       <c r="G45" s="57"/>
       <c r="H45" s="73" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I45" s="57"/>
       <c r="J45" s="57"/>
@@ -9877,7 +9902,7 @@
       <c r="F46" s="5"/>
       <c r="G46" s="57"/>
       <c r="H46" s="71" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="I46" s="57"/>
       <c r="J46" s="57"/>
@@ -9893,7 +9918,7 @@
       <c r="F47" s="5"/>
       <c r="G47" s="57"/>
       <c r="H47" s="57" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="I47" s="57"/>
       <c r="J47" s="57"/>
@@ -9903,21 +9928,21 @@
     <row r="48" spans="1:12" s="70" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
       <c r="B48" s="71" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C48" s="7">
         <v>42164</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="5"/>
       <c r="G48" s="71" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H48" s="73" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="I48" s="71"/>
       <c r="J48" s="71"/>
@@ -9927,21 +9952,21 @@
     <row r="49" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
       <c r="B49" s="71" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C49" s="7">
         <v>42166</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="5"/>
       <c r="G49" s="71" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H49" s="73" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I49" s="71"/>
       <c r="J49" s="71"/>
@@ -10046,53 +10071,53 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B56" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C56" s="69">
         <v>42161</v>
       </c>
       <c r="D56" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="H56" s="26" t="s">
         <v>696</v>
-      </c>
-      <c r="H56" s="26" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.15">
       <c r="H57" s="26" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.15">
       <c r="H58" s="26" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.15">
       <c r="H59" s="26" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.15">
       <c r="H60" s="26" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="L60" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="N60" s="1" t="s">
         <v>743</v>
-      </c>
-      <c r="N60" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.15">
       <c r="H61" s="26" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
@@ -10104,37 +10129,37 @@
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="59" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
       <c r="L62" s="10"/>
       <c r="N62" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.15">
       <c r="H63" s="26" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.15">
       <c r="H64" s="26" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="65" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H65" s="56" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="66" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H66" s="26" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="67" spans="8:12" x14ac:dyDescent="0.15">
@@ -10210,7 +10235,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B1" s="29" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>62</v>
@@ -10218,10 +10243,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="30" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>63</v>
@@ -10229,23 +10254,23 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="32" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="29" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" s="32" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C32" s="35"/>
       <c r="D32" s="33" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
@@ -10254,7 +10279,7 @@
       <c r="C33" s="35"/>
       <c r="D33" s="33"/>
       <c r="E33" s="33" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F33" s="33"/>
     </row>
@@ -10280,7 +10305,7 @@
     <row r="38" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C38" s="35"/>
       <c r="D38" s="33" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E38" s="33"/>
       <c r="F38" s="33"/>
@@ -10295,10 +10320,10 @@
       <c r="C39" s="35"/>
       <c r="D39" s="33"/>
       <c r="E39" s="33" t="s">
+        <v>611</v>
+      </c>
+      <c r="F39" s="33" t="s">
         <v>612</v>
-      </c>
-      <c r="F39" s="33" t="s">
-        <v>613</v>
       </c>
       <c r="G39" s="33"/>
       <c r="H39" s="33"/>
@@ -10311,10 +10336,10 @@
       <c r="C40" s="35"/>
       <c r="D40" s="33"/>
       <c r="E40" s="33" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F40" s="33" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G40" s="33"/>
       <c r="H40" s="33"/>
@@ -10327,10 +10352,10 @@
       <c r="C41" s="35"/>
       <c r="D41" s="33"/>
       <c r="E41" s="33" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F41" s="33" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G41" s="33"/>
       <c r="H41" s="33"/>
@@ -10369,13 +10394,13 @@
       <c r="C44" s="35"/>
       <c r="D44" s="33"/>
       <c r="E44" s="33" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
       <c r="H44" s="33"/>
       <c r="I44" s="33" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J44" s="33"/>
       <c r="K44" s="33"/>
@@ -10386,13 +10411,13 @@
       <c r="D45" s="33"/>
       <c r="E45" s="33"/>
       <c r="F45" s="33" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G45" s="33"/>
       <c r="H45" s="33"/>
       <c r="I45" s="33"/>
       <c r="J45" s="33" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K45" s="33"/>
       <c r="L45" s="33"/>
@@ -10401,13 +10426,13 @@
       <c r="C46" s="35"/>
       <c r="D46" s="33"/>
       <c r="E46" s="33" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F46" s="33"/>
       <c r="G46" s="33"/>
       <c r="H46" s="33"/>
       <c r="I46" s="33" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J46" s="33"/>
       <c r="K46" s="33"/>
@@ -10418,13 +10443,13 @@
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
       <c r="F47" s="33" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G47" s="33"/>
       <c r="H47" s="33"/>
       <c r="I47" s="33"/>
       <c r="J47" s="33" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K47" s="33"/>
       <c r="L47" s="33"/>
@@ -10433,13 +10458,13 @@
       <c r="C48" s="35"/>
       <c r="D48" s="33"/>
       <c r="E48" s="33" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F48" s="33"/>
       <c r="G48" s="33"/>
       <c r="H48" s="33"/>
       <c r="I48" s="33" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J48" s="33"/>
       <c r="K48" s="33"/>
@@ -10450,13 +10475,13 @@
       <c r="D49" s="33"/>
       <c r="E49" s="33"/>
       <c r="F49" s="33" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G49" s="33"/>
       <c r="H49" s="33"/>
       <c r="I49" s="33"/>
       <c r="J49" s="33" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K49" s="33"/>
       <c r="L49" s="33"/>
@@ -10465,14 +10490,14 @@
       <c r="C50" s="35"/>
       <c r="D50" s="33"/>
       <c r="E50" s="33" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F50" s="33"/>
       <c r="G50" s="33"/>
       <c r="H50" s="33"/>
       <c r="I50" s="33"/>
       <c r="J50" s="33" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K50" s="33"/>
       <c r="L50" s="33"/>
@@ -10482,7 +10507,7 @@
       <c r="D51" s="33"/>
       <c r="E51" s="33"/>
       <c r="F51" s="33" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G51" s="33"/>
       <c r="H51" s="33"/>
@@ -10495,7 +10520,7 @@
       <c r="C52" s="35"/>
       <c r="D52" s="33"/>
       <c r="E52" s="33" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
@@ -10510,7 +10535,7 @@
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="33" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G53" s="33"/>
       <c r="H53" s="33"/>
@@ -10549,13 +10574,13 @@
       <c r="C56" s="35"/>
       <c r="D56" s="33"/>
       <c r="E56" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F56" s="33"/>
       <c r="G56" s="33"/>
       <c r="H56" s="33"/>
       <c r="I56" s="33" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J56" s="33"/>
       <c r="K56" s="33"/>
@@ -10566,13 +10591,13 @@
       <c r="D57" s="33"/>
       <c r="E57" s="33"/>
       <c r="F57" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G57" s="33"/>
       <c r="H57" s="33"/>
       <c r="I57" s="33"/>
       <c r="J57" s="33" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K57" s="33"/>
       <c r="L57" s="33"/>
@@ -10581,13 +10606,13 @@
       <c r="C58" s="35"/>
       <c r="D58" s="33"/>
       <c r="E58" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F58" s="33"/>
       <c r="G58" s="33"/>
       <c r="H58" s="33"/>
       <c r="I58" s="33" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="J58" s="33"/>
       <c r="K58" s="33"/>
@@ -10598,13 +10623,13 @@
       <c r="D59" s="33"/>
       <c r="E59" s="33"/>
       <c r="F59" s="33" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G59" s="33"/>
       <c r="H59" s="33"/>
       <c r="I59" s="33"/>
       <c r="J59" s="33" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="K59" s="33"/>
       <c r="L59" s="33"/>
@@ -10613,13 +10638,13 @@
       <c r="C60" s="35"/>
       <c r="D60" s="33"/>
       <c r="E60" s="33" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F60" s="33"/>
       <c r="G60" s="33"/>
       <c r="H60" s="33"/>
       <c r="I60" s="33" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J60" s="33"/>
       <c r="K60" s="33"/>
@@ -10630,13 +10655,13 @@
       <c r="D61" s="33"/>
       <c r="E61" s="33"/>
       <c r="F61" s="33" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G61" s="33"/>
       <c r="H61" s="33"/>
       <c r="I61" s="33"/>
       <c r="J61" s="33" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K61" s="33"/>
       <c r="L61" s="33"/>
@@ -10645,13 +10670,13 @@
       <c r="C62" s="35"/>
       <c r="D62" s="33"/>
       <c r="E62" s="33" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F62" s="33"/>
       <c r="G62" s="33"/>
       <c r="H62" s="33"/>
       <c r="I62" s="33" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J62" s="33"/>
       <c r="K62" s="33"/>
@@ -10662,15 +10687,15 @@
       <c r="D63" s="33"/>
       <c r="E63" s="33"/>
       <c r="F63" s="33" t="s">
+        <v>611</v>
+      </c>
+      <c r="G63" s="33" t="s">
         <v>612</v>
-      </c>
-      <c r="G63" s="33" t="s">
-        <v>613</v>
       </c>
       <c r="H63" s="33"/>
       <c r="I63" s="33"/>
       <c r="J63" s="33" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K63" s="33"/>
       <c r="L63" s="33"/>
@@ -10680,15 +10705,15 @@
       <c r="D64" s="33"/>
       <c r="E64" s="33"/>
       <c r="F64" s="33" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G64" s="33" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H64" s="33"/>
       <c r="I64" s="33"/>
       <c r="J64" s="33" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K64" s="33"/>
       <c r="L64" s="33"/>
@@ -10697,14 +10722,14 @@
       <c r="C65" s="35"/>
       <c r="D65" s="33"/>
       <c r="E65" s="33" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F65" s="33"/>
       <c r="G65" s="33"/>
       <c r="H65" s="33"/>
       <c r="I65" s="33"/>
       <c r="J65" s="33" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K65" s="33"/>
       <c r="L65" s="33"/>
@@ -10714,7 +10739,7 @@
       <c r="D66" s="33"/>
       <c r="E66" s="33"/>
       <c r="F66" s="33" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G66" s="33"/>
       <c r="H66" s="33"/>
@@ -10728,7 +10753,7 @@
       <c r="D67" s="33"/>
       <c r="E67" s="33"/>
       <c r="F67" s="33" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G67" s="33"/>
       <c r="H67" s="33"/>
@@ -10742,7 +10767,7 @@
       <c r="D68" s="33"/>
       <c r="E68" s="33"/>
       <c r="F68" s="33" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G68" s="33"/>
       <c r="H68" s="33"/>
@@ -10766,7 +10791,7 @@
       <c r="C70" s="53"/>
       <c r="D70" s="58"/>
       <c r="E70" s="58" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F70" s="58"/>
       <c r="G70" s="58"/>
@@ -10781,7 +10806,7 @@
       <c r="D71" s="58"/>
       <c r="E71" s="58"/>
       <c r="F71" s="58" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G71" s="58"/>
       <c r="H71" s="58"/>
@@ -10795,7 +10820,7 @@
       <c r="D72" s="58"/>
       <c r="E72" s="58"/>
       <c r="F72" s="58" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G72" s="58">
         <v>1</v>
@@ -10811,13 +10836,13 @@
       <c r="D73" s="58"/>
       <c r="E73" s="58"/>
       <c r="F73" s="58" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G73" s="58">
         <v>10</v>
       </c>
       <c r="H73" s="58" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I73" s="58"/>
       <c r="J73" s="58"/>
@@ -10829,13 +10854,13 @@
       <c r="D74" s="58"/>
       <c r="E74" s="58"/>
       <c r="F74" s="68" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G74" s="64">
         <v>20</v>
       </c>
       <c r="H74" s="58" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I74" s="58"/>
       <c r="J74" s="58"/>
@@ -10847,7 +10872,7 @@
       <c r="D75" s="58"/>
       <c r="E75" s="58"/>
       <c r="F75" s="58" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G75" s="58"/>
       <c r="H75" s="58"/>
@@ -10875,7 +10900,7 @@
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A91" s="30" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E91" s="64" t="s">
         <v>32</v>
@@ -10896,7 +10921,7 @@
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A92" s="38" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E92" s="64"/>
       <c r="F92" s="64" t="s">
@@ -10917,14 +10942,14 @@
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A93" s="30" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B93" s="29" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E93" s="64"/>
       <c r="F93" s="64" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G93" s="64"/>
       <c r="H93" s="64"/>
@@ -10932,7 +10957,7 @@
       <c r="J93" s="64"/>
       <c r="K93" s="64"/>
       <c r="L93" s="64" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="M93" s="64"/>
       <c r="N93" s="64"/>
@@ -10941,15 +10966,15 @@
       <c r="Q93" s="64"/>
       <c r="R93" s="64"/>
       <c r="S93" s="58" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A94" s="38" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B94" s="38" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E94" s="64"/>
       <c r="F94" s="64" t="s">
@@ -10961,7 +10986,7 @@
       <c r="J94" s="64"/>
       <c r="K94" s="64"/>
       <c r="L94" s="64" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="M94" s="64"/>
       <c r="N94" s="64"/>
@@ -10974,10 +10999,10 @@
       <c r="E95" s="64"/>
       <c r="F95" s="64"/>
       <c r="G95" s="64" t="s">
+        <v>629</v>
+      </c>
+      <c r="H95" s="64" t="s">
         <v>630</v>
-      </c>
-      <c r="H95" s="64" t="s">
-        <v>631</v>
       </c>
       <c r="I95" s="64"/>
       <c r="J95" s="64"/>
@@ -10994,10 +11019,10 @@
       <c r="E96" s="64"/>
       <c r="F96" s="64"/>
       <c r="G96" s="64" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H96" s="64" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I96" s="64"/>
       <c r="J96" s="64"/>
@@ -11014,10 +11039,10 @@
       <c r="E97" s="64"/>
       <c r="F97" s="64"/>
       <c r="G97" s="64" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H97" s="64" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I97" s="64"/>
       <c r="J97" s="64"/>
@@ -11048,7 +11073,7 @@
     </row>
     <row r="99" spans="1:18" ht="33" x14ac:dyDescent="0.15">
       <c r="A99" s="31" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E99" s="33" t="s">
         <v>35</v>
@@ -11062,7 +11087,7 @@
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A100" s="38" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E100" s="33"/>
       <c r="F100" s="33" t="s">
@@ -11078,7 +11103,7 @@
       <c r="A101" s="38"/>
       <c r="E101" s="33"/>
       <c r="F101" s="33" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G101" s="33"/>
       <c r="H101" s="33"/>
@@ -11099,11 +11124,11 @@
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A103" s="30" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E103" s="33"/>
       <c r="F103" s="33" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G103" s="33"/>
       <c r="H103" s="33"/>
@@ -11113,7 +11138,7 @@
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A104" s="32" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E104" s="33"/>
       <c r="F104" s="33" t="s">
@@ -11148,30 +11173,30 @@
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.15">
       <c r="F109" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.15">
       <c r="F110" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A111" s="30" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A112" s="32" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.15">
       <c r="F113" s="33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G113" s="33"/>
       <c r="H113" s="33"/>
@@ -11183,11 +11208,11 @@
     </row>
     <row r="114" spans="1:13" ht="33" x14ac:dyDescent="0.15">
       <c r="A114" s="31" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F114" s="33"/>
       <c r="G114" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H114" s="33"/>
       <c r="I114" s="33"/>
@@ -11198,11 +11223,11 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A115" s="34" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F115" s="33"/>
       <c r="G115" s="33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H115" s="33"/>
       <c r="I115" s="33"/>
@@ -11218,11 +11243,11 @@
       <c r="F116" s="33"/>
       <c r="G116" s="33"/>
       <c r="H116" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I116" s="33"/>
       <c r="J116" s="33" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K116" s="33"/>
       <c r="L116" s="33"/>
@@ -11235,11 +11260,11 @@
       <c r="F117" s="33"/>
       <c r="G117" s="33"/>
       <c r="H117" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I117" s="33"/>
       <c r="J117" s="33" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K117" s="33"/>
       <c r="L117" s="33"/>
@@ -11252,11 +11277,11 @@
       <c r="F118" s="33"/>
       <c r="G118" s="33"/>
       <c r="H118" s="33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I118" s="33"/>
       <c r="J118" s="33" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K118" s="33"/>
       <c r="L118" s="33"/>
@@ -11269,11 +11294,11 @@
       <c r="F119" s="33"/>
       <c r="G119" s="33"/>
       <c r="H119" s="33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I119" s="33"/>
       <c r="J119" s="33" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K119" s="33"/>
       <c r="L119" s="33"/>
@@ -11285,7 +11310,7 @@
       <c r="E120" s="56"/>
       <c r="F120" s="33"/>
       <c r="G120" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H120" s="33"/>
       <c r="I120" s="33"/>
@@ -11301,11 +11326,11 @@
       <c r="F121" s="33"/>
       <c r="G121" s="33"/>
       <c r="H121" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I121" s="33"/>
       <c r="J121" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K121" s="33"/>
       <c r="L121" s="33"/>
@@ -11318,11 +11343,11 @@
       <c r="F122" s="33"/>
       <c r="G122" s="33"/>
       <c r="H122" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I122" s="33"/>
       <c r="J122" s="33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K122" s="33"/>
       <c r="L122" s="33"/>
@@ -11334,7 +11359,7 @@
       <c r="E123" s="56"/>
       <c r="F123" s="33"/>
       <c r="G123" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H123" s="33"/>
       <c r="I123" s="33"/>
@@ -11350,11 +11375,11 @@
       <c r="F124" s="33"/>
       <c r="G124" s="33"/>
       <c r="H124" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I124" s="33"/>
       <c r="J124" s="33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K124" s="33"/>
       <c r="L124" s="33"/>
@@ -11366,7 +11391,7 @@
       <c r="E125" s="56"/>
       <c r="F125" s="33"/>
       <c r="G125" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H125" s="33"/>
       <c r="I125" s="33"/>
@@ -11382,11 +11407,11 @@
       <c r="F126" s="33"/>
       <c r="G126" s="33"/>
       <c r="H126" s="33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I126" s="33"/>
       <c r="J126" s="33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K126" s="33"/>
       <c r="L126" s="33"/>
@@ -11398,7 +11423,7 @@
       <c r="E127" s="56"/>
       <c r="F127" s="33"/>
       <c r="G127" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H127" s="33"/>
       <c r="I127" s="33"/>
@@ -11414,11 +11439,11 @@
       <c r="F128" s="33"/>
       <c r="G128" s="33"/>
       <c r="H128" s="33" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I128" s="33"/>
       <c r="J128" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K128" s="33"/>
       <c r="L128" s="33"/>
@@ -11426,14 +11451,14 @@
     </row>
     <row r="129" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B129" s="29" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C129" s="53"/>
       <c r="D129" s="56"/>
       <c r="E129" s="56"/>
       <c r="F129" s="33"/>
       <c r="G129" s="36" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H129" s="36"/>
       <c r="I129" s="36"/>
@@ -11444,7 +11469,7 @@
     </row>
     <row r="130" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B130" s="32" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C130" s="53"/>
       <c r="D130" s="56"/>
@@ -11452,11 +11477,11 @@
       <c r="F130" s="33"/>
       <c r="G130" s="36"/>
       <c r="H130" s="36" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I130" s="36"/>
       <c r="J130" s="36" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K130" s="36"/>
       <c r="L130" s="33"/>
@@ -11464,14 +11489,14 @@
     </row>
     <row r="131" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B131" s="29" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C131" s="53"/>
       <c r="D131" s="56"/>
       <c r="E131" s="56"/>
       <c r="F131" s="33"/>
       <c r="G131" s="33" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H131" s="33"/>
       <c r="I131" s="33"/>
@@ -11482,7 +11507,7 @@
     </row>
     <row r="132" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B132" s="32" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C132" s="53"/>
       <c r="D132" s="56"/>
@@ -11490,11 +11515,11 @@
       <c r="F132" s="33"/>
       <c r="G132" s="33"/>
       <c r="H132" s="33" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I132" s="33"/>
       <c r="J132" s="33" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K132" s="33"/>
       <c r="L132" s="33"/>
@@ -11502,14 +11527,14 @@
     </row>
     <row r="133" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B133" s="29" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C133" s="53"/>
       <c r="D133" s="56"/>
       <c r="E133" s="56"/>
       <c r="F133" s="33"/>
       <c r="G133" s="36" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H133" s="36"/>
       <c r="I133" s="36"/>
@@ -11520,7 +11545,7 @@
     </row>
     <row r="134" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B134" s="32" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C134" s="53"/>
       <c r="D134" s="56"/>
@@ -11528,11 +11553,11 @@
       <c r="F134" s="33"/>
       <c r="G134" s="36"/>
       <c r="H134" s="36" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I134" s="36"/>
       <c r="J134" s="36" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K134" s="36"/>
       <c r="L134" s="33"/>
@@ -11544,7 +11569,7 @@
       <c r="E135" s="56"/>
       <c r="F135" s="33"/>
       <c r="G135" s="33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H135" s="33"/>
       <c r="I135" s="33"/>
@@ -11560,11 +11585,11 @@
       <c r="F136" s="33"/>
       <c r="G136" s="33"/>
       <c r="H136" s="33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I136" s="33"/>
       <c r="J136" s="33" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K136" s="33"/>
       <c r="L136" s="33"/>
@@ -11572,14 +11597,14 @@
     </row>
     <row r="137" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B137" s="29" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C137" s="53"/>
       <c r="D137" s="56"/>
       <c r="E137" s="56"/>
       <c r="F137" s="33"/>
       <c r="G137" s="37" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H137" s="37"/>
       <c r="I137" s="37"/>
@@ -11590,7 +11615,7 @@
     </row>
     <row r="138" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B138" s="32" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C138" s="53"/>
       <c r="D138" s="56"/>
@@ -11598,11 +11623,11 @@
       <c r="F138" s="33"/>
       <c r="G138" s="33"/>
       <c r="H138" s="33" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I138" s="33"/>
       <c r="J138" s="33" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K138" s="33"/>
       <c r="L138" s="33"/>
@@ -11615,7 +11640,7 @@
       <c r="E139" s="56"/>
       <c r="F139" s="33"/>
       <c r="G139" s="33" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H139" s="33"/>
       <c r="I139" s="33"/>
@@ -11632,11 +11657,11 @@
       <c r="F140" s="33"/>
       <c r="G140" s="33"/>
       <c r="H140" s="33" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I140" s="33"/>
       <c r="J140" s="33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K140" s="33"/>
       <c r="L140" s="33"/>
@@ -11646,7 +11671,7 @@
     <row r="141" spans="2:14" x14ac:dyDescent="0.15">
       <c r="F141" s="33"/>
       <c r="G141" s="33" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H141" s="33"/>
       <c r="I141" s="33"/>
@@ -11660,11 +11685,11 @@
       <c r="F142" s="33"/>
       <c r="G142" s="33"/>
       <c r="H142" s="33" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I142" s="33"/>
       <c r="J142" s="33" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="K142" s="33"/>
       <c r="L142" s="33"/>
@@ -11674,7 +11699,7 @@
     <row r="143" spans="2:14" x14ac:dyDescent="0.15">
       <c r="F143" s="33"/>
       <c r="G143" s="33" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H143" s="33"/>
       <c r="I143" s="33"/>
@@ -11688,11 +11713,11 @@
       <c r="F144" s="33"/>
       <c r="G144" s="33"/>
       <c r="H144" s="33" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="I144" s="33"/>
       <c r="J144" s="33" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="K144" s="33"/>
       <c r="L144" s="33"/>
@@ -11701,11 +11726,11 @@
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B145" s="30" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F145" s="33"/>
       <c r="G145" s="33" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H145" s="33"/>
       <c r="I145" s="33"/>
@@ -11717,16 +11742,16 @@
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B146" s="32" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F146" s="33"/>
       <c r="G146" s="33"/>
       <c r="H146" s="33" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I146" s="33"/>
       <c r="J146" s="33" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K146" s="33"/>
       <c r="L146" s="33"/>
@@ -11793,7 +11818,7 @@
     <row r="152" spans="1:14" x14ac:dyDescent="0.15">
       <c r="E152" s="33"/>
       <c r="F152" s="33" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G152" s="33"/>
       <c r="H152" s="33"/>
@@ -11805,14 +11830,14 @@
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A153" s="30" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B153" s="29" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E153" s="33"/>
       <c r="F153" s="33" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G153" s="33"/>
       <c r="H153" s="33"/>
@@ -11824,14 +11849,14 @@
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A154" s="32" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B154" s="32" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E154" s="33"/>
       <c r="F154" s="33" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G154" s="33"/>
       <c r="H154" s="33"/>
@@ -11846,7 +11871,7 @@
       <c r="B155" s="32"/>
       <c r="E155" s="33"/>
       <c r="F155" s="33" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G155" s="33"/>
       <c r="H155" s="33"/>
@@ -11876,12 +11901,12 @@
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B161" s="30" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B162" s="32" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.15">
@@ -11896,7 +11921,7 @@
     </row>
     <row r="176" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F176" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.15">
@@ -11917,7 +11942,7 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F185" s="33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G185" s="33"/>
       <c r="H185" s="33"/>
@@ -11939,7 +11964,7 @@
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A187" s="30" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F187" s="33"/>
       <c r="G187" s="33" t="s">
@@ -11953,13 +11978,13 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A188" s="32" t="s">
+        <v>538</v>
+      </c>
+      <c r="B188" s="29" t="s">
+        <v>424</v>
+      </c>
+      <c r="C188" s="32" t="s">
         <v>539</v>
-      </c>
-      <c r="B188" s="29" t="s">
-        <v>425</v>
-      </c>
-      <c r="C188" s="32" t="s">
-        <v>540</v>
       </c>
       <c r="F188" s="33" t="s">
         <v>53</v>
@@ -11973,13 +11998,13 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A189" s="30" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B189" s="29" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C189" s="32" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F189" s="33"/>
       <c r="G189" s="33" t="s">
@@ -11993,7 +12018,7 @@
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A190" s="32" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F190" s="33"/>
       <c r="G190" s="33" t="s">
@@ -12007,11 +12032,11 @@
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A191" s="30" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F191" s="33"/>
       <c r="G191" s="33" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H191" s="33"/>
       <c r="I191" s="33"/>
@@ -12021,12 +12046,12 @@
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A192" s="32" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F192" s="33"/>
       <c r="G192" s="33"/>
       <c r="H192" s="33" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I192" s="33"/>
       <c r="J192" s="33"/>
@@ -12089,10 +12114,10 @@
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A198" s="30" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F198" s="33" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G198" s="33"/>
       <c r="H198" s="33"/>
@@ -12103,10 +12128,10 @@
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A199" s="32" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B199" s="30" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F199" s="33"/>
       <c r="G199" s="33" t="s">
@@ -12118,12 +12143,12 @@
       <c r="K199" s="33"/>
       <c r="L199" s="33"/>
       <c r="M199" s="26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B200" s="32" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F200" s="33" t="s">
         <v>57</v>
@@ -12158,13 +12183,13 @@
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A203" s="30" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B203" s="32" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F203" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G203" s="33"/>
       <c r="H203" s="33"/>
@@ -12175,14 +12200,14 @@
     </row>
     <row r="204" spans="1:13" ht="33" x14ac:dyDescent="0.15">
       <c r="A204" s="31" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B204" s="32" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E204" s="33"/>
       <c r="F204" s="33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G204" s="33"/>
       <c r="H204" s="33"/>
@@ -12197,7 +12222,7 @@
       <c r="C205" s="53"/>
       <c r="E205" s="61"/>
       <c r="F205" s="61" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G205" s="61"/>
       <c r="H205" s="61"/>
@@ -12233,11 +12258,11 @@
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A208" s="30" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E208" s="33"/>
       <c r="F208" s="33" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G208" s="33"/>
       <c r="H208" s="33"/>
@@ -12247,7 +12272,7 @@
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A209" s="32" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E209" s="33"/>
       <c r="F209" s="33" t="s">
@@ -12283,7 +12308,7 @@
       <c r="C212" s="53"/>
       <c r="E212" s="61"/>
       <c r="F212" s="61" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="G212" s="61"/>
       <c r="H212" s="61"/>
@@ -12296,7 +12321,7 @@
       <c r="E213" s="61"/>
       <c r="F213" s="61"/>
       <c r="G213" s="61" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H213" s="61"/>
       <c r="I213" s="61"/>
@@ -12308,7 +12333,7 @@
       <c r="E214" s="61"/>
       <c r="F214" s="61"/>
       <c r="G214" s="61" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H214" s="61"/>
       <c r="I214" s="61"/>
@@ -12320,7 +12345,7 @@
       <c r="E215" s="61"/>
       <c r="F215" s="61"/>
       <c r="G215" s="58" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H215" s="61"/>
       <c r="I215" s="61"/>
@@ -12349,16 +12374,16 @@
     </row>
     <row r="230" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B230" s="29" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="231" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B231" s="32" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D231" s="33"/>
       <c r="E231" s="33" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F231" s="33"/>
       <c r="G231" s="33"/>
@@ -12372,7 +12397,7 @@
       <c r="D232" s="33"/>
       <c r="E232" s="33"/>
       <c r="F232" s="33" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G232" s="33"/>
       <c r="H232" s="33"/>
@@ -12384,7 +12409,7 @@
     <row r="233" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D233" s="33"/>
       <c r="E233" s="33" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F233" s="33"/>
       <c r="G233" s="33"/>
@@ -12398,7 +12423,7 @@
       <c r="D234" s="33"/>
       <c r="E234" s="33"/>
       <c r="F234" s="33" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G234" s="33"/>
       <c r="H234" s="33"/>
@@ -12410,7 +12435,7 @@
     <row r="235" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D235" s="33"/>
       <c r="E235" s="33" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F235" s="33"/>
       <c r="G235" s="33"/>
@@ -12424,10 +12449,10 @@
       <c r="D236" s="33"/>
       <c r="E236" s="33"/>
       <c r="F236" s="33" t="s">
+        <v>611</v>
+      </c>
+      <c r="G236" s="33" t="s">
         <v>612</v>
-      </c>
-      <c r="G236" s="33" t="s">
-        <v>613</v>
       </c>
       <c r="H236" s="33"/>
       <c r="I236" s="33"/>
@@ -12439,10 +12464,10 @@
       <c r="D237" s="33"/>
       <c r="E237" s="33"/>
       <c r="F237" s="33" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G237" s="33" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H237" s="33"/>
       <c r="I237" s="33"/>
@@ -12582,7 +12607,7 @@
       <c r="D248" s="33"/>
       <c r="E248" s="33"/>
       <c r="F248" s="33" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G248" s="33"/>
       <c r="H248" s="33"/>
@@ -12641,7 +12666,7 @@
       <c r="C252" s="35"/>
       <c r="D252" s="33"/>
       <c r="E252" s="33" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F252" s="33"/>
       <c r="G252" s="33"/>
@@ -12658,13 +12683,13 @@
       <c r="D253" s="33"/>
       <c r="E253" s="33"/>
       <c r="F253" s="33" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G253" s="33"/>
       <c r="H253" s="33"/>
       <c r="I253" s="33"/>
       <c r="J253" s="33" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="K253" s="33"/>
       <c r="L253" s="33"/>
@@ -12677,13 +12702,13 @@
       <c r="E254" s="33"/>
       <c r="F254" s="33"/>
       <c r="G254" s="33" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H254" s="33"/>
       <c r="I254" s="33"/>
       <c r="J254" s="33"/>
       <c r="K254" s="33" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L254" s="33"/>
       <c r="M254" s="33"/>
@@ -12694,13 +12719,13 @@
       <c r="D255" s="33"/>
       <c r="E255" s="33"/>
       <c r="F255" s="33" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G255" s="33"/>
       <c r="H255" s="33"/>
       <c r="I255" s="33"/>
       <c r="J255" s="33" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K255" s="33"/>
       <c r="L255" s="33"/>
@@ -12713,13 +12738,13 @@
       <c r="E256" s="33"/>
       <c r="F256" s="33"/>
       <c r="G256" s="33" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H256" s="33"/>
       <c r="I256" s="33"/>
       <c r="J256" s="33"/>
       <c r="K256" s="33" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L256" s="33"/>
       <c r="M256" s="33"/>
@@ -12730,13 +12755,13 @@
       <c r="D257" s="33"/>
       <c r="E257" s="33"/>
       <c r="F257" s="33" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G257" s="33"/>
       <c r="H257" s="33"/>
       <c r="I257" s="33"/>
       <c r="J257" s="33" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K257" s="33"/>
       <c r="L257" s="33"/>
@@ -12749,13 +12774,13 @@
       <c r="E258" s="33"/>
       <c r="F258" s="33"/>
       <c r="G258" s="33" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H258" s="33"/>
       <c r="I258" s="33"/>
       <c r="J258" s="33"/>
       <c r="K258" s="33" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L258" s="33"/>
       <c r="M258" s="33"/>
@@ -12766,14 +12791,14 @@
       <c r="D259" s="33"/>
       <c r="E259" s="33"/>
       <c r="F259" s="33" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G259" s="33"/>
       <c r="H259" s="33"/>
       <c r="I259" s="33"/>
       <c r="J259" s="33"/>
       <c r="K259" s="33" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L259" s="33"/>
       <c r="M259" s="33"/>
@@ -12785,7 +12810,7 @@
       <c r="E260" s="33"/>
       <c r="F260" s="33"/>
       <c r="G260" s="33" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H260" s="33"/>
       <c r="I260" s="33"/>
@@ -12800,7 +12825,7 @@
       <c r="D261" s="33"/>
       <c r="E261" s="33"/>
       <c r="F261" s="33" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G261" s="33"/>
       <c r="H261" s="33"/>
@@ -12817,7 +12842,7 @@
       <c r="E262" s="33"/>
       <c r="F262" s="33"/>
       <c r="G262" s="33" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H262" s="33"/>
       <c r="I262" s="33"/>
@@ -12843,7 +12868,7 @@
     <row r="264" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B264" s="33"/>
       <c r="C264" s="35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D264" s="33"/>
       <c r="E264" s="33"/>
@@ -12858,12 +12883,12 @@
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A265" s="30" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B265" s="33"/>
       <c r="C265" s="35"/>
       <c r="D265" s="33" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E265" s="33"/>
       <c r="F265" s="33"/>
@@ -12880,7 +12905,7 @@
       <c r="B266" s="61"/>
       <c r="C266" s="62"/>
       <c r="D266" s="58" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E266" s="61"/>
       <c r="F266" s="61"/>
@@ -12894,12 +12919,12 @@
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A267" s="32" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B267" s="33"/>
       <c r="C267" s="35"/>
       <c r="D267" s="33" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E267" s="33"/>
       <c r="F267" s="33"/>
@@ -12913,64 +12938,64 @@
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D268" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.15">
       <c r="E269" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A273" s="30" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A274" s="32" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E281" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A289" s="30" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A290" s="32" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D293" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B295" s="29" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B296" s="32" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E297" s="33"/>
       <c r="F297" s="33" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G297" s="33"/>
       <c r="H297" s="33"/>
@@ -12980,7 +13005,7 @@
     <row r="298" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E298" s="33"/>
       <c r="F298" s="33" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G298" s="33"/>
       <c r="H298" s="33"/>
@@ -12991,7 +13016,7 @@
       <c r="E299" s="33"/>
       <c r="F299" s="33"/>
       <c r="G299" s="33" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H299" s="33"/>
       <c r="I299" s="33"/>
@@ -13001,7 +13026,7 @@
       <c r="E300" s="33"/>
       <c r="F300" s="33"/>
       <c r="G300" s="33" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H300" s="33"/>
       <c r="I300" s="33"/>
@@ -13017,7 +13042,7 @@
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E302" s="33" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F302" s="33"/>
       <c r="G302" s="33"/>
@@ -13028,7 +13053,7 @@
     <row r="303" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E303" s="33"/>
       <c r="F303" s="33" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G303" s="33"/>
       <c r="H303" s="33"/>
@@ -13037,58 +13062,58 @@
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F304" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="305" spans="2:12" x14ac:dyDescent="0.15">
       <c r="F305" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="307" spans="2:12" x14ac:dyDescent="0.15">
       <c r="E307" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="308" spans="2:12" x14ac:dyDescent="0.15">
       <c r="F308" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="309" spans="2:12" x14ac:dyDescent="0.15">
       <c r="F309" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="311" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B311" s="29" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="312" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B312" s="32" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="313" spans="2:12" x14ac:dyDescent="0.15">
       <c r="F313" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="315" spans="2:12" x14ac:dyDescent="0.15">
       <c r="F315" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="316" spans="2:12" x14ac:dyDescent="0.15">
       <c r="G316" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="317" spans="2:12" s="56" customFormat="1" x14ac:dyDescent="0.15">
@@ -13097,7 +13122,7 @@
     <row r="318" spans="2:12" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C318" s="53"/>
       <c r="E318" s="58" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F318" s="58"/>
       <c r="G318" s="58"/>
@@ -13111,7 +13136,7 @@
       <c r="C319" s="53"/>
       <c r="E319" s="58"/>
       <c r="F319" s="58" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G319" s="58"/>
       <c r="H319" s="58"/>
@@ -13124,13 +13149,13 @@
       <c r="C320" s="53"/>
       <c r="E320" s="58"/>
       <c r="F320" s="58" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G320" s="58"/>
       <c r="H320" s="58"/>
       <c r="I320" s="58"/>
       <c r="J320" s="58" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="K320" s="58"/>
       <c r="L320" s="58"/>
@@ -13150,7 +13175,7 @@
       <c r="C322" s="53"/>
       <c r="E322" s="58"/>
       <c r="F322" s="58" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G322" s="58"/>
       <c r="H322" s="58"/>
@@ -13164,7 +13189,7 @@
       <c r="E323" s="58"/>
       <c r="F323" s="58"/>
       <c r="G323" s="58" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H323" s="58"/>
       <c r="I323" s="58"/>
@@ -13176,7 +13201,7 @@
       <c r="C324" s="53"/>
       <c r="E324" s="58"/>
       <c r="F324" s="58" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G324" s="58"/>
       <c r="H324" s="58"/>
@@ -13190,7 +13215,7 @@
       <c r="E325" s="58"/>
       <c r="F325" s="58"/>
       <c r="G325" s="58" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H325" s="58"/>
       <c r="I325" s="58"/>
@@ -13203,58 +13228,58 @@
     </row>
     <row r="327" spans="3:13" x14ac:dyDescent="0.15">
       <c r="D327" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="328" spans="3:13" x14ac:dyDescent="0.15">
       <c r="E328" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F328" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="F328" s="1" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="329" spans="3:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="E329" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F329" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="F329" s="1" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="330" spans="3:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="E330" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F330" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="F330" s="1" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="331" spans="3:13" x14ac:dyDescent="0.15">
       <c r="F331" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G331" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="332" spans="3:13" x14ac:dyDescent="0.15">
       <c r="F332" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G332" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="333" spans="3:13" x14ac:dyDescent="0.15">
       <c r="F333" s="58" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G333" s="58" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H333" s="58" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="I333" s="58"/>
       <c r="J333" s="58"/>
@@ -13264,13 +13289,13 @@
     </row>
     <row r="334" spans="3:13" x14ac:dyDescent="0.15">
       <c r="F334" s="58" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G334" s="58" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H334" s="58" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="I334" s="58"/>
       <c r="J334" s="58"/>
@@ -13280,64 +13305,64 @@
     </row>
     <row r="336" spans="3:13" x14ac:dyDescent="0.15">
       <c r="D336" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.15">
       <c r="E337" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.15">
       <c r="E338" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.15">
       <c r="E339" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B340" s="29" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E340" s="39" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="341" spans="1:9" ht="33" x14ac:dyDescent="0.15">
       <c r="A341" s="31" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B341" s="32" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E341" s="25" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A342" s="32" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D345" s="63" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E345" s="63"/>
       <c r="F345" s="63"/>
       <c r="G345" s="63"/>
       <c r="H345" s="63"/>
       <c r="I345" s="58" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D346" s="63"/>
       <c r="E346" s="63" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F346" s="63"/>
       <c r="G346" s="63"/>
@@ -13346,12 +13371,12 @@
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B347" s="29" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D347" s="63"/>
       <c r="E347" s="63"/>
       <c r="F347" s="63" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G347" s="63"/>
       <c r="H347" s="63"/>
@@ -13359,12 +13384,12 @@
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B348" s="32" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D348" s="63"/>
       <c r="E348" s="63"/>
       <c r="F348" s="63" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G348" s="63"/>
       <c r="H348" s="63"/>
@@ -13374,7 +13399,7 @@
       <c r="D349" s="63"/>
       <c r="E349" s="63"/>
       <c r="F349" s="63" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G349" s="63"/>
       <c r="H349" s="63"/>
@@ -13382,12 +13407,12 @@
     </row>
     <row r="350" spans="1:9" ht="33" x14ac:dyDescent="0.15">
       <c r="A350" s="31" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D350" s="63"/>
       <c r="E350" s="63"/>
       <c r="F350" s="63" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G350" s="63"/>
       <c r="H350" s="63"/>
@@ -13395,12 +13420,12 @@
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A351" s="40" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D351" s="63"/>
       <c r="E351" s="63"/>
       <c r="F351" s="63" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G351" s="63"/>
       <c r="H351" s="63"/>
@@ -13409,7 +13434,7 @@
     <row r="352" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D352" s="63"/>
       <c r="E352" s="63" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F352" s="63"/>
       <c r="G352" s="63"/>
@@ -13418,12 +13443,12 @@
     </row>
     <row r="353" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B353" s="29" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D353" s="63"/>
       <c r="E353" s="63"/>
       <c r="F353" s="63" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G353" s="63"/>
       <c r="H353" s="63"/>
@@ -13431,12 +13456,12 @@
     </row>
     <row r="354" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B354" s="32" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D354" s="63"/>
       <c r="E354" s="63"/>
       <c r="F354" s="63" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G354" s="63"/>
       <c r="H354" s="63"/>
@@ -13445,7 +13470,7 @@
     <row r="355" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D355" s="63"/>
       <c r="E355" s="63" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F355" s="63"/>
       <c r="G355" s="63"/>
@@ -13454,20 +13479,20 @@
     </row>
     <row r="357" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B357" s="29" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F357" s="32" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="358" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B358" s="30" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="359" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B359" s="32" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
   </sheetData>
@@ -13485,7 +13510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M164"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G114" sqref="G114"/>
     </sheetView>
   </sheetViews>
@@ -13539,21 +13564,21 @@
     <row r="10" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C10" s="53"/>
       <c r="F10" s="58" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C11" s="53"/>
       <c r="F11" s="58" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A12" s="41" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.15">
@@ -13576,33 +13601,33 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="30" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="32" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I18" s="25" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I19" s="25" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="H20" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="H21" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -13645,28 +13670,28 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="51" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>94</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="50" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B32" s="50" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C32" s="48"/>
       <c r="I32" s="49" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
@@ -13697,7 +13722,7 @@
     </row>
     <row r="37" spans="1:9" ht="33" x14ac:dyDescent="0.15">
       <c r="A37" s="31" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F37" s="39" t="s">
         <v>100</v>
@@ -13706,7 +13731,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="32" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F38" s="39"/>
       <c r="G38" s="42" t="s">
@@ -13734,65 +13759,65 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="G43" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="30" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="32" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="55"/>
       <c r="C46" s="53"/>
       <c r="I46" s="58" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="H47" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I48" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="49" spans="1:10" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C49" s="53"/>
       <c r="I49" s="58" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H50" s="61" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C51" s="53"/>
       <c r="H51" s="38"/>
       <c r="I51" s="54" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="52" spans="1:10" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C52" s="53"/>
       <c r="H52" s="38"/>
       <c r="I52" s="56" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="56" customFormat="1" x14ac:dyDescent="0.15">
@@ -13802,23 +13827,23 @@
     <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" s="52"/>
       <c r="H54" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" s="30" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" s="32" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I56" s="58" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="J56" s="58"/>
     </row>
@@ -13861,23 +13886,23 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" s="30" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64" s="32" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>116</v>
@@ -13885,24 +13910,24 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A68" s="30" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A69" s="30" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B69" s="32" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="70" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.15">
@@ -13910,7 +13935,7 @@
       <c r="B70" s="55"/>
       <c r="C70" s="53"/>
       <c r="H70" s="58" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="I70" s="58"/>
       <c r="J70" s="58"/>
@@ -13920,15 +13945,15 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A71" s="32" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.15">
       <c r="G72" s="25" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.15">
@@ -13944,10 +13969,10 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A77" s="30" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B77" s="29" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D77" s="11"/>
       <c r="F77" s="1" t="s">
@@ -13956,10 +13981,10 @@
     </row>
     <row r="78" spans="1:13" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A78" s="41" t="s">
+        <v>588</v>
+      </c>
+      <c r="B78" s="32" t="s">
         <v>589</v>
-      </c>
-      <c r="B78" s="32" t="s">
-        <v>590</v>
       </c>
       <c r="D78" s="11"/>
       <c r="G78" s="1" t="s">
@@ -13989,7 +14014,7 @@
     <row r="81" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D81" s="11"/>
       <c r="F81" s="63" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G81" s="63"/>
       <c r="H81" s="63"/>
@@ -13998,12 +14023,12 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A82" s="30" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D82" s="11"/>
       <c r="F82" s="63"/>
       <c r="G82" s="63" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H82" s="63"/>
       <c r="I82" s="63"/>
@@ -14011,7 +14036,7 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A83" s="32" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D83" s="11"/>
     </row>
@@ -14034,7 +14059,7 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A88" s="30" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D88" s="11"/>
       <c r="E88" s="1" t="s">
@@ -14043,7 +14068,7 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A89" s="32" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D89" s="11"/>
     </row>
@@ -14056,20 +14081,20 @@
         <v>128</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D92" s="11"/>
       <c r="E92" s="25" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F92" s="19" t="s">
         <v>129</v>
       </c>
       <c r="G92" s="16"/>
       <c r="J92" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
@@ -14091,14 +14116,14 @@
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D95" s="11"/>
       <c r="E95" s="25" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F95" s="19" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G95" s="16"/>
       <c r="J95" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M95" s="70"/>
     </row>
@@ -14119,14 +14144,14 @@
     <row r="98" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D98" s="11"/>
       <c r="E98" s="25" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F98" s="19" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G98" s="16"/>
       <c r="J98" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M98" s="70"/>
     </row>
@@ -14135,7 +14160,7 @@
       <c r="E99" s="25"/>
       <c r="F99" s="12"/>
       <c r="G99" s="17" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="M99" s="70"/>
     </row>
@@ -14147,14 +14172,14 @@
     <row r="101" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D101" s="11"/>
       <c r="E101" s="25" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F101" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G101" s="21"/>
       <c r="J101" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M101" s="70"/>
     </row>
@@ -14163,7 +14188,7 @@
       <c r="E102" s="25"/>
       <c r="F102" s="12"/>
       <c r="G102" s="19" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M102" s="70"/>
     </row>
@@ -14175,14 +14200,14 @@
     <row r="104" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D104" s="11"/>
       <c r="E104" s="25" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F104" s="19" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G104" s="21"/>
       <c r="J104" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M104" s="70"/>
     </row>
@@ -14191,7 +14216,7 @@
       <c r="E105" s="25"/>
       <c r="F105" s="12"/>
       <c r="G105" s="19" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="M105" s="70"/>
     </row>
@@ -14208,7 +14233,7 @@
       </c>
       <c r="G107" s="16"/>
       <c r="J107" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M107" s="70"/>
     </row>
@@ -14229,14 +14254,14 @@
     <row r="110" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D110" s="11"/>
       <c r="E110" s="25" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F110" s="19" t="s">
         <v>134</v>
       </c>
       <c r="G110" s="16"/>
       <c r="J110" s="70" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="M110" s="70"/>
     </row>
@@ -14262,7 +14287,7 @@
       </c>
       <c r="G113" s="16"/>
       <c r="J113" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M113" s="70"/>
     </row>
@@ -14281,14 +14306,14 @@
     <row r="116" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D116" s="11"/>
       <c r="E116" s="25" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F116" s="19" t="s">
         <v>138</v>
       </c>
       <c r="G116" s="16"/>
       <c r="J116" s="70" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="117" spans="4:13" x14ac:dyDescent="0.15">
@@ -14305,14 +14330,14 @@
     <row r="119" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D119" s="11"/>
       <c r="E119" s="25" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>140</v>
       </c>
       <c r="G119" s="11"/>
       <c r="J119" s="70" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="120" spans="4:13" x14ac:dyDescent="0.15">
@@ -14329,13 +14354,13 @@
     <row r="122" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D122" s="11"/>
       <c r="E122" s="25" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>141</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="123" spans="4:13" x14ac:dyDescent="0.15">
@@ -14352,13 +14377,13 @@
     <row r="125" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D125" s="11"/>
       <c r="E125" s="25" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>142</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="126" spans="4:13" x14ac:dyDescent="0.15">
@@ -14375,13 +14400,13 @@
     <row r="128" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D128" s="11"/>
       <c r="E128" s="25" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>143</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="129" spans="4:10" x14ac:dyDescent="0.15">
@@ -14398,13 +14423,13 @@
     <row r="131" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D131" s="11"/>
       <c r="E131" s="25" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>144</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="132" spans="4:10" x14ac:dyDescent="0.15">
@@ -14421,20 +14446,20 @@
     <row r="134" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D134" s="11"/>
       <c r="E134" s="25" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="135" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D135" s="11"/>
       <c r="E135" s="25"/>
       <c r="G135" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="136" spans="4:10" x14ac:dyDescent="0.15">
@@ -14444,20 +14469,20 @@
     <row r="137" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D137" s="11"/>
       <c r="E137" s="25" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="138" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D138" s="11"/>
       <c r="E138" s="25"/>
       <c r="G138" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="139" spans="4:10" x14ac:dyDescent="0.15">
@@ -14467,20 +14492,20 @@
     <row r="140" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D140" s="11"/>
       <c r="E140" s="25" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="141" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D141" s="11"/>
       <c r="E141" s="25"/>
       <c r="G141" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="142" spans="4:10" x14ac:dyDescent="0.15">
@@ -14505,96 +14530,96 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C147" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D147" s="11"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A148" s="30" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B148" s="29" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A149" s="32" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B149" s="32" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E150" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F151" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F152" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C153" s="1"/>
       <c r="E153" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F154" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F155" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E156" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F157" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F158" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E159" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E160" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="161" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E161" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="164" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E164" s="25" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -14606,10 +14631,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M40"/>
+  <dimension ref="B2:M43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -14621,7 +14646,7 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B2" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
@@ -14657,7 +14682,7 @@
       <c r="C6" s="43"/>
       <c r="D6" s="44"/>
       <c r="E6" s="23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F6" s="33"/>
       <c r="G6" s="33"/>
@@ -14715,7 +14740,7 @@
       <c r="C10" s="43"/>
       <c r="D10" s="44"/>
       <c r="E10" s="23" t="s">
-        <v>163</v>
+        <v>815</v>
       </c>
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
@@ -14788,7 +14813,7 @@
       <c r="C15" s="43"/>
       <c r="D15" s="44"/>
       <c r="E15" s="23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F15" s="33"/>
       <c r="G15" s="33"/>
@@ -14846,7 +14871,7 @@
       <c r="C19" s="43"/>
       <c r="D19" s="44"/>
       <c r="E19" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="33"/>
@@ -14872,7 +14897,7 @@
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B21" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C21" s="35"/>
       <c r="D21" s="33"/>
@@ -14904,7 +14929,7 @@
     <row r="23" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C23" s="35"/>
       <c r="D23" s="33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E23" s="33"/>
       <c r="F23" s="33"/>
@@ -14919,7 +14944,7 @@
     <row r="24" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C24" s="35"/>
       <c r="D24" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E24" s="33"/>
       <c r="F24" s="33"/>
@@ -14946,7 +14971,7 @@
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C26" s="35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
@@ -14962,7 +14987,7 @@
     <row r="27" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C27" s="35"/>
       <c r="D27" s="33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E27" s="33"/>
       <c r="F27" s="33"/>
@@ -15100,7 +15125,7 @@
       <c r="B36" s="20"/>
       <c r="C36" s="43"/>
       <c r="D36" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E36" s="33"/>
       <c r="F36" s="33"/>
@@ -15116,7 +15141,7 @@
       <c r="B37" s="20"/>
       <c r="C37" s="43"/>
       <c r="D37" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E37" s="33"/>
       <c r="F37" s="33"/>
@@ -15142,6 +15167,9 @@
       <c r="M38" s="33"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B39" s="11" t="s">
+        <v>813</v>
+      </c>
       <c r="C39" s="35"/>
       <c r="D39" s="33"/>
       <c r="E39" s="33"/>
@@ -15155,7 +15183,9 @@
       <c r="M39" s="33"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C40" s="35"/>
+      <c r="C40" s="24" t="s">
+        <v>152</v>
+      </c>
       <c r="D40" s="33"/>
       <c r="E40" s="33"/>
       <c r="F40" s="33"/>
@@ -15167,6 +15197,22 @@
       <c r="L40" s="33"/>
       <c r="M40" s="33"/>
     </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="C41" s="24"/>
+      <c r="D41" s="1" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="C42" s="24" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="D43" s="1" t="s">
+        <v>816</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15175,10 +15221,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R71"/>
+  <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView topLeftCell="B34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L52" sqref="L52:N53"/>
+    <sheetView topLeftCell="B49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C77" sqref="C76:C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -15205,7 +15251,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.15">
@@ -15213,234 +15259,234 @@
         <v>25</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>204</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>205</v>
       </c>
       <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="30" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C3" s="70" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="32" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C4" s="70" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C5" s="70" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C6" s="70" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="30" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="32" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C9" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C11" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C12" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C13" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C14" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C15" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C16" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C17" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C18" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C19" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D19" s="72" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E19" s="72" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N22" s="32" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C23" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D23" s="67" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="N23" s="30" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="30" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D24" s="67">
         <v>0</v>
@@ -15449,36 +15495,36 @@
         <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G24" s="56" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="N24" s="30" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="32" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E25" s="1">
         <v>2</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G25" s="56" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H25" s="56" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="N25" s="32" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
@@ -15486,13 +15532,13 @@
         <v>3</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G26" s="56" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H26" s="56" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
@@ -15500,13 +15546,13 @@
         <v>4</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G27" s="56" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H27" s="56" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
@@ -15514,13 +15560,13 @@
         <v>5</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G28" s="56" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H28" s="56" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
@@ -15528,13 +15574,13 @@
         <v>6</v>
       </c>
       <c r="F29" s="46" t="s">
+        <v>603</v>
+      </c>
+      <c r="G29" s="25" t="s">
         <v>604</v>
       </c>
-      <c r="G29" s="25" t="s">
-        <v>605</v>
-      </c>
       <c r="H29" s="56" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="L29" s="56"/>
     </row>
@@ -15543,7 +15589,7 @@
     </row>
     <row r="31" spans="1:14" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B31" s="56" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
@@ -15551,134 +15597,134 @@
     </row>
     <row r="32" spans="1:14" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C32" s="56" t="s">
+        <v>716</v>
+      </c>
+      <c r="D32" s="14" t="s">
         <v>717</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>718</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
     </row>
     <row r="33" spans="2:15" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C33" s="56" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D33" s="56" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
     </row>
     <row r="34" spans="2:15" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C34" s="56" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D34" s="56" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
     </row>
     <row r="35" spans="2:15" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C35" s="56" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D35" s="56" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
     </row>
     <row r="36" spans="2:15" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C36" s="56" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D36" s="56" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
     </row>
     <row r="37" spans="2:15" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C37" s="56" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D37" s="56" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
     </row>
     <row r="38" spans="2:15" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C38" s="56" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D38" s="58" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
     </row>
     <row r="40" spans="2:15" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B40" s="56" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
     </row>
     <row r="41" spans="2:15" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C41" s="56" t="s">
+        <v>720</v>
+      </c>
+      <c r="D41" s="14" t="s">
         <v>721</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="E41" s="14" t="s">
         <v>722</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="42" spans="2:15" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C42" s="56" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E42" s="14"/>
     </row>
     <row r="43" spans="2:15" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C43" s="56" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E43" s="14"/>
     </row>
     <row r="44" spans="2:15" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C44" s="56" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E44" s="14"/>
     </row>
     <row r="45" spans="2:15" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C45" s="56" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E45" s="14"/>
     </row>
     <row r="46" spans="2:15" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C46" s="56" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E46" s="14"/>
     </row>
@@ -15687,91 +15733,91 @@
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.15">
       <c r="O48" s="29" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B49" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P49" s="32" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.15">
       <c r="D50" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E50" s="1"/>
       <c r="J50" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="L50" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="L50" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="O50" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A51" s="30" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>334</v>
-      </c>
       <c r="G51" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J51" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="K51" s="56" t="s">
         <v>733</v>
       </c>
-      <c r="K51" s="56" t="s">
-        <v>734</v>
-      </c>
       <c r="L51" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O51" s="25" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="P51" s="25" t="s">
+        <v>729</v>
+      </c>
+      <c r="Q51" s="25" t="s">
         <v>730</v>
       </c>
-      <c r="Q51" s="25" t="s">
-        <v>731</v>
-      </c>
       <c r="R51" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A52" s="32" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C52" s="1">
         <v>1</v>
@@ -15780,7 +15826,7 @@
         <v>10001</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F52" s="28">
         <v>1</v>
@@ -15798,10 +15844,10 @@
         <v>102</v>
       </c>
       <c r="L52" s="58" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M52" s="58" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="N52" s="58">
         <v>1</v>
@@ -15816,7 +15862,7 @@
         <v>50</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.15">
@@ -15825,10 +15871,10 @@
         <v>2</v>
       </c>
       <c r="L53" s="58" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M53" s="58" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="N53" s="58">
         <v>1</v>
@@ -15840,10 +15886,10 @@
         <v>3</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M54" s="70" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="N54" s="1">
         <v>10</v>
@@ -15851,10 +15897,10 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.15">
       <c r="L55" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M55" s="70" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="N55" s="1">
         <v>10</v>
@@ -15862,10 +15908,10 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.15">
       <c r="L56" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="N56" s="1">
         <v>10</v>
@@ -15873,10 +15919,10 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.15">
       <c r="L57" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="N57" s="1">
         <v>50</v>
@@ -15884,10 +15930,10 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.15">
       <c r="L58" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N58" s="1">
         <v>10</v>
@@ -15895,7 +15941,7 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.15">
       <c r="L59" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M59" s="1">
         <v>50</v>
@@ -15906,10 +15952,10 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.15">
       <c r="L60" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="N60" s="1">
         <v>10</v>
@@ -15917,10 +15963,10 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.15">
       <c r="L61" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="N61" s="1">
         <v>10</v>
@@ -15928,10 +15974,10 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.15">
       <c r="L62" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="N62" s="1">
         <v>10</v>
@@ -15939,10 +15985,10 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.15">
       <c r="L63" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="N63" s="1">
         <v>10</v>
@@ -15950,10 +15996,10 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.15">
       <c r="L64" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="N64" s="1">
         <v>10</v>
@@ -15961,10 +16007,10 @@
     </row>
     <row r="65" spans="3:15" x14ac:dyDescent="0.15">
       <c r="L65" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="N65" s="1">
         <v>10</v>
@@ -15972,10 +16018,10 @@
     </row>
     <row r="66" spans="3:15" x14ac:dyDescent="0.15">
       <c r="L66" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="N66" s="1">
         <v>10</v>
@@ -15983,10 +16029,10 @@
     </row>
     <row r="67" spans="3:15" x14ac:dyDescent="0.15">
       <c r="L67" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="N67" s="1">
         <v>10</v>
@@ -15994,10 +16040,10 @@
     </row>
     <row r="68" spans="3:15" x14ac:dyDescent="0.15">
       <c r="L68" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="N68" s="1">
         <v>10</v>
@@ -16015,7 +16061,7 @@
         <v>30001</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F70" s="1">
         <v>2</v>
@@ -16044,7 +16090,7 @@
         <v>30002</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F71" s="1">
         <v>2</v>
@@ -16066,6 +16112,11 @@
       </c>
       <c r="O71" s="1">
         <v>30002</v>
+      </c>
+    </row>
+    <row r="72" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C72" s="1" t="s">
+        <v>817</v>
       </c>
     </row>
   </sheetData>
@@ -16080,7 +16131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R58" sqref="R58"/>
     </sheetView>
   </sheetViews>
@@ -16091,57 +16142,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C32" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B53" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C54" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B62" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C63" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B76" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C77" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
   </sheetData>
@@ -16168,128 +16219,128 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="70" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B3" s="70" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C4" s="70" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D4" s="70" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C5" s="70" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D5" s="70" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C6" s="70" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D6" s="70" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C7" s="70" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D7" s="70" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C8" s="70" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D8" s="70" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C9" s="70" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D9" s="70" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C10" s="70" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D10" s="70" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C11" s="70" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D11" s="70" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C12" s="70" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D12" s="70" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B15" s="70" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C16" s="70" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="70" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B22" s="70" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C22" s="70" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="70" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B28" s="70" t="s">
+        <v>787</v>
+      </c>
+      <c r="C28" s="70" t="s">
         <v>788</v>
-      </c>
-      <c r="C28" s="70" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B29" s="70" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C29" s="70" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
   </sheetData>
@@ -16313,61 +16364,61 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C2" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D3" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D4" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D5" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="30" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="32" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D8" s="36" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -16391,67 +16442,67 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C7" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C9" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C14" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C15" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B20" s="65" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C21" s="66" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
   </sheetData>

--- a/gd/任务系统/新版任务系统设计.xlsx
+++ b/gd/任务系统/新版任务系统设计.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn（策划）\任务系统\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="20475" windowHeight="8055" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="20475" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -21,11 +16,12 @@
     <sheet name="需求拆分" sheetId="10" r:id="rId7"/>
     <sheet name="音效需求" sheetId="8" r:id="rId8"/>
     <sheet name="设计备忘" sheetId="7" r:id="rId9"/>
+    <sheet name="策划验收" sheetId="11" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_4.任务奖励界面需求">美术需求!$B$62:$J$88</definedName>
     <definedName name="_5.任务对话界面需求">美术需求!$B$76:$L$87</definedName>
-    <definedName name="difficulty">基础规则!$J$92:$J$140</definedName>
+    <definedName name="difficulty">基础规则!$J$93:$J$141</definedName>
     <definedName name="NPC配置格式">数据记录!$B$40:$E$46</definedName>
     <definedName name="触发对话后其余背景蒙版蒙灰">UI逻辑!$D$266</definedName>
     <definedName name="当完成任意任务后_自动接取该任务后一个任务_任务配置表中顺序">基础规则!$F$10:$K$11</definedName>
@@ -37,16 +33,17 @@
     <definedName name="奖励">数据记录!$O$50:$Q$52</definedName>
     <definedName name="奖励内容中的图标无tips显示">UI逻辑!$F$248</definedName>
     <definedName name="奖励配置">数据记录!$O$49:$Q$55</definedName>
-    <definedName name="金币">基础规则!$H$44:$P$57</definedName>
-    <definedName name="可循环类的任务次数重置点为自然周期结束的0点_即日循环任务为每天0点刷新次数_暂定0点_如游戏整体规划刷新时间为其他时间则统一变更">基础规则!$G$63</definedName>
-    <definedName name="立即前往按钮相应规则">基础规则!$D$148</definedName>
+    <definedName name="金币">基础规则!$H$44:$P$58</definedName>
+    <definedName name="经验值最终结果X_reward表读取值_K_B">基础规则!$I$53:$L$53</definedName>
+    <definedName name="可循环类的任务次数重置点为自然周期结束的0点_即日循环任务为每天0点刷新次数_暂定0点_如游戏整体规划刷新时间为其他时间则统一变更">基础规则!$G$64</definedName>
+    <definedName name="立即前往按钮相应规则">基础规则!$D$149</definedName>
     <definedName name="名称">UI逻辑!$F$333:$M$334</definedName>
     <definedName name="内容固定_每个任务每天可以完成一次">任务类型!$D$24</definedName>
-    <definedName name="配置形式遵循道具配置规则_详细见【道具文档】">基础规则!$J$56</definedName>
-    <definedName name="配置形式遵循道具配置规则_详细见道具文档">基础规则!$J$56</definedName>
+    <definedName name="配置形式遵循道具配置规则_详细见【道具文档】">基础规则!$J$57</definedName>
+    <definedName name="配置形式遵循道具配置规则_详细见道具文档">基础规则!$J$57</definedName>
     <definedName name="任务出现为即时刷新_如果有前后连续关系的情况_则上一个消失后_下一个跟随刷出">UI逻辑!$G$215:$N$215</definedName>
     <definedName name="任务对话相关">UI逻辑!$C$264:$N$343</definedName>
-    <definedName name="任务奖励">基础规则!$F$41:$J$55</definedName>
+    <definedName name="任务奖励">基础规则!$F$41:$J$56</definedName>
     <definedName name="任务奖励配置">数据记录!$O$49:$P$55</definedName>
     <definedName name="任务配置格式">数据记录!$B$49:$R$68</definedName>
     <definedName name="任务配置数值">数据记录!$C$50:$K$54</definedName>
@@ -55,12 +52,12 @@
     <definedName name="任务项内容刷新规则">UI逻辑!$F$212:$L$214</definedName>
     <definedName name="三星">数据记录!$L$52:$N$53</definedName>
     <definedName name="时间">数据记录!$J$50:$K$52</definedName>
-    <definedName name="时效性">基础规则!$F$67:$I$69</definedName>
-    <definedName name="时效性配置需要有始有终_即需要配置起始点与终止点">基础规则!$H$70:$M$70</definedName>
+    <definedName name="时效性">基础规则!$F$68:$I$70</definedName>
+    <definedName name="时效性配置需要有始有终_即需要配置起始点与终止点">基础规则!$H$71:$M$71</definedName>
     <definedName name="是否可跳过">数据记录!$D$23:$D$24</definedName>
     <definedName name="体力">数据记录!$D$70:$S$71</definedName>
     <definedName name="跳过按钮">UI逻辑!$E$318:$L$325</definedName>
-    <definedName name="通关限制">基础规则!$F$79:$I$82</definedName>
+    <definedName name="通关限制">基础规则!$F$80:$I$83</definedName>
     <definedName name="已完成的任务_显示在对应分页的上方_多个已完成任务按照任务编号由小至大顺序从上至下显示">UI逻辑!$F$205:$N$205</definedName>
     <definedName name="最多显示为4行_根据显示行数上下居中显示">UI逻辑!$F$152:$K$153</definedName>
   </definedNames>
@@ -75,7 +72,7 @@
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="D23" authorId="0" shapeId="0">
+    <comment ref="D23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -102,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C51" authorId="0" shapeId="0">
+    <comment ref="C51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -132,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D51" authorId="0" shapeId="0">
+    <comment ref="D51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -160,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E51" authorId="0" shapeId="0">
+    <comment ref="E51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -186,7 +183,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F51" authorId="0" shapeId="0">
+    <comment ref="F51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -214,7 +211,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G51" authorId="0" shapeId="0">
+    <comment ref="G51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -240,7 +237,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I51" authorId="0" shapeId="0">
+    <comment ref="I51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -267,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J51" authorId="1" shapeId="0">
+    <comment ref="J51" authorId="1">
       <text>
         <r>
           <rPr>
@@ -293,7 +290,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K51" authorId="1" shapeId="0">
+    <comment ref="K51" authorId="1">
       <text>
         <r>
           <rPr>
@@ -319,7 +316,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L51" authorId="0" shapeId="0">
+    <comment ref="L51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -362,7 +359,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M51" authorId="0" shapeId="0">
+    <comment ref="M51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -388,7 +385,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O51" authorId="0" shapeId="0">
+    <comment ref="O51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -415,7 +412,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P51" authorId="0" shapeId="0">
+    <comment ref="P51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -441,7 +438,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q51" authorId="0" shapeId="0">
+    <comment ref="Q51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -472,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="837">
   <si>
     <t>文档名称</t>
   </si>
@@ -4275,12 +4272,87 @@
     <t>别忘了首次副本通关</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>任务列表UI部分逻辑验收</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务分页签名称不正确</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上图中三个分页签应该分别为  剧情任务、日常任务、列传任务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务名称位置多余显示了任务编号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务描述中没有根据目标值读取变量值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务项中的任务图标目前无法读取</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励领取界面标题错误</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上图中红色框中内容应该为固定文本 任务奖励</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励领取界面任务名称位置错误</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上图中红色框中内容应该为任务名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>当配置接取等级大于当前等级时也会显示该任务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务奖励中的经验值未与任务表中的k和b值进行加成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务显示不完整</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧情任务只显示编号最小的1个任务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常任务只显示编号最小的1个任务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>列传任务只显示5个任务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fatigue</t>
+  </si>
+  <si>
+    <t>经验值最终结果X=reward表读取值*K+B</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充经验值计算公式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4447,6 +4519,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF434343"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -4498,7 +4577,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4681,6 +4760,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -8831,8 +8916,241 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>113429</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>37860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="419100"/>
+          <a:ext cx="6971429" cy="1923810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>647105</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66588</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="3143250"/>
+          <a:ext cx="4761905" cy="695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>27972</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="4191000"/>
+          <a:ext cx="4828572" cy="1400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>142257</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>209367</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="5867400"/>
+          <a:ext cx="4942857" cy="1466667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>256458</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>18655</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="7753350"/>
+          <a:ext cx="5742858" cy="3161905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>408838</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>75798</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="11734800"/>
+          <a:ext cx="5895238" cy="3219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -8874,7 +9192,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8909,7 +9227,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9120,8 +9438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -9981,7 +10299,9 @@
       <c r="E50" s="9"/>
       <c r="F50" s="5"/>
       <c r="G50" s="71"/>
-      <c r="H50" s="71"/>
+      <c r="H50" s="73" t="s">
+        <v>836</v>
+      </c>
       <c r="I50" s="71"/>
       <c r="J50" s="71"/>
       <c r="K50" s="8"/>
@@ -10211,9 +10531,137 @@
     <hyperlink ref="H45" location="任务配置数值" display="将任务配置参数变更为数据形式"/>
     <hyperlink ref="H48" location="服务器拆分" display="服务器程序任务拆分更新"/>
     <hyperlink ref="H49" location="三星" display="完善三星挑战以及难度通关的任务目标配置"/>
+    <hyperlink ref="H50" location="经验值最终结果X_reward表读取值_K_B" display="补充经验值计算公式"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C82"/>
+  <sheetViews>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="70"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="70" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B2" s="70">
+        <v>1</v>
+      </c>
+      <c r="C2" s="70" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C13" s="70" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B15" s="70">
+        <v>2</v>
+      </c>
+      <c r="C15" s="70" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B20" s="70">
+        <v>3</v>
+      </c>
+      <c r="C20" s="70" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B28" s="70">
+        <v>4</v>
+      </c>
+      <c r="C28" s="70" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B37" s="70">
+        <v>5</v>
+      </c>
+      <c r="C37" s="70" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C54" s="70" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B56" s="70">
+        <v>6</v>
+      </c>
+      <c r="C56" s="70" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C73" s="70" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B75" s="70">
+        <v>7</v>
+      </c>
+      <c r="C75" s="70" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B77" s="70">
+        <v>8</v>
+      </c>
+      <c r="C77" s="70" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B79" s="70">
+        <v>9</v>
+      </c>
+      <c r="C79" s="70" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C80" s="70" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C81" s="70" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C82" s="70" t="s">
+        <v>833</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10221,8 +10669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S359"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N314" sqref="N314"/>
+    <sheetView topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -13508,10 +13956,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M164"/>
+  <dimension ref="A2:M165"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G114" sqref="G114"/>
+    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53:L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -13795,830 +14243,840 @@
         <v>369</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="56" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:12" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C49" s="53"/>
       <c r="I49" s="58" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="H50" s="61" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="56" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:12" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C51" s="53"/>
       <c r="H51" s="38"/>
       <c r="I51" s="54" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="56" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:12" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C52" s="53"/>
       <c r="H52" s="38"/>
       <c r="I52" s="56" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="56" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:12" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C53" s="53"/>
       <c r="H53" s="38"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A54" s="52"/>
-      <c r="H54" s="1" t="s">
+      <c r="I53" s="75" t="s">
+        <v>835</v>
+      </c>
+      <c r="J53" s="75"/>
+      <c r="K53" s="75"/>
+      <c r="L53" s="75"/>
+    </row>
+    <row r="54" spans="1:12" s="70" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C54" s="53"/>
+      <c r="H54" s="38"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A55" s="52"/>
+      <c r="H55" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A55" s="30" t="s">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A56" s="30" t="s">
         <v>473</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="I56" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A56" s="32" t="s">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A57" s="32" t="s">
         <v>582</v>
       </c>
-      <c r="I56" s="58" t="s">
+      <c r="I57" s="58" t="s">
         <v>758</v>
       </c>
-      <c r="J56" s="58"/>
-    </row>
-    <row r="57" spans="1:10" s="56" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="55"/>
-      <c r="C57" s="53"/>
       <c r="J57" s="58"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="F58" s="1" t="s">
+    <row r="58" spans="1:12" s="56" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="55"/>
+      <c r="C58" s="53"/>
+      <c r="J58" s="58"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F59" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="G59" s="1" t="s">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="G60" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="G60" s="1" t="s">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="G61" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="H61" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="I61" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="G61" s="1" t="s">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="G62" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="H62" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="I62" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A63" s="30" t="s">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A64" s="30" t="s">
         <v>453</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="G64" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A64" s="32" t="s">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A65" s="32" t="s">
         <v>532</v>
       </c>
-      <c r="G64" s="25" t="s">
+      <c r="G65" s="25" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A67" s="1" t="s">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A68" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F68" s="1" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A68" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B68" s="29" t="s">
-        <v>435</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A69" s="30" t="s">
+        <v>474</v>
+      </c>
+      <c r="B69" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A70" s="30" t="s">
         <v>475</v>
       </c>
-      <c r="B69" s="32" t="s">
+      <c r="B70" s="32" t="s">
         <v>587</v>
       </c>
-      <c r="H69" s="1" t="s">
+      <c r="H70" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="70" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="60"/>
-      <c r="B70" s="55"/>
-      <c r="C70" s="53"/>
-      <c r="H70" s="58" t="s">
+    <row r="71" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="60"/>
+      <c r="B71" s="55"/>
+      <c r="C71" s="53"/>
+      <c r="H71" s="58" t="s">
         <v>756</v>
       </c>
-      <c r="I70" s="58"/>
-      <c r="J70" s="58"/>
-      <c r="K70" s="58"/>
-      <c r="L70" s="58"/>
-      <c r="M70" s="58"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A71" s="32" t="s">
+      <c r="I71" s="58"/>
+      <c r="J71" s="58"/>
+      <c r="K71" s="58"/>
+      <c r="L71" s="58"/>
+      <c r="M71" s="58"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A72" s="32" t="s">
         <v>585</v>
       </c>
-      <c r="G71" s="25" t="s">
+      <c r="G72" s="25" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="G72" s="25" t="s">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="G73" s="25" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="D75" s="11" t="s">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D76" s="11" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="D76" s="11"/>
-      <c r="E76" s="1" t="s">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D77" s="11"/>
+      <c r="E77" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A77" s="30" t="s">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A78" s="30" t="s">
         <v>476</v>
       </c>
-      <c r="B77" s="29" t="s">
+      <c r="B78" s="29" t="s">
         <v>434</v>
       </c>
-      <c r="D77" s="11"/>
-      <c r="F77" s="1" t="s">
+      <c r="D78" s="11"/>
+      <c r="F78" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A78" s="41" t="s">
+    <row r="79" spans="1:13" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A79" s="41" t="s">
         <v>588</v>
       </c>
-      <c r="B78" s="32" t="s">
+      <c r="B79" s="32" t="s">
         <v>589</v>
       </c>
-      <c r="D78" s="11"/>
-      <c r="G78" s="1" t="s">
+      <c r="D79" s="11"/>
+      <c r="G79" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="D79" s="11"/>
-      <c r="F79" s="63" t="s">
-        <v>125</v>
-      </c>
-      <c r="G79" s="63"/>
-      <c r="H79" s="63"/>
-      <c r="I79" s="63"/>
-      <c r="J79" s="63"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D80" s="11"/>
-      <c r="F80" s="63"/>
-      <c r="G80" s="63" t="s">
-        <v>126</v>
-      </c>
+      <c r="F80" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="G80" s="63"/>
       <c r="H80" s="63"/>
       <c r="I80" s="63"/>
       <c r="J80" s="63"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D81" s="11"/>
-      <c r="F81" s="63" t="s">
-        <v>591</v>
-      </c>
-      <c r="G81" s="63"/>
+      <c r="F81" s="63"/>
+      <c r="G81" s="63" t="s">
+        <v>126</v>
+      </c>
       <c r="H81" s="63"/>
       <c r="I81" s="63"/>
       <c r="J81" s="63"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A82" s="30" t="s">
-        <v>477</v>
-      </c>
       <c r="D82" s="11"/>
-      <c r="F82" s="63"/>
-      <c r="G82" s="63" t="s">
-        <v>592</v>
-      </c>
+      <c r="F82" s="63" t="s">
+        <v>591</v>
+      </c>
+      <c r="G82" s="63"/>
       <c r="H82" s="63"/>
       <c r="I82" s="63"/>
       <c r="J82" s="63"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A83" s="32" t="s">
+      <c r="A83" s="30" t="s">
+        <v>477</v>
+      </c>
+      <c r="D83" s="11"/>
+      <c r="F83" s="63"/>
+      <c r="G83" s="63" t="s">
+        <v>592</v>
+      </c>
+      <c r="H83" s="63"/>
+      <c r="I83" s="63"/>
+      <c r="J83" s="63"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A84" s="32" t="s">
         <v>590</v>
       </c>
-      <c r="D83" s="11"/>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D84" s="11"/>
-      <c r="E84" s="1" t="s">
-        <v>118</v>
-      </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D85" s="11"/>
+      <c r="E85" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D86" s="11"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="D87" s="11" t="s">
+      <c r="D87" s="11"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D88" s="11" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A88" s="30" t="s">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A89" s="30" t="s">
         <v>478</v>
       </c>
-      <c r="D88" s="11"/>
-      <c r="E88" s="1" t="s">
+      <c r="D89" s="11"/>
+      <c r="E89" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A89" s="32" t="s">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A90" s="32" t="s">
         <v>593</v>
       </c>
-      <c r="D89" s="11"/>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D90" s="11"/>
-      <c r="L90" s="14"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="D91" s="11" t="s">
+      <c r="D91" s="11"/>
+      <c r="L91" s="14"/>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D92" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="J91" s="1" t="s">
+      <c r="J92" s="1" t="s">
         <v>403</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D92" s="11"/>
-      <c r="E92" s="25" t="s">
-        <v>595</v>
-      </c>
-      <c r="F92" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="G92" s="16"/>
-      <c r="J92" s="1" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D93" s="11"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="M93" s="70"/>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="E93" s="25" t="s">
+        <v>595</v>
+      </c>
+      <c r="F93" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="G93" s="16"/>
+      <c r="J93" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D94" s="11"/>
       <c r="E94" s="25"/>
       <c r="F94" s="12"/>
-      <c r="G94" s="16"/>
+      <c r="G94" s="17" t="s">
+        <v>130</v>
+      </c>
       <c r="M94" s="70"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D95" s="11"/>
-      <c r="E95" s="25" t="s">
-        <v>594</v>
-      </c>
-      <c r="F95" s="19" t="s">
-        <v>407</v>
-      </c>
+      <c r="E95" s="25"/>
+      <c r="F95" s="12"/>
       <c r="G95" s="16"/>
-      <c r="J95" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="M95" s="70"/>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D96" s="11"/>
-      <c r="E96" s="25"/>
-      <c r="F96" s="12"/>
-      <c r="G96" s="17" t="s">
-        <v>131</v>
+      <c r="E96" s="25" t="s">
+        <v>594</v>
+      </c>
+      <c r="F96" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="G96" s="16"/>
+      <c r="J96" s="1" t="s">
+        <v>408</v>
       </c>
       <c r="M96" s="70"/>
     </row>
-    <row r="97" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="97" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D97" s="11"/>
       <c r="E97" s="25"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="17" t="s">
+        <v>131</v>
+      </c>
       <c r="M97" s="70"/>
     </row>
-    <row r="98" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D98" s="11"/>
-      <c r="E98" s="25" t="s">
-        <v>594</v>
-      </c>
-      <c r="F98" s="19" t="s">
-        <v>387</v>
-      </c>
-      <c r="G98" s="16"/>
-      <c r="J98" s="1" t="s">
-        <v>380</v>
-      </c>
+      <c r="E98" s="25"/>
       <c r="M98" s="70"/>
     </row>
     <row r="99" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D99" s="11"/>
-      <c r="E99" s="25"/>
-      <c r="F99" s="12"/>
-      <c r="G99" s="17" t="s">
-        <v>390</v>
+      <c r="E99" s="25" t="s">
+        <v>594</v>
+      </c>
+      <c r="F99" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="G99" s="16"/>
+      <c r="J99" s="1" t="s">
+        <v>380</v>
       </c>
       <c r="M99" s="70"/>
     </row>
-    <row r="100" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="100" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D100" s="11"/>
       <c r="E100" s="25"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="17" t="s">
+        <v>390</v>
+      </c>
       <c r="M100" s="70"/>
     </row>
-    <row r="101" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D101" s="11"/>
-      <c r="E101" s="25" t="s">
-        <v>594</v>
-      </c>
-      <c r="F101" s="19" t="s">
-        <v>388</v>
-      </c>
-      <c r="G101" s="21"/>
-      <c r="J101" s="1" t="s">
-        <v>393</v>
-      </c>
+      <c r="E101" s="25"/>
       <c r="M101" s="70"/>
     </row>
     <row r="102" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D102" s="11"/>
-      <c r="E102" s="25"/>
-      <c r="F102" s="12"/>
-      <c r="G102" s="19" t="s">
-        <v>389</v>
+      <c r="E102" s="25" t="s">
+        <v>594</v>
+      </c>
+      <c r="F102" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="G102" s="21"/>
+      <c r="J102" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="M102" s="70"/>
     </row>
-    <row r="103" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="103" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D103" s="11"/>
       <c r="E103" s="25"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="19" t="s">
+        <v>389</v>
+      </c>
       <c r="M103" s="70"/>
     </row>
-    <row r="104" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D104" s="11"/>
-      <c r="E104" s="25" t="s">
-        <v>594</v>
-      </c>
-      <c r="F104" s="19" t="s">
-        <v>391</v>
-      </c>
-      <c r="G104" s="21"/>
-      <c r="J104" s="1" t="s">
-        <v>394</v>
-      </c>
+      <c r="E104" s="25"/>
       <c r="M104" s="70"/>
     </row>
     <row r="105" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D105" s="11"/>
-      <c r="E105" s="25"/>
-      <c r="F105" s="12"/>
-      <c r="G105" s="19" t="s">
-        <v>392</v>
+      <c r="E105" s="25" t="s">
+        <v>594</v>
+      </c>
+      <c r="F105" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="G105" s="21"/>
+      <c r="J105" s="1" t="s">
+        <v>394</v>
       </c>
       <c r="M105" s="70"/>
     </row>
-    <row r="106" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="106" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D106" s="11"/>
       <c r="E106" s="25"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="19" t="s">
+        <v>392</v>
+      </c>
       <c r="M106" s="70"/>
     </row>
-    <row r="107" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D107" s="11"/>
       <c r="E107" s="25"/>
-      <c r="F107" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="G107" s="16"/>
-      <c r="J107" s="1" t="s">
-        <v>395</v>
-      </c>
       <c r="M107" s="70"/>
     </row>
     <row r="108" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D108" s="11"/>
       <c r="E108" s="25"/>
-      <c r="F108" s="12"/>
-      <c r="G108" s="17" t="s">
-        <v>133</v>
+      <c r="F108" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="G108" s="16"/>
+      <c r="J108" s="1" t="s">
+        <v>395</v>
       </c>
       <c r="M108" s="70"/>
     </row>
-    <row r="109" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="109" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D109" s="11"/>
       <c r="E109" s="25"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="17" t="s">
+        <v>133</v>
+      </c>
       <c r="M109" s="70"/>
     </row>
-    <row r="110" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D110" s="11"/>
-      <c r="E110" s="25" t="s">
-        <v>597</v>
-      </c>
-      <c r="F110" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="G110" s="16"/>
-      <c r="J110" s="70" t="s">
-        <v>767</v>
-      </c>
+      <c r="E110" s="25"/>
       <c r="M110" s="70"/>
     </row>
     <row r="111" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D111" s="11"/>
-      <c r="E111" s="25"/>
-      <c r="F111" s="12"/>
-      <c r="G111" s="17" t="s">
-        <v>135</v>
+      <c r="E111" s="25" t="s">
+        <v>597</v>
+      </c>
+      <c r="F111" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="G111" s="16"/>
+      <c r="J111" s="70" t="s">
+        <v>767</v>
       </c>
       <c r="M111" s="70"/>
     </row>
-    <row r="112" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="112" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D112" s="11"/>
       <c r="E112" s="25"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="17" t="s">
+        <v>135</v>
+      </c>
       <c r="M112" s="70"/>
     </row>
-    <row r="113" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D113" s="11"/>
       <c r="E113" s="25"/>
-      <c r="F113" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="G113" s="16"/>
-      <c r="J113" s="1" t="s">
-        <v>396</v>
-      </c>
       <c r="M113" s="70"/>
     </row>
     <row r="114" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D114" s="11"/>
       <c r="E114" s="25"/>
-      <c r="F114" s="12"/>
-      <c r="G114" s="17" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="115" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="F114" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="G114" s="16"/>
+      <c r="J114" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="M114" s="70"/>
+    </row>
+    <row r="115" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D115" s="11"/>
       <c r="E115" s="25"/>
-    </row>
-    <row r="116" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="F115" s="12"/>
+      <c r="G115" s="17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="116" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D116" s="11"/>
-      <c r="E116" s="25" t="s">
+      <c r="E116" s="25"/>
+    </row>
+    <row r="117" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D117" s="11"/>
+      <c r="E117" s="25" t="s">
         <v>596</v>
       </c>
-      <c r="F116" s="19" t="s">
+      <c r="F117" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="G116" s="16"/>
-      <c r="J116" s="70" t="s">
+      <c r="G117" s="16"/>
+      <c r="J117" s="70" t="s">
         <v>769</v>
-      </c>
-    </row>
-    <row r="117" spans="4:13" x14ac:dyDescent="0.15">
-      <c r="D117" s="11"/>
-      <c r="E117" s="25"/>
-      <c r="G117" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="118" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D118" s="11"/>
       <c r="E118" s="25"/>
+      <c r="G118" s="1" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="119" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D119" s="11"/>
-      <c r="E119" s="25" t="s">
-        <v>596</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G119" s="11"/>
-      <c r="J119" s="70" t="s">
-        <v>770</v>
-      </c>
+      <c r="E119" s="25"/>
     </row>
     <row r="120" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D120" s="11"/>
-      <c r="E120" s="25"/>
-      <c r="G120" s="1" t="s">
-        <v>145</v>
+      <c r="E120" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G120" s="11"/>
+      <c r="J120" s="70" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="121" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D121" s="11"/>
       <c r="E121" s="25"/>
+      <c r="G121" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="122" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D122" s="11"/>
-      <c r="E122" s="25" t="s">
-        <v>597</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="J122" s="1" t="s">
-        <v>397</v>
-      </c>
+      <c r="E122" s="25"/>
     </row>
     <row r="123" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D123" s="11"/>
-      <c r="E123" s="25"/>
-      <c r="G123" s="1" t="s">
-        <v>146</v>
+      <c r="E123" s="25" t="s">
+        <v>597</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="124" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D124" s="11"/>
       <c r="E124" s="25"/>
+      <c r="G124" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="125" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D125" s="11"/>
-      <c r="E125" s="25" t="s">
-        <v>596</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="J125" s="1" t="s">
-        <v>404</v>
-      </c>
+      <c r="E125" s="25"/>
     </row>
     <row r="126" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D126" s="11"/>
-      <c r="E126" s="25"/>
-      <c r="G126" s="1" t="s">
-        <v>147</v>
+      <c r="E126" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="127" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D127" s="11"/>
       <c r="E127" s="25"/>
+      <c r="G127" s="1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="128" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D128" s="11"/>
-      <c r="E128" s="25" t="s">
-        <v>596</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J128" s="1" t="s">
-        <v>398</v>
-      </c>
+      <c r="E128" s="25"/>
     </row>
     <row r="129" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D129" s="11"/>
-      <c r="E129" s="25"/>
-      <c r="G129" s="1" t="s">
-        <v>148</v>
+      <c r="E129" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="130" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D130" s="11"/>
       <c r="E130" s="25"/>
+      <c r="G130" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="131" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D131" s="11"/>
-      <c r="E131" s="25" t="s">
-        <v>596</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J131" s="1" t="s">
-        <v>399</v>
-      </c>
+      <c r="E131" s="25"/>
     </row>
     <row r="132" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D132" s="11"/>
-      <c r="E132" s="25"/>
-      <c r="G132" s="1" t="s">
-        <v>149</v>
+      <c r="E132" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="133" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D133" s="11"/>
       <c r="E133" s="25"/>
+      <c r="G133" s="1" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="134" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D134" s="11"/>
-      <c r="E134" s="25" t="s">
-        <v>597</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="J134" s="1" t="s">
-        <v>400</v>
-      </c>
+      <c r="E134" s="25"/>
     </row>
     <row r="135" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D135" s="11"/>
-      <c r="E135" s="25"/>
-      <c r="G135" s="1" t="s">
-        <v>182</v>
+      <c r="E135" s="25" t="s">
+        <v>597</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="136" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D136" s="11"/>
       <c r="E136" s="25"/>
+      <c r="G136" s="1" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="137" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D137" s="11"/>
-      <c r="E137" s="25" t="s">
-        <v>597</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="J137" s="1" t="s">
-        <v>401</v>
-      </c>
+      <c r="E137" s="25"/>
     </row>
     <row r="138" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D138" s="11"/>
-      <c r="E138" s="25"/>
-      <c r="G138" s="1" t="s">
-        <v>183</v>
+      <c r="E138" s="25" t="s">
+        <v>597</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="139" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D139" s="11"/>
       <c r="E139" s="25"/>
+      <c r="G139" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="140" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D140" s="11"/>
-      <c r="E140" s="25" t="s">
-        <v>597</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="J140" s="1" t="s">
-        <v>402</v>
-      </c>
+      <c r="E140" s="25"/>
     </row>
     <row r="141" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D141" s="11"/>
-      <c r="E141" s="25"/>
-      <c r="G141" s="1" t="s">
-        <v>185</v>
+      <c r="E141" s="25" t="s">
+        <v>597</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="142" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D142" s="11"/>
       <c r="E142" s="25"/>
+      <c r="G142" s="1" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="143" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D143" s="11"/>
       <c r="E143" s="25"/>
     </row>
-    <row r="144" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D144" s="11"/>
-      <c r="F144" s="18" t="s">
+      <c r="E144" s="25"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D145" s="11"/>
+      <c r="F145" s="18" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D145" s="11"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D146" s="11"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C147" s="11" t="s">
+      <c r="D147" s="11"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C148" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="D147" s="11"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A148" s="30" t="s">
+      <c r="D148" s="11"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A149" s="30" t="s">
         <v>479</v>
       </c>
-      <c r="B148" s="29" t="s">
+      <c r="B149" s="29" t="s">
         <v>599</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="D149" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A149" s="32" t="s">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A150" s="32" t="s">
         <v>598</v>
       </c>
-      <c r="B149" s="32" t="s">
+      <c r="B150" s="32" t="s">
         <v>532</v>
       </c>
-      <c r="E149" s="1" t="s">
+      <c r="E150" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E150" s="1" t="s">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E151" s="1" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F151" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F152" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F153" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C153" s="1"/>
-      <c r="E153" s="1" t="s">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C154" s="1"/>
+      <c r="E154" s="1" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F154" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F155" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F156" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E156" s="1" t="s">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E157" s="1" t="s">
         <v>176</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F157" s="1" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F158" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F159" s="1" t="s">
         <v>187</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E159" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E160" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="161" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E161" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="162" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E162" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="164" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E164" s="25" t="s">
+    <row r="165" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E165" s="25" t="s">
         <v>600</v>
       </c>
     </row>
@@ -14633,8 +15091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -15224,7 +15682,7 @@
   <dimension ref="A1:R72"/>
   <sheetViews>
     <sheetView topLeftCell="B49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C77" sqref="C76:C77"/>
+      <selection activeCell="Q51" sqref="Q51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -16078,6 +16536,9 @@
       <c r="K70" s="56">
         <v>102</v>
       </c>
+      <c r="L70" s="74" t="s">
+        <v>834</v>
+      </c>
       <c r="N70" s="1">
         <v>0</v>
       </c>
@@ -16106,6 +16567,9 @@
       </c>
       <c r="K71" s="56">
         <v>104</v>
+      </c>
+      <c r="L71" s="74" t="s">
+        <v>834</v>
       </c>
       <c r="N71" s="1">
         <v>0</v>

--- a/gd/任务系统/新版任务系统设计.xlsx
+++ b/gd/任务系统/新版任务系统设计.xlsx
@@ -25,9 +25,11 @@
     <definedName name="NPC配置格式">数据记录!$B$40:$E$46</definedName>
     <definedName name="触发对话后其余背景蒙版蒙灰">UI逻辑!$D$266</definedName>
     <definedName name="当完成任意任务后_自动接取该任务后一个任务_任务配置表中顺序">基础规则!$F$10:$K$11</definedName>
-    <definedName name="对话界面出现时_点击屏幕任意位置_除跳过按钮区域__均响应跳过当前对话界面_不响应点击位置的其他功能">UI逻辑!$E$337</definedName>
+    <definedName name="对话界面出现时_点击屏幕任意位置_除跳过按钮区域__均响应跳过当前对话界面_不响应点击位置的其他功能">UI逻辑!$E$348</definedName>
     <definedName name="对话配置格式">数据记录!$B$22:$I$38</definedName>
     <definedName name="对话相关">数据记录!$R$49:$R$53</definedName>
+    <definedName name="对话组ID">UI逻辑!$E$328:$G$345</definedName>
+    <definedName name="发言人名称">数据记录!$F$23:$G$29</definedName>
     <definedName name="分页签开启规则">UI逻辑!$E$70:$J$75</definedName>
     <definedName name="服务器拆分">需求拆分!$C$4:$D$12</definedName>
     <definedName name="奖励">数据记录!$O$50:$Q$52</definedName>
@@ -37,12 +39,12 @@
     <definedName name="经验值最终结果X_reward表读取值_K_B">基础规则!$I$53:$L$53</definedName>
     <definedName name="可循环类的任务次数重置点为自然周期结束的0点_即日循环任务为每天0点刷新次数_暂定0点_如游戏整体规划刷新时间为其他时间则统一变更">基础规则!$G$64</definedName>
     <definedName name="立即前往按钮相应规则">基础规则!$D$149</definedName>
-    <definedName name="名称">UI逻辑!$F$333:$M$334</definedName>
+    <definedName name="名称">UI逻辑!$F$336:$M$338</definedName>
     <definedName name="内容固定_每个任务每天可以完成一次">任务类型!$D$24</definedName>
     <definedName name="配置形式遵循道具配置规则_详细见【道具文档】">基础规则!$J$57</definedName>
     <definedName name="配置形式遵循道具配置规则_详细见道具文档">基础规则!$J$57</definedName>
     <definedName name="任务出现为即时刷新_如果有前后连续关系的情况_则上一个消失后_下一个跟随刷出">UI逻辑!$G$215:$N$215</definedName>
-    <definedName name="任务对话相关">UI逻辑!$C$264:$N$343</definedName>
+    <definedName name="任务对话相关">UI逻辑!$C$264:$N$354</definedName>
     <definedName name="任务奖励">基础规则!$F$41:$J$56</definedName>
     <definedName name="任务奖励配置">数据记录!$O$49:$P$55</definedName>
     <definedName name="任务配置格式">数据记录!$B$49:$R$68</definedName>
@@ -469,7 +471,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="853">
   <si>
     <t>文档名称</t>
   </si>
@@ -1647,10 +1649,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>对话序号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>兔桑</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1696,10 +1694,6 @@
   </si>
   <si>
     <t>内容</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个序号代表一次对话，从1开始记录</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -3415,10 +3409,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> @player</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>都别BB了，我来</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3910,10 +3900,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>发言人id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>npc_001</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -4018,18 +4004,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>发言人ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>发言内容ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>发言人ID配置在NPC数据表中，根据ID寻找对应名称以及头像</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>发言内容ID配置在对话内容表中，根据ID寻找对应发言内容</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -4345,6 +4323,94 @@
   </si>
   <si>
     <t>补充经验值计算公式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>发言人名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>发言人立绘</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/talk/tusang</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/talk/xueji</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/talk/xueji</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/talk/tusang</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色形象</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔桑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪姬</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔桑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪姬</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔桑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家统一称呼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改对话表格格式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>发言人名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>立绘</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>发言人立绘资源</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可跳过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于配置该对话组ID是否可以被跳过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>立绘资源大小为320*240（帆爷暂定），每个立绘资源独立存放</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计上尽量避免同一组对话出现的立绘资源过多（最好5个以内）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话配置更新以及立绘设计规范补充</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4682,9 +4748,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -4764,6 +4827,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9439,7 +9505,7 @@
   <dimension ref="A1:N67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -9741,7 +9807,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="27" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -9756,7 +9822,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="4"/>
       <c r="H19" s="27" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -9772,7 +9838,7 @@
       <c r="F20" s="5"/>
       <c r="G20" s="4"/>
       <c r="H20" s="27" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -9788,7 +9854,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="4"/>
       <c r="H21" s="27" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -9804,7 +9870,7 @@
       <c r="F22" s="5"/>
       <c r="G22" s="4"/>
       <c r="H22" s="27" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -9814,21 +9880,21 @@
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C23" s="7">
         <v>42154</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="5"/>
       <c r="G23" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -9844,7 +9910,7 @@
       <c r="F24" s="5"/>
       <c r="G24" s="4"/>
       <c r="H24" s="27" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -9860,7 +9926,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="4"/>
       <c r="H25" s="27" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -9876,7 +9942,7 @@
       <c r="F26" s="5"/>
       <c r="G26" s="4"/>
       <c r="H26" s="27" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -9892,7 +9958,7 @@
       <c r="F27" s="5"/>
       <c r="G27" s="4"/>
       <c r="H27" s="27" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -9902,21 +9968,21 @@
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="4" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C28" s="7">
         <v>42156</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="5"/>
       <c r="G28" s="4" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H28" s="27" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -9932,7 +9998,7 @@
       <c r="F29" s="5"/>
       <c r="G29" s="4"/>
       <c r="H29" s="27" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -9948,7 +10014,7 @@
       <c r="F30" s="5"/>
       <c r="G30" s="4"/>
       <c r="H30" s="27" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -9958,21 +10024,21 @@
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="4" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C31" s="7">
         <v>42159</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="5"/>
       <c r="G31" s="4" t="s">
-        <v>647</v>
-      </c>
-      <c r="H31" s="59" t="s">
-        <v>648</v>
+        <v>644</v>
+      </c>
+      <c r="H31" s="58" t="s">
+        <v>645</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -9987,8 +10053,8 @@
       <c r="E32" s="9"/>
       <c r="F32" s="5"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="59" t="s">
-        <v>662</v>
+      <c r="H32" s="58" t="s">
+        <v>659</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -10003,8 +10069,8 @@
       <c r="E33" s="9"/>
       <c r="F33" s="5"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="57" t="s">
-        <v>663</v>
+      <c r="H33" s="56" t="s">
+        <v>660</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -10019,8 +10085,8 @@
       <c r="E34" s="9"/>
       <c r="F34" s="5"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="59" t="s">
-        <v>668</v>
+      <c r="H34" s="58" t="s">
+        <v>665</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -10035,75 +10101,75 @@
       <c r="E35" s="9"/>
       <c r="F35" s="5"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="59" t="s">
-        <v>669</v>
+      <c r="H35" s="58" t="s">
+        <v>666</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="8"/>
       <c r="L35" s="21"/>
     </row>
-    <row r="36" spans="1:12" s="56" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
-      <c r="B36" s="57"/>
+      <c r="B36" s="56"/>
       <c r="C36" s="7"/>
       <c r="D36" s="5"/>
       <c r="E36" s="9"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="59" t="s">
-        <v>670</v>
-      </c>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="58" t="s">
+        <v>667</v>
+      </c>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
       <c r="K36" s="8"/>
       <c r="L36" s="21"/>
     </row>
-    <row r="37" spans="1:12" s="56" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
-      <c r="B37" s="57"/>
+      <c r="B37" s="56"/>
       <c r="C37" s="7"/>
       <c r="D37" s="5"/>
       <c r="E37" s="9"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="59" t="s">
-        <v>688</v>
-      </c>
-      <c r="I37" s="57"/>
-      <c r="J37" s="57"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="58" t="s">
+        <v>685</v>
+      </c>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
       <c r="K37" s="8"/>
       <c r="L37" s="21"/>
     </row>
-    <row r="38" spans="1:12" s="56" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
-      <c r="B38" s="57"/>
+      <c r="B38" s="56"/>
       <c r="C38" s="7"/>
       <c r="D38" s="5"/>
       <c r="E38" s="9"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="59" t="s">
-        <v>689</v>
-      </c>
-      <c r="I38" s="57"/>
-      <c r="J38" s="57"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="58" t="s">
+        <v>686</v>
+      </c>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
       <c r="K38" s="8"/>
       <c r="L38" s="21"/>
     </row>
-    <row r="39" spans="1:12" s="56" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
-      <c r="B39" s="57"/>
+      <c r="B39" s="56"/>
       <c r="C39" s="7"/>
       <c r="D39" s="5"/>
       <c r="E39" s="9"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="59" t="s">
-        <v>690</v>
-      </c>
-      <c r="I39" s="57"/>
-      <c r="J39" s="57"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="58" t="s">
+        <v>687</v>
+      </c>
+      <c r="I39" s="56"/>
+      <c r="J39" s="56"/>
       <c r="K39" s="8"/>
       <c r="L39" s="21"/>
     </row>
@@ -10115,8 +10181,8 @@
       <c r="E40" s="9"/>
       <c r="F40" s="5"/>
       <c r="G40" s="4"/>
-      <c r="H40" s="59" t="s">
-        <v>692</v>
+      <c r="H40" s="58" t="s">
+        <v>689</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
@@ -10126,240 +10192,244 @@
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="4" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="C41" s="7">
         <v>42163</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="5"/>
       <c r="G41" s="4" t="s">
-        <v>749</v>
-      </c>
-      <c r="H41" s="73" t="s">
-        <v>750</v>
+        <v>745</v>
+      </c>
+      <c r="H41" s="72" t="s">
+        <v>746</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="8"/>
       <c r="L41" s="21"/>
     </row>
-    <row r="42" spans="1:12" s="56" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
-      <c r="B42" s="57"/>
+      <c r="B42" s="56"/>
       <c r="C42" s="7"/>
       <c r="D42" s="5"/>
       <c r="E42" s="9"/>
       <c r="F42" s="5"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="73" t="s">
-        <v>755</v>
-      </c>
-      <c r="I42" s="57"/>
-      <c r="J42" s="57"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="72" t="s">
+        <v>749</v>
+      </c>
+      <c r="I42" s="56"/>
+      <c r="J42" s="56"/>
       <c r="K42" s="8"/>
       <c r="L42" s="21"/>
     </row>
-    <row r="43" spans="1:12" s="56" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
-      <c r="B43" s="57"/>
+      <c r="B43" s="56"/>
       <c r="C43" s="7"/>
       <c r="D43" s="5"/>
       <c r="E43" s="9"/>
       <c r="F43" s="5"/>
-      <c r="G43" s="57"/>
-      <c r="H43" s="73" t="s">
-        <v>757</v>
-      </c>
-      <c r="I43" s="57"/>
-      <c r="J43" s="57"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="72" t="s">
+        <v>751</v>
+      </c>
+      <c r="I43" s="56"/>
+      <c r="J43" s="56"/>
       <c r="K43" s="8"/>
       <c r="L43" s="21"/>
     </row>
-    <row r="44" spans="1:12" s="56" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
-      <c r="B44" s="57"/>
+      <c r="B44" s="56"/>
       <c r="C44" s="7"/>
       <c r="D44" s="5"/>
       <c r="E44" s="9"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="73" t="s">
-        <v>760</v>
-      </c>
-      <c r="I44" s="57"/>
-      <c r="J44" s="57"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="72" t="s">
+        <v>754</v>
+      </c>
+      <c r="I44" s="56"/>
+      <c r="J44" s="56"/>
       <c r="K44" s="8"/>
       <c r="L44" s="21"/>
     </row>
-    <row r="45" spans="1:12" s="56" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
-      <c r="B45" s="57"/>
+      <c r="B45" s="56"/>
       <c r="C45" s="7"/>
       <c r="D45" s="5"/>
       <c r="E45" s="9"/>
       <c r="F45" s="5"/>
-      <c r="G45" s="57"/>
-      <c r="H45" s="73" t="s">
-        <v>761</v>
-      </c>
-      <c r="I45" s="57"/>
-      <c r="J45" s="57"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="72" t="s">
+        <v>755</v>
+      </c>
+      <c r="I45" s="56"/>
+      <c r="J45" s="56"/>
       <c r="K45" s="8"/>
       <c r="L45" s="21"/>
     </row>
-    <row r="46" spans="1:12" s="56" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
-      <c r="B46" s="57"/>
+      <c r="B46" s="56"/>
       <c r="C46" s="7"/>
       <c r="D46" s="5"/>
       <c r="E46" s="9"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="57"/>
-      <c r="H46" s="71" t="s">
-        <v>790</v>
-      </c>
-      <c r="I46" s="57"/>
-      <c r="J46" s="57"/>
+      <c r="G46" s="56"/>
+      <c r="H46" s="70" t="s">
+        <v>784</v>
+      </c>
+      <c r="I46" s="56"/>
+      <c r="J46" s="56"/>
       <c r="K46" s="8"/>
       <c r="L46" s="21"/>
     </row>
-    <row r="47" spans="1:12" s="56" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
-      <c r="B47" s="57"/>
+      <c r="B47" s="56"/>
       <c r="C47" s="7"/>
       <c r="D47" s="5"/>
       <c r="E47" s="9"/>
       <c r="F47" s="5"/>
-      <c r="G47" s="57"/>
-      <c r="H47" s="57" t="s">
-        <v>791</v>
-      </c>
-      <c r="I47" s="57"/>
-      <c r="J47" s="57"/>
+      <c r="G47" s="56"/>
+      <c r="H47" s="56" t="s">
+        <v>785</v>
+      </c>
+      <c r="I47" s="56"/>
+      <c r="J47" s="56"/>
       <c r="K47" s="8"/>
       <c r="L47" s="21"/>
     </row>
-    <row r="48" spans="1:12" s="70" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
-      <c r="B48" s="71" t="s">
-        <v>807</v>
+      <c r="B48" s="70" t="s">
+        <v>801</v>
       </c>
       <c r="C48" s="7">
         <v>42164</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="71" t="s">
-        <v>809</v>
-      </c>
-      <c r="H48" s="73" t="s">
-        <v>806</v>
-      </c>
-      <c r="I48" s="71"/>
-      <c r="J48" s="71"/>
+      <c r="G48" s="70" t="s">
+        <v>803</v>
+      </c>
+      <c r="H48" s="72" t="s">
+        <v>800</v>
+      </c>
+      <c r="I48" s="70"/>
+      <c r="J48" s="70"/>
       <c r="K48" s="8"/>
       <c r="L48" s="21"/>
     </row>
-    <row r="49" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
-      <c r="B49" s="71" t="s">
-        <v>811</v>
+      <c r="B49" s="70" t="s">
+        <v>805</v>
       </c>
       <c r="C49" s="7">
         <v>42166</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="5"/>
-      <c r="G49" s="71" t="s">
+      <c r="G49" s="70" t="s">
         <v>207</v>
       </c>
-      <c r="H49" s="73" t="s">
-        <v>810</v>
-      </c>
-      <c r="I49" s="71"/>
-      <c r="J49" s="71"/>
+      <c r="H49" s="72" t="s">
+        <v>804</v>
+      </c>
+      <c r="I49" s="70"/>
+      <c r="J49" s="70"/>
       <c r="K49" s="8"/>
       <c r="L49" s="21"/>
     </row>
-    <row r="50" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3"/>
-      <c r="B50" s="71"/>
+      <c r="B50" s="70"/>
       <c r="C50" s="7"/>
       <c r="D50" s="5"/>
       <c r="E50" s="9"/>
       <c r="F50" s="5"/>
-      <c r="G50" s="71"/>
-      <c r="H50" s="73" t="s">
-        <v>836</v>
-      </c>
-      <c r="I50" s="71"/>
-      <c r="J50" s="71"/>
+      <c r="G50" s="70"/>
+      <c r="H50" s="72" t="s">
+        <v>830</v>
+      </c>
+      <c r="I50" s="70"/>
+      <c r="J50" s="70"/>
       <c r="K50" s="8"/>
       <c r="L50" s="21"/>
     </row>
-    <row r="51" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
-      <c r="B51" s="71"/>
+      <c r="B51" s="70"/>
       <c r="C51" s="7"/>
       <c r="D51" s="5"/>
       <c r="E51" s="9"/>
       <c r="F51" s="5"/>
-      <c r="G51" s="71"/>
-      <c r="H51" s="71"/>
-      <c r="I51" s="71"/>
-      <c r="J51" s="71"/>
+      <c r="G51" s="70"/>
+      <c r="H51" s="72" t="s">
+        <v>844</v>
+      </c>
+      <c r="I51" s="70"/>
+      <c r="J51" s="70"/>
       <c r="K51" s="8"/>
       <c r="L51" s="21"/>
     </row>
-    <row r="52" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
-      <c r="B52" s="71"/>
+      <c r="B52" s="70"/>
       <c r="C52" s="7"/>
       <c r="D52" s="5"/>
       <c r="E52" s="9"/>
       <c r="F52" s="5"/>
-      <c r="G52" s="71"/>
-      <c r="H52" s="71"/>
-      <c r="I52" s="71"/>
-      <c r="J52" s="71"/>
+      <c r="G52" s="70"/>
+      <c r="H52" s="72" t="s">
+        <v>852</v>
+      </c>
+      <c r="I52" s="70"/>
+      <c r="J52" s="70"/>
       <c r="K52" s="8"/>
       <c r="L52" s="21"/>
     </row>
-    <row r="53" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
-      <c r="B53" s="71"/>
+      <c r="B53" s="70"/>
       <c r="C53" s="7"/>
       <c r="D53" s="5"/>
       <c r="E53" s="9"/>
       <c r="F53" s="5"/>
-      <c r="G53" s="71"/>
-      <c r="H53" s="71"/>
-      <c r="I53" s="71"/>
-      <c r="J53" s="71"/>
+      <c r="G53" s="70"/>
+      <c r="H53" s="70"/>
+      <c r="I53" s="70"/>
+      <c r="J53" s="70"/>
       <c r="K53" s="8"/>
       <c r="L53" s="21"/>
     </row>
-    <row r="54" spans="1:14" s="56" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
-      <c r="B54" s="57"/>
+      <c r="B54" s="56"/>
       <c r="C54" s="7"/>
       <c r="D54" s="5"/>
       <c r="E54" s="9"/>
       <c r="F54" s="5"/>
-      <c r="G54" s="57"/>
-      <c r="H54" s="57"/>
-      <c r="I54" s="57"/>
-      <c r="J54" s="57"/>
+      <c r="G54" s="56"/>
+      <c r="H54" s="56"/>
+      <c r="I54" s="56"/>
+      <c r="J54" s="56"/>
       <c r="K54" s="8"/>
       <c r="L54" s="21"/>
     </row>
@@ -10391,53 +10461,53 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B56" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C56" s="68">
+        <v>42161</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="H56" s="26" t="s">
         <v>693</v>
-      </c>
-      <c r="C56" s="69">
-        <v>42161</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="H56" s="26" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.15">
       <c r="H57" s="26" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.15">
       <c r="H58" s="26" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.15">
       <c r="H59" s="26" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.15">
       <c r="H60" s="26" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.15">
       <c r="H61" s="26" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
@@ -10448,42 +10518,42 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
-      <c r="H62" s="59" t="s">
-        <v>702</v>
+      <c r="H62" s="58" t="s">
+        <v>699</v>
       </c>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
       <c r="L62" s="10"/>
       <c r="N62" s="1" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.15">
       <c r="H63" s="26" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.15">
       <c r="H64" s="26" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="65" spans="8:12" x14ac:dyDescent="0.15">
-      <c r="H65" s="56" t="s">
-        <v>705</v>
+      <c r="H65" s="55" t="s">
+        <v>702</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
     </row>
     <row r="66" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H66" s="26" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="67" spans="8:12" x14ac:dyDescent="0.15">
-      <c r="H67" s="56"/>
+      <c r="H67" s="55"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -10532,6 +10602,8 @@
     <hyperlink ref="H48" location="服务器拆分" display="服务器程序任务拆分更新"/>
     <hyperlink ref="H49" location="三星" display="完善三星挑战以及难度通关的任务目标配置"/>
     <hyperlink ref="H50" location="经验值最终结果X_reward表读取值_K_B" display="补充经验值计算公式"/>
+    <hyperlink ref="H51" location="发言人名称" display="对话开发修改表格格式"/>
+    <hyperlink ref="H52" location="对话组ID" display="对话配置更新以及立绘设计规范补充"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10548,114 +10620,114 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="70"/>
+    <col min="1" max="16384" width="9" style="69"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="69" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B2" s="69">
+        <v>1</v>
+      </c>
+      <c r="C2" s="69" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C13" s="69" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B15" s="69">
+        <v>2</v>
+      </c>
+      <c r="C15" s="69" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B20" s="69">
+        <v>3</v>
+      </c>
+      <c r="C20" s="69" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B28" s="69">
+        <v>4</v>
+      </c>
+      <c r="C28" s="69" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B37" s="69">
+        <v>5</v>
+      </c>
+      <c r="C37" s="69" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B2" s="70">
-        <v>1</v>
-      </c>
-      <c r="C2" s="70" t="s">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C54" s="69" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C13" s="70" t="s">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B56" s="69">
+        <v>6</v>
+      </c>
+      <c r="C56" s="69" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B15" s="70">
-        <v>2</v>
-      </c>
-      <c r="C15" s="70" t="s">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C73" s="69" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B20" s="70">
-        <v>3</v>
-      </c>
-      <c r="C20" s="70" t="s">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B75" s="69">
+        <v>7</v>
+      </c>
+      <c r="C75" s="69" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B28" s="70">
-        <v>4</v>
-      </c>
-      <c r="C28" s="70" t="s">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B77" s="69">
+        <v>8</v>
+      </c>
+      <c r="C77" s="69" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B37" s="70">
-        <v>5</v>
-      </c>
-      <c r="C37" s="70" t="s">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B79" s="69">
+        <v>9</v>
+      </c>
+      <c r="C79" s="69" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C54" s="70" t="s">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C80" s="69" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B56" s="70">
-        <v>6</v>
-      </c>
-      <c r="C56" s="70" t="s">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C81" s="69" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C73" s="70" t="s">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C82" s="69" t="s">
         <v>827</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B75" s="70">
-        <v>7</v>
-      </c>
-      <c r="C75" s="70" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B77" s="70">
-        <v>8</v>
-      </c>
-      <c r="C77" s="70" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B79" s="70">
-        <v>9</v>
-      </c>
-      <c r="C79" s="70" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C80" s="70" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C81" s="70" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C82" s="70" t="s">
-        <v>833</v>
       </c>
     </row>
   </sheetData>
@@ -10667,10 +10739,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S359"/>
+  <dimension ref="A1:S370"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G96" sqref="G96"/>
+    <sheetView topLeftCell="A319" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E328" sqref="E328:G345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -10683,7 +10755,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B1" s="29" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>62</v>
@@ -10691,10 +10763,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="30" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>63</v>
@@ -10702,23 +10774,23 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="32" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="29" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" s="32" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C32" s="35"/>
       <c r="D32" s="33" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
@@ -10727,7 +10799,7 @@
       <c r="C33" s="35"/>
       <c r="D33" s="33"/>
       <c r="E33" s="33" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F33" s="33"/>
     </row>
@@ -10753,7 +10825,7 @@
     <row r="38" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C38" s="35"/>
       <c r="D38" s="33" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E38" s="33"/>
       <c r="F38" s="33"/>
@@ -10768,10 +10840,10 @@
       <c r="C39" s="35"/>
       <c r="D39" s="33"/>
       <c r="E39" s="33" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F39" s="33" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="G39" s="33"/>
       <c r="H39" s="33"/>
@@ -10784,10 +10856,10 @@
       <c r="C40" s="35"/>
       <c r="D40" s="33"/>
       <c r="E40" s="33" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="F40" s="33" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="G40" s="33"/>
       <c r="H40" s="33"/>
@@ -10800,10 +10872,10 @@
       <c r="C41" s="35"/>
       <c r="D41" s="33"/>
       <c r="E41" s="33" t="s">
+        <v>607</v>
+      </c>
+      <c r="F41" s="33" t="s">
         <v>610</v>
-      </c>
-      <c r="F41" s="33" t="s">
-        <v>613</v>
       </c>
       <c r="G41" s="33"/>
       <c r="H41" s="33"/>
@@ -10842,13 +10914,13 @@
       <c r="C44" s="35"/>
       <c r="D44" s="33"/>
       <c r="E44" s="33" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
       <c r="H44" s="33"/>
       <c r="I44" s="33" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="J44" s="33"/>
       <c r="K44" s="33"/>
@@ -10859,13 +10931,13 @@
       <c r="D45" s="33"/>
       <c r="E45" s="33"/>
       <c r="F45" s="33" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G45" s="33"/>
       <c r="H45" s="33"/>
       <c r="I45" s="33"/>
       <c r="J45" s="33" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="K45" s="33"/>
       <c r="L45" s="33"/>
@@ -10874,13 +10946,13 @@
       <c r="C46" s="35"/>
       <c r="D46" s="33"/>
       <c r="E46" s="33" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F46" s="33"/>
       <c r="G46" s="33"/>
       <c r="H46" s="33"/>
       <c r="I46" s="33" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="J46" s="33"/>
       <c r="K46" s="33"/>
@@ -10891,13 +10963,13 @@
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
       <c r="F47" s="33" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G47" s="33"/>
       <c r="H47" s="33"/>
       <c r="I47" s="33"/>
       <c r="J47" s="33" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="K47" s="33"/>
       <c r="L47" s="33"/>
@@ -10906,13 +10978,13 @@
       <c r="C48" s="35"/>
       <c r="D48" s="33"/>
       <c r="E48" s="33" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F48" s="33"/>
       <c r="G48" s="33"/>
       <c r="H48" s="33"/>
       <c r="I48" s="33" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="J48" s="33"/>
       <c r="K48" s="33"/>
@@ -10923,13 +10995,13 @@
       <c r="D49" s="33"/>
       <c r="E49" s="33"/>
       <c r="F49" s="33" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G49" s="33"/>
       <c r="H49" s="33"/>
       <c r="I49" s="33"/>
       <c r="J49" s="33" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="K49" s="33"/>
       <c r="L49" s="33"/>
@@ -10938,14 +11010,14 @@
       <c r="C50" s="35"/>
       <c r="D50" s="33"/>
       <c r="E50" s="33" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F50" s="33"/>
       <c r="G50" s="33"/>
       <c r="H50" s="33"/>
       <c r="I50" s="33"/>
       <c r="J50" s="33" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="K50" s="33"/>
       <c r="L50" s="33"/>
@@ -10955,7 +11027,7 @@
       <c r="D51" s="33"/>
       <c r="E51" s="33"/>
       <c r="F51" s="33" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G51" s="33"/>
       <c r="H51" s="33"/>
@@ -10968,7 +11040,7 @@
       <c r="C52" s="35"/>
       <c r="D52" s="33"/>
       <c r="E52" s="33" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
@@ -10983,7 +11055,7 @@
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="33" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G53" s="33"/>
       <c r="H53" s="33"/>
@@ -11022,13 +11094,13 @@
       <c r="C56" s="35"/>
       <c r="D56" s="33"/>
       <c r="E56" s="33" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F56" s="33"/>
       <c r="G56" s="33"/>
       <c r="H56" s="33"/>
       <c r="I56" s="33" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="J56" s="33"/>
       <c r="K56" s="33"/>
@@ -11039,13 +11111,13 @@
       <c r="D57" s="33"/>
       <c r="E57" s="33"/>
       <c r="F57" s="33" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G57" s="33"/>
       <c r="H57" s="33"/>
       <c r="I57" s="33"/>
       <c r="J57" s="33" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="K57" s="33"/>
       <c r="L57" s="33"/>
@@ -11054,13 +11126,13 @@
       <c r="C58" s="35"/>
       <c r="D58" s="33"/>
       <c r="E58" s="33" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F58" s="33"/>
       <c r="G58" s="33"/>
       <c r="H58" s="33"/>
       <c r="I58" s="33" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="J58" s="33"/>
       <c r="K58" s="33"/>
@@ -11071,13 +11143,13 @@
       <c r="D59" s="33"/>
       <c r="E59" s="33"/>
       <c r="F59" s="33" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G59" s="33"/>
       <c r="H59" s="33"/>
       <c r="I59" s="33"/>
       <c r="J59" s="33" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="K59" s="33"/>
       <c r="L59" s="33"/>
@@ -11086,13 +11158,13 @@
       <c r="C60" s="35"/>
       <c r="D60" s="33"/>
       <c r="E60" s="33" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F60" s="33"/>
       <c r="G60" s="33"/>
       <c r="H60" s="33"/>
       <c r="I60" s="33" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="J60" s="33"/>
       <c r="K60" s="33"/>
@@ -11103,13 +11175,13 @@
       <c r="D61" s="33"/>
       <c r="E61" s="33"/>
       <c r="F61" s="33" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G61" s="33"/>
       <c r="H61" s="33"/>
       <c r="I61" s="33"/>
       <c r="J61" s="33" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="K61" s="33"/>
       <c r="L61" s="33"/>
@@ -11118,13 +11190,13 @@
       <c r="C62" s="35"/>
       <c r="D62" s="33"/>
       <c r="E62" s="33" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F62" s="33"/>
       <c r="G62" s="33"/>
       <c r="H62" s="33"/>
       <c r="I62" s="33" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J62" s="33"/>
       <c r="K62" s="33"/>
@@ -11135,15 +11207,15 @@
       <c r="D63" s="33"/>
       <c r="E63" s="33"/>
       <c r="F63" s="33" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="G63" s="33" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="H63" s="33"/>
       <c r="I63" s="33"/>
       <c r="J63" s="33" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="K63" s="33"/>
       <c r="L63" s="33"/>
@@ -11153,15 +11225,15 @@
       <c r="D64" s="33"/>
       <c r="E64" s="33"/>
       <c r="F64" s="33" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="G64" s="33" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="H64" s="33"/>
       <c r="I64" s="33"/>
       <c r="J64" s="33" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="K64" s="33"/>
       <c r="L64" s="33"/>
@@ -11170,14 +11242,14 @@
       <c r="C65" s="35"/>
       <c r="D65" s="33"/>
       <c r="E65" s="33" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F65" s="33"/>
       <c r="G65" s="33"/>
       <c r="H65" s="33"/>
       <c r="I65" s="33"/>
       <c r="J65" s="33" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K65" s="33"/>
       <c r="L65" s="33"/>
@@ -11187,7 +11259,7 @@
       <c r="D66" s="33"/>
       <c r="E66" s="33"/>
       <c r="F66" s="33" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G66" s="33"/>
       <c r="H66" s="33"/>
@@ -11201,7 +11273,7 @@
       <c r="D67" s="33"/>
       <c r="E67" s="33"/>
       <c r="F67" s="33" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G67" s="33"/>
       <c r="H67" s="33"/>
@@ -11215,7 +11287,7 @@
       <c r="D68" s="33"/>
       <c r="E68" s="33"/>
       <c r="F68" s="33" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G68" s="33"/>
       <c r="H68" s="33"/>
@@ -11235,111 +11307,111 @@
       <c r="K69" s="25"/>
       <c r="L69" s="25"/>
     </row>
-    <row r="70" spans="3:12" s="56" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C70" s="53"/>
-      <c r="D70" s="58"/>
-      <c r="E70" s="58" t="s">
+    <row r="70" spans="3:12" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C70" s="52"/>
+      <c r="D70" s="57"/>
+      <c r="E70" s="57" t="s">
+        <v>669</v>
+      </c>
+      <c r="F70" s="57"/>
+      <c r="G70" s="57"/>
+      <c r="H70" s="57"/>
+      <c r="I70" s="57"/>
+      <c r="J70" s="57"/>
+      <c r="K70" s="57"/>
+      <c r="L70" s="57"/>
+    </row>
+    <row r="71" spans="3:12" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C71" s="52"/>
+      <c r="D71" s="57"/>
+      <c r="E71" s="57"/>
+      <c r="F71" s="57" t="s">
+        <v>670</v>
+      </c>
+      <c r="G71" s="57"/>
+      <c r="H71" s="57"/>
+      <c r="I71" s="57"/>
+      <c r="J71" s="57"/>
+      <c r="K71" s="57"/>
+      <c r="L71" s="57"/>
+    </row>
+    <row r="72" spans="3:12" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C72" s="52"/>
+      <c r="D72" s="57"/>
+      <c r="E72" s="57"/>
+      <c r="F72" s="57" t="s">
+        <v>671</v>
+      </c>
+      <c r="G72" s="57">
+        <v>1</v>
+      </c>
+      <c r="H72" s="57"/>
+      <c r="I72" s="57"/>
+      <c r="J72" s="57"/>
+      <c r="K72" s="57"/>
+      <c r="L72" s="57"/>
+    </row>
+    <row r="73" spans="3:12" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C73" s="52"/>
+      <c r="D73" s="57"/>
+      <c r="E73" s="57"/>
+      <c r="F73" s="57" t="s">
         <v>672</v>
       </c>
-      <c r="F70" s="58"/>
-      <c r="G70" s="58"/>
-      <c r="H70" s="58"/>
-      <c r="I70" s="58"/>
-      <c r="J70" s="58"/>
-      <c r="K70" s="58"/>
-      <c r="L70" s="58"/>
-    </row>
-    <row r="71" spans="3:12" s="56" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C71" s="53"/>
-      <c r="D71" s="58"/>
-      <c r="E71" s="58"/>
-      <c r="F71" s="58" t="s">
+      <c r="G73" s="57">
+        <v>10</v>
+      </c>
+      <c r="H73" s="57" t="s">
         <v>673</v>
       </c>
-      <c r="G71" s="58"/>
-      <c r="H71" s="58"/>
-      <c r="I71" s="58"/>
-      <c r="J71" s="58"/>
-      <c r="K71" s="58"/>
-      <c r="L71" s="58"/>
-    </row>
-    <row r="72" spans="3:12" s="56" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C72" s="53"/>
-      <c r="D72" s="58"/>
-      <c r="E72" s="58"/>
-      <c r="F72" s="58" t="s">
+      <c r="I73" s="57"/>
+      <c r="J73" s="57"/>
+      <c r="K73" s="57"/>
+      <c r="L73" s="57"/>
+    </row>
+    <row r="74" spans="3:12" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C74" s="52"/>
+      <c r="D74" s="57"/>
+      <c r="E74" s="57"/>
+      <c r="F74" s="67" t="s">
+        <v>379</v>
+      </c>
+      <c r="G74" s="63">
+        <v>20</v>
+      </c>
+      <c r="H74" s="57" t="s">
+        <v>675</v>
+      </c>
+      <c r="I74" s="57"/>
+      <c r="J74" s="57"/>
+      <c r="K74" s="57"/>
+      <c r="L74" s="57"/>
+    </row>
+    <row r="75" spans="3:12" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C75" s="52"/>
+      <c r="D75" s="57"/>
+      <c r="E75" s="57"/>
+      <c r="F75" s="57" t="s">
         <v>674</v>
       </c>
-      <c r="G72" s="58">
-        <v>1</v>
-      </c>
-      <c r="H72" s="58"/>
-      <c r="I72" s="58"/>
-      <c r="J72" s="58"/>
-      <c r="K72" s="58"/>
-      <c r="L72" s="58"/>
-    </row>
-    <row r="73" spans="3:12" s="56" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C73" s="53"/>
-      <c r="D73" s="58"/>
-      <c r="E73" s="58"/>
-      <c r="F73" s="58" t="s">
-        <v>675</v>
-      </c>
-      <c r="G73" s="58">
-        <v>10</v>
-      </c>
-      <c r="H73" s="58" t="s">
-        <v>676</v>
-      </c>
-      <c r="I73" s="58"/>
-      <c r="J73" s="58"/>
-      <c r="K73" s="58"/>
-      <c r="L73" s="58"/>
-    </row>
-    <row r="74" spans="3:12" s="56" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C74" s="53"/>
-      <c r="D74" s="58"/>
-      <c r="E74" s="58"/>
-      <c r="F74" s="68" t="s">
-        <v>381</v>
-      </c>
-      <c r="G74" s="64">
-        <v>20</v>
-      </c>
-      <c r="H74" s="58" t="s">
-        <v>678</v>
-      </c>
-      <c r="I74" s="58"/>
-      <c r="J74" s="58"/>
-      <c r="K74" s="58"/>
-      <c r="L74" s="58"/>
-    </row>
-    <row r="75" spans="3:12" s="56" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C75" s="53"/>
-      <c r="D75" s="58"/>
-      <c r="E75" s="58"/>
-      <c r="F75" s="58" t="s">
-        <v>677</v>
-      </c>
-      <c r="G75" s="58"/>
-      <c r="H75" s="58"/>
-      <c r="I75" s="58"/>
-      <c r="J75" s="58"/>
-      <c r="K75" s="58"/>
-      <c r="L75" s="58"/>
-    </row>
-    <row r="76" spans="3:12" s="56" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C76" s="53"/>
-      <c r="D76" s="58"/>
-      <c r="E76" s="58"/>
-      <c r="F76" s="58"/>
-      <c r="G76" s="58"/>
-      <c r="H76" s="58"/>
-      <c r="I76" s="58"/>
-      <c r="J76" s="58"/>
-      <c r="K76" s="58"/>
-      <c r="L76" s="58"/>
+      <c r="G75" s="57"/>
+      <c r="H75" s="57"/>
+      <c r="I75" s="57"/>
+      <c r="J75" s="57"/>
+      <c r="K75" s="57"/>
+      <c r="L75" s="57"/>
+    </row>
+    <row r="76" spans="3:12" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C76" s="52"/>
+      <c r="D76" s="57"/>
+      <c r="E76" s="57"/>
+      <c r="F76" s="57"/>
+      <c r="G76" s="57"/>
+      <c r="H76" s="57"/>
+      <c r="I76" s="57"/>
+      <c r="J76" s="57"/>
+      <c r="K76" s="57"/>
+      <c r="L76" s="57"/>
     </row>
     <row r="77" spans="3:12" x14ac:dyDescent="0.15">
       <c r="D77" s="1" t="s">
@@ -11348,180 +11420,180 @@
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A91" s="30" t="s">
-        <v>458</v>
-      </c>
-      <c r="E91" s="64" t="s">
+        <v>456</v>
+      </c>
+      <c r="E91" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="F91" s="64"/>
-      <c r="G91" s="64"/>
-      <c r="H91" s="64"/>
-      <c r="I91" s="64"/>
-      <c r="J91" s="64"/>
-      <c r="K91" s="64"/>
-      <c r="L91" s="64"/>
-      <c r="M91" s="64"/>
-      <c r="N91" s="64"/>
-      <c r="O91" s="64"/>
-      <c r="P91" s="64"/>
-      <c r="Q91" s="64"/>
-      <c r="R91" s="64"/>
+      <c r="F91" s="63"/>
+      <c r="G91" s="63"/>
+      <c r="H91" s="63"/>
+      <c r="I91" s="63"/>
+      <c r="J91" s="63"/>
+      <c r="K91" s="63"/>
+      <c r="L91" s="63"/>
+      <c r="M91" s="63"/>
+      <c r="N91" s="63"/>
+      <c r="O91" s="63"/>
+      <c r="P91" s="63"/>
+      <c r="Q91" s="63"/>
+      <c r="R91" s="63"/>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A92" s="38" t="s">
-        <v>626</v>
-      </c>
-      <c r="E92" s="64"/>
-      <c r="F92" s="64" t="s">
+        <v>623</v>
+      </c>
+      <c r="E92" s="63"/>
+      <c r="F92" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="G92" s="64"/>
-      <c r="H92" s="64"/>
-      <c r="I92" s="64"/>
-      <c r="J92" s="64"/>
-      <c r="K92" s="64"/>
-      <c r="L92" s="64"/>
-      <c r="M92" s="64"/>
-      <c r="N92" s="64"/>
-      <c r="O92" s="64"/>
-      <c r="P92" s="64"/>
-      <c r="Q92" s="64"/>
-      <c r="R92" s="64"/>
+      <c r="G92" s="63"/>
+      <c r="H92" s="63"/>
+      <c r="I92" s="63"/>
+      <c r="J92" s="63"/>
+      <c r="K92" s="63"/>
+      <c r="L92" s="63"/>
+      <c r="M92" s="63"/>
+      <c r="N92" s="63"/>
+      <c r="O92" s="63"/>
+      <c r="P92" s="63"/>
+      <c r="Q92" s="63"/>
+      <c r="R92" s="63"/>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A93" s="30" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B93" s="29" t="s">
-        <v>419</v>
-      </c>
-      <c r="E93" s="64"/>
-      <c r="F93" s="64" t="s">
-        <v>634</v>
-      </c>
-      <c r="G93" s="64"/>
-      <c r="H93" s="64"/>
-      <c r="I93" s="64"/>
-      <c r="J93" s="64"/>
-      <c r="K93" s="64"/>
-      <c r="L93" s="64" t="s">
-        <v>635</v>
-      </c>
-      <c r="M93" s="64"/>
-      <c r="N93" s="64"/>
-      <c r="O93" s="64"/>
-      <c r="P93" s="64"/>
-      <c r="Q93" s="64"/>
-      <c r="R93" s="64"/>
-      <c r="S93" s="58" t="s">
-        <v>656</v>
+        <v>417</v>
+      </c>
+      <c r="E93" s="63"/>
+      <c r="F93" s="63" t="s">
+        <v>631</v>
+      </c>
+      <c r="G93" s="63"/>
+      <c r="H93" s="63"/>
+      <c r="I93" s="63"/>
+      <c r="J93" s="63"/>
+      <c r="K93" s="63"/>
+      <c r="L93" s="63" t="s">
+        <v>632</v>
+      </c>
+      <c r="M93" s="63"/>
+      <c r="N93" s="63"/>
+      <c r="O93" s="63"/>
+      <c r="P93" s="63"/>
+      <c r="Q93" s="63"/>
+      <c r="R93" s="63"/>
+      <c r="S93" s="57" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A94" s="38" t="s">
+        <v>630</v>
+      </c>
+      <c r="B94" s="38" t="s">
+        <v>634</v>
+      </c>
+      <c r="E94" s="63"/>
+      <c r="F94" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="G94" s="63"/>
+      <c r="H94" s="63"/>
+      <c r="I94" s="63"/>
+      <c r="J94" s="63"/>
+      <c r="K94" s="63"/>
+      <c r="L94" s="63" t="s">
         <v>633</v>
       </c>
-      <c r="B94" s="38" t="s">
-        <v>637</v>
-      </c>
-      <c r="E94" s="64"/>
-      <c r="F94" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="G94" s="64"/>
-      <c r="H94" s="64"/>
-      <c r="I94" s="64"/>
-      <c r="J94" s="64"/>
-      <c r="K94" s="64"/>
-      <c r="L94" s="64" t="s">
-        <v>636</v>
-      </c>
-      <c r="M94" s="64"/>
-      <c r="N94" s="64"/>
-      <c r="O94" s="64"/>
-      <c r="P94" s="64"/>
-      <c r="Q94" s="64"/>
-      <c r="R94" s="64"/>
+      <c r="M94" s="63"/>
+      <c r="N94" s="63"/>
+      <c r="O94" s="63"/>
+      <c r="P94" s="63"/>
+      <c r="Q94" s="63"/>
+      <c r="R94" s="63"/>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="E95" s="64"/>
-      <c r="F95" s="64"/>
-      <c r="G95" s="64" t="s">
+      <c r="E95" s="63"/>
+      <c r="F95" s="63"/>
+      <c r="G95" s="63" t="s">
+        <v>626</v>
+      </c>
+      <c r="H95" s="63" t="s">
+        <v>627</v>
+      </c>
+      <c r="I95" s="63"/>
+      <c r="J95" s="63"/>
+      <c r="K95" s="63"/>
+      <c r="L95" s="63"/>
+      <c r="M95" s="63"/>
+      <c r="N95" s="63"/>
+      <c r="O95" s="63"/>
+      <c r="P95" s="63"/>
+      <c r="Q95" s="63"/>
+      <c r="R95" s="63"/>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="E96" s="63"/>
+      <c r="F96" s="63"/>
+      <c r="G96" s="63" t="s">
+        <v>624</v>
+      </c>
+      <c r="H96" s="63" t="s">
+        <v>628</v>
+      </c>
+      <c r="I96" s="63"/>
+      <c r="J96" s="63"/>
+      <c r="K96" s="63"/>
+      <c r="L96" s="63"/>
+      <c r="M96" s="63"/>
+      <c r="N96" s="63"/>
+      <c r="O96" s="63"/>
+      <c r="P96" s="63"/>
+      <c r="Q96" s="63"/>
+      <c r="R96" s="63"/>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="E97" s="63"/>
+      <c r="F97" s="63"/>
+      <c r="G97" s="63" t="s">
+        <v>625</v>
+      </c>
+      <c r="H97" s="63" t="s">
         <v>629</v>
       </c>
-      <c r="H95" s="64" t="s">
-        <v>630</v>
-      </c>
-      <c r="I95" s="64"/>
-      <c r="J95" s="64"/>
-      <c r="K95" s="64"/>
-      <c r="L95" s="64"/>
-      <c r="M95" s="64"/>
-      <c r="N95" s="64"/>
-      <c r="O95" s="64"/>
-      <c r="P95" s="64"/>
-      <c r="Q95" s="64"/>
-      <c r="R95" s="64"/>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="E96" s="64"/>
-      <c r="F96" s="64"/>
-      <c r="G96" s="64" t="s">
-        <v>627</v>
-      </c>
-      <c r="H96" s="64" t="s">
-        <v>631</v>
-      </c>
-      <c r="I96" s="64"/>
-      <c r="J96" s="64"/>
-      <c r="K96" s="64"/>
-      <c r="L96" s="64"/>
-      <c r="M96" s="64"/>
-      <c r="N96" s="64"/>
-      <c r="O96" s="64"/>
-      <c r="P96" s="64"/>
-      <c r="Q96" s="64"/>
-      <c r="R96" s="64"/>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="E97" s="64"/>
-      <c r="F97" s="64"/>
-      <c r="G97" s="64" t="s">
-        <v>628</v>
-      </c>
-      <c r="H97" s="64" t="s">
-        <v>632</v>
-      </c>
-      <c r="I97" s="64"/>
-      <c r="J97" s="64"/>
-      <c r="K97" s="64"/>
-      <c r="L97" s="64"/>
-      <c r="M97" s="64"/>
-      <c r="N97" s="64"/>
-      <c r="O97" s="64"/>
-      <c r="P97" s="64"/>
-      <c r="Q97" s="64"/>
-      <c r="R97" s="64"/>
+      <c r="I97" s="63"/>
+      <c r="J97" s="63"/>
+      <c r="K97" s="63"/>
+      <c r="L97" s="63"/>
+      <c r="M97" s="63"/>
+      <c r="N97" s="63"/>
+      <c r="O97" s="63"/>
+      <c r="P97" s="63"/>
+      <c r="Q97" s="63"/>
+      <c r="R97" s="63"/>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="E98" s="64"/>
-      <c r="F98" s="64"/>
-      <c r="G98" s="64"/>
-      <c r="H98" s="64"/>
-      <c r="I98" s="64"/>
-      <c r="J98" s="64"/>
-      <c r="K98" s="64"/>
-      <c r="L98" s="64"/>
-      <c r="M98" s="64"/>
-      <c r="N98" s="64"/>
-      <c r="O98" s="64"/>
-      <c r="P98" s="64"/>
-      <c r="Q98" s="64"/>
-      <c r="R98" s="64"/>
+      <c r="E98" s="63"/>
+      <c r="F98" s="63"/>
+      <c r="G98" s="63"/>
+      <c r="H98" s="63"/>
+      <c r="I98" s="63"/>
+      <c r="J98" s="63"/>
+      <c r="K98" s="63"/>
+      <c r="L98" s="63"/>
+      <c r="M98" s="63"/>
+      <c r="N98" s="63"/>
+      <c r="O98" s="63"/>
+      <c r="P98" s="63"/>
+      <c r="Q98" s="63"/>
+      <c r="R98" s="63"/>
     </row>
     <row r="99" spans="1:18" ht="33" x14ac:dyDescent="0.15">
       <c r="A99" s="31" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E99" s="33" t="s">
         <v>35</v>
@@ -11535,7 +11607,7 @@
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A100" s="38" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E100" s="33"/>
       <c r="F100" s="33" t="s">
@@ -11551,7 +11623,7 @@
       <c r="A101" s="38"/>
       <c r="E101" s="33"/>
       <c r="F101" s="33" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="G101" s="33"/>
       <c r="H101" s="33"/>
@@ -11572,11 +11644,11 @@
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A103" s="30" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E103" s="33"/>
       <c r="F103" s="33" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="G103" s="33"/>
       <c r="H103" s="33"/>
@@ -11586,7 +11658,7 @@
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A104" s="32" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E104" s="33"/>
       <c r="F104" s="33" t="s">
@@ -11631,7 +11703,7 @@
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A111" s="30" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>225</v>
@@ -11639,7 +11711,7 @@
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A112" s="32" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.15">
@@ -11656,7 +11728,7 @@
     </row>
     <row r="114" spans="1:13" ht="33" x14ac:dyDescent="0.15">
       <c r="A114" s="31" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F114" s="33"/>
       <c r="G114" s="33" t="s">
@@ -11671,7 +11743,7 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A115" s="34" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="F115" s="33"/>
       <c r="G115" s="33" t="s">
@@ -11685,9 +11757,9 @@
       <c r="M115" s="33"/>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="C116" s="53"/>
-      <c r="D116" s="56"/>
-      <c r="E116" s="56"/>
+      <c r="C116" s="52"/>
+      <c r="D116" s="55"/>
+      <c r="E116" s="55"/>
       <c r="F116" s="33"/>
       <c r="G116" s="33"/>
       <c r="H116" s="33" t="s">
@@ -11702,9 +11774,9 @@
       <c r="M116" s="33"/>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="C117" s="53"/>
-      <c r="D117" s="56"/>
-      <c r="E117" s="56"/>
+      <c r="C117" s="52"/>
+      <c r="D117" s="55"/>
+      <c r="E117" s="55"/>
       <c r="F117" s="33"/>
       <c r="G117" s="33"/>
       <c r="H117" s="33" t="s">
@@ -11719,9 +11791,9 @@
       <c r="M117" s="33"/>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="C118" s="53"/>
-      <c r="D118" s="56"/>
-      <c r="E118" s="56"/>
+      <c r="C118" s="52"/>
+      <c r="D118" s="55"/>
+      <c r="E118" s="55"/>
       <c r="F118" s="33"/>
       <c r="G118" s="33"/>
       <c r="H118" s="33" t="s">
@@ -11736,9 +11808,9 @@
       <c r="M118" s="33"/>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="C119" s="53"/>
-      <c r="D119" s="56"/>
-      <c r="E119" s="56"/>
+      <c r="C119" s="52"/>
+      <c r="D119" s="55"/>
+      <c r="E119" s="55"/>
       <c r="F119" s="33"/>
       <c r="G119" s="33"/>
       <c r="H119" s="33" t="s">
@@ -11753,9 +11825,9 @@
       <c r="M119" s="33"/>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="C120" s="53"/>
-      <c r="D120" s="56"/>
-      <c r="E120" s="56"/>
+      <c r="C120" s="52"/>
+      <c r="D120" s="55"/>
+      <c r="E120" s="55"/>
       <c r="F120" s="33"/>
       <c r="G120" s="33" t="s">
         <v>231</v>
@@ -11768,9 +11840,9 @@
       <c r="M120" s="33"/>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="C121" s="53"/>
-      <c r="D121" s="56"/>
-      <c r="E121" s="56"/>
+      <c r="C121" s="52"/>
+      <c r="D121" s="55"/>
+      <c r="E121" s="55"/>
       <c r="F121" s="33"/>
       <c r="G121" s="33"/>
       <c r="H121" s="33" t="s">
@@ -11785,9 +11857,9 @@
       <c r="M121" s="33"/>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="C122" s="53"/>
-      <c r="D122" s="56"/>
-      <c r="E122" s="56"/>
+      <c r="C122" s="52"/>
+      <c r="D122" s="55"/>
+      <c r="E122" s="55"/>
       <c r="F122" s="33"/>
       <c r="G122" s="33"/>
       <c r="H122" s="33" t="s">
@@ -11802,9 +11874,9 @@
       <c r="M122" s="33"/>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="C123" s="53"/>
-      <c r="D123" s="56"/>
-      <c r="E123" s="56"/>
+      <c r="C123" s="52"/>
+      <c r="D123" s="55"/>
+      <c r="E123" s="55"/>
       <c r="F123" s="33"/>
       <c r="G123" s="33" t="s">
         <v>250</v>
@@ -11817,9 +11889,9 @@
       <c r="M123" s="33"/>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="C124" s="53"/>
-      <c r="D124" s="56"/>
-      <c r="E124" s="56"/>
+      <c r="C124" s="52"/>
+      <c r="D124" s="55"/>
+      <c r="E124" s="55"/>
       <c r="F124" s="33"/>
       <c r="G124" s="33"/>
       <c r="H124" s="33" t="s">
@@ -11834,9 +11906,9 @@
       <c r="M124" s="33"/>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="C125" s="53"/>
-      <c r="D125" s="56"/>
-      <c r="E125" s="56"/>
+      <c r="C125" s="52"/>
+      <c r="D125" s="55"/>
+      <c r="E125" s="55"/>
       <c r="F125" s="33"/>
       <c r="G125" s="33" t="s">
         <v>251</v>
@@ -11849,9 +11921,9 @@
       <c r="M125" s="33"/>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="C126" s="53"/>
-      <c r="D126" s="56"/>
-      <c r="E126" s="56"/>
+      <c r="C126" s="52"/>
+      <c r="D126" s="55"/>
+      <c r="E126" s="55"/>
       <c r="F126" s="33"/>
       <c r="G126" s="33"/>
       <c r="H126" s="33" t="s">
@@ -11866,9 +11938,9 @@
       <c r="M126" s="33"/>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="C127" s="53"/>
-      <c r="D127" s="56"/>
-      <c r="E127" s="56"/>
+      <c r="C127" s="52"/>
+      <c r="D127" s="55"/>
+      <c r="E127" s="55"/>
       <c r="F127" s="33"/>
       <c r="G127" s="33" t="s">
         <v>252</v>
@@ -11881,9 +11953,9 @@
       <c r="M127" s="33"/>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="C128" s="53"/>
-      <c r="D128" s="56"/>
-      <c r="E128" s="56"/>
+      <c r="C128" s="52"/>
+      <c r="D128" s="55"/>
+      <c r="E128" s="55"/>
       <c r="F128" s="33"/>
       <c r="G128" s="33"/>
       <c r="H128" s="33" t="s">
@@ -11899,11 +11971,11 @@
     </row>
     <row r="129" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B129" s="29" t="s">
-        <v>420</v>
-      </c>
-      <c r="C129" s="53"/>
-      <c r="D129" s="56"/>
-      <c r="E129" s="56"/>
+        <v>418</v>
+      </c>
+      <c r="C129" s="52"/>
+      <c r="D129" s="55"/>
+      <c r="E129" s="55"/>
       <c r="F129" s="33"/>
       <c r="G129" s="36" t="s">
         <v>241</v>
@@ -11917,11 +11989,11 @@
     </row>
     <row r="130" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B130" s="32" t="s">
-        <v>521</v>
-      </c>
-      <c r="C130" s="53"/>
-      <c r="D130" s="56"/>
-      <c r="E130" s="56"/>
+        <v>519</v>
+      </c>
+      <c r="C130" s="52"/>
+      <c r="D130" s="55"/>
+      <c r="E130" s="55"/>
       <c r="F130" s="33"/>
       <c r="G130" s="36"/>
       <c r="H130" s="36" t="s">
@@ -11937,14 +12009,14 @@
     </row>
     <row r="131" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B131" s="29" t="s">
-        <v>421</v>
-      </c>
-      <c r="C131" s="53"/>
-      <c r="D131" s="56"/>
-      <c r="E131" s="56"/>
+        <v>419</v>
+      </c>
+      <c r="C131" s="52"/>
+      <c r="D131" s="55"/>
+      <c r="E131" s="55"/>
       <c r="F131" s="33"/>
       <c r="G131" s="33" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="H131" s="33"/>
       <c r="I131" s="33"/>
@@ -11955,11 +12027,11 @@
     </row>
     <row r="132" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B132" s="32" t="s">
-        <v>520</v>
-      </c>
-      <c r="C132" s="53"/>
-      <c r="D132" s="56"/>
-      <c r="E132" s="56"/>
+        <v>518</v>
+      </c>
+      <c r="C132" s="52"/>
+      <c r="D132" s="55"/>
+      <c r="E132" s="55"/>
       <c r="F132" s="33"/>
       <c r="G132" s="33"/>
       <c r="H132" s="33" t="s">
@@ -11975,11 +12047,11 @@
     </row>
     <row r="133" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B133" s="29" t="s">
-        <v>420</v>
-      </c>
-      <c r="C133" s="53"/>
-      <c r="D133" s="56"/>
-      <c r="E133" s="56"/>
+        <v>418</v>
+      </c>
+      <c r="C133" s="52"/>
+      <c r="D133" s="55"/>
+      <c r="E133" s="55"/>
       <c r="F133" s="33"/>
       <c r="G133" s="36" t="s">
         <v>253</v>
@@ -11993,11 +12065,11 @@
     </row>
     <row r="134" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B134" s="32" t="s">
-        <v>521</v>
-      </c>
-      <c r="C134" s="53"/>
-      <c r="D134" s="56"/>
-      <c r="E134" s="56"/>
+        <v>519</v>
+      </c>
+      <c r="C134" s="52"/>
+      <c r="D134" s="55"/>
+      <c r="E134" s="55"/>
       <c r="F134" s="33"/>
       <c r="G134" s="36"/>
       <c r="H134" s="36" t="s">
@@ -12012,9 +12084,9 @@
       <c r="M134" s="33"/>
     </row>
     <row r="135" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C135" s="53"/>
-      <c r="D135" s="56"/>
-      <c r="E135" s="56"/>
+      <c r="C135" s="52"/>
+      <c r="D135" s="55"/>
+      <c r="E135" s="55"/>
       <c r="F135" s="33"/>
       <c r="G135" s="33" t="s">
         <v>242</v>
@@ -12027,9 +12099,9 @@
       <c r="M135" s="33"/>
     </row>
     <row r="136" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C136" s="53"/>
-      <c r="D136" s="56"/>
-      <c r="E136" s="56"/>
+      <c r="C136" s="52"/>
+      <c r="D136" s="55"/>
+      <c r="E136" s="55"/>
       <c r="F136" s="33"/>
       <c r="G136" s="33"/>
       <c r="H136" s="33" t="s">
@@ -12045,11 +12117,11 @@
     </row>
     <row r="137" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B137" s="29" t="s">
-        <v>422</v>
-      </c>
-      <c r="C137" s="53"/>
-      <c r="D137" s="56"/>
-      <c r="E137" s="56"/>
+        <v>420</v>
+      </c>
+      <c r="C137" s="52"/>
+      <c r="D137" s="55"/>
+      <c r="E137" s="55"/>
       <c r="F137" s="33"/>
       <c r="G137" s="37" t="s">
         <v>243</v>
@@ -12063,11 +12135,11 @@
     </row>
     <row r="138" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B138" s="32" t="s">
-        <v>522</v>
-      </c>
-      <c r="C138" s="53"/>
-      <c r="D138" s="56"/>
-      <c r="E138" s="56"/>
+        <v>520</v>
+      </c>
+      <c r="C138" s="52"/>
+      <c r="D138" s="55"/>
+      <c r="E138" s="55"/>
       <c r="F138" s="33"/>
       <c r="G138" s="33"/>
       <c r="H138" s="33" t="s">
@@ -12083,9 +12155,9 @@
       <c r="N138" s="33"/>
     </row>
     <row r="139" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C139" s="53"/>
-      <c r="D139" s="56"/>
-      <c r="E139" s="56"/>
+      <c r="C139" s="52"/>
+      <c r="D139" s="55"/>
+      <c r="E139" s="55"/>
       <c r="F139" s="33"/>
       <c r="G139" s="33" t="s">
         <v>254</v>
@@ -12099,9 +12171,9 @@
       <c r="N139" s="33"/>
     </row>
     <row r="140" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C140" s="53"/>
-      <c r="D140" s="56"/>
-      <c r="E140" s="56"/>
+      <c r="C140" s="52"/>
+      <c r="D140" s="55"/>
+      <c r="E140" s="55"/>
       <c r="F140" s="33"/>
       <c r="G140" s="33"/>
       <c r="H140" s="33" t="s">
@@ -12119,7 +12191,7 @@
     <row r="141" spans="2:14" x14ac:dyDescent="0.15">
       <c r="F141" s="33"/>
       <c r="G141" s="33" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H141" s="33"/>
       <c r="I141" s="33"/>
@@ -12133,11 +12205,11 @@
       <c r="F142" s="33"/>
       <c r="G142" s="33"/>
       <c r="H142" s="33" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="I142" s="33"/>
       <c r="J142" s="33" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="K142" s="33"/>
       <c r="L142" s="33"/>
@@ -12147,7 +12219,7 @@
     <row r="143" spans="2:14" x14ac:dyDescent="0.15">
       <c r="F143" s="33"/>
       <c r="G143" s="33" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="H143" s="33"/>
       <c r="I143" s="33"/>
@@ -12161,11 +12233,11 @@
       <c r="F144" s="33"/>
       <c r="G144" s="33"/>
       <c r="H144" s="33" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="I144" s="33"/>
       <c r="J144" s="33" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="K144" s="33"/>
       <c r="L144" s="33"/>
@@ -12174,11 +12246,11 @@
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B145" s="30" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F145" s="33"/>
       <c r="G145" s="33" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="H145" s="33"/>
       <c r="I145" s="33"/>
@@ -12190,16 +12262,16 @@
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B146" s="32" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F146" s="33"/>
       <c r="G146" s="33"/>
       <c r="H146" s="33" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="I146" s="33"/>
       <c r="J146" s="33" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="K146" s="33"/>
       <c r="L146" s="33"/>
@@ -12266,7 +12338,7 @@
     <row r="152" spans="1:14" x14ac:dyDescent="0.15">
       <c r="E152" s="33"/>
       <c r="F152" s="33" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G152" s="33"/>
       <c r="H152" s="33"/>
@@ -12278,14 +12350,14 @@
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A153" s="30" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B153" s="29" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E153" s="33"/>
       <c r="F153" s="33" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G153" s="33"/>
       <c r="H153" s="33"/>
@@ -12297,14 +12369,14 @@
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A154" s="32" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B154" s="32" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E154" s="33"/>
       <c r="F154" s="33" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G154" s="33"/>
       <c r="H154" s="33"/>
@@ -12319,7 +12391,7 @@
       <c r="B155" s="32"/>
       <c r="E155" s="33"/>
       <c r="F155" s="33" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="G155" s="33"/>
       <c r="H155" s="33"/>
@@ -12349,12 +12421,12 @@
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B161" s="30" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B162" s="32" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.15">
@@ -12369,7 +12441,7 @@
     </row>
     <row r="176" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F176" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.15">
@@ -12412,7 +12484,7 @@
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A187" s="30" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F187" s="33"/>
       <c r="G187" s="33" t="s">
@@ -12426,13 +12498,13 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A188" s="32" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B188" s="29" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C188" s="32" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F188" s="33" t="s">
         <v>53</v>
@@ -12446,13 +12518,13 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A189" s="30" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B189" s="29" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C189" s="32" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F189" s="33"/>
       <c r="G189" s="33" t="s">
@@ -12466,7 +12538,7 @@
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A190" s="32" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F190" s="33"/>
       <c r="G190" s="33" t="s">
@@ -12480,11 +12552,11 @@
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A191" s="30" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F191" s="33"/>
       <c r="G191" s="33" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H191" s="33"/>
       <c r="I191" s="33"/>
@@ -12494,12 +12566,12 @@
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A192" s="32" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F192" s="33"/>
       <c r="G192" s="33"/>
       <c r="H192" s="33" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="I192" s="33"/>
       <c r="J192" s="33"/>
@@ -12562,10 +12634,10 @@
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A198" s="30" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F198" s="33" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G198" s="33"/>
       <c r="H198" s="33"/>
@@ -12576,10 +12648,10 @@
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A199" s="32" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B199" s="30" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F199" s="33"/>
       <c r="G199" s="33" t="s">
@@ -12596,7 +12668,7 @@
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B200" s="32" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F200" s="33" t="s">
         <v>57</v>
@@ -12631,10 +12703,10 @@
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A203" s="30" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B203" s="32" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F203" s="33" t="s">
         <v>188</v>
@@ -12648,10 +12720,10 @@
     </row>
     <row r="204" spans="1:13" ht="33" x14ac:dyDescent="0.15">
       <c r="A204" s="31" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B204" s="32" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E204" s="33"/>
       <c r="F204" s="33" t="s">
@@ -12664,33 +12736,33 @@
       <c r="K204" s="33"/>
       <c r="L204" s="33"/>
     </row>
-    <row r="205" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A205" s="31"/>
-      <c r="B205" s="55"/>
-      <c r="C205" s="53"/>
-      <c r="E205" s="61"/>
-      <c r="F205" s="61" t="s">
-        <v>738</v>
-      </c>
-      <c r="G205" s="61"/>
-      <c r="H205" s="61"/>
-      <c r="I205" s="61"/>
-      <c r="J205" s="61"/>
-      <c r="K205" s="61"/>
-      <c r="L205" s="61"/>
-    </row>
-    <row r="206" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B205" s="54"/>
+      <c r="C205" s="52"/>
+      <c r="E205" s="60"/>
+      <c r="F205" s="60" t="s">
+        <v>734</v>
+      </c>
+      <c r="G205" s="60"/>
+      <c r="H205" s="60"/>
+      <c r="I205" s="60"/>
+      <c r="J205" s="60"/>
+      <c r="K205" s="60"/>
+      <c r="L205" s="60"/>
+    </row>
+    <row r="206" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A206" s="31"/>
-      <c r="B206" s="55"/>
-      <c r="C206" s="53"/>
-      <c r="E206" s="61"/>
-      <c r="F206" s="61"/>
-      <c r="G206" s="61"/>
-      <c r="H206" s="61"/>
-      <c r="I206" s="61"/>
-      <c r="J206" s="61"/>
-      <c r="K206" s="61"/>
-      <c r="L206" s="61"/>
+      <c r="B206" s="54"/>
+      <c r="C206" s="52"/>
+      <c r="E206" s="60"/>
+      <c r="F206" s="60"/>
+      <c r="G206" s="60"/>
+      <c r="H206" s="60"/>
+      <c r="I206" s="60"/>
+      <c r="J206" s="60"/>
+      <c r="K206" s="60"/>
+      <c r="L206" s="60"/>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.15">
       <c r="E207" s="33"/>
@@ -12706,11 +12778,11 @@
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A208" s="30" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E208" s="33"/>
       <c r="F208" s="33" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G208" s="33"/>
       <c r="H208" s="33"/>
@@ -12720,7 +12792,7 @@
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A209" s="32" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E209" s="33"/>
       <c r="F209" s="33" t="s">
@@ -12752,63 +12824,63 @@
       <c r="J211" s="33"/>
       <c r="K211" s="33"/>
     </row>
-    <row r="212" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C212" s="53"/>
-      <c r="E212" s="61"/>
-      <c r="F212" s="61" t="s">
-        <v>736</v>
-      </c>
-      <c r="G212" s="61"/>
-      <c r="H212" s="61"/>
-      <c r="I212" s="61"/>
-      <c r="J212" s="61"/>
-      <c r="K212" s="61"/>
-    </row>
-    <row r="213" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C213" s="53"/>
-      <c r="E213" s="61"/>
-      <c r="F213" s="61"/>
-      <c r="G213" s="61" t="s">
-        <v>735</v>
-      </c>
-      <c r="H213" s="61"/>
-      <c r="I213" s="61"/>
-      <c r="J213" s="61"/>
-      <c r="K213" s="61"/>
-    </row>
-    <row r="214" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C214" s="53"/>
-      <c r="E214" s="61"/>
-      <c r="F214" s="61"/>
-      <c r="G214" s="61" t="s">
-        <v>737</v>
-      </c>
-      <c r="H214" s="61"/>
-      <c r="I214" s="61"/>
-      <c r="J214" s="61"/>
-      <c r="K214" s="61"/>
-    </row>
-    <row r="215" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C215" s="53"/>
-      <c r="E215" s="61"/>
-      <c r="F215" s="61"/>
-      <c r="G215" s="58" t="s">
-        <v>746</v>
-      </c>
-      <c r="H215" s="61"/>
-      <c r="I215" s="61"/>
-      <c r="J215" s="61"/>
-      <c r="K215" s="61"/>
-    </row>
-    <row r="216" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C216" s="53"/>
-      <c r="E216" s="61"/>
-      <c r="F216" s="61"/>
-      <c r="G216" s="61"/>
-      <c r="H216" s="61"/>
-      <c r="I216" s="61"/>
-      <c r="J216" s="61"/>
-      <c r="K216" s="61"/>
+    <row r="212" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C212" s="52"/>
+      <c r="E212" s="60"/>
+      <c r="F212" s="60" t="s">
+        <v>732</v>
+      </c>
+      <c r="G212" s="60"/>
+      <c r="H212" s="60"/>
+      <c r="I212" s="60"/>
+      <c r="J212" s="60"/>
+      <c r="K212" s="60"/>
+    </row>
+    <row r="213" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C213" s="52"/>
+      <c r="E213" s="60"/>
+      <c r="F213" s="60"/>
+      <c r="G213" s="60" t="s">
+        <v>731</v>
+      </c>
+      <c r="H213" s="60"/>
+      <c r="I213" s="60"/>
+      <c r="J213" s="60"/>
+      <c r="K213" s="60"/>
+    </row>
+    <row r="214" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C214" s="52"/>
+      <c r="E214" s="60"/>
+      <c r="F214" s="60"/>
+      <c r="G214" s="60" t="s">
+        <v>733</v>
+      </c>
+      <c r="H214" s="60"/>
+      <c r="I214" s="60"/>
+      <c r="J214" s="60"/>
+      <c r="K214" s="60"/>
+    </row>
+    <row r="215" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C215" s="52"/>
+      <c r="E215" s="60"/>
+      <c r="F215" s="60"/>
+      <c r="G215" s="57" t="s">
+        <v>742</v>
+      </c>
+      <c r="H215" s="60"/>
+      <c r="I215" s="60"/>
+      <c r="J215" s="60"/>
+      <c r="K215" s="60"/>
+    </row>
+    <row r="216" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C216" s="52"/>
+      <c r="E216" s="60"/>
+      <c r="F216" s="60"/>
+      <c r="G216" s="60"/>
+      <c r="H216" s="60"/>
+      <c r="I216" s="60"/>
+      <c r="J216" s="60"/>
+      <c r="K216" s="60"/>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C218" s="11" t="s">
@@ -12822,16 +12894,16 @@
     </row>
     <row r="230" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B230" s="29" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="231" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B231" s="32" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D231" s="33"/>
       <c r="E231" s="33" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F231" s="33"/>
       <c r="G231" s="33"/>
@@ -12845,7 +12917,7 @@
       <c r="D232" s="33"/>
       <c r="E232" s="33"/>
       <c r="F232" s="33" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G232" s="33"/>
       <c r="H232" s="33"/>
@@ -12857,7 +12929,7 @@
     <row r="233" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D233" s="33"/>
       <c r="E233" s="33" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F233" s="33"/>
       <c r="G233" s="33"/>
@@ -12871,7 +12943,7 @@
       <c r="D234" s="33"/>
       <c r="E234" s="33"/>
       <c r="F234" s="33" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G234" s="33"/>
       <c r="H234" s="33"/>
@@ -12883,7 +12955,7 @@
     <row r="235" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D235" s="33"/>
       <c r="E235" s="33" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F235" s="33"/>
       <c r="G235" s="33"/>
@@ -12897,10 +12969,10 @@
       <c r="D236" s="33"/>
       <c r="E236" s="33"/>
       <c r="F236" s="33" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="G236" s="33" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="H236" s="33"/>
       <c r="I236" s="33"/>
@@ -12912,10 +12984,10 @@
       <c r="D237" s="33"/>
       <c r="E237" s="33"/>
       <c r="F237" s="33" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="G237" s="33" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="H237" s="33"/>
       <c r="I237" s="33"/>
@@ -13055,7 +13127,7 @@
       <c r="D248" s="33"/>
       <c r="E248" s="33"/>
       <c r="F248" s="33" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G248" s="33"/>
       <c r="H248" s="33"/>
@@ -13114,7 +13186,7 @@
       <c r="C252" s="35"/>
       <c r="D252" s="33"/>
       <c r="E252" s="33" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="F252" s="33"/>
       <c r="G252" s="33"/>
@@ -13131,13 +13203,13 @@
       <c r="D253" s="33"/>
       <c r="E253" s="33"/>
       <c r="F253" s="33" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G253" s="33"/>
       <c r="H253" s="33"/>
       <c r="I253" s="33"/>
       <c r="J253" s="33" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="K253" s="33"/>
       <c r="L253" s="33"/>
@@ -13150,13 +13222,13 @@
       <c r="E254" s="33"/>
       <c r="F254" s="33"/>
       <c r="G254" s="33" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H254" s="33"/>
       <c r="I254" s="33"/>
       <c r="J254" s="33"/>
       <c r="K254" s="33" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="L254" s="33"/>
       <c r="M254" s="33"/>
@@ -13167,13 +13239,13 @@
       <c r="D255" s="33"/>
       <c r="E255" s="33"/>
       <c r="F255" s="33" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G255" s="33"/>
       <c r="H255" s="33"/>
       <c r="I255" s="33"/>
       <c r="J255" s="33" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="K255" s="33"/>
       <c r="L255" s="33"/>
@@ -13186,13 +13258,13 @@
       <c r="E256" s="33"/>
       <c r="F256" s="33"/>
       <c r="G256" s="33" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H256" s="33"/>
       <c r="I256" s="33"/>
       <c r="J256" s="33"/>
       <c r="K256" s="33" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="L256" s="33"/>
       <c r="M256" s="33"/>
@@ -13203,13 +13275,13 @@
       <c r="D257" s="33"/>
       <c r="E257" s="33"/>
       <c r="F257" s="33" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G257" s="33"/>
       <c r="H257" s="33"/>
       <c r="I257" s="33"/>
       <c r="J257" s="33" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K257" s="33"/>
       <c r="L257" s="33"/>
@@ -13222,13 +13294,13 @@
       <c r="E258" s="33"/>
       <c r="F258" s="33"/>
       <c r="G258" s="33" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H258" s="33"/>
       <c r="I258" s="33"/>
       <c r="J258" s="33"/>
       <c r="K258" s="33" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="L258" s="33"/>
       <c r="M258" s="33"/>
@@ -13239,14 +13311,14 @@
       <c r="D259" s="33"/>
       <c r="E259" s="33"/>
       <c r="F259" s="33" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G259" s="33"/>
       <c r="H259" s="33"/>
       <c r="I259" s="33"/>
       <c r="J259" s="33"/>
       <c r="K259" s="33" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="L259" s="33"/>
       <c r="M259" s="33"/>
@@ -13258,7 +13330,7 @@
       <c r="E260" s="33"/>
       <c r="F260" s="33"/>
       <c r="G260" s="33" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="H260" s="33"/>
       <c r="I260" s="33"/>
@@ -13273,7 +13345,7 @@
       <c r="D261" s="33"/>
       <c r="E261" s="33"/>
       <c r="F261" s="33" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G261" s="33"/>
       <c r="H261" s="33"/>
@@ -13290,7 +13362,7 @@
       <c r="E262" s="33"/>
       <c r="F262" s="33"/>
       <c r="G262" s="33" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H262" s="33"/>
       <c r="I262" s="33"/>
@@ -13331,12 +13403,12 @@
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A265" s="30" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B265" s="33"/>
       <c r="C265" s="35"/>
       <c r="D265" s="33" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E265" s="33"/>
       <c r="F265" s="33"/>
@@ -13348,26 +13420,26 @@
       <c r="L265" s="33"/>
       <c r="M265" s="33"/>
     </row>
-    <row r="266" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A266" s="60"/>
-      <c r="B266" s="61"/>
-      <c r="C266" s="62"/>
-      <c r="D266" s="58" t="s">
-        <v>667</v>
-      </c>
-      <c r="E266" s="61"/>
-      <c r="F266" s="61"/>
-      <c r="G266" s="61"/>
-      <c r="H266" s="61"/>
-      <c r="I266" s="61"/>
-      <c r="J266" s="61"/>
-      <c r="K266" s="61"/>
-      <c r="L266" s="61"/>
-      <c r="M266" s="61"/>
+    <row r="266" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A266" s="59"/>
+      <c r="B266" s="60"/>
+      <c r="C266" s="61"/>
+      <c r="D266" s="57" t="s">
+        <v>664</v>
+      </c>
+      <c r="E266" s="60"/>
+      <c r="F266" s="60"/>
+      <c r="G266" s="60"/>
+      <c r="H266" s="60"/>
+      <c r="I266" s="60"/>
+      <c r="J266" s="60"/>
+      <c r="K266" s="60"/>
+      <c r="L266" s="60"/>
+      <c r="M266" s="60"/>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A267" s="32" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B267" s="33"/>
       <c r="C267" s="35"/>
@@ -13396,12 +13468,12 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A273" s="30" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A274" s="32" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.15">
@@ -13411,12 +13483,12 @@
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A289" s="30" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A290" s="32" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.15">
@@ -13426,7 +13498,7 @@
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B295" s="29" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E295" s="1" t="s">
         <v>288</v>
@@ -13434,7 +13506,7 @@
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B296" s="32" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F296" s="1" t="s">
         <v>289</v>
@@ -13453,7 +13525,7 @@
     <row r="298" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E298" s="33"/>
       <c r="F298" s="33" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G298" s="33"/>
       <c r="H298" s="33"/>
@@ -13464,7 +13536,7 @@
       <c r="E299" s="33"/>
       <c r="F299" s="33"/>
       <c r="G299" s="33" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H299" s="33"/>
       <c r="I299" s="33"/>
@@ -13474,7 +13546,7 @@
       <c r="E300" s="33"/>
       <c r="F300" s="33"/>
       <c r="G300" s="33" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H300" s="33"/>
       <c r="I300" s="33"/>
@@ -13535,15 +13607,15 @@
     </row>
     <row r="311" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B311" s="29" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="312" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B312" s="32" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F312" s="1" t="s">
         <v>298</v>
@@ -13551,396 +13623,478 @@
     </row>
     <row r="313" spans="2:12" x14ac:dyDescent="0.15">
       <c r="F313" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="315" spans="2:12" x14ac:dyDescent="0.15">
       <c r="F315" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="316" spans="2:12" x14ac:dyDescent="0.15">
       <c r="G316" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="317" spans="2:12" s="56" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C317" s="53"/>
-    </row>
-    <row r="318" spans="2:12" s="56" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C318" s="53"/>
-      <c r="E318" s="58" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="317" spans="2:12" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C317" s="52"/>
+    </row>
+    <row r="318" spans="2:12" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C318" s="52"/>
+      <c r="E318" s="57" t="s">
+        <v>677</v>
+      </c>
+      <c r="F318" s="57"/>
+      <c r="G318" s="57"/>
+      <c r="H318" s="57"/>
+      <c r="I318" s="57"/>
+      <c r="J318" s="57"/>
+      <c r="K318" s="57"/>
+      <c r="L318" s="57"/>
+    </row>
+    <row r="319" spans="2:12" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C319" s="52"/>
+      <c r="E319" s="57"/>
+      <c r="F319" s="57" t="s">
+        <v>678</v>
+      </c>
+      <c r="G319" s="57"/>
+      <c r="H319" s="57"/>
+      <c r="I319" s="57"/>
+      <c r="J319" s="57"/>
+      <c r="K319" s="57"/>
+      <c r="L319" s="57"/>
+    </row>
+    <row r="320" spans="2:12" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C320" s="52"/>
+      <c r="E320" s="57"/>
+      <c r="F320" s="57" t="s">
+        <v>679</v>
+      </c>
+      <c r="G320" s="57"/>
+      <c r="H320" s="57"/>
+      <c r="I320" s="57"/>
+      <c r="J320" s="57" t="s">
         <v>680</v>
       </c>
-      <c r="F318" s="58"/>
-      <c r="G318" s="58"/>
-      <c r="H318" s="58"/>
-      <c r="I318" s="58"/>
-      <c r="J318" s="58"/>
-      <c r="K318" s="58"/>
-      <c r="L318" s="58"/>
-    </row>
-    <row r="319" spans="2:12" s="56" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C319" s="53"/>
-      <c r="E319" s="58"/>
-      <c r="F319" s="58" t="s">
+      <c r="K320" s="57"/>
+      <c r="L320" s="57"/>
+    </row>
+    <row r="321" spans="3:13" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C321" s="52"/>
+      <c r="E321" s="57"/>
+      <c r="F321" s="57"/>
+      <c r="G321" s="57"/>
+      <c r="H321" s="57"/>
+      <c r="I321" s="57"/>
+      <c r="J321" s="57"/>
+      <c r="K321" s="57"/>
+      <c r="L321" s="57"/>
+    </row>
+    <row r="322" spans="3:13" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C322" s="52"/>
+      <c r="E322" s="57"/>
+      <c r="F322" s="57" t="s">
         <v>681</v>
       </c>
-      <c r="G319" s="58"/>
-      <c r="H319" s="58"/>
-      <c r="I319" s="58"/>
-      <c r="J319" s="58"/>
-      <c r="K319" s="58"/>
-      <c r="L319" s="58"/>
-    </row>
-    <row r="320" spans="2:12" s="56" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C320" s="53"/>
-      <c r="E320" s="58"/>
-      <c r="F320" s="58" t="s">
+      <c r="G322" s="57"/>
+      <c r="H322" s="57"/>
+      <c r="I322" s="57"/>
+      <c r="J322" s="57"/>
+      <c r="K322" s="57"/>
+      <c r="L322" s="57"/>
+    </row>
+    <row r="323" spans="3:13" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C323" s="52"/>
+      <c r="E323" s="57"/>
+      <c r="F323" s="57"/>
+      <c r="G323" s="57" t="s">
         <v>682</v>
       </c>
-      <c r="G320" s="58"/>
-      <c r="H320" s="58"/>
-      <c r="I320" s="58"/>
-      <c r="J320" s="58" t="s">
+      <c r="H323" s="57"/>
+      <c r="I323" s="57"/>
+      <c r="J323" s="57"/>
+      <c r="K323" s="57"/>
+      <c r="L323" s="57"/>
+    </row>
+    <row r="324" spans="3:13" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C324" s="52"/>
+      <c r="E324" s="57"/>
+      <c r="F324" s="57" t="s">
         <v>683</v>
       </c>
-      <c r="K320" s="58"/>
-      <c r="L320" s="58"/>
-    </row>
-    <row r="321" spans="3:13" s="56" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C321" s="53"/>
-      <c r="E321" s="58"/>
-      <c r="F321" s="58"/>
-      <c r="G321" s="58"/>
-      <c r="H321" s="58"/>
-      <c r="I321" s="58"/>
-      <c r="J321" s="58"/>
-      <c r="K321" s="58"/>
-      <c r="L321" s="58"/>
-    </row>
-    <row r="322" spans="3:13" s="56" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C322" s="53"/>
-      <c r="E322" s="58"/>
-      <c r="F322" s="58" t="s">
+      <c r="G324" s="57"/>
+      <c r="H324" s="57"/>
+      <c r="I324" s="57"/>
+      <c r="J324" s="57"/>
+      <c r="K324" s="57"/>
+      <c r="L324" s="57"/>
+    </row>
+    <row r="325" spans="3:13" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C325" s="52"/>
+      <c r="E325" s="57"/>
+      <c r="F325" s="57"/>
+      <c r="G325" s="57" t="s">
         <v>684</v>
       </c>
-      <c r="G322" s="58"/>
-      <c r="H322" s="58"/>
-      <c r="I322" s="58"/>
-      <c r="J322" s="58"/>
-      <c r="K322" s="58"/>
-      <c r="L322" s="58"/>
-    </row>
-    <row r="323" spans="3:13" s="56" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C323" s="53"/>
-      <c r="E323" s="58"/>
-      <c r="F323" s="58"/>
-      <c r="G323" s="58" t="s">
-        <v>685</v>
-      </c>
-      <c r="H323" s="58"/>
-      <c r="I323" s="58"/>
-      <c r="J323" s="58"/>
-      <c r="K323" s="58"/>
-      <c r="L323" s="58"/>
-    </row>
-    <row r="324" spans="3:13" s="56" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C324" s="53"/>
-      <c r="E324" s="58"/>
-      <c r="F324" s="58" t="s">
-        <v>686</v>
-      </c>
-      <c r="G324" s="58"/>
-      <c r="H324" s="58"/>
-      <c r="I324" s="58"/>
-      <c r="J324" s="58"/>
-      <c r="K324" s="58"/>
-      <c r="L324" s="58"/>
-    </row>
-    <row r="325" spans="3:13" s="56" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C325" s="53"/>
-      <c r="E325" s="58"/>
-      <c r="F325" s="58"/>
-      <c r="G325" s="58" t="s">
-        <v>687</v>
-      </c>
-      <c r="H325" s="58"/>
-      <c r="I325" s="58"/>
-      <c r="J325" s="58"/>
-      <c r="K325" s="58"/>
-      <c r="L325" s="58"/>
-    </row>
-    <row r="326" spans="3:13" s="56" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C326" s="53"/>
+      <c r="H325" s="57"/>
+      <c r="I325" s="57"/>
+      <c r="J325" s="57"/>
+      <c r="K325" s="57"/>
+      <c r="L325" s="57"/>
+    </row>
+    <row r="326" spans="3:13" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C326" s="52"/>
     </row>
     <row r="327" spans="3:13" x14ac:dyDescent="0.15">
       <c r="D327" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="328" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="E328" s="57" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="328" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="E328" s="1" t="s">
+      <c r="F328" s="57"/>
+      <c r="G328" s="57"/>
+    </row>
+    <row r="329" spans="3:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E329" s="57" t="s">
+        <v>320</v>
+      </c>
+      <c r="F329" s="57" t="s">
+        <v>321</v>
+      </c>
+      <c r="G329" s="57"/>
+    </row>
+    <row r="330" spans="3:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E330" s="57" t="s">
+        <v>322</v>
+      </c>
+      <c r="F330" s="57" t="s">
+        <v>323</v>
+      </c>
+      <c r="G330" s="57"/>
+    </row>
+    <row r="331" spans="3:13" s="69" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C331" s="52"/>
+      <c r="E331" s="57"/>
+      <c r="F331" s="57" t="s">
         <v>314</v>
       </c>
-      <c r="F328" s="1" t="s">
+      <c r="G331" s="57"/>
+    </row>
+    <row r="332" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="E332" s="57" t="s">
+        <v>848</v>
+      </c>
+      <c r="F332" s="57"/>
+      <c r="G332" s="57"/>
+    </row>
+    <row r="333" spans="3:13" s="69" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C333" s="52"/>
+      <c r="E333" s="57"/>
+      <c r="F333" s="57" t="s">
+        <v>849</v>
+      </c>
+      <c r="G333" s="57"/>
+    </row>
+    <row r="334" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="E334" s="57"/>
+      <c r="F334" s="57"/>
+      <c r="G334" s="57"/>
+    </row>
+    <row r="335" spans="3:13" s="69" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C335" s="52"/>
+      <c r="E335" s="57"/>
+      <c r="F335" s="57" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="329" spans="3:13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="E329" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="F329" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="330" spans="3:13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="E330" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="F330" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="331" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="F331" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="G331" s="1" t="s">
+      <c r="G335" s="57"/>
+    </row>
+    <row r="336" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="E336" s="57"/>
+      <c r="F336" s="57"/>
+      <c r="G336" s="57" t="s">
+        <v>318</v>
+      </c>
+      <c r="H336" s="57"/>
+      <c r="I336" s="57"/>
+      <c r="J336" s="57"/>
+      <c r="K336" s="57"/>
+      <c r="L336" s="57"/>
+      <c r="M336" s="57"/>
+    </row>
+    <row r="337" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C337" s="52"/>
+      <c r="E337" s="57"/>
+      <c r="F337" s="57" t="s">
+        <v>316</v>
+      </c>
+      <c r="G337" s="57"/>
+      <c r="H337" s="57"/>
+      <c r="I337" s="57"/>
+      <c r="J337" s="57"/>
+      <c r="K337" s="57"/>
+      <c r="L337" s="57"/>
+      <c r="M337" s="57"/>
+    </row>
+    <row r="338" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="E338" s="57"/>
+      <c r="F338" s="57"/>
+      <c r="G338" s="57" t="s">
+        <v>845</v>
+      </c>
+      <c r="I338" s="57"/>
+      <c r="J338" s="57"/>
+      <c r="K338" s="57"/>
+      <c r="L338" s="57"/>
+      <c r="M338" s="57"/>
+    </row>
+    <row r="339" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="E339" s="57"/>
+      <c r="F339" s="57" t="s">
+        <v>317</v>
+      </c>
+      <c r="G339" s="57"/>
+    </row>
+    <row r="340" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C340" s="52"/>
+      <c r="E340" s="57"/>
+      <c r="F340" s="57"/>
+      <c r="G340" s="57" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C341" s="52"/>
+      <c r="E341" s="57"/>
+      <c r="F341" s="57"/>
+      <c r="G341" s="57" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="342" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C342" s="52"/>
+      <c r="E342" s="57"/>
+      <c r="F342" s="57" t="s">
+        <v>846</v>
+      </c>
+      <c r="G342" s="57"/>
+    </row>
+    <row r="343" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C343" s="52"/>
+      <c r="E343" s="57"/>
+      <c r="F343" s="57"/>
+      <c r="G343" s="57" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C344" s="52"/>
+      <c r="G344" s="57" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="345" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C345" s="52"/>
+      <c r="G345" s="57" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="346" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C346" s="52"/>
+    </row>
+    <row r="347" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D347" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="348" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="E348" s="1" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="349" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="E349" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="332" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="F332" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="G332" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="333" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="F333" s="58" t="s">
-        <v>317</v>
-      </c>
-      <c r="G333" s="58" t="s">
-        <v>751</v>
-      </c>
-      <c r="H333" s="58" t="s">
-        <v>753</v>
-      </c>
-      <c r="I333" s="58"/>
-      <c r="J333" s="58"/>
-      <c r="K333" s="58"/>
-      <c r="L333" s="58"/>
-      <c r="M333" s="58"/>
-    </row>
-    <row r="334" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="F334" s="58" t="s">
-        <v>318</v>
-      </c>
-      <c r="G334" s="58" t="s">
-        <v>752</v>
-      </c>
-      <c r="H334" s="58" t="s">
-        <v>754</v>
-      </c>
-      <c r="I334" s="58"/>
-      <c r="J334" s="58"/>
-      <c r="K334" s="58"/>
-      <c r="L334" s="58"/>
-      <c r="M334" s="58"/>
-    </row>
-    <row r="336" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="D336" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="E337" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="E338" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="E339" s="1" t="s">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="E350" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B340" s="29" t="s">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B351" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="E351" s="39" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="352" spans="1:13" ht="33" x14ac:dyDescent="0.15">
+      <c r="A352" s="31" t="s">
+        <v>447</v>
+      </c>
+      <c r="B352" s="32" t="s">
+        <v>519</v>
+      </c>
+      <c r="E352" s="25" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A353" s="32" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D356" s="62" t="s">
+        <v>342</v>
+      </c>
+      <c r="E356" s="62"/>
+      <c r="F356" s="62"/>
+      <c r="G356" s="62"/>
+      <c r="H356" s="62"/>
+      <c r="I356" s="57" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D357" s="62"/>
+      <c r="E357" s="62" t="s">
+        <v>343</v>
+      </c>
+      <c r="F357" s="62"/>
+      <c r="G357" s="62"/>
+      <c r="H357" s="62"/>
+      <c r="I357" s="62"/>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B358" s="29" t="s">
         <v>429</v>
       </c>
-      <c r="E340" s="39" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="341" spans="1:9" ht="33" x14ac:dyDescent="0.15">
-      <c r="A341" s="31" t="s">
-        <v>449</v>
-      </c>
-      <c r="B341" s="32" t="s">
-        <v>521</v>
-      </c>
-      <c r="E341" s="25" t="s">
+      <c r="D358" s="62"/>
+      <c r="E358" s="62"/>
+      <c r="F358" s="62" t="s">
+        <v>344</v>
+      </c>
+      <c r="G358" s="62"/>
+      <c r="H358" s="62"/>
+      <c r="I358" s="62"/>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B359" s="32" t="s">
+        <v>568</v>
+      </c>
+      <c r="D359" s="62"/>
+      <c r="E359" s="62"/>
+      <c r="F359" s="62" t="s">
+        <v>345</v>
+      </c>
+      <c r="G359" s="62"/>
+      <c r="H359" s="62"/>
+      <c r="I359" s="62"/>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D360" s="62"/>
+      <c r="E360" s="62"/>
+      <c r="F360" s="62" t="s">
+        <v>346</v>
+      </c>
+      <c r="G360" s="62"/>
+      <c r="H360" s="62"/>
+      <c r="I360" s="62"/>
+    </row>
+    <row r="361" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+      <c r="A361" s="31" t="s">
+        <v>448</v>
+      </c>
+      <c r="D361" s="62"/>
+      <c r="E361" s="62"/>
+      <c r="F361" s="62" t="s">
+        <v>352</v>
+      </c>
+      <c r="G361" s="62"/>
+      <c r="H361" s="62"/>
+      <c r="I361" s="62"/>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A362" s="40" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A342" s="32" t="s">
+      <c r="D362" s="62"/>
+      <c r="E362" s="62"/>
+      <c r="F362" s="62" t="s">
+        <v>347</v>
+      </c>
+      <c r="G362" s="62"/>
+      <c r="H362" s="62"/>
+      <c r="I362" s="62"/>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D363" s="62"/>
+      <c r="E363" s="62" t="s">
+        <v>349</v>
+      </c>
+      <c r="F363" s="62"/>
+      <c r="G363" s="62"/>
+      <c r="H363" s="62"/>
+      <c r="I363" s="62"/>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B364" s="29" t="s">
+        <v>430</v>
+      </c>
+      <c r="D364" s="62"/>
+      <c r="E364" s="62"/>
+      <c r="F364" s="62" t="s">
+        <v>350</v>
+      </c>
+      <c r="G364" s="62"/>
+      <c r="H364" s="62"/>
+      <c r="I364" s="62"/>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B365" s="32" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D345" s="63" t="s">
-        <v>344</v>
-      </c>
-      <c r="E345" s="63"/>
-      <c r="F345" s="63"/>
-      <c r="G345" s="63"/>
-      <c r="H345" s="63"/>
-      <c r="I345" s="58" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D346" s="63"/>
-      <c r="E346" s="63" t="s">
-        <v>345</v>
-      </c>
-      <c r="F346" s="63"/>
-      <c r="G346" s="63"/>
-      <c r="H346" s="63"/>
-      <c r="I346" s="63"/>
-    </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B347" s="29" t="s">
-        <v>431</v>
-      </c>
-      <c r="D347" s="63"/>
-      <c r="E347" s="63"/>
-      <c r="F347" s="63" t="s">
-        <v>346</v>
-      </c>
-      <c r="G347" s="63"/>
-      <c r="H347" s="63"/>
-      <c r="I347" s="63"/>
-    </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B348" s="32" t="s">
+      <c r="D365" s="62"/>
+      <c r="E365" s="62"/>
+      <c r="F365" s="62" t="s">
+        <v>351</v>
+      </c>
+      <c r="G365" s="62"/>
+      <c r="H365" s="62"/>
+      <c r="I365" s="62"/>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D366" s="62"/>
+      <c r="E366" s="62" t="s">
+        <v>348</v>
+      </c>
+      <c r="F366" s="62"/>
+      <c r="G366" s="62"/>
+      <c r="H366" s="62"/>
+      <c r="I366" s="62"/>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B368" s="29" t="s">
+        <v>428</v>
+      </c>
+      <c r="F368" s="32" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="369" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B369" s="30" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="370" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B370" s="32" t="s">
         <v>570</v>
-      </c>
-      <c r="D348" s="63"/>
-      <c r="E348" s="63"/>
-      <c r="F348" s="63" t="s">
-        <v>347</v>
-      </c>
-      <c r="G348" s="63"/>
-      <c r="H348" s="63"/>
-      <c r="I348" s="63"/>
-    </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D349" s="63"/>
-      <c r="E349" s="63"/>
-      <c r="F349" s="63" t="s">
-        <v>348</v>
-      </c>
-      <c r="G349" s="63"/>
-      <c r="H349" s="63"/>
-      <c r="I349" s="63"/>
-    </row>
-    <row r="350" spans="1:9" ht="33" x14ac:dyDescent="0.15">
-      <c r="A350" s="31" t="s">
-        <v>450</v>
-      </c>
-      <c r="D350" s="63"/>
-      <c r="E350" s="63"/>
-      <c r="F350" s="63" t="s">
-        <v>354</v>
-      </c>
-      <c r="G350" s="63"/>
-      <c r="H350" s="63"/>
-      <c r="I350" s="63"/>
-    </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A351" s="40" t="s">
-        <v>569</v>
-      </c>
-      <c r="D351" s="63"/>
-      <c r="E351" s="63"/>
-      <c r="F351" s="63" t="s">
-        <v>349</v>
-      </c>
-      <c r="G351" s="63"/>
-      <c r="H351" s="63"/>
-      <c r="I351" s="63"/>
-    </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D352" s="63"/>
-      <c r="E352" s="63" t="s">
-        <v>351</v>
-      </c>
-      <c r="F352" s="63"/>
-      <c r="G352" s="63"/>
-      <c r="H352" s="63"/>
-      <c r="I352" s="63"/>
-    </row>
-    <row r="353" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B353" s="29" t="s">
-        <v>432</v>
-      </c>
-      <c r="D353" s="63"/>
-      <c r="E353" s="63"/>
-      <c r="F353" s="63" t="s">
-        <v>352</v>
-      </c>
-      <c r="G353" s="63"/>
-      <c r="H353" s="63"/>
-      <c r="I353" s="63"/>
-    </row>
-    <row r="354" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B354" s="32" t="s">
-        <v>570</v>
-      </c>
-      <c r="D354" s="63"/>
-      <c r="E354" s="63"/>
-      <c r="F354" s="63" t="s">
-        <v>353</v>
-      </c>
-      <c r="G354" s="63"/>
-      <c r="H354" s="63"/>
-      <c r="I354" s="63"/>
-    </row>
-    <row r="355" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="D355" s="63"/>
-      <c r="E355" s="63" t="s">
-        <v>350</v>
-      </c>
-      <c r="F355" s="63"/>
-      <c r="G355" s="63"/>
-      <c r="H355" s="63"/>
-      <c r="I355" s="63"/>
-    </row>
-    <row r="357" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B357" s="29" t="s">
-        <v>430</v>
-      </c>
-      <c r="F357" s="32" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="358" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B358" s="30" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="359" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B359" s="32" t="s">
-        <v>572</v>
       </c>
     </row>
   </sheetData>
@@ -14009,28 +14163,28 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C10" s="53"/>
-      <c r="F10" s="58" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C11" s="53"/>
-      <c r="F11" s="58" t="s">
-        <v>708</v>
+    <row r="10" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C10" s="52"/>
+      <c r="F10" s="57" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C11" s="52"/>
+      <c r="F11" s="57" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A12" s="41" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="53"/>
+    <row r="13" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C13" s="52"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F14" s="1" t="s">
@@ -14049,33 +14203,33 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="30" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="32" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="I18" s="25" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I19" s="25" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="H20" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="H21" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -14117,34 +14271,34 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="51" t="s">
-        <v>471</v>
+      <c r="A31" s="50" t="s">
+        <v>469</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>94</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="50" t="s">
-        <v>633</v>
-      </c>
-      <c r="B32" s="50" t="s">
-        <v>633</v>
-      </c>
-      <c r="C32" s="48"/>
-      <c r="I32" s="49" t="s">
-        <v>649</v>
+        <v>647</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="49" t="s">
+        <v>630</v>
+      </c>
+      <c r="B32" s="49" t="s">
+        <v>630</v>
+      </c>
+      <c r="C32" s="47"/>
+      <c r="I32" s="48" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="47"/>
-      <c r="B33" s="47"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="46"/>
       <c r="H33" s="1" t="s">
         <v>97</v>
       </c>
@@ -14170,7 +14324,7 @@
     </row>
     <row r="37" spans="1:9" ht="33" x14ac:dyDescent="0.15">
       <c r="A37" s="31" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F37" s="39" t="s">
         <v>100</v>
@@ -14179,7 +14333,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="32" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F38" s="39"/>
       <c r="G38" s="42" t="s">
@@ -14207,108 +14361,108 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="G43" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="30" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="32" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="55"/>
-      <c r="C46" s="53"/>
-      <c r="I46" s="58" t="s">
-        <v>758</v>
+        <v>367</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="54"/>
+      <c r="C46" s="52"/>
+      <c r="I46" s="57" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="H47" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I48" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" s="56" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C49" s="53"/>
-      <c r="I49" s="58" t="s">
-        <v>758</v>
+        <v>367</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C49" s="52"/>
+      <c r="I49" s="57" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="H50" s="61" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" s="56" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C51" s="53"/>
+      <c r="H50" s="60" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C51" s="52"/>
       <c r="H51" s="38"/>
-      <c r="I51" s="54" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" s="56" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C52" s="53"/>
+      <c r="I51" s="53" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C52" s="52"/>
       <c r="H52" s="38"/>
-      <c r="I52" s="56" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" s="56" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C53" s="53"/>
+      <c r="I52" s="55" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C53" s="52"/>
       <c r="H53" s="38"/>
-      <c r="I53" s="75" t="s">
-        <v>835</v>
-      </c>
-      <c r="J53" s="75"/>
-      <c r="K53" s="75"/>
-      <c r="L53" s="75"/>
-    </row>
-    <row r="54" spans="1:12" s="70" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C54" s="53"/>
+      <c r="I53" s="74" t="s">
+        <v>829</v>
+      </c>
+      <c r="J53" s="74"/>
+      <c r="K53" s="74"/>
+      <c r="L53" s="74"/>
+    </row>
+    <row r="54" spans="1:12" s="69" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C54" s="52"/>
       <c r="H54" s="38"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A55" s="52"/>
+      <c r="A55" s="51"/>
       <c r="H55" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" s="30" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57" s="32" t="s">
-        <v>582</v>
-      </c>
-      <c r="I57" s="58" t="s">
-        <v>758</v>
-      </c>
-      <c r="J57" s="58"/>
-    </row>
-    <row r="58" spans="1:12" s="56" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="55"/>
-      <c r="C58" s="53"/>
-      <c r="J58" s="58"/>
+        <v>580</v>
+      </c>
+      <c r="I57" s="57" t="s">
+        <v>752</v>
+      </c>
+      <c r="J57" s="57"/>
+    </row>
+    <row r="58" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="54"/>
+      <c r="C58" s="52"/>
+      <c r="J58" s="57"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F59" s="1" t="s">
@@ -14344,23 +14498,23 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A64" s="30" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A65" s="32" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>116</v>
@@ -14368,50 +14522,50 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A69" s="30" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A70" s="30" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="60"/>
-      <c r="B71" s="55"/>
-      <c r="C71" s="53"/>
-      <c r="H71" s="58" t="s">
-        <v>756</v>
-      </c>
-      <c r="I71" s="58"/>
-      <c r="J71" s="58"/>
-      <c r="K71" s="58"/>
-      <c r="L71" s="58"/>
-      <c r="M71" s="58"/>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="59"/>
+      <c r="B71" s="54"/>
+      <c r="C71" s="52"/>
+      <c r="H71" s="57" t="s">
+        <v>750</v>
+      </c>
+      <c r="I71" s="57"/>
+      <c r="J71" s="57"/>
+      <c r="K71" s="57"/>
+      <c r="L71" s="57"/>
+      <c r="M71" s="57"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A72" s="32" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="G72" s="25" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.15">
       <c r="G73" s="25" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.15">
@@ -14427,10 +14581,10 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A78" s="30" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B78" s="29" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D78" s="11"/>
       <c r="F78" s="1" t="s">
@@ -14439,10 +14593,10 @@
     </row>
     <row r="79" spans="1:13" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A79" s="41" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B79" s="32" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D79" s="11"/>
       <c r="G79" s="1" t="s">
@@ -14451,50 +14605,50 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D80" s="11"/>
-      <c r="F80" s="63" t="s">
+      <c r="F80" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="G80" s="63"/>
-      <c r="H80" s="63"/>
-      <c r="I80" s="63"/>
-      <c r="J80" s="63"/>
+      <c r="G80" s="62"/>
+      <c r="H80" s="62"/>
+      <c r="I80" s="62"/>
+      <c r="J80" s="62"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D81" s="11"/>
-      <c r="F81" s="63"/>
-      <c r="G81" s="63" t="s">
+      <c r="F81" s="62"/>
+      <c r="G81" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="H81" s="63"/>
-      <c r="I81" s="63"/>
-      <c r="J81" s="63"/>
+      <c r="H81" s="62"/>
+      <c r="I81" s="62"/>
+      <c r="J81" s="62"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D82" s="11"/>
-      <c r="F82" s="63" t="s">
-        <v>591</v>
-      </c>
-      <c r="G82" s="63"/>
-      <c r="H82" s="63"/>
-      <c r="I82" s="63"/>
-      <c r="J82" s="63"/>
+      <c r="F82" s="62" t="s">
+        <v>589</v>
+      </c>
+      <c r="G82" s="62"/>
+      <c r="H82" s="62"/>
+      <c r="I82" s="62"/>
+      <c r="J82" s="62"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A83" s="30" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D83" s="11"/>
-      <c r="F83" s="63"/>
-      <c r="G83" s="63" t="s">
-        <v>592</v>
-      </c>
-      <c r="H83" s="63"/>
-      <c r="I83" s="63"/>
-      <c r="J83" s="63"/>
+      <c r="F83" s="62"/>
+      <c r="G83" s="62" t="s">
+        <v>590</v>
+      </c>
+      <c r="H83" s="62"/>
+      <c r="I83" s="62"/>
+      <c r="J83" s="62"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A84" s="32" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D84" s="11"/>
     </row>
@@ -14517,7 +14671,7 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A89" s="30" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="1" t="s">
@@ -14526,7 +14680,7 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A90" s="32" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D90" s="11"/>
     </row>
@@ -14539,20 +14693,20 @@
         <v>128</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D93" s="11"/>
       <c r="E93" s="25" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F93" s="19" t="s">
         <v>129</v>
       </c>
       <c r="G93" s="16"/>
       <c r="J93" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
@@ -14562,28 +14716,28 @@
       <c r="G94" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="M94" s="70"/>
+      <c r="M94" s="69"/>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D95" s="11"/>
       <c r="E95" s="25"/>
       <c r="F95" s="12"/>
       <c r="G95" s="16"/>
-      <c r="M95" s="70"/>
+      <c r="M95" s="69"/>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D96" s="11"/>
       <c r="E96" s="25" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F96" s="19" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G96" s="16"/>
       <c r="J96" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="M96" s="70"/>
+        <v>406</v>
+      </c>
+      <c r="M96" s="69"/>
     </row>
     <row r="97" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D97" s="11"/>
@@ -14592,96 +14746,96 @@
       <c r="G97" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="M97" s="70"/>
+      <c r="M97" s="69"/>
     </row>
     <row r="98" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D98" s="11"/>
       <c r="E98" s="25"/>
-      <c r="M98" s="70"/>
+      <c r="M98" s="69"/>
     </row>
     <row r="99" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D99" s="11"/>
       <c r="E99" s="25" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F99" s="19" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G99" s="16"/>
       <c r="J99" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="M99" s="70"/>
+        <v>378</v>
+      </c>
+      <c r="M99" s="69"/>
     </row>
     <row r="100" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D100" s="11"/>
       <c r="E100" s="25"/>
       <c r="F100" s="12"/>
       <c r="G100" s="17" t="s">
-        <v>390</v>
-      </c>
-      <c r="M100" s="70"/>
+        <v>388</v>
+      </c>
+      <c r="M100" s="69"/>
     </row>
     <row r="101" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D101" s="11"/>
       <c r="E101" s="25"/>
-      <c r="M101" s="70"/>
+      <c r="M101" s="69"/>
     </row>
     <row r="102" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D102" s="11"/>
       <c r="E102" s="25" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F102" s="19" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G102" s="21"/>
       <c r="J102" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="M102" s="70"/>
+        <v>391</v>
+      </c>
+      <c r="M102" s="69"/>
     </row>
     <row r="103" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D103" s="11"/>
       <c r="E103" s="25"/>
       <c r="F103" s="12"/>
       <c r="G103" s="19" t="s">
-        <v>389</v>
-      </c>
-      <c r="M103" s="70"/>
+        <v>387</v>
+      </c>
+      <c r="M103" s="69"/>
     </row>
     <row r="104" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D104" s="11"/>
       <c r="E104" s="25"/>
-      <c r="M104" s="70"/>
+      <c r="M104" s="69"/>
     </row>
     <row r="105" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D105" s="11"/>
       <c r="E105" s="25" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F105" s="19" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G105" s="21"/>
       <c r="J105" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="M105" s="70"/>
+        <v>392</v>
+      </c>
+      <c r="M105" s="69"/>
     </row>
     <row r="106" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D106" s="11"/>
       <c r="E106" s="25"/>
       <c r="F106" s="12"/>
       <c r="G106" s="19" t="s">
-        <v>392</v>
-      </c>
-      <c r="M106" s="70"/>
+        <v>390</v>
+      </c>
+      <c r="M106" s="69"/>
     </row>
     <row r="107" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D107" s="11"/>
       <c r="E107" s="25"/>
-      <c r="M107" s="70"/>
+      <c r="M107" s="69"/>
     </row>
     <row r="108" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D108" s="11"/>
@@ -14691,9 +14845,9 @@
       </c>
       <c r="G108" s="16"/>
       <c r="J108" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="M108" s="70"/>
+        <v>393</v>
+      </c>
+      <c r="M108" s="69"/>
     </row>
     <row r="109" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D109" s="11"/>
@@ -14702,26 +14856,26 @@
       <c r="G109" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="M109" s="70"/>
+      <c r="M109" s="69"/>
     </row>
     <row r="110" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D110" s="11"/>
       <c r="E110" s="25"/>
-      <c r="M110" s="70"/>
+      <c r="M110" s="69"/>
     </row>
     <row r="111" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D111" s="11"/>
       <c r="E111" s="25" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F111" s="19" t="s">
         <v>134</v>
       </c>
       <c r="G111" s="16"/>
-      <c r="J111" s="70" t="s">
-        <v>767</v>
-      </c>
-      <c r="M111" s="70"/>
+      <c r="J111" s="69" t="s">
+        <v>761</v>
+      </c>
+      <c r="M111" s="69"/>
     </row>
     <row r="112" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D112" s="11"/>
@@ -14730,12 +14884,12 @@
       <c r="G112" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="M112" s="70"/>
+      <c r="M112" s="69"/>
     </row>
     <row r="113" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D113" s="11"/>
       <c r="E113" s="25"/>
-      <c r="M113" s="70"/>
+      <c r="M113" s="69"/>
     </row>
     <row r="114" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D114" s="11"/>
@@ -14745,9 +14899,9 @@
       </c>
       <c r="G114" s="16"/>
       <c r="J114" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="M114" s="70"/>
+        <v>394</v>
+      </c>
+      <c r="M114" s="69"/>
     </row>
     <row r="115" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D115" s="11"/>
@@ -14764,14 +14918,14 @@
     <row r="117" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D117" s="11"/>
       <c r="E117" s="25" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F117" s="19" t="s">
         <v>138</v>
       </c>
       <c r="G117" s="16"/>
-      <c r="J117" s="70" t="s">
-        <v>769</v>
+      <c r="J117" s="69" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="118" spans="4:13" x14ac:dyDescent="0.15">
@@ -14788,14 +14942,14 @@
     <row r="120" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D120" s="11"/>
       <c r="E120" s="25" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>140</v>
       </c>
       <c r="G120" s="11"/>
-      <c r="J120" s="70" t="s">
-        <v>770</v>
+      <c r="J120" s="69" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="121" spans="4:13" x14ac:dyDescent="0.15">
@@ -14812,13 +14966,13 @@
     <row r="123" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D123" s="11"/>
       <c r="E123" s="25" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>141</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="124" spans="4:13" x14ac:dyDescent="0.15">
@@ -14835,13 +14989,13 @@
     <row r="126" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D126" s="11"/>
       <c r="E126" s="25" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>142</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="127" spans="4:13" x14ac:dyDescent="0.15">
@@ -14858,13 +15012,13 @@
     <row r="129" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D129" s="11"/>
       <c r="E129" s="25" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>143</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="130" spans="4:10" x14ac:dyDescent="0.15">
@@ -14881,13 +15035,13 @@
     <row r="132" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D132" s="11"/>
       <c r="E132" s="25" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>144</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="133" spans="4:10" x14ac:dyDescent="0.15">
@@ -14904,13 +15058,13 @@
     <row r="135" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D135" s="11"/>
       <c r="E135" s="25" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>180</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="136" spans="4:10" x14ac:dyDescent="0.15">
@@ -14927,13 +15081,13 @@
     <row r="138" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D138" s="11"/>
       <c r="E138" s="25" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>181</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="139" spans="4:10" x14ac:dyDescent="0.15">
@@ -14950,13 +15104,13 @@
     <row r="141" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D141" s="11"/>
       <c r="E141" s="25" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>184</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="142" spans="4:10" x14ac:dyDescent="0.15">
@@ -14994,10 +15148,10 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A149" s="30" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B149" s="29" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>169</v>
@@ -15005,10 +15159,10 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A150" s="32" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B150" s="32" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>222</v>
@@ -15077,7 +15231,7 @@
     </row>
     <row r="165" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E165" s="25" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
   </sheetData>
@@ -15091,8 +15245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -15198,7 +15352,7 @@
       <c r="C10" s="43"/>
       <c r="D10" s="44"/>
       <c r="E10" s="23" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
@@ -15626,7 +15780,7 @@
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B39" s="11" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="C39" s="35"/>
       <c r="D39" s="33"/>
@@ -15658,7 +15812,7 @@
     <row r="41" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C41" s="24"/>
       <c r="D41" s="1" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.15">
@@ -15668,7 +15822,7 @@
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.15">
       <c r="D43" s="1" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
     </row>
   </sheetData>
@@ -15681,8 +15835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView topLeftCell="B49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q51" sqref="Q51"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -15696,7 +15850,7 @@
     <col min="8" max="8" width="13.25" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.25" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="9" style="56"/>
+    <col min="11" max="11" width="9" style="55"/>
     <col min="12" max="12" width="16.875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.25" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.125" style="1" bestFit="1" customWidth="1"/>
@@ -15709,7 +15863,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.15">
@@ -15722,14 +15876,14 @@
       <c r="E2" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="K2" s="53"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="30" t="s">
-        <v>454</v>
-      </c>
-      <c r="C3" s="70" t="s">
-        <v>762</v>
+        <v>452</v>
+      </c>
+      <c r="C3" s="69" t="s">
+        <v>756</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>205</v>
@@ -15737,26 +15891,26 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="32" t="s">
-        <v>601</v>
-      </c>
-      <c r="C4" s="70" t="s">
-        <v>763</v>
+        <v>599</v>
+      </c>
+      <c r="C4" s="69" t="s">
+        <v>757</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C5" s="70" t="s">
-        <v>764</v>
+      <c r="C5" s="69" t="s">
+        <v>758</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C6" s="70" t="s">
-        <v>765</v>
+      <c r="C6" s="69" t="s">
+        <v>759</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>205</v>
@@ -15764,7 +15918,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="30" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>191</v>
@@ -15778,7 +15932,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="32" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>192</v>
@@ -15899,383 +16053,383 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C19" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="D19" s="72" t="s">
+        <v>760</v>
+      </c>
+      <c r="D19" s="71" t="s">
         <v>205</v>
       </c>
-      <c r="E19" s="72" t="s">
+      <c r="E19" s="71" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="N22" s="32" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C23" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D23" s="67" t="s">
-        <v>679</v>
+      <c r="D23" s="66" t="s">
+        <v>676</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="F23" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>723</v>
+      <c r="F23" s="57" t="s">
+        <v>831</v>
+      </c>
+      <c r="G23" s="57" t="s">
+        <v>832</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="N23" s="30" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="30" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D24" s="67">
+      <c r="D24" s="66">
         <v>0</v>
       </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="G24" s="56" t="s">
-        <v>724</v>
+      <c r="F24" s="57" t="s">
+        <v>838</v>
+      </c>
+      <c r="G24" s="57" t="s">
+        <v>833</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="N24" s="30" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="32" t="s">
-        <v>606</v>
-      </c>
-      <c r="E25" s="1">
-        <v>2</v>
-      </c>
-      <c r="F25" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F25" s="57" t="s">
+        <v>839</v>
+      </c>
+      <c r="G25" s="57" t="s">
+        <v>834</v>
+      </c>
+      <c r="H25" s="55" t="s">
+        <v>708</v>
+      </c>
+      <c r="N25" s="32" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="E26" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F26" s="57" t="s">
+        <v>840</v>
+      </c>
+      <c r="G26" s="57" t="s">
+        <v>833</v>
+      </c>
+      <c r="H26" s="55" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="E27" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="G25" s="56" t="s">
-        <v>725</v>
-      </c>
-      <c r="H25" s="56" t="s">
+      <c r="F27" s="57" t="s">
+        <v>841</v>
+      </c>
+      <c r="G27" s="57" t="s">
+        <v>835</v>
+      </c>
+      <c r="H27" s="55" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="E28" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F28" s="57" t="s">
+        <v>842</v>
+      </c>
+      <c r="G28" s="57" t="s">
+        <v>836</v>
+      </c>
+      <c r="H28" s="55" t="s">
         <v>711</v>
       </c>
-      <c r="N25" s="32" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="E26" s="1">
-        <v>3</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="G26" s="56" t="s">
-        <v>726</v>
-      </c>
-      <c r="H26" s="56" t="s">
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="E29" s="45" t="s">
+        <v>601</v>
+      </c>
+      <c r="F29" s="75" t="s">
+        <v>843</v>
+      </c>
+      <c r="G29" s="57" t="s">
+        <v>837</v>
+      </c>
+      <c r="H29" s="55" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="E27" s="1">
-        <v>4</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="G27" s="56" t="s">
-        <v>727</v>
-      </c>
-      <c r="H27" s="56" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="E28" s="1">
-        <v>5</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="G28" s="56" t="s">
-        <v>728</v>
-      </c>
-      <c r="H28" s="56" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="E29" s="45">
-        <v>6</v>
-      </c>
-      <c r="F29" s="46" t="s">
-        <v>603</v>
-      </c>
-      <c r="G29" s="25" t="s">
-        <v>604</v>
-      </c>
-      <c r="H29" s="56" t="s">
-        <v>715</v>
-      </c>
-      <c r="L29" s="56"/>
+      <c r="L29" s="55"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="F30" s="14"/>
     </row>
-    <row r="31" spans="1:14" s="56" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="56" t="s">
-        <v>709</v>
+    <row r="31" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="55" t="s">
+        <v>706</v>
       </c>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
     </row>
-    <row r="32" spans="1:14" s="56" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C32" s="56" t="s">
-        <v>716</v>
+    <row r="32" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C32" s="55" t="s">
+        <v>713</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
     </row>
-    <row r="33" spans="2:15" s="56" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C33" s="56" t="s">
-        <v>710</v>
-      </c>
-      <c r="D33" s="56" t="s">
-        <v>362</v>
+    <row r="33" spans="2:15" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C33" s="55" t="s">
+        <v>707</v>
+      </c>
+      <c r="D33" s="55" t="s">
+        <v>360</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
     </row>
-    <row r="34" spans="2:15" s="56" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C34" s="56" t="s">
-        <v>711</v>
-      </c>
-      <c r="D34" s="56" t="s">
-        <v>309</v>
+    <row r="34" spans="2:15" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C34" s="55" t="s">
+        <v>708</v>
+      </c>
+      <c r="D34" s="55" t="s">
+        <v>308</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
     </row>
-    <row r="35" spans="2:15" s="56" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C35" s="56" t="s">
-        <v>712</v>
-      </c>
-      <c r="D35" s="56" t="s">
-        <v>310</v>
+    <row r="35" spans="2:15" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C35" s="55" t="s">
+        <v>709</v>
+      </c>
+      <c r="D35" s="55" t="s">
+        <v>309</v>
       </c>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
     </row>
-    <row r="36" spans="2:15" s="56" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C36" s="56" t="s">
-        <v>713</v>
-      </c>
-      <c r="D36" s="56" t="s">
-        <v>311</v>
+    <row r="36" spans="2:15" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C36" s="55" t="s">
+        <v>710</v>
+      </c>
+      <c r="D36" s="55" t="s">
+        <v>310</v>
       </c>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
     </row>
-    <row r="37" spans="2:15" s="56" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C37" s="56" t="s">
-        <v>714</v>
-      </c>
-      <c r="D37" s="56" t="s">
-        <v>312</v>
+    <row r="37" spans="2:15" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C37" s="55" t="s">
+        <v>711</v>
+      </c>
+      <c r="D37" s="55" t="s">
+        <v>311</v>
       </c>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
     </row>
-    <row r="38" spans="2:15" s="56" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C38" s="56" t="s">
-        <v>715</v>
-      </c>
-      <c r="D38" s="58" t="s">
-        <v>605</v>
+    <row r="38" spans="2:15" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C38" s="55" t="s">
+        <v>712</v>
+      </c>
+      <c r="D38" s="57" t="s">
+        <v>602</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
     </row>
-    <row r="40" spans="2:15" s="56" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="56" t="s">
-        <v>719</v>
+    <row r="40" spans="2:15" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="55" t="s">
+        <v>716</v>
       </c>
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
     </row>
-    <row r="41" spans="2:15" s="56" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C41" s="56" t="s">
+    <row r="41" spans="2:15" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C41" s="55" t="s">
+        <v>717</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>718</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C42" s="55" t="s">
         <v>720</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="D42" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E42" s="14"/>
+    </row>
+    <row r="43" spans="2:15" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C43" s="55" t="s">
         <v>721</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="D43" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E43" s="14"/>
+    </row>
+    <row r="44" spans="2:15" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C44" s="55" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" s="56" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C42" s="56" t="s">
+      <c r="D44" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E44" s="14"/>
+    </row>
+    <row r="45" spans="2:15" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C45" s="55" t="s">
+        <v>723</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E45" s="14"/>
+    </row>
+    <row r="46" spans="2:15" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C46" s="55" t="s">
         <v>724</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E42" s="14"/>
-    </row>
-    <row r="43" spans="2:15" s="56" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C43" s="56" t="s">
-        <v>725</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="E43" s="14"/>
-    </row>
-    <row r="44" spans="2:15" s="56" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C44" s="56" t="s">
-        <v>726</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E44" s="14"/>
-    </row>
-    <row r="45" spans="2:15" s="56" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C45" s="56" t="s">
-        <v>727</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="E45" s="14"/>
-    </row>
-    <row r="46" spans="2:15" s="56" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C46" s="56" t="s">
-        <v>728</v>
-      </c>
       <c r="D46" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E46" s="14"/>
     </row>
-    <row r="47" spans="2:15" s="56" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:15" s="55" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D47" s="14"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.15">
       <c r="O48" s="29" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B49" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="P49" s="32" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.15">
       <c r="D50" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E50" s="1"/>
       <c r="J50" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A51" s="30" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="F51" s="1" t="s">
+      <c r="G51" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I51" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="J51" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="K51" s="56" t="s">
-        <v>733</v>
+        <v>728</v>
+      </c>
+      <c r="K51" s="55" t="s">
+        <v>729</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="O51" s="25" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="P51" s="25" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="Q51" s="25" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A52" s="32" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C52" s="1">
         <v>1</v>
@@ -16284,7 +16438,7 @@
         <v>10001</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F52" s="28">
         <v>1</v>
@@ -16298,16 +16452,16 @@
       <c r="J52" s="1">
         <v>101</v>
       </c>
-      <c r="K52" s="56">
+      <c r="K52" s="55">
         <v>102</v>
       </c>
-      <c r="L52" s="58" t="s">
-        <v>386</v>
-      </c>
-      <c r="M52" s="58" t="s">
-        <v>406</v>
-      </c>
-      <c r="N52" s="58">
+      <c r="L52" s="57" t="s">
+        <v>384</v>
+      </c>
+      <c r="M52" s="57" t="s">
+        <v>404</v>
+      </c>
+      <c r="N52" s="57">
         <v>1</v>
       </c>
       <c r="O52" s="25">
@@ -16320,7 +16474,7 @@
         <v>50</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.15">
@@ -16328,13 +16482,13 @@
       <c r="F53" s="28">
         <v>2</v>
       </c>
-      <c r="L53" s="58" t="s">
-        <v>409</v>
-      </c>
-      <c r="M53" s="58" t="s">
-        <v>406</v>
-      </c>
-      <c r="N53" s="58">
+      <c r="L53" s="57" t="s">
+        <v>407</v>
+      </c>
+      <c r="M53" s="57" t="s">
+        <v>404</v>
+      </c>
+      <c r="N53" s="57">
         <v>1</v>
       </c>
     </row>
@@ -16344,10 +16498,10 @@
         <v>3</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="M54" s="70" t="s">
-        <v>412</v>
+        <v>378</v>
+      </c>
+      <c r="M54" s="69" t="s">
+        <v>410</v>
       </c>
       <c r="N54" s="1">
         <v>10</v>
@@ -16355,10 +16509,10 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.15">
       <c r="L55" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="M55" s="70" t="s">
-        <v>412</v>
+        <v>391</v>
+      </c>
+      <c r="M55" s="69" t="s">
+        <v>410</v>
       </c>
       <c r="N55" s="1">
         <v>10</v>
@@ -16366,10 +16520,10 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.15">
       <c r="L56" s="1" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="N56" s="1">
         <v>10</v>
@@ -16377,10 +16531,10 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.15">
       <c r="L57" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="N57" s="1">
         <v>50</v>
@@ -16388,10 +16542,10 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.15">
       <c r="L58" s="1" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="N58" s="1">
         <v>10</v>
@@ -16399,7 +16553,7 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.15">
       <c r="L59" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="M59" s="1">
         <v>50</v>
@@ -16410,10 +16564,10 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.15">
       <c r="L60" s="1" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="N60" s="1">
         <v>10</v>
@@ -16421,10 +16575,10 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.15">
       <c r="L61" s="1" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="N61" s="1">
         <v>10</v>
@@ -16432,10 +16586,10 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.15">
       <c r="L62" s="1" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="N62" s="1">
         <v>10</v>
@@ -16443,10 +16597,10 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.15">
       <c r="L63" s="1" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="N63" s="1">
         <v>10</v>
@@ -16454,10 +16608,10 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.15">
       <c r="L64" s="1" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="N64" s="1">
         <v>10</v>
@@ -16465,10 +16619,10 @@
     </row>
     <row r="65" spans="3:15" x14ac:dyDescent="0.15">
       <c r="L65" s="1" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="N65" s="1">
         <v>10</v>
@@ -16476,10 +16630,10 @@
     </row>
     <row r="66" spans="3:15" x14ac:dyDescent="0.15">
       <c r="L66" s="1" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="N66" s="1">
         <v>10</v>
@@ -16487,10 +16641,10 @@
     </row>
     <row r="67" spans="3:15" x14ac:dyDescent="0.15">
       <c r="L67" s="1" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="N67" s="1">
         <v>10</v>
@@ -16498,17 +16652,17 @@
     </row>
     <row r="68" spans="3:15" x14ac:dyDescent="0.15">
       <c r="L68" s="1" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="N68" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="69" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="C69" s="56"/>
+      <c r="C69" s="55"/>
       <c r="E69" s="1"/>
     </row>
     <row r="70" spans="3:15" x14ac:dyDescent="0.15">
@@ -16519,7 +16673,7 @@
         <v>30001</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="F70" s="1">
         <v>2</v>
@@ -16533,11 +16687,11 @@
       <c r="J70" s="1">
         <v>101</v>
       </c>
-      <c r="K70" s="56">
+      <c r="K70" s="55">
         <v>102</v>
       </c>
-      <c r="L70" s="74" t="s">
-        <v>834</v>
+      <c r="L70" s="73" t="s">
+        <v>828</v>
       </c>
       <c r="N70" s="1">
         <v>0</v>
@@ -16551,7 +16705,7 @@
         <v>30002</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="F71" s="1">
         <v>2</v>
@@ -16565,11 +16719,11 @@
       <c r="J71" s="1">
         <v>103</v>
       </c>
-      <c r="K71" s="56">
+      <c r="K71" s="55">
         <v>104</v>
       </c>
-      <c r="L71" s="74" t="s">
-        <v>834</v>
+      <c r="L71" s="73" t="s">
+        <v>828</v>
       </c>
       <c r="N71" s="1">
         <v>0</v>
@@ -16580,7 +16734,7 @@
     </row>
     <row r="72" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C72" s="1" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
     </row>
   </sheetData>
@@ -16596,7 +16750,7 @@
   <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R58" sqref="R58"/>
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -16606,57 +16760,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C32" s="1" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B53" s="1" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C54" s="1" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B62" s="1" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C63" s="1" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B76" s="1" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C77" s="1" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
   </sheetData>
@@ -16676,135 +16830,135 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="9" style="70"/>
-    <col min="3" max="3" width="38.75" style="70" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="70"/>
+    <col min="1" max="2" width="9" style="69"/>
+    <col min="3" max="3" width="38.75" style="69" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="69"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="70" t="s">
-        <v>778</v>
+      <c r="A2" s="69" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="69" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C4" s="69" t="s">
+        <v>786</v>
+      </c>
+      <c r="D4" s="69" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C5" s="69" t="s">
+        <v>787</v>
+      </c>
+      <c r="D5" s="69" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C6" s="69" t="s">
+        <v>788</v>
+      </c>
+      <c r="D6" s="69" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C7" s="69" t="s">
+        <v>789</v>
+      </c>
+      <c r="D7" s="69" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C8" s="69" t="s">
+        <v>790</v>
+      </c>
+      <c r="D8" s="69" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C9" s="69" t="s">
+        <v>791</v>
+      </c>
+      <c r="D9" s="69" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C10" s="69" t="s">
+        <v>792</v>
+      </c>
+      <c r="D10" s="69" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C11" s="69" t="s">
+        <v>793</v>
+      </c>
+      <c r="D11" s="69" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C12" s="69" t="s">
+        <v>794</v>
+      </c>
+      <c r="D12" s="69" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B15" s="69" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C16" s="69" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="69" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B22" s="69" t="s">
+        <v>777</v>
+      </c>
+      <c r="C22" s="69" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C4" s="70" t="s">
-        <v>792</v>
-      </c>
-      <c r="D4" s="70" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C5" s="70" t="s">
-        <v>793</v>
-      </c>
-      <c r="D5" s="70" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C6" s="70" t="s">
-        <v>794</v>
-      </c>
-      <c r="D6" s="70" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C7" s="70" t="s">
-        <v>795</v>
-      </c>
-      <c r="D7" s="70" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C8" s="70" t="s">
-        <v>796</v>
-      </c>
-      <c r="D8" s="70" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C9" s="70" t="s">
-        <v>797</v>
-      </c>
-      <c r="D9" s="70" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C10" s="70" t="s">
-        <v>798</v>
-      </c>
-      <c r="D10" s="70" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C11" s="70" t="s">
-        <v>799</v>
-      </c>
-      <c r="D11" s="70" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C12" s="70" t="s">
-        <v>800</v>
-      </c>
-      <c r="D12" s="70" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B15" s="70" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="69" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C16" s="70" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B28" s="69" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="70" t="s">
+      <c r="C28" s="69" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B22" s="70" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B29" s="69" t="s">
         <v>783</v>
       </c>
-      <c r="C22" s="70" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="70" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B28" s="70" t="s">
-        <v>787</v>
-      </c>
-      <c r="C28" s="70" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B29" s="70" t="s">
-        <v>789</v>
-      </c>
-      <c r="C29" s="70" t="s">
-        <v>788</v>
+      <c r="C29" s="69" t="s">
+        <v>782</v>
       </c>
     </row>
   </sheetData>
@@ -16857,7 +17011,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="30" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>276</v>
@@ -16868,7 +17022,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="32" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>277</v>
@@ -16931,42 +17085,42 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C14" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C15" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="B20" s="65" t="s">
+        <v>668</v>
+      </c>
+      <c r="B20" s="64" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C21" s="65" t="s">
         <v>652</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C21" s="66" t="s">
-        <v>655</v>
       </c>
     </row>
   </sheetData>

--- a/gd/任务系统/新版任务系统设计.xlsx
+++ b/gd/任务系统/新版任务系统设计.xlsx
@@ -23,28 +23,28 @@
     <definedName name="_5.任务对话界面需求">美术需求!$B$76:$L$87</definedName>
     <definedName name="difficulty">基础规则!$J$93:$J$141</definedName>
     <definedName name="NPC配置格式">数据记录!$B$40:$E$46</definedName>
-    <definedName name="触发对话后其余背景蒙版蒙灰">UI逻辑!$D$266</definedName>
+    <definedName name="触发对话后其余背景蒙版蒙灰">UI逻辑!$D$267</definedName>
     <definedName name="当完成任意任务后_自动接取该任务后一个任务_任务配置表中顺序">基础规则!$F$10:$K$11</definedName>
-    <definedName name="对话界面出现时_点击屏幕任意位置_除跳过按钮区域__均响应跳过当前对话界面_不响应点击位置的其他功能">UI逻辑!$E$348</definedName>
+    <definedName name="对话界面出现时_点击屏幕任意位置_除跳过按钮区域__均响应跳过当前对话界面_不响应点击位置的其他功能">UI逻辑!$E$349</definedName>
     <definedName name="对话配置格式">数据记录!$B$22:$I$38</definedName>
     <definedName name="对话相关">数据记录!$R$49:$R$53</definedName>
-    <definedName name="对话组ID">UI逻辑!$E$328:$G$345</definedName>
+    <definedName name="对话组ID">UI逻辑!$E$329:$G$346</definedName>
     <definedName name="发言人名称">数据记录!$F$23:$G$29</definedName>
     <definedName name="分页签开启规则">UI逻辑!$E$70:$J$75</definedName>
     <definedName name="服务器拆分">需求拆分!$C$4:$D$12</definedName>
     <definedName name="奖励">数据记录!$O$50:$Q$52</definedName>
-    <definedName name="奖励内容中的图标无tips显示">UI逻辑!$F$248</definedName>
+    <definedName name="奖励内容中的图标无tips显示">UI逻辑!$F$249</definedName>
     <definedName name="奖励配置">数据记录!$O$49:$Q$55</definedName>
     <definedName name="金币">基础规则!$H$44:$P$58</definedName>
     <definedName name="经验值最终结果X_reward表读取值_K_B">基础规则!$I$53:$L$53</definedName>
     <definedName name="可循环类的任务次数重置点为自然周期结束的0点_即日循环任务为每天0点刷新次数_暂定0点_如游戏整体规划刷新时间为其他时间则统一变更">基础规则!$G$64</definedName>
     <definedName name="立即前往按钮相应规则">基础规则!$D$149</definedName>
-    <definedName name="名称">UI逻辑!$F$336:$M$338</definedName>
+    <definedName name="名称">UI逻辑!$F$337:$M$339</definedName>
     <definedName name="内容固定_每个任务每天可以完成一次">任务类型!$D$24</definedName>
     <definedName name="配置形式遵循道具配置规则_详细见【道具文档】">基础规则!$J$57</definedName>
     <definedName name="配置形式遵循道具配置规则_详细见道具文档">基础规则!$J$57</definedName>
     <definedName name="任务出现为即时刷新_如果有前后连续关系的情况_则上一个消失后_下一个跟随刷出">UI逻辑!$G$215:$N$215</definedName>
-    <definedName name="任务对话相关">UI逻辑!$C$264:$N$354</definedName>
+    <definedName name="任务对话相关">UI逻辑!$C$265:$N$355</definedName>
     <definedName name="任务奖励">基础规则!$F$41:$J$56</definedName>
     <definedName name="任务奖励配置">数据记录!$O$49:$P$55</definedName>
     <definedName name="任务配置格式">数据记录!$B$49:$R$68</definedName>
@@ -58,8 +58,9 @@
     <definedName name="时效性配置需要有始有终_即需要配置起始点与终止点">基础规则!$H$71:$M$71</definedName>
     <definedName name="是否可跳过">数据记录!$D$23:$D$24</definedName>
     <definedName name="体力">数据记录!$D$70:$S$71</definedName>
-    <definedName name="跳过按钮">UI逻辑!$E$318:$L$325</definedName>
+    <definedName name="跳过按钮">UI逻辑!$E$319:$L$326</definedName>
     <definedName name="通关限制">基础规则!$F$80:$I$83</definedName>
+    <definedName name="显示格式为">UI逻辑!$F$241:$G$243</definedName>
     <definedName name="已完成的任务_显示在对应分页的上方_多个已完成任务按照任务编号由小至大顺序从上至下显示">UI逻辑!$F$205:$N$205</definedName>
     <definedName name="最多显示为4行_根据显示行数上下居中显示">UI逻辑!$F$152:$K$153</definedName>
   </definedNames>
@@ -471,7 +472,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="855">
   <si>
     <t>文档名称</t>
   </si>
@@ -723,10 +724,6 @@
   </si>
   <si>
     <t>显示格式为：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成任务：任务名称</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -4411,6 +4408,17 @@
   </si>
   <si>
     <t>对话配置更新以及立绘设计规范补充</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务名称</t>
+  </si>
+  <si>
+    <t>调整奖励领取界面任务名称排布样式</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4643,7 +4651,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4832,6 +4840,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4864,6 +4875,44 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304169</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>37837</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="图片 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4981575" y="46548675"/>
+          <a:ext cx="5047619" cy="2104762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>81</xdr:row>
@@ -4883,7 +4932,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4921,7 +4970,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4936,104 +4985,6 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>219</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>380367</xdr:colOff>
-      <xdr:row>229</xdr:row>
-      <xdr:rowOff>66412</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="136" name="组合 135"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5038725" y="46577250"/>
-          <a:ext cx="5066667" cy="2104762"/>
-          <a:chOff x="800100" y="23317200"/>
-          <a:chExt cx="5066667" cy="2104762"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="133" name="图片 132"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="800100" y="23317200"/>
-            <a:ext cx="5066667" cy="2104762"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="135" name="图片 134"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="895350" y="23688675"/>
-            <a:ext cx="2752381" cy="1076191"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="134" name="图片 133"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2409825" y="23783925"/>
-            <a:ext cx="1914286" cy="1028571"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -7189,8 +7140,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>222</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7199,8 +7150,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2343150" y="23774399"/>
-          <a:ext cx="1866900" cy="238125"/>
+          <a:off x="6581775" y="47034449"/>
+          <a:ext cx="1866900" cy="447676"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7250,7 +7201,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>222</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7262,8 +7213,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4210050" y="23674926"/>
-          <a:ext cx="2095500" cy="218536"/>
+          <a:off x="8448675" y="46934976"/>
+          <a:ext cx="2095500" cy="323311"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7360,15 +7311,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>222</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>226</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7377,7 +7328,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2238375" y="24060149"/>
+          <a:off x="6534150" y="47520224"/>
           <a:ext cx="2038350" cy="762001"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7420,15 +7371,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>223</xdr:row>
       <xdr:rowOff>62451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>224</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7440,8 +7391,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4276725" y="24160701"/>
-          <a:ext cx="2028825" cy="280449"/>
+          <a:off x="8572500" y="47420751"/>
+          <a:ext cx="1971675" cy="480474"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7717,13 +7668,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>14689</xdr:colOff>
-      <xdr:row>269</xdr:row>
+      <xdr:row>270</xdr:row>
       <xdr:rowOff>56229</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>94105</xdr:colOff>
-      <xdr:row>279</xdr:row>
+      <xdr:row>280</xdr:row>
       <xdr:rowOff>123235</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7734,7 +7685,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7755,13 +7706,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>281</xdr:row>
+      <xdr:row>282</xdr:row>
       <xdr:rowOff>32013</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>84581</xdr:colOff>
-      <xdr:row>291</xdr:row>
+      <xdr:row>292</xdr:row>
       <xdr:rowOff>94660</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7772,7 +7723,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7810,7 +7761,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7848,7 +7799,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7886,7 +7837,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7924,7 +7875,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7962,11 +7913,11 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId12">
+                <a14:imgLayer r:embed="rId10">
                   <a14:imgEffect>
                     <a14:saturation sat="33000"/>
                   </a14:imgEffect>
@@ -8016,7 +7967,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -8060,7 +8011,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -8104,7 +8055,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -8148,7 +8099,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -8175,13 +8126,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>257</xdr:row>
+      <xdr:row>258</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>594361</xdr:colOff>
-      <xdr:row>257</xdr:row>
+      <xdr:row>258</xdr:row>
       <xdr:rowOff>188976</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8192,7 +8143,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -8219,13 +8170,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>258</xdr:row>
+      <xdr:row>259</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>594361</xdr:colOff>
-      <xdr:row>258</xdr:row>
+      <xdr:row>259</xdr:row>
       <xdr:rowOff>188976</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8236,7 +8187,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -8263,13 +8214,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>313</xdr:row>
+      <xdr:row>314</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>259050</xdr:colOff>
-      <xdr:row>313</xdr:row>
+      <xdr:row>314</xdr:row>
       <xdr:rowOff>199050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8280,7 +8231,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -8424,13 +8375,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>269</xdr:row>
+      <xdr:row>270</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>270</xdr:row>
+      <xdr:row>271</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8494,13 +8445,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>281</xdr:row>
+      <xdr:row>282</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>282</xdr:row>
+      <xdr:row>283</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8564,13 +8515,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>320</xdr:row>
+      <xdr:row>321</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>320</xdr:row>
+      <xdr:row>321</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8651,13 +8602,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>319</xdr:row>
+      <xdr:row>320</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>320</xdr:row>
+      <xdr:row>321</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9505,7 +9456,7 @@
   <dimension ref="A1:N67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+      <selection activeCell="N55" sqref="N55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -9703,7 +9654,7 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C12" s="7">
         <v>42150</v>
@@ -9714,10 +9665,10 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>208</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -9732,7 +9683,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="27" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -9747,7 +9698,7 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -9762,7 +9713,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -9777,7 +9728,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -9792,7 +9743,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="27" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -9807,7 +9758,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="27" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -9822,7 +9773,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="4"/>
       <c r="H19" s="27" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -9838,7 +9789,7 @@
       <c r="F20" s="5"/>
       <c r="G20" s="4"/>
       <c r="H20" s="27" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -9854,7 +9805,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="4"/>
       <c r="H21" s="27" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -9870,7 +9821,7 @@
       <c r="F22" s="5"/>
       <c r="G22" s="4"/>
       <c r="H22" s="27" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -9880,21 +9831,21 @@
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C23" s="7">
         <v>42154</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="5"/>
       <c r="G23" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="H23" s="27" t="s">
         <v>374</v>
-      </c>
-      <c r="H23" s="27" t="s">
-        <v>375</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -9910,7 +9861,7 @@
       <c r="F24" s="5"/>
       <c r="G24" s="4"/>
       <c r="H24" s="27" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -9926,7 +9877,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="4"/>
       <c r="H25" s="27" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -9942,7 +9893,7 @@
       <c r="F26" s="5"/>
       <c r="G26" s="4"/>
       <c r="H26" s="27" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -9958,7 +9909,7 @@
       <c r="F27" s="5"/>
       <c r="G27" s="4"/>
       <c r="H27" s="27" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -9968,21 +9919,21 @@
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C28" s="7">
         <v>42156</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="5"/>
       <c r="G28" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="H28" s="27" t="s">
         <v>616</v>
-      </c>
-      <c r="H28" s="27" t="s">
-        <v>617</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -9998,7 +9949,7 @@
       <c r="F29" s="5"/>
       <c r="G29" s="4"/>
       <c r="H29" s="27" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -10014,7 +9965,7 @@
       <c r="F30" s="5"/>
       <c r="G30" s="4"/>
       <c r="H30" s="27" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -10024,21 +9975,21 @@
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C31" s="7">
         <v>42159</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="5"/>
       <c r="G31" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="H31" s="58" t="s">
         <v>644</v>
-      </c>
-      <c r="H31" s="58" t="s">
-        <v>645</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -10054,7 +10005,7 @@
       <c r="F32" s="5"/>
       <c r="G32" s="4"/>
       <c r="H32" s="58" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -10070,7 +10021,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="4"/>
       <c r="H33" s="56" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -10086,7 +10037,7 @@
       <c r="F34" s="5"/>
       <c r="G34" s="4"/>
       <c r="H34" s="58" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -10102,7 +10053,7 @@
       <c r="F35" s="5"/>
       <c r="G35" s="4"/>
       <c r="H35" s="58" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -10118,7 +10069,7 @@
       <c r="F36" s="5"/>
       <c r="G36" s="56"/>
       <c r="H36" s="58" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I36" s="56"/>
       <c r="J36" s="56"/>
@@ -10134,7 +10085,7 @@
       <c r="F37" s="5"/>
       <c r="G37" s="56"/>
       <c r="H37" s="58" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I37" s="56"/>
       <c r="J37" s="56"/>
@@ -10150,7 +10101,7 @@
       <c r="F38" s="5"/>
       <c r="G38" s="56"/>
       <c r="H38" s="58" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I38" s="56"/>
       <c r="J38" s="56"/>
@@ -10166,7 +10117,7 @@
       <c r="F39" s="5"/>
       <c r="G39" s="56"/>
       <c r="H39" s="58" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I39" s="56"/>
       <c r="J39" s="56"/>
@@ -10182,7 +10133,7 @@
       <c r="F40" s="5"/>
       <c r="G40" s="4"/>
       <c r="H40" s="58" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
@@ -10192,21 +10143,21 @@
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="4" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C41" s="7">
         <v>42163</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="5"/>
       <c r="G41" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="H41" s="72" t="s">
         <v>745</v>
-      </c>
-      <c r="H41" s="72" t="s">
-        <v>746</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
@@ -10222,7 +10173,7 @@
       <c r="F42" s="5"/>
       <c r="G42" s="56"/>
       <c r="H42" s="72" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="I42" s="56"/>
       <c r="J42" s="56"/>
@@ -10238,7 +10189,7 @@
       <c r="F43" s="5"/>
       <c r="G43" s="56"/>
       <c r="H43" s="72" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I43" s="56"/>
       <c r="J43" s="56"/>
@@ -10254,7 +10205,7 @@
       <c r="F44" s="5"/>
       <c r="G44" s="56"/>
       <c r="H44" s="72" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="I44" s="56"/>
       <c r="J44" s="56"/>
@@ -10270,7 +10221,7 @@
       <c r="F45" s="5"/>
       <c r="G45" s="56"/>
       <c r="H45" s="72" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="I45" s="56"/>
       <c r="J45" s="56"/>
@@ -10286,7 +10237,7 @@
       <c r="F46" s="5"/>
       <c r="G46" s="56"/>
       <c r="H46" s="70" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="I46" s="56"/>
       <c r="J46" s="56"/>
@@ -10302,7 +10253,7 @@
       <c r="F47" s="5"/>
       <c r="G47" s="56"/>
       <c r="H47" s="56" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="I47" s="56"/>
       <c r="J47" s="56"/>
@@ -10312,21 +10263,21 @@
     <row r="48" spans="1:12" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
       <c r="B48" s="70" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C48" s="7">
         <v>42164</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="5"/>
       <c r="G48" s="70" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H48" s="72" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="I48" s="70"/>
       <c r="J48" s="70"/>
@@ -10336,21 +10287,21 @@
     <row r="49" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
       <c r="B49" s="70" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C49" s="7">
         <v>42166</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="5"/>
       <c r="G49" s="70" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H49" s="72" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="I49" s="70"/>
       <c r="J49" s="70"/>
@@ -10366,7 +10317,7 @@
       <c r="F50" s="5"/>
       <c r="G50" s="70"/>
       <c r="H50" s="72" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="I50" s="70"/>
       <c r="J50" s="70"/>
@@ -10382,7 +10333,7 @@
       <c r="F51" s="5"/>
       <c r="G51" s="70"/>
       <c r="H51" s="72" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I51" s="70"/>
       <c r="J51" s="70"/>
@@ -10398,7 +10349,7 @@
       <c r="F52" s="5"/>
       <c r="G52" s="70"/>
       <c r="H52" s="72" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="I52" s="70"/>
       <c r="J52" s="70"/>
@@ -10413,7 +10364,9 @@
       <c r="E53" s="9"/>
       <c r="F53" s="5"/>
       <c r="G53" s="70"/>
-      <c r="H53" s="70"/>
+      <c r="H53" s="72" t="s">
+        <v>854</v>
+      </c>
       <c r="I53" s="70"/>
       <c r="J53" s="70"/>
       <c r="K53" s="8"/>
@@ -10461,53 +10414,53 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B56" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C56" s="68">
         <v>42161</v>
       </c>
       <c r="D56" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="H56" s="26" t="s">
         <v>692</v>
-      </c>
-      <c r="H56" s="26" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.15">
       <c r="H57" s="26" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.15">
       <c r="H58" s="26" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.15">
       <c r="H59" s="26" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.15">
       <c r="H60" s="26" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="L60" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="N60" s="1" t="s">
         <v>738</v>
-      </c>
-      <c r="N60" s="1" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.15">
       <c r="H61" s="26" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
@@ -10519,37 +10472,37 @@
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="58" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
       <c r="L62" s="10"/>
       <c r="N62" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.15">
       <c r="H63" s="26" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.15">
       <c r="H64" s="26" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="65" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H65" s="55" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="66" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H66" s="26" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="67" spans="8:12" x14ac:dyDescent="0.15">
@@ -10604,6 +10557,7 @@
     <hyperlink ref="H50" location="经验值最终结果X_reward表读取值_K_B" display="补充经验值计算公式"/>
     <hyperlink ref="H51" location="发言人名称" display="对话开发修改表格格式"/>
     <hyperlink ref="H52" location="对话组ID" display="对话配置更新以及立绘设计规范补充"/>
+    <hyperlink ref="H53" location="显示格式为" display="调整奖励领取界面任务名称排布样式"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10625,7 +10579,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="69" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -10633,12 +10587,12 @@
         <v>1</v>
       </c>
       <c r="C2" s="69" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C13" s="69" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -10646,7 +10600,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="69" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.15">
@@ -10654,7 +10608,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="69" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.15">
@@ -10662,7 +10616,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="69" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.15">
@@ -10670,12 +10624,12 @@
         <v>5</v>
       </c>
       <c r="C37" s="69" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C54" s="69" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.15">
@@ -10683,12 +10637,12 @@
         <v>6</v>
       </c>
       <c r="C56" s="69" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C73" s="69" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.15">
@@ -10696,7 +10650,7 @@
         <v>7</v>
       </c>
       <c r="C75" s="69" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.15">
@@ -10704,7 +10658,7 @@
         <v>8</v>
       </c>
       <c r="C77" s="69" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.15">
@@ -10712,22 +10666,22 @@
         <v>9</v>
       </c>
       <c r="C79" s="69" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C80" s="69" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C81" s="69" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C82" s="69" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
   </sheetData>
@@ -10739,10 +10693,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S370"/>
+  <dimension ref="A1:S371"/>
   <sheetViews>
-    <sheetView topLeftCell="A319" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E328" sqref="E328:G345"/>
+    <sheetView topLeftCell="A221" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F241" sqref="F241:G243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -10755,7 +10709,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B1" s="29" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>62</v>
@@ -10763,10 +10717,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="30" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>63</v>
@@ -10774,23 +10728,23 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="32" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="29" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" s="32" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C32" s="35"/>
       <c r="D32" s="33" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
@@ -10799,7 +10753,7 @@
       <c r="C33" s="35"/>
       <c r="D33" s="33"/>
       <c r="E33" s="33" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F33" s="33"/>
     </row>
@@ -10825,7 +10779,7 @@
     <row r="38" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C38" s="35"/>
       <c r="D38" s="33" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E38" s="33"/>
       <c r="F38" s="33"/>
@@ -10840,10 +10794,10 @@
       <c r="C39" s="35"/>
       <c r="D39" s="33"/>
       <c r="E39" s="33" t="s">
+        <v>607</v>
+      </c>
+      <c r="F39" s="33" t="s">
         <v>608</v>
-      </c>
-      <c r="F39" s="33" t="s">
-        <v>609</v>
       </c>
       <c r="G39" s="33"/>
       <c r="H39" s="33"/>
@@ -10856,10 +10810,10 @@
       <c r="C40" s="35"/>
       <c r="D40" s="33"/>
       <c r="E40" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F40" s="33" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G40" s="33"/>
       <c r="H40" s="33"/>
@@ -10872,10 +10826,10 @@
       <c r="C41" s="35"/>
       <c r="D41" s="33"/>
       <c r="E41" s="33" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F41" s="33" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G41" s="33"/>
       <c r="H41" s="33"/>
@@ -10914,13 +10868,13 @@
       <c r="C44" s="35"/>
       <c r="D44" s="33"/>
       <c r="E44" s="33" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
       <c r="H44" s="33"/>
       <c r="I44" s="33" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J44" s="33"/>
       <c r="K44" s="33"/>
@@ -10931,13 +10885,13 @@
       <c r="D45" s="33"/>
       <c r="E45" s="33"/>
       <c r="F45" s="33" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G45" s="33"/>
       <c r="H45" s="33"/>
       <c r="I45" s="33"/>
       <c r="J45" s="33" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K45" s="33"/>
       <c r="L45" s="33"/>
@@ -10946,13 +10900,13 @@
       <c r="C46" s="35"/>
       <c r="D46" s="33"/>
       <c r="E46" s="33" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F46" s="33"/>
       <c r="G46" s="33"/>
       <c r="H46" s="33"/>
       <c r="I46" s="33" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J46" s="33"/>
       <c r="K46" s="33"/>
@@ -10963,13 +10917,13 @@
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
       <c r="F47" s="33" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G47" s="33"/>
       <c r="H47" s="33"/>
       <c r="I47" s="33"/>
       <c r="J47" s="33" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="K47" s="33"/>
       <c r="L47" s="33"/>
@@ -10978,13 +10932,13 @@
       <c r="C48" s="35"/>
       <c r="D48" s="33"/>
       <c r="E48" s="33" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F48" s="33"/>
       <c r="G48" s="33"/>
       <c r="H48" s="33"/>
       <c r="I48" s="33" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J48" s="33"/>
       <c r="K48" s="33"/>
@@ -10995,13 +10949,13 @@
       <c r="D49" s="33"/>
       <c r="E49" s="33"/>
       <c r="F49" s="33" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G49" s="33"/>
       <c r="H49" s="33"/>
       <c r="I49" s="33"/>
       <c r="J49" s="33" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K49" s="33"/>
       <c r="L49" s="33"/>
@@ -11010,14 +10964,14 @@
       <c r="C50" s="35"/>
       <c r="D50" s="33"/>
       <c r="E50" s="33" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F50" s="33"/>
       <c r="G50" s="33"/>
       <c r="H50" s="33"/>
       <c r="I50" s="33"/>
       <c r="J50" s="33" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K50" s="33"/>
       <c r="L50" s="33"/>
@@ -11027,7 +10981,7 @@
       <c r="D51" s="33"/>
       <c r="E51" s="33"/>
       <c r="F51" s="33" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G51" s="33"/>
       <c r="H51" s="33"/>
@@ -11040,7 +10994,7 @@
       <c r="C52" s="35"/>
       <c r="D52" s="33"/>
       <c r="E52" s="33" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
@@ -11055,7 +11009,7 @@
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="33" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G53" s="33"/>
       <c r="H53" s="33"/>
@@ -11094,13 +11048,13 @@
       <c r="C56" s="35"/>
       <c r="D56" s="33"/>
       <c r="E56" s="33" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F56" s="33"/>
       <c r="G56" s="33"/>
       <c r="H56" s="33"/>
       <c r="I56" s="33" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J56" s="33"/>
       <c r="K56" s="33"/>
@@ -11111,13 +11065,13 @@
       <c r="D57" s="33"/>
       <c r="E57" s="33"/>
       <c r="F57" s="33" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G57" s="33"/>
       <c r="H57" s="33"/>
       <c r="I57" s="33"/>
       <c r="J57" s="33" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K57" s="33"/>
       <c r="L57" s="33"/>
@@ -11126,13 +11080,13 @@
       <c r="C58" s="35"/>
       <c r="D58" s="33"/>
       <c r="E58" s="33" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F58" s="33"/>
       <c r="G58" s="33"/>
       <c r="H58" s="33"/>
       <c r="I58" s="33" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J58" s="33"/>
       <c r="K58" s="33"/>
@@ -11143,13 +11097,13 @@
       <c r="D59" s="33"/>
       <c r="E59" s="33"/>
       <c r="F59" s="33" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G59" s="33"/>
       <c r="H59" s="33"/>
       <c r="I59" s="33"/>
       <c r="J59" s="33" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K59" s="33"/>
       <c r="L59" s="33"/>
@@ -11158,13 +11112,13 @@
       <c r="C60" s="35"/>
       <c r="D60" s="33"/>
       <c r="E60" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F60" s="33"/>
       <c r="G60" s="33"/>
       <c r="H60" s="33"/>
       <c r="I60" s="33" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J60" s="33"/>
       <c r="K60" s="33"/>
@@ -11175,13 +11129,13 @@
       <c r="D61" s="33"/>
       <c r="E61" s="33"/>
       <c r="F61" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G61" s="33"/>
       <c r="H61" s="33"/>
       <c r="I61" s="33"/>
       <c r="J61" s="33" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="K61" s="33"/>
       <c r="L61" s="33"/>
@@ -11190,13 +11144,13 @@
       <c r="C62" s="35"/>
       <c r="D62" s="33"/>
       <c r="E62" s="33" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F62" s="33"/>
       <c r="G62" s="33"/>
       <c r="H62" s="33"/>
       <c r="I62" s="33" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="J62" s="33"/>
       <c r="K62" s="33"/>
@@ -11207,15 +11161,15 @@
       <c r="D63" s="33"/>
       <c r="E63" s="33"/>
       <c r="F63" s="33" t="s">
+        <v>607</v>
+      </c>
+      <c r="G63" s="33" t="s">
         <v>608</v>
-      </c>
-      <c r="G63" s="33" t="s">
-        <v>609</v>
       </c>
       <c r="H63" s="33"/>
       <c r="I63" s="33"/>
       <c r="J63" s="33" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K63" s="33"/>
       <c r="L63" s="33"/>
@@ -11225,15 +11179,15 @@
       <c r="D64" s="33"/>
       <c r="E64" s="33"/>
       <c r="F64" s="33" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G64" s="33" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H64" s="33"/>
       <c r="I64" s="33"/>
       <c r="J64" s="33" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K64" s="33"/>
       <c r="L64" s="33"/>
@@ -11242,14 +11196,14 @@
       <c r="C65" s="35"/>
       <c r="D65" s="33"/>
       <c r="E65" s="33" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F65" s="33"/>
       <c r="G65" s="33"/>
       <c r="H65" s="33"/>
       <c r="I65" s="33"/>
       <c r="J65" s="33" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="K65" s="33"/>
       <c r="L65" s="33"/>
@@ -11259,7 +11213,7 @@
       <c r="D66" s="33"/>
       <c r="E66" s="33"/>
       <c r="F66" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G66" s="33"/>
       <c r="H66" s="33"/>
@@ -11273,7 +11227,7 @@
       <c r="D67" s="33"/>
       <c r="E67" s="33"/>
       <c r="F67" s="33" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G67" s="33"/>
       <c r="H67" s="33"/>
@@ -11287,7 +11241,7 @@
       <c r="D68" s="33"/>
       <c r="E68" s="33"/>
       <c r="F68" s="33" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G68" s="33"/>
       <c r="H68" s="33"/>
@@ -11311,7 +11265,7 @@
       <c r="C70" s="52"/>
       <c r="D70" s="57"/>
       <c r="E70" s="57" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F70" s="57"/>
       <c r="G70" s="57"/>
@@ -11326,7 +11280,7 @@
       <c r="D71" s="57"/>
       <c r="E71" s="57"/>
       <c r="F71" s="57" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G71" s="57"/>
       <c r="H71" s="57"/>
@@ -11340,7 +11294,7 @@
       <c r="D72" s="57"/>
       <c r="E72" s="57"/>
       <c r="F72" s="57" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G72" s="57">
         <v>1</v>
@@ -11356,13 +11310,13 @@
       <c r="D73" s="57"/>
       <c r="E73" s="57"/>
       <c r="F73" s="57" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G73" s="57">
         <v>10</v>
       </c>
       <c r="H73" s="57" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I73" s="57"/>
       <c r="J73" s="57"/>
@@ -11374,13 +11328,13 @@
       <c r="D74" s="57"/>
       <c r="E74" s="57"/>
       <c r="F74" s="67" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G74" s="63">
         <v>20</v>
       </c>
       <c r="H74" s="57" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I74" s="57"/>
       <c r="J74" s="57"/>
@@ -11392,7 +11346,7 @@
       <c r="D75" s="57"/>
       <c r="E75" s="57"/>
       <c r="F75" s="57" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G75" s="57"/>
       <c r="H75" s="57"/>
@@ -11420,7 +11374,7 @@
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A91" s="30" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E91" s="63" t="s">
         <v>32</v>
@@ -11441,7 +11395,7 @@
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A92" s="38" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E92" s="63"/>
       <c r="F92" s="63" t="s">
@@ -11462,14 +11416,14 @@
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A93" s="30" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B93" s="29" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E93" s="63"/>
       <c r="F93" s="63" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G93" s="63"/>
       <c r="H93" s="63"/>
@@ -11477,7 +11431,7 @@
       <c r="J93" s="63"/>
       <c r="K93" s="63"/>
       <c r="L93" s="63" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="M93" s="63"/>
       <c r="N93" s="63"/>
@@ -11486,15 +11440,15 @@
       <c r="Q93" s="63"/>
       <c r="R93" s="63"/>
       <c r="S93" s="57" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A94" s="38" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B94" s="38" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E94" s="63"/>
       <c r="F94" s="63" t="s">
@@ -11506,7 +11460,7 @@
       <c r="J94" s="63"/>
       <c r="K94" s="63"/>
       <c r="L94" s="63" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M94" s="63"/>
       <c r="N94" s="63"/>
@@ -11519,10 +11473,10 @@
       <c r="E95" s="63"/>
       <c r="F95" s="63"/>
       <c r="G95" s="63" t="s">
+        <v>625</v>
+      </c>
+      <c r="H95" s="63" t="s">
         <v>626</v>
-      </c>
-      <c r="H95" s="63" t="s">
-        <v>627</v>
       </c>
       <c r="I95" s="63"/>
       <c r="J95" s="63"/>
@@ -11539,10 +11493,10 @@
       <c r="E96" s="63"/>
       <c r="F96" s="63"/>
       <c r="G96" s="63" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H96" s="63" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I96" s="63"/>
       <c r="J96" s="63"/>
@@ -11559,10 +11513,10 @@
       <c r="E97" s="63"/>
       <c r="F97" s="63"/>
       <c r="G97" s="63" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H97" s="63" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I97" s="63"/>
       <c r="J97" s="63"/>
@@ -11593,7 +11547,7 @@
     </row>
     <row r="99" spans="1:18" ht="33" x14ac:dyDescent="0.15">
       <c r="A99" s="31" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E99" s="33" t="s">
         <v>35</v>
@@ -11607,7 +11561,7 @@
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A100" s="38" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E100" s="33"/>
       <c r="F100" s="33" t="s">
@@ -11623,7 +11577,7 @@
       <c r="A101" s="38"/>
       <c r="E101" s="33"/>
       <c r="F101" s="33" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G101" s="33"/>
       <c r="H101" s="33"/>
@@ -11644,11 +11598,11 @@
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A103" s="30" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E103" s="33"/>
       <c r="F103" s="33" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G103" s="33"/>
       <c r="H103" s="33"/>
@@ -11658,7 +11612,7 @@
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A104" s="32" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E104" s="33"/>
       <c r="F104" s="33" t="s">
@@ -11693,30 +11647,30 @@
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.15">
       <c r="F109" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.15">
       <c r="F110" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A111" s="30" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A112" s="32" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.15">
       <c r="F113" s="33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G113" s="33"/>
       <c r="H113" s="33"/>
@@ -11728,11 +11682,11 @@
     </row>
     <row r="114" spans="1:13" ht="33" x14ac:dyDescent="0.15">
       <c r="A114" s="31" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F114" s="33"/>
       <c r="G114" s="33" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H114" s="33"/>
       <c r="I114" s="33"/>
@@ -11743,11 +11697,11 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A115" s="34" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F115" s="33"/>
       <c r="G115" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H115" s="33"/>
       <c r="I115" s="33"/>
@@ -11763,11 +11717,11 @@
       <c r="F116" s="33"/>
       <c r="G116" s="33"/>
       <c r="H116" s="33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I116" s="33"/>
       <c r="J116" s="33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K116" s="33"/>
       <c r="L116" s="33"/>
@@ -11780,11 +11734,11 @@
       <c r="F117" s="33"/>
       <c r="G117" s="33"/>
       <c r="H117" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I117" s="33"/>
       <c r="J117" s="33" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K117" s="33"/>
       <c r="L117" s="33"/>
@@ -11797,11 +11751,11 @@
       <c r="F118" s="33"/>
       <c r="G118" s="33"/>
       <c r="H118" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I118" s="33"/>
       <c r="J118" s="33" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K118" s="33"/>
       <c r="L118" s="33"/>
@@ -11814,11 +11768,11 @@
       <c r="F119" s="33"/>
       <c r="G119" s="33"/>
       <c r="H119" s="33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I119" s="33"/>
       <c r="J119" s="33" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K119" s="33"/>
       <c r="L119" s="33"/>
@@ -11830,7 +11784,7 @@
       <c r="E120" s="55"/>
       <c r="F120" s="33"/>
       <c r="G120" s="33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H120" s="33"/>
       <c r="I120" s="33"/>
@@ -11846,11 +11800,11 @@
       <c r="F121" s="33"/>
       <c r="G121" s="33"/>
       <c r="H121" s="33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I121" s="33"/>
       <c r="J121" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K121" s="33"/>
       <c r="L121" s="33"/>
@@ -11863,11 +11817,11 @@
       <c r="F122" s="33"/>
       <c r="G122" s="33"/>
       <c r="H122" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I122" s="33"/>
       <c r="J122" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K122" s="33"/>
       <c r="L122" s="33"/>
@@ -11879,7 +11833,7 @@
       <c r="E123" s="55"/>
       <c r="F123" s="33"/>
       <c r="G123" s="33" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H123" s="33"/>
       <c r="I123" s="33"/>
@@ -11895,11 +11849,11 @@
       <c r="F124" s="33"/>
       <c r="G124" s="33"/>
       <c r="H124" s="33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I124" s="33"/>
       <c r="J124" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K124" s="33"/>
       <c r="L124" s="33"/>
@@ -11911,7 +11865,7 @@
       <c r="E125" s="55"/>
       <c r="F125" s="33"/>
       <c r="G125" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H125" s="33"/>
       <c r="I125" s="33"/>
@@ -11927,11 +11881,11 @@
       <c r="F126" s="33"/>
       <c r="G126" s="33"/>
       <c r="H126" s="33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I126" s="33"/>
       <c r="J126" s="33" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K126" s="33"/>
       <c r="L126" s="33"/>
@@ -11943,7 +11897,7 @@
       <c r="E127" s="55"/>
       <c r="F127" s="33"/>
       <c r="G127" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H127" s="33"/>
       <c r="I127" s="33"/>
@@ -11959,11 +11913,11 @@
       <c r="F128" s="33"/>
       <c r="G128" s="33"/>
       <c r="H128" s="33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I128" s="33"/>
       <c r="J128" s="33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K128" s="33"/>
       <c r="L128" s="33"/>
@@ -11971,14 +11925,14 @@
     </row>
     <row r="129" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B129" s="29" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C129" s="52"/>
       <c r="D129" s="55"/>
       <c r="E129" s="55"/>
       <c r="F129" s="33"/>
       <c r="G129" s="36" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H129" s="36"/>
       <c r="I129" s="36"/>
@@ -11989,7 +11943,7 @@
     </row>
     <row r="130" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B130" s="32" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C130" s="52"/>
       <c r="D130" s="55"/>
@@ -11997,11 +11951,11 @@
       <c r="F130" s="33"/>
       <c r="G130" s="36"/>
       <c r="H130" s="36" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I130" s="36"/>
       <c r="J130" s="36" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K130" s="36"/>
       <c r="L130" s="33"/>
@@ -12009,14 +11963,14 @@
     </row>
     <row r="131" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B131" s="29" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C131" s="52"/>
       <c r="D131" s="55"/>
       <c r="E131" s="55"/>
       <c r="F131" s="33"/>
       <c r="G131" s="33" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H131" s="33"/>
       <c r="I131" s="33"/>
@@ -12027,7 +11981,7 @@
     </row>
     <row r="132" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B132" s="32" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C132" s="52"/>
       <c r="D132" s="55"/>
@@ -12035,11 +11989,11 @@
       <c r="F132" s="33"/>
       <c r="G132" s="33"/>
       <c r="H132" s="33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I132" s="33"/>
       <c r="J132" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K132" s="33"/>
       <c r="L132" s="33"/>
@@ -12047,14 +12001,14 @@
     </row>
     <row r="133" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B133" s="29" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C133" s="52"/>
       <c r="D133" s="55"/>
       <c r="E133" s="55"/>
       <c r="F133" s="33"/>
       <c r="G133" s="36" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H133" s="36"/>
       <c r="I133" s="36"/>
@@ -12065,7 +12019,7 @@
     </row>
     <row r="134" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B134" s="32" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C134" s="52"/>
       <c r="D134" s="55"/>
@@ -12073,11 +12027,11 @@
       <c r="F134" s="33"/>
       <c r="G134" s="36"/>
       <c r="H134" s="36" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I134" s="36"/>
       <c r="J134" s="36" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K134" s="36"/>
       <c r="L134" s="33"/>
@@ -12089,7 +12043,7 @@
       <c r="E135" s="55"/>
       <c r="F135" s="33"/>
       <c r="G135" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H135" s="33"/>
       <c r="I135" s="33"/>
@@ -12105,11 +12059,11 @@
       <c r="F136" s="33"/>
       <c r="G136" s="33"/>
       <c r="H136" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I136" s="33"/>
       <c r="J136" s="33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K136" s="33"/>
       <c r="L136" s="33"/>
@@ -12117,14 +12071,14 @@
     </row>
     <row r="137" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B137" s="29" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C137" s="52"/>
       <c r="D137" s="55"/>
       <c r="E137" s="55"/>
       <c r="F137" s="33"/>
       <c r="G137" s="37" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H137" s="37"/>
       <c r="I137" s="37"/>
@@ -12135,7 +12089,7 @@
     </row>
     <row r="138" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B138" s="32" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C138" s="52"/>
       <c r="D138" s="55"/>
@@ -12143,11 +12097,11 @@
       <c r="F138" s="33"/>
       <c r="G138" s="33"/>
       <c r="H138" s="33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I138" s="33"/>
       <c r="J138" s="33" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K138" s="33"/>
       <c r="L138" s="33"/>
@@ -12160,7 +12114,7 @@
       <c r="E139" s="55"/>
       <c r="F139" s="33"/>
       <c r="G139" s="33" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H139" s="33"/>
       <c r="I139" s="33"/>
@@ -12177,11 +12131,11 @@
       <c r="F140" s="33"/>
       <c r="G140" s="33"/>
       <c r="H140" s="33" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I140" s="33"/>
       <c r="J140" s="33" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K140" s="33"/>
       <c r="L140" s="33"/>
@@ -12191,7 +12145,7 @@
     <row r="141" spans="2:14" x14ac:dyDescent="0.15">
       <c r="F141" s="33"/>
       <c r="G141" s="33" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H141" s="33"/>
       <c r="I141" s="33"/>
@@ -12205,11 +12159,11 @@
       <c r="F142" s="33"/>
       <c r="G142" s="33"/>
       <c r="H142" s="33" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I142" s="33"/>
       <c r="J142" s="33" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K142" s="33"/>
       <c r="L142" s="33"/>
@@ -12219,7 +12173,7 @@
     <row r="143" spans="2:14" x14ac:dyDescent="0.15">
       <c r="F143" s="33"/>
       <c r="G143" s="33" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H143" s="33"/>
       <c r="I143" s="33"/>
@@ -12233,11 +12187,11 @@
       <c r="F144" s="33"/>
       <c r="G144" s="33"/>
       <c r="H144" s="33" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I144" s="33"/>
       <c r="J144" s="33" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K144" s="33"/>
       <c r="L144" s="33"/>
@@ -12246,11 +12200,11 @@
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B145" s="30" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F145" s="33"/>
       <c r="G145" s="33" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H145" s="33"/>
       <c r="I145" s="33"/>
@@ -12262,16 +12216,16 @@
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B146" s="32" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F146" s="33"/>
       <c r="G146" s="33"/>
       <c r="H146" s="33" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I146" s="33"/>
       <c r="J146" s="33" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K146" s="33"/>
       <c r="L146" s="33"/>
@@ -12338,7 +12292,7 @@
     <row r="152" spans="1:14" x14ac:dyDescent="0.15">
       <c r="E152" s="33"/>
       <c r="F152" s="33" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G152" s="33"/>
       <c r="H152" s="33"/>
@@ -12350,14 +12304,14 @@
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A153" s="30" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B153" s="29" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E153" s="33"/>
       <c r="F153" s="33" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G153" s="33"/>
       <c r="H153" s="33"/>
@@ -12369,14 +12323,14 @@
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A154" s="32" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B154" s="32" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E154" s="33"/>
       <c r="F154" s="33" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G154" s="33"/>
       <c r="H154" s="33"/>
@@ -12391,7 +12345,7 @@
       <c r="B155" s="32"/>
       <c r="E155" s="33"/>
       <c r="F155" s="33" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G155" s="33"/>
       <c r="H155" s="33"/>
@@ -12421,12 +12375,12 @@
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B161" s="30" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B162" s="32" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.15">
@@ -12441,7 +12395,7 @@
     </row>
     <row r="176" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F176" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.15">
@@ -12462,7 +12416,7 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F185" s="33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G185" s="33"/>
       <c r="H185" s="33"/>
@@ -12484,7 +12438,7 @@
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A187" s="30" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F187" s="33"/>
       <c r="G187" s="33" t="s">
@@ -12498,13 +12452,13 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A188" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="B188" s="29" t="s">
+        <v>421</v>
+      </c>
+      <c r="C188" s="32" t="s">
         <v>536</v>
-      </c>
-      <c r="B188" s="29" t="s">
-        <v>422</v>
-      </c>
-      <c r="C188" s="32" t="s">
-        <v>537</v>
       </c>
       <c r="F188" s="33" t="s">
         <v>53</v>
@@ -12518,13 +12472,13 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A189" s="30" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B189" s="29" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C189" s="32" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F189" s="33"/>
       <c r="G189" s="33" t="s">
@@ -12538,7 +12492,7 @@
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A190" s="32" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F190" s="33"/>
       <c r="G190" s="33" t="s">
@@ -12552,11 +12506,11 @@
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A191" s="30" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F191" s="33"/>
       <c r="G191" s="33" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H191" s="33"/>
       <c r="I191" s="33"/>
@@ -12566,12 +12520,12 @@
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A192" s="32" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F192" s="33"/>
       <c r="G192" s="33"/>
       <c r="H192" s="33" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I192" s="33"/>
       <c r="J192" s="33"/>
@@ -12634,10 +12588,10 @@
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A198" s="30" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F198" s="33" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G198" s="33"/>
       <c r="H198" s="33"/>
@@ -12648,10 +12602,10 @@
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A199" s="32" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B199" s="30" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F199" s="33"/>
       <c r="G199" s="33" t="s">
@@ -12663,12 +12617,12 @@
       <c r="K199" s="33"/>
       <c r="L199" s="33"/>
       <c r="M199" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B200" s="32" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F200" s="33" t="s">
         <v>57</v>
@@ -12691,7 +12645,7 @@
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.15">
       <c r="E202" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F202" s="33"/>
       <c r="G202" s="33"/>
@@ -12703,13 +12657,13 @@
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A203" s="30" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B203" s="32" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F203" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G203" s="33"/>
       <c r="H203" s="33"/>
@@ -12720,14 +12674,14 @@
     </row>
     <row r="204" spans="1:13" ht="33" x14ac:dyDescent="0.15">
       <c r="A204" s="31" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B204" s="32" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E204" s="33"/>
       <c r="F204" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G204" s="33"/>
       <c r="H204" s="33"/>
@@ -12742,7 +12696,7 @@
       <c r="C205" s="52"/>
       <c r="E205" s="60"/>
       <c r="F205" s="60" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G205" s="60"/>
       <c r="H205" s="60"/>
@@ -12767,7 +12721,7 @@
     <row r="207" spans="1:13" x14ac:dyDescent="0.15">
       <c r="E207" s="33"/>
       <c r="F207" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G207" s="33"/>
       <c r="H207" s="33"/>
@@ -12778,11 +12732,11 @@
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A208" s="30" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E208" s="33"/>
       <c r="F208" s="33" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G208" s="33"/>
       <c r="H208" s="33"/>
@@ -12792,11 +12746,11 @@
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A209" s="32" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E209" s="33"/>
       <c r="F209" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G209" s="33"/>
       <c r="H209" s="33"/>
@@ -12807,7 +12761,7 @@
     <row r="210" spans="1:11" x14ac:dyDescent="0.15">
       <c r="E210" s="33"/>
       <c r="F210" s="33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G210" s="33"/>
       <c r="H210" s="33"/>
@@ -12828,7 +12782,7 @@
       <c r="C212" s="52"/>
       <c r="E212" s="60"/>
       <c r="F212" s="60" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G212" s="60"/>
       <c r="H212" s="60"/>
@@ -12841,7 +12795,7 @@
       <c r="E213" s="60"/>
       <c r="F213" s="60"/>
       <c r="G213" s="60" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H213" s="60"/>
       <c r="I213" s="60"/>
@@ -12853,7 +12807,7 @@
       <c r="E214" s="60"/>
       <c r="F214" s="60"/>
       <c r="G214" s="60" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H214" s="60"/>
       <c r="I214" s="60"/>
@@ -12865,7 +12819,7 @@
       <c r="E215" s="60"/>
       <c r="F215" s="60"/>
       <c r="G215" s="57" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H215" s="60"/>
       <c r="I215" s="60"/>
@@ -12894,16 +12848,16 @@
     </row>
     <row r="230" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B230" s="29" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="231" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B231" s="32" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D231" s="33"/>
       <c r="E231" s="33" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F231" s="33"/>
       <c r="G231" s="33"/>
@@ -12917,7 +12871,7 @@
       <c r="D232" s="33"/>
       <c r="E232" s="33"/>
       <c r="F232" s="33" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G232" s="33"/>
       <c r="H232" s="33"/>
@@ -12929,7 +12883,7 @@
     <row r="233" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D233" s="33"/>
       <c r="E233" s="33" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F233" s="33"/>
       <c r="G233" s="33"/>
@@ -12943,7 +12897,7 @@
       <c r="D234" s="33"/>
       <c r="E234" s="33"/>
       <c r="F234" s="33" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G234" s="33"/>
       <c r="H234" s="33"/>
@@ -12955,7 +12909,7 @@
     <row r="235" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D235" s="33"/>
       <c r="E235" s="33" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F235" s="33"/>
       <c r="G235" s="33"/>
@@ -12969,10 +12923,10 @@
       <c r="D236" s="33"/>
       <c r="E236" s="33"/>
       <c r="F236" s="33" t="s">
+        <v>607</v>
+      </c>
+      <c r="G236" s="33" t="s">
         <v>608</v>
-      </c>
-      <c r="G236" s="33" t="s">
-        <v>609</v>
       </c>
       <c r="H236" s="33"/>
       <c r="I236" s="33"/>
@@ -12984,10 +12938,10 @@
       <c r="D237" s="33"/>
       <c r="E237" s="33"/>
       <c r="F237" s="33" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G237" s="33" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H237" s="33"/>
       <c r="I237" s="33"/>
@@ -13035,10 +12989,10 @@
     <row r="241" spans="2:13" x14ac:dyDescent="0.15">
       <c r="D241" s="33"/>
       <c r="E241" s="33"/>
-      <c r="F241" s="33" t="s">
+      <c r="F241" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="G241" s="33"/>
+      <c r="G241" s="57"/>
       <c r="H241" s="33"/>
       <c r="I241" s="33"/>
       <c r="J241" s="33"/>
@@ -13048,9 +13002,9 @@
     <row r="242" spans="2:13" x14ac:dyDescent="0.15">
       <c r="D242" s="33"/>
       <c r="E242" s="33"/>
-      <c r="F242" s="33"/>
-      <c r="G242" s="33" t="s">
-        <v>69</v>
+      <c r="F242" s="57"/>
+      <c r="G242" s="57" t="s">
+        <v>852</v>
       </c>
       <c r="H242" s="33"/>
       <c r="I242" s="33"/>
@@ -13058,25 +13012,26 @@
       <c r="K242" s="33"/>
       <c r="L242" s="33"/>
     </row>
-    <row r="243" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D243" s="33"/>
-      <c r="E243" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="F243" s="33"/>
-      <c r="G243" s="33"/>
-      <c r="H243" s="33"/>
-      <c r="I243" s="33"/>
-      <c r="J243" s="33"/>
-      <c r="K243" s="33"/>
-      <c r="L243" s="33"/>
+    <row r="243" spans="2:13" s="69" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C243" s="52"/>
+      <c r="D243" s="60"/>
+      <c r="E243" s="60"/>
+      <c r="F243" s="57"/>
+      <c r="G243" s="57" t="s">
+        <v>853</v>
+      </c>
+      <c r="H243" s="60"/>
+      <c r="I243" s="60"/>
+      <c r="J243" s="60"/>
+      <c r="K243" s="60"/>
+      <c r="L243" s="60"/>
     </row>
     <row r="244" spans="2:13" x14ac:dyDescent="0.15">
       <c r="D244" s="33"/>
-      <c r="E244" s="33"/>
-      <c r="F244" s="33" t="s">
-        <v>71</v>
-      </c>
+      <c r="E244" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="F244" s="33"/>
       <c r="G244" s="33"/>
       <c r="H244" s="33"/>
       <c r="I244" s="33"/>
@@ -13088,7 +13043,7 @@
       <c r="D245" s="33"/>
       <c r="E245" s="33"/>
       <c r="F245" s="33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G245" s="33"/>
       <c r="H245" s="33"/>
@@ -13101,7 +13056,7 @@
       <c r="D246" s="33"/>
       <c r="E246" s="33"/>
       <c r="F246" s="33" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="G246" s="33"/>
       <c r="H246" s="33"/>
@@ -13114,7 +13069,7 @@
       <c r="D247" s="33"/>
       <c r="E247" s="33"/>
       <c r="F247" s="33" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="G247" s="33"/>
       <c r="H247" s="33"/>
@@ -13127,7 +13082,7 @@
       <c r="D248" s="33"/>
       <c r="E248" s="33"/>
       <c r="F248" s="33" t="s">
-        <v>619</v>
+        <v>72</v>
       </c>
       <c r="G248" s="33"/>
       <c r="H248" s="33"/>
@@ -13138,10 +13093,10 @@
     </row>
     <row r="249" spans="2:13" x14ac:dyDescent="0.15">
       <c r="D249" s="33"/>
-      <c r="E249" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="F249" s="33"/>
+      <c r="E249" s="33"/>
+      <c r="F249" s="33" t="s">
+        <v>618</v>
+      </c>
       <c r="G249" s="33"/>
       <c r="H249" s="33"/>
       <c r="I249" s="33"/>
@@ -13150,20 +13105,17 @@
       <c r="L249" s="33"/>
     </row>
     <row r="250" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B250" s="33"/>
-      <c r="C250" s="35"/>
       <c r="D250" s="33"/>
-      <c r="E250" s="33"/>
-      <c r="F250" s="33" t="s">
-        <v>75</v>
-      </c>
+      <c r="E250" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="F250" s="33"/>
       <c r="G250" s="33"/>
       <c r="H250" s="33"/>
       <c r="I250" s="33"/>
       <c r="J250" s="33"/>
       <c r="K250" s="33"/>
       <c r="L250" s="33"/>
-      <c r="M250" s="33"/>
     </row>
     <row r="251" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B251" s="33"/>
@@ -13171,7 +13123,7 @@
       <c r="D251" s="33"/>
       <c r="E251" s="33"/>
       <c r="F251" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G251" s="33"/>
       <c r="H251" s="33"/>
@@ -13185,10 +13137,10 @@
       <c r="B252" s="33"/>
       <c r="C252" s="35"/>
       <c r="D252" s="33"/>
-      <c r="E252" s="33" t="s">
-        <v>622</v>
-      </c>
-      <c r="F252" s="33"/>
+      <c r="E252" s="33"/>
+      <c r="F252" s="33" t="s">
+        <v>75</v>
+      </c>
       <c r="G252" s="33"/>
       <c r="H252" s="33"/>
       <c r="I252" s="33"/>
@@ -13201,16 +13153,14 @@
       <c r="B253" s="33"/>
       <c r="C253" s="35"/>
       <c r="D253" s="33"/>
-      <c r="E253" s="33"/>
-      <c r="F253" s="33" t="s">
-        <v>482</v>
-      </c>
+      <c r="E253" s="33" t="s">
+        <v>621</v>
+      </c>
+      <c r="F253" s="33"/>
       <c r="G253" s="33"/>
       <c r="H253" s="33"/>
       <c r="I253" s="33"/>
-      <c r="J253" s="33" t="s">
-        <v>488</v>
-      </c>
+      <c r="J253" s="33"/>
       <c r="K253" s="33"/>
       <c r="L253" s="33"/>
       <c r="M253" s="33"/>
@@ -13220,16 +13170,16 @@
       <c r="C254" s="35"/>
       <c r="D254" s="33"/>
       <c r="E254" s="33"/>
-      <c r="F254" s="33"/>
-      <c r="G254" s="33" t="s">
-        <v>483</v>
-      </c>
+      <c r="F254" s="33" t="s">
+        <v>481</v>
+      </c>
+      <c r="G254" s="33"/>
       <c r="H254" s="33"/>
       <c r="I254" s="33"/>
-      <c r="J254" s="33"/>
-      <c r="K254" s="33" t="s">
-        <v>553</v>
-      </c>
+      <c r="J254" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="K254" s="33"/>
       <c r="L254" s="33"/>
       <c r="M254" s="33"/>
     </row>
@@ -13238,16 +13188,16 @@
       <c r="C255" s="35"/>
       <c r="D255" s="33"/>
       <c r="E255" s="33"/>
-      <c r="F255" s="33" t="s">
-        <v>484</v>
-      </c>
-      <c r="G255" s="33"/>
+      <c r="F255" s="33"/>
+      <c r="G255" s="33" t="s">
+        <v>482</v>
+      </c>
       <c r="H255" s="33"/>
       <c r="I255" s="33"/>
-      <c r="J255" s="33" t="s">
-        <v>490</v>
-      </c>
-      <c r="K255" s="33"/>
+      <c r="J255" s="33"/>
+      <c r="K255" s="33" t="s">
+        <v>552</v>
+      </c>
       <c r="L255" s="33"/>
       <c r="M255" s="33"/>
     </row>
@@ -13256,16 +13206,16 @@
       <c r="C256" s="35"/>
       <c r="D256" s="33"/>
       <c r="E256" s="33"/>
-      <c r="F256" s="33"/>
-      <c r="G256" s="33" t="s">
-        <v>552</v>
-      </c>
+      <c r="F256" s="33" t="s">
+        <v>483</v>
+      </c>
+      <c r="G256" s="33"/>
       <c r="H256" s="33"/>
       <c r="I256" s="33"/>
-      <c r="J256" s="33"/>
-      <c r="K256" s="33" t="s">
-        <v>491</v>
-      </c>
+      <c r="J256" s="33" t="s">
+        <v>489</v>
+      </c>
+      <c r="K256" s="33"/>
       <c r="L256" s="33"/>
       <c r="M256" s="33"/>
     </row>
@@ -13274,16 +13224,16 @@
       <c r="C257" s="35"/>
       <c r="D257" s="33"/>
       <c r="E257" s="33"/>
-      <c r="F257" s="33" t="s">
-        <v>486</v>
-      </c>
-      <c r="G257" s="33"/>
+      <c r="F257" s="33"/>
+      <c r="G257" s="33" t="s">
+        <v>551</v>
+      </c>
       <c r="H257" s="33"/>
       <c r="I257" s="33"/>
-      <c r="J257" s="33" t="s">
-        <v>492</v>
-      </c>
-      <c r="K257" s="33"/>
+      <c r="J257" s="33"/>
+      <c r="K257" s="33" t="s">
+        <v>490</v>
+      </c>
       <c r="L257" s="33"/>
       <c r="M257" s="33"/>
     </row>
@@ -13292,16 +13242,16 @@
       <c r="C258" s="35"/>
       <c r="D258" s="33"/>
       <c r="E258" s="33"/>
-      <c r="F258" s="33"/>
-      <c r="G258" s="33" t="s">
-        <v>487</v>
-      </c>
+      <c r="F258" s="33" t="s">
+        <v>485</v>
+      </c>
+      <c r="G258" s="33"/>
       <c r="H258" s="33"/>
       <c r="I258" s="33"/>
-      <c r="J258" s="33"/>
-      <c r="K258" s="33" t="s">
-        <v>493</v>
-      </c>
+      <c r="J258" s="33" t="s">
+        <v>491</v>
+      </c>
+      <c r="K258" s="33"/>
       <c r="L258" s="33"/>
       <c r="M258" s="33"/>
     </row>
@@ -13310,15 +13260,15 @@
       <c r="C259" s="35"/>
       <c r="D259" s="33"/>
       <c r="E259" s="33"/>
-      <c r="F259" s="33" t="s">
-        <v>495</v>
-      </c>
-      <c r="G259" s="33"/>
+      <c r="F259" s="33"/>
+      <c r="G259" s="33" t="s">
+        <v>486</v>
+      </c>
       <c r="H259" s="33"/>
       <c r="I259" s="33"/>
       <c r="J259" s="33"/>
       <c r="K259" s="33" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="L259" s="33"/>
       <c r="M259" s="33"/>
@@ -13328,14 +13278,16 @@
       <c r="C260" s="35"/>
       <c r="D260" s="33"/>
       <c r="E260" s="33"/>
-      <c r="F260" s="33"/>
-      <c r="G260" s="33" t="s">
-        <v>489</v>
-      </c>
+      <c r="F260" s="33" t="s">
+        <v>494</v>
+      </c>
+      <c r="G260" s="33"/>
       <c r="H260" s="33"/>
       <c r="I260" s="33"/>
       <c r="J260" s="33"/>
-      <c r="K260" s="33"/>
+      <c r="K260" s="33" t="s">
+        <v>493</v>
+      </c>
       <c r="L260" s="33"/>
       <c r="M260" s="33"/>
     </row>
@@ -13344,10 +13296,10 @@
       <c r="C261" s="35"/>
       <c r="D261" s="33"/>
       <c r="E261" s="33"/>
-      <c r="F261" s="33" t="s">
-        <v>496</v>
-      </c>
-      <c r="G261" s="33"/>
+      <c r="F261" s="33"/>
+      <c r="G261" s="33" t="s">
+        <v>488</v>
+      </c>
       <c r="H261" s="33"/>
       <c r="I261" s="33"/>
       <c r="J261" s="33"/>
@@ -13360,10 +13312,10 @@
       <c r="C262" s="35"/>
       <c r="D262" s="33"/>
       <c r="E262" s="33"/>
-      <c r="F262" s="33"/>
-      <c r="G262" s="33" t="s">
-        <v>551</v>
-      </c>
+      <c r="F262" s="33" t="s">
+        <v>495</v>
+      </c>
+      <c r="G262" s="33"/>
       <c r="H262" s="33"/>
       <c r="I262" s="33"/>
       <c r="J262" s="33"/>
@@ -13377,7 +13329,9 @@
       <c r="D263" s="33"/>
       <c r="E263" s="33"/>
       <c r="F263" s="33"/>
-      <c r="G263" s="33"/>
+      <c r="G263" s="33" t="s">
+        <v>550</v>
+      </c>
       <c r="H263" s="33"/>
       <c r="I263" s="33"/>
       <c r="J263" s="33"/>
@@ -13387,9 +13341,7 @@
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B264" s="33"/>
-      <c r="C264" s="35" t="s">
-        <v>282</v>
-      </c>
+      <c r="C264" s="35"/>
       <c r="D264" s="33"/>
       <c r="E264" s="33"/>
       <c r="F264" s="33"/>
@@ -13402,14 +13354,11 @@
       <c r="M264" s="33"/>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A265" s="30" t="s">
-        <v>463</v>
-      </c>
       <c r="B265" s="33"/>
-      <c r="C265" s="35"/>
-      <c r="D265" s="33" t="s">
-        <v>554</v>
-      </c>
+      <c r="C265" s="35" t="s">
+        <v>281</v>
+      </c>
+      <c r="D265" s="33"/>
       <c r="E265" s="33"/>
       <c r="F265" s="33"/>
       <c r="G265" s="33"/>
@@ -13420,112 +13369,121 @@
       <c r="L265" s="33"/>
       <c r="M265" s="33"/>
     </row>
-    <row r="266" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A266" s="59"/>
-      <c r="B266" s="60"/>
-      <c r="C266" s="61"/>
-      <c r="D266" s="57" t="s">
-        <v>664</v>
-      </c>
-      <c r="E266" s="60"/>
-      <c r="F266" s="60"/>
-      <c r="G266" s="60"/>
-      <c r="H266" s="60"/>
-      <c r="I266" s="60"/>
-      <c r="J266" s="60"/>
-      <c r="K266" s="60"/>
-      <c r="L266" s="60"/>
-      <c r="M266" s="60"/>
-    </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A267" s="32" t="s">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A266" s="30" t="s">
+        <v>462</v>
+      </c>
+      <c r="B266" s="33"/>
+      <c r="C266" s="35"/>
+      <c r="D266" s="33" t="s">
+        <v>553</v>
+      </c>
+      <c r="E266" s="33"/>
+      <c r="F266" s="33"/>
+      <c r="G266" s="33"/>
+      <c r="H266" s="33"/>
+      <c r="I266" s="33"/>
+      <c r="J266" s="33"/>
+      <c r="K266" s="33"/>
+      <c r="L266" s="33"/>
+      <c r="M266" s="33"/>
+    </row>
+    <row r="267" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A267" s="59"/>
+      <c r="B267" s="60"/>
+      <c r="C267" s="61"/>
+      <c r="D267" s="57" t="s">
+        <v>663</v>
+      </c>
+      <c r="E267" s="60"/>
+      <c r="F267" s="60"/>
+      <c r="G267" s="60"/>
+      <c r="H267" s="60"/>
+      <c r="I267" s="60"/>
+      <c r="J267" s="60"/>
+      <c r="K267" s="60"/>
+      <c r="L267" s="60"/>
+      <c r="M267" s="60"/>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A268" s="32" t="s">
+        <v>554</v>
+      </c>
+      <c r="B268" s="33"/>
+      <c r="C268" s="35"/>
+      <c r="D268" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="E268" s="33"/>
+      <c r="F268" s="33"/>
+      <c r="G268" s="33"/>
+      <c r="H268" s="33"/>
+      <c r="I268" s="33"/>
+      <c r="J268" s="33"/>
+      <c r="K268" s="33"/>
+      <c r="L268" s="33"/>
+      <c r="M268" s="33"/>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D269" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="E270" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A274" s="30" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A275" s="32" t="s">
         <v>555</v>
       </c>
-      <c r="B267" s="33"/>
-      <c r="C267" s="35"/>
-      <c r="D267" s="33" t="s">
-        <v>283</v>
-      </c>
-      <c r="E267" s="33"/>
-      <c r="F267" s="33"/>
-      <c r="G267" s="33"/>
-      <c r="H267" s="33"/>
-      <c r="I267" s="33"/>
-      <c r="J267" s="33"/>
-      <c r="K267" s="33"/>
-      <c r="L267" s="33"/>
-      <c r="M267" s="33"/>
-    </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="D268" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="E269" s="1" t="s">
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E282" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A273" s="30" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A274" s="32" t="s">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A290" s="30" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A291" s="32" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E281" s="1" t="s">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D294" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A289" s="30" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A290" s="32" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="D293" s="1" t="s">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B296" s="29" t="s">
+        <v>424</v>
+      </c>
+      <c r="E296" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B295" s="29" t="s">
-        <v>425</v>
-      </c>
-      <c r="E295" s="1" t="s">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B297" s="32" t="s">
+        <v>529</v>
+      </c>
+      <c r="F297" s="1" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B296" s="32" t="s">
-        <v>530</v>
-      </c>
-      <c r="F296" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="E297" s="33"/>
-      <c r="F297" s="33" t="s">
-        <v>290</v>
-      </c>
-      <c r="G297" s="33"/>
-      <c r="H297" s="33"/>
-      <c r="I297" s="33"/>
-      <c r="J297" s="33"/>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E298" s="33"/>
       <c r="F298" s="33" t="s">
-        <v>558</v>
+        <v>289</v>
       </c>
       <c r="G298" s="33"/>
       <c r="H298" s="33"/>
@@ -13534,10 +13492,10 @@
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E299" s="33"/>
-      <c r="F299" s="33"/>
-      <c r="G299" s="33" t="s">
-        <v>559</v>
-      </c>
+      <c r="F299" s="33" t="s">
+        <v>557</v>
+      </c>
+      <c r="G299" s="33"/>
       <c r="H299" s="33"/>
       <c r="I299" s="33"/>
       <c r="J299" s="33"/>
@@ -13546,7 +13504,7 @@
       <c r="E300" s="33"/>
       <c r="F300" s="33"/>
       <c r="G300" s="33" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H300" s="33"/>
       <c r="I300" s="33"/>
@@ -13555,15 +13513,15 @@
     <row r="301" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E301" s="33"/>
       <c r="F301" s="33"/>
-      <c r="G301" s="33"/>
+      <c r="G301" s="33" t="s">
+        <v>559</v>
+      </c>
       <c r="H301" s="33"/>
       <c r="I301" s="33"/>
       <c r="J301" s="33"/>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="E302" s="33" t="s">
-        <v>291</v>
-      </c>
+      <c r="E302" s="33"/>
       <c r="F302" s="33"/>
       <c r="G302" s="33"/>
       <c r="H302" s="33"/>
@@ -13571,93 +13529,90 @@
       <c r="J302" s="33"/>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="E303" s="33"/>
-      <c r="F303" s="33" t="s">
-        <v>292</v>
-      </c>
+      <c r="E303" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="F303" s="33"/>
       <c r="G303" s="33"/>
       <c r="H303" s="33"/>
       <c r="I303" s="33"/>
       <c r="J303" s="33"/>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="F304" s="1" t="s">
-        <v>293</v>
-      </c>
+      <c r="E304" s="33"/>
+      <c r="F304" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="G304" s="33"/>
+      <c r="H304" s="33"/>
+      <c r="I304" s="33"/>
+      <c r="J304" s="33"/>
     </row>
     <row r="305" spans="2:12" x14ac:dyDescent="0.15">
       <c r="F305" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="306" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="F306" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="308" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="E308" s="1" t="s">
         <v>294</v>
-      </c>
-    </row>
-    <row r="307" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="E307" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="308" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="F308" s="1" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="309" spans="2:12" x14ac:dyDescent="0.15">
       <c r="F309" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="310" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="F310" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="312" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B312" s="29" t="s">
+        <v>425</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="313" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B313" s="32" t="s">
+        <v>529</v>
+      </c>
+      <c r="F313" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="311" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B311" s="29" t="s">
-        <v>426</v>
-      </c>
-      <c r="E311" s="1" t="s">
+    <row r="314" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="F314" s="1" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="312" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B312" s="32" t="s">
-        <v>530</v>
-      </c>
-      <c r="F312" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="313" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="F313" s="1" t="s">
+    <row r="316" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="F316" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="317" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="G317" s="1" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="315" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="F315" s="1" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="316" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="G316" s="1" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="317" spans="2:12" s="55" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C317" s="52"/>
     </row>
     <row r="318" spans="2:12" s="55" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C318" s="52"/>
-      <c r="E318" s="57" t="s">
-        <v>677</v>
-      </c>
-      <c r="F318" s="57"/>
-      <c r="G318" s="57"/>
-      <c r="H318" s="57"/>
-      <c r="I318" s="57"/>
-      <c r="J318" s="57"/>
-      <c r="K318" s="57"/>
-      <c r="L318" s="57"/>
     </row>
     <row r="319" spans="2:12" s="55" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C319" s="52"/>
-      <c r="E319" s="57"/>
-      <c r="F319" s="57" t="s">
-        <v>678</v>
-      </c>
+      <c r="E319" s="57" t="s">
+        <v>676</v>
+      </c>
+      <c r="F319" s="57"/>
       <c r="G319" s="57"/>
       <c r="H319" s="57"/>
       <c r="I319" s="57"/>
@@ -13669,34 +13624,34 @@
       <c r="C320" s="52"/>
       <c r="E320" s="57"/>
       <c r="F320" s="57" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G320" s="57"/>
       <c r="H320" s="57"/>
       <c r="I320" s="57"/>
-      <c r="J320" s="57" t="s">
-        <v>680</v>
-      </c>
+      <c r="J320" s="57"/>
       <c r="K320" s="57"/>
       <c r="L320" s="57"/>
     </row>
-    <row r="321" spans="3:13" s="55" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="321" spans="3:12" s="55" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C321" s="52"/>
       <c r="E321" s="57"/>
-      <c r="F321" s="57"/>
+      <c r="F321" s="57" t="s">
+        <v>678</v>
+      </c>
       <c r="G321" s="57"/>
       <c r="H321" s="57"/>
       <c r="I321" s="57"/>
-      <c r="J321" s="57"/>
+      <c r="J321" s="57" t="s">
+        <v>679</v>
+      </c>
       <c r="K321" s="57"/>
       <c r="L321" s="57"/>
     </row>
-    <row r="322" spans="3:13" s="55" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="322" spans="3:12" s="55" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C322" s="52"/>
       <c r="E322" s="57"/>
-      <c r="F322" s="57" t="s">
-        <v>681</v>
-      </c>
+      <c r="F322" s="57"/>
       <c r="G322" s="57"/>
       <c r="H322" s="57"/>
       <c r="I322" s="57"/>
@@ -13704,134 +13659,133 @@
       <c r="K322" s="57"/>
       <c r="L322" s="57"/>
     </row>
-    <row r="323" spans="3:13" s="55" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="323" spans="3:12" s="55" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C323" s="52"/>
       <c r="E323" s="57"/>
-      <c r="F323" s="57"/>
-      <c r="G323" s="57" t="s">
-        <v>682</v>
-      </c>
+      <c r="F323" s="57" t="s">
+        <v>680</v>
+      </c>
+      <c r="G323" s="57"/>
       <c r="H323" s="57"/>
       <c r="I323" s="57"/>
       <c r="J323" s="57"/>
       <c r="K323" s="57"/>
       <c r="L323" s="57"/>
     </row>
-    <row r="324" spans="3:13" s="55" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="324" spans="3:12" s="55" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C324" s="52"/>
       <c r="E324" s="57"/>
-      <c r="F324" s="57" t="s">
-        <v>683</v>
-      </c>
-      <c r="G324" s="57"/>
+      <c r="F324" s="57"/>
+      <c r="G324" s="57" t="s">
+        <v>681</v>
+      </c>
       <c r="H324" s="57"/>
       <c r="I324" s="57"/>
       <c r="J324" s="57"/>
       <c r="K324" s="57"/>
       <c r="L324" s="57"/>
     </row>
-    <row r="325" spans="3:13" s="55" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="325" spans="3:12" s="55" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C325" s="52"/>
       <c r="E325" s="57"/>
-      <c r="F325" s="57"/>
-      <c r="G325" s="57" t="s">
-        <v>684</v>
-      </c>
+      <c r="F325" s="57" t="s">
+        <v>682</v>
+      </c>
+      <c r="G325" s="57"/>
       <c r="H325" s="57"/>
       <c r="I325" s="57"/>
       <c r="J325" s="57"/>
       <c r="K325" s="57"/>
       <c r="L325" s="57"/>
     </row>
-    <row r="326" spans="3:13" s="55" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="326" spans="3:12" s="55" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C326" s="52"/>
-    </row>
-    <row r="327" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="D327" s="1" t="s">
+      <c r="E326" s="57"/>
+      <c r="F326" s="57"/>
+      <c r="G326" s="57" t="s">
+        <v>683</v>
+      </c>
+      <c r="H326" s="57"/>
+      <c r="I326" s="57"/>
+      <c r="J326" s="57"/>
+      <c r="K326" s="57"/>
+      <c r="L326" s="57"/>
+    </row>
+    <row r="327" spans="3:12" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C327" s="52"/>
+    </row>
+    <row r="328" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="D328" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="329" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="E329" s="57" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="328" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="E328" s="57" t="s">
+      <c r="F329" s="57"/>
+      <c r="G329" s="57"/>
+    </row>
+    <row r="330" spans="3:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E330" s="57" t="s">
+        <v>319</v>
+      </c>
+      <c r="F330" s="57" t="s">
+        <v>320</v>
+      </c>
+      <c r="G330" s="57"/>
+    </row>
+    <row r="331" spans="3:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E331" s="57" t="s">
+        <v>321</v>
+      </c>
+      <c r="F331" s="57" t="s">
+        <v>322</v>
+      </c>
+      <c r="G331" s="57"/>
+    </row>
+    <row r="332" spans="3:12" s="69" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C332" s="52"/>
+      <c r="E332" s="57"/>
+      <c r="F332" s="57" t="s">
         <v>313</v>
       </c>
-      <c r="F328" s="57"/>
-      <c r="G328" s="57"/>
-    </row>
-    <row r="329" spans="3:13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="E329" s="57" t="s">
-        <v>320</v>
-      </c>
-      <c r="F329" s="57" t="s">
-        <v>321</v>
-      </c>
-      <c r="G329" s="57"/>
-    </row>
-    <row r="330" spans="3:13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="E330" s="57" t="s">
-        <v>322</v>
-      </c>
-      <c r="F330" s="57" t="s">
-        <v>323</v>
-      </c>
-      <c r="G330" s="57"/>
-    </row>
-    <row r="331" spans="3:13" s="69" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C331" s="52"/>
-      <c r="E331" s="57"/>
-      <c r="F331" s="57" t="s">
+      <c r="G332" s="57"/>
+    </row>
+    <row r="333" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="E333" s="57" t="s">
+        <v>847</v>
+      </c>
+      <c r="F333" s="57"/>
+      <c r="G333" s="57"/>
+    </row>
+    <row r="334" spans="3:12" s="69" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C334" s="52"/>
+      <c r="E334" s="57"/>
+      <c r="F334" s="57" t="s">
+        <v>848</v>
+      </c>
+      <c r="G334" s="57"/>
+    </row>
+    <row r="335" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="E335" s="57"/>
+      <c r="F335" s="57"/>
+      <c r="G335" s="57"/>
+    </row>
+    <row r="336" spans="3:12" s="69" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C336" s="52"/>
+      <c r="E336" s="57"/>
+      <c r="F336" s="57" t="s">
         <v>314</v>
       </c>
-      <c r="G331" s="57"/>
-    </row>
-    <row r="332" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="E332" s="57" t="s">
-        <v>848</v>
-      </c>
-      <c r="F332" s="57"/>
-      <c r="G332" s="57"/>
-    </row>
-    <row r="333" spans="3:13" s="69" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C333" s="52"/>
-      <c r="E333" s="57"/>
-      <c r="F333" s="57" t="s">
-        <v>849</v>
-      </c>
-      <c r="G333" s="57"/>
-    </row>
-    <row r="334" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="E334" s="57"/>
-      <c r="F334" s="57"/>
-      <c r="G334" s="57"/>
-    </row>
-    <row r="335" spans="3:13" s="69" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C335" s="52"/>
-      <c r="E335" s="57"/>
-      <c r="F335" s="57" t="s">
-        <v>315</v>
-      </c>
-      <c r="G335" s="57"/>
-    </row>
-    <row r="336" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="E336" s="57"/>
-      <c r="F336" s="57"/>
-      <c r="G336" s="57" t="s">
-        <v>318</v>
-      </c>
-      <c r="H336" s="57"/>
-      <c r="I336" s="57"/>
-      <c r="J336" s="57"/>
-      <c r="K336" s="57"/>
-      <c r="L336" s="57"/>
-      <c r="M336" s="57"/>
-    </row>
-    <row r="337" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C337" s="52"/>
+      <c r="G336" s="57"/>
+    </row>
+    <row r="337" spans="2:13" x14ac:dyDescent="0.15">
       <c r="E337" s="57"/>
-      <c r="F337" s="57" t="s">
-        <v>316</v>
-      </c>
-      <c r="G337" s="57"/>
+      <c r="F337" s="57"/>
+      <c r="G337" s="57" t="s">
+        <v>317</v>
+      </c>
       <c r="H337" s="57"/>
       <c r="I337" s="57"/>
       <c r="J337" s="57"/>
@@ -13839,262 +13793,276 @@
       <c r="L337" s="57"/>
       <c r="M337" s="57"/>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="338" spans="2:13" s="69" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C338" s="52"/>
       <c r="E338" s="57"/>
-      <c r="F338" s="57"/>
-      <c r="G338" s="57" t="s">
-        <v>845</v>
-      </c>
+      <c r="F338" s="57" t="s">
+        <v>315</v>
+      </c>
+      <c r="G338" s="57"/>
+      <c r="H338" s="57"/>
       <c r="I338" s="57"/>
       <c r="J338" s="57"/>
       <c r="K338" s="57"/>
       <c r="L338" s="57"/>
       <c r="M338" s="57"/>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="339" spans="2:13" x14ac:dyDescent="0.15">
       <c r="E339" s="57"/>
-      <c r="F339" s="57" t="s">
-        <v>317</v>
-      </c>
-      <c r="G339" s="57"/>
-    </row>
-    <row r="340" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C340" s="52"/>
+      <c r="F339" s="57"/>
+      <c r="G339" s="57" t="s">
+        <v>844</v>
+      </c>
+      <c r="I339" s="57"/>
+      <c r="J339" s="57"/>
+      <c r="K339" s="57"/>
+      <c r="L339" s="57"/>
+      <c r="M339" s="57"/>
+    </row>
+    <row r="340" spans="2:13" x14ac:dyDescent="0.15">
       <c r="E340" s="57"/>
-      <c r="F340" s="57"/>
-      <c r="G340" s="57" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="341" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F340" s="57" t="s">
+        <v>316</v>
+      </c>
+      <c r="G340" s="57"/>
+    </row>
+    <row r="341" spans="2:13" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C341" s="52"/>
       <c r="E341" s="57"/>
       <c r="F341" s="57"/>
       <c r="G341" s="57" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="342" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.15">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="342" spans="2:13" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C342" s="52"/>
       <c r="E342" s="57"/>
-      <c r="F342" s="57" t="s">
-        <v>846</v>
-      </c>
-      <c r="G342" s="57"/>
-    </row>
-    <row r="343" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F342" s="57"/>
+      <c r="G342" s="57" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="343" spans="2:13" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C343" s="52"/>
       <c r="E343" s="57"/>
-      <c r="F343" s="57"/>
-      <c r="G343" s="57" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="344" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F343" s="57" t="s">
+        <v>845</v>
+      </c>
+      <c r="G343" s="57"/>
+    </row>
+    <row r="344" spans="2:13" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C344" s="52"/>
+      <c r="E344" s="57"/>
+      <c r="F344" s="57"/>
       <c r="G344" s="57" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="345" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.15">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="345" spans="2:13" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C345" s="52"/>
       <c r="G345" s="57" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="346" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.15">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="346" spans="2:13" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C346" s="52"/>
-    </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="D347" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="E348" s="1" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="G346" s="57" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="347" spans="2:13" s="69" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C347" s="52"/>
+    </row>
+    <row r="348" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="D348" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="349" spans="2:13" x14ac:dyDescent="0.15">
       <c r="E349" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.15">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="350" spans="2:13" x14ac:dyDescent="0.15">
       <c r="E350" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="351" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E351" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="352" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B352" s="29" t="s">
+        <v>426</v>
+      </c>
+      <c r="E352" s="39" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B351" s="29" t="s">
-        <v>427</v>
-      </c>
-      <c r="E351" s="39" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="352" spans="1:13" ht="33" x14ac:dyDescent="0.15">
-      <c r="A352" s="31" t="s">
-        <v>447</v>
-      </c>
-      <c r="B352" s="32" t="s">
-        <v>519</v>
-      </c>
-      <c r="E352" s="25" t="s">
+    <row r="353" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+      <c r="A353" s="31" t="s">
+        <v>446</v>
+      </c>
+      <c r="B353" s="32" t="s">
+        <v>518</v>
+      </c>
+      <c r="E353" s="25" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A354" s="32" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A353" s="32" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D356" s="62" t="s">
-        <v>342</v>
-      </c>
-      <c r="E356" s="62"/>
-      <c r="F356" s="62"/>
-      <c r="G356" s="62"/>
-      <c r="H356" s="62"/>
-      <c r="I356" s="57" t="s">
-        <v>650</v>
-      </c>
-    </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D357" s="62"/>
-      <c r="E357" s="62" t="s">
-        <v>343</v>
-      </c>
+      <c r="D357" s="62" t="s">
+        <v>341</v>
+      </c>
+      <c r="E357" s="62"/>
       <c r="F357" s="62"/>
       <c r="G357" s="62"/>
       <c r="H357" s="62"/>
-      <c r="I357" s="62"/>
+      <c r="I357" s="57" t="s">
+        <v>649</v>
+      </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B358" s="29" t="s">
-        <v>429</v>
-      </c>
       <c r="D358" s="62"/>
-      <c r="E358" s="62"/>
-      <c r="F358" s="62" t="s">
-        <v>344</v>
-      </c>
+      <c r="E358" s="62" t="s">
+        <v>342</v>
+      </c>
+      <c r="F358" s="62"/>
       <c r="G358" s="62"/>
       <c r="H358" s="62"/>
       <c r="I358" s="62"/>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B359" s="32" t="s">
-        <v>568</v>
+      <c r="B359" s="29" t="s">
+        <v>428</v>
       </c>
       <c r="D359" s="62"/>
       <c r="E359" s="62"/>
       <c r="F359" s="62" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G359" s="62"/>
       <c r="H359" s="62"/>
       <c r="I359" s="62"/>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B360" s="32" t="s">
+        <v>567</v>
+      </c>
       <c r="D360" s="62"/>
       <c r="E360" s="62"/>
       <c r="F360" s="62" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G360" s="62"/>
       <c r="H360" s="62"/>
       <c r="I360" s="62"/>
     </row>
-    <row r="361" spans="1:9" ht="33" x14ac:dyDescent="0.15">
-      <c r="A361" s="31" t="s">
-        <v>448</v>
-      </c>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D361" s="62"/>
       <c r="E361" s="62"/>
       <c r="F361" s="62" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="G361" s="62"/>
       <c r="H361" s="62"/>
       <c r="I361" s="62"/>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A362" s="40" t="s">
-        <v>567</v>
+    <row r="362" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+      <c r="A362" s="31" t="s">
+        <v>447</v>
       </c>
       <c r="D362" s="62"/>
       <c r="E362" s="62"/>
       <c r="F362" s="62" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="G362" s="62"/>
       <c r="H362" s="62"/>
       <c r="I362" s="62"/>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A363" s="40" t="s">
+        <v>566</v>
+      </c>
       <c r="D363" s="62"/>
-      <c r="E363" s="62" t="s">
-        <v>349</v>
-      </c>
-      <c r="F363" s="62"/>
+      <c r="E363" s="62"/>
+      <c r="F363" s="62" t="s">
+        <v>346</v>
+      </c>
       <c r="G363" s="62"/>
       <c r="H363" s="62"/>
       <c r="I363" s="62"/>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B364" s="29" t="s">
-        <v>430</v>
-      </c>
       <c r="D364" s="62"/>
-      <c r="E364" s="62"/>
-      <c r="F364" s="62" t="s">
-        <v>350</v>
-      </c>
+      <c r="E364" s="62" t="s">
+        <v>348</v>
+      </c>
+      <c r="F364" s="62"/>
       <c r="G364" s="62"/>
       <c r="H364" s="62"/>
       <c r="I364" s="62"/>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B365" s="32" t="s">
-        <v>568</v>
+      <c r="B365" s="29" t="s">
+        <v>429</v>
       </c>
       <c r="D365" s="62"/>
       <c r="E365" s="62"/>
       <c r="F365" s="62" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G365" s="62"/>
       <c r="H365" s="62"/>
       <c r="I365" s="62"/>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B366" s="32" t="s">
+        <v>567</v>
+      </c>
       <c r="D366" s="62"/>
-      <c r="E366" s="62" t="s">
-        <v>348</v>
-      </c>
-      <c r="F366" s="62"/>
+      <c r="E366" s="62"/>
+      <c r="F366" s="62" t="s">
+        <v>350</v>
+      </c>
       <c r="G366" s="62"/>
       <c r="H366" s="62"/>
       <c r="I366" s="62"/>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B368" s="29" t="s">
-        <v>428</v>
-      </c>
-      <c r="F368" s="32" t="s">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D367" s="62"/>
+      <c r="E367" s="62" t="s">
+        <v>347</v>
+      </c>
+      <c r="F367" s="62"/>
+      <c r="G367" s="62"/>
+      <c r="H367" s="62"/>
+      <c r="I367" s="62"/>
+    </row>
+    <row r="369" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B369" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="F369" s="32" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="370" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B370" s="30" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="371" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B371" s="32" t="s">
         <v>569</v>
-      </c>
-    </row>
-    <row r="369" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B369" s="30" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="370" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B370" s="32" t="s">
-        <v>570</v>
       </c>
     </row>
   </sheetData>
@@ -14112,7 +14080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M165"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I53" sqref="I53:L53"/>
     </sheetView>
   </sheetViews>
@@ -14130,22 +14098,22 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C2" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -14155,32 +14123,32 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F8" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F9" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C10" s="52"/>
       <c r="F10" s="57" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C11" s="52"/>
       <c r="F11" s="57" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A12" s="41" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.15">
@@ -14188,162 +14156,162 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F14" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="G15" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="G16" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="30" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="32" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I18" s="25" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I19" s="25" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="H20" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="H21" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="H22" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="F24" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="G25" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="G26" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="F28" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="G29" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="H30" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="50" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B32" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C32" s="47"/>
       <c r="I32" s="48" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="46"/>
       <c r="B33" s="46"/>
       <c r="H33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="H34" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="H35" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="33" x14ac:dyDescent="0.15">
       <c r="A37" s="31" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F37" s="39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G37" s="39"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="32" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F38" s="39"/>
       <c r="G38" s="42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F39" s="39"/>
       <c r="G39" s="42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -14351,82 +14319,82 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="F41" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="G42" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="G43" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="30" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="32" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="54"/>
       <c r="C46" s="52"/>
       <c r="I46" s="57" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="H47" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I48" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="49" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C49" s="52"/>
       <c r="I49" s="57" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="H50" s="60" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="51" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C51" s="52"/>
       <c r="H51" s="38"/>
       <c r="I51" s="53" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="52" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C52" s="52"/>
       <c r="H52" s="38"/>
       <c r="I52" s="55" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="53" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C53" s="52"/>
       <c r="H53" s="38"/>
       <c r="I53" s="74" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J53" s="74"/>
       <c r="K53" s="74"/>
@@ -14439,23 +14407,23 @@
     <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55" s="51"/>
       <c r="H55" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" s="30" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57" s="32" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I57" s="57" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="J57" s="57"/>
     </row>
@@ -14466,80 +14434,80 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F59" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="G60" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.15">
       <c r="G61" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H61" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H61" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="I61" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.15">
       <c r="G62" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H62" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H62" s="1" t="s">
+      <c r="I62" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A64" s="30" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A65" s="32" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A69" s="30" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A70" s="30" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="71" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.15">
@@ -14547,7 +14515,7 @@
       <c r="B71" s="54"/>
       <c r="C71" s="52"/>
       <c r="H71" s="57" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I71" s="57"/>
       <c r="J71" s="57"/>
@@ -14557,56 +14525,56 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A72" s="32" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G72" s="25" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.15">
       <c r="G73" s="25" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D76" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D77" s="11"/>
       <c r="E77" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A78" s="30" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B78" s="29" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D78" s="11"/>
       <c r="F78" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A79" s="41" t="s">
+        <v>585</v>
+      </c>
+      <c r="B79" s="32" t="s">
         <v>586</v>
-      </c>
-      <c r="B79" s="32" t="s">
-        <v>587</v>
       </c>
       <c r="D79" s="11"/>
       <c r="G79" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D80" s="11"/>
       <c r="F80" s="62" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G80" s="62"/>
       <c r="H80" s="62"/>
@@ -14617,7 +14585,7 @@
       <c r="D81" s="11"/>
       <c r="F81" s="62"/>
       <c r="G81" s="62" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H81" s="62"/>
       <c r="I81" s="62"/>
@@ -14626,7 +14594,7 @@
     <row r="82" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D82" s="11"/>
       <c r="F82" s="62" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G82" s="62"/>
       <c r="H82" s="62"/>
@@ -14635,12 +14603,12 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A83" s="30" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D83" s="11"/>
       <c r="F83" s="62"/>
       <c r="G83" s="62" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H83" s="62"/>
       <c r="I83" s="62"/>
@@ -14648,14 +14616,14 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A84" s="32" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D84" s="11"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D85" s="11"/>
       <c r="E85" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.15">
@@ -14666,21 +14634,21 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D88" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A89" s="30" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A90" s="32" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D90" s="11"/>
     </row>
@@ -14690,23 +14658,23 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D92" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D93" s="11"/>
       <c r="E93" s="25" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F93" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G93" s="16"/>
       <c r="J93" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
@@ -14714,7 +14682,7 @@
       <c r="E94" s="25"/>
       <c r="F94" s="12"/>
       <c r="G94" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M94" s="69"/>
     </row>
@@ -14728,14 +14696,14 @@
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D96" s="11"/>
       <c r="E96" s="25" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F96" s="19" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G96" s="16"/>
       <c r="J96" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="M96" s="69"/>
     </row>
@@ -14744,7 +14712,7 @@
       <c r="E97" s="25"/>
       <c r="F97" s="12"/>
       <c r="G97" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M97" s="69"/>
     </row>
@@ -14756,14 +14724,14 @@
     <row r="99" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D99" s="11"/>
       <c r="E99" s="25" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F99" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G99" s="16"/>
       <c r="J99" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M99" s="69"/>
     </row>
@@ -14772,7 +14740,7 @@
       <c r="E100" s="25"/>
       <c r="F100" s="12"/>
       <c r="G100" s="17" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M100" s="69"/>
     </row>
@@ -14784,14 +14752,14 @@
     <row r="102" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D102" s="11"/>
       <c r="E102" s="25" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F102" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G102" s="21"/>
       <c r="J102" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="M102" s="69"/>
     </row>
@@ -14800,7 +14768,7 @@
       <c r="E103" s="25"/>
       <c r="F103" s="12"/>
       <c r="G103" s="19" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M103" s="69"/>
     </row>
@@ -14812,14 +14780,14 @@
     <row r="105" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D105" s="11"/>
       <c r="E105" s="25" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F105" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G105" s="21"/>
       <c r="J105" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M105" s="69"/>
     </row>
@@ -14828,7 +14796,7 @@
       <c r="E106" s="25"/>
       <c r="F106" s="12"/>
       <c r="G106" s="19" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M106" s="69"/>
     </row>
@@ -14841,11 +14809,11 @@
       <c r="D108" s="11"/>
       <c r="E108" s="25"/>
       <c r="F108" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G108" s="16"/>
       <c r="J108" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="M108" s="69"/>
     </row>
@@ -14854,7 +14822,7 @@
       <c r="E109" s="25"/>
       <c r="F109" s="12"/>
       <c r="G109" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M109" s="69"/>
     </row>
@@ -14866,14 +14834,14 @@
     <row r="111" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D111" s="11"/>
       <c r="E111" s="25" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F111" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G111" s="16"/>
       <c r="J111" s="69" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="M111" s="69"/>
     </row>
@@ -14882,7 +14850,7 @@
       <c r="E112" s="25"/>
       <c r="F112" s="12"/>
       <c r="G112" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M112" s="69"/>
     </row>
@@ -14895,11 +14863,11 @@
       <c r="D114" s="11"/>
       <c r="E114" s="25"/>
       <c r="F114" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G114" s="16"/>
       <c r="J114" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M114" s="69"/>
     </row>
@@ -14908,7 +14876,7 @@
       <c r="E115" s="25"/>
       <c r="F115" s="12"/>
       <c r="G115" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="116" spans="4:13" x14ac:dyDescent="0.15">
@@ -14918,21 +14886,21 @@
     <row r="117" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D117" s="11"/>
       <c r="E117" s="25" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F117" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G117" s="16"/>
       <c r="J117" s="69" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="118" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D118" s="11"/>
       <c r="E118" s="25"/>
       <c r="G118" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="119" spans="4:13" x14ac:dyDescent="0.15">
@@ -14942,21 +14910,21 @@
     <row r="120" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D120" s="11"/>
       <c r="E120" s="25" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G120" s="11"/>
       <c r="J120" s="69" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="121" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D121" s="11"/>
       <c r="E121" s="25"/>
       <c r="G121" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="122" spans="4:13" x14ac:dyDescent="0.15">
@@ -14966,20 +14934,20 @@
     <row r="123" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D123" s="11"/>
       <c r="E123" s="25" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="124" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D124" s="11"/>
       <c r="E124" s="25"/>
       <c r="G124" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="125" spans="4:13" x14ac:dyDescent="0.15">
@@ -14989,20 +14957,20 @@
     <row r="126" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D126" s="11"/>
       <c r="E126" s="25" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="127" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D127" s="11"/>
       <c r="E127" s="25"/>
       <c r="G127" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="128" spans="4:13" x14ac:dyDescent="0.15">
@@ -15012,20 +14980,20 @@
     <row r="129" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D129" s="11"/>
       <c r="E129" s="25" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="130" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D130" s="11"/>
       <c r="E130" s="25"/>
       <c r="G130" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="131" spans="4:10" x14ac:dyDescent="0.15">
@@ -15035,20 +15003,20 @@
     <row r="132" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D132" s="11"/>
       <c r="E132" s="25" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="133" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D133" s="11"/>
       <c r="E133" s="25"/>
       <c r="G133" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="134" spans="4:10" x14ac:dyDescent="0.15">
@@ -15058,20 +15026,20 @@
     <row r="135" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D135" s="11"/>
       <c r="E135" s="25" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="136" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D136" s="11"/>
       <c r="E136" s="25"/>
       <c r="G136" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="137" spans="4:10" x14ac:dyDescent="0.15">
@@ -15081,20 +15049,20 @@
     <row r="138" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D138" s="11"/>
       <c r="E138" s="25" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="139" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D139" s="11"/>
       <c r="E139" s="25"/>
       <c r="G139" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="140" spans="4:10" x14ac:dyDescent="0.15">
@@ -15104,20 +15072,20 @@
     <row r="141" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D141" s="11"/>
       <c r="E141" s="25" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="142" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D142" s="11"/>
       <c r="E142" s="25"/>
       <c r="G142" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="143" spans="4:10" x14ac:dyDescent="0.15">
@@ -15131,7 +15099,7 @@
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D145" s="11"/>
       <c r="F145" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.15">
@@ -15142,96 +15110,96 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C148" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D148" s="11"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A149" s="30" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B149" s="29" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A150" s="32" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B150" s="32" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E151" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F152" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F153" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C154" s="1"/>
       <c r="E154" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F155" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F156" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E157" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F158" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F159" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E160" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="161" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E161" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="162" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E162" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="165" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E165" s="25" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
   </sheetData>
@@ -15258,12 +15226,12 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B2" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C3" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -15271,7 +15239,7 @@
     <row r="4" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C4" s="20"/>
       <c r="D4" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E4" s="21"/>
     </row>
@@ -15279,7 +15247,7 @@
       <c r="C5" s="43"/>
       <c r="D5" s="44"/>
       <c r="E5" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
@@ -15294,7 +15262,7 @@
       <c r="C6" s="43"/>
       <c r="D6" s="44"/>
       <c r="E6" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F6" s="33"/>
       <c r="G6" s="33"/>
@@ -15321,7 +15289,7 @@
     <row r="8" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C8" s="43"/>
       <c r="D8" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E8" s="44"/>
       <c r="F8" s="33"/>
@@ -15337,7 +15305,7 @@
       <c r="C9" s="43"/>
       <c r="D9" s="44"/>
       <c r="E9" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F9" s="33"/>
       <c r="G9" s="33"/>
@@ -15352,7 +15320,7 @@
       <c r="C10" s="43"/>
       <c r="D10" s="44"/>
       <c r="E10" s="23" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
@@ -15378,7 +15346,7 @@
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C12" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D12" s="44"/>
       <c r="E12" s="44"/>
@@ -15394,7 +15362,7 @@
     <row r="13" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C13" s="43"/>
       <c r="D13" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E13" s="44"/>
       <c r="F13" s="33"/>
@@ -15410,7 +15378,7 @@
       <c r="C14" s="43"/>
       <c r="D14" s="44"/>
       <c r="E14" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
@@ -15425,7 +15393,7 @@
       <c r="C15" s="43"/>
       <c r="D15" s="44"/>
       <c r="E15" s="23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F15" s="33"/>
       <c r="G15" s="33"/>
@@ -15452,7 +15420,7 @@
     <row r="17" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C17" s="43"/>
       <c r="D17" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E17" s="44"/>
       <c r="F17" s="33"/>
@@ -15468,7 +15436,7 @@
       <c r="C18" s="43"/>
       <c r="D18" s="44"/>
       <c r="E18" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F18" s="33"/>
       <c r="G18" s="33"/>
@@ -15483,7 +15451,7 @@
       <c r="C19" s="43"/>
       <c r="D19" s="44"/>
       <c r="E19" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="33"/>
@@ -15509,7 +15477,7 @@
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B21" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C21" s="35"/>
       <c r="D21" s="33"/>
@@ -15525,7 +15493,7 @@
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C22" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
@@ -15541,7 +15509,7 @@
     <row r="23" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C23" s="35"/>
       <c r="D23" s="33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E23" s="33"/>
       <c r="F23" s="33"/>
@@ -15556,7 +15524,7 @@
     <row r="24" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C24" s="35"/>
       <c r="D24" s="33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E24" s="33"/>
       <c r="F24" s="33"/>
@@ -15583,7 +15551,7 @@
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C26" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
@@ -15599,7 +15567,7 @@
     <row r="27" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C27" s="35"/>
       <c r="D27" s="33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E27" s="33"/>
       <c r="F27" s="33"/>
@@ -15626,7 +15594,7 @@
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C29" s="43"/>
       <c r="D29" s="44"/>
@@ -15643,7 +15611,7 @@
     <row r="30" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B30" s="20"/>
       <c r="C30" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D30" s="44"/>
       <c r="E30" s="33"/>
@@ -15660,7 +15628,7 @@
       <c r="B31" s="20"/>
       <c r="C31" s="43"/>
       <c r="D31" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E31" s="33"/>
       <c r="F31" s="33"/>
@@ -15676,7 +15644,7 @@
       <c r="B32" s="20"/>
       <c r="C32" s="43"/>
       <c r="D32" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
@@ -15692,7 +15660,7 @@
       <c r="B33" s="20"/>
       <c r="C33" s="43"/>
       <c r="D33" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E33" s="33"/>
       <c r="F33" s="33"/>
@@ -15720,7 +15688,7 @@
     <row r="35" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B35" s="20"/>
       <c r="C35" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D35" s="44"/>
       <c r="E35" s="33"/>
@@ -15737,7 +15705,7 @@
       <c r="B36" s="20"/>
       <c r="C36" s="43"/>
       <c r="D36" s="23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E36" s="33"/>
       <c r="F36" s="33"/>
@@ -15753,7 +15721,7 @@
       <c r="B37" s="20"/>
       <c r="C37" s="43"/>
       <c r="D37" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E37" s="33"/>
       <c r="F37" s="33"/>
@@ -15780,7 +15748,7 @@
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B39" s="11" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C39" s="35"/>
       <c r="D39" s="33"/>
@@ -15796,7 +15764,7 @@
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C40" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D40" s="33"/>
       <c r="E40" s="33"/>
@@ -15812,17 +15780,17 @@
     <row r="41" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C41" s="24"/>
       <c r="D41" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C42" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.15">
       <c r="D43" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
   </sheetData>
@@ -15835,8 +15803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23:G29"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -15863,7 +15831,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.15">
@@ -15871,328 +15839,328 @@
         <v>25</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>203</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>204</v>
       </c>
       <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="30" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C3" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="32" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C4" s="69" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C5" s="69" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C6" s="69" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="30" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="32" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C9" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C11" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C12" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C13" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C14" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C15" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C16" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C17" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C18" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C19" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D19" s="71" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E19" s="71" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N22" s="32" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C23" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D23" s="66" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F23" s="57" t="s">
+        <v>830</v>
+      </c>
+      <c r="G23" s="57" t="s">
         <v>831</v>
       </c>
-      <c r="G23" s="57" t="s">
-        <v>832</v>
-      </c>
       <c r="H23" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N23" s="30" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="30" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D24" s="66">
         <v>0</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F24" s="57" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G24" s="57" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="N24" s="30" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="32" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F25" s="57" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G25" s="57" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H25" s="55" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="N25" s="32" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="E26" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F26" s="57" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G26" s="57" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H26" s="55" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="E27" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F27" s="57" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G27" s="57" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H27" s="55" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="E28" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F28" s="57" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="G28" s="57" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H28" s="55" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="E29" s="45" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F29" s="75" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="G29" s="57" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H29" s="55" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="L29" s="55"/>
     </row>
@@ -16201,7 +16169,7 @@
     </row>
     <row r="31" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B31" s="55" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
@@ -16209,227 +16177,227 @@
     </row>
     <row r="32" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C32" s="55" t="s">
+        <v>712</v>
+      </c>
+      <c r="D32" s="14" t="s">
         <v>713</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>714</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
     </row>
     <row r="33" spans="2:15" s="55" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C33" s="55" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D33" s="55" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
     </row>
     <row r="34" spans="2:15" s="55" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C34" s="55" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D34" s="55" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
     </row>
     <row r="35" spans="2:15" s="55" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C35" s="55" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D35" s="55" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
     </row>
     <row r="36" spans="2:15" s="55" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C36" s="55" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D36" s="55" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
     </row>
     <row r="37" spans="2:15" s="55" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C37" s="55" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D37" s="55" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
     </row>
     <row r="38" spans="2:15" s="55" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C38" s="55" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D38" s="57" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
     </row>
-    <row r="40" spans="2:15" s="55" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="55" t="s">
+    <row r="40" spans="2:15" s="62" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="62" t="s">
+        <v>715</v>
+      </c>
+      <c r="D40" s="76"/>
+      <c r="E40" s="76"/>
+    </row>
+    <row r="41" spans="2:15" s="62" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C41" s="62" t="s">
         <v>716</v>
       </c>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-    </row>
-    <row r="41" spans="2:15" s="55" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C41" s="55" t="s">
+      <c r="D41" s="76" t="s">
         <v>717</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="E41" s="76" t="s">
         <v>718</v>
       </c>
-      <c r="E41" s="14" t="s">
+    </row>
+    <row r="42" spans="2:15" s="62" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C42" s="62" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" s="55" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C42" s="55" t="s">
+      <c r="D42" s="62" t="s">
+        <v>305</v>
+      </c>
+      <c r="E42" s="76"/>
+    </row>
+    <row r="43" spans="2:15" s="62" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C43" s="62" t="s">
         <v>720</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D43" s="62" t="s">
         <v>306</v>
       </c>
-      <c r="E42" s="14"/>
-    </row>
-    <row r="43" spans="2:15" s="55" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C43" s="55" t="s">
+      <c r="E43" s="76"/>
+    </row>
+    <row r="44" spans="2:15" s="62" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C44" s="62" t="s">
         <v>721</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E43" s="14"/>
-    </row>
-    <row r="44" spans="2:15" s="55" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C44" s="55" t="s">
+      <c r="D44" s="62" t="s">
+        <v>305</v>
+      </c>
+      <c r="E44" s="76"/>
+    </row>
+    <row r="45" spans="2:15" s="62" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C45" s="62" t="s">
         <v>722</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D45" s="62" t="s">
         <v>306</v>
       </c>
-      <c r="E44" s="14"/>
-    </row>
-    <row r="45" spans="2:15" s="55" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C45" s="55" t="s">
+      <c r="E45" s="76"/>
+    </row>
+    <row r="46" spans="2:15" s="62" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C46" s="62" t="s">
         <v>723</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E45" s="14"/>
-    </row>
-    <row r="46" spans="2:15" s="55" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C46" s="55" t="s">
-        <v>724</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="E46" s="14"/>
+      <c r="D46" s="62" t="s">
+        <v>305</v>
+      </c>
+      <c r="E46" s="76"/>
     </row>
     <row r="47" spans="2:15" s="55" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D47" s="14"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.15">
       <c r="O48" s="29" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B49" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="P49" s="32" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.15">
       <c r="D50" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E50" s="1"/>
       <c r="J50" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="L50" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="L50" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="O50" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A51" s="30" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>331</v>
-      </c>
       <c r="G51" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J51" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="K51" s="55" t="s">
         <v>728</v>
       </c>
-      <c r="K51" s="55" t="s">
-        <v>729</v>
-      </c>
       <c r="L51" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="O51" s="25" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="P51" s="25" t="s">
+        <v>724</v>
+      </c>
+      <c r="Q51" s="25" t="s">
         <v>725</v>
       </c>
-      <c r="Q51" s="25" t="s">
-        <v>726</v>
-      </c>
       <c r="R51" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A52" s="32" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C52" s="1">
         <v>1</v>
@@ -16438,7 +16406,7 @@
         <v>10001</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F52" s="28">
         <v>1</v>
@@ -16456,10 +16424,10 @@
         <v>102</v>
       </c>
       <c r="L52" s="57" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M52" s="57" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="N52" s="57">
         <v>1</v>
@@ -16474,7 +16442,7 @@
         <v>50</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.15">
@@ -16483,10 +16451,10 @@
         <v>2</v>
       </c>
       <c r="L53" s="57" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M53" s="57" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="N53" s="57">
         <v>1</v>
@@ -16498,10 +16466,10 @@
         <v>3</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M54" s="69" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="N54" s="1">
         <v>10</v>
@@ -16509,10 +16477,10 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.15">
       <c r="L55" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="M55" s="69" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="N55" s="1">
         <v>10</v>
@@ -16520,10 +16488,10 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.15">
       <c r="L56" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="N56" s="1">
         <v>10</v>
@@ -16531,10 +16499,10 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.15">
       <c r="L57" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="N57" s="1">
         <v>50</v>
@@ -16542,10 +16510,10 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.15">
       <c r="L58" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="N58" s="1">
         <v>10</v>
@@ -16553,7 +16521,7 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.15">
       <c r="L59" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M59" s="1">
         <v>50</v>
@@ -16564,10 +16532,10 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.15">
       <c r="L60" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="N60" s="1">
         <v>10</v>
@@ -16575,10 +16543,10 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.15">
       <c r="L61" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="N61" s="1">
         <v>10</v>
@@ -16586,10 +16554,10 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.15">
       <c r="L62" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="N62" s="1">
         <v>10</v>
@@ -16597,10 +16565,10 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.15">
       <c r="L63" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="N63" s="1">
         <v>10</v>
@@ -16608,10 +16576,10 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.15">
       <c r="L64" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="N64" s="1">
         <v>10</v>
@@ -16619,10 +16587,10 @@
     </row>
     <row r="65" spans="3:15" x14ac:dyDescent="0.15">
       <c r="L65" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="N65" s="1">
         <v>10</v>
@@ -16630,10 +16598,10 @@
     </row>
     <row r="66" spans="3:15" x14ac:dyDescent="0.15">
       <c r="L66" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="N66" s="1">
         <v>10</v>
@@ -16641,10 +16609,10 @@
     </row>
     <row r="67" spans="3:15" x14ac:dyDescent="0.15">
       <c r="L67" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="N67" s="1">
         <v>10</v>
@@ -16652,10 +16620,10 @@
     </row>
     <row r="68" spans="3:15" x14ac:dyDescent="0.15">
       <c r="L68" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="N68" s="1">
         <v>10</v>
@@ -16673,7 +16641,7 @@
         <v>30001</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F70" s="1">
         <v>2</v>
@@ -16691,7 +16659,7 @@
         <v>102</v>
       </c>
       <c r="L70" s="73" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="N70" s="1">
         <v>0</v>
@@ -16705,7 +16673,7 @@
         <v>30002</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F71" s="1">
         <v>2</v>
@@ -16723,7 +16691,7 @@
         <v>104</v>
       </c>
       <c r="L71" s="73" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="N71" s="1">
         <v>0</v>
@@ -16734,7 +16702,7 @@
     </row>
     <row r="72" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C72" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
   </sheetData>
@@ -16760,57 +16728,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C32" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B53" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C54" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B62" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C63" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B76" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C77" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
   </sheetData>
@@ -16837,128 +16805,128 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="69" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B3" s="69" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C4" s="69" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D4" s="69" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C5" s="69" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D5" s="69" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C6" s="69" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D6" s="69" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C7" s="69" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D7" s="69" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C8" s="69" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D8" s="69" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C9" s="69" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D9" s="69" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C10" s="69" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D10" s="69" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C11" s="69" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D11" s="69" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C12" s="69" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D12" s="69" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B15" s="69" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C16" s="69" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="69" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B22" s="69" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C22" s="69" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="69" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B28" s="69" t="s">
+        <v>780</v>
+      </c>
+      <c r="C28" s="69" t="s">
         <v>781</v>
-      </c>
-      <c r="C28" s="69" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B29" s="69" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C29" s="69" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
   </sheetData>
@@ -16982,61 +16950,61 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C2" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D3" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D4" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D5" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="30" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="32" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D8" s="36" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -17060,67 +17028,67 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C9" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C14" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C15" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B20" s="64" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C21" s="65" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
   </sheetData>

--- a/gd/任务系统/新版任务系统设计.xlsx
+++ b/gd/任务系统/新版任务系统设计.xlsx
@@ -44,6 +44,7 @@
     <definedName name="内容固定_每个任务每天可以完成一次">任务类型!$D$24</definedName>
     <definedName name="配置形式遵循道具配置规则_详细见【道具文档】">基础规则!$J$57</definedName>
     <definedName name="配置形式遵循道具配置规则_详细见道具文档">基础规则!$J$57</definedName>
+    <definedName name="其中对局结束的剧情对话如果副本未通关则不播放_成功通关才播放结束的剧情对话">UI逻辑!$F$339</definedName>
     <definedName name="任务出现为即时刷新_如果有前后连续关系的情况_则上一个消失后_下一个跟随刷出">UI逻辑!$G$200:$N$200</definedName>
     <definedName name="任务对话相关">UI逻辑!$C$250:$N$339</definedName>
     <definedName name="任务奖励">基础规则!$F$41:$J$56</definedName>
@@ -473,7 +474,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="790">
   <si>
     <t>文档名称</t>
   </si>
@@ -4028,6 +4029,14 @@
   </si>
   <si>
     <t>yh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>其中对局结束的剧情对话如果副本未通关则不播放，成功通关才播放结束的剧情对话</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本结束剧情对话触发条件补充</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -8923,7 +8932,7 @@
   <dimension ref="A1:N71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -9871,7 +9880,9 @@
       <c r="E55" s="9"/>
       <c r="F55" s="5"/>
       <c r="G55" s="63"/>
-      <c r="H55" s="65"/>
+      <c r="H55" s="65" t="s">
+        <v>789</v>
+      </c>
       <c r="I55" s="63"/>
       <c r="J55" s="63"/>
       <c r="K55" s="8"/>
@@ -10092,6 +10103,7 @@
     <hyperlink ref="H52" location="对话组ID" display="对话配置更新以及立绘设计规范补充"/>
     <hyperlink ref="H53" location="显示格式为" display="调整奖励领取界面任务名称排布样式"/>
     <hyperlink ref="H54" location="剧情对话以通关成功为判定标准_通关后不再播放_未通关再次进入该副本还会播放剧情对话" display="补充剧情对话的触发条件"/>
+    <hyperlink ref="H55" location="其中对局结束的剧情对话如果副本未通关则不播放_成功通关才播放结束的剧情对话" display="副本结束剧情对话触发条件补充"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10230,7 +10242,7 @@
   <dimension ref="A1:N355"/>
   <sheetViews>
     <sheetView topLeftCell="C307" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E338" sqref="E338"/>
+      <selection activeCell="F339" sqref="F339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -13292,6 +13304,11 @@
       </c>
       <c r="E338" s="53" t="s">
         <v>781</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F339" s="53" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.15">

--- a/gd/任务系统/新版任务系统设计.xlsx
+++ b/gd/任务系统/新版任务系统设计.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\文档\gd\任务系统\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="20475" windowHeight="8055"/>
   </bookViews>
@@ -23,46 +28,46 @@
     <definedName name="_5.任务对话界面需求">美术需求!$B$76:$L$87</definedName>
     <definedName name="difficulty">基础规则!$J$93:$J$141</definedName>
     <definedName name="NPC配置格式">数据记录!$B$40:$E$46</definedName>
-    <definedName name="触发对话后其余背景蒙版蒙灰">UI逻辑!$D$252</definedName>
+    <definedName name="触发对话后其余背景蒙版蒙灰">UI逻辑!$D$251</definedName>
     <definedName name="当完成任意任务后_自动接取该任务后一个任务_任务配置表中顺序">基础规则!$F$10:$K$11</definedName>
-    <definedName name="对话界面出现时_点击屏幕任意位置_除跳过按钮区域__均响应跳过当前对话界面_不响应点击位置的其他功能">UI逻辑!$E$334</definedName>
+    <definedName name="对话界面出现时_点击屏幕任意位置_除跳过按钮区域__均响应跳过当前对话界面_不响应点击位置的其他功能">UI逻辑!$E$333</definedName>
     <definedName name="对话配置格式">数据记录!$B$22:$I$38</definedName>
     <definedName name="对话相关">数据记录!$R$49:$R$53</definedName>
-    <definedName name="对话组ID">UI逻辑!$E$314:$G$331</definedName>
+    <definedName name="对话组ID">UI逻辑!$E$313:$G$330</definedName>
     <definedName name="发言人名称">数据记录!$F$23:$G$29</definedName>
     <definedName name="分页签开启规则">UI逻辑!$E$70:$J$74</definedName>
     <definedName name="服务器拆分">需求拆分!$C$4:$D$12</definedName>
     <definedName name="奖励">数据记录!$O$50:$Q$52</definedName>
-    <definedName name="奖励内容中的图标无tips显示">UI逻辑!$F$234</definedName>
+    <definedName name="奖励内容中的图标无tips显示">UI逻辑!$F$233</definedName>
     <definedName name="奖励配置">数据记录!$O$49:$Q$55</definedName>
     <definedName name="金币">基础规则!$H$44:$P$58</definedName>
     <definedName name="经验值最终结果X_reward表读取值_K_B">基础规则!$I$53:$L$53</definedName>
-    <definedName name="剧情对话以通关成功为判定标准_通关后不再播放_未通关再次进入该副本还会播放剧情对话">UI逻辑!$E$338</definedName>
+    <definedName name="剧情对话以通关成功为判定标准_通关后不再播放_未通关再次进入该副本还会播放剧情对话">UI逻辑!$E$337</definedName>
     <definedName name="可循环类的任务次数重置点为自然周期结束的0点_即日循环任务为每天0点刷新次数_暂定0点_如游戏整体规划刷新时间为其他时间则统一变更">基础规则!$G$64</definedName>
     <definedName name="立即前往按钮相应规则">基础规则!$D$149</definedName>
-    <definedName name="名称">UI逻辑!$F$322:$M$324</definedName>
+    <definedName name="名称">UI逻辑!$F$321:$M$323</definedName>
     <definedName name="内容固定_每个任务每天可以完成一次">任务类型!$D$24</definedName>
     <definedName name="配置形式遵循道具配置规则_详细见【道具文档】">基础规则!$J$57</definedName>
     <definedName name="配置形式遵循道具配置规则_详细见道具文档">基础规则!$J$57</definedName>
-    <definedName name="其中对局结束的剧情对话如果副本未通关则不播放_成功通关才播放结束的剧情对话">UI逻辑!$F$339</definedName>
-    <definedName name="任务出现为即时刷新_如果有前后连续关系的情况_则上一个消失后_下一个跟随刷出">UI逻辑!$G$200:$N$200</definedName>
-    <definedName name="任务对话相关">UI逻辑!$C$250:$N$339</definedName>
+    <definedName name="其中对局结束的剧情对话如果副本未通关则不播放_成功通关才播放结束的剧情对话">UI逻辑!$F$338</definedName>
+    <definedName name="任务出现为即时刷新_如果有前后连续关系的情况_则上一个消失后_下一个跟随刷出">UI逻辑!$G$199:$N$199</definedName>
+    <definedName name="任务对话相关">UI逻辑!$C$249:$N$338</definedName>
     <definedName name="任务奖励">基础规则!$F$41:$J$56</definedName>
     <definedName name="任务奖励配置">数据记录!$O$49:$P$55</definedName>
     <definedName name="任务配置格式">数据记录!$B$49:$R$68</definedName>
     <definedName name="任务配置数值">数据记录!$C$50:$K$54</definedName>
     <definedName name="任务项奖励的图标无tips显示">UI逻辑!$F$140</definedName>
     <definedName name="任务项内容格式">UI逻辑!$F$104:$M$125</definedName>
-    <definedName name="任务项内容刷新规则">UI逻辑!$F$197:$L$199</definedName>
+    <definedName name="任务项内容刷新规则">UI逻辑!$F$196:$L$198</definedName>
     <definedName name="三星">数据记录!$L$52:$N$53</definedName>
     <definedName name="时间">数据记录!$J$50:$K$52</definedName>
     <definedName name="时效性">基础规则!$F$68:$I$70</definedName>
     <definedName name="时效性配置需要有始有终_即需要配置起始点与终止点">基础规则!$H$71:$M$71</definedName>
     <definedName name="是否可跳过">数据记录!$D$23:$D$24</definedName>
     <definedName name="体力">数据记录!$D$70:$S$71</definedName>
-    <definedName name="跳过按钮">UI逻辑!$E$304:$L$311</definedName>
+    <definedName name="跳过按钮">UI逻辑!$E$303:$L$310</definedName>
     <definedName name="通关限制">基础规则!$F$80:$I$83</definedName>
-    <definedName name="显示格式为">UI逻辑!$F$226:$G$228</definedName>
+    <definedName name="显示格式为">UI逻辑!$F$225:$G$227</definedName>
     <definedName name="已完成的任务_显示在对应分页的上方_多个已完成任务按照任务编号由小至大顺序从上至下显示">UI逻辑!$F$190:$N$190</definedName>
     <definedName name="最多显示为4行_根据显示行数上下居中显示">UI逻辑!$F$137:$K$138</definedName>
   </definedNames>
@@ -77,7 +82,7 @@
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="D23" authorId="0">
+    <comment ref="D23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -104,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C51" authorId="0">
+    <comment ref="C51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -134,7 +139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D51" authorId="0">
+    <comment ref="D51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -162,7 +167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E51" authorId="0">
+    <comment ref="E51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -188,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F51" authorId="0">
+    <comment ref="F51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -216,7 +221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G51" authorId="0">
+    <comment ref="G51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -242,7 +247,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I51" authorId="0">
+    <comment ref="I51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -269,7 +274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J51" authorId="1">
+    <comment ref="J51" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -295,7 +300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K51" authorId="1">
+    <comment ref="K51" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -321,7 +326,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L51" authorId="0">
+    <comment ref="L51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -364,7 +369,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M51" authorId="0">
+    <comment ref="M51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -390,7 +395,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O51" authorId="0">
+    <comment ref="O51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -417,7 +422,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P51" authorId="0">
+    <comment ref="P51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -443,7 +448,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q51" authorId="0">
+    <comment ref="Q51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -474,7 +479,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="791">
   <si>
     <t>文档名称</t>
   </si>
@@ -902,10 +907,6 @@
   </si>
   <si>
     <t>如当前某个类型的任务数为0，则切换至该界面后，不显示任何任务项</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>同时界面中居中显示：当前类型没有可以进行的任务哦！</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -4037,6 +4038,14 @@
   </si>
   <si>
     <t>副本结束剧情对话触发条件补充</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉任务界面中没有任务时的提示</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4470,13 +4479,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>204</xdr:row>
+      <xdr:row>203</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>304169</xdr:colOff>
-      <xdr:row>214</xdr:row>
+      <xdr:row>213</xdr:row>
       <xdr:rowOff>37837</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6550,13 +6559,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>204</xdr:row>
+      <xdr:row>203</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>206</xdr:row>
+      <xdr:row>205</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6610,13 +6619,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>494985</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>201</xdr:row>
       <xdr:rowOff>176751</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>204</xdr:row>
+      <xdr:row>203</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6662,7 +6671,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>201</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="334451"/>
@@ -6727,13 +6736,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>206</xdr:row>
+      <xdr:row>205</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>208</xdr:row>
+      <xdr:row>207</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6787,13 +6796,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>205</xdr:row>
+      <xdr:row>204</xdr:row>
       <xdr:rowOff>205326</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>206</xdr:row>
       <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6840,7 +6849,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>205</xdr:row>
+      <xdr:row>204</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="748923" cy="334451"/>
@@ -6905,13 +6914,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>208</xdr:row>
+      <xdr:row>207</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>212</xdr:row>
+      <xdr:row>211</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6965,13 +6974,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>208</xdr:row>
+      <xdr:row>207</xdr:row>
       <xdr:rowOff>62451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>210</xdr:row>
+      <xdr:row>209</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7018,7 +7027,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>206</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="748923" cy="334451"/>
@@ -7083,13 +7092,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>212</xdr:row>
+      <xdr:row>211</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>419101</xdr:colOff>
-      <xdr:row>213</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7143,13 +7152,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>419101</xdr:colOff>
-      <xdr:row>213</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>52926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>213</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7196,7 +7205,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>212</xdr:row>
+      <xdr:row>211</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="748923" cy="334451"/>
@@ -7261,13 +7270,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>14689</xdr:colOff>
-      <xdr:row>255</xdr:row>
+      <xdr:row>254</xdr:row>
       <xdr:rowOff>56229</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>94105</xdr:colOff>
-      <xdr:row>265</xdr:row>
+      <xdr:row>264</xdr:row>
       <xdr:rowOff>123235</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7299,13 +7308,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>267</xdr:row>
+      <xdr:row>266</xdr:row>
       <xdr:rowOff>32013</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>84581</xdr:colOff>
-      <xdr:row>277</xdr:row>
+      <xdr:row>276</xdr:row>
       <xdr:rowOff>94660</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7719,13 +7728,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>243</xdr:row>
+      <xdr:row>242</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>594361</xdr:colOff>
-      <xdr:row>243</xdr:row>
+      <xdr:row>242</xdr:row>
       <xdr:rowOff>188976</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7763,13 +7772,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>244</xdr:row>
+      <xdr:row>243</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>594361</xdr:colOff>
-      <xdr:row>244</xdr:row>
+      <xdr:row>243</xdr:row>
       <xdr:rowOff>188976</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7807,13 +7816,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>299</xdr:row>
+      <xdr:row>298</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>259050</xdr:colOff>
-      <xdr:row>299</xdr:row>
+      <xdr:row>298</xdr:row>
       <xdr:rowOff>199050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7851,13 +7860,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>255</xdr:row>
+      <xdr:row>254</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>256</xdr:row>
+      <xdr:row>255</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7921,13 +7930,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>267</xdr:row>
+      <xdr:row>266</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>268</xdr:row>
+      <xdr:row>267</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7991,13 +8000,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>306</xdr:row>
+      <xdr:row>305</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>306</xdr:row>
+      <xdr:row>305</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8078,13 +8087,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>305</xdr:row>
+      <xdr:row>304</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>306</xdr:row>
+      <xdr:row>305</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8643,7 +8652,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -8685,7 +8694,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8720,7 +8729,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8931,8 +8940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="N59" sqref="M59:N59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -9130,7 +9139,7 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C12" s="7">
         <v>42150</v>
@@ -9141,10 +9150,10 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>199</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -9159,7 +9168,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="27" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -9174,7 +9183,7 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -9189,7 +9198,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -9204,7 +9213,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -9219,7 +9228,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -9234,7 +9243,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="27" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -9249,7 +9258,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="4"/>
       <c r="H19" s="27" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -9265,7 +9274,7 @@
       <c r="F20" s="5"/>
       <c r="G20" s="4"/>
       <c r="H20" s="27" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -9281,7 +9290,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="4"/>
       <c r="H21" s="27" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -9297,7 +9306,7 @@
       <c r="F22" s="5"/>
       <c r="G22" s="4"/>
       <c r="H22" s="27" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -9307,21 +9316,21 @@
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C23" s="7">
         <v>42154</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="5"/>
       <c r="G23" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="H23" s="27" t="s">
         <v>342</v>
-      </c>
-      <c r="H23" s="27" t="s">
-        <v>343</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -9337,7 +9346,7 @@
       <c r="F24" s="5"/>
       <c r="G24" s="4"/>
       <c r="H24" s="27" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -9353,7 +9362,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="4"/>
       <c r="H25" s="27" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -9369,7 +9378,7 @@
       <c r="F26" s="5"/>
       <c r="G26" s="4"/>
       <c r="H26" s="27" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -9385,7 +9394,7 @@
       <c r="F27" s="5"/>
       <c r="G27" s="4"/>
       <c r="H27" s="27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -9395,21 +9404,21 @@
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C28" s="7">
         <v>42156</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="5"/>
       <c r="G28" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="H28" s="27" t="s">
         <v>565</v>
-      </c>
-      <c r="H28" s="27" t="s">
-        <v>566</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -9425,7 +9434,7 @@
       <c r="F29" s="5"/>
       <c r="G29" s="4"/>
       <c r="H29" s="27" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -9441,7 +9450,7 @@
       <c r="F30" s="5"/>
       <c r="G30" s="4"/>
       <c r="H30" s="27" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -9451,21 +9460,21 @@
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C31" s="7">
         <v>42159</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="5"/>
       <c r="G31" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="H31" s="54" t="s">
         <v>582</v>
-      </c>
-      <c r="H31" s="54" t="s">
-        <v>583</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -9481,7 +9490,7 @@
       <c r="F32" s="5"/>
       <c r="G32" s="4"/>
       <c r="H32" s="54" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -9497,7 +9506,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="4"/>
       <c r="H33" s="52" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -9513,7 +9522,7 @@
       <c r="F34" s="5"/>
       <c r="G34" s="4"/>
       <c r="H34" s="54" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -9529,7 +9538,7 @@
       <c r="F35" s="5"/>
       <c r="G35" s="4"/>
       <c r="H35" s="54" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -9545,7 +9554,7 @@
       <c r="F36" s="5"/>
       <c r="G36" s="52"/>
       <c r="H36" s="54" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I36" s="52"/>
       <c r="J36" s="52"/>
@@ -9561,7 +9570,7 @@
       <c r="F37" s="5"/>
       <c r="G37" s="52"/>
       <c r="H37" s="54" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I37" s="52"/>
       <c r="J37" s="52"/>
@@ -9577,7 +9586,7 @@
       <c r="F38" s="5"/>
       <c r="G38" s="52"/>
       <c r="H38" s="54" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="I38" s="52"/>
       <c r="J38" s="52"/>
@@ -9593,7 +9602,7 @@
       <c r="F39" s="5"/>
       <c r="G39" s="52"/>
       <c r="H39" s="54" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="I39" s="52"/>
       <c r="J39" s="52"/>
@@ -9609,7 +9618,7 @@
       <c r="F40" s="5"/>
       <c r="G40" s="4"/>
       <c r="H40" s="54" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
@@ -9619,21 +9628,21 @@
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C41" s="7">
         <v>42163</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="5"/>
       <c r="G41" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="H41" s="65" t="s">
         <v>670</v>
-      </c>
-      <c r="H41" s="65" t="s">
-        <v>671</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
@@ -9649,7 +9658,7 @@
       <c r="F42" s="5"/>
       <c r="G42" s="52"/>
       <c r="H42" s="65" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I42" s="52"/>
       <c r="J42" s="52"/>
@@ -9665,7 +9674,7 @@
       <c r="F43" s="5"/>
       <c r="G43" s="52"/>
       <c r="H43" s="65" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I43" s="52"/>
       <c r="J43" s="52"/>
@@ -9681,7 +9690,7 @@
       <c r="F44" s="5"/>
       <c r="G44" s="52"/>
       <c r="H44" s="65" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I44" s="52"/>
       <c r="J44" s="52"/>
@@ -9697,7 +9706,7 @@
       <c r="F45" s="5"/>
       <c r="G45" s="52"/>
       <c r="H45" s="65" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I45" s="52"/>
       <c r="J45" s="52"/>
@@ -9713,7 +9722,7 @@
       <c r="F46" s="5"/>
       <c r="G46" s="52"/>
       <c r="H46" s="63" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="I46" s="52"/>
       <c r="J46" s="52"/>
@@ -9729,7 +9738,7 @@
       <c r="F47" s="5"/>
       <c r="G47" s="52"/>
       <c r="H47" s="52" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="I47" s="52"/>
       <c r="J47" s="52"/>
@@ -9739,21 +9748,21 @@
     <row r="48" spans="1:12" s="62" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
       <c r="B48" s="63" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C48" s="7">
         <v>42164</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="5"/>
       <c r="G48" s="63" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H48" s="65" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="I48" s="63"/>
       <c r="J48" s="63"/>
@@ -9763,21 +9772,21 @@
     <row r="49" spans="1:14" s="62" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
       <c r="B49" s="63" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C49" s="7">
         <v>42166</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="5"/>
       <c r="G49" s="63" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H49" s="65" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I49" s="63"/>
       <c r="J49" s="63"/>
@@ -9793,7 +9802,7 @@
       <c r="F50" s="5"/>
       <c r="G50" s="63"/>
       <c r="H50" s="65" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="I50" s="63"/>
       <c r="J50" s="63"/>
@@ -9809,7 +9818,7 @@
       <c r="F51" s="5"/>
       <c r="G51" s="63"/>
       <c r="H51" s="65" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I51" s="63"/>
       <c r="J51" s="63"/>
@@ -9825,7 +9834,7 @@
       <c r="F52" s="5"/>
       <c r="G52" s="63"/>
       <c r="H52" s="65" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="I52" s="63"/>
       <c r="J52" s="63"/>
@@ -9841,7 +9850,7 @@
       <c r="F53" s="5"/>
       <c r="G53" s="63"/>
       <c r="H53" s="65" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="I53" s="63"/>
       <c r="J53" s="63"/>
@@ -9851,21 +9860,21 @@
     <row r="54" spans="1:14" s="62" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
       <c r="B54" s="63" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C54" s="7">
         <v>42214</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="5"/>
       <c r="G54" s="63" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H54" s="65" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="I54" s="63"/>
       <c r="J54" s="63"/>
@@ -9881,7 +9890,7 @@
       <c r="F55" s="5"/>
       <c r="G55" s="63"/>
       <c r="H55" s="65" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="I55" s="63"/>
       <c r="J55" s="63"/>
@@ -9891,12 +9900,18 @@
     <row r="56" spans="1:14" s="62" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="B56" s="63"/>
-      <c r="C56" s="7"/>
+      <c r="C56" s="7">
+        <v>42256</v>
+      </c>
       <c r="D56" s="5"/>
       <c r="E56" s="9"/>
       <c r="F56" s="5"/>
-      <c r="G56" s="63"/>
-      <c r="H56" s="65"/>
+      <c r="G56" s="63" t="s">
+        <v>789</v>
+      </c>
+      <c r="H56" s="65" t="s">
+        <v>790</v>
+      </c>
       <c r="I56" s="63"/>
       <c r="J56" s="63"/>
       <c r="K56" s="8"/>
@@ -9958,53 +9973,53 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B60" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C60" s="61">
         <v>42161</v>
       </c>
       <c r="D60" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="H60" s="26" t="s">
         <v>626</v>
-      </c>
-      <c r="H60" s="26" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.15">
       <c r="H61" s="26" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.15">
       <c r="H62" s="26" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.15">
       <c r="H63" s="26" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.15">
       <c r="H64" s="26" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="L64" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="N64" s="1" t="s">
         <v>663</v>
-      </c>
-      <c r="N64" s="1" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.15">
       <c r="H65" s="26" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
@@ -10016,37 +10031,37 @@
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="54" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
       <c r="L66" s="10"/>
       <c r="N66" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.15">
       <c r="H67" s="26" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.15">
       <c r="H68" s="26" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.15">
       <c r="H69" s="51" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.15">
       <c r="H70" s="26" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.15">
@@ -10125,7 +10140,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="62" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -10133,12 +10148,12 @@
         <v>1</v>
       </c>
       <c r="C2" s="62" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C13" s="62" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -10146,7 +10161,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="62" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.15">
@@ -10154,7 +10169,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="62" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.15">
@@ -10162,7 +10177,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="62" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.15">
@@ -10170,12 +10185,12 @@
         <v>5</v>
       </c>
       <c r="C37" s="62" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C54" s="62" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.15">
@@ -10183,12 +10198,12 @@
         <v>6</v>
       </c>
       <c r="C56" s="62" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C73" s="62" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.15">
@@ -10196,7 +10211,7 @@
         <v>7</v>
       </c>
       <c r="C75" s="62" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.15">
@@ -10204,7 +10219,7 @@
         <v>8</v>
       </c>
       <c r="C77" s="62" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.15">
@@ -10212,22 +10227,22 @@
         <v>9</v>
       </c>
       <c r="C79" s="62" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C80" s="62" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C81" s="62" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C82" s="62" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
   </sheetData>
@@ -10239,10 +10254,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N355"/>
+  <dimension ref="A1:N354"/>
   <sheetViews>
-    <sheetView topLeftCell="C307" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F339" sqref="F339"/>
+    <sheetView topLeftCell="C178" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S195" sqref="S195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -10255,7 +10270,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B1" s="29" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>59</v>
@@ -10263,10 +10278,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="30" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>60</v>
@@ -10274,23 +10289,23 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="32" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="29" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" s="32" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C32" s="35"/>
       <c r="D32" s="33" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
@@ -10299,7 +10314,7 @@
       <c r="C33" s="35"/>
       <c r="D33" s="33"/>
       <c r="E33" s="33" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F33" s="33"/>
     </row>
@@ -10325,7 +10340,7 @@
     <row r="38" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C38" s="35"/>
       <c r="D38" s="33" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E38" s="33"/>
       <c r="F38" s="33"/>
@@ -10340,10 +10355,10 @@
       <c r="C39" s="35"/>
       <c r="D39" s="33"/>
       <c r="E39" s="33" t="s">
+        <v>556</v>
+      </c>
+      <c r="F39" s="33" t="s">
         <v>557</v>
-      </c>
-      <c r="F39" s="33" t="s">
-        <v>558</v>
       </c>
       <c r="G39" s="33"/>
       <c r="H39" s="33"/>
@@ -10356,10 +10371,10 @@
       <c r="C40" s="35"/>
       <c r="D40" s="33"/>
       <c r="E40" s="33" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F40" s="33" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G40" s="33"/>
       <c r="H40" s="33"/>
@@ -10372,10 +10387,10 @@
       <c r="C41" s="35"/>
       <c r="D41" s="33"/>
       <c r="E41" s="33" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F41" s="33" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G41" s="33"/>
       <c r="H41" s="33"/>
@@ -10414,13 +10429,13 @@
       <c r="C44" s="35"/>
       <c r="D44" s="33"/>
       <c r="E44" s="33" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
       <c r="H44" s="33"/>
       <c r="I44" s="33" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J44" s="33"/>
       <c r="K44" s="33"/>
@@ -10431,13 +10446,13 @@
       <c r="D45" s="33"/>
       <c r="E45" s="33"/>
       <c r="F45" s="33" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G45" s="33"/>
       <c r="H45" s="33"/>
       <c r="I45" s="33"/>
       <c r="J45" s="33" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K45" s="33"/>
       <c r="L45" s="33"/>
@@ -10446,13 +10461,13 @@
       <c r="C46" s="35"/>
       <c r="D46" s="33"/>
       <c r="E46" s="33" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F46" s="33"/>
       <c r="G46" s="33"/>
       <c r="H46" s="33"/>
       <c r="I46" s="33" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J46" s="33"/>
       <c r="K46" s="33"/>
@@ -10463,13 +10478,13 @@
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
       <c r="F47" s="33" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G47" s="33"/>
       <c r="H47" s="33"/>
       <c r="I47" s="33"/>
       <c r="J47" s="33" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K47" s="33"/>
       <c r="L47" s="33"/>
@@ -10478,13 +10493,13 @@
       <c r="C48" s="35"/>
       <c r="D48" s="33"/>
       <c r="E48" s="33" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F48" s="33"/>
       <c r="G48" s="33"/>
       <c r="H48" s="33"/>
       <c r="I48" s="33" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J48" s="33"/>
       <c r="K48" s="33"/>
@@ -10495,13 +10510,13 @@
       <c r="D49" s="33"/>
       <c r="E49" s="33"/>
       <c r="F49" s="33" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G49" s="33"/>
       <c r="H49" s="33"/>
       <c r="I49" s="33"/>
       <c r="J49" s="33" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K49" s="33"/>
       <c r="L49" s="33"/>
@@ -10510,14 +10525,14 @@
       <c r="C50" s="35"/>
       <c r="D50" s="33"/>
       <c r="E50" s="33" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F50" s="33"/>
       <c r="G50" s="33"/>
       <c r="H50" s="33"/>
       <c r="I50" s="33"/>
       <c r="J50" s="33" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K50" s="33"/>
       <c r="L50" s="33"/>
@@ -10527,7 +10542,7 @@
       <c r="D51" s="33"/>
       <c r="E51" s="33"/>
       <c r="F51" s="33" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G51" s="33"/>
       <c r="H51" s="33"/>
@@ -10540,7 +10555,7 @@
       <c r="C52" s="35"/>
       <c r="D52" s="33"/>
       <c r="E52" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
@@ -10555,7 +10570,7 @@
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="33" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G53" s="33"/>
       <c r="H53" s="33"/>
@@ -10594,13 +10609,13 @@
       <c r="C56" s="35"/>
       <c r="D56" s="33"/>
       <c r="E56" s="33" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F56" s="33"/>
       <c r="G56" s="33"/>
       <c r="H56" s="33"/>
       <c r="I56" s="33" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J56" s="33"/>
       <c r="K56" s="33"/>
@@ -10611,13 +10626,13 @@
       <c r="D57" s="33"/>
       <c r="E57" s="33"/>
       <c r="F57" s="33" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G57" s="33"/>
       <c r="H57" s="33"/>
       <c r="I57" s="33"/>
       <c r="J57" s="33" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K57" s="33"/>
       <c r="L57" s="33"/>
@@ -10626,13 +10641,13 @@
       <c r="C58" s="35"/>
       <c r="D58" s="33"/>
       <c r="E58" s="33" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F58" s="33"/>
       <c r="G58" s="33"/>
       <c r="H58" s="33"/>
       <c r="I58" s="33" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J58" s="33"/>
       <c r="K58" s="33"/>
@@ -10643,13 +10658,13 @@
       <c r="D59" s="33"/>
       <c r="E59" s="33"/>
       <c r="F59" s="33" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G59" s="33"/>
       <c r="H59" s="33"/>
       <c r="I59" s="33"/>
       <c r="J59" s="33" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K59" s="33"/>
       <c r="L59" s="33"/>
@@ -10658,13 +10673,13 @@
       <c r="C60" s="35"/>
       <c r="D60" s="33"/>
       <c r="E60" s="33" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F60" s="33"/>
       <c r="G60" s="33"/>
       <c r="H60" s="33"/>
       <c r="I60" s="33" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J60" s="33"/>
       <c r="K60" s="33"/>
@@ -10675,13 +10690,13 @@
       <c r="D61" s="33"/>
       <c r="E61" s="33"/>
       <c r="F61" s="33" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G61" s="33"/>
       <c r="H61" s="33"/>
       <c r="I61" s="33"/>
       <c r="J61" s="33" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K61" s="33"/>
       <c r="L61" s="33"/>
@@ -10690,13 +10705,13 @@
       <c r="C62" s="35"/>
       <c r="D62" s="33"/>
       <c r="E62" s="33" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F62" s="33"/>
       <c r="G62" s="33"/>
       <c r="H62" s="33"/>
       <c r="I62" s="33" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J62" s="33"/>
       <c r="K62" s="33"/>
@@ -10707,15 +10722,15 @@
       <c r="D63" s="33"/>
       <c r="E63" s="33"/>
       <c r="F63" s="33" t="s">
+        <v>556</v>
+      </c>
+      <c r="G63" s="33" t="s">
         <v>557</v>
-      </c>
-      <c r="G63" s="33" t="s">
-        <v>558</v>
       </c>
       <c r="H63" s="33"/>
       <c r="I63" s="33"/>
       <c r="J63" s="33" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K63" s="33"/>
       <c r="L63" s="33"/>
@@ -10725,15 +10740,15 @@
       <c r="D64" s="33"/>
       <c r="E64" s="33"/>
       <c r="F64" s="33" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G64" s="33" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H64" s="33"/>
       <c r="I64" s="33"/>
       <c r="J64" s="33" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K64" s="33"/>
       <c r="L64" s="33"/>
@@ -10742,14 +10757,14 @@
       <c r="C65" s="35"/>
       <c r="D65" s="33"/>
       <c r="E65" s="33" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F65" s="33"/>
       <c r="G65" s="33"/>
       <c r="H65" s="33"/>
       <c r="I65" s="33"/>
       <c r="J65" s="33" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K65" s="33"/>
       <c r="L65" s="33"/>
@@ -10759,7 +10774,7 @@
       <c r="D66" s="33"/>
       <c r="E66" s="33"/>
       <c r="F66" s="33" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G66" s="33"/>
       <c r="H66" s="33"/>
@@ -10773,7 +10788,7 @@
       <c r="D67" s="33"/>
       <c r="E67" s="33"/>
       <c r="F67" s="33" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G67" s="33"/>
       <c r="H67" s="33"/>
@@ -10787,7 +10802,7 @@
       <c r="D68" s="33"/>
       <c r="E68" s="33"/>
       <c r="F68" s="33" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G68" s="33"/>
       <c r="H68" s="33"/>
@@ -10811,7 +10826,7 @@
       <c r="C70" s="49"/>
       <c r="D70" s="53"/>
       <c r="E70" s="56" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F70" s="56"/>
       <c r="G70" s="56"/>
@@ -10826,7 +10841,7 @@
       <c r="D71" s="53"/>
       <c r="E71" s="56"/>
       <c r="F71" s="56" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G71" s="56"/>
       <c r="H71" s="56"/>
@@ -10840,7 +10855,7 @@
       <c r="D72" s="53"/>
       <c r="E72" s="56"/>
       <c r="F72" s="56" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="G72" s="56">
         <v>1</v>
@@ -10856,13 +10871,13 @@
       <c r="D73" s="53"/>
       <c r="E73" s="56"/>
       <c r="F73" s="56" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G73" s="56">
         <v>10</v>
       </c>
       <c r="H73" s="56" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I73" s="56"/>
       <c r="J73" s="56"/>
@@ -10874,7 +10889,7 @@
       <c r="D74" s="53"/>
       <c r="E74" s="56"/>
       <c r="F74" s="56" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G74" s="56"/>
       <c r="H74" s="56"/>
@@ -10902,7 +10917,7 @@
     </row>
     <row r="90" spans="1:11" ht="33" x14ac:dyDescent="0.15">
       <c r="A90" s="31" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E90" s="33" t="s">
         <v>32</v>
@@ -10916,7 +10931,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A91" s="37" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E91" s="33"/>
       <c r="F91" s="33" t="s">
@@ -10932,7 +10947,7 @@
       <c r="A92" s="37"/>
       <c r="E92" s="33"/>
       <c r="F92" s="33" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G92" s="33"/>
       <c r="H92" s="33"/>
@@ -10953,11 +10968,11 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A94" s="30" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E94" s="33"/>
       <c r="F94" s="33" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G94" s="33"/>
       <c r="H94" s="33"/>
@@ -10967,7 +10982,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A95" s="32" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E95" s="33"/>
       <c r="F95" s="33" t="s">
@@ -11002,30 +11017,30 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.15">
       <c r="F100" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.15">
       <c r="F101" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A102" s="30" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A103" s="32" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.15">
       <c r="F104" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G104" s="33"/>
       <c r="H104" s="33"/>
@@ -11037,11 +11052,11 @@
     </row>
     <row r="105" spans="1:13" ht="33" x14ac:dyDescent="0.15">
       <c r="A105" s="31" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F105" s="33"/>
       <c r="G105" s="33" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H105" s="33"/>
       <c r="I105" s="33"/>
@@ -11052,11 +11067,11 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A106" s="34" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F106" s="33"/>
       <c r="G106" s="33" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H106" s="33"/>
       <c r="I106" s="33"/>
@@ -11072,11 +11087,11 @@
       <c r="F107" s="33"/>
       <c r="G107" s="33"/>
       <c r="H107" s="33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I107" s="33"/>
       <c r="J107" s="33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K107" s="33"/>
       <c r="L107" s="33"/>
@@ -11089,11 +11104,11 @@
       <c r="F108" s="33"/>
       <c r="G108" s="33"/>
       <c r="H108" s="33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I108" s="33"/>
       <c r="J108" s="33" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K108" s="33"/>
       <c r="L108" s="33"/>
@@ -11106,11 +11121,11 @@
       <c r="F109" s="33"/>
       <c r="G109" s="33"/>
       <c r="H109" s="33" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I109" s="33"/>
       <c r="J109" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K109" s="33"/>
       <c r="L109" s="33"/>
@@ -11123,11 +11138,11 @@
       <c r="F110" s="33"/>
       <c r="G110" s="33"/>
       <c r="H110" s="33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I110" s="33"/>
       <c r="J110" s="33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K110" s="33"/>
       <c r="L110" s="33"/>
@@ -11139,7 +11154,7 @@
       <c r="E111" s="51"/>
       <c r="F111" s="33"/>
       <c r="G111" s="33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H111" s="33"/>
       <c r="I111" s="33"/>
@@ -11155,11 +11170,11 @@
       <c r="F112" s="33"/>
       <c r="G112" s="33"/>
       <c r="H112" s="33" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I112" s="33"/>
       <c r="J112" s="33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K112" s="33"/>
       <c r="L112" s="33"/>
@@ -11172,11 +11187,11 @@
       <c r="F113" s="33"/>
       <c r="G113" s="33"/>
       <c r="H113" s="33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I113" s="33"/>
       <c r="J113" s="33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K113" s="33"/>
       <c r="L113" s="33"/>
@@ -11188,7 +11203,7 @@
       <c r="E114" s="51"/>
       <c r="F114" s="33"/>
       <c r="G114" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H114" s="33"/>
       <c r="I114" s="33"/>
@@ -11204,11 +11219,11 @@
       <c r="F115" s="33"/>
       <c r="G115" s="33"/>
       <c r="H115" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I115" s="33"/>
       <c r="J115" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K115" s="33"/>
       <c r="L115" s="33"/>
@@ -11220,7 +11235,7 @@
       <c r="E116" s="51"/>
       <c r="F116" s="33"/>
       <c r="G116" s="33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H116" s="33"/>
       <c r="I116" s="33"/>
@@ -11236,11 +11251,11 @@
       <c r="F117" s="33"/>
       <c r="G117" s="33"/>
       <c r="H117" s="33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I117" s="33"/>
       <c r="J117" s="33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K117" s="33"/>
       <c r="L117" s="33"/>
@@ -11252,7 +11267,7 @@
       <c r="E118" s="51"/>
       <c r="F118" s="33"/>
       <c r="G118" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H118" s="33"/>
       <c r="I118" s="33"/>
@@ -11268,11 +11283,11 @@
       <c r="F119" s="33"/>
       <c r="G119" s="33"/>
       <c r="H119" s="33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I119" s="33"/>
       <c r="J119" s="33" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K119" s="33"/>
       <c r="L119" s="33"/>
@@ -11280,14 +11295,14 @@
     </row>
     <row r="120" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B120" s="29" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C120" s="49"/>
       <c r="D120" s="51"/>
       <c r="E120" s="51"/>
       <c r="F120" s="33"/>
       <c r="G120" s="33" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H120" s="33"/>
       <c r="I120" s="33"/>
@@ -11298,7 +11313,7 @@
     </row>
     <row r="121" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B121" s="32" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C121" s="49"/>
       <c r="D121" s="51"/>
@@ -11306,11 +11321,11 @@
       <c r="F121" s="33"/>
       <c r="G121" s="33"/>
       <c r="H121" s="33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I121" s="33"/>
       <c r="J121" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K121" s="33"/>
       <c r="L121" s="33"/>
@@ -11322,7 +11337,7 @@
       <c r="E122" s="51"/>
       <c r="F122" s="33"/>
       <c r="G122" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H122" s="33"/>
       <c r="I122" s="33"/>
@@ -11338,11 +11353,11 @@
       <c r="F123" s="33"/>
       <c r="G123" s="33"/>
       <c r="H123" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I123" s="33"/>
       <c r="J123" s="33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K123" s="33"/>
       <c r="L123" s="33"/>
@@ -11354,7 +11369,7 @@
       <c r="E124" s="51"/>
       <c r="F124" s="33"/>
       <c r="G124" s="33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H124" s="33"/>
       <c r="I124" s="33"/>
@@ -11371,11 +11386,11 @@
       <c r="F125" s="33"/>
       <c r="G125" s="33"/>
       <c r="H125" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I125" s="33"/>
       <c r="J125" s="33" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K125" s="33"/>
       <c r="L125" s="33"/>
@@ -11385,7 +11400,7 @@
     <row r="126" spans="2:14" x14ac:dyDescent="0.15">
       <c r="F126" s="33"/>
       <c r="G126" s="33" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H126" s="33"/>
       <c r="I126" s="33"/>
@@ -11399,11 +11414,11 @@
       <c r="F127" s="33"/>
       <c r="G127" s="33"/>
       <c r="H127" s="33" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I127" s="33"/>
       <c r="J127" s="33" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="K127" s="33"/>
       <c r="L127" s="33"/>
@@ -11413,7 +11428,7 @@
     <row r="128" spans="2:14" x14ac:dyDescent="0.15">
       <c r="F128" s="33"/>
       <c r="G128" s="33" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H128" s="33"/>
       <c r="I128" s="33"/>
@@ -11427,11 +11442,11 @@
       <c r="F129" s="33"/>
       <c r="G129" s="33"/>
       <c r="H129" s="33" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I129" s="33"/>
       <c r="J129" s="33" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K129" s="33"/>
       <c r="L129" s="33"/>
@@ -11440,11 +11455,11 @@
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B130" s="30" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F130" s="33"/>
       <c r="G130" s="33" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H130" s="33"/>
       <c r="I130" s="33"/>
@@ -11456,16 +11471,16 @@
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B131" s="32" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F131" s="33"/>
       <c r="G131" s="33"/>
       <c r="H131" s="33" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I131" s="33"/>
       <c r="J131" s="33" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K131" s="33"/>
       <c r="L131" s="33"/>
@@ -11532,7 +11547,7 @@
     <row r="137" spans="1:14" x14ac:dyDescent="0.15">
       <c r="E137" s="33"/>
       <c r="F137" s="33" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G137" s="33"/>
       <c r="H137" s="33"/>
@@ -11544,14 +11559,14 @@
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A138" s="30" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B138" s="29" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E138" s="33"/>
       <c r="F138" s="33" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G138" s="33"/>
       <c r="H138" s="33"/>
@@ -11563,14 +11578,14 @@
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A139" s="32" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B139" s="32" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E139" s="33"/>
       <c r="F139" s="33" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G139" s="33"/>
       <c r="H139" s="33"/>
@@ -11585,7 +11600,7 @@
       <c r="B140" s="32"/>
       <c r="E140" s="33"/>
       <c r="F140" s="33" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G140" s="33"/>
       <c r="H140" s="33"/>
@@ -11615,12 +11630,12 @@
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B146" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B147" s="32" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.15">
@@ -11635,7 +11650,7 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F161" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.15">
@@ -11656,7 +11671,7 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F170" s="33" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G170" s="33"/>
       <c r="H170" s="33"/>
@@ -11678,7 +11693,7 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A172" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C172" s="49"/>
       <c r="F172" s="33"/>
@@ -11693,10 +11708,10 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A173" s="32" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B173" s="29" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C173" s="49"/>
       <c r="F173" s="33" t="s">
@@ -11711,10 +11726,10 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A174" s="30" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B174" s="29" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C174" s="49"/>
       <c r="F174" s="33"/>
@@ -11729,7 +11744,7 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A175" s="32" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C175" s="49"/>
       <c r="F175" s="33"/>
@@ -11744,11 +11759,11 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A176" s="30" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F176" s="33"/>
       <c r="G176" s="33" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H176" s="33"/>
       <c r="I176" s="33"/>
@@ -11758,12 +11773,12 @@
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A177" s="32" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F177" s="33"/>
       <c r="G177" s="33"/>
       <c r="H177" s="33" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="I177" s="33"/>
       <c r="J177" s="33"/>
@@ -11826,10 +11841,10 @@
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A183" s="30" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F183" s="33" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G183" s="33"/>
       <c r="H183" s="33"/>
@@ -11840,10 +11855,10 @@
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A184" s="32" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B184" s="30" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F184" s="33"/>
       <c r="G184" s="33" t="s">
@@ -11855,12 +11870,12 @@
       <c r="K184" s="33"/>
       <c r="L184" s="33"/>
       <c r="M184" s="26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B185" s="32" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F185" s="33" t="s">
         <v>54</v>
@@ -11895,13 +11910,13 @@
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A188" s="30" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B188" s="32" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F188" s="33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G188" s="33"/>
       <c r="H188" s="33"/>
@@ -11912,14 +11927,14 @@
     </row>
     <row r="189" spans="1:13" ht="33" x14ac:dyDescent="0.15">
       <c r="A189" s="31" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B189" s="32" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E189" s="33"/>
       <c r="F189" s="33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G189" s="33"/>
       <c r="H189" s="33"/>
@@ -11934,7 +11949,7 @@
       <c r="C190" s="49"/>
       <c r="E190" s="56"/>
       <c r="F190" s="56" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G190" s="56"/>
       <c r="H190" s="56"/>
@@ -11970,11 +11985,11 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A193" s="30" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E193" s="33"/>
       <c r="F193" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G193" s="33"/>
       <c r="H193" s="33"/>
@@ -11984,7 +11999,7 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A194" s="32" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E194" s="33"/>
       <c r="F194" s="33" t="s">
@@ -11998,31 +12013,32 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.15">
       <c r="E195" s="33"/>
-      <c r="F195" s="33" t="s">
-        <v>113</v>
-      </c>
+      <c r="F195" s="33"/>
       <c r="G195" s="33"/>
       <c r="H195" s="33"/>
       <c r="I195" s="33"/>
       <c r="J195" s="33"/>
       <c r="K195" s="33"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="E196" s="33"/>
-      <c r="F196" s="33"/>
-      <c r="G196" s="33"/>
-      <c r="H196" s="33"/>
-      <c r="I196" s="33"/>
-      <c r="J196" s="33"/>
-      <c r="K196" s="33"/>
+    <row r="196" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C196" s="49"/>
+      <c r="E196" s="56"/>
+      <c r="F196" s="56" t="s">
+        <v>656</v>
+      </c>
+      <c r="G196" s="56"/>
+      <c r="H196" s="56"/>
+      <c r="I196" s="56"/>
+      <c r="J196" s="56"/>
+      <c r="K196" s="56"/>
     </row>
     <row r="197" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C197" s="49"/>
       <c r="E197" s="56"/>
-      <c r="F197" s="56" t="s">
-        <v>657</v>
-      </c>
-      <c r="G197" s="56"/>
+      <c r="F197" s="56"/>
+      <c r="G197" s="56" t="s">
+        <v>655</v>
+      </c>
       <c r="H197" s="56"/>
       <c r="I197" s="56"/>
       <c r="J197" s="56"/>
@@ -12033,7 +12049,7 @@
       <c r="E198" s="56"/>
       <c r="F198" s="56"/>
       <c r="G198" s="56" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H198" s="56"/>
       <c r="I198" s="56"/>
@@ -12045,7 +12061,7 @@
       <c r="E199" s="56"/>
       <c r="F199" s="56"/>
       <c r="G199" s="56" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="H199" s="56"/>
       <c r="I199" s="56"/>
@@ -12056,48 +12072,49 @@
       <c r="C200" s="49"/>
       <c r="E200" s="56"/>
       <c r="F200" s="56"/>
-      <c r="G200" s="56" t="s">
-        <v>667</v>
-      </c>
+      <c r="G200" s="56"/>
       <c r="H200" s="56"/>
       <c r="I200" s="56"/>
       <c r="J200" s="56"/>
       <c r="K200" s="56"/>
     </row>
-    <row r="201" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C201" s="49"/>
-      <c r="E201" s="56"/>
-      <c r="F201" s="56"/>
-      <c r="G201" s="56"/>
-      <c r="H201" s="56"/>
-      <c r="I201" s="56"/>
-      <c r="J201" s="56"/>
-      <c r="K201" s="56"/>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C202" s="11" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C203" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="D204" s="1" t="s">
+      <c r="D203" s="1" t="s">
         <v>62</v>
       </c>
     </row>
+    <row r="214" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B214" s="29" t="s">
+        <v>387</v>
+      </c>
+    </row>
     <row r="215" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B215" s="29" t="s">
-        <v>388</v>
-      </c>
+      <c r="B215" s="32" t="s">
+        <v>486</v>
+      </c>
+      <c r="D215" s="33"/>
+      <c r="E215" s="33" t="s">
+        <v>501</v>
+      </c>
+      <c r="F215" s="33"/>
+      <c r="G215" s="33"/>
+      <c r="H215" s="33"/>
+      <c r="I215" s="33"/>
+      <c r="J215" s="33"/>
+      <c r="K215" s="33"/>
+      <c r="L215" s="33"/>
     </row>
     <row r="216" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B216" s="32" t="s">
-        <v>487</v>
-      </c>
       <c r="D216" s="33"/>
-      <c r="E216" s="33" t="s">
+      <c r="E216" s="33"/>
+      <c r="F216" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="F216" s="33"/>
       <c r="G216" s="33"/>
       <c r="H216" s="33"/>
       <c r="I216" s="33"/>
@@ -12107,10 +12124,10 @@
     </row>
     <row r="217" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D217" s="33"/>
-      <c r="E217" s="33"/>
-      <c r="F217" s="33" t="s">
+      <c r="E217" s="33" t="s">
         <v>503</v>
       </c>
+      <c r="F217" s="33"/>
       <c r="G217" s="33"/>
       <c r="H217" s="33"/>
       <c r="I217" s="33"/>
@@ -12120,10 +12137,10 @@
     </row>
     <row r="218" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D218" s="33"/>
-      <c r="E218" s="33" t="s">
+      <c r="E218" s="33"/>
+      <c r="F218" s="33" t="s">
         <v>504</v>
       </c>
-      <c r="F218" s="33"/>
       <c r="G218" s="33"/>
       <c r="H218" s="33"/>
       <c r="I218" s="33"/>
@@ -12133,10 +12150,10 @@
     </row>
     <row r="219" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D219" s="33"/>
-      <c r="E219" s="33"/>
-      <c r="F219" s="33" t="s">
-        <v>505</v>
-      </c>
+      <c r="E219" s="33" t="s">
+        <v>452</v>
+      </c>
+      <c r="F219" s="33"/>
       <c r="G219" s="33"/>
       <c r="H219" s="33"/>
       <c r="I219" s="33"/>
@@ -12146,11 +12163,13 @@
     </row>
     <row r="220" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D220" s="33"/>
-      <c r="E220" s="33" t="s">
-        <v>453</v>
-      </c>
-      <c r="F220" s="33"/>
-      <c r="G220" s="33"/>
+      <c r="E220" s="33"/>
+      <c r="F220" s="33" t="s">
+        <v>556</v>
+      </c>
+      <c r="G220" s="33" t="s">
+        <v>557</v>
+      </c>
       <c r="H220" s="33"/>
       <c r="I220" s="33"/>
       <c r="J220" s="33"/>
@@ -12161,7 +12180,7 @@
       <c r="D221" s="33"/>
       <c r="E221" s="33"/>
       <c r="F221" s="33" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="G221" s="33" t="s">
         <v>558</v>
@@ -12175,12 +12194,8 @@
     <row r="222" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D222" s="33"/>
       <c r="E222" s="33"/>
-      <c r="F222" s="33" t="s">
-        <v>561</v>
-      </c>
-      <c r="G222" s="33" t="s">
-        <v>559</v>
-      </c>
+      <c r="F222" s="33"/>
+      <c r="G222" s="33"/>
       <c r="H222" s="33"/>
       <c r="I222" s="33"/>
       <c r="J222" s="33"/>
@@ -12189,9 +12204,11 @@
     </row>
     <row r="223" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D223" s="33"/>
-      <c r="E223" s="33"/>
-      <c r="F223" s="33"/>
-      <c r="G223" s="33"/>
+      <c r="E223" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="F223" s="56"/>
+      <c r="G223" s="56"/>
       <c r="H223" s="33"/>
       <c r="I223" s="33"/>
       <c r="J223" s="33"/>
@@ -12200,10 +12217,10 @@
     </row>
     <row r="224" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D224" s="33"/>
-      <c r="E224" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="F224" s="56"/>
+      <c r="E224" s="33"/>
+      <c r="F224" s="56" t="s">
+        <v>64</v>
+      </c>
       <c r="G224" s="56"/>
       <c r="H224" s="33"/>
       <c r="I224" s="33"/>
@@ -12215,7 +12232,7 @@
       <c r="D225" s="33"/>
       <c r="E225" s="33"/>
       <c r="F225" s="56" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G225" s="56"/>
       <c r="H225" s="33"/>
@@ -12227,49 +12244,49 @@
     <row r="226" spans="2:13" x14ac:dyDescent="0.15">
       <c r="D226" s="33"/>
       <c r="E226" s="33"/>
-      <c r="F226" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="G226" s="56"/>
+      <c r="F226" s="56"/>
+      <c r="G226" s="56" t="s">
+        <v>777</v>
+      </c>
       <c r="H226" s="33"/>
       <c r="I226" s="33"/>
       <c r="J226" s="33"/>
       <c r="K226" s="33"/>
       <c r="L226" s="33"/>
     </row>
-    <row r="227" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D227" s="33"/>
-      <c r="E227" s="33"/>
+    <row r="227" spans="2:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C227" s="49"/>
+      <c r="D227" s="56"/>
+      <c r="E227" s="56"/>
       <c r="F227" s="56"/>
       <c r="G227" s="56" t="s">
         <v>778</v>
       </c>
-      <c r="H227" s="33"/>
-      <c r="I227" s="33"/>
-      <c r="J227" s="33"/>
-      <c r="K227" s="33"/>
-      <c r="L227" s="33"/>
-    </row>
-    <row r="228" spans="2:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C228" s="49"/>
-      <c r="D228" s="56"/>
-      <c r="E228" s="56"/>
+      <c r="H227" s="56"/>
+      <c r="I227" s="56"/>
+      <c r="J227" s="56"/>
+      <c r="K227" s="56"/>
+      <c r="L227" s="56"/>
+    </row>
+    <row r="228" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="D228" s="33"/>
+      <c r="E228" s="33" t="s">
+        <v>66</v>
+      </c>
       <c r="F228" s="56"/>
-      <c r="G228" s="56" t="s">
-        <v>779</v>
-      </c>
-      <c r="H228" s="56"/>
-      <c r="I228" s="56"/>
-      <c r="J228" s="56"/>
-      <c r="K228" s="56"/>
-      <c r="L228" s="56"/>
+      <c r="G228" s="56"/>
+      <c r="H228" s="33"/>
+      <c r="I228" s="33"/>
+      <c r="J228" s="33"/>
+      <c r="K228" s="33"/>
+      <c r="L228" s="33"/>
     </row>
     <row r="229" spans="2:13" x14ac:dyDescent="0.15">
       <c r="D229" s="33"/>
-      <c r="E229" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="F229" s="56"/>
+      <c r="E229" s="33"/>
+      <c r="F229" s="56" t="s">
+        <v>67</v>
+      </c>
       <c r="G229" s="56"/>
       <c r="H229" s="33"/>
       <c r="I229" s="33"/>
@@ -12280,10 +12297,10 @@
     <row r="230" spans="2:13" x14ac:dyDescent="0.15">
       <c r="D230" s="33"/>
       <c r="E230" s="33"/>
-      <c r="F230" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="G230" s="56"/>
+      <c r="F230" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G230" s="33"/>
       <c r="H230" s="33"/>
       <c r="I230" s="33"/>
       <c r="J230" s="33"/>
@@ -12294,7 +12311,7 @@
       <c r="D231" s="33"/>
       <c r="E231" s="33"/>
       <c r="F231" s="33" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="G231" s="33"/>
       <c r="H231" s="33"/>
@@ -12307,7 +12324,7 @@
       <c r="D232" s="33"/>
       <c r="E232" s="33"/>
       <c r="F232" s="33" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="G232" s="33"/>
       <c r="H232" s="33"/>
@@ -12320,7 +12337,7 @@
       <c r="D233" s="33"/>
       <c r="E233" s="33"/>
       <c r="F233" s="33" t="s">
-        <v>69</v>
+        <v>567</v>
       </c>
       <c r="G233" s="33"/>
       <c r="H233" s="33"/>
@@ -12331,10 +12348,10 @@
     </row>
     <row r="234" spans="2:13" x14ac:dyDescent="0.15">
       <c r="D234" s="33"/>
-      <c r="E234" s="33"/>
-      <c r="F234" s="33" t="s">
-        <v>568</v>
-      </c>
+      <c r="E234" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="F234" s="33"/>
       <c r="G234" s="33"/>
       <c r="H234" s="33"/>
       <c r="I234" s="33"/>
@@ -12343,17 +12360,20 @@
       <c r="L234" s="33"/>
     </row>
     <row r="235" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B235" s="33"/>
+      <c r="C235" s="35"/>
       <c r="D235" s="33"/>
-      <c r="E235" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="F235" s="33"/>
+      <c r="E235" s="33"/>
+      <c r="F235" s="33" t="s">
+        <v>71</v>
+      </c>
       <c r="G235" s="33"/>
       <c r="H235" s="33"/>
       <c r="I235" s="33"/>
       <c r="J235" s="33"/>
       <c r="K235" s="33"/>
       <c r="L235" s="33"/>
+      <c r="M235" s="33"/>
     </row>
     <row r="236" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B236" s="33"/>
@@ -12361,7 +12381,7 @@
       <c r="D236" s="33"/>
       <c r="E236" s="33"/>
       <c r="F236" s="33" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G236" s="33"/>
       <c r="H236" s="33"/>
@@ -12375,10 +12395,10 @@
       <c r="B237" s="33"/>
       <c r="C237" s="35"/>
       <c r="D237" s="33"/>
-      <c r="E237" s="33"/>
-      <c r="F237" s="33" t="s">
-        <v>72</v>
-      </c>
+      <c r="E237" s="33" t="s">
+        <v>570</v>
+      </c>
+      <c r="F237" s="33"/>
       <c r="G237" s="33"/>
       <c r="H237" s="33"/>
       <c r="I237" s="33"/>
@@ -12391,14 +12411,16 @@
       <c r="B238" s="33"/>
       <c r="C238" s="35"/>
       <c r="D238" s="33"/>
-      <c r="E238" s="33" t="s">
-        <v>571</v>
-      </c>
-      <c r="F238" s="33"/>
+      <c r="E238" s="33"/>
+      <c r="F238" s="33" t="s">
+        <v>439</v>
+      </c>
       <c r="G238" s="33"/>
       <c r="H238" s="33"/>
       <c r="I238" s="33"/>
-      <c r="J238" s="33"/>
+      <c r="J238" s="33" t="s">
+        <v>445</v>
+      </c>
       <c r="K238" s="33"/>
       <c r="L238" s="33"/>
       <c r="M238" s="33"/>
@@ -12408,16 +12430,16 @@
       <c r="C239" s="35"/>
       <c r="D239" s="33"/>
       <c r="E239" s="33"/>
-      <c r="F239" s="33" t="s">
+      <c r="F239" s="33"/>
+      <c r="G239" s="33" t="s">
         <v>440</v>
       </c>
-      <c r="G239" s="33"/>
       <c r="H239" s="33"/>
       <c r="I239" s="33"/>
-      <c r="J239" s="33" t="s">
-        <v>446</v>
-      </c>
-      <c r="K239" s="33"/>
+      <c r="J239" s="33"/>
+      <c r="K239" s="33" t="s">
+        <v>507</v>
+      </c>
       <c r="L239" s="33"/>
       <c r="M239" s="33"/>
     </row>
@@ -12426,16 +12448,16 @@
       <c r="C240" s="35"/>
       <c r="D240" s="33"/>
       <c r="E240" s="33"/>
-      <c r="F240" s="33"/>
-      <c r="G240" s="33" t="s">
+      <c r="F240" s="33" t="s">
         <v>441</v>
       </c>
+      <c r="G240" s="33"/>
       <c r="H240" s="33"/>
       <c r="I240" s="33"/>
-      <c r="J240" s="33"/>
-      <c r="K240" s="33" t="s">
-        <v>508</v>
-      </c>
+      <c r="J240" s="33" t="s">
+        <v>447</v>
+      </c>
+      <c r="K240" s="33"/>
       <c r="L240" s="33"/>
       <c r="M240" s="33"/>
     </row>
@@ -12444,16 +12466,16 @@
       <c r="C241" s="35"/>
       <c r="D241" s="33"/>
       <c r="E241" s="33"/>
-      <c r="F241" s="33" t="s">
-        <v>442</v>
-      </c>
-      <c r="G241" s="33"/>
+      <c r="F241" s="33"/>
+      <c r="G241" s="33" t="s">
+        <v>506</v>
+      </c>
       <c r="H241" s="33"/>
       <c r="I241" s="33"/>
-      <c r="J241" s="33" t="s">
+      <c r="J241" s="33"/>
+      <c r="K241" s="33" t="s">
         <v>448</v>
       </c>
-      <c r="K241" s="33"/>
       <c r="L241" s="33"/>
       <c r="M241" s="33"/>
     </row>
@@ -12462,16 +12484,16 @@
       <c r="C242" s="35"/>
       <c r="D242" s="33"/>
       <c r="E242" s="33"/>
-      <c r="F242" s="33"/>
-      <c r="G242" s="33" t="s">
-        <v>507</v>
-      </c>
+      <c r="F242" s="33" t="s">
+        <v>443</v>
+      </c>
+      <c r="G242" s="33"/>
       <c r="H242" s="33"/>
       <c r="I242" s="33"/>
-      <c r="J242" s="33"/>
-      <c r="K242" s="33" t="s">
+      <c r="J242" s="33" t="s">
         <v>449</v>
       </c>
+      <c r="K242" s="33"/>
       <c r="L242" s="33"/>
       <c r="M242" s="33"/>
     </row>
@@ -12480,16 +12502,16 @@
       <c r="C243" s="35"/>
       <c r="D243" s="33"/>
       <c r="E243" s="33"/>
-      <c r="F243" s="33" t="s">
+      <c r="F243" s="33"/>
+      <c r="G243" s="33" t="s">
         <v>444</v>
       </c>
-      <c r="G243" s="33"/>
       <c r="H243" s="33"/>
       <c r="I243" s="33"/>
-      <c r="J243" s="33" t="s">
+      <c r="J243" s="33"/>
+      <c r="K243" s="33" t="s">
         <v>450</v>
       </c>
-      <c r="K243" s="33"/>
       <c r="L243" s="33"/>
       <c r="M243" s="33"/>
     </row>
@@ -12498,10 +12520,10 @@
       <c r="C244" s="35"/>
       <c r="D244" s="33"/>
       <c r="E244" s="33"/>
-      <c r="F244" s="33"/>
-      <c r="G244" s="33" t="s">
-        <v>445</v>
-      </c>
+      <c r="F244" s="33" t="s">
+        <v>452</v>
+      </c>
+      <c r="G244" s="33"/>
       <c r="H244" s="33"/>
       <c r="I244" s="33"/>
       <c r="J244" s="33"/>
@@ -12516,16 +12538,14 @@
       <c r="C245" s="35"/>
       <c r="D245" s="33"/>
       <c r="E245" s="33"/>
-      <c r="F245" s="33" t="s">
-        <v>453</v>
-      </c>
-      <c r="G245" s="33"/>
+      <c r="F245" s="33"/>
+      <c r="G245" s="33" t="s">
+        <v>446</v>
+      </c>
       <c r="H245" s="33"/>
       <c r="I245" s="33"/>
       <c r="J245" s="33"/>
-      <c r="K245" s="33" t="s">
-        <v>452</v>
-      </c>
+      <c r="K245" s="33"/>
       <c r="L245" s="33"/>
       <c r="M245" s="33"/>
     </row>
@@ -12534,10 +12554,10 @@
       <c r="C246" s="35"/>
       <c r="D246" s="33"/>
       <c r="E246" s="33"/>
-      <c r="F246" s="33"/>
-      <c r="G246" s="33" t="s">
-        <v>447</v>
-      </c>
+      <c r="F246" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="G246" s="33"/>
       <c r="H246" s="33"/>
       <c r="I246" s="33"/>
       <c r="J246" s="33"/>
@@ -12550,10 +12570,10 @@
       <c r="C247" s="35"/>
       <c r="D247" s="33"/>
       <c r="E247" s="33"/>
-      <c r="F247" s="33" t="s">
-        <v>454</v>
-      </c>
-      <c r="G247" s="33"/>
+      <c r="F247" s="33"/>
+      <c r="G247" s="33" t="s">
+        <v>505</v>
+      </c>
       <c r="H247" s="33"/>
       <c r="I247" s="33"/>
       <c r="J247" s="33"/>
@@ -12567,9 +12587,7 @@
       <c r="D248" s="33"/>
       <c r="E248" s="33"/>
       <c r="F248" s="33"/>
-      <c r="G248" s="33" t="s">
-        <v>506</v>
-      </c>
+      <c r="G248" s="33"/>
       <c r="H248" s="33"/>
       <c r="I248" s="33"/>
       <c r="J248" s="33"/>
@@ -12579,7 +12597,9 @@
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B249" s="33"/>
-      <c r="C249" s="35"/>
+      <c r="C249" s="35" t="s">
+        <v>263</v>
+      </c>
       <c r="D249" s="33"/>
       <c r="E249" s="33"/>
       <c r="F249" s="33"/>
@@ -12592,11 +12612,14 @@
       <c r="M249" s="33"/>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A250" s="30" t="s">
+        <v>422</v>
+      </c>
       <c r="B250" s="33"/>
-      <c r="C250" s="35" t="s">
-        <v>264</v>
-      </c>
-      <c r="D250" s="33"/>
+      <c r="C250" s="35"/>
+      <c r="D250" s="56" t="s">
+        <v>508</v>
+      </c>
       <c r="E250" s="33"/>
       <c r="F250" s="33"/>
       <c r="G250" s="33"/>
@@ -12607,121 +12630,112 @@
       <c r="L250" s="33"/>
       <c r="M250" s="33"/>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A251" s="30" t="s">
+    <row r="251" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A251" s="55"/>
+      <c r="B251" s="56"/>
+      <c r="C251" s="57"/>
+      <c r="D251" s="56" t="s">
+        <v>598</v>
+      </c>
+      <c r="E251" s="56"/>
+      <c r="F251" s="56"/>
+      <c r="G251" s="56"/>
+      <c r="H251" s="56"/>
+      <c r="I251" s="56"/>
+      <c r="J251" s="56"/>
+      <c r="K251" s="56"/>
+      <c r="L251" s="56"/>
+      <c r="M251" s="56"/>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A252" s="32" t="s">
+        <v>509</v>
+      </c>
+      <c r="B252" s="33"/>
+      <c r="C252" s="35"/>
+      <c r="D252" s="56" t="s">
+        <v>264</v>
+      </c>
+      <c r="E252" s="33"/>
+      <c r="F252" s="33"/>
+      <c r="G252" s="33"/>
+      <c r="H252" s="33"/>
+      <c r="I252" s="33"/>
+      <c r="J252" s="33"/>
+      <c r="K252" s="33"/>
+      <c r="L252" s="33"/>
+      <c r="M252" s="33"/>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D253" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="E254" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A258" s="30" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A259" s="32" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E266" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A274" s="30" t="s">
         <v>423</v>
       </c>
-      <c r="B251" s="33"/>
-      <c r="C251" s="35"/>
-      <c r="D251" s="56" t="s">
-        <v>509</v>
-      </c>
-      <c r="E251" s="33"/>
-      <c r="F251" s="33"/>
-      <c r="G251" s="33"/>
-      <c r="H251" s="33"/>
-      <c r="I251" s="33"/>
-      <c r="J251" s="33"/>
-      <c r="K251" s="33"/>
-      <c r="L251" s="33"/>
-      <c r="M251" s="33"/>
-    </row>
-    <row r="252" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A252" s="55"/>
-      <c r="B252" s="56"/>
-      <c r="C252" s="57"/>
-      <c r="D252" s="56" t="s">
-        <v>599</v>
-      </c>
-      <c r="E252" s="56"/>
-      <c r="F252" s="56"/>
-      <c r="G252" s="56"/>
-      <c r="H252" s="56"/>
-      <c r="I252" s="56"/>
-      <c r="J252" s="56"/>
-      <c r="K252" s="56"/>
-      <c r="L252" s="56"/>
-      <c r="M252" s="56"/>
-    </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A253" s="32" t="s">
-        <v>510</v>
-      </c>
-      <c r="B253" s="33"/>
-      <c r="C253" s="35"/>
-      <c r="D253" s="56" t="s">
-        <v>265</v>
-      </c>
-      <c r="E253" s="33"/>
-      <c r="F253" s="33"/>
-      <c r="G253" s="33"/>
-      <c r="H253" s="33"/>
-      <c r="I253" s="33"/>
-      <c r="J253" s="33"/>
-      <c r="K253" s="33"/>
-      <c r="L253" s="33"/>
-      <c r="M253" s="33"/>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="D254" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="E255" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A259" s="30" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A260" s="32" t="s">
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A275" s="32" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E267" s="1" t="s">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D278" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A275" s="30" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A276" s="32" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="D279" s="1" t="s">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B280" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="E280" s="1" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B281" s="29" t="s">
-        <v>389</v>
-      </c>
-      <c r="E281" s="1" t="s">
+      <c r="B281" s="32" t="s">
+        <v>486</v>
+      </c>
+      <c r="F281" s="1" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B282" s="32" t="s">
-        <v>487</v>
-      </c>
-      <c r="F282" s="1" t="s">
+      <c r="E282" s="33"/>
+      <c r="F282" s="33" t="s">
         <v>271</v>
       </c>
+      <c r="G282" s="33"/>
+      <c r="H282" s="33"/>
+      <c r="I282" s="33"/>
+      <c r="J282" s="33"/>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E283" s="33"/>
       <c r="F283" s="33" t="s">
-        <v>272</v>
+        <v>512</v>
       </c>
       <c r="G283" s="33"/>
       <c r="H283" s="33"/>
@@ -12730,10 +12744,10 @@
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E284" s="33"/>
-      <c r="F284" s="33" t="s">
+      <c r="F284" s="33"/>
+      <c r="G284" s="33" t="s">
         <v>513</v>
       </c>
-      <c r="G284" s="33"/>
       <c r="H284" s="33"/>
       <c r="I284" s="33"/>
       <c r="J284" s="33"/>
@@ -12751,15 +12765,15 @@
     <row r="286" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E286" s="33"/>
       <c r="F286" s="33"/>
-      <c r="G286" s="33" t="s">
-        <v>515</v>
-      </c>
+      <c r="G286" s="33"/>
       <c r="H286" s="33"/>
       <c r="I286" s="33"/>
       <c r="J286" s="33"/>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="E287" s="33"/>
+      <c r="E287" s="33" t="s">
+        <v>272</v>
+      </c>
       <c r="F287" s="33"/>
       <c r="G287" s="33"/>
       <c r="H287" s="33"/>
@@ -12767,37 +12781,32 @@
       <c r="J287" s="33"/>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="E288" s="33" t="s">
+      <c r="E288" s="33"/>
+      <c r="F288" s="33" t="s">
         <v>273</v>
       </c>
-      <c r="F288" s="33"/>
       <c r="G288" s="33"/>
       <c r="H288" s="33"/>
       <c r="I288" s="33"/>
       <c r="J288" s="33"/>
     </row>
     <row r="289" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="E289" s="33"/>
-      <c r="F289" s="33" t="s">
+      <c r="F289" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="G289" s="33"/>
-      <c r="H289" s="33"/>
-      <c r="I289" s="33"/>
-      <c r="J289" s="33"/>
     </row>
     <row r="290" spans="2:13" x14ac:dyDescent="0.15">
       <c r="F290" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="291" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="F291" s="1" t="s">
+    <row r="292" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E292" s="1" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="293" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="E293" s="1" t="s">
+      <c r="F293" s="1" t="s">
         <v>277</v>
       </c>
     </row>
@@ -12806,43 +12815,50 @@
         <v>278</v>
       </c>
     </row>
-    <row r="295" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="F295" s="1" t="s">
+    <row r="296" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B296" s="29" t="s">
+        <v>389</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="297" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B297" s="32" t="s">
+        <v>486</v>
+      </c>
+      <c r="F297" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="297" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B297" s="29" t="s">
-        <v>390</v>
-      </c>
-      <c r="E297" s="1" t="s">
+    <row r="298" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="F298" s="1" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="298" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B298" s="32" t="s">
-        <v>487</v>
-      </c>
-      <c r="F298" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="299" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="F299" s="1" t="s">
+    <row r="300" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="F300" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="301" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E301" s="56"/>
+      <c r="F301" s="56"/>
+      <c r="G301" s="56" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="301" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="F301" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="302" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="H301" s="56"/>
+      <c r="I301" s="56"/>
+      <c r="J301" s="56"/>
+      <c r="K301" s="56"/>
+      <c r="L301" s="56"/>
+      <c r="M301" s="56"/>
+    </row>
+    <row r="302" spans="2:13" s="51" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C302" s="49"/>
       <c r="E302" s="56"/>
       <c r="F302" s="56"/>
-      <c r="G302" s="56" t="s">
-        <v>518</v>
-      </c>
+      <c r="G302" s="56"/>
       <c r="H302" s="56"/>
       <c r="I302" s="56"/>
       <c r="J302" s="56"/>
@@ -12852,7 +12868,9 @@
     </row>
     <row r="303" spans="2:13" s="51" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C303" s="49"/>
-      <c r="E303" s="56"/>
+      <c r="E303" s="56" t="s">
+        <v>610</v>
+      </c>
       <c r="F303" s="56"/>
       <c r="G303" s="56"/>
       <c r="H303" s="56"/>
@@ -12864,10 +12882,10 @@
     </row>
     <row r="304" spans="2:13" s="51" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C304" s="49"/>
-      <c r="E304" s="56" t="s">
+      <c r="E304" s="56"/>
+      <c r="F304" s="56" t="s">
         <v>611</v>
       </c>
-      <c r="F304" s="56"/>
       <c r="G304" s="56"/>
       <c r="H304" s="56"/>
       <c r="I304" s="56"/>
@@ -12885,7 +12903,9 @@
       <c r="G305" s="56"/>
       <c r="H305" s="56"/>
       <c r="I305" s="56"/>
-      <c r="J305" s="56"/>
+      <c r="J305" s="56" t="s">
+        <v>613</v>
+      </c>
       <c r="K305" s="56"/>
       <c r="L305" s="56"/>
       <c r="M305" s="56"/>
@@ -12893,15 +12913,11 @@
     <row r="306" spans="3:13" s="51" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C306" s="49"/>
       <c r="E306" s="56"/>
-      <c r="F306" s="56" t="s">
-        <v>613</v>
-      </c>
+      <c r="F306" s="56"/>
       <c r="G306" s="56"/>
       <c r="H306" s="56"/>
       <c r="I306" s="56"/>
-      <c r="J306" s="56" t="s">
-        <v>614</v>
-      </c>
+      <c r="J306" s="56"/>
       <c r="K306" s="56"/>
       <c r="L306" s="56"/>
       <c r="M306" s="56"/>
@@ -12909,7 +12925,9 @@
     <row r="307" spans="3:13" s="51" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C307" s="49"/>
       <c r="E307" s="56"/>
-      <c r="F307" s="56"/>
+      <c r="F307" s="56" t="s">
+        <v>614</v>
+      </c>
       <c r="G307" s="56"/>
       <c r="H307" s="56"/>
       <c r="I307" s="56"/>
@@ -12921,10 +12939,10 @@
     <row r="308" spans="3:13" s="51" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C308" s="49"/>
       <c r="E308" s="56"/>
-      <c r="F308" s="56" t="s">
+      <c r="F308" s="56"/>
+      <c r="G308" s="56" t="s">
         <v>615</v>
       </c>
-      <c r="G308" s="56"/>
       <c r="H308" s="56"/>
       <c r="I308" s="56"/>
       <c r="J308" s="56"/>
@@ -12935,10 +12953,10 @@
     <row r="309" spans="3:13" s="51" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C309" s="49"/>
       <c r="E309" s="56"/>
-      <c r="F309" s="56"/>
-      <c r="G309" s="56" t="s">
+      <c r="F309" s="56" t="s">
         <v>616</v>
       </c>
+      <c r="G309" s="56"/>
       <c r="H309" s="56"/>
       <c r="I309" s="56"/>
       <c r="J309" s="56"/>
@@ -12949,10 +12967,10 @@
     <row r="310" spans="3:13" s="51" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C310" s="49"/>
       <c r="E310" s="56"/>
-      <c r="F310" s="56" t="s">
+      <c r="F310" s="56"/>
+      <c r="G310" s="56" t="s">
         <v>617</v>
       </c>
-      <c r="G310" s="56"/>
       <c r="H310" s="56"/>
       <c r="I310" s="56"/>
       <c r="J310" s="56"/>
@@ -12964,9 +12982,7 @@
       <c r="C311" s="49"/>
       <c r="E311" s="56"/>
       <c r="F311" s="56"/>
-      <c r="G311" s="56" t="s">
-        <v>618</v>
-      </c>
+      <c r="G311" s="56"/>
       <c r="H311" s="56"/>
       <c r="I311" s="56"/>
       <c r="J311" s="56"/>
@@ -12974,8 +12990,10 @@
       <c r="L311" s="56"/>
       <c r="M311" s="56"/>
     </row>
-    <row r="312" spans="3:13" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C312" s="49"/>
+    <row r="312" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="D312" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E312" s="56"/>
       <c r="F312" s="56"/>
       <c r="G312" s="56"/>
@@ -12987,10 +13005,9 @@
       <c r="M312" s="56"/>
     </row>
     <row r="313" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="D313" s="1" t="s">
+      <c r="E313" s="56" t="s">
         <v>291</v>
       </c>
-      <c r="E313" s="56"/>
       <c r="F313" s="56"/>
       <c r="G313" s="56"/>
       <c r="H313" s="56"/>
@@ -13000,11 +13017,13 @@
       <c r="L313" s="56"/>
       <c r="M313" s="56"/>
     </row>
-    <row r="314" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="314" spans="3:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="E314" s="56" t="s">
-        <v>292</v>
-      </c>
-      <c r="F314" s="56"/>
+        <v>298</v>
+      </c>
+      <c r="F314" s="56" t="s">
+        <v>299</v>
+      </c>
       <c r="G314" s="56"/>
       <c r="H314" s="56"/>
       <c r="I314" s="56"/>
@@ -13015,10 +13034,10 @@
     </row>
     <row r="315" spans="3:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="E315" s="56" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F315" s="56" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G315" s="56"/>
       <c r="H315" s="56"/>
@@ -13028,12 +13047,11 @@
       <c r="L315" s="56"/>
       <c r="M315" s="56"/>
     </row>
-    <row r="316" spans="3:13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="E316" s="56" t="s">
-        <v>301</v>
-      </c>
+    <row r="316" spans="3:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C316" s="49"/>
+      <c r="E316" s="56"/>
       <c r="F316" s="56" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="G316" s="56"/>
       <c r="H316" s="56"/>
@@ -13043,12 +13061,11 @@
       <c r="L316" s="56"/>
       <c r="M316" s="56"/>
     </row>
-    <row r="317" spans="3:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C317" s="49"/>
-      <c r="E317" s="56"/>
-      <c r="F317" s="56" t="s">
-        <v>293</v>
-      </c>
+    <row r="317" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="E317" s="56" t="s">
+        <v>772</v>
+      </c>
+      <c r="F317" s="56"/>
       <c r="G317" s="56"/>
       <c r="H317" s="56"/>
       <c r="I317" s="56"/>
@@ -13057,11 +13074,12 @@
       <c r="L317" s="56"/>
       <c r="M317" s="56"/>
     </row>
-    <row r="318" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="E318" s="56" t="s">
+    <row r="318" spans="3:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C318" s="49"/>
+      <c r="E318" s="56"/>
+      <c r="F318" s="56" t="s">
         <v>773</v>
       </c>
-      <c r="F318" s="56"/>
       <c r="G318" s="56"/>
       <c r="H318" s="56"/>
       <c r="I318" s="56"/>
@@ -13070,12 +13088,9 @@
       <c r="L318" s="56"/>
       <c r="M318" s="56"/>
     </row>
-    <row r="319" spans="3:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C319" s="49"/>
+    <row r="319" spans="3:13" x14ac:dyDescent="0.15">
       <c r="E319" s="56"/>
-      <c r="F319" s="56" t="s">
-        <v>774</v>
-      </c>
+      <c r="F319" s="56"/>
       <c r="G319" s="56"/>
       <c r="H319" s="56"/>
       <c r="I319" s="56"/>
@@ -13084,9 +13099,12 @@
       <c r="L319" s="56"/>
       <c r="M319" s="56"/>
     </row>
-    <row r="320" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="320" spans="3:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C320" s="49"/>
       <c r="E320" s="56"/>
-      <c r="F320" s="56"/>
+      <c r="F320" s="56" t="s">
+        <v>293</v>
+      </c>
       <c r="G320" s="56"/>
       <c r="H320" s="56"/>
       <c r="I320" s="56"/>
@@ -13095,13 +13113,12 @@
       <c r="L320" s="56"/>
       <c r="M320" s="56"/>
     </row>
-    <row r="321" spans="3:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C321" s="49"/>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.15">
       <c r="E321" s="56"/>
-      <c r="F321" s="56" t="s">
-        <v>294</v>
-      </c>
-      <c r="G321" s="56"/>
+      <c r="F321" s="56"/>
+      <c r="G321" s="56" t="s">
+        <v>296</v>
+      </c>
       <c r="H321" s="56"/>
       <c r="I321" s="56"/>
       <c r="J321" s="56"/>
@@ -13109,12 +13126,13 @@
       <c r="L321" s="56"/>
       <c r="M321" s="56"/>
     </row>
-    <row r="322" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C322" s="49"/>
       <c r="E322" s="56"/>
-      <c r="F322" s="56"/>
-      <c r="G322" s="56" t="s">
-        <v>297</v>
-      </c>
+      <c r="F322" s="56" t="s">
+        <v>294</v>
+      </c>
+      <c r="G322" s="56"/>
       <c r="H322" s="56"/>
       <c r="I322" s="56"/>
       <c r="J322" s="56"/>
@@ -13122,13 +13140,12 @@
       <c r="L322" s="56"/>
       <c r="M322" s="56"/>
     </row>
-    <row r="323" spans="3:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C323" s="49"/>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.15">
       <c r="E323" s="56"/>
-      <c r="F323" s="56" t="s">
-        <v>295</v>
-      </c>
-      <c r="G323" s="56"/>
+      <c r="F323" s="56"/>
+      <c r="G323" s="56" t="s">
+        <v>769</v>
+      </c>
       <c r="H323" s="56"/>
       <c r="I323" s="56"/>
       <c r="J323" s="56"/>
@@ -13136,12 +13153,12 @@
       <c r="L323" s="56"/>
       <c r="M323" s="56"/>
     </row>
-    <row r="324" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.15">
       <c r="E324" s="56"/>
-      <c r="F324" s="56"/>
-      <c r="G324" s="56" t="s">
-        <v>770</v>
-      </c>
+      <c r="F324" s="56" t="s">
+        <v>295</v>
+      </c>
+      <c r="G324" s="56"/>
       <c r="H324" s="56"/>
       <c r="I324" s="56"/>
       <c r="J324" s="56"/>
@@ -13149,12 +13166,13 @@
       <c r="L324" s="56"/>
       <c r="M324" s="56"/>
     </row>
-    <row r="325" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C325" s="49"/>
       <c r="E325" s="56"/>
-      <c r="F325" s="56" t="s">
-        <v>296</v>
-      </c>
-      <c r="G325" s="56"/>
+      <c r="F325" s="56"/>
+      <c r="G325" s="56" t="s">
+        <v>671</v>
+      </c>
       <c r="H325" s="56"/>
       <c r="I325" s="56"/>
       <c r="J325" s="56"/>
@@ -13162,7 +13180,7 @@
       <c r="L325" s="56"/>
       <c r="M325" s="56"/>
     </row>
-    <row r="326" spans="3:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C326" s="49"/>
       <c r="E326" s="56"/>
       <c r="F326" s="56"/>
@@ -13176,13 +13194,13 @@
       <c r="L326" s="56"/>
       <c r="M326" s="56"/>
     </row>
-    <row r="327" spans="3:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C327" s="49"/>
       <c r="E327" s="56"/>
-      <c r="F327" s="56"/>
-      <c r="G327" s="56" t="s">
-        <v>673</v>
-      </c>
+      <c r="F327" s="56" t="s">
+        <v>770</v>
+      </c>
+      <c r="G327" s="56"/>
       <c r="H327" s="56"/>
       <c r="I327" s="56"/>
       <c r="J327" s="56"/>
@@ -13190,13 +13208,13 @@
       <c r="L327" s="56"/>
       <c r="M327" s="56"/>
     </row>
-    <row r="328" spans="3:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C328" s="49"/>
       <c r="E328" s="56"/>
-      <c r="F328" s="56" t="s">
+      <c r="F328" s="56"/>
+      <c r="G328" s="56" t="s">
         <v>771</v>
       </c>
-      <c r="G328" s="56"/>
       <c r="H328" s="56"/>
       <c r="I328" s="56"/>
       <c r="J328" s="56"/>
@@ -13204,12 +13222,12 @@
       <c r="L328" s="56"/>
       <c r="M328" s="56"/>
     </row>
-    <row r="329" spans="3:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C329" s="49"/>
       <c r="E329" s="56"/>
       <c r="F329" s="56"/>
       <c r="G329" s="56" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="H329" s="56"/>
       <c r="I329" s="56"/>
@@ -13218,7 +13236,7 @@
       <c r="L329" s="56"/>
       <c r="M329" s="56"/>
     </row>
-    <row r="330" spans="3:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C330" s="49"/>
       <c r="E330" s="56"/>
       <c r="F330" s="56"/>
@@ -13232,13 +13250,11 @@
       <c r="L330" s="56"/>
       <c r="M330" s="56"/>
     </row>
-    <row r="331" spans="3:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C331" s="49"/>
       <c r="E331" s="56"/>
       <c r="F331" s="56"/>
-      <c r="G331" s="56" t="s">
-        <v>776</v>
-      </c>
+      <c r="G331" s="56"/>
       <c r="H331" s="56"/>
       <c r="I331" s="56"/>
       <c r="J331" s="56"/>
@@ -13246,8 +13262,10 @@
       <c r="L331" s="56"/>
       <c r="M331" s="56"/>
     </row>
-    <row r="332" spans="3:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C332" s="49"/>
+    <row r="332" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D332" s="1" t="s">
+        <v>281</v>
+      </c>
       <c r="E332" s="56"/>
       <c r="F332" s="56"/>
       <c r="G332" s="56"/>
@@ -13258,58 +13276,52 @@
       <c r="L332" s="56"/>
       <c r="M332" s="56"/>
     </row>
-    <row r="333" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="D333" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="E333" s="56"/>
-      <c r="F333" s="56"/>
-      <c r="G333" s="56"/>
-      <c r="H333" s="56"/>
-      <c r="I333" s="56"/>
-      <c r="J333" s="56"/>
-      <c r="K333" s="56"/>
-      <c r="L333" s="56"/>
-      <c r="M333" s="56"/>
-    </row>
-    <row r="334" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="E333" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="334" spans="1:13" x14ac:dyDescent="0.15">
       <c r="E334" s="1" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="335" spans="3:13" x14ac:dyDescent="0.15">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="335" spans="1:13" x14ac:dyDescent="0.15">
       <c r="E335" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="336" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="E336" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="337" spans="1:9" ht="33" x14ac:dyDescent="0.15">
-      <c r="A337" s="31" t="s">
-        <v>408</v>
-      </c>
-      <c r="B337" s="32" t="s">
-        <v>477</v>
-      </c>
-      <c r="E337" s="56" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="336" spans="1:13" ht="33" x14ac:dyDescent="0.15">
+      <c r="A336" s="31" t="s">
+        <v>407</v>
+      </c>
+      <c r="B336" s="32" t="s">
+        <v>476</v>
+      </c>
+      <c r="E336" s="56" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A337" s="32" t="s">
         <v>520</v>
       </c>
+      <c r="E337" s="53" t="s">
+        <v>780</v>
+      </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A338" s="32" t="s">
-        <v>521</v>
-      </c>
-      <c r="E338" s="53" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="F339" s="53" t="s">
-        <v>788</v>
-      </c>
+      <c r="F338" s="53" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D340" s="58"/>
+      <c r="E340" s="58"/>
+      <c r="F340" s="58"/>
+      <c r="G340" s="58"/>
+      <c r="H340" s="58"/>
+      <c r="I340" s="53"/>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D341" s="58"/>
@@ -13317,9 +13329,12 @@
       <c r="F341" s="58"/>
       <c r="G341" s="58"/>
       <c r="H341" s="58"/>
-      <c r="I341" s="53"/>
+      <c r="I341" s="58"/>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B342" s="29" t="s">
+        <v>391</v>
+      </c>
       <c r="D342" s="58"/>
       <c r="E342" s="58"/>
       <c r="F342" s="58"/>
@@ -13328,8 +13343,8 @@
       <c r="I342" s="58"/>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B343" s="29" t="s">
-        <v>392</v>
+      <c r="B343" s="32" t="s">
+        <v>522</v>
       </c>
       <c r="D343" s="58"/>
       <c r="E343" s="58"/>
@@ -13339,9 +13354,6 @@
       <c r="I343" s="58"/>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B344" s="32" t="s">
-        <v>523</v>
-      </c>
       <c r="D344" s="58"/>
       <c r="E344" s="58"/>
       <c r="F344" s="58"/>
@@ -13349,7 +13361,10 @@
       <c r="H344" s="58"/>
       <c r="I344" s="58"/>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+      <c r="A345" s="31" t="s">
+        <v>408</v>
+      </c>
       <c r="D345" s="58"/>
       <c r="E345" s="58"/>
       <c r="F345" s="58"/>
@@ -13357,9 +13372,9 @@
       <c r="H345" s="58"/>
       <c r="I345" s="58"/>
     </row>
-    <row r="346" spans="1:9" ht="33" x14ac:dyDescent="0.15">
-      <c r="A346" s="31" t="s">
-        <v>409</v>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A346" s="39" t="s">
+        <v>521</v>
       </c>
       <c r="D346" s="58"/>
       <c r="E346" s="58"/>
@@ -13369,9 +13384,6 @@
       <c r="I346" s="58"/>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A347" s="39" t="s">
-        <v>522</v>
-      </c>
       <c r="D347" s="58"/>
       <c r="E347" s="58"/>
       <c r="F347" s="58"/>
@@ -13380,6 +13392,9 @@
       <c r="I347" s="58"/>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B348" s="29" t="s">
+        <v>392</v>
+      </c>
       <c r="D348" s="58"/>
       <c r="E348" s="58"/>
       <c r="F348" s="58"/>
@@ -13388,8 +13403,8 @@
       <c r="I348" s="58"/>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B349" s="29" t="s">
-        <v>393</v>
+      <c r="B349" s="32" t="s">
+        <v>522</v>
       </c>
       <c r="D349" s="58"/>
       <c r="E349" s="58"/>
@@ -13399,9 +13414,6 @@
       <c r="I349" s="58"/>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B350" s="32" t="s">
-        <v>523</v>
-      </c>
       <c r="D350" s="58"/>
       <c r="E350" s="58"/>
       <c r="F350" s="58"/>
@@ -13409,28 +13421,20 @@
       <c r="H350" s="58"/>
       <c r="I350" s="58"/>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D351" s="58"/>
-      <c r="E351" s="58"/>
-      <c r="F351" s="58"/>
-      <c r="G351" s="58"/>
-      <c r="H351" s="58"/>
-      <c r="I351" s="58"/>
-    </row>
-    <row r="353" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B353" s="29" t="s">
-        <v>391</v>
-      </c>
-      <c r="F353" s="32"/>
-    </row>
-    <row r="354" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B354" s="30" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="355" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B355" s="32" t="s">
-        <v>524</v>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B352" s="29" t="s">
+        <v>390</v>
+      </c>
+      <c r="F352" s="32"/>
+    </row>
+    <row r="353" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B353" s="30" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="354" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B354" s="32" t="s">
+        <v>523</v>
       </c>
     </row>
   </sheetData>
@@ -13520,7 +13524,7 @@
     <row r="10" spans="1:15" s="51" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C10" s="49"/>
       <c r="F10" s="56" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G10" s="56"/>
       <c r="H10" s="56"/>
@@ -13535,7 +13539,7 @@
     <row r="11" spans="1:15" s="51" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C11" s="49"/>
       <c r="F11" s="56" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G11" s="56"/>
       <c r="H11" s="56"/>
@@ -13549,10 +13553,10 @@
     </row>
     <row r="12" spans="1:15" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A12" s="40" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F12" s="56" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G12" s="56"/>
       <c r="H12" s="56"/>
@@ -13621,12 +13625,12 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="30" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F17" s="56"/>
       <c r="G17" s="56"/>
       <c r="H17" s="56" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I17" s="56"/>
       <c r="J17" s="56"/>
@@ -13638,13 +13642,13 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="32" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F18" s="56"/>
       <c r="G18" s="56"/>
       <c r="H18" s="56"/>
       <c r="I18" s="56" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J18" s="56"/>
       <c r="K18" s="56"/>
@@ -13658,7 +13662,7 @@
       <c r="G19" s="56"/>
       <c r="H19" s="56"/>
       <c r="I19" s="56" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="J19" s="56"/>
       <c r="K19" s="56"/>
@@ -13671,7 +13675,7 @@
       <c r="F20" s="56"/>
       <c r="G20" s="56"/>
       <c r="H20" s="56" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I20" s="56"/>
       <c r="J20" s="56"/>
@@ -13685,7 +13689,7 @@
       <c r="F21" s="56"/>
       <c r="G21" s="56"/>
       <c r="H21" s="56" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="I21" s="56"/>
       <c r="J21" s="56"/>
@@ -13821,10 +13825,10 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" s="47" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F31" s="56"/>
       <c r="G31" s="56"/>
@@ -13832,7 +13836,7 @@
         <v>90</v>
       </c>
       <c r="I31" s="56" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="J31" s="56"/>
       <c r="K31" s="56"/>
@@ -13843,17 +13847,17 @@
     </row>
     <row r="32" spans="1:15" s="44" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="46" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B32" s="46" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C32" s="45"/>
       <c r="F32" s="56"/>
       <c r="G32" s="56"/>
       <c r="H32" s="56"/>
       <c r="I32" s="56" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="J32" s="56"/>
       <c r="K32" s="56"/>
@@ -13914,14 +13918,14 @@
     </row>
     <row r="37" spans="1:16" ht="33" x14ac:dyDescent="0.15">
       <c r="A37" s="31" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F37" s="38"/>
       <c r="G37" s="38"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="32" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F38" s="38"/>
       <c r="G38" s="41"/>
@@ -13945,15 +13949,15 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.15">
       <c r="G43" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A44" s="30" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H44" s="56" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I44" s="56"/>
       <c r="J44" s="56"/>
@@ -13966,11 +13970,11 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A45" s="32" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H45" s="56"/>
       <c r="I45" s="56" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J45" s="56"/>
       <c r="K45" s="56"/>
@@ -13985,7 +13989,7 @@
       <c r="C46" s="49"/>
       <c r="H46" s="56"/>
       <c r="I46" s="56" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J46" s="56"/>
       <c r="K46" s="56"/>
@@ -13997,7 +14001,7 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.15">
       <c r="H47" s="56" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I47" s="56"/>
       <c r="J47" s="56"/>
@@ -14011,7 +14015,7 @@
     <row r="48" spans="1:16" x14ac:dyDescent="0.15">
       <c r="H48" s="56"/>
       <c r="I48" s="56" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J48" s="56"/>
       <c r="K48" s="56"/>
@@ -14025,7 +14029,7 @@
       <c r="C49" s="49"/>
       <c r="H49" s="56"/>
       <c r="I49" s="56" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J49" s="56"/>
       <c r="K49" s="56"/>
@@ -14037,7 +14041,7 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.15">
       <c r="H50" s="56" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I50" s="56"/>
       <c r="J50" s="56"/>
@@ -14052,7 +14056,7 @@
       <c r="C51" s="49"/>
       <c r="H51" s="56"/>
       <c r="I51" s="56" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="J51" s="56"/>
       <c r="K51" s="56"/>
@@ -14066,7 +14070,7 @@
       <c r="C52" s="49"/>
       <c r="H52" s="56"/>
       <c r="I52" s="56" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J52" s="56"/>
       <c r="K52" s="56"/>
@@ -14080,7 +14084,7 @@
       <c r="C53" s="49"/>
       <c r="H53" s="56"/>
       <c r="I53" s="68" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="J53" s="68"/>
       <c r="K53" s="68"/>
@@ -14105,7 +14109,7 @@
     <row r="55" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A55" s="48"/>
       <c r="H55" s="56" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I55" s="56"/>
       <c r="J55" s="56"/>
@@ -14118,11 +14122,11 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A56" s="30" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H56" s="56"/>
       <c r="I56" s="56" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J56" s="56"/>
       <c r="K56" s="56"/>
@@ -14134,11 +14138,11 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A57" s="32" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H57" s="56"/>
       <c r="I57" s="56" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J57" s="56"/>
       <c r="K57" s="56"/>
@@ -14195,19 +14199,19 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A64" s="30" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A65" s="32" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F65" s="56"/>
       <c r="G65" s="56" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H65" s="56"/>
       <c r="I65" s="56"/>
@@ -14238,7 +14242,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F68" s="56" t="s">
         <v>109</v>
@@ -14253,14 +14257,14 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A69" s="30" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F69" s="56"/>
       <c r="G69" s="56" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H69" s="56"/>
       <c r="I69" s="56"/>
@@ -14271,15 +14275,15 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A70" s="30" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F70" s="56"/>
       <c r="G70" s="56"/>
       <c r="H70" s="56" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I70" s="56"/>
       <c r="J70" s="56"/>
@@ -14294,7 +14298,7 @@
       <c r="F71" s="56"/>
       <c r="G71" s="56"/>
       <c r="H71" s="56" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I71" s="56"/>
       <c r="J71" s="56"/>
@@ -14304,11 +14308,11 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A72" s="32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F72" s="56"/>
       <c r="G72" s="56" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H72" s="56"/>
       <c r="I72" s="56"/>
@@ -14320,7 +14324,7 @@
     <row r="73" spans="1:13" x14ac:dyDescent="0.15">
       <c r="F73" s="56"/>
       <c r="G73" s="56" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H73" s="56"/>
       <c r="I73" s="56"/>
@@ -14365,31 +14369,31 @@
     <row r="77" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D77" s="11"/>
       <c r="E77" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A78" s="30" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B78" s="29" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D78" s="11"/>
       <c r="F78" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A79" s="40" t="s">
+        <v>538</v>
+      </c>
+      <c r="B79" s="32" t="s">
         <v>539</v>
-      </c>
-      <c r="B79" s="32" t="s">
-        <v>540</v>
       </c>
       <c r="D79" s="11"/>
       <c r="G79" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.15">
@@ -14418,7 +14422,7 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A83" s="30" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D83" s="11"/>
       <c r="F83" s="58"/>
@@ -14429,7 +14433,7 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A84" s="32" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D84" s="11"/>
     </row>
@@ -14447,21 +14451,21 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D88" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A89" s="30" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A90" s="32" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D90" s="11"/>
     </row>
@@ -14471,23 +14475,23 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D92" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D93" s="11"/>
       <c r="E93" s="56" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F93" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G93" s="16"/>
       <c r="J93" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
@@ -14495,7 +14499,7 @@
       <c r="E94" s="56"/>
       <c r="F94" s="12"/>
       <c r="G94" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M94" s="62"/>
     </row>
@@ -14509,14 +14513,14 @@
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D96" s="11"/>
       <c r="E96" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F96" s="19" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G96" s="16"/>
       <c r="J96" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M96" s="62"/>
     </row>
@@ -14525,7 +14529,7 @@
       <c r="E97" s="56"/>
       <c r="F97" s="12"/>
       <c r="G97" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M97" s="62"/>
     </row>
@@ -14537,14 +14541,14 @@
     <row r="99" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D99" s="11"/>
       <c r="E99" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F99" s="19" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G99" s="16"/>
       <c r="J99" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="M99" s="62"/>
     </row>
@@ -14553,7 +14557,7 @@
       <c r="E100" s="56"/>
       <c r="F100" s="12"/>
       <c r="G100" s="17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M100" s="62"/>
     </row>
@@ -14565,14 +14569,14 @@
     <row r="102" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D102" s="11"/>
       <c r="E102" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F102" s="19" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G102" s="21"/>
       <c r="J102" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M102" s="62"/>
     </row>
@@ -14581,7 +14585,7 @@
       <c r="E103" s="56"/>
       <c r="F103" s="12"/>
       <c r="G103" s="19" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M103" s="62"/>
     </row>
@@ -14593,14 +14597,14 @@
     <row r="105" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D105" s="11"/>
       <c r="E105" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F105" s="19" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G105" s="21"/>
       <c r="J105" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M105" s="62"/>
     </row>
@@ -14609,7 +14613,7 @@
       <c r="E106" s="56"/>
       <c r="F106" s="12"/>
       <c r="G106" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M106" s="62"/>
     </row>
@@ -14622,11 +14626,11 @@
       <c r="D108" s="11"/>
       <c r="E108" s="56"/>
       <c r="F108" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G108" s="16"/>
       <c r="J108" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="M108" s="62"/>
     </row>
@@ -14635,7 +14639,7 @@
       <c r="E109" s="56"/>
       <c r="F109" s="12"/>
       <c r="G109" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M109" s="62"/>
     </row>
@@ -14647,14 +14651,14 @@
     <row r="111" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D111" s="11"/>
       <c r="E111" s="56" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F111" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G111" s="16"/>
       <c r="J111" s="62" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="M111" s="62"/>
     </row>
@@ -14663,7 +14667,7 @@
       <c r="E112" s="56"/>
       <c r="F112" s="12"/>
       <c r="G112" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M112" s="62"/>
     </row>
@@ -14676,11 +14680,11 @@
       <c r="D114" s="11"/>
       <c r="E114" s="56"/>
       <c r="F114" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G114" s="16"/>
       <c r="J114" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="M114" s="62"/>
     </row>
@@ -14689,7 +14693,7 @@
       <c r="E115" s="56"/>
       <c r="F115" s="12"/>
       <c r="G115" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="116" spans="4:13" x14ac:dyDescent="0.15">
@@ -14699,21 +14703,21 @@
     <row r="117" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D117" s="11"/>
       <c r="E117" s="56" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F117" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G117" s="16"/>
       <c r="J117" s="62" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="118" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D118" s="11"/>
       <c r="E118" s="56"/>
       <c r="G118" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="119" spans="4:13" x14ac:dyDescent="0.15">
@@ -14723,21 +14727,21 @@
     <row r="120" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D120" s="11"/>
       <c r="E120" s="56" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G120" s="11"/>
       <c r="J120" s="62" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="121" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D121" s="11"/>
       <c r="E121" s="56"/>
       <c r="G121" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="122" spans="4:13" x14ac:dyDescent="0.15">
@@ -14747,20 +14751,20 @@
     <row r="123" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D123" s="11"/>
       <c r="E123" s="56" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="124" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D124" s="11"/>
       <c r="E124" s="56"/>
       <c r="G124" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="125" spans="4:13" x14ac:dyDescent="0.15">
@@ -14770,20 +14774,20 @@
     <row r="126" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D126" s="11"/>
       <c r="E126" s="56" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="127" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D127" s="11"/>
       <c r="E127" s="56"/>
       <c r="G127" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="128" spans="4:13" x14ac:dyDescent="0.15">
@@ -14793,20 +14797,20 @@
     <row r="129" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D129" s="11"/>
       <c r="E129" s="56" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="130" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D130" s="11"/>
       <c r="E130" s="56"/>
       <c r="G130" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="131" spans="4:10" x14ac:dyDescent="0.15">
@@ -14816,20 +14820,20 @@
     <row r="132" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D132" s="11"/>
       <c r="E132" s="56" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="133" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D133" s="11"/>
       <c r="E133" s="56"/>
       <c r="G133" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="134" spans="4:10" x14ac:dyDescent="0.15">
@@ -14839,20 +14843,20 @@
     <row r="135" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D135" s="11"/>
       <c r="E135" s="56" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="136" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D136" s="11"/>
       <c r="E136" s="56"/>
       <c r="G136" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="137" spans="4:10" x14ac:dyDescent="0.15">
@@ -14862,20 +14866,20 @@
     <row r="138" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D138" s="11"/>
       <c r="E138" s="56" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="139" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D139" s="11"/>
       <c r="E139" s="56"/>
       <c r="G139" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="140" spans="4:10" x14ac:dyDescent="0.15">
@@ -14885,20 +14889,20 @@
     <row r="141" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D141" s="11"/>
       <c r="E141" s="56" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="142" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D142" s="11"/>
       <c r="E142" s="25"/>
       <c r="G142" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="143" spans="4:10" x14ac:dyDescent="0.15">
@@ -14912,7 +14916,7 @@
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D145" s="11"/>
       <c r="F145" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.15">
@@ -14923,96 +14927,96 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C148" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D148" s="11"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A149" s="30" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B149" s="29" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A150" s="32" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B150" s="32" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E151" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F152" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F153" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C154" s="1"/>
       <c r="E154" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F155" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F156" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E157" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F158" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F159" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E160" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="161" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E161" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="162" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E162" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="165" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E165" s="56" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>
@@ -15039,12 +15043,12 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B2" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C3" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -15052,7 +15056,7 @@
     <row r="4" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C4" s="20"/>
       <c r="D4" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E4" s="21"/>
     </row>
@@ -15060,7 +15064,7 @@
       <c r="C5" s="42"/>
       <c r="D5" s="43"/>
       <c r="E5" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
@@ -15075,7 +15079,7 @@
       <c r="C6" s="42"/>
       <c r="D6" s="43"/>
       <c r="E6" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F6" s="33"/>
       <c r="G6" s="33"/>
@@ -15102,7 +15106,7 @@
     <row r="8" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C8" s="42"/>
       <c r="D8" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E8" s="43"/>
       <c r="F8" s="33"/>
@@ -15118,7 +15122,7 @@
       <c r="C9" s="42"/>
       <c r="D9" s="43"/>
       <c r="E9" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F9" s="33"/>
       <c r="G9" s="33"/>
@@ -15133,7 +15137,7 @@
       <c r="C10" s="42"/>
       <c r="D10" s="43"/>
       <c r="E10" s="23" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
@@ -15159,7 +15163,7 @@
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C12" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="43"/>
@@ -15175,7 +15179,7 @@
     <row r="13" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C13" s="42"/>
       <c r="D13" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E13" s="43"/>
       <c r="F13" s="33"/>
@@ -15191,7 +15195,7 @@
       <c r="C14" s="42"/>
       <c r="D14" s="43"/>
       <c r="E14" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
@@ -15206,7 +15210,7 @@
       <c r="C15" s="42"/>
       <c r="D15" s="43"/>
       <c r="E15" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F15" s="33"/>
       <c r="G15" s="33"/>
@@ -15233,7 +15237,7 @@
     <row r="17" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C17" s="42"/>
       <c r="D17" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E17" s="43"/>
       <c r="F17" s="33"/>
@@ -15249,7 +15253,7 @@
       <c r="C18" s="42"/>
       <c r="D18" s="43"/>
       <c r="E18" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F18" s="33"/>
       <c r="G18" s="33"/>
@@ -15264,7 +15268,7 @@
       <c r="C19" s="42"/>
       <c r="D19" s="43"/>
       <c r="E19" s="23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="33"/>
@@ -15290,7 +15294,7 @@
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B21" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C21" s="35"/>
       <c r="D21" s="33"/>
@@ -15306,7 +15310,7 @@
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C22" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
@@ -15322,7 +15326,7 @@
     <row r="23" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C23" s="35"/>
       <c r="D23" s="33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E23" s="33"/>
       <c r="F23" s="33"/>
@@ -15337,7 +15341,7 @@
     <row r="24" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C24" s="35"/>
       <c r="D24" s="33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E24" s="33"/>
       <c r="F24" s="33"/>
@@ -15364,7 +15368,7 @@
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C26" s="35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
@@ -15380,7 +15384,7 @@
     <row r="27" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C27" s="35"/>
       <c r="D27" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E27" s="33"/>
       <c r="F27" s="33"/>
@@ -15407,7 +15411,7 @@
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C29" s="42"/>
       <c r="D29" s="43"/>
@@ -15424,7 +15428,7 @@
     <row r="30" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B30" s="20"/>
       <c r="C30" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D30" s="43"/>
       <c r="E30" s="33"/>
@@ -15441,7 +15445,7 @@
       <c r="B31" s="20"/>
       <c r="C31" s="42"/>
       <c r="D31" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E31" s="33"/>
       <c r="F31" s="33"/>
@@ -15457,7 +15461,7 @@
       <c r="B32" s="20"/>
       <c r="C32" s="42"/>
       <c r="D32" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
@@ -15473,7 +15477,7 @@
       <c r="B33" s="20"/>
       <c r="C33" s="42"/>
       <c r="D33" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E33" s="33"/>
       <c r="F33" s="33"/>
@@ -15501,7 +15505,7 @@
     <row r="35" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B35" s="20"/>
       <c r="C35" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D35" s="43"/>
       <c r="E35" s="33"/>
@@ -15518,7 +15522,7 @@
       <c r="B36" s="20"/>
       <c r="C36" s="42"/>
       <c r="D36" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E36" s="33"/>
       <c r="F36" s="33"/>
@@ -15534,7 +15538,7 @@
       <c r="B37" s="20"/>
       <c r="C37" s="42"/>
       <c r="D37" s="23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E37" s="33"/>
       <c r="F37" s="33"/>
@@ -15561,7 +15565,7 @@
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B39" s="11" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C39" s="35"/>
       <c r="D39" s="33"/>
@@ -15577,7 +15581,7 @@
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C40" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D40" s="33"/>
       <c r="E40" s="33"/>
@@ -15593,17 +15597,17 @@
     <row r="41" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C41" s="24"/>
       <c r="D41" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C42" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.15">
       <c r="D43" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
   </sheetData>
@@ -15644,7 +15648,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.15">
@@ -15652,195 +15656,195 @@
         <v>25</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>194</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>195</v>
       </c>
       <c r="K2" s="49"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="30" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C3" s="62" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="32" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C4" s="62" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C5" s="62" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C6" s="62" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="30" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C9" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C11" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C12" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C13" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C14" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C15" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C16" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C17" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C18" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C19" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D19" s="64" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E19" s="64" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
@@ -15854,7 +15858,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C22" s="56"/>
       <c r="D22" s="69"/>
@@ -15866,68 +15870,68 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C23" s="56" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D23" s="69" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E23" s="56" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F23" s="56" t="s">
+        <v>755</v>
+      </c>
+      <c r="G23" s="56" t="s">
         <v>756</v>
       </c>
-      <c r="G23" s="56" t="s">
-        <v>757</v>
-      </c>
       <c r="H23" s="56" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I23" s="56"/>
       <c r="N23" s="62"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="30" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C24" s="56" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D24" s="69">
         <v>0</v>
       </c>
       <c r="E24" s="56" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F24" s="56" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G24" s="56" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H24" s="56" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I24" s="56"/>
       <c r="N24" s="62"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="32" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C25" s="56"/>
       <c r="D25" s="69"/>
       <c r="E25" s="56" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F25" s="56" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G25" s="56" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H25" s="56" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I25" s="56"/>
       <c r="N25" s="32"/>
@@ -15936,16 +15940,16 @@
       <c r="C26" s="56"/>
       <c r="D26" s="69"/>
       <c r="E26" s="56" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F26" s="56" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G26" s="56" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H26" s="56" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I26" s="56"/>
     </row>
@@ -15953,16 +15957,16 @@
       <c r="C27" s="56"/>
       <c r="D27" s="69"/>
       <c r="E27" s="56" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F27" s="56" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G27" s="56" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H27" s="56" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I27" s="56"/>
     </row>
@@ -15970,16 +15974,16 @@
       <c r="C28" s="56"/>
       <c r="D28" s="69"/>
       <c r="E28" s="56" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F28" s="56" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G28" s="56" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H28" s="56" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I28" s="56"/>
     </row>
@@ -15987,16 +15991,16 @@
       <c r="C29" s="56"/>
       <c r="D29" s="69"/>
       <c r="E29" s="70" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F29" s="68" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G29" s="56" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H29" s="56" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I29" s="56"/>
       <c r="L29" s="51"/>
@@ -16012,7 +16016,7 @@
     </row>
     <row r="31" spans="1:14" s="51" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B31" s="51" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C31" s="56"/>
       <c r="D31" s="69"/>
@@ -16024,10 +16028,10 @@
     </row>
     <row r="32" spans="1:14" s="51" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C32" s="56" t="s">
+        <v>646</v>
+      </c>
+      <c r="D32" s="69" t="s">
         <v>647</v>
-      </c>
-      <c r="D32" s="69" t="s">
-        <v>648</v>
       </c>
       <c r="E32" s="69"/>
       <c r="F32" s="69"/>
@@ -16037,10 +16041,10 @@
     </row>
     <row r="33" spans="3:15" s="51" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C33" s="56" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D33" s="56" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E33" s="69"/>
       <c r="F33" s="69"/>
@@ -16050,10 +16054,10 @@
     </row>
     <row r="34" spans="3:15" s="51" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C34" s="56" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D34" s="56" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E34" s="69"/>
       <c r="F34" s="69"/>
@@ -16063,10 +16067,10 @@
     </row>
     <row r="35" spans="3:15" s="51" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C35" s="56" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D35" s="56" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E35" s="69"/>
       <c r="F35" s="69"/>
@@ -16076,10 +16080,10 @@
     </row>
     <row r="36" spans="3:15" s="51" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C36" s="56" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D36" s="56" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E36" s="69"/>
       <c r="F36" s="69"/>
@@ -16089,10 +16093,10 @@
     </row>
     <row r="37" spans="3:15" s="51" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C37" s="56" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D37" s="56" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E37" s="69"/>
       <c r="F37" s="69"/>
@@ -16102,10 +16106,10 @@
     </row>
     <row r="38" spans="3:15" s="51" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C38" s="56" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D38" s="56" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E38" s="69"/>
       <c r="F38" s="69"/>
@@ -16144,89 +16148,89 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B49" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P49" s="32"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.15">
       <c r="D50" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E50" s="1"/>
       <c r="J50" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K50" s="56"/>
       <c r="L50" s="56" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M50" s="56"/>
       <c r="N50" s="56"/>
       <c r="O50" s="56" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P50" s="56"/>
       <c r="Q50" s="56"/>
       <c r="R50" s="56" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A51" s="30" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="G51" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J51" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="K51" s="56" t="s">
         <v>653</v>
       </c>
-      <c r="K51" s="56" t="s">
-        <v>654</v>
-      </c>
       <c r="L51" s="56" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M51" s="56" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N51" s="56" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="O51" s="56" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="P51" s="56" t="s">
+        <v>649</v>
+      </c>
+      <c r="Q51" s="56" t="s">
         <v>650</v>
       </c>
-      <c r="Q51" s="56" t="s">
-        <v>651</v>
-      </c>
       <c r="R51" s="56" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A52" s="32" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C52" s="1">
         <v>1</v>
@@ -16235,7 +16239,7 @@
         <v>10001</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F52" s="28">
         <v>1</v>
@@ -16253,10 +16257,10 @@
         <v>102</v>
       </c>
       <c r="L52" s="56" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M52" s="56" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="N52" s="56">
         <v>1</v>
@@ -16271,7 +16275,7 @@
         <v>50</v>
       </c>
       <c r="R52" s="56" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.15">
@@ -16281,10 +16285,10 @@
       </c>
       <c r="K53" s="56"/>
       <c r="L53" s="56" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M53" s="56" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="N53" s="56">
         <v>1</v>
@@ -16301,10 +16305,10 @@
       </c>
       <c r="K54" s="56"/>
       <c r="L54" s="56" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="M54" s="56" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N54" s="56">
         <v>10</v>
@@ -16317,10 +16321,10 @@
     <row r="55" spans="1:18" x14ac:dyDescent="0.15">
       <c r="K55" s="56"/>
       <c r="L55" s="56" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M55" s="56" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N55" s="56">
         <v>10</v>
@@ -16333,10 +16337,10 @@
     <row r="56" spans="1:18" x14ac:dyDescent="0.15">
       <c r="K56" s="56"/>
       <c r="L56" s="56" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="M56" s="56" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N56" s="56">
         <v>10</v>
@@ -16349,10 +16353,10 @@
     <row r="57" spans="1:18" x14ac:dyDescent="0.15">
       <c r="K57" s="56"/>
       <c r="L57" s="56" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="M57" s="56" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N57" s="56">
         <v>50</v>
@@ -16364,10 +16368,10 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.15">
       <c r="L58" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N58" s="1">
         <v>10</v>
@@ -16375,7 +16379,7 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.15">
       <c r="L59" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="M59" s="1">
         <v>50</v>
@@ -16386,10 +16390,10 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.15">
       <c r="L60" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N60" s="1">
         <v>10</v>
@@ -16397,10 +16401,10 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.15">
       <c r="L61" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N61" s="1">
         <v>10</v>
@@ -16408,10 +16412,10 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.15">
       <c r="L62" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N62" s="1">
         <v>10</v>
@@ -16419,10 +16423,10 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.15">
       <c r="L63" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N63" s="1">
         <v>10</v>
@@ -16430,10 +16434,10 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.15">
       <c r="L64" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N64" s="1">
         <v>10</v>
@@ -16441,10 +16445,10 @@
     </row>
     <row r="65" spans="3:15" x14ac:dyDescent="0.15">
       <c r="L65" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N65" s="1">
         <v>10</v>
@@ -16452,10 +16456,10 @@
     </row>
     <row r="66" spans="3:15" x14ac:dyDescent="0.15">
       <c r="L66" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N66" s="1">
         <v>10</v>
@@ -16463,10 +16467,10 @@
     </row>
     <row r="67" spans="3:15" x14ac:dyDescent="0.15">
       <c r="L67" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N67" s="1">
         <v>10</v>
@@ -16474,10 +16478,10 @@
     </row>
     <row r="68" spans="3:15" x14ac:dyDescent="0.15">
       <c r="L68" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N68" s="1">
         <v>10</v>
@@ -16495,7 +16499,7 @@
         <v>30001</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F70" s="1">
         <v>2</v>
@@ -16513,7 +16517,7 @@
         <v>102</v>
       </c>
       <c r="L70" s="66" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="N70" s="1">
         <v>0</v>
@@ -16527,7 +16531,7 @@
         <v>30002</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F71" s="1">
         <v>2</v>
@@ -16545,7 +16549,7 @@
         <v>104</v>
       </c>
       <c r="L71" s="66" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="N71" s="1">
         <v>0</v>
@@ -16556,7 +16560,7 @@
     </row>
     <row r="72" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C72" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
   </sheetData>
@@ -16582,57 +16586,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C32" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B53" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C54" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B62" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C63" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B76" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C77" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
   </sheetData>
@@ -16659,128 +16663,128 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="62" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B3" s="62" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C4" s="62" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D4" s="62" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C5" s="62" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D5" s="62" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C6" s="62" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D6" s="62" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C7" s="62" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D7" s="62" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C8" s="62" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D8" s="62" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C9" s="62" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D9" s="62" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C10" s="62" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D10" s="62" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C11" s="62" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D11" s="62" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C12" s="62" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D12" s="62" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B15" s="62" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C16" s="62" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="62" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B22" s="62" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C22" s="62" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="62" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B28" s="62" t="s">
+        <v>705</v>
+      </c>
+      <c r="C28" s="62" t="s">
         <v>706</v>
-      </c>
-      <c r="C28" s="62" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B29" s="62" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C29" s="62" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
   </sheetData>
@@ -16804,61 +16808,61 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C2" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D3" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D4" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D5" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="30" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="32" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D8" s="36" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -16882,67 +16886,67 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C7" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C9" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C14" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C15" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B20" s="59" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C21" s="60" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
   </sheetData>

--- a/gd/任务系统/新版任务系统设计.xlsx
+++ b/gd/任务系统/新版任务系统设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="20475" windowHeight="8055"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="20475" windowHeight="8055" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -28,47 +28,48 @@
     <definedName name="_5.任务对话界面需求">美术需求!$B$76:$L$87</definedName>
     <definedName name="difficulty">基础规则!$J$93:$J$141</definedName>
     <definedName name="NPC配置格式">数据记录!$B$40:$E$46</definedName>
-    <definedName name="触发对话后其余背景蒙版蒙灰">UI逻辑!$D$251</definedName>
+    <definedName name="操作类">基础规则!$E$144</definedName>
+    <definedName name="触发对话后其余背景蒙版蒙灰">UI逻辑!$D$253</definedName>
     <definedName name="当完成任意任务后_自动接取该任务后一个任务_任务配置表中顺序">基础规则!$F$10:$K$11</definedName>
-    <definedName name="对话界面出现时_点击屏幕任意位置_除跳过按钮区域__均响应跳过当前对话界面_不响应点击位置的其他功能">UI逻辑!$E$333</definedName>
+    <definedName name="对话界面出现时_点击屏幕任意位置_除跳过按钮区域__均响应跳过当前对话界面_不响应点击位置的其他功能">UI逻辑!$E$335</definedName>
     <definedName name="对话配置格式">数据记录!$B$22:$I$38</definedName>
     <definedName name="对话相关">数据记录!$R$49:$R$53</definedName>
-    <definedName name="对话组ID">UI逻辑!$E$313:$G$330</definedName>
+    <definedName name="对话组ID">UI逻辑!$E$315:$G$332</definedName>
     <definedName name="发言人名称">数据记录!$F$23:$G$29</definedName>
     <definedName name="分页签开启规则">UI逻辑!$E$70:$J$74</definedName>
     <definedName name="服务器拆分">需求拆分!$C$4:$D$12</definedName>
     <definedName name="奖励">数据记录!$O$50:$Q$52</definedName>
-    <definedName name="奖励内容中的图标无tips显示">UI逻辑!$F$233</definedName>
+    <definedName name="奖励内容中的图标无tips显示">UI逻辑!$F$235</definedName>
     <definedName name="奖励配置">数据记录!$O$49:$Q$55</definedName>
     <definedName name="金币">基础规则!$H$44:$P$58</definedName>
     <definedName name="经验值最终结果X_reward表读取值_K_B">基础规则!$I$53:$L$53</definedName>
-    <definedName name="剧情对话以通关成功为判定标准_通关后不再播放_未通关再次进入该副本还会播放剧情对话">UI逻辑!$E$337</definedName>
+    <definedName name="剧情对话以通关成功为判定标准_通关后不再播放_未通关再次进入该副本还会播放剧情对话">UI逻辑!$E$339</definedName>
     <definedName name="可循环类的任务次数重置点为自然周期结束的0点_即日循环任务为每天0点刷新次数_暂定0点_如游戏整体规划刷新时间为其他时间则统一变更">基础规则!$G$64</definedName>
-    <definedName name="立即前往按钮相应规则">基础规则!$D$149</definedName>
-    <definedName name="名称">UI逻辑!$F$321:$M$323</definedName>
+    <definedName name="立即前往按钮相应规则">基础规则!$D$151</definedName>
+    <definedName name="名称">UI逻辑!$F$323:$M$325</definedName>
     <definedName name="内容固定_每个任务每天可以完成一次">任务类型!$D$24</definedName>
     <definedName name="配置形式遵循道具配置规则_详细见【道具文档】">基础规则!$J$57</definedName>
     <definedName name="配置形式遵循道具配置规则_详细见道具文档">基础规则!$J$57</definedName>
-    <definedName name="其中对局结束的剧情对话如果副本未通关则不播放_成功通关才播放结束的剧情对话">UI逻辑!$F$338</definedName>
-    <definedName name="任务出现为即时刷新_如果有前后连续关系的情况_则上一个消失后_下一个跟随刷出">UI逻辑!$G$199:$N$199</definedName>
-    <definedName name="任务对话相关">UI逻辑!$C$249:$N$338</definedName>
+    <definedName name="其中对局结束的剧情对话如果副本未通关则不播放_成功通关才播放结束的剧情对话">UI逻辑!$F$340</definedName>
+    <definedName name="任务出现为即时刷新_如果有前后连续关系的情况_则上一个消失后_下一个跟随刷出">UI逻辑!$G$201:$N$201</definedName>
+    <definedName name="任务对话相关">UI逻辑!$C$251:$N$340</definedName>
     <definedName name="任务奖励">基础规则!$F$41:$J$56</definedName>
     <definedName name="任务奖励配置">数据记录!$O$49:$P$55</definedName>
     <definedName name="任务配置格式">数据记录!$B$49:$R$68</definedName>
     <definedName name="任务配置数值">数据记录!$C$50:$K$54</definedName>
     <definedName name="任务项奖励的图标无tips显示">UI逻辑!$F$140</definedName>
     <definedName name="任务项内容格式">UI逻辑!$F$104:$M$125</definedName>
-    <definedName name="任务项内容刷新规则">UI逻辑!$F$196:$L$198</definedName>
+    <definedName name="任务项内容刷新规则">UI逻辑!$F$198:$L$200</definedName>
     <definedName name="三星">数据记录!$L$52:$N$53</definedName>
     <definedName name="时间">数据记录!$J$50:$K$52</definedName>
     <definedName name="时效性">基础规则!$F$68:$I$70</definedName>
     <definedName name="时效性配置需要有始有终_即需要配置起始点与终止点">基础规则!$H$71:$M$71</definedName>
     <definedName name="是否可跳过">数据记录!$D$23:$D$24</definedName>
     <definedName name="体力">数据记录!$D$70:$S$71</definedName>
-    <definedName name="跳过按钮">UI逻辑!$E$303:$L$310</definedName>
+    <definedName name="跳过按钮">UI逻辑!$E$305:$L$312</definedName>
     <definedName name="通关限制">基础规则!$F$80:$I$83</definedName>
-    <definedName name="显示格式为">UI逻辑!$F$225:$G$227</definedName>
-    <definedName name="已完成的任务_显示在对应分页的上方_多个已完成任务按照任务编号由小至大顺序从上至下显示">UI逻辑!$F$190:$N$190</definedName>
+    <definedName name="显示格式为">UI逻辑!$F$227:$G$229</definedName>
+    <definedName name="已完成的任务_显示在对应分页的上方_多个已完成任务按照任务编号由小至大顺序从上至下显示">UI逻辑!$F$192:$N$192</definedName>
     <definedName name="最多显示为4行_根据显示行数上下居中显示">UI逻辑!$F$137:$K$138</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -479,7 +480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="796">
   <si>
     <t>文档名称</t>
   </si>
@@ -4046,6 +4047,26 @@
   </si>
   <si>
     <t>去掉任务界面中没有任务时的提示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>月卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>card</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务目标增加“月卡”类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买了月卡且月卡在有效期内</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4221,7 +4242,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4243,6 +4264,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4271,7 +4298,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4445,6 +4472,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4479,13 +4515,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>203</xdr:row>
+      <xdr:row>205</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>304169</xdr:colOff>
-      <xdr:row>213</xdr:row>
+      <xdr:row>215</xdr:row>
       <xdr:rowOff>37837</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6559,13 +6595,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>203</xdr:row>
+      <xdr:row>205</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>205</xdr:row>
+      <xdr:row>207</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6619,13 +6655,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>494985</xdr:colOff>
-      <xdr:row>201</xdr:row>
+      <xdr:row>203</xdr:row>
       <xdr:rowOff>176751</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>203</xdr:row>
+      <xdr:row>205</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6671,7 +6707,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>201</xdr:row>
+      <xdr:row>203</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="334451"/>
@@ -6736,13 +6772,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>205</xdr:row>
+      <xdr:row>207</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>209</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6796,13 +6832,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>204</xdr:row>
+      <xdr:row>206</xdr:row>
       <xdr:rowOff>205326</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>206</xdr:row>
+      <xdr:row>208</xdr:row>
       <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6849,7 +6885,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>204</xdr:row>
+      <xdr:row>206</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="748923" cy="334451"/>
@@ -6914,13 +6950,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>209</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>211</xdr:row>
+      <xdr:row>213</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6974,13 +7010,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>209</xdr:row>
       <xdr:rowOff>62451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>209</xdr:row>
+      <xdr:row>211</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7027,7 +7063,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>206</xdr:row>
+      <xdr:row>208</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="748923" cy="334451"/>
@@ -7092,13 +7128,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>211</xdr:row>
+      <xdr:row>213</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>419101</xdr:colOff>
-      <xdr:row>212</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7152,13 +7188,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>419101</xdr:colOff>
-      <xdr:row>212</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>52926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>212</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7205,7 +7241,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>211</xdr:row>
+      <xdr:row>213</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="748923" cy="334451"/>
@@ -7270,13 +7306,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>14689</xdr:colOff>
-      <xdr:row>254</xdr:row>
+      <xdr:row>256</xdr:row>
       <xdr:rowOff>56229</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>94105</xdr:colOff>
-      <xdr:row>264</xdr:row>
+      <xdr:row>266</xdr:row>
       <xdr:rowOff>123235</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7308,13 +7344,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>266</xdr:row>
+      <xdr:row>268</xdr:row>
       <xdr:rowOff>32013</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>84581</xdr:colOff>
-      <xdr:row>276</xdr:row>
+      <xdr:row>278</xdr:row>
       <xdr:rowOff>94660</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7728,13 +7764,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>242</xdr:row>
+      <xdr:row>244</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>594361</xdr:colOff>
-      <xdr:row>242</xdr:row>
+      <xdr:row>244</xdr:row>
       <xdr:rowOff>188976</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7772,13 +7808,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>243</xdr:row>
+      <xdr:row>245</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>594361</xdr:colOff>
-      <xdr:row>243</xdr:row>
+      <xdr:row>245</xdr:row>
       <xdr:rowOff>188976</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7816,13 +7852,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>298</xdr:row>
+      <xdr:row>300</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>259050</xdr:colOff>
-      <xdr:row>298</xdr:row>
+      <xdr:row>300</xdr:row>
       <xdr:rowOff>199050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7860,13 +7896,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>254</xdr:row>
+      <xdr:row>256</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>255</xdr:row>
+      <xdr:row>257</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7930,13 +7966,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>266</xdr:row>
+      <xdr:row>268</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>267</xdr:row>
+      <xdr:row>269</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8000,13 +8036,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>305</xdr:row>
+      <xdr:row>307</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>305</xdr:row>
+      <xdr:row>307</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8087,13 +8123,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>304</xdr:row>
+      <xdr:row>306</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>305</xdr:row>
+      <xdr:row>307</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8940,8 +8976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="N59" sqref="M59:N59"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="N56" sqref="N56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -9920,12 +9956,18 @@
     <row r="57" spans="1:14" s="62" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
       <c r="B57" s="63"/>
-      <c r="C57" s="7"/>
+      <c r="C57" s="7">
+        <v>42263</v>
+      </c>
       <c r="D57" s="5"/>
       <c r="E57" s="9"/>
       <c r="F57" s="5"/>
-      <c r="G57" s="63"/>
-      <c r="H57" s="65"/>
+      <c r="G57" s="63" t="s">
+        <v>793</v>
+      </c>
+      <c r="H57" s="65" t="s">
+        <v>794</v>
+      </c>
       <c r="I57" s="63"/>
       <c r="J57" s="63"/>
       <c r="K57" s="8"/>
@@ -10119,6 +10161,7 @@
     <hyperlink ref="H53" location="显示格式为" display="调整奖励领取界面任务名称排布样式"/>
     <hyperlink ref="H54" location="剧情对话以通关成功为判定标准_通关后不再播放_未通关再次进入该副本还会播放剧情对话" display="补充剧情对话的触发条件"/>
     <hyperlink ref="H55" location="其中对局结束的剧情对话如果副本未通关则不播放_成功通关才播放结束的剧情对话" display="副本结束剧情对话触发条件补充"/>
+    <hyperlink ref="H57" location="操作类" display="任务目标增加“月卡”类型"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10254,10 +10297,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N354"/>
+  <dimension ref="A1:N356"/>
   <sheetViews>
-    <sheetView topLeftCell="C178" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S195" sqref="S195"/>
+    <sheetView topLeftCell="C166" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F183" sqref="F183:I184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -11839,46 +11882,32 @@
       <c r="K182" s="33"/>
       <c r="L182" s="33"/>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A183" s="30" t="s">
+    <row r="183" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C183" s="49"/>
+      <c r="F183" s="56"/>
+      <c r="G183" s="56"/>
+      <c r="H183" s="56"/>
+      <c r="I183" s="56"/>
+      <c r="J183" s="56"/>
+      <c r="K183" s="56"/>
+      <c r="L183" s="56"/>
+    </row>
+    <row r="184" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C184" s="49"/>
+      <c r="F184" s="56"/>
+      <c r="G184" s="56"/>
+      <c r="H184" s="56"/>
+      <c r="I184" s="56"/>
+      <c r="J184" s="56"/>
+      <c r="K184" s="56"/>
+      <c r="L184" s="56"/>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A185" s="30" t="s">
         <v>402</v>
       </c>
-      <c r="F183" s="33" t="s">
+      <c r="F185" s="33" t="s">
         <v>496</v>
-      </c>
-      <c r="G183" s="33"/>
-      <c r="H183" s="33"/>
-      <c r="I183" s="33"/>
-      <c r="J183" s="33"/>
-      <c r="K183" s="33"/>
-      <c r="L183" s="33"/>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A184" s="32" t="s">
-        <v>497</v>
-      </c>
-      <c r="B184" s="30" t="s">
-        <v>421</v>
-      </c>
-      <c r="F184" s="33"/>
-      <c r="G184" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="H184" s="33"/>
-      <c r="I184" s="33"/>
-      <c r="J184" s="33"/>
-      <c r="K184" s="33"/>
-      <c r="L184" s="33"/>
-      <c r="M184" s="26" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B185" s="32" t="s">
-        <v>436</v>
-      </c>
-      <c r="F185" s="33" t="s">
-        <v>54</v>
       </c>
       <c r="G185" s="33"/>
       <c r="H185" s="33"/>
@@ -11888,19 +11917,32 @@
       <c r="L185" s="33"/>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A186" s="32" t="s">
+        <v>497</v>
+      </c>
+      <c r="B186" s="30" t="s">
+        <v>421</v>
+      </c>
       <c r="F186" s="33"/>
-      <c r="G186" s="33"/>
+      <c r="G186" s="33" t="s">
+        <v>56</v>
+      </c>
       <c r="H186" s="33"/>
       <c r="I186" s="33"/>
       <c r="J186" s="33"/>
       <c r="K186" s="33"/>
       <c r="L186" s="33"/>
+      <c r="M186" s="26" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="E187" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F187" s="33"/>
+      <c r="B187" s="32" t="s">
+        <v>436</v>
+      </c>
+      <c r="F187" s="33" t="s">
+        <v>54</v>
+      </c>
       <c r="G187" s="33"/>
       <c r="H187" s="33"/>
       <c r="I187" s="33"/>
@@ -11909,15 +11951,7 @@
       <c r="L187" s="33"/>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A188" s="30" t="s">
-        <v>403</v>
-      </c>
-      <c r="B188" s="32" t="s">
-        <v>499</v>
-      </c>
-      <c r="F188" s="33" t="s">
-        <v>178</v>
-      </c>
+      <c r="F188" s="33"/>
       <c r="G188" s="33"/>
       <c r="H188" s="33"/>
       <c r="I188" s="33"/>
@@ -11925,17 +11959,11 @@
       <c r="K188" s="33"/>
       <c r="L188" s="33"/>
     </row>
-    <row r="189" spans="1:13" ht="33" x14ac:dyDescent="0.15">
-      <c r="A189" s="31" t="s">
-        <v>404</v>
-      </c>
-      <c r="B189" s="32" t="s">
-        <v>525</v>
-      </c>
-      <c r="E189" s="33"/>
-      <c r="F189" s="33" t="s">
-        <v>179</v>
-      </c>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="E189" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F189" s="33"/>
       <c r="G189" s="33"/>
       <c r="H189" s="33"/>
       <c r="I189" s="33"/>
@@ -11943,189 +11971,198 @@
       <c r="K189" s="33"/>
       <c r="L189" s="33"/>
     </row>
-    <row r="190" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A190" s="31"/>
-      <c r="B190" s="50"/>
-      <c r="C190" s="49"/>
-      <c r="E190" s="56"/>
-      <c r="F190" s="56" t="s">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A190" s="30" t="s">
+        <v>403</v>
+      </c>
+      <c r="B190" s="32" t="s">
+        <v>499</v>
+      </c>
+      <c r="F190" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="G190" s="33"/>
+      <c r="H190" s="33"/>
+      <c r="I190" s="33"/>
+      <c r="J190" s="33"/>
+      <c r="K190" s="33"/>
+      <c r="L190" s="33"/>
+    </row>
+    <row r="191" spans="1:13" ht="33" x14ac:dyDescent="0.15">
+      <c r="A191" s="31" t="s">
+        <v>404</v>
+      </c>
+      <c r="B191" s="32" t="s">
+        <v>525</v>
+      </c>
+      <c r="E191" s="33"/>
+      <c r="F191" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="G191" s="33"/>
+      <c r="H191" s="33"/>
+      <c r="I191" s="33"/>
+      <c r="J191" s="33"/>
+      <c r="K191" s="33"/>
+      <c r="L191" s="33"/>
+    </row>
+    <row r="192" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A192" s="31"/>
+      <c r="B192" s="50"/>
+      <c r="C192" s="49"/>
+      <c r="E192" s="56"/>
+      <c r="F192" s="56" t="s">
         <v>658</v>
       </c>
-      <c r="G190" s="56"/>
-      <c r="H190" s="56"/>
-      <c r="I190" s="56"/>
-      <c r="J190" s="56"/>
-      <c r="K190" s="56"/>
-      <c r="L190" s="56"/>
-    </row>
-    <row r="191" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A191" s="31"/>
-      <c r="B191" s="50"/>
-      <c r="C191" s="49"/>
-      <c r="E191" s="56"/>
-      <c r="F191" s="56"/>
-      <c r="G191" s="56"/>
-      <c r="H191" s="56"/>
-      <c r="I191" s="56"/>
-      <c r="J191" s="56"/>
-      <c r="K191" s="56"/>
-      <c r="L191" s="56"/>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="E192" s="33"/>
-      <c r="F192" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="G192" s="33"/>
-      <c r="H192" s="33"/>
-      <c r="I192" s="33"/>
-      <c r="J192" s="33"/>
-      <c r="K192" s="33"/>
-      <c r="L192" s="33"/>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A193" s="30" t="s">
-        <v>405</v>
-      </c>
-      <c r="E193" s="33"/>
-      <c r="F193" s="33" t="s">
-        <v>500</v>
-      </c>
-      <c r="G193" s="33"/>
-      <c r="H193" s="33"/>
-      <c r="I193" s="33"/>
-      <c r="J193" s="33"/>
-      <c r="K193" s="33"/>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A194" s="32" t="s">
-        <v>497</v>
-      </c>
+      <c r="G192" s="56"/>
+      <c r="H192" s="56"/>
+      <c r="I192" s="56"/>
+      <c r="J192" s="56"/>
+      <c r="K192" s="56"/>
+      <c r="L192" s="56"/>
+    </row>
+    <row r="193" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A193" s="31"/>
+      <c r="B193" s="50"/>
+      <c r="C193" s="49"/>
+      <c r="E193" s="56"/>
+      <c r="F193" s="56"/>
+      <c r="G193" s="56"/>
+      <c r="H193" s="56"/>
+      <c r="I193" s="56"/>
+      <c r="J193" s="56"/>
+      <c r="K193" s="56"/>
+      <c r="L193" s="56"/>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.15">
       <c r="E194" s="33"/>
       <c r="F194" s="33" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="G194" s="33"/>
       <c r="H194" s="33"/>
       <c r="I194" s="33"/>
       <c r="J194" s="33"/>
       <c r="K194" s="33"/>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L194" s="33"/>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A195" s="30" t="s">
+        <v>405</v>
+      </c>
       <c r="E195" s="33"/>
-      <c r="F195" s="33"/>
+      <c r="F195" s="33" t="s">
+        <v>500</v>
+      </c>
       <c r="G195" s="33"/>
       <c r="H195" s="33"/>
       <c r="I195" s="33"/>
       <c r="J195" s="33"/>
       <c r="K195" s="33"/>
     </row>
-    <row r="196" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C196" s="49"/>
-      <c r="E196" s="56"/>
-      <c r="F196" s="56" t="s">
-        <v>656</v>
-      </c>
-      <c r="G196" s="56"/>
-      <c r="H196" s="56"/>
-      <c r="I196" s="56"/>
-      <c r="J196" s="56"/>
-      <c r="K196" s="56"/>
-    </row>
-    <row r="197" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C197" s="49"/>
-      <c r="E197" s="56"/>
-      <c r="F197" s="56"/>
-      <c r="G197" s="56" t="s">
-        <v>655</v>
-      </c>
-      <c r="H197" s="56"/>
-      <c r="I197" s="56"/>
-      <c r="J197" s="56"/>
-      <c r="K197" s="56"/>
-    </row>
-    <row r="198" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A196" s="32" t="s">
+        <v>497</v>
+      </c>
+      <c r="E196" s="33"/>
+      <c r="F196" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="G196" s="33"/>
+      <c r="H196" s="33"/>
+      <c r="I196" s="33"/>
+      <c r="J196" s="33"/>
+      <c r="K196" s="33"/>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="E197" s="33"/>
+      <c r="F197" s="33"/>
+      <c r="G197" s="33"/>
+      <c r="H197" s="33"/>
+      <c r="I197" s="33"/>
+      <c r="J197" s="33"/>
+      <c r="K197" s="33"/>
+    </row>
+    <row r="198" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C198" s="49"/>
       <c r="E198" s="56"/>
-      <c r="F198" s="56"/>
-      <c r="G198" s="56" t="s">
-        <v>657</v>
-      </c>
+      <c r="F198" s="56" t="s">
+        <v>656</v>
+      </c>
+      <c r="G198" s="56"/>
       <c r="H198" s="56"/>
       <c r="I198" s="56"/>
       <c r="J198" s="56"/>
       <c r="K198" s="56"/>
     </row>
-    <row r="199" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C199" s="49"/>
       <c r="E199" s="56"/>
       <c r="F199" s="56"/>
       <c r="G199" s="56" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="H199" s="56"/>
       <c r="I199" s="56"/>
       <c r="J199" s="56"/>
       <c r="K199" s="56"/>
     </row>
-    <row r="200" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C200" s="49"/>
       <c r="E200" s="56"/>
       <c r="F200" s="56"/>
-      <c r="G200" s="56"/>
+      <c r="G200" s="56" t="s">
+        <v>657</v>
+      </c>
       <c r="H200" s="56"/>
       <c r="I200" s="56"/>
       <c r="J200" s="56"/>
       <c r="K200" s="56"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C202" s="11" t="s">
+    <row r="201" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C201" s="49"/>
+      <c r="E201" s="56"/>
+      <c r="F201" s="56"/>
+      <c r="G201" s="56" t="s">
+        <v>666</v>
+      </c>
+      <c r="H201" s="56"/>
+      <c r="I201" s="56"/>
+      <c r="J201" s="56"/>
+      <c r="K201" s="56"/>
+    </row>
+    <row r="202" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C202" s="49"/>
+      <c r="E202" s="56"/>
+      <c r="F202" s="56"/>
+      <c r="G202" s="56"/>
+      <c r="H202" s="56"/>
+      <c r="I202" s="56"/>
+      <c r="J202" s="56"/>
+      <c r="K202" s="56"/>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C204" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="D203" s="1" t="s">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="D205" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="214" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B214" s="29" t="s">
+    <row r="216" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B216" s="29" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="215" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B215" s="32" t="s">
+    <row r="217" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B217" s="32" t="s">
         <v>486</v>
       </c>
-      <c r="D215" s="33"/>
-      <c r="E215" s="33" t="s">
-        <v>501</v>
-      </c>
-      <c r="F215" s="33"/>
-      <c r="G215" s="33"/>
-      <c r="H215" s="33"/>
-      <c r="I215" s="33"/>
-      <c r="J215" s="33"/>
-      <c r="K215" s="33"/>
-      <c r="L215" s="33"/>
-    </row>
-    <row r="216" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="D216" s="33"/>
-      <c r="E216" s="33"/>
-      <c r="F216" s="33" t="s">
-        <v>502</v>
-      </c>
-      <c r="G216" s="33"/>
-      <c r="H216" s="33"/>
-      <c r="I216" s="33"/>
-      <c r="J216" s="33"/>
-      <c r="K216" s="33"/>
-      <c r="L216" s="33"/>
-    </row>
-    <row r="217" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D217" s="33"/>
       <c r="E217" s="33" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F217" s="33"/>
       <c r="G217" s="33"/>
@@ -12139,7 +12176,7 @@
       <c r="D218" s="33"/>
       <c r="E218" s="33"/>
       <c r="F218" s="33" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G218" s="33"/>
       <c r="H218" s="33"/>
@@ -12151,7 +12188,7 @@
     <row r="219" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D219" s="33"/>
       <c r="E219" s="33" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
       <c r="F219" s="33"/>
       <c r="G219" s="33"/>
@@ -12165,11 +12202,9 @@
       <c r="D220" s="33"/>
       <c r="E220" s="33"/>
       <c r="F220" s="33" t="s">
-        <v>556</v>
-      </c>
-      <c r="G220" s="33" t="s">
-        <v>557</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="G220" s="33"/>
       <c r="H220" s="33"/>
       <c r="I220" s="33"/>
       <c r="J220" s="33"/>
@@ -12178,13 +12213,11 @@
     </row>
     <row r="221" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D221" s="33"/>
-      <c r="E221" s="33"/>
-      <c r="F221" s="33" t="s">
-        <v>560</v>
-      </c>
-      <c r="G221" s="33" t="s">
-        <v>558</v>
-      </c>
+      <c r="E221" s="33" t="s">
+        <v>452</v>
+      </c>
+      <c r="F221" s="33"/>
+      <c r="G221" s="33"/>
       <c r="H221" s="33"/>
       <c r="I221" s="33"/>
       <c r="J221" s="33"/>
@@ -12194,8 +12227,12 @@
     <row r="222" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D222" s="33"/>
       <c r="E222" s="33"/>
-      <c r="F222" s="33"/>
-      <c r="G222" s="33"/>
+      <c r="F222" s="33" t="s">
+        <v>556</v>
+      </c>
+      <c r="G222" s="33" t="s">
+        <v>557</v>
+      </c>
       <c r="H222" s="33"/>
       <c r="I222" s="33"/>
       <c r="J222" s="33"/>
@@ -12204,11 +12241,13 @@
     </row>
     <row r="223" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D223" s="33"/>
-      <c r="E223" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="F223" s="56"/>
-      <c r="G223" s="56"/>
+      <c r="E223" s="33"/>
+      <c r="F223" s="33" t="s">
+        <v>560</v>
+      </c>
+      <c r="G223" s="33" t="s">
+        <v>558</v>
+      </c>
       <c r="H223" s="33"/>
       <c r="I223" s="33"/>
       <c r="J223" s="33"/>
@@ -12218,10 +12257,8 @@
     <row r="224" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D224" s="33"/>
       <c r="E224" s="33"/>
-      <c r="F224" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="G224" s="56"/>
+      <c r="F224" s="33"/>
+      <c r="G224" s="33"/>
       <c r="H224" s="33"/>
       <c r="I224" s="33"/>
       <c r="J224" s="33"/>
@@ -12230,10 +12267,10 @@
     </row>
     <row r="225" spans="2:13" x14ac:dyDescent="0.15">
       <c r="D225" s="33"/>
-      <c r="E225" s="33"/>
-      <c r="F225" s="56" t="s">
-        <v>65</v>
-      </c>
+      <c r="E225" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="F225" s="56"/>
       <c r="G225" s="56"/>
       <c r="H225" s="33"/>
       <c r="I225" s="33"/>
@@ -12244,63 +12281,63 @@
     <row r="226" spans="2:13" x14ac:dyDescent="0.15">
       <c r="D226" s="33"/>
       <c r="E226" s="33"/>
-      <c r="F226" s="56"/>
-      <c r="G226" s="56" t="s">
-        <v>777</v>
-      </c>
+      <c r="F226" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="G226" s="56"/>
       <c r="H226" s="33"/>
       <c r="I226" s="33"/>
       <c r="J226" s="33"/>
       <c r="K226" s="33"/>
       <c r="L226" s="33"/>
     </row>
-    <row r="227" spans="2:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C227" s="49"/>
-      <c r="D227" s="56"/>
-      <c r="E227" s="56"/>
-      <c r="F227" s="56"/>
-      <c r="G227" s="56" t="s">
-        <v>778</v>
-      </c>
-      <c r="H227" s="56"/>
-      <c r="I227" s="56"/>
-      <c r="J227" s="56"/>
-      <c r="K227" s="56"/>
-      <c r="L227" s="56"/>
+    <row r="227" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="D227" s="33"/>
+      <c r="E227" s="33"/>
+      <c r="F227" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="G227" s="56"/>
+      <c r="H227" s="33"/>
+      <c r="I227" s="33"/>
+      <c r="J227" s="33"/>
+      <c r="K227" s="33"/>
+      <c r="L227" s="33"/>
     </row>
     <row r="228" spans="2:13" x14ac:dyDescent="0.15">
       <c r="D228" s="33"/>
-      <c r="E228" s="33" t="s">
-        <v>66</v>
-      </c>
+      <c r="E228" s="33"/>
       <c r="F228" s="56"/>
-      <c r="G228" s="56"/>
+      <c r="G228" s="56" t="s">
+        <v>777</v>
+      </c>
       <c r="H228" s="33"/>
       <c r="I228" s="33"/>
       <c r="J228" s="33"/>
       <c r="K228" s="33"/>
       <c r="L228" s="33"/>
     </row>
-    <row r="229" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D229" s="33"/>
-      <c r="E229" s="33"/>
-      <c r="F229" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="G229" s="56"/>
-      <c r="H229" s="33"/>
-      <c r="I229" s="33"/>
-      <c r="J229" s="33"/>
-      <c r="K229" s="33"/>
-      <c r="L229" s="33"/>
+    <row r="229" spans="2:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C229" s="49"/>
+      <c r="D229" s="56"/>
+      <c r="E229" s="56"/>
+      <c r="F229" s="56"/>
+      <c r="G229" s="56" t="s">
+        <v>778</v>
+      </c>
+      <c r="H229" s="56"/>
+      <c r="I229" s="56"/>
+      <c r="J229" s="56"/>
+      <c r="K229" s="56"/>
+      <c r="L229" s="56"/>
     </row>
     <row r="230" spans="2:13" x14ac:dyDescent="0.15">
       <c r="D230" s="33"/>
-      <c r="E230" s="33"/>
-      <c r="F230" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="G230" s="33"/>
+      <c r="E230" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F230" s="56"/>
+      <c r="G230" s="56"/>
       <c r="H230" s="33"/>
       <c r="I230" s="33"/>
       <c r="J230" s="33"/>
@@ -12310,10 +12347,10 @@
     <row r="231" spans="2:13" x14ac:dyDescent="0.15">
       <c r="D231" s="33"/>
       <c r="E231" s="33"/>
-      <c r="F231" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="G231" s="33"/>
+      <c r="F231" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="G231" s="56"/>
       <c r="H231" s="33"/>
       <c r="I231" s="33"/>
       <c r="J231" s="33"/>
@@ -12324,7 +12361,7 @@
       <c r="D232" s="33"/>
       <c r="E232" s="33"/>
       <c r="F232" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G232" s="33"/>
       <c r="H232" s="33"/>
@@ -12337,7 +12374,7 @@
       <c r="D233" s="33"/>
       <c r="E233" s="33"/>
       <c r="F233" s="33" t="s">
-        <v>567</v>
+        <v>41</v>
       </c>
       <c r="G233" s="33"/>
       <c r="H233" s="33"/>
@@ -12348,10 +12385,10 @@
     </row>
     <row r="234" spans="2:13" x14ac:dyDescent="0.15">
       <c r="D234" s="33"/>
-      <c r="E234" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="F234" s="33"/>
+      <c r="E234" s="33"/>
+      <c r="F234" s="33" t="s">
+        <v>69</v>
+      </c>
       <c r="G234" s="33"/>
       <c r="H234" s="33"/>
       <c r="I234" s="33"/>
@@ -12360,12 +12397,10 @@
       <c r="L234" s="33"/>
     </row>
     <row r="235" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B235" s="33"/>
-      <c r="C235" s="35"/>
       <c r="D235" s="33"/>
       <c r="E235" s="33"/>
       <c r="F235" s="33" t="s">
-        <v>71</v>
+        <v>567</v>
       </c>
       <c r="G235" s="33"/>
       <c r="H235" s="33"/>
@@ -12373,32 +12408,28 @@
       <c r="J235" s="33"/>
       <c r="K235" s="33"/>
       <c r="L235" s="33"/>
-      <c r="M235" s="33"/>
     </row>
     <row r="236" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B236" s="33"/>
-      <c r="C236" s="35"/>
       <c r="D236" s="33"/>
-      <c r="E236" s="33"/>
-      <c r="F236" s="33" t="s">
-        <v>72</v>
-      </c>
+      <c r="E236" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="F236" s="33"/>
       <c r="G236" s="33"/>
       <c r="H236" s="33"/>
       <c r="I236" s="33"/>
       <c r="J236" s="33"/>
       <c r="K236" s="33"/>
       <c r="L236" s="33"/>
-      <c r="M236" s="33"/>
     </row>
     <row r="237" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B237" s="33"/>
       <c r="C237" s="35"/>
       <c r="D237" s="33"/>
-      <c r="E237" s="33" t="s">
-        <v>570</v>
-      </c>
-      <c r="F237" s="33"/>
+      <c r="E237" s="33"/>
+      <c r="F237" s="33" t="s">
+        <v>71</v>
+      </c>
       <c r="G237" s="33"/>
       <c r="H237" s="33"/>
       <c r="I237" s="33"/>
@@ -12413,14 +12444,12 @@
       <c r="D238" s="33"/>
       <c r="E238" s="33"/>
       <c r="F238" s="33" t="s">
-        <v>439</v>
+        <v>72</v>
       </c>
       <c r="G238" s="33"/>
       <c r="H238" s="33"/>
       <c r="I238" s="33"/>
-      <c r="J238" s="33" t="s">
-        <v>445</v>
-      </c>
+      <c r="J238" s="33"/>
       <c r="K238" s="33"/>
       <c r="L238" s="33"/>
       <c r="M238" s="33"/>
@@ -12429,17 +12458,15 @@
       <c r="B239" s="33"/>
       <c r="C239" s="35"/>
       <c r="D239" s="33"/>
-      <c r="E239" s="33"/>
+      <c r="E239" s="33" t="s">
+        <v>570</v>
+      </c>
       <c r="F239" s="33"/>
-      <c r="G239" s="33" t="s">
-        <v>440</v>
-      </c>
+      <c r="G239" s="33"/>
       <c r="H239" s="33"/>
       <c r="I239" s="33"/>
       <c r="J239" s="33"/>
-      <c r="K239" s="33" t="s">
-        <v>507</v>
-      </c>
+      <c r="K239" s="33"/>
       <c r="L239" s="33"/>
       <c r="M239" s="33"/>
     </row>
@@ -12449,13 +12476,13 @@
       <c r="D240" s="33"/>
       <c r="E240" s="33"/>
       <c r="F240" s="33" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G240" s="33"/>
       <c r="H240" s="33"/>
       <c r="I240" s="33"/>
       <c r="J240" s="33" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="K240" s="33"/>
       <c r="L240" s="33"/>
@@ -12468,13 +12495,13 @@
       <c r="E241" s="33"/>
       <c r="F241" s="33"/>
       <c r="G241" s="33" t="s">
-        <v>506</v>
+        <v>440</v>
       </c>
       <c r="H241" s="33"/>
       <c r="I241" s="33"/>
       <c r="J241" s="33"/>
       <c r="K241" s="33" t="s">
-        <v>448</v>
+        <v>507</v>
       </c>
       <c r="L241" s="33"/>
       <c r="M241" s="33"/>
@@ -12485,13 +12512,13 @@
       <c r="D242" s="33"/>
       <c r="E242" s="33"/>
       <c r="F242" s="33" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G242" s="33"/>
       <c r="H242" s="33"/>
       <c r="I242" s="33"/>
       <c r="J242" s="33" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="K242" s="33"/>
       <c r="L242" s="33"/>
@@ -12504,13 +12531,13 @@
       <c r="E243" s="33"/>
       <c r="F243" s="33"/>
       <c r="G243" s="33" t="s">
-        <v>444</v>
+        <v>506</v>
       </c>
       <c r="H243" s="33"/>
       <c r="I243" s="33"/>
       <c r="J243" s="33"/>
       <c r="K243" s="33" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L243" s="33"/>
       <c r="M243" s="33"/>
@@ -12521,15 +12548,15 @@
       <c r="D244" s="33"/>
       <c r="E244" s="33"/>
       <c r="F244" s="33" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="G244" s="33"/>
       <c r="H244" s="33"/>
       <c r="I244" s="33"/>
-      <c r="J244" s="33"/>
-      <c r="K244" s="33" t="s">
-        <v>451</v>
-      </c>
+      <c r="J244" s="33" t="s">
+        <v>449</v>
+      </c>
+      <c r="K244" s="33"/>
       <c r="L244" s="33"/>
       <c r="M244" s="33"/>
     </row>
@@ -12540,12 +12567,14 @@
       <c r="E245" s="33"/>
       <c r="F245" s="33"/>
       <c r="G245" s="33" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H245" s="33"/>
       <c r="I245" s="33"/>
       <c r="J245" s="33"/>
-      <c r="K245" s="33"/>
+      <c r="K245" s="33" t="s">
+        <v>450</v>
+      </c>
       <c r="L245" s="33"/>
       <c r="M245" s="33"/>
     </row>
@@ -12555,13 +12584,15 @@
       <c r="D246" s="33"/>
       <c r="E246" s="33"/>
       <c r="F246" s="33" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G246" s="33"/>
       <c r="H246" s="33"/>
       <c r="I246" s="33"/>
       <c r="J246" s="33"/>
-      <c r="K246" s="33"/>
+      <c r="K246" s="33" t="s">
+        <v>451</v>
+      </c>
       <c r="L246" s="33"/>
       <c r="M246" s="33"/>
     </row>
@@ -12572,7 +12603,7 @@
       <c r="E247" s="33"/>
       <c r="F247" s="33"/>
       <c r="G247" s="33" t="s">
-        <v>505</v>
+        <v>446</v>
       </c>
       <c r="H247" s="33"/>
       <c r="I247" s="33"/>
@@ -12586,7 +12617,9 @@
       <c r="C248" s="35"/>
       <c r="D248" s="33"/>
       <c r="E248" s="33"/>
-      <c r="F248" s="33"/>
+      <c r="F248" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="G248" s="33"/>
       <c r="H248" s="33"/>
       <c r="I248" s="33"/>
@@ -12597,13 +12630,13 @@
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B249" s="33"/>
-      <c r="C249" s="35" t="s">
-        <v>263</v>
-      </c>
+      <c r="C249" s="35"/>
       <c r="D249" s="33"/>
       <c r="E249" s="33"/>
       <c r="F249" s="33"/>
-      <c r="G249" s="33"/>
+      <c r="G249" s="33" t="s">
+        <v>505</v>
+      </c>
       <c r="H249" s="33"/>
       <c r="I249" s="33"/>
       <c r="J249" s="33"/>
@@ -12612,14 +12645,9 @@
       <c r="M249" s="33"/>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A250" s="30" t="s">
-        <v>422</v>
-      </c>
       <c r="B250" s="33"/>
       <c r="C250" s="35"/>
-      <c r="D250" s="56" t="s">
-        <v>508</v>
-      </c>
+      <c r="D250" s="33"/>
       <c r="E250" s="33"/>
       <c r="F250" s="33"/>
       <c r="G250" s="33"/>
@@ -12630,31 +12658,30 @@
       <c r="L250" s="33"/>
       <c r="M250" s="33"/>
     </row>
-    <row r="251" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A251" s="55"/>
-      <c r="B251" s="56"/>
-      <c r="C251" s="57"/>
-      <c r="D251" s="56" t="s">
-        <v>598</v>
-      </c>
-      <c r="E251" s="56"/>
-      <c r="F251" s="56"/>
-      <c r="G251" s="56"/>
-      <c r="H251" s="56"/>
-      <c r="I251" s="56"/>
-      <c r="J251" s="56"/>
-      <c r="K251" s="56"/>
-      <c r="L251" s="56"/>
-      <c r="M251" s="56"/>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B251" s="33"/>
+      <c r="C251" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D251" s="33"/>
+      <c r="E251" s="33"/>
+      <c r="F251" s="33"/>
+      <c r="G251" s="33"/>
+      <c r="H251" s="33"/>
+      <c r="I251" s="33"/>
+      <c r="J251" s="33"/>
+      <c r="K251" s="33"/>
+      <c r="L251" s="33"/>
+      <c r="M251" s="33"/>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A252" s="32" t="s">
-        <v>509</v>
+      <c r="A252" s="30" t="s">
+        <v>422</v>
       </c>
       <c r="B252" s="33"/>
       <c r="C252" s="35"/>
       <c r="D252" s="56" t="s">
-        <v>264</v>
+        <v>508</v>
       </c>
       <c r="E252" s="33"/>
       <c r="F252" s="33"/>
@@ -12666,98 +12693,114 @@
       <c r="L252" s="33"/>
       <c r="M252" s="33"/>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="D253" s="1" t="s">
+    <row r="253" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A253" s="55"/>
+      <c r="B253" s="56"/>
+      <c r="C253" s="57"/>
+      <c r="D253" s="56" t="s">
+        <v>598</v>
+      </c>
+      <c r="E253" s="56"/>
+      <c r="F253" s="56"/>
+      <c r="G253" s="56"/>
+      <c r="H253" s="56"/>
+      <c r="I253" s="56"/>
+      <c r="J253" s="56"/>
+      <c r="K253" s="56"/>
+      <c r="L253" s="56"/>
+      <c r="M253" s="56"/>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A254" s="32" t="s">
+        <v>509</v>
+      </c>
+      <c r="B254" s="33"/>
+      <c r="C254" s="35"/>
+      <c r="D254" s="56" t="s">
+        <v>264</v>
+      </c>
+      <c r="E254" s="33"/>
+      <c r="F254" s="33"/>
+      <c r="G254" s="33"/>
+      <c r="H254" s="33"/>
+      <c r="I254" s="33"/>
+      <c r="J254" s="33"/>
+      <c r="K254" s="33"/>
+      <c r="L254" s="33"/>
+      <c r="M254" s="33"/>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D255" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="E254" s="1" t="s">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="E256" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A258" s="30" t="s">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A260" s="30" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A259" s="32" t="s">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A261" s="32" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E266" s="1" t="s">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E268" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A274" s="30" t="s">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A276" s="30" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A275" s="32" t="s">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A277" s="32" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="D278" s="1" t="s">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D280" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B280" s="29" t="s">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B282" s="29" t="s">
         <v>388</v>
       </c>
-      <c r="E280" s="1" t="s">
+      <c r="E282" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B281" s="32" t="s">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B283" s="32" t="s">
         <v>486</v>
       </c>
-      <c r="F281" s="1" t="s">
+      <c r="F283" s="1" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="E282" s="33"/>
-      <c r="F282" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="G282" s="33"/>
-      <c r="H282" s="33"/>
-      <c r="I282" s="33"/>
-      <c r="J282" s="33"/>
-    </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="E283" s="33"/>
-      <c r="F283" s="33" t="s">
-        <v>512</v>
-      </c>
-      <c r="G283" s="33"/>
-      <c r="H283" s="33"/>
-      <c r="I283" s="33"/>
-      <c r="J283" s="33"/>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E284" s="33"/>
-      <c r="F284" s="33"/>
-      <c r="G284" s="33" t="s">
-        <v>513</v>
-      </c>
+      <c r="F284" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="G284" s="33"/>
       <c r="H284" s="33"/>
       <c r="I284" s="33"/>
       <c r="J284" s="33"/>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E285" s="33"/>
-      <c r="F285" s="33"/>
-      <c r="G285" s="33" t="s">
-        <v>514</v>
-      </c>
+      <c r="F285" s="33" t="s">
+        <v>512</v>
+      </c>
+      <c r="G285" s="33"/>
       <c r="H285" s="33"/>
       <c r="I285" s="33"/>
       <c r="J285" s="33"/>
@@ -12765,114 +12808,108 @@
     <row r="286" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E286" s="33"/>
       <c r="F286" s="33"/>
-      <c r="G286" s="33"/>
+      <c r="G286" s="33" t="s">
+        <v>513</v>
+      </c>
       <c r="H286" s="33"/>
       <c r="I286" s="33"/>
       <c r="J286" s="33"/>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="E287" s="33" t="s">
-        <v>272</v>
-      </c>
+      <c r="E287" s="33"/>
       <c r="F287" s="33"/>
-      <c r="G287" s="33"/>
+      <c r="G287" s="33" t="s">
+        <v>514</v>
+      </c>
       <c r="H287" s="33"/>
       <c r="I287" s="33"/>
       <c r="J287" s="33"/>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E288" s="33"/>
-      <c r="F288" s="33" t="s">
-        <v>273</v>
-      </c>
+      <c r="F288" s="33"/>
       <c r="G288" s="33"/>
       <c r="H288" s="33"/>
       <c r="I288" s="33"/>
       <c r="J288" s="33"/>
     </row>
     <row r="289" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="F289" s="1" t="s">
+      <c r="E289" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="F289" s="33"/>
+      <c r="G289" s="33"/>
+      <c r="H289" s="33"/>
+      <c r="I289" s="33"/>
+      <c r="J289" s="33"/>
+    </row>
+    <row r="290" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E290" s="33"/>
+      <c r="F290" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="G290" s="33"/>
+      <c r="H290" s="33"/>
+      <c r="I290" s="33"/>
+      <c r="J290" s="33"/>
+    </row>
+    <row r="291" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="F291" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="290" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="F290" s="1" t="s">
+    <row r="292" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="F292" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="292" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="E292" s="1" t="s">
+    <row r="294" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E294" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="293" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="F293" s="1" t="s">
+    <row r="295" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="F295" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="294" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="F294" s="1" t="s">
+    <row r="296" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="F296" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="296" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B296" s="29" t="s">
+    <row r="298" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B298" s="29" t="s">
         <v>389</v>
       </c>
-      <c r="E296" s="1" t="s">
+      <c r="E298" s="1" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="297" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B297" s="32" t="s">
+    <row r="299" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B299" s="32" t="s">
         <v>486</v>
       </c>
-      <c r="F297" s="1" t="s">
+      <c r="F299" s="1" t="s">
         <v>279</v>
-      </c>
-    </row>
-    <row r="298" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="F298" s="1" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="300" spans="2:13" x14ac:dyDescent="0.15">
       <c r="F300" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="302" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="F302" s="1" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="301" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="E301" s="56"/>
-      <c r="F301" s="56"/>
-      <c r="G301" s="56" t="s">
+    <row r="303" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E303" s="56"/>
+      <c r="F303" s="56"/>
+      <c r="G303" s="56" t="s">
         <v>517</v>
       </c>
-      <c r="H301" s="56"/>
-      <c r="I301" s="56"/>
-      <c r="J301" s="56"/>
-      <c r="K301" s="56"/>
-      <c r="L301" s="56"/>
-      <c r="M301" s="56"/>
-    </row>
-    <row r="302" spans="2:13" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C302" s="49"/>
-      <c r="E302" s="56"/>
-      <c r="F302" s="56"/>
-      <c r="G302" s="56"/>
-      <c r="H302" s="56"/>
-      <c r="I302" s="56"/>
-      <c r="J302" s="56"/>
-      <c r="K302" s="56"/>
-      <c r="L302" s="56"/>
-      <c r="M302" s="56"/>
-    </row>
-    <row r="303" spans="2:13" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C303" s="49"/>
-      <c r="E303" s="56" t="s">
-        <v>610</v>
-      </c>
-      <c r="F303" s="56"/>
-      <c r="G303" s="56"/>
       <c r="H303" s="56"/>
       <c r="I303" s="56"/>
       <c r="J303" s="56"/>
@@ -12883,9 +12920,7 @@
     <row r="304" spans="2:13" s="51" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C304" s="49"/>
       <c r="E304" s="56"/>
-      <c r="F304" s="56" t="s">
-        <v>611</v>
-      </c>
+      <c r="F304" s="56"/>
       <c r="G304" s="56"/>
       <c r="H304" s="56"/>
       <c r="I304" s="56"/>
@@ -12896,16 +12931,14 @@
     </row>
     <row r="305" spans="3:13" s="51" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C305" s="49"/>
-      <c r="E305" s="56"/>
-      <c r="F305" s="56" t="s">
-        <v>612</v>
-      </c>
+      <c r="E305" s="56" t="s">
+        <v>610</v>
+      </c>
+      <c r="F305" s="56"/>
       <c r="G305" s="56"/>
       <c r="H305" s="56"/>
       <c r="I305" s="56"/>
-      <c r="J305" s="56" t="s">
-        <v>613</v>
-      </c>
+      <c r="J305" s="56"/>
       <c r="K305" s="56"/>
       <c r="L305" s="56"/>
       <c r="M305" s="56"/>
@@ -12913,7 +12946,9 @@
     <row r="306" spans="3:13" s="51" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C306" s="49"/>
       <c r="E306" s="56"/>
-      <c r="F306" s="56"/>
+      <c r="F306" s="56" t="s">
+        <v>611</v>
+      </c>
       <c r="G306" s="56"/>
       <c r="H306" s="56"/>
       <c r="I306" s="56"/>
@@ -12926,12 +12961,14 @@
       <c r="C307" s="49"/>
       <c r="E307" s="56"/>
       <c r="F307" s="56" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G307" s="56"/>
       <c r="H307" s="56"/>
       <c r="I307" s="56"/>
-      <c r="J307" s="56"/>
+      <c r="J307" s="56" t="s">
+        <v>613</v>
+      </c>
       <c r="K307" s="56"/>
       <c r="L307" s="56"/>
       <c r="M307" s="56"/>
@@ -12940,9 +12977,7 @@
       <c r="C308" s="49"/>
       <c r="E308" s="56"/>
       <c r="F308" s="56"/>
-      <c r="G308" s="56" t="s">
-        <v>615</v>
-      </c>
+      <c r="G308" s="56"/>
       <c r="H308" s="56"/>
       <c r="I308" s="56"/>
       <c r="J308" s="56"/>
@@ -12954,7 +12989,7 @@
       <c r="C309" s="49"/>
       <c r="E309" s="56"/>
       <c r="F309" s="56" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G309" s="56"/>
       <c r="H309" s="56"/>
@@ -12969,7 +13004,7 @@
       <c r="E310" s="56"/>
       <c r="F310" s="56"/>
       <c r="G310" s="56" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H310" s="56"/>
       <c r="I310" s="56"/>
@@ -12981,7 +13016,9 @@
     <row r="311" spans="3:13" s="51" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C311" s="49"/>
       <c r="E311" s="56"/>
-      <c r="F311" s="56"/>
+      <c r="F311" s="56" t="s">
+        <v>616</v>
+      </c>
       <c r="G311" s="56"/>
       <c r="H311" s="56"/>
       <c r="I311" s="56"/>
@@ -12990,13 +13027,13 @@
       <c r="L311" s="56"/>
       <c r="M311" s="56"/>
     </row>
-    <row r="312" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="D312" s="1" t="s">
-        <v>290</v>
-      </c>
+    <row r="312" spans="3:13" s="51" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C312" s="49"/>
       <c r="E312" s="56"/>
       <c r="F312" s="56"/>
-      <c r="G312" s="56"/>
+      <c r="G312" s="56" t="s">
+        <v>617</v>
+      </c>
       <c r="H312" s="56"/>
       <c r="I312" s="56"/>
       <c r="J312" s="56"/>
@@ -13004,10 +13041,9 @@
       <c r="L312" s="56"/>
       <c r="M312" s="56"/>
     </row>
-    <row r="313" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="E313" s="56" t="s">
-        <v>291</v>
-      </c>
+    <row r="313" spans="3:13" s="51" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C313" s="49"/>
+      <c r="E313" s="56"/>
       <c r="F313" s="56"/>
       <c r="G313" s="56"/>
       <c r="H313" s="56"/>
@@ -13017,13 +13053,12 @@
       <c r="L313" s="56"/>
       <c r="M313" s="56"/>
     </row>
-    <row r="314" spans="3:13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="E314" s="56" t="s">
-        <v>298</v>
-      </c>
-      <c r="F314" s="56" t="s">
-        <v>299</v>
-      </c>
+    <row r="314" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="D314" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E314" s="56"/>
+      <c r="F314" s="56"/>
       <c r="G314" s="56"/>
       <c r="H314" s="56"/>
       <c r="I314" s="56"/>
@@ -13032,13 +13067,11 @@
       <c r="L314" s="56"/>
       <c r="M314" s="56"/>
     </row>
-    <row r="315" spans="3:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="315" spans="3:13" x14ac:dyDescent="0.15">
       <c r="E315" s="56" t="s">
-        <v>300</v>
-      </c>
-      <c r="F315" s="56" t="s">
-        <v>301</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="F315" s="56"/>
       <c r="G315" s="56"/>
       <c r="H315" s="56"/>
       <c r="I315" s="56"/>
@@ -13047,11 +13080,12 @@
       <c r="L315" s="56"/>
       <c r="M315" s="56"/>
     </row>
-    <row r="316" spans="3:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C316" s="49"/>
-      <c r="E316" s="56"/>
+    <row r="316" spans="3:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E316" s="56" t="s">
+        <v>298</v>
+      </c>
       <c r="F316" s="56" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="G316" s="56"/>
       <c r="H316" s="56"/>
@@ -13061,11 +13095,13 @@
       <c r="L316" s="56"/>
       <c r="M316" s="56"/>
     </row>
-    <row r="317" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="317" spans="3:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="E317" s="56" t="s">
-        <v>772</v>
-      </c>
-      <c r="F317" s="56"/>
+        <v>300</v>
+      </c>
+      <c r="F317" s="56" t="s">
+        <v>301</v>
+      </c>
       <c r="G317" s="56"/>
       <c r="H317" s="56"/>
       <c r="I317" s="56"/>
@@ -13078,7 +13114,7 @@
       <c r="C318" s="49"/>
       <c r="E318" s="56"/>
       <c r="F318" s="56" t="s">
-        <v>773</v>
+        <v>292</v>
       </c>
       <c r="G318" s="56"/>
       <c r="H318" s="56"/>
@@ -13089,7 +13125,9 @@
       <c r="M318" s="56"/>
     </row>
     <row r="319" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="E319" s="56"/>
+      <c r="E319" s="56" t="s">
+        <v>772</v>
+      </c>
       <c r="F319" s="56"/>
       <c r="G319" s="56"/>
       <c r="H319" s="56"/>
@@ -13103,7 +13141,7 @@
       <c r="C320" s="49"/>
       <c r="E320" s="56"/>
       <c r="F320" s="56" t="s">
-        <v>293</v>
+        <v>773</v>
       </c>
       <c r="G320" s="56"/>
       <c r="H320" s="56"/>
@@ -13113,12 +13151,10 @@
       <c r="L320" s="56"/>
       <c r="M320" s="56"/>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="321" spans="3:13" x14ac:dyDescent="0.15">
       <c r="E321" s="56"/>
       <c r="F321" s="56"/>
-      <c r="G321" s="56" t="s">
-        <v>296</v>
-      </c>
+      <c r="G321" s="56"/>
       <c r="H321" s="56"/>
       <c r="I321" s="56"/>
       <c r="J321" s="56"/>
@@ -13126,11 +13162,11 @@
       <c r="L321" s="56"/>
       <c r="M321" s="56"/>
     </row>
-    <row r="322" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="322" spans="3:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C322" s="49"/>
       <c r="E322" s="56"/>
       <c r="F322" s="56" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G322" s="56"/>
       <c r="H322" s="56"/>
@@ -13140,11 +13176,11 @@
       <c r="L322" s="56"/>
       <c r="M322" s="56"/>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="323" spans="3:13" x14ac:dyDescent="0.15">
       <c r="E323" s="56"/>
       <c r="F323" s="56"/>
       <c r="G323" s="56" t="s">
-        <v>769</v>
+        <v>296</v>
       </c>
       <c r="H323" s="56"/>
       <c r="I323" s="56"/>
@@ -13153,10 +13189,11 @@
       <c r="L323" s="56"/>
       <c r="M323" s="56"/>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="324" spans="3:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C324" s="49"/>
       <c r="E324" s="56"/>
       <c r="F324" s="56" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G324" s="56"/>
       <c r="H324" s="56"/>
@@ -13166,12 +13203,11 @@
       <c r="L324" s="56"/>
       <c r="M324" s="56"/>
     </row>
-    <row r="325" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C325" s="49"/>
+    <row r="325" spans="3:13" x14ac:dyDescent="0.15">
       <c r="E325" s="56"/>
       <c r="F325" s="56"/>
       <c r="G325" s="56" t="s">
-        <v>671</v>
+        <v>769</v>
       </c>
       <c r="H325" s="56"/>
       <c r="I325" s="56"/>
@@ -13180,13 +13216,12 @@
       <c r="L325" s="56"/>
       <c r="M325" s="56"/>
     </row>
-    <row r="326" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C326" s="49"/>
+    <row r="326" spans="3:13" x14ac:dyDescent="0.15">
       <c r="E326" s="56"/>
-      <c r="F326" s="56"/>
-      <c r="G326" s="56" t="s">
-        <v>672</v>
-      </c>
+      <c r="F326" s="56" t="s">
+        <v>295</v>
+      </c>
+      <c r="G326" s="56"/>
       <c r="H326" s="56"/>
       <c r="I326" s="56"/>
       <c r="J326" s="56"/>
@@ -13194,13 +13229,13 @@
       <c r="L326" s="56"/>
       <c r="M326" s="56"/>
     </row>
-    <row r="327" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="327" spans="3:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C327" s="49"/>
       <c r="E327" s="56"/>
-      <c r="F327" s="56" t="s">
-        <v>770</v>
-      </c>
-      <c r="G327" s="56"/>
+      <c r="F327" s="56"/>
+      <c r="G327" s="56" t="s">
+        <v>671</v>
+      </c>
       <c r="H327" s="56"/>
       <c r="I327" s="56"/>
       <c r="J327" s="56"/>
@@ -13208,12 +13243,12 @@
       <c r="L327" s="56"/>
       <c r="M327" s="56"/>
     </row>
-    <row r="328" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="328" spans="3:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C328" s="49"/>
       <c r="E328" s="56"/>
       <c r="F328" s="56"/>
       <c r="G328" s="56" t="s">
-        <v>771</v>
+        <v>672</v>
       </c>
       <c r="H328" s="56"/>
       <c r="I328" s="56"/>
@@ -13222,13 +13257,13 @@
       <c r="L328" s="56"/>
       <c r="M328" s="56"/>
     </row>
-    <row r="329" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="329" spans="3:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C329" s="49"/>
       <c r="E329" s="56"/>
-      <c r="F329" s="56"/>
-      <c r="G329" s="56" t="s">
-        <v>774</v>
-      </c>
+      <c r="F329" s="56" t="s">
+        <v>770</v>
+      </c>
+      <c r="G329" s="56"/>
       <c r="H329" s="56"/>
       <c r="I329" s="56"/>
       <c r="J329" s="56"/>
@@ -13236,12 +13271,12 @@
       <c r="L329" s="56"/>
       <c r="M329" s="56"/>
     </row>
-    <row r="330" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="330" spans="3:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C330" s="49"/>
       <c r="E330" s="56"/>
       <c r="F330" s="56"/>
       <c r="G330" s="56" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="H330" s="56"/>
       <c r="I330" s="56"/>
@@ -13250,11 +13285,13 @@
       <c r="L330" s="56"/>
       <c r="M330" s="56"/>
     </row>
-    <row r="331" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="331" spans="3:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C331" s="49"/>
       <c r="E331" s="56"/>
       <c r="F331" s="56"/>
-      <c r="G331" s="56"/>
+      <c r="G331" s="56" t="s">
+        <v>774</v>
+      </c>
       <c r="H331" s="56"/>
       <c r="I331" s="56"/>
       <c r="J331" s="56"/>
@@ -13262,13 +13299,13 @@
       <c r="L331" s="56"/>
       <c r="M331" s="56"/>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="D332" s="1" t="s">
-        <v>281</v>
-      </c>
+    <row r="332" spans="3:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C332" s="49"/>
       <c r="E332" s="56"/>
       <c r="F332" s="56"/>
-      <c r="G332" s="56"/>
+      <c r="G332" s="56" t="s">
+        <v>775</v>
+      </c>
       <c r="H332" s="56"/>
       <c r="I332" s="56"/>
       <c r="J332" s="56"/>
@@ -13276,76 +13313,80 @@
       <c r="L332" s="56"/>
       <c r="M332" s="56"/>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="E333" s="1" t="s">
+    <row r="333" spans="3:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C333" s="49"/>
+      <c r="E333" s="56"/>
+      <c r="F333" s="56"/>
+      <c r="G333" s="56"/>
+      <c r="H333" s="56"/>
+      <c r="I333" s="56"/>
+      <c r="J333" s="56"/>
+      <c r="K333" s="56"/>
+      <c r="L333" s="56"/>
+      <c r="M333" s="56"/>
+    </row>
+    <row r="334" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="D334" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E334" s="56"/>
+      <c r="F334" s="56"/>
+      <c r="G334" s="56"/>
+      <c r="H334" s="56"/>
+      <c r="I334" s="56"/>
+      <c r="J334" s="56"/>
+      <c r="K334" s="56"/>
+      <c r="L334" s="56"/>
+      <c r="M334" s="56"/>
+    </row>
+    <row r="335" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="E335" s="1" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="E334" s="1" t="s">
+    <row r="336" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="E336" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="E335" s="1" t="s">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E337" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="336" spans="1:13" ht="33" x14ac:dyDescent="0.15">
-      <c r="A336" s="31" t="s">
+    <row r="338" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+      <c r="A338" s="31" t="s">
         <v>407</v>
       </c>
-      <c r="B336" s="32" t="s">
+      <c r="B338" s="32" t="s">
         <v>476</v>
       </c>
-      <c r="E336" s="56" t="s">
+      <c r="E338" s="56" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A337" s="32" t="s">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A339" s="32" t="s">
         <v>520</v>
       </c>
-      <c r="E337" s="53" t="s">
+      <c r="E339" s="53" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="F338" s="53" t="s">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F340" s="53" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D340" s="58"/>
-      <c r="E340" s="58"/>
-      <c r="F340" s="58"/>
-      <c r="G340" s="58"/>
-      <c r="H340" s="58"/>
-      <c r="I340" s="53"/>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D341" s="58"/>
-      <c r="E341" s="58"/>
-      <c r="F341" s="58"/>
-      <c r="G341" s="58"/>
-      <c r="H341" s="58"/>
-      <c r="I341" s="58"/>
-    </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B342" s="29" t="s">
-        <v>391</v>
-      </c>
       <c r="D342" s="58"/>
       <c r="E342" s="58"/>
       <c r="F342" s="58"/>
       <c r="G342" s="58"/>
       <c r="H342" s="58"/>
-      <c r="I342" s="58"/>
+      <c r="I342" s="53"/>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B343" s="32" t="s">
-        <v>522</v>
-      </c>
       <c r="D343" s="58"/>
       <c r="E343" s="58"/>
       <c r="F343" s="58"/>
@@ -13354,6 +13395,9 @@
       <c r="I343" s="58"/>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B344" s="29" t="s">
+        <v>391</v>
+      </c>
       <c r="D344" s="58"/>
       <c r="E344" s="58"/>
       <c r="F344" s="58"/>
@@ -13361,9 +13405,9 @@
       <c r="H344" s="58"/>
       <c r="I344" s="58"/>
     </row>
-    <row r="345" spans="1:9" ht="33" x14ac:dyDescent="0.15">
-      <c r="A345" s="31" t="s">
-        <v>408</v>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B345" s="32" t="s">
+        <v>522</v>
       </c>
       <c r="D345" s="58"/>
       <c r="E345" s="58"/>
@@ -13373,9 +13417,6 @@
       <c r="I345" s="58"/>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A346" s="39" t="s">
-        <v>521</v>
-      </c>
       <c r="D346" s="58"/>
       <c r="E346" s="58"/>
       <c r="F346" s="58"/>
@@ -13383,7 +13424,10 @@
       <c r="H346" s="58"/>
       <c r="I346" s="58"/>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+      <c r="A347" s="31" t="s">
+        <v>408</v>
+      </c>
       <c r="D347" s="58"/>
       <c r="E347" s="58"/>
       <c r="F347" s="58"/>
@@ -13392,8 +13436,8 @@
       <c r="I347" s="58"/>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B348" s="29" t="s">
-        <v>392</v>
+      <c r="A348" s="39" t="s">
+        <v>521</v>
       </c>
       <c r="D348" s="58"/>
       <c r="E348" s="58"/>
@@ -13403,9 +13447,6 @@
       <c r="I348" s="58"/>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B349" s="32" t="s">
-        <v>522</v>
-      </c>
       <c r="D349" s="58"/>
       <c r="E349" s="58"/>
       <c r="F349" s="58"/>
@@ -13414,6 +13455,9 @@
       <c r="I349" s="58"/>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B350" s="29" t="s">
+        <v>392</v>
+      </c>
       <c r="D350" s="58"/>
       <c r="E350" s="58"/>
       <c r="F350" s="58"/>
@@ -13421,26 +13465,45 @@
       <c r="H350" s="58"/>
       <c r="I350" s="58"/>
     </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B351" s="32" t="s">
+        <v>522</v>
+      </c>
+      <c r="D351" s="58"/>
+      <c r="E351" s="58"/>
+      <c r="F351" s="58"/>
+      <c r="G351" s="58"/>
+      <c r="H351" s="58"/>
+      <c r="I351" s="58"/>
+    </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B352" s="29" t="s">
+      <c r="D352" s="58"/>
+      <c r="E352" s="58"/>
+      <c r="F352" s="58"/>
+      <c r="G352" s="58"/>
+      <c r="H352" s="58"/>
+      <c r="I352" s="58"/>
+    </row>
+    <row r="354" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B354" s="29" t="s">
         <v>390</v>
       </c>
-      <c r="F352" s="32"/>
-    </row>
-    <row r="353" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B353" s="30" t="s">
+      <c r="F354" s="32"/>
+    </row>
+    <row r="355" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B355" s="30" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="354" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B354" s="32" t="s">
+    <row r="356" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B356" s="32" t="s">
         <v>523</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M184" location="立即前往按钮相应规则" display="详见【基础规则】"/>
+    <hyperlink ref="M186" location="立即前往按钮相应规则" display="详见【基础规则】"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13450,10 +13513,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P165"/>
+  <dimension ref="A2:P167"/>
   <sheetViews>
-    <sheetView topLeftCell="C138" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J157" sqref="J157"/>
+    <sheetView tabSelected="1" topLeftCell="C133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E145" sqref="E145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -14794,7 +14857,7 @@
       <c r="D128" s="11"/>
       <c r="E128" s="56"/>
     </row>
-    <row r="129" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="129" spans="3:10" x14ac:dyDescent="0.15">
       <c r="D129" s="11"/>
       <c r="E129" s="56" t="s">
         <v>544</v>
@@ -14806,18 +14869,18 @@
         <v>362</v>
       </c>
     </row>
-    <row r="130" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="130" spans="3:10" x14ac:dyDescent="0.15">
       <c r="D130" s="11"/>
       <c r="E130" s="56"/>
       <c r="G130" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="131" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="131" spans="3:10" x14ac:dyDescent="0.15">
       <c r="D131" s="11"/>
       <c r="E131" s="56"/>
     </row>
-    <row r="132" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="132" spans="3:10" x14ac:dyDescent="0.15">
       <c r="D132" s="11"/>
       <c r="E132" s="56" t="s">
         <v>544</v>
@@ -14829,18 +14892,18 @@
         <v>363</v>
       </c>
     </row>
-    <row r="133" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="133" spans="3:10" x14ac:dyDescent="0.15">
       <c r="D133" s="11"/>
       <c r="E133" s="56"/>
       <c r="G133" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="134" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="134" spans="3:10" x14ac:dyDescent="0.15">
       <c r="D134" s="11"/>
       <c r="E134" s="56"/>
     </row>
-    <row r="135" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="135" spans="3:10" x14ac:dyDescent="0.15">
       <c r="D135" s="11"/>
       <c r="E135" s="56" t="s">
         <v>545</v>
@@ -14852,18 +14915,18 @@
         <v>364</v>
       </c>
     </row>
-    <row r="136" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="136" spans="3:10" x14ac:dyDescent="0.15">
       <c r="D136" s="11"/>
       <c r="E136" s="56"/>
       <c r="G136" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="137" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="137" spans="3:10" x14ac:dyDescent="0.15">
       <c r="D137" s="11"/>
       <c r="E137" s="56"/>
     </row>
-    <row r="138" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="138" spans="3:10" x14ac:dyDescent="0.15">
       <c r="D138" s="11"/>
       <c r="E138" s="56" t="s">
         <v>545</v>
@@ -14875,18 +14938,18 @@
         <v>365</v>
       </c>
     </row>
-    <row r="139" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="139" spans="3:10" x14ac:dyDescent="0.15">
       <c r="D139" s="11"/>
       <c r="E139" s="56"/>
       <c r="G139" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="140" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="140" spans="3:10" x14ac:dyDescent="0.15">
       <c r="D140" s="11"/>
       <c r="E140" s="56"/>
     </row>
-    <row r="141" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="141" spans="3:10" x14ac:dyDescent="0.15">
       <c r="D141" s="11"/>
       <c r="E141" s="56" t="s">
         <v>545</v>
@@ -14898,124 +14961,153 @@
         <v>366</v>
       </c>
     </row>
-    <row r="142" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="142" spans="3:10" x14ac:dyDescent="0.15">
       <c r="D142" s="11"/>
       <c r="E142" s="25"/>
       <c r="G142" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="143" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="143" spans="3:10" x14ac:dyDescent="0.15">
       <c r="D143" s="11"/>
       <c r="E143" s="25"/>
     </row>
-    <row r="144" spans="4:10" x14ac:dyDescent="0.15">
-      <c r="D144" s="11"/>
-      <c r="E144" s="25"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D145" s="11"/>
-      <c r="F145" s="18" t="s">
+    <row r="144" spans="3:10" s="62" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C144" s="49"/>
+      <c r="D144" s="49"/>
+      <c r="E144" s="71" t="s">
+        <v>545</v>
+      </c>
+      <c r="F144" s="72" t="s">
+        <v>791</v>
+      </c>
+      <c r="G144" s="72"/>
+      <c r="H144" s="72"/>
+      <c r="I144" s="72"/>
+      <c r="J144" s="72"/>
+    </row>
+    <row r="145" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C145" s="49"/>
+      <c r="D145" s="49"/>
+      <c r="E145" s="73"/>
+      <c r="F145" s="72"/>
+      <c r="G145" s="72" t="s">
+        <v>795</v>
+      </c>
+      <c r="H145" s="72"/>
+      <c r="I145" s="72"/>
+      <c r="J145" s="72" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C146" s="49"/>
+      <c r="D146" s="49"/>
+      <c r="E146" s="53"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D147" s="11"/>
+      <c r="F147" s="18" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D146" s="11"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D147" s="11"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C148" s="11" t="s">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D148" s="11"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D149" s="11"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C150" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="D148" s="11"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A149" s="30" t="s">
+      <c r="D150" s="11"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A151" s="30" t="s">
         <v>434</v>
       </c>
-      <c r="B149" s="29" t="s">
+      <c r="B151" s="29" t="s">
         <v>547</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="D151" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A150" s="32" t="s">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A152" s="32" t="s">
         <v>546</v>
       </c>
-      <c r="B150" s="32" t="s">
+      <c r="B152" s="32" t="s">
         <v>486</v>
       </c>
-      <c r="E150" s="1" t="s">
+      <c r="E152" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E151" s="1" t="s">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E153" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F152" s="1" t="s">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F154" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F153" s="1" t="s">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F155" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C154" s="1"/>
-      <c r="E154" s="1" t="s">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C156" s="1"/>
+      <c r="E156" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F155" s="1" t="s">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F157" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F156" s="1" t="s">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F158" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E157" s="1" t="s">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E159" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F158" s="1" t="s">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F160" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F159" s="1" t="s">
+    <row r="161" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="F161" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E160" s="1" t="s">
+    <row r="162" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E162" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="161" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E161" s="1" t="s">
+    <row r="163" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E163" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="162" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E162" s="1" t="s">
+    <row r="164" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E164" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="165" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E165" s="56" t="s">
+    <row r="167" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E167" s="56" t="s">
         <v>548</v>
       </c>
     </row>
@@ -15030,7 +15122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>

--- a/gd/任务系统/新版任务系统设计.xlsx
+++ b/gd/任务系统/新版任务系统设计.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26207"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\文档\gd\任务系统\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MichaelTong/Desktop/GameGiraffe SVN/gd/任务系统/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="20475" windowHeight="8055" activeTab="2"/>
+    <workbookView xWindow="5340" yWindow="640" windowWidth="33060" windowHeight="17780"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -28,51 +28,56 @@
     <definedName name="_5.任务对话界面需求">美术需求!$B$76:$L$87</definedName>
     <definedName name="difficulty">基础规则!$J$93:$J$141</definedName>
     <definedName name="NPC配置格式">数据记录!$B$40:$E$46</definedName>
-    <definedName name="操作类">基础规则!$E$144</definedName>
-    <definedName name="触发对话后其余背景蒙版蒙灰">UI逻辑!$D$253</definedName>
-    <definedName name="当完成任意任务后_自动接取该任务后一个任务_任务配置表中顺序">基础规则!$F$10:$K$11</definedName>
-    <definedName name="对话界面出现时_点击屏幕任意位置_除跳过按钮区域__均响应跳过当前对话界面_不响应点击位置的其他功能">UI逻辑!$E$335</definedName>
-    <definedName name="对话配置格式">数据记录!$B$22:$I$38</definedName>
-    <definedName name="对话相关">数据记录!$R$49:$R$53</definedName>
-    <definedName name="对话组ID">UI逻辑!$E$315:$G$332</definedName>
+    <definedName name="三星">数据记录!$L$52:$N$53</definedName>
+    <definedName name="任务出现为即时刷新_如果有前后连续关系的情况_则上一个消失后_下一个跟随刷出">UI逻辑!$G$201:$N$201</definedName>
+    <definedName name="任务奖励">基础规则!$F$41:$J$56</definedName>
+    <definedName name="任务奖励配置">数据记录!$O$49:$P$55</definedName>
+    <definedName name="任务对话相关">UI逻辑!$C$251:$N$340</definedName>
+    <definedName name="任务配置数值">数据记录!$C$50:$K$54</definedName>
+    <definedName name="任务配置格式">数据记录!$B$49:$R$68</definedName>
+    <definedName name="任务项内容刷新规则">UI逻辑!$F$198:$L$200</definedName>
+    <definedName name="任务项内容格式">UI逻辑!$F$104:$M$125</definedName>
+    <definedName name="任务项奖励的图标无tips显示">UI逻辑!$F$140</definedName>
+    <definedName name="体力">数据记录!$D$70:$S$71</definedName>
+    <definedName name="其中对局结束的剧情对话如果副本未通关则不播放_成功通关才播放结束的剧情对话">UI逻辑!$F$340</definedName>
+    <definedName name="内容固定_每个任务每天可以完成一次">任务类型!$D$24</definedName>
+    <definedName name="分页签开启规则">UI逻辑!$E$70:$J$74</definedName>
+    <definedName name="剧情对话以通关成功为判定标准_通关后不再播放_未通关再次进入该副本还会播放剧情对话">UI逻辑!$E$339</definedName>
     <definedName name="发言人名称">数据记录!$F$23:$G$29</definedName>
-    <definedName name="分页签开启规则">UI逻辑!$E$70:$J$74</definedName>
-    <definedName name="服务器拆分">需求拆分!$C$4:$D$12</definedName>
+    <definedName name="可循环类的任务次数重置点为自然周期结束的0点_即日循环任务为每天0点刷新次数_暂定0点_如游戏整体规划刷新时间为其他时间则统一变更">基础规则!$G$64</definedName>
+    <definedName name="名称">UI逻辑!$F$323:$M$325</definedName>
     <definedName name="奖励">数据记录!$O$50:$Q$52</definedName>
     <definedName name="奖励内容中的图标无tips显示">UI逻辑!$F$235</definedName>
     <definedName name="奖励配置">数据记录!$O$49:$Q$55</definedName>
-    <definedName name="金币">基础规则!$H$44:$P$58</definedName>
+    <definedName name="对话界面出现时_点击屏幕任意位置_除跳过按钮区域__均响应跳过当前对话界面_不响应点击位置的其他功能">UI逻辑!$E$335</definedName>
+    <definedName name="对话相关">数据记录!$R$49:$R$53</definedName>
+    <definedName name="对话组ID">UI逻辑!$E$315:$G$332</definedName>
+    <definedName name="对话配置格式">数据记录!$B$22:$I$38</definedName>
+    <definedName name="已完成的任务_显示在对应分页的上方_多个已完成任务按照任务编号由小至大顺序从上至下显示">UI逻辑!$F$192:$N$192</definedName>
+    <definedName name="当完成任意任务后_自动接取该任务后一个任务_任务配置表中顺序">基础规则!$F$10:$K$11</definedName>
+    <definedName name="操作类">基础规则!$E$144</definedName>
+    <definedName name="时效性">基础规则!$F$68:$I$70</definedName>
+    <definedName name="时效性配置需要有始有终_即需要配置起始点与终止点">基础规则!$H$71:$M$71</definedName>
+    <definedName name="时间">数据记录!$J$50:$K$52</definedName>
+    <definedName name="是否可跳过">数据记录!$D$23:$D$24</definedName>
+    <definedName name="显示格式为">UI逻辑!$F$227:$G$229</definedName>
+    <definedName name="最多显示为4行_根据显示行数上下居中显示">UI逻辑!$F$137:$K$138</definedName>
+    <definedName name="服务器拆分">需求拆分!$C$4:$D$12</definedName>
+    <definedName name="立即前往按钮相应规则">基础规则!$D$187</definedName>
     <definedName name="经验值最终结果X_reward表读取值_K_B">基础规则!$I$53:$L$53</definedName>
-    <definedName name="剧情对话以通关成功为判定标准_通关后不再播放_未通关再次进入该副本还会播放剧情对话">UI逻辑!$E$339</definedName>
-    <definedName name="可循环类的任务次数重置点为自然周期结束的0点_即日循环任务为每天0点刷新次数_暂定0点_如游戏整体规划刷新时间为其他时间则统一变更">基础规则!$G$64</definedName>
-    <definedName name="立即前往按钮相应规则">基础规则!$D$151</definedName>
-    <definedName name="名称">UI逻辑!$F$323:$M$325</definedName>
-    <definedName name="内容固定_每个任务每天可以完成一次">任务类型!$D$24</definedName>
+    <definedName name="触发对话后其余背景蒙版蒙灰">UI逻辑!$D$253</definedName>
+    <definedName name="跳过按钮">UI逻辑!$E$305:$L$312</definedName>
+    <definedName name="通关限制">基础规则!$F$80:$I$83</definedName>
     <definedName name="配置形式遵循道具配置规则_详细见【道具文档】">基础规则!$J$57</definedName>
     <definedName name="配置形式遵循道具配置规则_详细见道具文档">基础规则!$J$57</definedName>
-    <definedName name="其中对局结束的剧情对话如果副本未通关则不播放_成功通关才播放结束的剧情对话">UI逻辑!$F$340</definedName>
-    <definedName name="任务出现为即时刷新_如果有前后连续关系的情况_则上一个消失后_下一个跟随刷出">UI逻辑!$G$201:$N$201</definedName>
-    <definedName name="任务对话相关">UI逻辑!$C$251:$N$340</definedName>
-    <definedName name="任务奖励">基础规则!$F$41:$J$56</definedName>
-    <definedName name="任务奖励配置">数据记录!$O$49:$P$55</definedName>
-    <definedName name="任务配置格式">数据记录!$B$49:$R$68</definedName>
-    <definedName name="任务配置数值">数据记录!$C$50:$K$54</definedName>
-    <definedName name="任务项奖励的图标无tips显示">UI逻辑!$F$140</definedName>
-    <definedName name="任务项内容格式">UI逻辑!$F$104:$M$125</definedName>
-    <definedName name="任务项内容刷新规则">UI逻辑!$F$198:$L$200</definedName>
-    <definedName name="三星">数据记录!$L$52:$N$53</definedName>
-    <definedName name="时间">数据记录!$J$50:$K$52</definedName>
-    <definedName name="时效性">基础规则!$F$68:$I$70</definedName>
-    <definedName name="时效性配置需要有始有终_即需要配置起始点与终止点">基础规则!$H$71:$M$71</definedName>
-    <definedName name="是否可跳过">数据记录!$D$23:$D$24</definedName>
-    <definedName name="体力">数据记录!$D$70:$S$71</definedName>
-    <definedName name="跳过按钮">UI逻辑!$E$305:$L$312</definedName>
-    <definedName name="通关限制">基础规则!$F$80:$I$83</definedName>
-    <definedName name="显示格式为">UI逻辑!$F$227:$G$229</definedName>
-    <definedName name="已完成的任务_显示在对应分页的上方_多个已完成任务按照任务编号由小至大顺序从上至下显示">UI逻辑!$F$192:$N$192</definedName>
-    <definedName name="最多显示为4行_根据显示行数上下居中显示">UI逻辑!$F$137:$K$138</definedName>
+    <definedName name="金币">基础规则!$H$44:$P$58</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -83,7 +88,7 @@
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="D23" authorId="0" shapeId="0">
+    <comment ref="D23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -110,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C51" authorId="0" shapeId="0">
+    <comment ref="C51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -140,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D51" authorId="0" shapeId="0">
+    <comment ref="D51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -168,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E51" authorId="0" shapeId="0">
+    <comment ref="E51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -194,7 +199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F51" authorId="0" shapeId="0">
+    <comment ref="F51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -222,7 +227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G51" authorId="0" shapeId="0">
+    <comment ref="G51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -248,7 +253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I51" authorId="0" shapeId="0">
+    <comment ref="I51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -275,7 +280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J51" authorId="1" shapeId="0">
+    <comment ref="J51" authorId="1">
       <text>
         <r>
           <rPr>
@@ -301,7 +306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K51" authorId="1" shapeId="0">
+    <comment ref="K51" authorId="1">
       <text>
         <r>
           <rPr>
@@ -327,7 +332,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L51" authorId="0" shapeId="0">
+    <comment ref="L51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -370,7 +375,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M51" authorId="0" shapeId="0">
+    <comment ref="M51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -396,7 +401,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O51" authorId="0" shapeId="0">
+    <comment ref="O51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -423,7 +428,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P51" authorId="0" shapeId="0">
+    <comment ref="P51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -449,7 +454,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q51" authorId="0" shapeId="0">
+    <comment ref="Q51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -480,7 +485,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="815">
   <si>
     <t>文档名称</t>
   </si>
@@ -4069,6 +4074,63 @@
     <t>购买了月卡且月卡在有效期内</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>第一次充值</t>
+  </si>
+  <si>
+    <t>第一次使用现金购买游戏任何类型钻石和礼包</t>
+  </si>
+  <si>
+    <t>使用活力值若干数</t>
+  </si>
+  <si>
+    <t>宝石镶嵌</t>
+  </si>
+  <si>
+    <t>宝石合成</t>
+  </si>
+  <si>
+    <t>抽蛋相关</t>
+  </si>
+  <si>
+    <t>使用钻石抽蛋？</t>
+  </si>
+  <si>
+    <t>加入公会</t>
+  </si>
+  <si>
+    <t>通天塔</t>
+  </si>
+  <si>
+    <t>第一只升级到满级的怪</t>
+  </si>
+  <si>
+    <t>升级N个满级怪</t>
+  </si>
+  <si>
+    <t>商店购买</t>
+  </si>
+  <si>
+    <t>合成所有类型宝石</t>
+  </si>
+  <si>
+    <t>三星完成章节</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>增添部分完成条件</t>
+  </si>
+  <si>
+    <t>立绘逻辑需求增加</t>
+  </si>
+  <si>
+    <t>胖子</t>
+  </si>
+  <si>
+    <t>（未完成）</t>
+  </si>
 </sst>
 </file>
 
@@ -4078,7 +4140,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4086,7 +4148,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4100,7 +4162,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4108,7 +4170,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4143,7 +4205,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4158,7 +4220,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4224,13 +4286,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4298,7 +4360,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4481,13 +4543,20 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="常规 3" xfId="3"/>
     <cellStyle name="常规 4" xfId="1"/>
-    <cellStyle name="超链接" xfId="4" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -8688,7 +8757,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -8974,20 +9043,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N71"/>
+  <dimension ref="A1:N74"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="N56" sqref="N56"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="L60" sqref="L60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="8.83203125" style="1"/>
+    <col min="3" max="3" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -9004,7 +9073,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -9017,7 +9086,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -9034,7 +9103,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
@@ -9047,7 +9116,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -9064,7 +9133,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
@@ -9077,7 +9146,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -9092,7 +9161,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
@@ -9105,7 +9174,7 @@
       <c r="J8" s="4"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -9134,7 +9203,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
@@ -9147,7 +9216,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="4" t="s">
         <v>13</v>
@@ -9172,7 +9241,7 @@
       <c r="J11" s="4"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
         <v>196</v>
@@ -9195,7 +9264,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="7"/>
@@ -9210,7 +9279,7 @@
       <c r="J13" s="4"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="7"/>
@@ -9225,7 +9294,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="7"/>
@@ -9240,7 +9309,7 @@
       <c r="J15" s="4"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="7"/>
@@ -9255,7 +9324,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="7"/>
@@ -9270,7 +9339,7 @@
       <c r="J17" s="4"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="7"/>
@@ -9285,7 +9354,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="7"/>
@@ -9301,7 +9370,7 @@
       <c r="K19" s="8"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="7"/>
@@ -9317,7 +9386,7 @@
       <c r="K20" s="8"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="7"/>
@@ -9333,7 +9402,7 @@
       <c r="K21" s="8"/>
       <c r="L21" s="21"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
       <c r="C22" s="7"/>
@@ -9349,7 +9418,7 @@
       <c r="K22" s="8"/>
       <c r="L22" s="21"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="4" t="s">
         <v>339</v>
@@ -9373,7 +9442,7 @@
       <c r="K23" s="8"/>
       <c r="L23" s="21"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="4"/>
       <c r="C24" s="7"/>
@@ -9389,7 +9458,7 @@
       <c r="K24" s="8"/>
       <c r="L24" s="21"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
       <c r="C25" s="7"/>
@@ -9405,7 +9474,7 @@
       <c r="K25" s="8"/>
       <c r="L25" s="21"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
       <c r="C26" s="7"/>
@@ -9421,7 +9490,7 @@
       <c r="K26" s="8"/>
       <c r="L26" s="21"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
       <c r="C27" s="7"/>
@@ -9437,7 +9506,7 @@
       <c r="K27" s="8"/>
       <c r="L27" s="21"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="4" t="s">
         <v>562</v>
@@ -9461,7 +9530,7 @@
       <c r="K28" s="8"/>
       <c r="L28" s="21"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
       <c r="C29" s="7"/>
@@ -9477,7 +9546,7 @@
       <c r="K29" s="8"/>
       <c r="L29" s="21"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
       <c r="C30" s="7"/>
@@ -9493,7 +9562,7 @@
       <c r="K30" s="8"/>
       <c r="L30" s="21"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="4" t="s">
         <v>579</v>
@@ -9517,7 +9586,7 @@
       <c r="K31" s="8"/>
       <c r="L31" s="21"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
       <c r="C32" s="7"/>
@@ -9533,7 +9602,7 @@
       <c r="K32" s="8"/>
       <c r="L32" s="21"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
       <c r="C33" s="7"/>
@@ -9549,7 +9618,7 @@
       <c r="K33" s="8"/>
       <c r="L33" s="21"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="4"/>
       <c r="C34" s="7"/>
@@ -9565,7 +9634,7 @@
       <c r="K34" s="8"/>
       <c r="L34" s="21"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="4"/>
       <c r="C35" s="7"/>
@@ -9581,7 +9650,7 @@
       <c r="K35" s="8"/>
       <c r="L35" s="21"/>
     </row>
-    <row r="36" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="52"/>
       <c r="C36" s="7"/>
@@ -9597,7 +9666,7 @@
       <c r="K36" s="8"/>
       <c r="L36" s="21"/>
     </row>
-    <row r="37" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="52"/>
       <c r="C37" s="7"/>
@@ -9613,7 +9682,7 @@
       <c r="K37" s="8"/>
       <c r="L37" s="21"/>
     </row>
-    <row r="38" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="52"/>
       <c r="C38" s="7"/>
@@ -9629,7 +9698,7 @@
       <c r="K38" s="8"/>
       <c r="L38" s="21"/>
     </row>
-    <row r="39" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="52"/>
       <c r="C39" s="7"/>
@@ -9645,7 +9714,7 @@
       <c r="K39" s="8"/>
       <c r="L39" s="21"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="4"/>
       <c r="C40" s="7"/>
@@ -9661,7 +9730,7 @@
       <c r="K40" s="8"/>
       <c r="L40" s="21"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="4" t="s">
         <v>667</v>
@@ -9685,7 +9754,7 @@
       <c r="K41" s="8"/>
       <c r="L41" s="21"/>
     </row>
-    <row r="42" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="52"/>
       <c r="C42" s="7"/>
@@ -9701,7 +9770,7 @@
       <c r="K42" s="8"/>
       <c r="L42" s="21"/>
     </row>
-    <row r="43" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="52"/>
       <c r="C43" s="7"/>
@@ -9717,7 +9786,7 @@
       <c r="K43" s="8"/>
       <c r="L43" s="21"/>
     </row>
-    <row r="44" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="52"/>
       <c r="C44" s="7"/>
@@ -9733,7 +9802,7 @@
       <c r="K44" s="8"/>
       <c r="L44" s="21"/>
     </row>
-    <row r="45" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="52"/>
       <c r="C45" s="7"/>
@@ -9749,7 +9818,7 @@
       <c r="K45" s="8"/>
       <c r="L45" s="21"/>
     </row>
-    <row r="46" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="52"/>
       <c r="C46" s="7"/>
@@ -9765,7 +9834,7 @@
       <c r="K46" s="8"/>
       <c r="L46" s="21"/>
     </row>
-    <row r="47" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="52"/>
       <c r="C47" s="7"/>
@@ -9781,7 +9850,7 @@
       <c r="K47" s="8"/>
       <c r="L47" s="21"/>
     </row>
-    <row r="48" spans="1:12" s="62" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="63" t="s">
         <v>725</v>
@@ -9805,7 +9874,7 @@
       <c r="K48" s="8"/>
       <c r="L48" s="21"/>
     </row>
-    <row r="49" spans="1:14" s="62" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="63" t="s">
         <v>729</v>
@@ -9829,7 +9898,7 @@
       <c r="K49" s="8"/>
       <c r="L49" s="21"/>
     </row>
-    <row r="50" spans="1:14" s="62" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="63"/>
       <c r="C50" s="7"/>
@@ -9845,7 +9914,7 @@
       <c r="K50" s="8"/>
       <c r="L50" s="21"/>
     </row>
-    <row r="51" spans="1:14" s="62" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="63"/>
       <c r="C51" s="7"/>
@@ -9861,7 +9930,7 @@
       <c r="K51" s="8"/>
       <c r="L51" s="21"/>
     </row>
-    <row r="52" spans="1:14" s="62" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="63"/>
       <c r="C52" s="7"/>
@@ -9877,7 +9946,7 @@
       <c r="K52" s="8"/>
       <c r="L52" s="21"/>
     </row>
-    <row r="53" spans="1:14" s="62" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="63"/>
       <c r="C53" s="7"/>
@@ -9893,7 +9962,7 @@
       <c r="K53" s="8"/>
       <c r="L53" s="21"/>
     </row>
-    <row r="54" spans="1:14" s="62" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="63" t="s">
         <v>784</v>
@@ -9917,7 +9986,7 @@
       <c r="K54" s="8"/>
       <c r="L54" s="21"/>
     </row>
-    <row r="55" spans="1:14" s="62" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="63"/>
       <c r="C55" s="7"/>
@@ -9933,7 +10002,7 @@
       <c r="K55" s="8"/>
       <c r="L55" s="21"/>
     </row>
-    <row r="56" spans="1:14" s="62" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="63"/>
       <c r="C56" s="7">
@@ -9953,7 +10022,7 @@
       <c r="K56" s="8"/>
       <c r="L56" s="21"/>
     </row>
-    <row r="57" spans="1:14" s="62" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="63"/>
       <c r="C57" s="7">
@@ -9973,141 +10042,201 @@
       <c r="K57" s="8"/>
       <c r="L57" s="21"/>
     </row>
-    <row r="58" spans="1:14" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
-      <c r="B58" s="52"/>
+      <c r="B58" s="63"/>
       <c r="C58" s="7"/>
       <c r="D58" s="5"/>
       <c r="E58" s="9"/>
       <c r="F58" s="5"/>
-      <c r="G58" s="52"/>
-      <c r="H58" s="52"/>
-      <c r="I58" s="52"/>
-      <c r="J58" s="52"/>
+      <c r="G58" s="63"/>
+      <c r="H58" s="65"/>
+      <c r="I58" s="63"/>
+      <c r="J58" s="63"/>
       <c r="K58" s="8"/>
       <c r="L58" s="21"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
+    <row r="59" spans="1:12" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="7">
+        <v>42352</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="E59" s="9"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="63" t="s">
+        <v>810</v>
+      </c>
+      <c r="H59" s="65" t="s">
+        <v>811</v>
+      </c>
+      <c r="I59" s="63"/>
+      <c r="J59" s="63"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="76" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
+      <c r="B60" s="63"/>
+      <c r="C60" s="7">
+        <v>42353</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="E60" s="9"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="63" t="s">
+        <v>810</v>
+      </c>
+      <c r="H60" s="65" t="s">
+        <v>812</v>
+      </c>
+      <c r="I60" s="63"/>
+      <c r="J60" s="63"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="21"/>
+    </row>
+    <row r="61" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
+      <c r="B61" s="52"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="52"/>
+      <c r="I61" s="52"/>
+      <c r="J61" s="52"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="21"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B62" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C62" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D62" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="E62" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F59" s="5"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4" t="s">
+      <c r="F62" s="5"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="2"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B60" s="1" t="s">
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="2"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="C60" s="61">
+      <c r="C63" s="61">
         <v>42161</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="H60" s="26" t="s">
+      <c r="H63" s="26" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="H61" s="26" t="s">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H64" s="26" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="H62" s="26" t="s">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H65" s="26" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="H63" s="26" t="s">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H66" s="26" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="H64" s="26" t="s">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H67" s="26" t="s">
         <v>630</v>
       </c>
-      <c r="L64" s="1" t="s">
+      <c r="L67" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="N64" s="1" t="s">
+      <c r="N67" s="1" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="H65" s="26" t="s">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H68" s="26" t="s">
         <v>631</v>
       </c>
-      <c r="N65" s="1" t="s">
+      <c r="N68" s="1" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="54" t="s">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="54" t="s">
         <v>632</v>
       </c>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
-      <c r="L66" s="10"/>
-      <c r="N66" s="1" t="s">
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="10"/>
+      <c r="N69" s="1" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="H67" s="26" t="s">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H70" s="26" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="H68" s="26" t="s">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H71" s="26" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="H69" s="51" t="s">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H72" s="51" t="s">
         <v>635</v>
       </c>
-      <c r="L69" s="1" t="s">
+      <c r="L72" s="1" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="H70" s="26" t="s">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H73" s="26" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="H71" s="51"/>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H74" s="51"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -10138,16 +10267,16 @@
     <hyperlink ref="H38" location="是否可跳过" display="增加对话跳过的配置需求"/>
     <hyperlink ref="H39" location="分页签开启规则" display="补充分页签开启规则"/>
     <hyperlink ref="H40" location="_5.任务对话界面需求" display="补充跳过按钮美术需求"/>
-    <hyperlink ref="H60" location="当完成任意任务后_自动接取该任务后一个任务_任务配置表中顺序" display="任务组方式保留，刨除序号"/>
-    <hyperlink ref="H61" location="通关限制" display="接取条件是否需要通关副本"/>
-    <hyperlink ref="H62" location="对话配置格式" display="对话内容改为配置id"/>
-    <hyperlink ref="H63" location="NPC配置格式" display="对话相关NPC数据拆分"/>
-    <hyperlink ref="H65" location="奖励" display="任务奖励遵循通用配置方式"/>
-    <hyperlink ref="H66" location="时间" display="任务时效性配置拆开起止点"/>
-    <hyperlink ref="H67" location="对话界面出现时_点击屏幕任意位置_除跳过按钮区域__均响应跳过当前对话界面_不响应点击位置的其他功能" display="补充对话中下一步操作的响应范围"/>
-    <hyperlink ref="H68" location="任务项内容刷新规则" display="任务界面实时刷新"/>
-    <hyperlink ref="H70" location="已完成的任务_显示在对应分页的上方_多个已完成任务按照任务编号由小至大顺序从上至下显示" display="补充可完成的任务显示在上方的规则"/>
-    <hyperlink ref="H64" location="体力" display="时效性任务实现方法等待程序确认"/>
+    <hyperlink ref="H63" location="当完成任意任务后_自动接取该任务后一个任务_任务配置表中顺序" display="任务组方式保留，刨除序号"/>
+    <hyperlink ref="H64" location="通关限制" display="接取条件是否需要通关副本"/>
+    <hyperlink ref="H65" location="对话配置格式" display="对话内容改为配置id"/>
+    <hyperlink ref="H66" location="NPC配置格式" display="对话相关NPC数据拆分"/>
+    <hyperlink ref="H68" location="奖励" display="任务奖励遵循通用配置方式"/>
+    <hyperlink ref="H69" location="时间" display="任务时效性配置拆开起止点"/>
+    <hyperlink ref="H70" location="对话界面出现时_点击屏幕任意位置_除跳过按钮区域__均响应跳过当前对话界面_不响应点击位置的其他功能" display="补充对话中下一步操作的响应范围"/>
+    <hyperlink ref="H71" location="任务项内容刷新规则" display="任务界面实时刷新"/>
+    <hyperlink ref="H73" location="已完成的任务_显示在对应分页的上方_多个已完成任务按照任务编号由小至大顺序从上至下显示" display="补充可完成的任务显示在上方的规则"/>
+    <hyperlink ref="H67" location="体力" display="时效性任务实现方法等待程序确认"/>
     <hyperlink ref="H41" location="任务出现为即时刷新_如果有前后连续关系的情况_则上一个消失后_下一个跟随刷出" display="补充任务刷出为即时刷新"/>
     <hyperlink ref="H42" location="名称" display="完善对话配置格式"/>
     <hyperlink ref="H43" location="时效性配置需要有始有终_即需要配置起始点与终止点" display="完善时效性任务配置规则"/>
@@ -10176,17 +10305,17 @@
       <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="62"/>
+    <col min="1" max="16384" width="8.83203125" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="62" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="62">
         <v>1</v>
       </c>
@@ -10194,12 +10323,12 @@
         <v>737</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" s="62" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" s="62">
         <v>2</v>
       </c>
@@ -10207,7 +10336,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="62">
         <v>3</v>
       </c>
@@ -10215,7 +10344,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28" s="62">
         <v>4</v>
       </c>
@@ -10223,7 +10352,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B37" s="62">
         <v>5</v>
       </c>
@@ -10231,12 +10360,12 @@
         <v>742</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C54" s="62" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B56" s="62">
         <v>6</v>
       </c>
@@ -10244,12 +10373,12 @@
         <v>744</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C73" s="62" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B75" s="62">
         <v>7</v>
       </c>
@@ -10257,7 +10386,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B77" s="62">
         <v>8</v>
       </c>
@@ -10265,7 +10394,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B79" s="62">
         <v>9</v>
       </c>
@@ -10273,17 +10402,17 @@
         <v>748</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C80" s="62" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C81" s="62" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C82" s="62" t="s">
         <v>751</v>
       </c>
@@ -10299,19 +10428,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N356"/>
   <sheetViews>
-    <sheetView topLeftCell="C166" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F183" sqref="F183:I184"/>
+    <sheetView topLeftCell="C251" workbookViewId="0">
+      <selection activeCell="C255" sqref="A255:XFD259"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.625" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" style="1" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="1" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="11"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="8.83203125" style="11"/>
+    <col min="4" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="29" t="s">
         <v>382</v>
       </c>
@@ -10319,7 +10448,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
         <v>396</v>
       </c>
@@ -10330,22 +10459,22 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="29" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="32" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C32" s="35"/>
       <c r="D32" s="33" t="s">
         <v>437</v>
@@ -10353,7 +10482,7 @@
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
     </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C33" s="35"/>
       <c r="D33" s="33"/>
       <c r="E33" s="33" t="s">
@@ -10361,13 +10490,13 @@
       </c>
       <c r="F33" s="33"/>
     </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C34" s="35"/>
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
       <c r="F34" s="33"/>
     </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C35" s="35"/>
       <c r="D35" s="33" t="s">
         <v>27</v>
@@ -10375,12 +10504,12 @@
       <c r="E35" s="33"/>
       <c r="F35" s="33"/>
     </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:12" x14ac:dyDescent="0.2">
       <c r="E36" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C38" s="35"/>
       <c r="D38" s="33" t="s">
         <v>452</v>
@@ -10394,7 +10523,7 @@
       <c r="K38" s="33"/>
       <c r="L38" s="33"/>
     </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="39" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C39" s="35"/>
       <c r="D39" s="33"/>
       <c r="E39" s="33" t="s">
@@ -10410,7 +10539,7 @@
       <c r="K39" s="33"/>
       <c r="L39" s="33"/>
     </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="40" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C40" s="35"/>
       <c r="D40" s="33"/>
       <c r="E40" s="33" t="s">
@@ -10426,7 +10555,7 @@
       <c r="K40" s="33"/>
       <c r="L40" s="33"/>
     </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="41" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C41" s="35"/>
       <c r="D41" s="33"/>
       <c r="E41" s="33" t="s">
@@ -10442,7 +10571,7 @@
       <c r="K41" s="33"/>
       <c r="L41" s="33"/>
     </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="42" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C42" s="35"/>
       <c r="D42" s="33"/>
       <c r="E42" s="33"/>
@@ -10454,7 +10583,7 @@
       <c r="K42" s="33"/>
       <c r="L42" s="33"/>
     </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="43" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C43" s="35"/>
       <c r="D43" s="33" t="s">
         <v>29</v>
@@ -10468,7 +10597,7 @@
       <c r="K43" s="33"/>
       <c r="L43" s="33"/>
     </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="44" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C44" s="35"/>
       <c r="D44" s="33"/>
       <c r="E44" s="33" t="s">
@@ -10484,7 +10613,7 @@
       <c r="K44" s="33"/>
       <c r="L44" s="33"/>
     </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="45" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C45" s="35"/>
       <c r="D45" s="33"/>
       <c r="E45" s="33"/>
@@ -10500,7 +10629,7 @@
       <c r="K45" s="33"/>
       <c r="L45" s="33"/>
     </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="46" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C46" s="35"/>
       <c r="D46" s="33"/>
       <c r="E46" s="33" t="s">
@@ -10516,7 +10645,7 @@
       <c r="K46" s="33"/>
       <c r="L46" s="33"/>
     </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="47" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C47" s="35"/>
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
@@ -10532,7 +10661,7 @@
       <c r="K47" s="33"/>
       <c r="L47" s="33"/>
     </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="48" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C48" s="35"/>
       <c r="D48" s="33"/>
       <c r="E48" s="33" t="s">
@@ -10548,7 +10677,7 @@
       <c r="K48" s="33"/>
       <c r="L48" s="33"/>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="35"/>
       <c r="D49" s="33"/>
       <c r="E49" s="33"/>
@@ -10564,7 +10693,7 @@
       <c r="K49" s="33"/>
       <c r="L49" s="33"/>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="35"/>
       <c r="D50" s="33"/>
       <c r="E50" s="33" t="s">
@@ -10580,7 +10709,7 @@
       <c r="K50" s="33"/>
       <c r="L50" s="33"/>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="35"/>
       <c r="D51" s="33"/>
       <c r="E51" s="33"/>
@@ -10594,7 +10723,7 @@
       <c r="K51" s="33"/>
       <c r="L51" s="33"/>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="35"/>
       <c r="D52" s="33"/>
       <c r="E52" s="33" t="s">
@@ -10608,7 +10737,7 @@
       <c r="K52" s="33"/>
       <c r="L52" s="33"/>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="35"/>
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
@@ -10622,7 +10751,7 @@
       <c r="K53" s="33"/>
       <c r="L53" s="33"/>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="35"/>
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
@@ -10634,7 +10763,7 @@
       <c r="K54" s="33"/>
       <c r="L54" s="33"/>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="35"/>
       <c r="D55" s="33" t="s">
         <v>30</v>
@@ -10648,7 +10777,7 @@
       <c r="K55" s="33"/>
       <c r="L55" s="33"/>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="35"/>
       <c r="D56" s="33"/>
       <c r="E56" s="33" t="s">
@@ -10664,7 +10793,7 @@
       <c r="K56" s="33"/>
       <c r="L56" s="33"/>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="35"/>
       <c r="D57" s="33"/>
       <c r="E57" s="33"/>
@@ -10680,7 +10809,7 @@
       <c r="K57" s="33"/>
       <c r="L57" s="33"/>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="35"/>
       <c r="D58" s="33"/>
       <c r="E58" s="33" t="s">
@@ -10696,7 +10825,7 @@
       <c r="K58" s="33"/>
       <c r="L58" s="33"/>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="35"/>
       <c r="D59" s="33"/>
       <c r="E59" s="33"/>
@@ -10712,7 +10841,7 @@
       <c r="K59" s="33"/>
       <c r="L59" s="33"/>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="35"/>
       <c r="D60" s="33"/>
       <c r="E60" s="33" t="s">
@@ -10728,7 +10857,7 @@
       <c r="K60" s="33"/>
       <c r="L60" s="33"/>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="35"/>
       <c r="D61" s="33"/>
       <c r="E61" s="33"/>
@@ -10744,7 +10873,7 @@
       <c r="K61" s="33"/>
       <c r="L61" s="33"/>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="35"/>
       <c r="D62" s="33"/>
       <c r="E62" s="33" t="s">
@@ -10760,7 +10889,7 @@
       <c r="K62" s="33"/>
       <c r="L62" s="33"/>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="35"/>
       <c r="D63" s="33"/>
       <c r="E63" s="33"/>
@@ -10778,7 +10907,7 @@
       <c r="K63" s="33"/>
       <c r="L63" s="33"/>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="35"/>
       <c r="D64" s="33"/>
       <c r="E64" s="33"/>
@@ -10796,7 +10925,7 @@
       <c r="K64" s="33"/>
       <c r="L64" s="33"/>
     </row>
-    <row r="65" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="65" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C65" s="35"/>
       <c r="D65" s="33"/>
       <c r="E65" s="33" t="s">
@@ -10812,7 +10941,7 @@
       <c r="K65" s="33"/>
       <c r="L65" s="33"/>
     </row>
-    <row r="66" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="66" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C66" s="35"/>
       <c r="D66" s="33"/>
       <c r="E66" s="33"/>
@@ -10826,7 +10955,7 @@
       <c r="K66" s="33"/>
       <c r="L66" s="33"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C67" s="35"/>
       <c r="D67" s="33"/>
       <c r="E67" s="33"/>
@@ -10840,7 +10969,7 @@
       <c r="K67" s="33"/>
       <c r="L67" s="33"/>
     </row>
-    <row r="68" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="68" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C68" s="35"/>
       <c r="D68" s="33"/>
       <c r="E68" s="33"/>
@@ -10854,7 +10983,7 @@
       <c r="K68" s="33"/>
       <c r="L68" s="33"/>
     </row>
-    <row r="69" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="69" spans="3:12" x14ac:dyDescent="0.2">
       <c r="D69" s="25"/>
       <c r="E69" s="25"/>
       <c r="F69" s="25"/>
@@ -10865,7 +10994,7 @@
       <c r="K69" s="25"/>
       <c r="L69" s="25"/>
     </row>
-    <row r="70" spans="3:12" s="51" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="3:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C70" s="49"/>
       <c r="D70" s="53"/>
       <c r="E70" s="56" t="s">
@@ -10879,7 +11008,7 @@
       <c r="K70" s="53"/>
       <c r="L70" s="53"/>
     </row>
-    <row r="71" spans="3:12" s="51" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="3:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C71" s="49"/>
       <c r="D71" s="53"/>
       <c r="E71" s="56"/>
@@ -10893,7 +11022,7 @@
       <c r="K71" s="53"/>
       <c r="L71" s="53"/>
     </row>
-    <row r="72" spans="3:12" s="51" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="3:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C72" s="49"/>
       <c r="D72" s="53"/>
       <c r="E72" s="56"/>
@@ -10909,7 +11038,7 @@
       <c r="K72" s="53"/>
       <c r="L72" s="53"/>
     </row>
-    <row r="73" spans="3:12" s="51" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="3:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C73" s="49"/>
       <c r="D73" s="53"/>
       <c r="E73" s="56"/>
@@ -10927,7 +11056,7 @@
       <c r="K73" s="53"/>
       <c r="L73" s="53"/>
     </row>
-    <row r="74" spans="3:12" s="51" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="3:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C74" s="49"/>
       <c r="D74" s="53"/>
       <c r="E74" s="56"/>
@@ -10941,7 +11070,7 @@
       <c r="K74" s="53"/>
       <c r="L74" s="53"/>
     </row>
-    <row r="75" spans="3:12" s="51" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="3:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C75" s="49"/>
       <c r="D75" s="53"/>
       <c r="E75" s="56"/>
@@ -10953,12 +11082,12 @@
       <c r="K75" s="53"/>
       <c r="L75" s="53"/>
     </row>
-    <row r="76" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="76" spans="3:12" x14ac:dyDescent="0.2">
       <c r="D76" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="33" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A90" s="31" t="s">
         <v>397</v>
       </c>
@@ -10972,7 +11101,7 @@
       <c r="J90" s="33"/>
       <c r="K90" s="33"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="37" t="s">
         <v>573</v>
       </c>
@@ -10986,7 +11115,7 @@
       <c r="J91" s="33"/>
       <c r="K91" s="33"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="37"/>
       <c r="E92" s="33"/>
       <c r="F92" s="33" t="s">
@@ -10998,7 +11127,7 @@
       <c r="J92" s="33"/>
       <c r="K92" s="33"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E93" s="33" t="s">
         <v>34</v>
       </c>
@@ -11009,7 +11138,7 @@
       <c r="J93" s="33"/>
       <c r="K93" s="33"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="30" t="s">
         <v>398</v>
       </c>
@@ -11023,7 +11152,7 @@
       <c r="J94" s="33"/>
       <c r="K94" s="33"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="32" t="s">
         <v>575</v>
       </c>
@@ -11037,7 +11166,7 @@
       <c r="J95" s="33"/>
       <c r="K95" s="33"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E96" s="33" t="s">
         <v>36</v>
       </c>
@@ -11048,27 +11177,27 @@
       <c r="J96" s="33"/>
       <c r="K96" s="33"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F97" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F98" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F100" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F101" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" s="30" t="s">
         <v>399</v>
       </c>
@@ -11076,12 +11205,12 @@
         <v>215</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" s="32" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F104" s="33" t="s">
         <v>216</v>
       </c>
@@ -11093,7 +11222,7 @@
       <c r="L104" s="33"/>
       <c r="M104" s="33"/>
     </row>
-    <row r="105" spans="1:13" ht="33" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A105" s="31" t="s">
         <v>400</v>
       </c>
@@ -11108,7 +11237,7 @@
       <c r="L105" s="33"/>
       <c r="M105" s="33"/>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="34" t="s">
         <v>576</v>
       </c>
@@ -11123,7 +11252,7 @@
       <c r="L106" s="33"/>
       <c r="M106" s="33"/>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C107" s="49"/>
       <c r="D107" s="51"/>
       <c r="E107" s="51"/>
@@ -11140,7 +11269,7 @@
       <c r="L107" s="33"/>
       <c r="M107" s="33"/>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C108" s="49"/>
       <c r="D108" s="51"/>
       <c r="E108" s="51"/>
@@ -11157,7 +11286,7 @@
       <c r="L108" s="33"/>
       <c r="M108" s="33"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C109" s="49"/>
       <c r="D109" s="51"/>
       <c r="E109" s="51"/>
@@ -11174,7 +11303,7 @@
       <c r="L109" s="33"/>
       <c r="M109" s="33"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C110" s="49"/>
       <c r="D110" s="51"/>
       <c r="E110" s="51"/>
@@ -11191,7 +11320,7 @@
       <c r="L110" s="33"/>
       <c r="M110" s="33"/>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C111" s="49"/>
       <c r="D111" s="51"/>
       <c r="E111" s="51"/>
@@ -11206,7 +11335,7 @@
       <c r="L111" s="33"/>
       <c r="M111" s="33"/>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C112" s="49"/>
       <c r="D112" s="51"/>
       <c r="E112" s="51"/>
@@ -11223,7 +11352,7 @@
       <c r="L112" s="33"/>
       <c r="M112" s="33"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C113" s="49"/>
       <c r="D113" s="51"/>
       <c r="E113" s="51"/>
@@ -11240,7 +11369,7 @@
       <c r="L113" s="33"/>
       <c r="M113" s="33"/>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C114" s="49"/>
       <c r="D114" s="51"/>
       <c r="E114" s="51"/>
@@ -11255,7 +11384,7 @@
       <c r="L114" s="33"/>
       <c r="M114" s="33"/>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C115" s="49"/>
       <c r="D115" s="51"/>
       <c r="E115" s="51"/>
@@ -11272,7 +11401,7 @@
       <c r="L115" s="33"/>
       <c r="M115" s="33"/>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C116" s="49"/>
       <c r="D116" s="51"/>
       <c r="E116" s="51"/>
@@ -11287,7 +11416,7 @@
       <c r="L116" s="33"/>
       <c r="M116" s="33"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C117" s="49"/>
       <c r="D117" s="51"/>
       <c r="E117" s="51"/>
@@ -11304,7 +11433,7 @@
       <c r="L117" s="33"/>
       <c r="M117" s="33"/>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C118" s="49"/>
       <c r="D118" s="51"/>
       <c r="E118" s="51"/>
@@ -11319,7 +11448,7 @@
       <c r="L118" s="33"/>
       <c r="M118" s="33"/>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C119" s="49"/>
       <c r="D119" s="51"/>
       <c r="E119" s="51"/>
@@ -11336,7 +11465,7 @@
       <c r="L119" s="33"/>
       <c r="M119" s="33"/>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B120" s="29" t="s">
         <v>383</v>
       </c>
@@ -11354,7 +11483,7 @@
       <c r="L120" s="33"/>
       <c r="M120" s="33"/>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B121" s="32" t="s">
         <v>475</v>
       </c>
@@ -11374,7 +11503,7 @@
       <c r="L121" s="33"/>
       <c r="M121" s="33"/>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C122" s="49"/>
       <c r="D122" s="51"/>
       <c r="E122" s="51"/>
@@ -11389,7 +11518,7 @@
       <c r="L122" s="33"/>
       <c r="M122" s="33"/>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C123" s="49"/>
       <c r="D123" s="51"/>
       <c r="E123" s="51"/>
@@ -11406,7 +11535,7 @@
       <c r="L123" s="33"/>
       <c r="M123" s="33"/>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C124" s="49"/>
       <c r="D124" s="51"/>
       <c r="E124" s="51"/>
@@ -11422,7 +11551,7 @@
       <c r="M124" s="33"/>
       <c r="N124" s="33"/>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C125" s="49"/>
       <c r="D125" s="51"/>
       <c r="E125" s="51"/>
@@ -11440,7 +11569,7 @@
       <c r="M125" s="33"/>
       <c r="N125" s="33"/>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.2">
       <c r="F126" s="33"/>
       <c r="G126" s="33" t="s">
         <v>477</v>
@@ -11453,7 +11582,7 @@
       <c r="M126" s="33"/>
       <c r="N126" s="33"/>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.2">
       <c r="F127" s="33"/>
       <c r="G127" s="33"/>
       <c r="H127" s="33" t="s">
@@ -11468,7 +11597,7 @@
       <c r="M127" s="33"/>
       <c r="N127" s="33"/>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.2">
       <c r="F128" s="33"/>
       <c r="G128" s="33" t="s">
         <v>478</v>
@@ -11481,7 +11610,7 @@
       <c r="M128" s="33"/>
       <c r="N128" s="33"/>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F129" s="33"/>
       <c r="G129" s="33"/>
       <c r="H129" s="33" t="s">
@@ -11496,7 +11625,7 @@
       <c r="M129" s="33"/>
       <c r="N129" s="33"/>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B130" s="30" t="s">
         <v>416</v>
       </c>
@@ -11512,7 +11641,7 @@
       <c r="M130" s="33"/>
       <c r="N130" s="33"/>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B131" s="32" t="s">
         <v>486</v>
       </c>
@@ -11530,7 +11659,7 @@
       <c r="M131" s="33"/>
       <c r="N131" s="33"/>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B132" s="11"/>
       <c r="F132" s="33"/>
       <c r="G132" s="33"/>
@@ -11542,7 +11671,7 @@
       <c r="M132" s="33"/>
       <c r="N132" s="33"/>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E133" s="1" t="s">
         <v>38</v>
       </c>
@@ -11556,12 +11685,12 @@
       <c r="M133" s="33"/>
       <c r="N133" s="33"/>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F134" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E135" s="33"/>
       <c r="F135" s="33" t="s">
         <v>40</v>
@@ -11574,7 +11703,7 @@
       <c r="L135" s="33"/>
       <c r="M135" s="33"/>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E136" s="33"/>
       <c r="F136" s="33" t="s">
         <v>41</v>
@@ -11587,7 +11716,7 @@
       <c r="L136" s="33"/>
       <c r="M136" s="33"/>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E137" s="33"/>
       <c r="F137" s="33" t="s">
         <v>328</v>
@@ -11600,7 +11729,7 @@
       <c r="L137" s="33"/>
       <c r="M137" s="33"/>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" s="30" t="s">
         <v>401</v>
       </c>
@@ -11619,7 +11748,7 @@
       <c r="L138" s="33"/>
       <c r="M138" s="33"/>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" s="32" t="s">
         <v>487</v>
       </c>
@@ -11638,7 +11767,7 @@
       <c r="L139" s="33"/>
       <c r="M139" s="33"/>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" s="32"/>
       <c r="B140" s="32"/>
       <c r="E140" s="33"/>
@@ -11653,7 +11782,7 @@
       <c r="L140" s="33"/>
       <c r="M140" s="33"/>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" s="32"/>
       <c r="B141" s="32"/>
       <c r="E141" s="33"/>
@@ -11666,42 +11795,42 @@
       <c r="L141" s="33"/>
       <c r="M141" s="33"/>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F143" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="146" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B146" s="30" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="147" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B147" s="32" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="149" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F149" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="155" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F155" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F161" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E168" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F169" s="33" t="s">
         <v>57</v>
       </c>
@@ -11712,7 +11841,7 @@
       <c r="K169" s="33"/>
       <c r="L169" s="33"/>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F170" s="33" t="s">
         <v>211</v>
       </c>
@@ -11723,7 +11852,7 @@
       <c r="K170" s="33"/>
       <c r="L170" s="33"/>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F171" s="33" t="s">
         <v>46</v>
       </c>
@@ -11734,7 +11863,7 @@
       <c r="K171" s="33"/>
       <c r="L171" s="33"/>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" s="30" t="s">
         <v>418</v>
       </c>
@@ -11749,7 +11878,7 @@
       <c r="K172" s="33"/>
       <c r="L172" s="33"/>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" s="32" t="s">
         <v>492</v>
       </c>
@@ -11767,7 +11896,7 @@
       <c r="K173" s="33"/>
       <c r="L173" s="33"/>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" s="30" t="s">
         <v>419</v>
       </c>
@@ -11785,7 +11914,7 @@
       <c r="K174" s="33"/>
       <c r="L174" s="33"/>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" s="32" t="s">
         <v>493</v>
       </c>
@@ -11800,7 +11929,7 @@
       <c r="K175" s="33"/>
       <c r="L175" s="33"/>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" s="30" t="s">
         <v>420</v>
       </c>
@@ -11814,7 +11943,7 @@
       <c r="K176" s="33"/>
       <c r="L176" s="33"/>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177" s="32" t="s">
         <v>498</v>
       </c>
@@ -11828,7 +11957,7 @@
       <c r="K177" s="33"/>
       <c r="L177" s="33"/>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F178" s="33"/>
       <c r="G178" s="33"/>
       <c r="H178" s="33"/>
@@ -11837,7 +11966,7 @@
       <c r="K178" s="33"/>
       <c r="L178" s="33"/>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E179" s="1" t="s">
         <v>51</v>
       </c>
@@ -11849,7 +11978,7 @@
       <c r="K179" s="33"/>
       <c r="L179" s="33"/>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F180" s="33" t="s">
         <v>52</v>
       </c>
@@ -11860,7 +11989,7 @@
       <c r="K180" s="33"/>
       <c r="L180" s="33"/>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F181" s="33" t="s">
         <v>53</v>
       </c>
@@ -11871,7 +12000,7 @@
       <c r="K181" s="33"/>
       <c r="L181" s="33"/>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F182" s="33"/>
       <c r="G182" s="33" t="s">
         <v>55</v>
@@ -11882,7 +12011,7 @@
       <c r="K182" s="33"/>
       <c r="L182" s="33"/>
     </row>
-    <row r="183" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C183" s="49"/>
       <c r="F183" s="56"/>
       <c r="G183" s="56"/>
@@ -11892,7 +12021,7 @@
       <c r="K183" s="56"/>
       <c r="L183" s="56"/>
     </row>
-    <row r="184" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C184" s="49"/>
       <c r="F184" s="56"/>
       <c r="G184" s="56"/>
@@ -11902,7 +12031,7 @@
       <c r="K184" s="56"/>
       <c r="L184" s="56"/>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185" s="30" t="s">
         <v>402</v>
       </c>
@@ -11916,7 +12045,7 @@
       <c r="K185" s="33"/>
       <c r="L185" s="33"/>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186" s="32" t="s">
         <v>497</v>
       </c>
@@ -11936,7 +12065,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B187" s="32" t="s">
         <v>436</v>
       </c>
@@ -11950,7 +12079,7 @@
       <c r="K187" s="33"/>
       <c r="L187" s="33"/>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F188" s="33"/>
       <c r="G188" s="33"/>
       <c r="H188" s="33"/>
@@ -11959,7 +12088,7 @@
       <c r="K188" s="33"/>
       <c r="L188" s="33"/>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E189" s="1" t="s">
         <v>74</v>
       </c>
@@ -11971,7 +12100,7 @@
       <c r="K189" s="33"/>
       <c r="L189" s="33"/>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190" s="30" t="s">
         <v>403</v>
       </c>
@@ -11988,7 +12117,7 @@
       <c r="K190" s="33"/>
       <c r="L190" s="33"/>
     </row>
-    <row r="191" spans="1:13" ht="33" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A191" s="31" t="s">
         <v>404</v>
       </c>
@@ -12006,7 +12135,7 @@
       <c r="K191" s="33"/>
       <c r="L191" s="33"/>
     </row>
-    <row r="192" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="31"/>
       <c r="B192" s="50"/>
       <c r="C192" s="49"/>
@@ -12021,7 +12150,7 @@
       <c r="K192" s="56"/>
       <c r="L192" s="56"/>
     </row>
-    <row r="193" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="31"/>
       <c r="B193" s="50"/>
       <c r="C193" s="49"/>
@@ -12034,7 +12163,7 @@
       <c r="K193" s="56"/>
       <c r="L193" s="56"/>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E194" s="33"/>
       <c r="F194" s="33" t="s">
         <v>73</v>
@@ -12046,7 +12175,7 @@
       <c r="K194" s="33"/>
       <c r="L194" s="33"/>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" s="30" t="s">
         <v>405</v>
       </c>
@@ -12060,7 +12189,7 @@
       <c r="J195" s="33"/>
       <c r="K195" s="33"/>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" s="32" t="s">
         <v>497</v>
       </c>
@@ -12074,7 +12203,7 @@
       <c r="J196" s="33"/>
       <c r="K196" s="33"/>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E197" s="33"/>
       <c r="F197" s="33"/>
       <c r="G197" s="33"/>
@@ -12083,7 +12212,7 @@
       <c r="J197" s="33"/>
       <c r="K197" s="33"/>
     </row>
-    <row r="198" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C198" s="49"/>
       <c r="E198" s="56"/>
       <c r="F198" s="56" t="s">
@@ -12095,7 +12224,7 @@
       <c r="J198" s="56"/>
       <c r="K198" s="56"/>
     </row>
-    <row r="199" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C199" s="49"/>
       <c r="E199" s="56"/>
       <c r="F199" s="56"/>
@@ -12107,7 +12236,7 @@
       <c r="J199" s="56"/>
       <c r="K199" s="56"/>
     </row>
-    <row r="200" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C200" s="49"/>
       <c r="E200" s="56"/>
       <c r="F200" s="56"/>
@@ -12119,7 +12248,7 @@
       <c r="J200" s="56"/>
       <c r="K200" s="56"/>
     </row>
-    <row r="201" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C201" s="49"/>
       <c r="E201" s="56"/>
       <c r="F201" s="56"/>
@@ -12131,7 +12260,7 @@
       <c r="J201" s="56"/>
       <c r="K201" s="56"/>
     </row>
-    <row r="202" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C202" s="49"/>
       <c r="E202" s="56"/>
       <c r="F202" s="56"/>
@@ -12141,22 +12270,22 @@
       <c r="J202" s="56"/>
       <c r="K202" s="56"/>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C204" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D205" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="216" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="216" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B216" s="29" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="217" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="217" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B217" s="32" t="s">
         <v>486</v>
       </c>
@@ -12172,7 +12301,7 @@
       <c r="K217" s="33"/>
       <c r="L217" s="33"/>
     </row>
-    <row r="218" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="218" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D218" s="33"/>
       <c r="E218" s="33"/>
       <c r="F218" s="33" t="s">
@@ -12185,7 +12314,7 @@
       <c r="K218" s="33"/>
       <c r="L218" s="33"/>
     </row>
-    <row r="219" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="219" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D219" s="33"/>
       <c r="E219" s="33" t="s">
         <v>503</v>
@@ -12198,7 +12327,7 @@
       <c r="K219" s="33"/>
       <c r="L219" s="33"/>
     </row>
-    <row r="220" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="220" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D220" s="33"/>
       <c r="E220" s="33"/>
       <c r="F220" s="33" t="s">
@@ -12211,7 +12340,7 @@
       <c r="K220" s="33"/>
       <c r="L220" s="33"/>
     </row>
-    <row r="221" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="221" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D221" s="33"/>
       <c r="E221" s="33" t="s">
         <v>452</v>
@@ -12224,7 +12353,7 @@
       <c r="K221" s="33"/>
       <c r="L221" s="33"/>
     </row>
-    <row r="222" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="222" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D222" s="33"/>
       <c r="E222" s="33"/>
       <c r="F222" s="33" t="s">
@@ -12239,7 +12368,7 @@
       <c r="K222" s="33"/>
       <c r="L222" s="33"/>
     </row>
-    <row r="223" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="223" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D223" s="33"/>
       <c r="E223" s="33"/>
       <c r="F223" s="33" t="s">
@@ -12254,7 +12383,7 @@
       <c r="K223" s="33"/>
       <c r="L223" s="33"/>
     </row>
-    <row r="224" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="224" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D224" s="33"/>
       <c r="E224" s="33"/>
       <c r="F224" s="33"/>
@@ -12265,7 +12394,7 @@
       <c r="K224" s="33"/>
       <c r="L224" s="33"/>
     </row>
-    <row r="225" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="225" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D225" s="33"/>
       <c r="E225" s="33" t="s">
         <v>63</v>
@@ -12278,7 +12407,7 @@
       <c r="K225" s="33"/>
       <c r="L225" s="33"/>
     </row>
-    <row r="226" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="226" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D226" s="33"/>
       <c r="E226" s="33"/>
       <c r="F226" s="56" t="s">
@@ -12291,7 +12420,7 @@
       <c r="K226" s="33"/>
       <c r="L226" s="33"/>
     </row>
-    <row r="227" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="227" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D227" s="33"/>
       <c r="E227" s="33"/>
       <c r="F227" s="56" t="s">
@@ -12304,7 +12433,7 @@
       <c r="K227" s="33"/>
       <c r="L227" s="33"/>
     </row>
-    <row r="228" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="228" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D228" s="33"/>
       <c r="E228" s="33"/>
       <c r="F228" s="56"/>
@@ -12317,7 +12446,7 @@
       <c r="K228" s="33"/>
       <c r="L228" s="33"/>
     </row>
-    <row r="229" spans="2:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="2:13" s="62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C229" s="49"/>
       <c r="D229" s="56"/>
       <c r="E229" s="56"/>
@@ -12331,7 +12460,7 @@
       <c r="K229" s="56"/>
       <c r="L229" s="56"/>
     </row>
-    <row r="230" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="230" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D230" s="33"/>
       <c r="E230" s="33" t="s">
         <v>66</v>
@@ -12344,7 +12473,7 @@
       <c r="K230" s="33"/>
       <c r="L230" s="33"/>
     </row>
-    <row r="231" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="231" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D231" s="33"/>
       <c r="E231" s="33"/>
       <c r="F231" s="56" t="s">
@@ -12357,7 +12486,7 @@
       <c r="K231" s="33"/>
       <c r="L231" s="33"/>
     </row>
-    <row r="232" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="232" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D232" s="33"/>
       <c r="E232" s="33"/>
       <c r="F232" s="33" t="s">
@@ -12370,7 +12499,7 @@
       <c r="K232" s="33"/>
       <c r="L232" s="33"/>
     </row>
-    <row r="233" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="233" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D233" s="33"/>
       <c r="E233" s="33"/>
       <c r="F233" s="33" t="s">
@@ -12383,7 +12512,7 @@
       <c r="K233" s="33"/>
       <c r="L233" s="33"/>
     </row>
-    <row r="234" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="234" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D234" s="33"/>
       <c r="E234" s="33"/>
       <c r="F234" s="33" t="s">
@@ -12396,7 +12525,7 @@
       <c r="K234" s="33"/>
       <c r="L234" s="33"/>
     </row>
-    <row r="235" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="235" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D235" s="33"/>
       <c r="E235" s="33"/>
       <c r="F235" s="33" t="s">
@@ -12409,7 +12538,7 @@
       <c r="K235" s="33"/>
       <c r="L235" s="33"/>
     </row>
-    <row r="236" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="236" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D236" s="33"/>
       <c r="E236" s="33" t="s">
         <v>70</v>
@@ -12422,7 +12551,7 @@
       <c r="K236" s="33"/>
       <c r="L236" s="33"/>
     </row>
-    <row r="237" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="237" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B237" s="33"/>
       <c r="C237" s="35"/>
       <c r="D237" s="33"/>
@@ -12438,7 +12567,7 @@
       <c r="L237" s="33"/>
       <c r="M237" s="33"/>
     </row>
-    <row r="238" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="238" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B238" s="33"/>
       <c r="C238" s="35"/>
       <c r="D238" s="33"/>
@@ -12454,7 +12583,7 @@
       <c r="L238" s="33"/>
       <c r="M238" s="33"/>
     </row>
-    <row r="239" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="239" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B239" s="33"/>
       <c r="C239" s="35"/>
       <c r="D239" s="33"/>
@@ -12470,7 +12599,7 @@
       <c r="L239" s="33"/>
       <c r="M239" s="33"/>
     </row>
-    <row r="240" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="240" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B240" s="33"/>
       <c r="C240" s="35"/>
       <c r="D240" s="33"/>
@@ -12488,7 +12617,7 @@
       <c r="L240" s="33"/>
       <c r="M240" s="33"/>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B241" s="33"/>
       <c r="C241" s="35"/>
       <c r="D241" s="33"/>
@@ -12506,7 +12635,7 @@
       <c r="L241" s="33"/>
       <c r="M241" s="33"/>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B242" s="33"/>
       <c r="C242" s="35"/>
       <c r="D242" s="33"/>
@@ -12524,7 +12653,7 @@
       <c r="L242" s="33"/>
       <c r="M242" s="33"/>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B243" s="33"/>
       <c r="C243" s="35"/>
       <c r="D243" s="33"/>
@@ -12542,7 +12671,7 @@
       <c r="L243" s="33"/>
       <c r="M243" s="33"/>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B244" s="33"/>
       <c r="C244" s="35"/>
       <c r="D244" s="33"/>
@@ -12560,7 +12689,7 @@
       <c r="L244" s="33"/>
       <c r="M244" s="33"/>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B245" s="33"/>
       <c r="C245" s="35"/>
       <c r="D245" s="33"/>
@@ -12578,7 +12707,7 @@
       <c r="L245" s="33"/>
       <c r="M245" s="33"/>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B246" s="33"/>
       <c r="C246" s="35"/>
       <c r="D246" s="33"/>
@@ -12596,7 +12725,7 @@
       <c r="L246" s="33"/>
       <c r="M246" s="33"/>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B247" s="33"/>
       <c r="C247" s="35"/>
       <c r="D247" s="33"/>
@@ -12612,7 +12741,7 @@
       <c r="L247" s="33"/>
       <c r="M247" s="33"/>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B248" s="33"/>
       <c r="C248" s="35"/>
       <c r="D248" s="33"/>
@@ -12628,7 +12757,7 @@
       <c r="L248" s="33"/>
       <c r="M248" s="33"/>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B249" s="33"/>
       <c r="C249" s="35"/>
       <c r="D249" s="33"/>
@@ -12644,7 +12773,7 @@
       <c r="L249" s="33"/>
       <c r="M249" s="33"/>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B250" s="33"/>
       <c r="C250" s="35"/>
       <c r="D250" s="33"/>
@@ -12658,7 +12787,7 @@
       <c r="L250" s="33"/>
       <c r="M250" s="33"/>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B251" s="33"/>
       <c r="C251" s="35" t="s">
         <v>263</v>
@@ -12674,7 +12803,7 @@
       <c r="L251" s="33"/>
       <c r="M251" s="33"/>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A252" s="30" t="s">
         <v>422</v>
       </c>
@@ -12693,7 +12822,7 @@
       <c r="L252" s="33"/>
       <c r="M252" s="33"/>
     </row>
-    <row r="253" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A253" s="55"/>
       <c r="B253" s="56"/>
       <c r="C253" s="57"/>
@@ -12710,7 +12839,7 @@
       <c r="L253" s="56"/>
       <c r="M253" s="56"/>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A254" s="32" t="s">
         <v>509</v>
       </c>
@@ -12729,47 +12858,47 @@
       <c r="L254" s="33"/>
       <c r="M254" s="33"/>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D255" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E256" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="30" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="32" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E268" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276" s="30" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277" s="32" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D280" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B282" s="29" t="s">
         <v>388</v>
       </c>
@@ -12777,7 +12906,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B283" s="32" t="s">
         <v>486</v>
       </c>
@@ -12785,7 +12914,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E284" s="33"/>
       <c r="F284" s="33" t="s">
         <v>271</v>
@@ -12795,7 +12924,7 @@
       <c r="I284" s="33"/>
       <c r="J284" s="33"/>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E285" s="33"/>
       <c r="F285" s="33" t="s">
         <v>512</v>
@@ -12805,7 +12934,7 @@
       <c r="I285" s="33"/>
       <c r="J285" s="33"/>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E286" s="33"/>
       <c r="F286" s="33"/>
       <c r="G286" s="33" t="s">
@@ -12815,7 +12944,7 @@
       <c r="I286" s="33"/>
       <c r="J286" s="33"/>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E287" s="33"/>
       <c r="F287" s="33"/>
       <c r="G287" s="33" t="s">
@@ -12825,7 +12954,7 @@
       <c r="I287" s="33"/>
       <c r="J287" s="33"/>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E288" s="33"/>
       <c r="F288" s="33"/>
       <c r="G288" s="33"/>
@@ -12833,7 +12962,7 @@
       <c r="I288" s="33"/>
       <c r="J288" s="33"/>
     </row>
-    <row r="289" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="289" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E289" s="33" t="s">
         <v>272</v>
       </c>
@@ -12843,7 +12972,7 @@
       <c r="I289" s="33"/>
       <c r="J289" s="33"/>
     </row>
-    <row r="290" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="290" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E290" s="33"/>
       <c r="F290" s="33" t="s">
         <v>273</v>
@@ -12853,32 +12982,32 @@
       <c r="I290" s="33"/>
       <c r="J290" s="33"/>
     </row>
-    <row r="291" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="291" spans="2:13" x14ac:dyDescent="0.2">
       <c r="F291" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="292" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="292" spans="2:13" x14ac:dyDescent="0.2">
       <c r="F292" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="294" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="294" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E294" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="295" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="295" spans="2:13" x14ac:dyDescent="0.2">
       <c r="F295" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="296" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="296" spans="2:13" x14ac:dyDescent="0.2">
       <c r="F296" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="298" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="298" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B298" s="29" t="s">
         <v>389</v>
       </c>
@@ -12886,7 +13015,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="299" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="299" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B299" s="32" t="s">
         <v>486</v>
       </c>
@@ -12894,17 +13023,17 @@
         <v>279</v>
       </c>
     </row>
-    <row r="300" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="300" spans="2:13" x14ac:dyDescent="0.2">
       <c r="F300" s="1" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="302" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="302" spans="2:13" x14ac:dyDescent="0.2">
       <c r="F302" s="1" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="303" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="303" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E303" s="56"/>
       <c r="F303" s="56"/>
       <c r="G303" s="56" t="s">
@@ -12917,7 +13046,7 @@
       <c r="L303" s="56"/>
       <c r="M303" s="56"/>
     </row>
-    <row r="304" spans="2:13" s="51" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="304" spans="2:13" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C304" s="49"/>
       <c r="E304" s="56"/>
       <c r="F304" s="56"/>
@@ -12929,7 +13058,7 @@
       <c r="L304" s="56"/>
       <c r="M304" s="56"/>
     </row>
-    <row r="305" spans="3:13" s="51" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="305" spans="3:13" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C305" s="49"/>
       <c r="E305" s="56" t="s">
         <v>610</v>
@@ -12943,7 +13072,7 @@
       <c r="L305" s="56"/>
       <c r="M305" s="56"/>
     </row>
-    <row r="306" spans="3:13" s="51" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="306" spans="3:13" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C306" s="49"/>
       <c r="E306" s="56"/>
       <c r="F306" s="56" t="s">
@@ -12957,7 +13086,7 @@
       <c r="L306" s="56"/>
       <c r="M306" s="56"/>
     </row>
-    <row r="307" spans="3:13" s="51" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="307" spans="3:13" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C307" s="49"/>
       <c r="E307" s="56"/>
       <c r="F307" s="56" t="s">
@@ -12973,7 +13102,7 @@
       <c r="L307" s="56"/>
       <c r="M307" s="56"/>
     </row>
-    <row r="308" spans="3:13" s="51" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="308" spans="3:13" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C308" s="49"/>
       <c r="E308" s="56"/>
       <c r="F308" s="56"/>
@@ -12985,7 +13114,7 @@
       <c r="L308" s="56"/>
       <c r="M308" s="56"/>
     </row>
-    <row r="309" spans="3:13" s="51" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="309" spans="3:13" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C309" s="49"/>
       <c r="E309" s="56"/>
       <c r="F309" s="56" t="s">
@@ -12999,7 +13128,7 @@
       <c r="L309" s="56"/>
       <c r="M309" s="56"/>
     </row>
-    <row r="310" spans="3:13" s="51" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="310" spans="3:13" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C310" s="49"/>
       <c r="E310" s="56"/>
       <c r="F310" s="56"/>
@@ -13013,7 +13142,7 @@
       <c r="L310" s="56"/>
       <c r="M310" s="56"/>
     </row>
-    <row r="311" spans="3:13" s="51" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="311" spans="3:13" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C311" s="49"/>
       <c r="E311" s="56"/>
       <c r="F311" s="56" t="s">
@@ -13027,7 +13156,7 @@
       <c r="L311" s="56"/>
       <c r="M311" s="56"/>
     </row>
-    <row r="312" spans="3:13" s="51" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="312" spans="3:13" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C312" s="49"/>
       <c r="E312" s="56"/>
       <c r="F312" s="56"/>
@@ -13041,7 +13170,7 @@
       <c r="L312" s="56"/>
       <c r="M312" s="56"/>
     </row>
-    <row r="313" spans="3:13" s="51" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="313" spans="3:13" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C313" s="49"/>
       <c r="E313" s="56"/>
       <c r="F313" s="56"/>
@@ -13053,7 +13182,7 @@
       <c r="L313" s="56"/>
       <c r="M313" s="56"/>
     </row>
-    <row r="314" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="314" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D314" s="1" t="s">
         <v>290</v>
       </c>
@@ -13067,7 +13196,7 @@
       <c r="L314" s="56"/>
       <c r="M314" s="56"/>
     </row>
-    <row r="315" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="315" spans="3:13" x14ac:dyDescent="0.2">
       <c r="E315" s="56" t="s">
         <v>291</v>
       </c>
@@ -13080,7 +13209,7 @@
       <c r="L315" s="56"/>
       <c r="M315" s="56"/>
     </row>
-    <row r="316" spans="3:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="316" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="E316" s="56" t="s">
         <v>298</v>
       </c>
@@ -13095,7 +13224,7 @@
       <c r="L316" s="56"/>
       <c r="M316" s="56"/>
     </row>
-    <row r="317" spans="3:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="317" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="E317" s="56" t="s">
         <v>300</v>
       </c>
@@ -13110,7 +13239,7 @@
       <c r="L317" s="56"/>
       <c r="M317" s="56"/>
     </row>
-    <row r="318" spans="3:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="318" spans="3:13" s="62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C318" s="49"/>
       <c r="E318" s="56"/>
       <c r="F318" s="56" t="s">
@@ -13124,7 +13253,7 @@
       <c r="L318" s="56"/>
       <c r="M318" s="56"/>
     </row>
-    <row r="319" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="319" spans="3:13" x14ac:dyDescent="0.2">
       <c r="E319" s="56" t="s">
         <v>772</v>
       </c>
@@ -13137,7 +13266,7 @@
       <c r="L319" s="56"/>
       <c r="M319" s="56"/>
     </row>
-    <row r="320" spans="3:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="320" spans="3:13" s="62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C320" s="49"/>
       <c r="E320" s="56"/>
       <c r="F320" s="56" t="s">
@@ -13151,7 +13280,7 @@
       <c r="L320" s="56"/>
       <c r="M320" s="56"/>
     </row>
-    <row r="321" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="321" spans="3:13" x14ac:dyDescent="0.2">
       <c r="E321" s="56"/>
       <c r="F321" s="56"/>
       <c r="G321" s="56"/>
@@ -13162,7 +13291,7 @@
       <c r="L321" s="56"/>
       <c r="M321" s="56"/>
     </row>
-    <row r="322" spans="3:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="322" spans="3:13" s="62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C322" s="49"/>
       <c r="E322" s="56"/>
       <c r="F322" s="56" t="s">
@@ -13176,7 +13305,7 @@
       <c r="L322" s="56"/>
       <c r="M322" s="56"/>
     </row>
-    <row r="323" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="323" spans="3:13" x14ac:dyDescent="0.2">
       <c r="E323" s="56"/>
       <c r="F323" s="56"/>
       <c r="G323" s="56" t="s">
@@ -13189,7 +13318,7 @@
       <c r="L323" s="56"/>
       <c r="M323" s="56"/>
     </row>
-    <row r="324" spans="3:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="324" spans="3:13" s="62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C324" s="49"/>
       <c r="E324" s="56"/>
       <c r="F324" s="56" t="s">
@@ -13203,7 +13332,7 @@
       <c r="L324" s="56"/>
       <c r="M324" s="56"/>
     </row>
-    <row r="325" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="325" spans="3:13" x14ac:dyDescent="0.2">
       <c r="E325" s="56"/>
       <c r="F325" s="56"/>
       <c r="G325" s="56" t="s">
@@ -13216,7 +13345,7 @@
       <c r="L325" s="56"/>
       <c r="M325" s="56"/>
     </row>
-    <row r="326" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="326" spans="3:13" x14ac:dyDescent="0.2">
       <c r="E326" s="56"/>
       <c r="F326" s="56" t="s">
         <v>295</v>
@@ -13229,7 +13358,7 @@
       <c r="L326" s="56"/>
       <c r="M326" s="56"/>
     </row>
-    <row r="327" spans="3:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="327" spans="3:13" s="62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C327" s="49"/>
       <c r="E327" s="56"/>
       <c r="F327" s="56"/>
@@ -13243,7 +13372,7 @@
       <c r="L327" s="56"/>
       <c r="M327" s="56"/>
     </row>
-    <row r="328" spans="3:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="328" spans="3:13" s="62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C328" s="49"/>
       <c r="E328" s="56"/>
       <c r="F328" s="56"/>
@@ -13257,7 +13386,7 @@
       <c r="L328" s="56"/>
       <c r="M328" s="56"/>
     </row>
-    <row r="329" spans="3:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="329" spans="3:13" s="62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C329" s="49"/>
       <c r="E329" s="56"/>
       <c r="F329" s="56" t="s">
@@ -13271,7 +13400,7 @@
       <c r="L329" s="56"/>
       <c r="M329" s="56"/>
     </row>
-    <row r="330" spans="3:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="330" spans="3:13" s="62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C330" s="49"/>
       <c r="E330" s="56"/>
       <c r="F330" s="56"/>
@@ -13285,7 +13414,7 @@
       <c r="L330" s="56"/>
       <c r="M330" s="56"/>
     </row>
-    <row r="331" spans="3:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="331" spans="3:13" s="62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C331" s="49"/>
       <c r="E331" s="56"/>
       <c r="F331" s="56"/>
@@ -13299,7 +13428,7 @@
       <c r="L331" s="56"/>
       <c r="M331" s="56"/>
     </row>
-    <row r="332" spans="3:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="332" spans="3:13" s="62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C332" s="49"/>
       <c r="E332" s="56"/>
       <c r="F332" s="56"/>
@@ -13313,7 +13442,7 @@
       <c r="L332" s="56"/>
       <c r="M332" s="56"/>
     </row>
-    <row r="333" spans="3:13" s="62" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="333" spans="3:13" s="62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C333" s="49"/>
       <c r="E333" s="56"/>
       <c r="F333" s="56"/>
@@ -13325,7 +13454,7 @@
       <c r="L333" s="56"/>
       <c r="M333" s="56"/>
     </row>
-    <row r="334" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="334" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D334" s="1" t="s">
         <v>281</v>
       </c>
@@ -13339,22 +13468,22 @@
       <c r="L334" s="56"/>
       <c r="M334" s="56"/>
     </row>
-    <row r="335" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="335" spans="3:13" x14ac:dyDescent="0.2">
       <c r="E335" s="1" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="336" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="336" spans="3:13" x14ac:dyDescent="0.2">
       <c r="E336" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E337" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="338" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A338" s="31" t="s">
         <v>407</v>
       </c>
@@ -13365,7 +13494,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A339" s="32" t="s">
         <v>520</v>
       </c>
@@ -13373,12 +13502,12 @@
         <v>780</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F340" s="53" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D342" s="58"/>
       <c r="E342" s="58"/>
       <c r="F342" s="58"/>
@@ -13386,7 +13515,7 @@
       <c r="H342" s="58"/>
       <c r="I342" s="53"/>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D343" s="58"/>
       <c r="E343" s="58"/>
       <c r="F343" s="58"/>
@@ -13394,7 +13523,7 @@
       <c r="H343" s="58"/>
       <c r="I343" s="58"/>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B344" s="29" t="s">
         <v>391</v>
       </c>
@@ -13405,7 +13534,7 @@
       <c r="H344" s="58"/>
       <c r="I344" s="58"/>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B345" s="32" t="s">
         <v>522</v>
       </c>
@@ -13416,7 +13545,7 @@
       <c r="H345" s="58"/>
       <c r="I345" s="58"/>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D346" s="58"/>
       <c r="E346" s="58"/>
       <c r="F346" s="58"/>
@@ -13424,7 +13553,7 @@
       <c r="H346" s="58"/>
       <c r="I346" s="58"/>
     </row>
-    <row r="347" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A347" s="31" t="s">
         <v>408</v>
       </c>
@@ -13435,7 +13564,7 @@
       <c r="H347" s="58"/>
       <c r="I347" s="58"/>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A348" s="39" t="s">
         <v>521</v>
       </c>
@@ -13446,7 +13575,7 @@
       <c r="H348" s="58"/>
       <c r="I348" s="58"/>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D349" s="58"/>
       <c r="E349" s="58"/>
       <c r="F349" s="58"/>
@@ -13454,7 +13583,7 @@
       <c r="H349" s="58"/>
       <c r="I349" s="58"/>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B350" s="29" t="s">
         <v>392</v>
       </c>
@@ -13465,7 +13594,7 @@
       <c r="H350" s="58"/>
       <c r="I350" s="58"/>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B351" s="32" t="s">
         <v>522</v>
       </c>
@@ -13476,7 +13605,7 @@
       <c r="H351" s="58"/>
       <c r="I351" s="58"/>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D352" s="58"/>
       <c r="E352" s="58"/>
       <c r="F352" s="58"/>
@@ -13484,18 +13613,18 @@
       <c r="H352" s="58"/>
       <c r="I352" s="58"/>
     </row>
-    <row r="354" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="354" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B354" s="29" t="s">
         <v>390</v>
       </c>
       <c r="F354" s="32"/>
     </row>
-    <row r="355" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="355" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B355" s="30" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="356" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="356" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B356" s="32" t="s">
         <v>523</v>
       </c>
@@ -13513,50 +13642,50 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P167"/>
+  <dimension ref="A2:P203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E145" sqref="E145"/>
+    <sheetView topLeftCell="C124" workbookViewId="0">
+      <selection activeCell="H152" sqref="H152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.875" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="35.83203125" style="1" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="1" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="11"/>
-    <col min="4" max="5" width="9" style="1"/>
+    <col min="3" max="3" width="8.83203125" style="11"/>
+    <col min="4" max="5" width="8.83203125" style="1"/>
     <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
-    <col min="7" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="7" max="15" width="8.83203125" style="1"/>
+    <col min="16" max="16" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C2" s="11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D3" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E4" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E5" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F8" s="56" t="s">
         <v>79</v>
       </c>
@@ -13570,7 +13699,7 @@
       <c r="N8" s="56"/>
       <c r="O8" s="56"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F9" s="56" t="s">
         <v>80</v>
       </c>
@@ -13584,7 +13713,7 @@
       <c r="N9" s="56"/>
       <c r="O9" s="56"/>
     </row>
-    <row r="10" spans="1:15" s="51" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C10" s="49"/>
       <c r="F10" s="56" t="s">
         <v>637</v>
@@ -13599,7 +13728,7 @@
       <c r="N10" s="56"/>
       <c r="O10" s="56"/>
     </row>
-    <row r="11" spans="1:15" s="51" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C11" s="49"/>
       <c r="F11" s="56" t="s">
         <v>638</v>
@@ -13614,7 +13743,7 @@
       <c r="N11" s="56"/>
       <c r="O11" s="56"/>
     </row>
-    <row r="12" spans="1:15" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="40" t="s">
         <v>524</v>
       </c>
@@ -13631,7 +13760,7 @@
       <c r="N12" s="56"/>
       <c r="O12" s="56"/>
     </row>
-    <row r="13" spans="1:15" s="51" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C13" s="49"/>
       <c r="F13" s="56"/>
       <c r="G13" s="56"/>
@@ -13644,7 +13773,7 @@
       <c r="N13" s="56"/>
       <c r="O13" s="56"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F14" s="56" t="s">
         <v>81</v>
       </c>
@@ -13658,7 +13787,7 @@
       <c r="N14" s="56"/>
       <c r="O14" s="56"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F15" s="56"/>
       <c r="G15" s="56" t="s">
         <v>82</v>
@@ -13672,7 +13801,7 @@
       <c r="N15" s="56"/>
       <c r="O15" s="56"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F16" s="56"/>
       <c r="G16" s="56" t="s">
         <v>83</v>
@@ -13686,7 +13815,7 @@
       <c r="N16" s="56"/>
       <c r="O16" s="56"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="30" t="s">
         <v>409</v>
       </c>
@@ -13703,7 +13832,7 @@
       <c r="N17" s="56"/>
       <c r="O17" s="56"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="32" t="s">
         <v>531</v>
       </c>
@@ -13720,7 +13849,7 @@
       <c r="N18" s="56"/>
       <c r="O18" s="56"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F19" s="56"/>
       <c r="G19" s="56"/>
       <c r="H19" s="56"/>
@@ -13734,7 +13863,7 @@
       <c r="N19" s="56"/>
       <c r="O19" s="56"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F20" s="56"/>
       <c r="G20" s="56"/>
       <c r="H20" s="56" t="s">
@@ -13748,7 +13877,7 @@
       <c r="N20" s="56"/>
       <c r="O20" s="56"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F21" s="56"/>
       <c r="G21" s="56"/>
       <c r="H21" s="56" t="s">
@@ -13762,7 +13891,7 @@
       <c r="N21" s="56"/>
       <c r="O21" s="56"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F22" s="56"/>
       <c r="G22" s="56"/>
       <c r="H22" s="56" t="s">
@@ -13776,7 +13905,7 @@
       <c r="N22" s="56"/>
       <c r="O22" s="56"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F23" s="56"/>
       <c r="G23" s="56"/>
       <c r="H23" s="56"/>
@@ -13788,7 +13917,7 @@
       <c r="N23" s="56"/>
       <c r="O23" s="56"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F24" s="56" t="s">
         <v>85</v>
       </c>
@@ -13802,7 +13931,7 @@
       <c r="N24" s="56"/>
       <c r="O24" s="56"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F25" s="56"/>
       <c r="G25" s="56" t="s">
         <v>86</v>
@@ -13816,7 +13945,7 @@
       <c r="N25" s="56"/>
       <c r="O25" s="56"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F26" s="56"/>
       <c r="G26" s="56" t="s">
         <v>87</v>
@@ -13830,7 +13959,7 @@
       <c r="N26" s="56"/>
       <c r="O26" s="56"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F27" s="56"/>
       <c r="G27" s="56"/>
       <c r="H27" s="56"/>
@@ -13842,7 +13971,7 @@
       <c r="N27" s="56"/>
       <c r="O27" s="56"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F28" s="56" t="s">
         <v>88</v>
       </c>
@@ -13856,7 +13985,7 @@
       <c r="N28" s="56"/>
       <c r="O28" s="56"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F29" s="56"/>
       <c r="G29" s="56" t="s">
         <v>99</v>
@@ -13870,7 +13999,7 @@
       <c r="N29" s="56"/>
       <c r="O29" s="56"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F30" s="56"/>
       <c r="G30" s="56"/>
       <c r="H30" s="56" t="s">
@@ -13886,7 +14015,7 @@
       <c r="N30" s="56"/>
       <c r="O30" s="56"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="47" t="s">
         <v>426</v>
       </c>
@@ -13908,7 +14037,7 @@
       <c r="N31" s="56"/>
       <c r="O31" s="56"/>
     </row>
-    <row r="32" spans="1:15" s="44" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:15" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="46" t="s">
         <v>571</v>
       </c>
@@ -13929,7 +14058,7 @@
       <c r="N32" s="56"/>
       <c r="O32" s="56"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="44"/>
       <c r="B33" s="44"/>
       <c r="F33" s="56"/>
@@ -13947,7 +14076,7 @@
       <c r="N33" s="56"/>
       <c r="O33" s="56"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="F34" s="56"/>
       <c r="G34" s="56"/>
       <c r="H34" s="56" t="s">
@@ -13963,7 +14092,7 @@
       <c r="N34" s="56"/>
       <c r="O34" s="56"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="F35" s="56"/>
       <c r="G35" s="56"/>
       <c r="H35" s="56" t="s">
@@ -13979,43 +14108,43 @@
       <c r="N35" s="56"/>
       <c r="O35" s="56"/>
     </row>
-    <row r="37" spans="1:16" ht="33" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="31" t="s">
         <v>410</v>
       </c>
       <c r="F37" s="38"/>
       <c r="G37" s="38"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="s">
         <v>476</v>
       </c>
       <c r="F38" s="38"/>
       <c r="G38" s="41"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F39" s="38"/>
       <c r="G39" s="41"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G40" s="15"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="F41" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="G42" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="G43" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="30" t="s">
         <v>427</v>
       </c>
@@ -14031,7 +14160,7 @@
       <c r="O44" s="56"/>
       <c r="P44" s="56"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="32" t="s">
         <v>532</v>
       </c>
@@ -14047,7 +14176,7 @@
       <c r="O45" s="56"/>
       <c r="P45" s="56"/>
     </row>
-    <row r="46" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="50"/>
       <c r="C46" s="49"/>
       <c r="H46" s="56"/>
@@ -14062,7 +14191,7 @@
       <c r="O46" s="56"/>
       <c r="P46" s="56"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="H47" s="56" t="s">
         <v>331</v>
       </c>
@@ -14075,7 +14204,7 @@
       <c r="O47" s="56"/>
       <c r="P47" s="56"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="H48" s="56"/>
       <c r="I48" s="56" t="s">
         <v>334</v>
@@ -14088,7 +14217,7 @@
       <c r="O48" s="56"/>
       <c r="P48" s="56"/>
     </row>
-    <row r="49" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C49" s="49"/>
       <c r="H49" s="56"/>
       <c r="I49" s="56" t="s">
@@ -14102,7 +14231,7 @@
       <c r="O49" s="56"/>
       <c r="P49" s="56"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="H50" s="56" t="s">
         <v>332</v>
       </c>
@@ -14115,7 +14244,7 @@
       <c r="O50" s="56"/>
       <c r="P50" s="56"/>
     </row>
-    <row r="51" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C51" s="49"/>
       <c r="H51" s="56"/>
       <c r="I51" s="56" t="s">
@@ -14129,7 +14258,7 @@
       <c r="O51" s="56"/>
       <c r="P51" s="56"/>
     </row>
-    <row r="52" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C52" s="49"/>
       <c r="H52" s="56"/>
       <c r="I52" s="56" t="s">
@@ -14143,7 +14272,7 @@
       <c r="O52" s="56"/>
       <c r="P52" s="56"/>
     </row>
-    <row r="53" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C53" s="49"/>
       <c r="H53" s="56"/>
       <c r="I53" s="68" t="s">
@@ -14157,7 +14286,7 @@
       <c r="O53" s="56"/>
       <c r="P53" s="56"/>
     </row>
-    <row r="54" spans="1:16" s="62" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:16" s="62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C54" s="49"/>
       <c r="H54" s="56"/>
       <c r="I54" s="56"/>
@@ -14169,7 +14298,7 @@
       <c r="O54" s="56"/>
       <c r="P54" s="56"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="48"/>
       <c r="H55" s="56" t="s">
         <v>333</v>
@@ -14183,7 +14312,7 @@
       <c r="O55" s="56"/>
       <c r="P55" s="56"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="30" t="s">
         <v>428</v>
       </c>
@@ -14199,7 +14328,7 @@
       <c r="O56" s="56"/>
       <c r="P56" s="56"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="32" t="s">
         <v>533</v>
       </c>
@@ -14215,7 +14344,7 @@
       <c r="O57" s="56"/>
       <c r="P57" s="56"/>
     </row>
-    <row r="58" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="50"/>
       <c r="C58" s="49"/>
       <c r="H58" s="56"/>
@@ -14228,17 +14357,17 @@
       <c r="O58" s="56"/>
       <c r="P58" s="56"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="F59" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="G60" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="G61" s="1" t="s">
         <v>103</v>
       </c>
@@ -14249,7 +14378,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="G62" s="1" t="s">
         <v>105</v>
       </c>
@@ -14260,7 +14389,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="30" t="s">
         <v>411</v>
       </c>
@@ -14268,7 +14397,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="32" t="s">
         <v>486</v>
       </c>
@@ -14283,7 +14412,7 @@
       <c r="L65" s="56"/>
       <c r="M65" s="56"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F66" s="56"/>
       <c r="G66" s="56"/>
       <c r="H66" s="56"/>
@@ -14293,7 +14422,7 @@
       <c r="L66" s="56"/>
       <c r="M66" s="56"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F67" s="56"/>
       <c r="G67" s="56"/>
       <c r="H67" s="56"/>
@@ -14303,7 +14432,7 @@
       <c r="L67" s="56"/>
       <c r="M67" s="56"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>535</v>
       </c>
@@ -14318,7 +14447,7 @@
       <c r="L68" s="56"/>
       <c r="M68" s="56"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="30" t="s">
         <v>429</v>
       </c>
@@ -14336,7 +14465,7 @@
       <c r="L69" s="56"/>
       <c r="M69" s="56"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="30" t="s">
         <v>430</v>
       </c>
@@ -14354,7 +14483,7 @@
       <c r="L70" s="56"/>
       <c r="M70" s="56"/>
     </row>
-    <row r="71" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="55"/>
       <c r="B71" s="50"/>
       <c r="C71" s="49"/>
@@ -14369,7 +14498,7 @@
       <c r="L71" s="56"/>
       <c r="M71" s="56"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="32" t="s">
         <v>536</v>
       </c>
@@ -14384,7 +14513,7 @@
       <c r="L72" s="56"/>
       <c r="M72" s="56"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F73" s="56"/>
       <c r="G73" s="56" t="s">
         <v>577</v>
@@ -14396,7 +14525,7 @@
       <c r="L73" s="56"/>
       <c r="M73" s="56"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F74" s="56"/>
       <c r="G74" s="56"/>
       <c r="H74" s="56"/>
@@ -14406,7 +14535,7 @@
       <c r="L74" s="56"/>
       <c r="M74" s="56"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F75" s="56"/>
       <c r="G75" s="56"/>
       <c r="H75" s="56"/>
@@ -14416,7 +14545,7 @@
       <c r="L75" s="56"/>
       <c r="M75" s="56"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D76" s="11" t="s">
         <v>110</v>
       </c>
@@ -14429,13 +14558,13 @@
       <c r="L76" s="56"/>
       <c r="M76" s="56"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D77" s="11"/>
       <c r="E77" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="30" t="s">
         <v>431</v>
       </c>
@@ -14447,7 +14576,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A79" s="40" t="s">
         <v>538</v>
       </c>
@@ -14459,7 +14588,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D80" s="11"/>
       <c r="F80" s="58"/>
       <c r="G80" s="58"/>
@@ -14467,7 +14596,7 @@
       <c r="I80" s="58"/>
       <c r="J80" s="58"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D81" s="11"/>
       <c r="F81" s="58"/>
       <c r="G81" s="58"/>
@@ -14475,7 +14604,7 @@
       <c r="I81" s="58"/>
       <c r="J81" s="58"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D82" s="11"/>
       <c r="F82" s="58"/>
       <c r="G82" s="58"/>
@@ -14483,7 +14612,7 @@
       <c r="I82" s="58"/>
       <c r="J82" s="58"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" s="30" t="s">
         <v>432</v>
       </c>
@@ -14494,30 +14623,30 @@
       <c r="I83" s="58"/>
       <c r="J83" s="58"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" s="32" t="s">
         <v>540</v>
       </c>
       <c r="D84" s="11"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D85" s="11"/>
       <c r="E85" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D86" s="11"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D87" s="11"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D88" s="11" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="30" t="s">
         <v>433</v>
       </c>
@@ -14526,17 +14655,17 @@
         <v>117</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="32" t="s">
         <v>541</v>
       </c>
       <c r="D90" s="11"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D91" s="11"/>
       <c r="L91" s="14"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D92" s="11" t="s">
         <v>118</v>
       </c>
@@ -14544,7 +14673,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D93" s="11"/>
       <c r="E93" s="56" t="s">
         <v>543</v>
@@ -14557,7 +14686,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D94" s="11"/>
       <c r="E94" s="56"/>
       <c r="F94" s="12"/>
@@ -14566,14 +14695,14 @@
       </c>
       <c r="M94" s="62"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D95" s="11"/>
       <c r="E95" s="56"/>
       <c r="F95" s="12"/>
       <c r="G95" s="16"/>
       <c r="M95" s="62"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D96" s="11"/>
       <c r="E96" s="56" t="s">
         <v>542</v>
@@ -14587,7 +14716,7 @@
       </c>
       <c r="M96" s="62"/>
     </row>
-    <row r="97" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D97" s="11"/>
       <c r="E97" s="56"/>
       <c r="F97" s="12"/>
@@ -14596,12 +14725,12 @@
       </c>
       <c r="M97" s="62"/>
     </row>
-    <row r="98" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="98" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D98" s="11"/>
       <c r="E98" s="56"/>
       <c r="M98" s="62"/>
     </row>
-    <row r="99" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D99" s="11"/>
       <c r="E99" s="56" t="s">
         <v>542</v>
@@ -14615,7 +14744,7 @@
       </c>
       <c r="M99" s="62"/>
     </row>
-    <row r="100" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D100" s="11"/>
       <c r="E100" s="56"/>
       <c r="F100" s="12"/>
@@ -14624,12 +14753,12 @@
       </c>
       <c r="M100" s="62"/>
     </row>
-    <row r="101" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="101" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D101" s="11"/>
       <c r="E101" s="56"/>
       <c r="M101" s="62"/>
     </row>
-    <row r="102" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D102" s="11"/>
       <c r="E102" s="56" t="s">
         <v>542</v>
@@ -14643,7 +14772,7 @@
       </c>
       <c r="M102" s="62"/>
     </row>
-    <row r="103" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D103" s="11"/>
       <c r="E103" s="56"/>
       <c r="F103" s="12"/>
@@ -14652,12 +14781,12 @@
       </c>
       <c r="M103" s="62"/>
     </row>
-    <row r="104" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="104" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D104" s="11"/>
       <c r="E104" s="56"/>
       <c r="M104" s="62"/>
     </row>
-    <row r="105" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D105" s="11"/>
       <c r="E105" s="56" t="s">
         <v>542</v>
@@ -14671,7 +14800,7 @@
       </c>
       <c r="M105" s="62"/>
     </row>
-    <row r="106" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D106" s="11"/>
       <c r="E106" s="56"/>
       <c r="F106" s="12"/>
@@ -14680,12 +14809,12 @@
       </c>
       <c r="M106" s="62"/>
     </row>
-    <row r="107" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="107" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D107" s="11"/>
       <c r="E107" s="56"/>
       <c r="M107" s="62"/>
     </row>
-    <row r="108" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D108" s="11"/>
       <c r="E108" s="56"/>
       <c r="F108" s="19" t="s">
@@ -14697,7 +14826,7 @@
       </c>
       <c r="M108" s="62"/>
     </row>
-    <row r="109" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D109" s="11"/>
       <c r="E109" s="56"/>
       <c r="F109" s="12"/>
@@ -14706,12 +14835,12 @@
       </c>
       <c r="M109" s="62"/>
     </row>
-    <row r="110" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="110" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D110" s="11"/>
       <c r="E110" s="56"/>
       <c r="M110" s="62"/>
     </row>
-    <row r="111" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D111" s="11"/>
       <c r="E111" s="56" t="s">
         <v>545</v>
@@ -14725,7 +14854,7 @@
       </c>
       <c r="M111" s="62"/>
     </row>
-    <row r="112" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D112" s="11"/>
       <c r="E112" s="56"/>
       <c r="F112" s="12"/>
@@ -14734,12 +14863,12 @@
       </c>
       <c r="M112" s="62"/>
     </row>
-    <row r="113" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="113" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D113" s="11"/>
       <c r="E113" s="56"/>
       <c r="M113" s="62"/>
     </row>
-    <row r="114" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D114" s="11"/>
       <c r="E114" s="56"/>
       <c r="F114" s="19" t="s">
@@ -14751,7 +14880,7 @@
       </c>
       <c r="M114" s="62"/>
     </row>
-    <row r="115" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D115" s="11"/>
       <c r="E115" s="56"/>
       <c r="F115" s="12"/>
@@ -14759,11 +14888,11 @@
         <v>127</v>
       </c>
     </row>
-    <row r="116" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="116" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D116" s="11"/>
       <c r="E116" s="56"/>
     </row>
-    <row r="117" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D117" s="11"/>
       <c r="E117" s="56" t="s">
         <v>544</v>
@@ -14776,18 +14905,18 @@
         <v>687</v>
       </c>
     </row>
-    <row r="118" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="118" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D118" s="11"/>
       <c r="E118" s="56"/>
       <c r="G118" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="119" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="119" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D119" s="11"/>
       <c r="E119" s="56"/>
     </row>
-    <row r="120" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="120" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D120" s="11"/>
       <c r="E120" s="56" t="s">
         <v>544</v>
@@ -14800,18 +14929,18 @@
         <v>688</v>
       </c>
     </row>
-    <row r="121" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="121" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D121" s="11"/>
       <c r="E121" s="56"/>
       <c r="G121" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="122" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="122" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D122" s="11"/>
       <c r="E122" s="56"/>
     </row>
-    <row r="123" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="123" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D123" s="11"/>
       <c r="E123" s="56" t="s">
         <v>545</v>
@@ -14823,18 +14952,18 @@
         <v>361</v>
       </c>
     </row>
-    <row r="124" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="124" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D124" s="11"/>
       <c r="E124" s="56"/>
       <c r="G124" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="125" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="125" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D125" s="11"/>
       <c r="E125" s="56"/>
     </row>
-    <row r="126" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="126" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D126" s="11"/>
       <c r="E126" s="56" t="s">
         <v>544</v>
@@ -14846,18 +14975,18 @@
         <v>368</v>
       </c>
     </row>
-    <row r="127" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="127" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D127" s="11"/>
       <c r="E127" s="56"/>
       <c r="G127" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="128" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="128" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D128" s="11"/>
       <c r="E128" s="56"/>
     </row>
-    <row r="129" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="129" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D129" s="11"/>
       <c r="E129" s="56" t="s">
         <v>544</v>
@@ -14869,18 +14998,18 @@
         <v>362</v>
       </c>
     </row>
-    <row r="130" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="130" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D130" s="11"/>
       <c r="E130" s="56"/>
       <c r="G130" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="131" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="131" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D131" s="11"/>
       <c r="E131" s="56"/>
     </row>
-    <row r="132" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="132" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D132" s="11"/>
       <c r="E132" s="56" t="s">
         <v>544</v>
@@ -14892,18 +15021,18 @@
         <v>363</v>
       </c>
     </row>
-    <row r="133" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="133" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D133" s="11"/>
       <c r="E133" s="56"/>
       <c r="G133" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="134" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="134" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D134" s="11"/>
       <c r="E134" s="56"/>
     </row>
-    <row r="135" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="135" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D135" s="11"/>
       <c r="E135" s="56" t="s">
         <v>545</v>
@@ -14915,18 +15044,18 @@
         <v>364</v>
       </c>
     </row>
-    <row r="136" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="136" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D136" s="11"/>
       <c r="E136" s="56"/>
       <c r="G136" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="137" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="137" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D137" s="11"/>
       <c r="E137" s="56"/>
     </row>
-    <row r="138" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="138" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D138" s="11"/>
       <c r="E138" s="56" t="s">
         <v>545</v>
@@ -14938,18 +15067,18 @@
         <v>365</v>
       </c>
     </row>
-    <row r="139" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="139" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D139" s="11"/>
       <c r="E139" s="56"/>
       <c r="G139" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="140" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="140" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D140" s="11"/>
       <c r="E140" s="56"/>
     </row>
-    <row r="141" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="141" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D141" s="11"/>
       <c r="E141" s="56" t="s">
         <v>545</v>
@@ -14961,18 +15090,18 @@
         <v>366</v>
       </c>
     </row>
-    <row r="142" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="142" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D142" s="11"/>
       <c r="E142" s="25"/>
       <c r="G142" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="143" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="143" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D143" s="11"/>
       <c r="E143" s="25"/>
     </row>
-    <row r="144" spans="3:10" s="62" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="3:10" s="62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C144" s="49"/>
       <c r="D144" s="49"/>
       <c r="E144" s="71" t="s">
@@ -14986,7 +15115,7 @@
       <c r="I144" s="72"/>
       <c r="J144" s="72"/>
     </row>
-    <row r="145" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="3:10" s="62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C145" s="49"/>
       <c r="D145" s="49"/>
       <c r="E145" s="73"/>
@@ -15000,114 +15129,336 @@
         <v>792</v>
       </c>
     </row>
-    <row r="146" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="3:10" s="62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C146" s="49"/>
       <c r="D146" s="49"/>
       <c r="E146" s="53"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D147" s="11"/>
-      <c r="F147" s="18" t="s">
+    <row r="147" spans="3:10" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C147" s="74"/>
+      <c r="D147" s="74"/>
+      <c r="E147" s="75"/>
+      <c r="F147" s="55" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="148" spans="3:10" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C148" s="74"/>
+      <c r="D148" s="74"/>
+      <c r="E148" s="75"/>
+      <c r="G148" s="55" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="149" spans="3:10" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C149" s="74"/>
+      <c r="D149" s="74"/>
+      <c r="E149" s="75"/>
+    </row>
+    <row r="150" spans="3:10" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C150" s="74"/>
+      <c r="D150" s="74"/>
+      <c r="E150" s="75"/>
+      <c r="F150" s="55" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="151" spans="3:10" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C151" s="74"/>
+      <c r="D151" s="74"/>
+      <c r="E151" s="75"/>
+    </row>
+    <row r="152" spans="3:10" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C152" s="74"/>
+      <c r="D152" s="74"/>
+      <c r="E152" s="75"/>
+    </row>
+    <row r="153" spans="3:10" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C153" s="74"/>
+      <c r="D153" s="74"/>
+      <c r="E153" s="75"/>
+      <c r="F153" s="55" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="154" spans="3:10" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C154" s="74"/>
+      <c r="D154" s="74"/>
+      <c r="E154" s="75"/>
+    </row>
+    <row r="155" spans="3:10" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C155" s="74"/>
+      <c r="D155" s="74"/>
+      <c r="E155" s="75"/>
+    </row>
+    <row r="156" spans="3:10" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C156" s="74"/>
+      <c r="D156" s="74"/>
+      <c r="E156" s="75"/>
+      <c r="F156" s="55" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="157" spans="3:10" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C157" s="74"/>
+      <c r="D157" s="74"/>
+      <c r="E157" s="75"/>
+    </row>
+    <row r="158" spans="3:10" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C158" s="74"/>
+      <c r="D158" s="74"/>
+      <c r="E158" s="75"/>
+    </row>
+    <row r="159" spans="3:10" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C159" s="74"/>
+      <c r="D159" s="74"/>
+      <c r="E159" s="75"/>
+      <c r="F159" s="55" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="160" spans="3:10" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C160" s="74"/>
+      <c r="D160" s="74"/>
+      <c r="E160" s="75"/>
+      <c r="G160" s="55" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="161" spans="3:6" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C161" s="74"/>
+      <c r="D161" s="74"/>
+      <c r="E161" s="75"/>
+    </row>
+    <row r="162" spans="3:6" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C162" s="74"/>
+      <c r="D162" s="74"/>
+      <c r="E162" s="75"/>
+    </row>
+    <row r="163" spans="3:6" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C163" s="74"/>
+      <c r="D163" s="74"/>
+      <c r="E163" s="75"/>
+      <c r="F163" s="55" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="164" spans="3:6" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C164" s="74"/>
+      <c r="D164" s="74"/>
+      <c r="E164" s="75"/>
+    </row>
+    <row r="165" spans="3:6" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C165" s="74"/>
+      <c r="D165" s="74"/>
+      <c r="E165" s="75"/>
+    </row>
+    <row r="166" spans="3:6" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C166" s="74"/>
+      <c r="D166" s="74"/>
+      <c r="E166" s="75"/>
+      <c r="F166" s="55" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="167" spans="3:6" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C167" s="74"/>
+      <c r="D167" s="74"/>
+      <c r="E167" s="75"/>
+    </row>
+    <row r="168" spans="3:6" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C168" s="74"/>
+      <c r="D168" s="74"/>
+      <c r="E168" s="75"/>
+      <c r="F168" s="55" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="169" spans="3:6" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C169" s="74"/>
+      <c r="D169" s="74"/>
+      <c r="E169" s="75"/>
+    </row>
+    <row r="170" spans="3:6" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C170" s="74"/>
+      <c r="D170" s="74"/>
+      <c r="E170" s="75"/>
+      <c r="F170" s="55" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="171" spans="3:6" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C171" s="74"/>
+      <c r="D171" s="74"/>
+      <c r="E171" s="75"/>
+    </row>
+    <row r="172" spans="3:6" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C172" s="74"/>
+      <c r="D172" s="74"/>
+      <c r="E172" s="75"/>
+      <c r="F172" s="55" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="173" spans="3:6" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C173" s="74"/>
+      <c r="D173" s="74"/>
+      <c r="E173" s="75"/>
+    </row>
+    <row r="174" spans="3:6" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C174" s="74"/>
+      <c r="D174" s="74"/>
+      <c r="E174" s="75"/>
+      <c r="F174" s="55" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="175" spans="3:6" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C175" s="74"/>
+      <c r="D175" s="74"/>
+      <c r="E175" s="75"/>
+    </row>
+    <row r="176" spans="3:6" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C176" s="74"/>
+      <c r="D176" s="74"/>
+      <c r="E176" s="75"/>
+      <c r="F176" s="55" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C177" s="74"/>
+      <c r="D177" s="74"/>
+      <c r="E177" s="75"/>
+    </row>
+    <row r="178" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C178" s="74"/>
+      <c r="D178" s="74"/>
+      <c r="E178" s="75"/>
+    </row>
+    <row r="179" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C179" s="74"/>
+      <c r="D179" s="74"/>
+      <c r="E179" s="75"/>
+    </row>
+    <row r="180" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C180" s="49"/>
+      <c r="D180" s="49"/>
+      <c r="E180" s="53"/>
+    </row>
+    <row r="181" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C181" s="49"/>
+      <c r="D181" s="49"/>
+      <c r="E181" s="53"/>
+    </row>
+    <row r="182" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C182" s="49"/>
+      <c r="D182" s="49"/>
+      <c r="E182" s="53"/>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D183" s="11"/>
+      <c r="F183" s="18" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="D148" s="11"/>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="D149" s="11"/>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C150" s="11" t="s">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D184" s="11"/>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D185" s="11"/>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C186" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="D150" s="11"/>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A151" s="30" t="s">
+      <c r="D186" s="11"/>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A187" s="30" t="s">
         <v>434</v>
       </c>
-      <c r="B151" s="29" t="s">
+      <c r="B187" s="29" t="s">
         <v>547</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="D187" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A152" s="32" t="s">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A188" s="32" t="s">
         <v>546</v>
       </c>
-      <c r="B152" s="32" t="s">
+      <c r="B188" s="32" t="s">
         <v>486</v>
       </c>
-      <c r="E152" s="1" t="s">
+      <c r="E188" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="E153" s="1" t="s">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E189" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="F154" s="1" t="s">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F190" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="F155" s="1" t="s">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F191" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C156" s="1"/>
-      <c r="E156" s="1" t="s">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C192" s="1"/>
+      <c r="E192" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="F157" s="1" t="s">
+    <row r="193" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F193" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="F158" s="1" t="s">
+    <row r="194" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F194" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="E159" s="1" t="s">
+    <row r="195" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E195" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="F160" s="1" t="s">
+    <row r="196" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F196" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="161" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="F161" s="1" t="s">
+    <row r="197" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F197" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="162" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E162" s="1" t="s">
+    <row r="198" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E198" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="163" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E163" s="1" t="s">
+    <row r="199" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E199" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="164" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E164" s="1" t="s">
+    <row r="200" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E200" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="167" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E167" s="56" t="s">
+    <row r="203" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E203" s="56" t="s">
         <v>548</v>
       </c>
     </row>
@@ -15122,18 +15473,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9" style="11"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="2" max="3" width="8.83203125" style="11"/>
+    <col min="4" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="11" t="s">
         <v>153</v>
       </c>
@@ -15145,14 +15496,14 @@
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C4" s="20"/>
       <c r="D4" s="24" t="s">
         <v>142</v>
       </c>
       <c r="E4" s="21"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C5" s="42"/>
       <c r="D5" s="43"/>
       <c r="E5" s="23" t="s">
@@ -15167,7 +15518,7 @@
       <c r="L5" s="33"/>
       <c r="M5" s="33"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C6" s="42"/>
       <c r="D6" s="43"/>
       <c r="E6" s="23" t="s">
@@ -15182,7 +15533,7 @@
       <c r="L6" s="33"/>
       <c r="M6" s="33"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C7" s="35"/>
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
@@ -15195,7 +15546,7 @@
       <c r="L7" s="33"/>
       <c r="M7" s="33"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C8" s="42"/>
       <c r="D8" s="24" t="s">
         <v>146</v>
@@ -15210,7 +15561,7 @@
       <c r="L8" s="33"/>
       <c r="M8" s="33"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C9" s="42"/>
       <c r="D9" s="43"/>
       <c r="E9" s="23" t="s">
@@ -15225,7 +15576,7 @@
       <c r="L9" s="33"/>
       <c r="M9" s="33"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C10" s="42"/>
       <c r="D10" s="43"/>
       <c r="E10" s="23" t="s">
@@ -15240,7 +15591,7 @@
       <c r="L10" s="33"/>
       <c r="M10" s="33"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C11" s="42"/>
       <c r="D11" s="24"/>
       <c r="E11" s="43"/>
@@ -15268,7 +15619,7 @@
       <c r="L12" s="33"/>
       <c r="M12" s="33"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C13" s="42"/>
       <c r="D13" s="24" t="s">
         <v>142</v>
@@ -15283,7 +15634,7 @@
       <c r="L13" s="33"/>
       <c r="M13" s="33"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C14" s="42"/>
       <c r="D14" s="43"/>
       <c r="E14" s="23" t="s">
@@ -15298,7 +15649,7 @@
       <c r="L14" s="33"/>
       <c r="M14" s="33"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C15" s="42"/>
       <c r="D15" s="43"/>
       <c r="E15" s="23" t="s">
@@ -15313,7 +15664,7 @@
       <c r="L15" s="33"/>
       <c r="M15" s="33"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C16" s="35"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
@@ -15326,7 +15677,7 @@
       <c r="L16" s="33"/>
       <c r="M16" s="33"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C17" s="42"/>
       <c r="D17" s="24" t="s">
         <v>146</v>
@@ -15341,7 +15692,7 @@
       <c r="L17" s="33"/>
       <c r="M17" s="33"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C18" s="42"/>
       <c r="D18" s="43"/>
       <c r="E18" s="23" t="s">
@@ -15356,7 +15707,7 @@
       <c r="L18" s="33"/>
       <c r="M18" s="33"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C19" s="42"/>
       <c r="D19" s="43"/>
       <c r="E19" s="23" t="s">
@@ -15371,7 +15722,7 @@
       <c r="L19" s="33"/>
       <c r="M19" s="33"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C20" s="35"/>
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
@@ -15384,7 +15735,7 @@
       <c r="L20" s="33"/>
       <c r="M20" s="33"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="11" t="s">
         <v>154</v>
       </c>
@@ -15400,7 +15751,7 @@
       <c r="L21" s="33"/>
       <c r="M21" s="33"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C22" s="24" t="s">
         <v>142</v>
       </c>
@@ -15415,7 +15766,7 @@
       <c r="L22" s="33"/>
       <c r="M22" s="33"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C23" s="35"/>
       <c r="D23" s="33" t="s">
         <v>155</v>
@@ -15430,7 +15781,7 @@
       <c r="L23" s="33"/>
       <c r="M23" s="33"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C24" s="35"/>
       <c r="D24" s="33" t="s">
         <v>206</v>
@@ -15445,7 +15796,7 @@
       <c r="L24" s="33"/>
       <c r="M24" s="33"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C25" s="35"/>
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
@@ -15458,7 +15809,7 @@
       <c r="L25" s="33"/>
       <c r="M25" s="33"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C26" s="35" t="s">
         <v>156</v>
       </c>
@@ -15473,7 +15824,7 @@
       <c r="L26" s="33"/>
       <c r="M26" s="33"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C27" s="35"/>
       <c r="D27" s="33" t="s">
         <v>157</v>
@@ -15488,7 +15839,7 @@
       <c r="L27" s="33"/>
       <c r="M27" s="33"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C28" s="35"/>
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
@@ -15517,7 +15868,7 @@
       <c r="L29" s="33"/>
       <c r="M29" s="33"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="20"/>
       <c r="C30" s="24" t="s">
         <v>142</v>
@@ -15533,7 +15884,7 @@
       <c r="L30" s="33"/>
       <c r="M30" s="33"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" s="20"/>
       <c r="C31" s="42"/>
       <c r="D31" s="23" t="s">
@@ -15549,7 +15900,7 @@
       <c r="L31" s="33"/>
       <c r="M31" s="33"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" s="20"/>
       <c r="C32" s="42"/>
       <c r="D32" s="23" t="s">
@@ -15565,7 +15916,7 @@
       <c r="L32" s="33"/>
       <c r="M32" s="33"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" s="20"/>
       <c r="C33" s="42"/>
       <c r="D33" s="23" t="s">
@@ -15581,7 +15932,7 @@
       <c r="L33" s="33"/>
       <c r="M33" s="33"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="35"/>
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
@@ -15594,7 +15945,7 @@
       <c r="L34" s="33"/>
       <c r="M34" s="33"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35" s="20"/>
       <c r="C35" s="24" t="s">
         <v>146</v>
@@ -15610,7 +15961,7 @@
       <c r="L35" s="33"/>
       <c r="M35" s="33"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" s="20"/>
       <c r="C36" s="42"/>
       <c r="D36" s="23" t="s">
@@ -15626,7 +15977,7 @@
       <c r="L36" s="33"/>
       <c r="M36" s="33"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="20"/>
       <c r="C37" s="42"/>
       <c r="D37" s="23" t="s">
@@ -15642,7 +15993,7 @@
       <c r="L37" s="33"/>
       <c r="M37" s="33"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="35"/>
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
@@ -15655,7 +16006,7 @@
       <c r="L38" s="33"/>
       <c r="M38" s="33"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39" s="11" t="s">
         <v>731</v>
       </c>
@@ -15671,7 +16022,7 @@
       <c r="L39" s="33"/>
       <c r="M39" s="33"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="24" t="s">
         <v>142</v>
       </c>
@@ -15686,18 +16037,18 @@
       <c r="L40" s="33"/>
       <c r="M40" s="33"/>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="24"/>
       <c r="D41" s="1" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="24" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D43" s="1" t="s">
         <v>734</v>
       </c>
@@ -15712,38 +16063,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.75" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1"/>
+    <col min="1" max="1" width="17.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="1"/>
     <col min="3" max="3" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.25" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="9" style="51"/>
-    <col min="12" max="12" width="16.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" style="1"/>
+    <col min="11" max="11" width="8.83203125" style="51"/>
+    <col min="12" max="12" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="1"/>
+    <col min="19" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C2" s="11" t="s">
         <v>25</v>
       </c>
@@ -15755,7 +16106,7 @@
       </c>
       <c r="K2" s="49"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="30" t="s">
         <v>412</v>
       </c>
@@ -15766,7 +16117,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
         <v>549</v>
       </c>
@@ -15777,7 +16128,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C5" s="62" t="s">
         <v>682</v>
       </c>
@@ -15785,7 +16136,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C6" s="62" t="s">
         <v>683</v>
       </c>
@@ -15793,7 +16144,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="30" t="s">
         <v>413</v>
       </c>
@@ -15807,7 +16158,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
         <v>550</v>
       </c>
@@ -15818,7 +16169,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>183</v>
       </c>
@@ -15829,7 +16180,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>192</v>
       </c>
@@ -15840,7 +16191,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>191</v>
       </c>
@@ -15851,7 +16202,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>190</v>
       </c>
@@ -15862,7 +16213,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>189</v>
       </c>
@@ -15873,7 +16224,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>188</v>
       </c>
@@ -15884,7 +16235,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>187</v>
       </c>
@@ -15895,7 +16246,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C16" s="1" t="s">
         <v>186</v>
       </c>
@@ -15906,7 +16257,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>185</v>
       </c>
@@ -15917,7 +16268,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>184</v>
       </c>
@@ -15928,7 +16279,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>684</v>
       </c>
@@ -15939,7 +16290,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C21" s="56"/>
       <c r="D21" s="69"/>
       <c r="E21" s="69"/>
@@ -15948,7 +16299,7 @@
       <c r="H21" s="56"/>
       <c r="I21" s="56"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>304</v>
       </c>
@@ -15960,7 +16311,7 @@
       <c r="H22" s="56"/>
       <c r="I22" s="56"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C23" s="56" t="s">
         <v>282</v>
       </c>
@@ -15982,7 +16333,7 @@
       <c r="I23" s="56"/>
       <c r="N23" s="62"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="30" t="s">
         <v>424</v>
       </c>
@@ -16007,7 +16358,7 @@
       <c r="I24" s="56"/>
       <c r="N24" s="62"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="32" t="s">
         <v>553</v>
       </c>
@@ -16028,7 +16379,7 @@
       <c r="I25" s="56"/>
       <c r="N25" s="32"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C26" s="56"/>
       <c r="D26" s="69"/>
       <c r="E26" s="56" t="s">
@@ -16045,7 +16396,7 @@
       </c>
       <c r="I26" s="56"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C27" s="56"/>
       <c r="D27" s="69"/>
       <c r="E27" s="56" t="s">
@@ -16062,7 +16413,7 @@
       </c>
       <c r="I27" s="56"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C28" s="56"/>
       <c r="D28" s="69"/>
       <c r="E28" s="56" t="s">
@@ -16079,7 +16430,7 @@
       </c>
       <c r="I28" s="56"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C29" s="56"/>
       <c r="D29" s="69"/>
       <c r="E29" s="70" t="s">
@@ -16097,7 +16448,7 @@
       <c r="I29" s="56"/>
       <c r="L29" s="51"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C30" s="56"/>
       <c r="D30" s="69"/>
       <c r="E30" s="69"/>
@@ -16106,7 +16457,7 @@
       <c r="H30" s="56"/>
       <c r="I30" s="56"/>
     </row>
-    <row r="31" spans="1:14" s="51" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="51" t="s">
         <v>639</v>
       </c>
@@ -16118,7 +16469,7 @@
       <c r="H31" s="56"/>
       <c r="I31" s="56"/>
     </row>
-    <row r="32" spans="1:14" s="51" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C32" s="56" t="s">
         <v>646</v>
       </c>
@@ -16131,7 +16482,7 @@
       <c r="H32" s="56"/>
       <c r="I32" s="56"/>
     </row>
-    <row r="33" spans="3:15" s="51" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:15" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C33" s="56" t="s">
         <v>640</v>
       </c>
@@ -16144,7 +16495,7 @@
       <c r="H33" s="56"/>
       <c r="I33" s="56"/>
     </row>
-    <row r="34" spans="3:15" s="51" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:15" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C34" s="56" t="s">
         <v>641</v>
       </c>
@@ -16157,7 +16508,7 @@
       <c r="H34" s="56"/>
       <c r="I34" s="56"/>
     </row>
-    <row r="35" spans="3:15" s="51" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:15" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C35" s="56" t="s">
         <v>642</v>
       </c>
@@ -16170,7 +16521,7 @@
       <c r="H35" s="56"/>
       <c r="I35" s="56"/>
     </row>
-    <row r="36" spans="3:15" s="51" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:15" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C36" s="56" t="s">
         <v>643</v>
       </c>
@@ -16183,7 +16534,7 @@
       <c r="H36" s="56"/>
       <c r="I36" s="56"/>
     </row>
-    <row r="37" spans="3:15" s="51" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:15" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C37" s="56" t="s">
         <v>644</v>
       </c>
@@ -16196,7 +16547,7 @@
       <c r="H37" s="56"/>
       <c r="I37" s="56"/>
     </row>
-    <row r="38" spans="3:15" s="51" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:15" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C38" s="56" t="s">
         <v>645</v>
       </c>
@@ -16209,42 +16560,42 @@
       <c r="H38" s="56"/>
       <c r="I38" s="56"/>
     </row>
-    <row r="40" spans="3:15" s="58" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="3:15" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D40" s="67"/>
       <c r="E40" s="67"/>
     </row>
-    <row r="41" spans="3:15" s="58" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="3:15" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D41" s="67"/>
       <c r="E41" s="67"/>
     </row>
-    <row r="42" spans="3:15" s="58" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="3:15" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E42" s="67"/>
     </row>
-    <row r="43" spans="3:15" s="58" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="3:15" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E43" s="67"/>
     </row>
-    <row r="44" spans="3:15" s="58" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="3:15" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E44" s="67"/>
     </row>
-    <row r="45" spans="3:15" s="58" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="3:15" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E45" s="67"/>
     </row>
-    <row r="46" spans="3:15" s="58" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="3:15" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E46" s="67"/>
     </row>
-    <row r="47" spans="3:15" s="51" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="3:15" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D47" s="14"/>
     </row>
-    <row r="48" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="48" spans="3:15" x14ac:dyDescent="0.2">
       <c r="O48" s="29"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>305</v>
       </c>
       <c r="P49" s="32"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D50" s="1" t="s">
         <v>316</v>
       </c>
@@ -16267,7 +16618,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="30" t="s">
         <v>414</v>
       </c>
@@ -16320,7 +16671,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="32" t="s">
         <v>486</v>
       </c>
@@ -16370,7 +16721,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E53" s="1"/>
       <c r="F53" s="28">
         <v>2</v>
@@ -16390,7 +16741,7 @@
       <c r="Q53" s="56"/>
       <c r="R53" s="56"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E54" s="1"/>
       <c r="F54" s="28">
         <v>3</v>
@@ -16410,7 +16761,7 @@
       <c r="Q54" s="56"/>
       <c r="R54" s="56"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="K55" s="56"/>
       <c r="L55" s="56" t="s">
         <v>357</v>
@@ -16426,7 +16777,7 @@
       <c r="Q55" s="56"/>
       <c r="R55" s="56"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="K56" s="56"/>
       <c r="L56" s="56" t="s">
         <v>686</v>
@@ -16442,7 +16793,7 @@
       <c r="Q56" s="56"/>
       <c r="R56" s="56"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="K57" s="56"/>
       <c r="L57" s="56" t="s">
         <v>359</v>
@@ -16458,7 +16809,7 @@
       <c r="Q57" s="56"/>
       <c r="R57" s="56"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L58" s="1" t="s">
         <v>685</v>
       </c>
@@ -16469,7 +16820,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L59" s="1" t="s">
         <v>360</v>
       </c>
@@ -16480,7 +16831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L60" s="1" t="s">
         <v>687</v>
       </c>
@@ -16491,7 +16842,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L61" s="1" t="s">
         <v>688</v>
       </c>
@@ -16502,7 +16853,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L62" s="1" t="s">
         <v>689</v>
       </c>
@@ -16513,7 +16864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L63" s="1" t="s">
         <v>690</v>
       </c>
@@ -16524,7 +16875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L64" s="1" t="s">
         <v>691</v>
       </c>
@@ -16535,7 +16886,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="65" spans="3:15" x14ac:dyDescent="0.2">
       <c r="L65" s="1" t="s">
         <v>692</v>
       </c>
@@ -16546,7 +16897,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="66" spans="3:15" x14ac:dyDescent="0.2">
       <c r="L66" s="1" t="s">
         <v>693</v>
       </c>
@@ -16557,7 +16908,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="67" spans="3:15" x14ac:dyDescent="0.2">
       <c r="L67" s="1" t="s">
         <v>694</v>
       </c>
@@ -16568,7 +16919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="68" spans="3:15" x14ac:dyDescent="0.2">
       <c r="L68" s="1" t="s">
         <v>695</v>
       </c>
@@ -16579,11 +16930,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="69" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C69" s="51"/>
       <c r="E69" s="1"/>
     </row>
-    <row r="70" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="70" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1">
         <v>10</v>
       </c>
@@ -16618,7 +16969,7 @@
         <v>30001</v>
       </c>
     </row>
-    <row r="71" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="71" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D71" s="1">
         <v>30002</v>
       </c>
@@ -16650,7 +17001,7 @@
         <v>30002</v>
       </c>
     </row>
-    <row r="72" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="72" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>735</v>
       </c>
@@ -16671,62 +17022,62 @@
       <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>621</v>
       </c>
@@ -16746,24 +17097,24 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9" style="62"/>
-    <col min="3" max="3" width="38.75" style="62" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="62"/>
+    <col min="1" max="2" width="8.83203125" style="62"/>
+    <col min="3" max="3" width="38.6640625" style="62" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="62"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="62" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" s="62" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C4" s="62" t="s">
         <v>710</v>
       </c>
@@ -16771,7 +17122,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C5" s="62" t="s">
         <v>711</v>
       </c>
@@ -16779,7 +17130,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C6" s="62" t="s">
         <v>712</v>
       </c>
@@ -16787,7 +17138,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C7" s="62" t="s">
         <v>713</v>
       </c>
@@ -16795,7 +17146,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C8" s="62" t="s">
         <v>714</v>
       </c>
@@ -16803,7 +17154,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C9" s="62" t="s">
         <v>715</v>
       </c>
@@ -16811,7 +17162,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C10" s="62" t="s">
         <v>716</v>
       </c>
@@ -16819,7 +17170,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C11" s="62" t="s">
         <v>717</v>
       </c>
@@ -16827,7 +17178,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C12" s="62" t="s">
         <v>718</v>
       </c>
@@ -16835,22 +17186,22 @@
         <v>723</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="62" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C16" s="62" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="62" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B22" s="62" t="s">
         <v>701</v>
       </c>
@@ -16858,12 +17209,12 @@
         <v>703</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="62" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B28" s="62" t="s">
         <v>705</v>
       </c>
@@ -16871,7 +17222,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B29" s="62" t="s">
         <v>707</v>
       </c>
@@ -16893,17 +17244,17 @@
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D3" s="1" t="s">
         <v>252</v>
       </c>
@@ -16911,7 +17262,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
         <v>255</v>
       </c>
@@ -16919,7 +17270,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
         <v>256</v>
       </c>
@@ -16927,7 +17278,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="30" t="s">
         <v>415</v>
       </c>
@@ -16938,7 +17289,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="s">
         <v>561</v>
       </c>
@@ -16949,7 +17300,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D8" s="36" t="s">
         <v>259</v>
       </c>
@@ -16971,42 +17322,42 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>321</v>
       </c>
@@ -17017,7 +17368,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>324</v>
       </c>
@@ -17028,7 +17379,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>602</v>
       </c>
@@ -17036,7 +17387,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C21" s="60" t="s">
         <v>587</v>
       </c>

--- a/gd/任务系统/新版任务系统设计.xlsx
+++ b/gd/任务系统/新版任务系统设计.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Way4games\策划文档\任务系统\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="645" windowWidth="33060" windowHeight="17775"/>
+    <workbookView xWindow="-165" yWindow="60" windowWidth="28815" windowHeight="11865"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -87,7 +82,7 @@
     <definedName name="已完成的任务_显示在对应分页的上方_多个已完成任务按照任务编号由小至大顺序从上至下显示">UI逻辑!$E$175:$M$175</definedName>
     <definedName name="最多显示为4行_根据显示行数上下居中显示">UI逻辑!$E$125:$J$125</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -103,7 +98,7 @@
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0">
+    <comment ref="C4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -133,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0">
+    <comment ref="D4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -161,7 +156,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0">
+    <comment ref="E4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -187,7 +182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0" shapeId="0">
+    <comment ref="F4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -215,7 +210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0">
+    <comment ref="G4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -241,7 +236,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0">
+    <comment ref="I4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -268,7 +263,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="1" shapeId="0">
+    <comment ref="J4" authorId="1">
       <text>
         <r>
           <rPr>
@@ -294,7 +289,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="1" shapeId="0">
+    <comment ref="K4" authorId="1">
       <text>
         <r>
           <rPr>
@@ -320,7 +315,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M4" authorId="0" shapeId="0">
+    <comment ref="M4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -346,7 +341,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N4" authorId="0" shapeId="0">
+    <comment ref="N4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -372,7 +367,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P4" authorId="0" shapeId="0">
+    <comment ref="P4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -399,7 +394,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q4" authorId="0" shapeId="0">
+    <comment ref="Q4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -425,7 +420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R4" authorId="0" shapeId="0">
+    <comment ref="R4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -451,7 +446,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D106" authorId="0" shapeId="0">
+    <comment ref="D106" authorId="0">
       <text>
         <r>
           <rPr>
@@ -483,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="963">
   <si>
     <t>文档名称</t>
   </si>
@@ -4101,10 +4096,6 @@
       </rPr>
       <t>fatigue</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>useitem</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -4545,12 +4536,80 @@
     <t>free</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>useitem</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>etmix</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>合成指定I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>D的宠物</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>宠物I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备进行一次开孔</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>equipslot</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充两个任务目标需求</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="30">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4830,7 +4889,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5072,6 +5131,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8564,17 +8627,17 @@
   <dimension ref="A1:N108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K75" sqref="K75"/>
+      <selection activeCell="K77" sqref="K77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="8.875" style="1"/>
     <col min="3" max="3" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8591,7 +8654,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -8604,7 +8667,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -8621,7 +8684,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
@@ -8634,7 +8697,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -8651,7 +8714,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
@@ -8664,7 +8727,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -8679,7 +8742,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
@@ -8692,7 +8755,7 @@
       <c r="J8" s="4"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -8721,7 +8784,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
@@ -8734,7 +8797,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" hidden="1">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="4" t="s">
         <v>13</v>
@@ -8759,7 +8822,7 @@
       <c r="J11" s="4"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" hidden="1">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
         <v>163</v>
@@ -8782,7 +8845,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:11" hidden="1">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="7"/>
@@ -8797,7 +8860,7 @@
       <c r="J13" s="4"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" hidden="1">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="7"/>
@@ -8812,7 +8875,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" hidden="1">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="7"/>
@@ -8827,7 +8890,7 @@
       <c r="J15" s="4"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" hidden="1">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="7"/>
@@ -8842,7 +8905,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="1:12" hidden="1">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="7"/>
@@ -8857,7 +8920,7 @@
       <c r="J17" s="4"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:12" hidden="1">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="7"/>
@@ -8872,7 +8935,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:12" hidden="1">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="7"/>
@@ -8888,7 +8951,7 @@
       <c r="K19" s="8"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" hidden="1">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="7"/>
@@ -8904,7 +8967,7 @@
       <c r="K20" s="8"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" hidden="1">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="7"/>
@@ -8920,7 +8983,7 @@
       <c r="K21" s="8"/>
       <c r="L21" s="21"/>
     </row>
-    <row r="22" spans="1:12" hidden="1">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
       <c r="C22" s="7"/>
@@ -8936,7 +8999,7 @@
       <c r="K22" s="8"/>
       <c r="L22" s="21"/>
     </row>
-    <row r="23" spans="1:12" hidden="1">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="4" t="s">
         <v>300</v>
@@ -8960,7 +9023,7 @@
       <c r="K23" s="8"/>
       <c r="L23" s="21"/>
     </row>
-    <row r="24" spans="1:12" hidden="1">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="4"/>
       <c r="C24" s="7"/>
@@ -8976,7 +9039,7 @@
       <c r="K24" s="8"/>
       <c r="L24" s="21"/>
     </row>
-    <row r="25" spans="1:12" hidden="1">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
       <c r="C25" s="7"/>
@@ -8992,7 +9055,7 @@
       <c r="K25" s="8"/>
       <c r="L25" s="21"/>
     </row>
-    <row r="26" spans="1:12" hidden="1">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
       <c r="C26" s="7"/>
@@ -9008,7 +9071,7 @@
       <c r="K26" s="8"/>
       <c r="L26" s="21"/>
     </row>
-    <row r="27" spans="1:12" hidden="1">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
       <c r="C27" s="7"/>
@@ -9024,7 +9087,7 @@
       <c r="K27" s="8"/>
       <c r="L27" s="21"/>
     </row>
-    <row r="28" spans="1:12" hidden="1">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="4" t="s">
         <v>424</v>
@@ -9048,7 +9111,7 @@
       <c r="K28" s="8"/>
       <c r="L28" s="21"/>
     </row>
-    <row r="29" spans="1:12" hidden="1">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
       <c r="C29" s="7"/>
@@ -9064,7 +9127,7 @@
       <c r="K29" s="8"/>
       <c r="L29" s="21"/>
     </row>
-    <row r="30" spans="1:12" hidden="1">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
       <c r="C30" s="7"/>
@@ -9080,7 +9143,7 @@
       <c r="K30" s="8"/>
       <c r="L30" s="21"/>
     </row>
-    <row r="31" spans="1:12" hidden="1">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="4" t="s">
         <v>435</v>
@@ -9104,7 +9167,7 @@
       <c r="K31" s="8"/>
       <c r="L31" s="21"/>
     </row>
-    <row r="32" spans="1:12" hidden="1">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
       <c r="C32" s="7"/>
@@ -9120,7 +9183,7 @@
       <c r="K32" s="8"/>
       <c r="L32" s="21"/>
     </row>
-    <row r="33" spans="1:12" hidden="1">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
       <c r="C33" s="7"/>
@@ -9136,7 +9199,7 @@
       <c r="K33" s="8"/>
       <c r="L33" s="21"/>
     </row>
-    <row r="34" spans="1:12" hidden="1">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="4"/>
       <c r="C34" s="7"/>
@@ -9152,7 +9215,7 @@
       <c r="K34" s="8"/>
       <c r="L34" s="21"/>
     </row>
-    <row r="35" spans="1:12" hidden="1">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="4"/>
       <c r="C35" s="7"/>
@@ -9168,7 +9231,7 @@
       <c r="K35" s="8"/>
       <c r="L35" s="21"/>
     </row>
-    <row r="36" spans="1:12" s="38" customFormat="1" hidden="1">
+    <row r="36" spans="1:12" s="38" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="39"/>
       <c r="C36" s="7"/>
@@ -9184,7 +9247,7 @@
       <c r="K36" s="8"/>
       <c r="L36" s="21"/>
     </row>
-    <row r="37" spans="1:12" s="38" customFormat="1" hidden="1">
+    <row r="37" spans="1:12" s="38" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="39"/>
       <c r="C37" s="7"/>
@@ -9200,7 +9263,7 @@
       <c r="K37" s="8"/>
       <c r="L37" s="21"/>
     </row>
-    <row r="38" spans="1:12" s="38" customFormat="1" hidden="1">
+    <row r="38" spans="1:12" s="38" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="39"/>
       <c r="C38" s="7"/>
@@ -9216,7 +9279,7 @@
       <c r="K38" s="8"/>
       <c r="L38" s="21"/>
     </row>
-    <row r="39" spans="1:12" s="38" customFormat="1" hidden="1">
+    <row r="39" spans="1:12" s="38" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="39"/>
       <c r="C39" s="7"/>
@@ -9232,7 +9295,7 @@
       <c r="K39" s="8"/>
       <c r="L39" s="21"/>
     </row>
-    <row r="40" spans="1:12" hidden="1">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="4"/>
       <c r="C40" s="7"/>
@@ -9248,7 +9311,7 @@
       <c r="K40" s="8"/>
       <c r="L40" s="21"/>
     </row>
-    <row r="41" spans="1:12" hidden="1">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="4" t="s">
         <v>513</v>
@@ -9272,7 +9335,7 @@
       <c r="K41" s="8"/>
       <c r="L41" s="21"/>
     </row>
-    <row r="42" spans="1:12" s="38" customFormat="1" hidden="1">
+    <row r="42" spans="1:12" s="38" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="39"/>
       <c r="C42" s="7"/>
@@ -9288,7 +9351,7 @@
       <c r="K42" s="8"/>
       <c r="L42" s="21"/>
     </row>
-    <row r="43" spans="1:12" s="38" customFormat="1" hidden="1">
+    <row r="43" spans="1:12" s="38" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="39"/>
       <c r="C43" s="7"/>
@@ -9304,7 +9367,7 @@
       <c r="K43" s="8"/>
       <c r="L43" s="21"/>
     </row>
-    <row r="44" spans="1:12" s="38" customFormat="1" hidden="1">
+    <row r="44" spans="1:12" s="38" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="39"/>
       <c r="C44" s="7"/>
@@ -9320,7 +9383,7 @@
       <c r="K44" s="8"/>
       <c r="L44" s="21"/>
     </row>
-    <row r="45" spans="1:12" s="38" customFormat="1" hidden="1">
+    <row r="45" spans="1:12" s="38" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
       <c r="B45" s="39"/>
       <c r="C45" s="7"/>
@@ -9336,7 +9399,7 @@
       <c r="K45" s="8"/>
       <c r="L45" s="21"/>
     </row>
-    <row r="46" spans="1:12" s="38" customFormat="1" hidden="1">
+    <row r="46" spans="1:12" s="38" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
       <c r="B46" s="39"/>
       <c r="C46" s="7"/>
@@ -9352,7 +9415,7 @@
       <c r="K46" s="8"/>
       <c r="L46" s="21"/>
     </row>
-    <row r="47" spans="1:12" s="38" customFormat="1" hidden="1">
+    <row r="47" spans="1:12" s="38" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
       <c r="B47" s="39"/>
       <c r="C47" s="7"/>
@@ -9368,7 +9431,7 @@
       <c r="K47" s="8"/>
       <c r="L47" s="21"/>
     </row>
-    <row r="48" spans="1:12" s="47" customFormat="1" hidden="1">
+    <row r="48" spans="1:12" s="47" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
       <c r="B48" s="48" t="s">
         <v>560</v>
@@ -9392,7 +9455,7 @@
       <c r="K48" s="8"/>
       <c r="L48" s="21"/>
     </row>
-    <row r="49" spans="1:12" s="47" customFormat="1" hidden="1">
+    <row r="49" spans="1:12" s="47" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
       <c r="B49" s="48" t="s">
         <v>564</v>
@@ -9416,7 +9479,7 @@
       <c r="K49" s="8"/>
       <c r="L49" s="21"/>
     </row>
-    <row r="50" spans="1:12" s="47" customFormat="1" hidden="1">
+    <row r="50" spans="1:12" s="47" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3"/>
       <c r="B50" s="48"/>
       <c r="C50" s="7"/>
@@ -9432,7 +9495,7 @@
       <c r="K50" s="8"/>
       <c r="L50" s="21"/>
     </row>
-    <row r="51" spans="1:12" s="47" customFormat="1" hidden="1">
+    <row r="51" spans="1:12" s="47" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
       <c r="B51" s="48"/>
       <c r="C51" s="7"/>
@@ -9448,7 +9511,7 @@
       <c r="K51" s="8"/>
       <c r="L51" s="21"/>
     </row>
-    <row r="52" spans="1:12" s="47" customFormat="1" hidden="1">
+    <row r="52" spans="1:12" s="47" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="B52" s="48"/>
       <c r="C52" s="7"/>
@@ -9464,7 +9527,7 @@
       <c r="K52" s="8"/>
       <c r="L52" s="21"/>
     </row>
-    <row r="53" spans="1:12" s="47" customFormat="1" hidden="1">
+    <row r="53" spans="1:12" s="47" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
       <c r="B53" s="48"/>
       <c r="C53" s="7"/>
@@ -9480,7 +9543,7 @@
       <c r="K53" s="8"/>
       <c r="L53" s="21"/>
     </row>
-    <row r="54" spans="1:12" s="47" customFormat="1" hidden="1">
+    <row r="54" spans="1:12" s="47" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
       <c r="B54" s="48" t="s">
         <v>615</v>
@@ -9504,7 +9567,7 @@
       <c r="K54" s="8"/>
       <c r="L54" s="21"/>
     </row>
-    <row r="55" spans="1:12" s="47" customFormat="1" hidden="1">
+    <row r="55" spans="1:12" s="47" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
       <c r="B55" s="48"/>
       <c r="C55" s="7"/>
@@ -9520,7 +9583,7 @@
       <c r="K55" s="8"/>
       <c r="L55" s="21"/>
     </row>
-    <row r="56" spans="1:12" s="47" customFormat="1" hidden="1">
+    <row r="56" spans="1:12" s="47" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="B56" s="48"/>
       <c r="C56" s="7">
@@ -9540,7 +9603,7 @@
       <c r="K56" s="8"/>
       <c r="L56" s="21"/>
     </row>
-    <row r="57" spans="1:12" s="47" customFormat="1" hidden="1">
+    <row r="57" spans="1:12" s="47" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
       <c r="B57" s="48"/>
       <c r="C57" s="7">
@@ -9560,7 +9623,7 @@
       <c r="K57" s="8"/>
       <c r="L57" s="21"/>
     </row>
-    <row r="58" spans="1:12" s="47" customFormat="1" hidden="1">
+    <row r="58" spans="1:12" s="47" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
       <c r="B58" s="48"/>
       <c r="C58" s="7"/>
@@ -9574,7 +9637,7 @@
       <c r="K58" s="8"/>
       <c r="L58" s="21"/>
     </row>
-    <row r="59" spans="1:12" s="47" customFormat="1" hidden="1">
+    <row r="59" spans="1:12" s="47" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3"/>
       <c r="B59" s="48"/>
       <c r="C59" s="7">
@@ -9598,7 +9661,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="60" spans="1:12" s="47" customFormat="1" hidden="1">
+    <row r="60" spans="1:12" s="47" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
       <c r="B60" s="48"/>
       <c r="C60" s="7">
@@ -9620,7 +9683,7 @@
       <c r="K60" s="8"/>
       <c r="L60" s="21"/>
     </row>
-    <row r="61" spans="1:12" s="38" customFormat="1" hidden="1">
+    <row r="61" spans="1:12" s="38" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
       <c r="B61" s="39"/>
       <c r="C61" s="7"/>
@@ -9634,7 +9697,7 @@
       <c r="K61" s="8"/>
       <c r="L61" s="21"/>
     </row>
-    <row r="62" spans="1:12" s="47" customFormat="1">
+    <row r="62" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
       <c r="B62" s="48" t="s">
         <v>648</v>
@@ -9658,7 +9721,7 @@
       <c r="K62" s="8"/>
       <c r="L62" s="21"/>
     </row>
-    <row r="63" spans="1:12" s="47" customFormat="1">
+    <row r="63" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
       <c r="B63" s="48"/>
       <c r="C63" s="7"/>
@@ -9674,7 +9737,7 @@
       <c r="K63" s="8"/>
       <c r="L63" s="21"/>
     </row>
-    <row r="64" spans="1:12" s="47" customFormat="1">
+    <row r="64" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
       <c r="B64" s="48"/>
       <c r="C64" s="7"/>
@@ -9690,7 +9753,7 @@
       <c r="K64" s="8"/>
       <c r="L64" s="21"/>
     </row>
-    <row r="65" spans="1:12" s="47" customFormat="1">
+    <row r="65" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
       <c r="B65" s="48"/>
       <c r="C65" s="7"/>
@@ -9706,7 +9769,7 @@
       <c r="K65" s="8"/>
       <c r="L65" s="21"/>
     </row>
-    <row r="66" spans="1:12" s="47" customFormat="1">
+    <row r="66" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
       <c r="B66" s="48"/>
       <c r="C66" s="7"/>
@@ -9722,7 +9785,7 @@
       <c r="K66" s="8"/>
       <c r="L66" s="21"/>
     </row>
-    <row r="67" spans="1:12" s="47" customFormat="1">
+    <row r="67" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
       <c r="B67" s="48"/>
       <c r="C67" s="7"/>
@@ -9738,7 +9801,7 @@
       <c r="K67" s="8"/>
       <c r="L67" s="21"/>
     </row>
-    <row r="68" spans="1:12" s="47" customFormat="1">
+    <row r="68" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
       <c r="B68" s="48"/>
       <c r="C68" s="7"/>
@@ -9754,7 +9817,7 @@
       <c r="K68" s="8"/>
       <c r="L68" s="21"/>
     </row>
-    <row r="69" spans="1:12" s="47" customFormat="1">
+    <row r="69" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
       <c r="B69" s="48"/>
       <c r="C69" s="7"/>
@@ -9770,7 +9833,7 @@
       <c r="K69" s="8"/>
       <c r="L69" s="21"/>
     </row>
-    <row r="70" spans="1:12" s="47" customFormat="1">
+    <row r="70" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="48"/>
       <c r="C70" s="7"/>
@@ -9786,7 +9849,7 @@
       <c r="K70" s="8"/>
       <c r="L70" s="21"/>
     </row>
-    <row r="71" spans="1:12" s="47" customFormat="1">
+    <row r="71" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="48" t="s">
         <v>835</v>
@@ -9808,7 +9871,7 @@
       <c r="K71" s="8"/>
       <c r="L71" s="21"/>
     </row>
-    <row r="72" spans="1:12" s="47" customFormat="1">
+    <row r="72" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="B72" s="48"/>
       <c r="C72" s="7"/>
@@ -9817,28 +9880,30 @@
       <c r="F72" s="5"/>
       <c r="G72" s="48"/>
       <c r="H72" s="50" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="I72" s="48"/>
       <c r="J72" s="48"/>
       <c r="K72" s="8"/>
       <c r="L72" s="21"/>
     </row>
-    <row r="73" spans="1:12" s="47" customFormat="1">
+    <row r="73" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
       <c r="B73" s="48"/>
       <c r="C73" s="7"/>
       <c r="D73" s="5"/>
-      <c r="E73" s="9"/>
+      <c r="E73" s="94"/>
       <c r="F73" s="5"/>
       <c r="G73" s="48"/>
-      <c r="H73" s="48"/>
+      <c r="H73" s="93" t="s">
+        <v>962</v>
+      </c>
       <c r="I73" s="48"/>
       <c r="J73" s="48"/>
       <c r="K73" s="8"/>
       <c r="L73" s="21"/>
     </row>
-    <row r="74" spans="1:12" s="47" customFormat="1">
+    <row r="74" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
       <c r="B74" s="48"/>
       <c r="C74" s="7"/>
@@ -9852,7 +9917,7 @@
       <c r="K74" s="8"/>
       <c r="L74" s="21"/>
     </row>
-    <row r="75" spans="1:12" s="47" customFormat="1">
+    <row r="75" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
       <c r="B75" s="48"/>
       <c r="C75" s="7"/>
@@ -9866,7 +9931,7 @@
       <c r="K75" s="8"/>
       <c r="L75" s="21"/>
     </row>
-    <row r="76" spans="1:12" s="47" customFormat="1">
+    <row r="76" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
       <c r="B76" s="48"/>
       <c r="C76" s="7"/>
@@ -9880,7 +9945,7 @@
       <c r="K76" s="8"/>
       <c r="L76" s="21"/>
     </row>
-    <row r="77" spans="1:12" s="47" customFormat="1">
+    <row r="77" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3"/>
       <c r="B77" s="48"/>
       <c r="C77" s="7"/>
@@ -9894,7 +9959,7 @@
       <c r="K77" s="8"/>
       <c r="L77" s="21"/>
     </row>
-    <row r="78" spans="1:12" s="47" customFormat="1">
+    <row r="78" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
       <c r="B78" s="48"/>
       <c r="C78" s="7"/>
@@ -9908,7 +9973,7 @@
       <c r="K78" s="8"/>
       <c r="L78" s="21"/>
     </row>
-    <row r="79" spans="1:12" s="47" customFormat="1">
+    <row r="79" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3"/>
       <c r="B79" s="48"/>
       <c r="C79" s="7"/>
@@ -9922,7 +9987,7 @@
       <c r="K79" s="8"/>
       <c r="L79" s="21"/>
     </row>
-    <row r="80" spans="1:12" s="47" customFormat="1">
+    <row r="80" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
       <c r="B80" s="48"/>
       <c r="C80" s="7"/>
@@ -9936,7 +10001,7 @@
       <c r="K80" s="8"/>
       <c r="L80" s="21"/>
     </row>
-    <row r="81" spans="1:14" s="47" customFormat="1">
+    <row r="81" spans="1:14" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
       <c r="B81" s="48"/>
       <c r="C81" s="7"/>
@@ -9950,7 +10015,7 @@
       <c r="K81" s="8"/>
       <c r="L81" s="21"/>
     </row>
-    <row r="82" spans="1:14" s="47" customFormat="1">
+    <row r="82" spans="1:14" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
       <c r="B82" s="48"/>
       <c r="C82" s="7"/>
@@ -9964,7 +10029,7 @@
       <c r="K82" s="8"/>
       <c r="L82" s="21"/>
     </row>
-    <row r="83" spans="1:14" s="47" customFormat="1">
+    <row r="83" spans="1:14" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
       <c r="B83" s="48"/>
       <c r="C83" s="7"/>
@@ -9978,7 +10043,7 @@
       <c r="K83" s="8"/>
       <c r="L83" s="21"/>
     </row>
-    <row r="84" spans="1:14" s="47" customFormat="1">
+    <row r="84" spans="1:14" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
       <c r="B84" s="48"/>
       <c r="C84" s="7"/>
@@ -9992,7 +10057,7 @@
       <c r="K84" s="8"/>
       <c r="L84" s="21"/>
     </row>
-    <row r="85" spans="1:14" s="47" customFormat="1">
+    <row r="85" spans="1:14" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
       <c r="B85" s="48"/>
       <c r="C85" s="7"/>
@@ -10006,7 +10071,7 @@
       <c r="K85" s="8"/>
       <c r="L85" s="21"/>
     </row>
-    <row r="86" spans="1:14" s="47" customFormat="1">
+    <row r="86" spans="1:14" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
       <c r="B86" s="48"/>
       <c r="C86" s="7"/>
@@ -10020,7 +10085,7 @@
       <c r="K86" s="8"/>
       <c r="L86" s="21"/>
     </row>
-    <row r="87" spans="1:14" s="47" customFormat="1">
+    <row r="87" spans="1:14" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
       <c r="B87" s="48"/>
       <c r="C87" s="7"/>
@@ -10034,7 +10099,7 @@
       <c r="K87" s="8"/>
       <c r="L87" s="21"/>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>18</v>
       </c>
@@ -10060,7 +10125,7 @@
       <c r="K88" s="8"/>
       <c r="L88" s="2"/>
     </row>
-    <row r="89" spans="1:14" s="47" customFormat="1">
+    <row r="89" spans="1:14" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3"/>
       <c r="B89" s="48" t="s">
         <v>772</v>
@@ -10082,7 +10147,7 @@
       <c r="K89" s="8"/>
       <c r="L89" s="21"/>
     </row>
-    <row r="90" spans="1:14" s="47" customFormat="1">
+    <row r="90" spans="1:14" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3"/>
       <c r="B90" s="48"/>
       <c r="C90" s="5"/>
@@ -10098,7 +10163,7 @@
       <c r="K90" s="8"/>
       <c r="L90" s="21"/>
     </row>
-    <row r="91" spans="1:14" hidden="1">
+    <row r="91" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="B91" s="1" t="s">
         <v>474</v>
       </c>
@@ -10115,22 +10180,22 @@
         <v>477</v>
       </c>
     </row>
-    <row r="92" spans="1:14" hidden="1">
+    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="H92" s="26" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="93" spans="1:14" hidden="1">
+    <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="H93" s="26" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="94" spans="1:14" hidden="1">
+    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="H94" s="26" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="95" spans="1:14" hidden="1">
+    <row r="95" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="H95" s="26" t="s">
         <v>481</v>
       </c>
@@ -10141,7 +10206,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="96" spans="1:14" hidden="1">
+    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="H96" s="26" t="s">
         <v>482</v>
       </c>
@@ -10149,7 +10214,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="97" spans="1:14" hidden="1">
+    <row r="97" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -10168,17 +10233,17 @@
         <v>512</v>
       </c>
     </row>
-    <row r="98" spans="1:14" hidden="1">
+    <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="H98" s="26" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="99" spans="1:14" hidden="1">
+    <row r="99" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="H99" s="26" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="100" spans="1:14" hidden="1">
+    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="H100" s="77" t="s">
         <v>486</v>
       </c>
@@ -10186,42 +10251,42 @@
         <v>508</v>
       </c>
     </row>
-    <row r="101" spans="1:14" hidden="1">
+    <row r="101" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="H101" s="26" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.15">
       <c r="H102" s="26" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.15">
       <c r="H103" s="26" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.15">
       <c r="H104" s="26" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.15">
       <c r="H105" s="26" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.15">
       <c r="H106" s="26" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.15">
       <c r="H107" s="26" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.15">
       <c r="H108" s="26" t="s">
         <v>815</v>
       </c>
@@ -10294,6 +10359,7 @@
     <hyperlink ref="H108" location="任务目标" display="配表类型完善"/>
     <hyperlink ref="H71" location="_2015_12_26修改需求" display="补充任务拆分"/>
     <hyperlink ref="H72" location="循环性" display="任务目标参数确定"/>
+    <hyperlink ref="H73" location="数据记录!A1" display="补充两个任务目标需求"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10308,17 +10374,17 @@
       <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="8.875" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="47" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="47">
         <v>1</v>
       </c>
@@ -10326,12 +10392,12 @@
         <v>571</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C13" s="47" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B15" s="47">
         <v>2</v>
       </c>
@@ -10339,7 +10405,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B20" s="47">
         <v>3</v>
       </c>
@@ -10347,7 +10413,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B28" s="47">
         <v>4</v>
       </c>
@@ -10355,7 +10421,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B37" s="47">
         <v>5</v>
       </c>
@@ -10363,12 +10429,12 @@
         <v>576</v>
       </c>
     </row>
-    <row r="54" spans="2:3">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C54" s="47" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="56" spans="2:3">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B56" s="47">
         <v>6</v>
       </c>
@@ -10376,12 +10442,12 @@
         <v>578</v>
       </c>
     </row>
-    <row r="73" spans="2:3">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C73" s="47" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="75" spans="2:3">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B75" s="47">
         <v>7</v>
       </c>
@@ -10389,7 +10455,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="77" spans="2:3">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B77" s="47">
         <v>8</v>
       </c>
@@ -10397,7 +10463,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="79" spans="2:3">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B79" s="47">
         <v>9</v>
       </c>
@@ -10405,17 +10471,17 @@
         <v>582</v>
       </c>
     </row>
-    <row r="80" spans="2:3">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C80" s="47" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="81" spans="3:3">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C81" s="47" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="82" spans="3:3">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C82" s="47" t="s">
         <v>585</v>
       </c>
@@ -10435,27 +10501,27 @@
       <selection activeCell="L169" sqref="L169"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="44.5" style="47" customWidth="1"/>
     <col min="2" max="2" width="8.875" style="11"/>
     <col min="3" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B1" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C2" s="62" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C3" s="62"/>
     </row>
-    <row r="32" spans="2:5">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B32" s="31"/>
       <c r="C32" s="30" t="s">
         <v>340</v>
@@ -10463,7 +10529,7 @@
       <c r="D32" s="30"/>
       <c r="E32" s="30"/>
     </row>
-    <row r="33" spans="2:11">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B33" s="31"/>
       <c r="C33" s="30"/>
       <c r="D33" s="30" t="s">
@@ -10471,13 +10537,13 @@
       </c>
       <c r="E33" s="30"/>
     </row>
-    <row r="34" spans="2:11">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B34" s="31"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
       <c r="E34" s="30"/>
     </row>
-    <row r="35" spans="2:11">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B35" s="31"/>
       <c r="C35" s="30" t="s">
         <v>27</v>
@@ -10485,12 +10551,12 @@
       <c r="D35" s="30"/>
       <c r="E35" s="30"/>
     </row>
-    <row r="36" spans="2:11">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.15">
       <c r="D36" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="2:11">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B38" s="31"/>
       <c r="C38" s="30" t="s">
         <v>354</v>
@@ -10504,7 +10570,7 @@
       <c r="J38" s="30"/>
       <c r="K38" s="30"/>
     </row>
-    <row r="39" spans="2:11">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B39" s="31"/>
       <c r="C39" s="30"/>
       <c r="D39" s="30" t="s">
@@ -10520,7 +10586,7 @@
       <c r="J39" s="30"/>
       <c r="K39" s="30"/>
     </row>
-    <row r="40" spans="2:11">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B40" s="31"/>
       <c r="C40" s="30"/>
       <c r="D40" s="30" t="s">
@@ -10536,7 +10602,7 @@
       <c r="J40" s="30"/>
       <c r="K40" s="30"/>
     </row>
-    <row r="41" spans="2:11">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B41" s="31"/>
       <c r="C41" s="30"/>
       <c r="D41" s="30" t="s">
@@ -10552,7 +10618,7 @@
       <c r="J41" s="30"/>
       <c r="K41" s="30"/>
     </row>
-    <row r="42" spans="2:11">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B42" s="31"/>
       <c r="C42" s="30"/>
       <c r="D42" s="30"/>
@@ -10564,7 +10630,7 @@
       <c r="J42" s="30"/>
       <c r="K42" s="30"/>
     </row>
-    <row r="43" spans="2:11">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B43" s="31"/>
       <c r="C43" s="30" t="s">
         <v>29</v>
@@ -10578,7 +10644,7 @@
       <c r="J43" s="30"/>
       <c r="K43" s="30"/>
     </row>
-    <row r="44" spans="2:11">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B44" s="31"/>
       <c r="C44" s="30"/>
       <c r="D44" s="30" t="s">
@@ -10594,7 +10660,7 @@
       <c r="J44" s="30"/>
       <c r="K44" s="30"/>
     </row>
-    <row r="45" spans="2:11">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B45" s="31"/>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
@@ -10610,7 +10676,7 @@
       <c r="J45" s="30"/>
       <c r="K45" s="30"/>
     </row>
-    <row r="46" spans="2:11">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B46" s="31"/>
       <c r="C46" s="30"/>
       <c r="D46" s="30" t="s">
@@ -10626,7 +10692,7 @@
       <c r="J46" s="30"/>
       <c r="K46" s="30"/>
     </row>
-    <row r="47" spans="2:11">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B47" s="31"/>
       <c r="C47" s="30"/>
       <c r="D47" s="30"/>
@@ -10642,7 +10708,7 @@
       <c r="J47" s="30"/>
       <c r="K47" s="30"/>
     </row>
-    <row r="48" spans="2:11">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B48" s="31"/>
       <c r="C48" s="30"/>
       <c r="D48" s="30" t="s">
@@ -10658,7 +10724,7 @@
       <c r="J48" s="30"/>
       <c r="K48" s="30"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B49" s="31"/>
       <c r="C49" s="30"/>
       <c r="D49" s="30"/>
@@ -10674,7 +10740,7 @@
       <c r="J49" s="30"/>
       <c r="K49" s="30"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B50" s="31"/>
       <c r="C50" s="30"/>
       <c r="D50" s="30" t="s">
@@ -10690,7 +10756,7 @@
       <c r="J50" s="30"/>
       <c r="K50" s="30"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B51" s="31"/>
       <c r="C51" s="30"/>
       <c r="D51" s="30"/>
@@ -10708,7 +10774,7 @@
       <c r="J51" s="30"/>
       <c r="K51" s="30"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B52" s="31"/>
       <c r="C52" s="30"/>
       <c r="D52" s="30"/>
@@ -10726,7 +10792,7 @@
       <c r="J52" s="30"/>
       <c r="K52" s="30"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B53" s="31"/>
       <c r="C53" s="30"/>
       <c r="D53" s="30" t="s">
@@ -10742,7 +10808,7 @@
       <c r="J53" s="30"/>
       <c r="K53" s="30"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B54" s="31"/>
       <c r="C54" s="30"/>
       <c r="D54" s="30"/>
@@ -10756,7 +10822,7 @@
       <c r="J54" s="30"/>
       <c r="K54" s="30"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B55" s="31"/>
       <c r="C55" s="30"/>
       <c r="D55" s="30"/>
@@ -10770,7 +10836,7 @@
       <c r="J55" s="30"/>
       <c r="K55" s="30"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B56" s="31"/>
       <c r="C56" s="30"/>
       <c r="D56" s="30"/>
@@ -10784,7 +10850,7 @@
       <c r="J56" s="30"/>
       <c r="K56" s="30"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
       <c r="E57" s="25"/>
@@ -10795,7 +10861,7 @@
       <c r="J57" s="25"/>
       <c r="K57" s="25"/>
     </row>
-    <row r="58" spans="1:11" s="38" customFormat="1">
+    <row r="58" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="47"/>
       <c r="B58" s="37"/>
       <c r="C58" s="40"/>
@@ -10810,7 +10876,7 @@
       <c r="J58" s="40"/>
       <c r="K58" s="40"/>
     </row>
-    <row r="59" spans="1:11" s="38" customFormat="1">
+    <row r="59" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="47"/>
       <c r="B59" s="37"/>
       <c r="C59" s="40"/>
@@ -10825,7 +10891,7 @@
       <c r="J59" s="40"/>
       <c r="K59" s="40"/>
     </row>
-    <row r="60" spans="1:11" s="38" customFormat="1">
+    <row r="60" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="47"/>
       <c r="B60" s="37"/>
       <c r="C60" s="40"/>
@@ -10842,7 +10908,7 @@
       <c r="J60" s="40"/>
       <c r="K60" s="40"/>
     </row>
-    <row r="61" spans="1:11" s="38" customFormat="1">
+    <row r="61" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61" s="47"/>
       <c r="B61" s="37"/>
       <c r="C61" s="40"/>
@@ -10861,7 +10927,7 @@
       <c r="J61" s="40"/>
       <c r="K61" s="40"/>
     </row>
-    <row r="62" spans="1:11" s="38" customFormat="1">
+    <row r="62" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A62" s="47"/>
       <c r="B62" s="37"/>
       <c r="C62" s="40"/>
@@ -10876,7 +10942,7 @@
       <c r="J62" s="40"/>
       <c r="K62" s="40"/>
     </row>
-    <row r="63" spans="1:11" s="38" customFormat="1">
+    <row r="63" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A63" s="47"/>
       <c r="B63" s="37"/>
       <c r="C63" s="40"/>
@@ -10889,12 +10955,12 @@
       <c r="J63" s="40"/>
       <c r="K63" s="40"/>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C64" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="3:16">
+    <row r="66" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C66" s="62"/>
       <c r="D66" s="62"/>
       <c r="E66" s="62"/>
@@ -10910,7 +10976,7 @@
       <c r="O66" s="62"/>
       <c r="P66" s="62"/>
     </row>
-    <row r="67" spans="3:16">
+    <row r="67" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C67" s="62"/>
       <c r="D67" s="62"/>
       <c r="E67" s="62"/>
@@ -10926,7 +10992,7 @@
       <c r="O67" s="62"/>
       <c r="P67" s="62"/>
     </row>
-    <row r="68" spans="3:16">
+    <row r="68" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C68" s="62"/>
       <c r="D68" s="62"/>
       <c r="E68" s="62"/>
@@ -10942,7 +11008,7 @@
       <c r="O68" s="62"/>
       <c r="P68" s="62"/>
     </row>
-    <row r="69" spans="3:16">
+    <row r="69" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C69" s="62"/>
       <c r="D69" s="62"/>
       <c r="E69" s="62"/>
@@ -10958,7 +11024,7 @@
       <c r="O69" s="62"/>
       <c r="P69" s="62"/>
     </row>
-    <row r="70" spans="3:16">
+    <row r="70" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C70" s="62"/>
       <c r="D70" s="62"/>
       <c r="E70" s="62"/>
@@ -10974,7 +11040,7 @@
       <c r="O70" s="62"/>
       <c r="P70" s="62"/>
     </row>
-    <row r="71" spans="3:16">
+    <row r="71" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C71" s="62"/>
       <c r="D71" s="62"/>
       <c r="E71" s="62"/>
@@ -10990,7 +11056,7 @@
       <c r="O71" s="62"/>
       <c r="P71" s="62"/>
     </row>
-    <row r="72" spans="3:16">
+    <row r="72" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C72" s="62"/>
       <c r="D72" s="62"/>
       <c r="E72" s="62"/>
@@ -11006,7 +11072,7 @@
       <c r="O72" s="62"/>
       <c r="P72" s="62"/>
     </row>
-    <row r="73" spans="3:16">
+    <row r="73" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C73" s="62"/>
       <c r="D73" s="62"/>
       <c r="E73" s="62"/>
@@ -11022,7 +11088,7 @@
       <c r="O73" s="62"/>
       <c r="P73" s="62"/>
     </row>
-    <row r="74" spans="3:16">
+    <row r="74" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C74" s="62"/>
       <c r="D74" s="62"/>
       <c r="E74" s="62"/>
@@ -11038,7 +11104,7 @@
       <c r="O74" s="62"/>
       <c r="P74" s="62"/>
     </row>
-    <row r="75" spans="3:16">
+    <row r="75" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C75" s="62"/>
       <c r="D75" s="62"/>
       <c r="E75" s="62"/>
@@ -11054,7 +11120,7 @@
       <c r="O75" s="62"/>
       <c r="P75" s="62"/>
     </row>
-    <row r="76" spans="3:16">
+    <row r="76" spans="3:16" x14ac:dyDescent="0.15">
       <c r="D76" s="73" t="s">
         <v>31</v>
       </c>
@@ -11065,7 +11131,7 @@
       <c r="I76" s="30"/>
       <c r="J76" s="30"/>
     </row>
-    <row r="77" spans="3:16">
+    <row r="77" spans="3:16" x14ac:dyDescent="0.15">
       <c r="D77" s="73"/>
       <c r="E77" s="73" t="s">
         <v>32</v>
@@ -11076,7 +11142,7 @@
       <c r="I77" s="30"/>
       <c r="J77" s="30"/>
     </row>
-    <row r="78" spans="3:16">
+    <row r="78" spans="3:16" x14ac:dyDescent="0.15">
       <c r="D78" s="73"/>
       <c r="E78" s="73" t="s">
         <v>434</v>
@@ -11087,7 +11153,7 @@
       <c r="I78" s="30"/>
       <c r="J78" s="30"/>
     </row>
-    <row r="79" spans="3:16">
+    <row r="79" spans="3:16" x14ac:dyDescent="0.15">
       <c r="D79" s="73" t="s">
         <v>33</v>
       </c>
@@ -11098,7 +11164,7 @@
       <c r="I79" s="30"/>
       <c r="J79" s="30"/>
     </row>
-    <row r="80" spans="3:16">
+    <row r="80" spans="3:16" x14ac:dyDescent="0.15">
       <c r="D80" s="73"/>
       <c r="E80" s="73" t="s">
         <v>373</v>
@@ -11109,7 +11175,7 @@
       <c r="I80" s="30"/>
       <c r="J80" s="30"/>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A81" s="47" t="s">
         <v>711</v>
       </c>
@@ -11121,7 +11187,7 @@
       <c r="I81" s="30"/>
       <c r="J81" s="30"/>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A82" s="71" t="s">
         <v>716</v>
       </c>
@@ -11135,34 +11201,34 @@
       <c r="I82" s="30"/>
       <c r="J82" s="30"/>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.15">
       <c r="E83" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.15">
       <c r="E84" s="70"/>
       <c r="F84" s="62"/>
       <c r="G84" s="41"/>
       <c r="H84" s="41"/>
       <c r="I84" s="41"/>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.15">
       <c r="E86" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.15">
       <c r="E87" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.15">
       <c r="E88" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
       <c r="E90" s="30" t="s">
         <v>182</v>
       </c>
@@ -11174,7 +11240,7 @@
       <c r="K90" s="30"/>
       <c r="L90" s="30"/>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.15">
       <c r="E91" s="30"/>
       <c r="F91" s="30" t="s">
         <v>211</v>
@@ -11186,7 +11252,7 @@
       <c r="K91" s="30"/>
       <c r="L91" s="30"/>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.15">
       <c r="E92" s="30"/>
       <c r="F92" s="30" t="s">
         <v>188</v>
@@ -11198,7 +11264,7 @@
       <c r="K92" s="30"/>
       <c r="L92" s="30"/>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B93" s="37"/>
       <c r="C93" s="38"/>
       <c r="D93" s="38"/>
@@ -11215,7 +11281,7 @@
       <c r="K93" s="30"/>
       <c r="L93" s="30"/>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B94" s="37"/>
       <c r="C94" s="38"/>
       <c r="D94" s="38"/>
@@ -11232,7 +11298,7 @@
       <c r="K94" s="30"/>
       <c r="L94" s="30"/>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B95" s="37"/>
       <c r="C95" s="38"/>
       <c r="D95" s="38"/>
@@ -11249,7 +11315,7 @@
       <c r="K95" s="30"/>
       <c r="L95" s="30"/>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B96" s="37"/>
       <c r="C96" s="38"/>
       <c r="D96" s="38"/>
@@ -11266,7 +11332,7 @@
       <c r="K96" s="30"/>
       <c r="L96" s="30"/>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B97" s="37"/>
       <c r="C97" s="38"/>
       <c r="D97" s="38"/>
@@ -11281,7 +11347,7 @@
       <c r="K97" s="30"/>
       <c r="L97" s="30"/>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B98" s="37"/>
       <c r="C98" s="38"/>
       <c r="D98" s="38"/>
@@ -11298,7 +11364,7 @@
       <c r="K98" s="30"/>
       <c r="L98" s="30"/>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B99" s="37"/>
       <c r="C99" s="38"/>
       <c r="D99" s="38"/>
@@ -11315,7 +11381,7 @@
       <c r="K99" s="30"/>
       <c r="L99" s="30"/>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B100" s="37"/>
       <c r="C100" s="38"/>
       <c r="D100" s="38"/>
@@ -11330,7 +11396,7 @@
       <c r="K100" s="30"/>
       <c r="L100" s="30"/>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B101" s="37"/>
       <c r="C101" s="38"/>
       <c r="D101" s="38"/>
@@ -11347,7 +11413,7 @@
       <c r="K101" s="30"/>
       <c r="L101" s="30"/>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B102" s="37"/>
       <c r="C102" s="38"/>
       <c r="D102" s="38"/>
@@ -11362,7 +11428,7 @@
       <c r="K102" s="30"/>
       <c r="L102" s="30"/>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B103" s="37"/>
       <c r="C103" s="38"/>
       <c r="D103" s="38"/>
@@ -11379,7 +11445,7 @@
       <c r="K103" s="30"/>
       <c r="L103" s="30"/>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B104" s="37"/>
       <c r="C104" s="38"/>
       <c r="D104" s="38"/>
@@ -11394,7 +11460,7 @@
       <c r="K104" s="30"/>
       <c r="L104" s="30"/>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A105" s="47" t="s">
         <v>712</v>
       </c>
@@ -11414,7 +11480,7 @@
       <c r="K105" s="58"/>
       <c r="L105" s="30"/>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A106" s="71" t="s">
         <v>717</v>
       </c>
@@ -11432,7 +11498,7 @@
       <c r="K106" s="30"/>
       <c r="L106" s="30"/>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B107" s="37"/>
       <c r="C107" s="38"/>
       <c r="D107" s="38"/>
@@ -11449,7 +11515,7 @@
       <c r="K107" s="30"/>
       <c r="L107" s="30"/>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B108" s="37"/>
       <c r="C108" s="38"/>
       <c r="D108" s="38"/>
@@ -11464,7 +11530,7 @@
       <c r="K108" s="30"/>
       <c r="L108" s="30"/>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B109" s="37"/>
       <c r="C109" s="38"/>
       <c r="D109" s="38"/>
@@ -11481,7 +11547,7 @@
       <c r="K109" s="30"/>
       <c r="L109" s="30"/>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B110" s="37"/>
       <c r="C110" s="38"/>
       <c r="D110" s="38"/>
@@ -11497,7 +11563,7 @@
       <c r="L110" s="30"/>
       <c r="M110" s="30"/>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B111" s="37"/>
       <c r="C111" s="38"/>
       <c r="D111" s="38"/>
@@ -11515,7 +11581,7 @@
       <c r="L111" s="30"/>
       <c r="M111" s="30"/>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.15">
       <c r="E112" s="30"/>
       <c r="F112" s="30" t="s">
         <v>374</v>
@@ -11528,7 +11594,7 @@
       <c r="L112" s="30"/>
       <c r="M112" s="30"/>
     </row>
-    <row r="113" spans="1:15">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E113" s="30"/>
       <c r="F113" s="30"/>
       <c r="G113" s="30" t="s">
@@ -11543,7 +11609,7 @@
       <c r="L113" s="30"/>
       <c r="M113" s="30"/>
     </row>
-    <row r="114" spans="1:15">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E114" s="30"/>
       <c r="F114" s="30" t="s">
         <v>375</v>
@@ -11556,7 +11622,7 @@
       <c r="L114" s="30"/>
       <c r="M114" s="30"/>
     </row>
-    <row r="115" spans="1:15">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E115" s="30"/>
       <c r="F115" s="30"/>
       <c r="G115" s="30" t="s">
@@ -11571,7 +11637,7 @@
       <c r="L115" s="30"/>
       <c r="M115" s="30"/>
     </row>
-    <row r="116" spans="1:15">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E116" s="30"/>
       <c r="F116" s="30" t="s">
         <v>376</v>
@@ -11584,7 +11650,7 @@
       <c r="L116" s="30"/>
       <c r="M116" s="30"/>
     </row>
-    <row r="117" spans="1:15">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E117" s="30"/>
       <c r="F117" s="30"/>
       <c r="G117" s="30" t="s">
@@ -11599,7 +11665,7 @@
       <c r="L117" s="30"/>
       <c r="M117" s="30"/>
     </row>
-    <row r="118" spans="1:15" s="47" customFormat="1">
+    <row r="118" spans="1:15" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B118" s="37"/>
       <c r="E118" s="41"/>
       <c r="F118" s="41"/>
@@ -11611,7 +11677,7 @@
       <c r="L118" s="41"/>
       <c r="M118" s="41"/>
     </row>
-    <row r="119" spans="1:15">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.15">
       <c r="D119" s="1" t="s">
         <v>36</v>
       </c>
@@ -11625,12 +11691,12 @@
       <c r="L119" s="30"/>
       <c r="M119" s="30"/>
     </row>
-    <row r="120" spans="1:15">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E120" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="121" spans="1:15">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.15">
       <c r="D121" s="30"/>
       <c r="E121" s="58" t="s">
         <v>780</v>
@@ -11646,7 +11712,7 @@
       <c r="N121" s="28"/>
       <c r="O121" s="28"/>
     </row>
-    <row r="122" spans="1:15">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.15">
       <c r="D122" s="30"/>
       <c r="E122" s="30"/>
       <c r="F122" s="30"/>
@@ -11657,7 +11723,7 @@
       <c r="K122" s="30"/>
       <c r="L122" s="30"/>
     </row>
-    <row r="123" spans="1:15" s="47" customFormat="1">
+    <row r="123" spans="1:15" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B123" s="37"/>
       <c r="D123" s="41"/>
       <c r="E123" s="41"/>
@@ -11669,7 +11735,7 @@
       <c r="K123" s="41"/>
       <c r="L123" s="41"/>
     </row>
-    <row r="124" spans="1:15" s="47" customFormat="1">
+    <row r="124" spans="1:15" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B124" s="37"/>
       <c r="D124" s="41"/>
       <c r="E124" s="41"/>
@@ -11681,7 +11747,7 @@
       <c r="K124" s="41"/>
       <c r="L124" s="41"/>
     </row>
-    <row r="125" spans="1:15">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A125" s="68" t="s">
         <v>697</v>
       </c>
@@ -11697,7 +11763,7 @@
       <c r="K125" s="30"/>
       <c r="L125" s="30"/>
     </row>
-    <row r="126" spans="1:15">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A126" s="71" t="s">
         <v>718</v>
       </c>
@@ -11713,7 +11779,7 @@
       <c r="K126" s="30"/>
       <c r="L126" s="30"/>
     </row>
-    <row r="127" spans="1:15">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.15">
       <c r="D127" s="30"/>
       <c r="E127" s="30" t="s">
         <v>428</v>
@@ -11726,7 +11792,7 @@
       <c r="K127" s="30"/>
       <c r="L127" s="30"/>
     </row>
-    <row r="128" spans="1:15">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.15">
       <c r="D128" s="30"/>
       <c r="E128" s="30"/>
       <c r="F128" s="30"/>
@@ -11737,12 +11803,12 @@
       <c r="K128" s="30"/>
       <c r="L128" s="30"/>
     </row>
-    <row r="145" spans="1:11" hidden="1">
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D145" s="59" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="146" spans="1:11" hidden="1">
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="E146" s="30" t="s">
         <v>50</v>
       </c>
@@ -11753,7 +11819,7 @@
       <c r="J146" s="30"/>
       <c r="K146" s="30"/>
     </row>
-    <row r="147" spans="1:11" hidden="1">
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="E147" s="30" t="s">
         <v>178</v>
       </c>
@@ -11764,7 +11830,7 @@
       <c r="J147" s="30"/>
       <c r="K147" s="30"/>
     </row>
-    <row r="148" spans="1:11" hidden="1">
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="E148" s="30" t="s">
         <v>39</v>
       </c>
@@ -11775,7 +11841,7 @@
       <c r="J148" s="30"/>
       <c r="K148" s="30"/>
     </row>
-    <row r="149" spans="1:11" hidden="1">
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="B149" s="37"/>
       <c r="E149" s="30"/>
       <c r="F149" s="30" t="s">
@@ -11787,7 +11853,7 @@
       <c r="J149" s="30"/>
       <c r="K149" s="30"/>
     </row>
-    <row r="150" spans="1:11" hidden="1">
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="B150" s="37"/>
       <c r="E150" s="30" t="s">
         <v>43</v>
@@ -11799,7 +11865,7 @@
       <c r="J150" s="30"/>
       <c r="K150" s="30"/>
     </row>
-    <row r="151" spans="1:11" hidden="1">
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="B151" s="37"/>
       <c r="E151" s="30"/>
       <c r="F151" s="30" t="s">
@@ -11811,7 +11877,7 @@
       <c r="J151" s="30"/>
       <c r="K151" s="30"/>
     </row>
-    <row r="152" spans="1:11" hidden="1">
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="B152" s="37"/>
       <c r="E152" s="30"/>
       <c r="F152" s="30" t="s">
@@ -11823,7 +11889,7 @@
       <c r="J152" s="30"/>
       <c r="K152" s="30"/>
     </row>
-    <row r="153" spans="1:11" hidden="1">
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="E153" s="30"/>
       <c r="F153" s="30" t="s">
         <v>385</v>
@@ -11834,7 +11900,7 @@
       <c r="J153" s="30"/>
       <c r="K153" s="30"/>
     </row>
-    <row r="154" spans="1:11" hidden="1">
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="E154" s="30"/>
       <c r="F154" s="30"/>
       <c r="G154" s="30" t="s">
@@ -11845,7 +11911,7 @@
       <c r="J154" s="30"/>
       <c r="K154" s="30"/>
     </row>
-    <row r="155" spans="1:11" hidden="1">
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="E155" s="30"/>
       <c r="F155" s="30"/>
       <c r="G155" s="30"/>
@@ -11854,7 +11920,7 @@
       <c r="J155" s="30"/>
       <c r="K155" s="30"/>
     </row>
-    <row r="156" spans="1:11" s="47" customFormat="1" hidden="1">
+    <row r="156" spans="1:11" s="47" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B156" s="37"/>
       <c r="D156" s="61" t="s">
         <v>658</v>
@@ -11867,7 +11933,7 @@
       <c r="J156" s="41"/>
       <c r="K156" s="41"/>
     </row>
-    <row r="157" spans="1:11" s="47" customFormat="1" hidden="1">
+    <row r="157" spans="1:11" s="47" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A157" s="71" t="s">
         <v>719</v>
       </c>
@@ -11883,7 +11949,7 @@
       <c r="J157" s="41"/>
       <c r="K157" s="41"/>
     </row>
-    <row r="158" spans="1:11" s="47" customFormat="1" hidden="1">
+    <row r="158" spans="1:11" s="47" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A158" s="68" t="s">
         <v>698</v>
       </c>
@@ -11899,7 +11965,7 @@
       <c r="J158" s="41"/>
       <c r="K158" s="41"/>
     </row>
-    <row r="159" spans="1:11" s="47" customFormat="1" hidden="1">
+    <row r="159" spans="1:11" s="47" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A159" s="68" t="s">
         <v>699</v>
       </c>
@@ -11913,7 +11979,7 @@
       <c r="J159" s="41"/>
       <c r="K159" s="41"/>
     </row>
-    <row r="160" spans="1:11" s="47" customFormat="1" hidden="1">
+    <row r="160" spans="1:11" s="47" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A160" s="71" t="s">
         <v>720</v>
       </c>
@@ -11927,7 +11993,7 @@
       <c r="J160" s="41"/>
       <c r="K160" s="41"/>
     </row>
-    <row r="161" spans="1:12" s="47" customFormat="1" hidden="1">
+    <row r="161" spans="1:12" s="47" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B161" s="37"/>
       <c r="D161" s="62"/>
       <c r="E161" s="60"/>
@@ -11940,7 +12006,7 @@
       <c r="J161" s="41"/>
       <c r="K161" s="41"/>
     </row>
-    <row r="162" spans="1:12" s="47" customFormat="1" hidden="1">
+    <row r="162" spans="1:12" s="47" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B162" s="37"/>
       <c r="D162" s="62"/>
       <c r="E162" s="60"/>
@@ -11953,7 +12019,7 @@
       <c r="J162" s="41"/>
       <c r="K162" s="41"/>
     </row>
-    <row r="163" spans="1:12" s="47" customFormat="1" hidden="1">
+    <row r="163" spans="1:12" s="47" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B163" s="37"/>
       <c r="D163" s="62"/>
       <c r="E163" s="60"/>
@@ -11964,7 +12030,7 @@
       <c r="J163" s="41"/>
       <c r="K163" s="41"/>
     </row>
-    <row r="164" spans="1:12">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.15">
       <c r="D164" s="1" t="s">
         <v>44</v>
       </c>
@@ -11976,7 +12042,7 @@
       <c r="J164" s="30"/>
       <c r="K164" s="30"/>
     </row>
-    <row r="165" spans="1:12">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.15">
       <c r="E165" s="30" t="s">
         <v>45</v>
       </c>
@@ -11987,7 +12053,7 @@
       <c r="J165" s="30"/>
       <c r="K165" s="30"/>
     </row>
-    <row r="166" spans="1:12">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.15">
       <c r="E166" s="30" t="s">
         <v>46</v>
       </c>
@@ -11998,7 +12064,7 @@
       <c r="J166" s="30"/>
       <c r="K166" s="30"/>
     </row>
-    <row r="167" spans="1:12">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.15">
       <c r="E167" s="30"/>
       <c r="F167" s="30" t="s">
         <v>48</v>
@@ -12009,7 +12075,7 @@
       <c r="J167" s="30"/>
       <c r="K167" s="30"/>
     </row>
-    <row r="168" spans="1:12">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.15">
       <c r="E168" s="30" t="s">
         <v>387</v>
       </c>
@@ -12020,7 +12086,7 @@
       <c r="J168" s="30"/>
       <c r="K168" s="30"/>
     </row>
-    <row r="169" spans="1:12">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.15">
       <c r="E169" s="30"/>
       <c r="F169" s="30" t="s">
         <v>49</v>
@@ -12034,7 +12100,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="170" spans="1:12">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.15">
       <c r="E170" s="30" t="s">
         <v>47</v>
       </c>
@@ -12045,7 +12111,7 @@
       <c r="J170" s="30"/>
       <c r="K170" s="30"/>
     </row>
-    <row r="171" spans="1:12">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.15">
       <c r="E171" s="30"/>
       <c r="F171" s="30"/>
       <c r="G171" s="30"/>
@@ -12054,7 +12120,7 @@
       <c r="J171" s="30"/>
       <c r="K171" s="30"/>
     </row>
-    <row r="172" spans="1:12">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.15">
       <c r="D172" s="1" t="s">
         <v>65</v>
       </c>
@@ -12066,7 +12132,7 @@
       <c r="J172" s="30"/>
       <c r="K172" s="30"/>
     </row>
-    <row r="173" spans="1:12">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A173" s="68" t="s">
         <v>700</v>
       </c>
@@ -12080,7 +12146,7 @@
       <c r="J173" s="30"/>
       <c r="K173" s="30"/>
     </row>
-    <row r="174" spans="1:12">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A174" s="71" t="s">
         <v>721</v>
       </c>
@@ -12095,7 +12161,7 @@
       <c r="J174" s="30"/>
       <c r="K174" s="30"/>
     </row>
-    <row r="175" spans="1:12" s="38" customFormat="1">
+    <row r="175" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A175" s="47"/>
       <c r="B175" s="37"/>
       <c r="D175" s="41"/>
@@ -12109,7 +12175,7 @@
       <c r="J175" s="41"/>
       <c r="K175" s="41"/>
     </row>
-    <row r="176" spans="1:12" s="38" customFormat="1">
+    <row r="176" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A176" s="47"/>
       <c r="B176" s="37"/>
       <c r="D176" s="41"/>
@@ -12121,7 +12187,7 @@
       <c r="J176" s="41"/>
       <c r="K176" s="41"/>
     </row>
-    <row r="177" spans="1:18">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.15">
       <c r="D177" s="30"/>
       <c r="E177" s="60" t="s">
         <v>738</v>
@@ -12133,7 +12199,7 @@
       <c r="J177" s="60"/>
       <c r="K177" s="30"/>
     </row>
-    <row r="178" spans="1:18">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.15">
       <c r="D178" s="30"/>
       <c r="E178" s="30" t="s">
         <v>388</v>
@@ -12144,7 +12210,7 @@
       <c r="I178" s="30"/>
       <c r="J178" s="30"/>
     </row>
-    <row r="179" spans="1:18">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.15">
       <c r="D179" s="30"/>
       <c r="E179" s="30" t="s">
         <v>100</v>
@@ -12155,7 +12221,7 @@
       <c r="I179" s="30"/>
       <c r="J179" s="30"/>
     </row>
-    <row r="180" spans="1:18">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.15">
       <c r="D180" s="30"/>
       <c r="E180" s="30"/>
       <c r="F180" s="30"/>
@@ -12164,7 +12230,7 @@
       <c r="I180" s="30"/>
       <c r="J180" s="30"/>
     </row>
-    <row r="181" spans="1:18" s="38" customFormat="1">
+    <row r="181" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A181" s="47"/>
       <c r="B181" s="37"/>
       <c r="D181" s="41"/>
@@ -12177,7 +12243,7 @@
       <c r="I181" s="41"/>
       <c r="J181" s="41"/>
     </row>
-    <row r="182" spans="1:18" s="38" customFormat="1">
+    <row r="182" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A182" s="47"/>
       <c r="B182" s="37"/>
       <c r="D182" s="41"/>
@@ -12196,7 +12262,7 @@
       <c r="O182" s="62"/>
       <c r="P182" s="62"/>
     </row>
-    <row r="183" spans="1:18" s="38" customFormat="1">
+    <row r="183" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A183" s="47" t="s">
         <v>713</v>
       </c>
@@ -12217,7 +12283,7 @@
       <c r="O183" s="62"/>
       <c r="P183" s="62"/>
     </row>
-    <row r="184" spans="1:18" s="38" customFormat="1">
+    <row r="184" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A184" s="71" t="s">
         <v>722</v>
       </c>
@@ -12240,7 +12306,7 @@
       <c r="Q184" s="28"/>
       <c r="R184" s="28"/>
     </row>
-    <row r="185" spans="1:18" s="38" customFormat="1">
+    <row r="185" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A185" s="47"/>
       <c r="B185" s="37"/>
       <c r="D185" s="41"/>
@@ -12251,17 +12317,17 @@
       <c r="I185" s="41"/>
       <c r="J185" s="41"/>
     </row>
-    <row r="186" spans="1:18">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B186" s="63"/>
       <c r="C186" s="62"/>
     </row>
-    <row r="187" spans="1:18">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B187" s="63" t="s">
         <v>53</v>
       </c>
       <c r="C187" s="62"/>
     </row>
-    <row r="188" spans="1:18">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A188" s="47" t="s">
         <v>714</v>
       </c>
@@ -12270,49 +12336,49 @@
         <v>54</v>
       </c>
     </row>
-    <row r="189" spans="1:18">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A189" s="71" t="s">
         <v>723</v>
       </c>
       <c r="B189" s="63"/>
       <c r="C189" s="62"/>
     </row>
-    <row r="190" spans="1:18">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A190" s="68" t="s">
         <v>701</v>
       </c>
       <c r="B190" s="63"/>
       <c r="C190" s="62"/>
     </row>
-    <row r="191" spans="1:18">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B191" s="63"/>
       <c r="C191" s="62"/>
     </row>
-    <row r="199" spans="2:11" s="47" customFormat="1">
+    <row r="199" spans="2:11" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B199" s="37"/>
     </row>
-    <row r="200" spans="2:11" s="47" customFormat="1">
+    <row r="200" spans="2:11" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B200" s="37"/>
     </row>
-    <row r="201" spans="2:11" s="47" customFormat="1">
+    <row r="201" spans="2:11" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B201" s="37"/>
     </row>
-    <row r="202" spans="2:11" s="47" customFormat="1">
+    <row r="202" spans="2:11" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B202" s="37"/>
     </row>
-    <row r="203" spans="2:11" s="47" customFormat="1">
+    <row r="203" spans="2:11" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B203" s="37"/>
     </row>
-    <row r="204" spans="2:11" s="47" customFormat="1">
+    <row r="204" spans="2:11" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B204" s="37"/>
     </row>
-    <row r="205" spans="2:11" s="47" customFormat="1">
+    <row r="205" spans="2:11" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B205" s="37"/>
     </row>
-    <row r="206" spans="2:11" s="47" customFormat="1">
+    <row r="206" spans="2:11" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B206" s="37"/>
     </row>
-    <row r="208" spans="2:11">
+    <row r="208" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C208" s="30"/>
       <c r="D208" s="30" t="s">
         <v>389</v>
@@ -12325,7 +12391,7 @@
       <c r="J208" s="30"/>
       <c r="K208" s="30"/>
     </row>
-    <row r="209" spans="2:11">
+    <row r="209" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C209" s="30"/>
       <c r="D209" s="30"/>
       <c r="E209" s="30" t="s">
@@ -12338,7 +12404,7 @@
       <c r="J209" s="30"/>
       <c r="K209" s="30"/>
     </row>
-    <row r="210" spans="2:11">
+    <row r="210" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C210" s="30"/>
       <c r="D210" s="30" t="s">
         <v>391</v>
@@ -12351,7 +12417,7 @@
       <c r="J210" s="30"/>
       <c r="K210" s="30"/>
     </row>
-    <row r="211" spans="2:11">
+    <row r="211" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C211" s="30"/>
       <c r="D211" s="30"/>
       <c r="E211" s="30" t="s">
@@ -12364,7 +12430,7 @@
       <c r="J211" s="30"/>
       <c r="K211" s="30"/>
     </row>
-    <row r="212" spans="2:11">
+    <row r="212" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C212" s="30"/>
       <c r="D212" s="30" t="s">
         <v>354</v>
@@ -12377,7 +12443,7 @@
       <c r="J212" s="30"/>
       <c r="K212" s="30"/>
     </row>
-    <row r="213" spans="2:11">
+    <row r="213" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C213" s="30"/>
       <c r="D213" s="30"/>
       <c r="E213" s="30" t="s">
@@ -12392,7 +12458,7 @@
       <c r="J213" s="30"/>
       <c r="K213" s="30"/>
     </row>
-    <row r="214" spans="2:11">
+    <row r="214" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C214" s="30"/>
       <c r="D214" s="30"/>
       <c r="E214" s="30" t="s">
@@ -12407,7 +12473,7 @@
       <c r="J214" s="30"/>
       <c r="K214" s="30"/>
     </row>
-    <row r="215" spans="2:11">
+    <row r="215" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C215" s="30"/>
       <c r="D215" s="30"/>
       <c r="E215" s="30"/>
@@ -12418,7 +12484,7 @@
       <c r="J215" s="30"/>
       <c r="K215" s="30"/>
     </row>
-    <row r="216" spans="2:11">
+    <row r="216" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C216" s="30"/>
       <c r="D216" s="30" t="s">
         <v>55</v>
@@ -12431,7 +12497,7 @@
       <c r="J216" s="30"/>
       <c r="K216" s="30"/>
     </row>
-    <row r="217" spans="2:11">
+    <row r="217" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C217" s="30"/>
       <c r="D217" s="30"/>
       <c r="E217" s="41" t="s">
@@ -12444,7 +12510,7 @@
       <c r="J217" s="30"/>
       <c r="K217" s="30"/>
     </row>
-    <row r="218" spans="2:11">
+    <row r="218" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C218" s="30"/>
       <c r="D218" s="30"/>
       <c r="E218" s="41" t="s">
@@ -12457,7 +12523,7 @@
       <c r="J218" s="30"/>
       <c r="K218" s="30"/>
     </row>
-    <row r="219" spans="2:11">
+    <row r="219" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C219" s="30"/>
       <c r="D219" s="30"/>
       <c r="E219" s="41"/>
@@ -12470,7 +12536,7 @@
       <c r="J219" s="30"/>
       <c r="K219" s="30"/>
     </row>
-    <row r="220" spans="2:11" s="47" customFormat="1">
+    <row r="220" spans="2:11" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B220" s="37"/>
       <c r="C220" s="41"/>
       <c r="D220" s="41"/>
@@ -12484,7 +12550,7 @@
       <c r="J220" s="41"/>
       <c r="K220" s="41"/>
     </row>
-    <row r="221" spans="2:11">
+    <row r="221" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C221" s="30"/>
       <c r="D221" s="30" t="s">
         <v>58</v>
@@ -12497,7 +12563,7 @@
       <c r="J221" s="30"/>
       <c r="K221" s="30"/>
     </row>
-    <row r="222" spans="2:11">
+    <row r="222" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C222" s="30"/>
       <c r="D222" s="30"/>
       <c r="E222" s="41" t="s">
@@ -12510,7 +12576,7 @@
       <c r="J222" s="30"/>
       <c r="K222" s="30"/>
     </row>
-    <row r="223" spans="2:11">
+    <row r="223" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C223" s="30"/>
       <c r="D223" s="30"/>
       <c r="E223" s="30" t="s">
@@ -12523,7 +12589,7 @@
       <c r="J223" s="30"/>
       <c r="K223" s="30"/>
     </row>
-    <row r="224" spans="2:11">
+    <row r="224" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C224" s="30"/>
       <c r="D224" s="30"/>
       <c r="E224" s="30" t="s">
@@ -12536,7 +12602,7 @@
       <c r="J224" s="30"/>
       <c r="K224" s="30"/>
     </row>
-    <row r="225" spans="2:12">
+    <row r="225" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C225" s="30"/>
       <c r="D225" s="30"/>
       <c r="E225" s="30" t="s">
@@ -12549,7 +12615,7 @@
       <c r="J225" s="30"/>
       <c r="K225" s="30"/>
     </row>
-    <row r="226" spans="2:12">
+    <row r="226" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C226" s="30"/>
       <c r="D226" s="30"/>
       <c r="E226" s="30" t="s">
@@ -12562,7 +12628,7 @@
       <c r="J226" s="30"/>
       <c r="K226" s="30"/>
     </row>
-    <row r="227" spans="2:12">
+    <row r="227" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C227" s="30"/>
       <c r="D227" s="30" t="s">
         <v>62</v>
@@ -12575,7 +12641,7 @@
       <c r="J227" s="30"/>
       <c r="K227" s="30"/>
     </row>
-    <row r="228" spans="2:12">
+    <row r="228" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B228" s="31"/>
       <c r="C228" s="30"/>
       <c r="D228" s="30"/>
@@ -12590,7 +12656,7 @@
       <c r="K228" s="30"/>
       <c r="L228" s="30"/>
     </row>
-    <row r="229" spans="2:12">
+    <row r="229" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B229" s="31"/>
       <c r="C229" s="30"/>
       <c r="D229" s="30"/>
@@ -12605,7 +12671,7 @@
       <c r="K229" s="30"/>
       <c r="L229" s="30"/>
     </row>
-    <row r="230" spans="2:12">
+    <row r="230" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B230" s="31"/>
       <c r="C230" s="30"/>
       <c r="D230" s="30" t="s">
@@ -12620,7 +12686,7 @@
       <c r="K230" s="30"/>
       <c r="L230" s="30"/>
     </row>
-    <row r="231" spans="2:12">
+    <row r="231" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B231" s="31"/>
       <c r="C231" s="30"/>
       <c r="D231" s="30"/>
@@ -12637,7 +12703,7 @@
       <c r="K231" s="30"/>
       <c r="L231" s="30"/>
     </row>
-    <row r="232" spans="2:12">
+    <row r="232" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B232" s="31"/>
       <c r="C232" s="30"/>
       <c r="D232" s="30"/>
@@ -12654,7 +12720,7 @@
       <c r="K232" s="30"/>
       <c r="L232" s="30"/>
     </row>
-    <row r="233" spans="2:12">
+    <row r="233" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B233" s="31"/>
       <c r="C233" s="30"/>
       <c r="D233" s="30"/>
@@ -12671,7 +12737,7 @@
       <c r="K233" s="30"/>
       <c r="L233" s="30"/>
     </row>
-    <row r="234" spans="2:12">
+    <row r="234" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B234" s="31"/>
       <c r="C234" s="30"/>
       <c r="D234" s="30"/>
@@ -12688,7 +12754,7 @@
       <c r="K234" s="30"/>
       <c r="L234" s="30"/>
     </row>
-    <row r="235" spans="2:12">
+    <row r="235" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B235" s="31"/>
       <c r="C235" s="30"/>
       <c r="D235" s="30"/>
@@ -12705,7 +12771,7 @@
       <c r="K235" s="30"/>
       <c r="L235" s="30"/>
     </row>
-    <row r="236" spans="2:12">
+    <row r="236" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B236" s="31"/>
       <c r="C236" s="30"/>
       <c r="D236" s="30"/>
@@ -12722,7 +12788,7 @@
       <c r="K236" s="30"/>
       <c r="L236" s="30"/>
     </row>
-    <row r="237" spans="2:12">
+    <row r="237" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B237" s="31"/>
       <c r="C237" s="30"/>
       <c r="D237" s="30"/>
@@ -12739,7 +12805,7 @@
       <c r="K237" s="30"/>
       <c r="L237" s="30"/>
     </row>
-    <row r="238" spans="2:12">
+    <row r="238" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B238" s="31"/>
       <c r="C238" s="30"/>
       <c r="D238" s="30"/>
@@ -12754,7 +12820,7 @@
       <c r="K238" s="30"/>
       <c r="L238" s="30"/>
     </row>
-    <row r="239" spans="2:12">
+    <row r="239" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B239" s="31"/>
       <c r="C239" s="30"/>
       <c r="D239" s="30"/>
@@ -12769,7 +12835,7 @@
       <c r="K239" s="30"/>
       <c r="L239" s="30"/>
     </row>
-    <row r="240" spans="2:12">
+    <row r="240" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B240" s="31"/>
       <c r="C240" s="30"/>
       <c r="D240" s="30"/>
@@ -12784,7 +12850,7 @@
       <c r="K240" s="30"/>
       <c r="L240" s="30"/>
     </row>
-    <row r="241" spans="1:13">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B241" s="31"/>
       <c r="C241" s="30"/>
       <c r="D241" s="30"/>
@@ -12797,7 +12863,7 @@
       <c r="K241" s="30"/>
       <c r="L241" s="30"/>
     </row>
-    <row r="242" spans="1:13">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A242" s="71" t="s">
         <v>724</v>
       </c>
@@ -12815,7 +12881,7 @@
       <c r="K242" s="30"/>
       <c r="L242" s="30"/>
     </row>
-    <row r="243" spans="1:13" s="47" customFormat="1">
+    <row r="243" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A243" s="68" t="s">
         <v>702</v>
       </c>
@@ -12834,7 +12900,7 @@
       <c r="L243" s="60"/>
       <c r="M243" s="62"/>
     </row>
-    <row r="244" spans="1:13" s="47" customFormat="1">
+    <row r="244" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A244" s="68" t="s">
         <v>715</v>
       </c>
@@ -12853,7 +12919,7 @@
       <c r="L244" s="60"/>
       <c r="M244" s="62"/>
     </row>
-    <row r="245" spans="1:13">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A245" s="71" t="s">
         <v>725</v>
       </c>
@@ -12871,7 +12937,7 @@
       <c r="K245" s="30"/>
       <c r="L245" s="30"/>
     </row>
-    <row r="246" spans="1:13" s="38" customFormat="1">
+    <row r="246" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A246" s="68" t="s">
         <v>703</v>
       </c>
@@ -12889,7 +12955,7 @@
       <c r="K246" s="41"/>
       <c r="L246" s="41"/>
     </row>
-    <row r="247" spans="1:13">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B247" s="31"/>
       <c r="C247" s="41" t="s">
         <v>227</v>
@@ -12904,37 +12970,37 @@
       <c r="K247" s="30"/>
       <c r="L247" s="30"/>
     </row>
-    <row r="248" spans="1:13">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C248" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="249" spans="1:13">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D249" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="261" spans="4:4">
+    <row r="261" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D261" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="273" spans="2:14">
+    <row r="273" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C273" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="275" spans="2:14">
+    <row r="275" spans="2:14" x14ac:dyDescent="0.15">
       <c r="D275" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="276" spans="2:14">
+    <row r="276" spans="2:14" x14ac:dyDescent="0.15">
       <c r="E276" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="277" spans="2:14">
+    <row r="277" spans="2:14" x14ac:dyDescent="0.15">
       <c r="D277" s="30"/>
       <c r="E277" s="30" t="s">
         <v>234</v>
@@ -12944,7 +13010,7 @@
       <c r="H277" s="30"/>
       <c r="I277" s="30"/>
     </row>
-    <row r="278" spans="2:14">
+    <row r="278" spans="2:14" x14ac:dyDescent="0.15">
       <c r="D278" s="30"/>
       <c r="E278" s="30" t="s">
         <v>397</v>
@@ -12954,7 +13020,7 @@
       <c r="H278" s="30"/>
       <c r="I278" s="30"/>
     </row>
-    <row r="279" spans="2:14">
+    <row r="279" spans="2:14" x14ac:dyDescent="0.15">
       <c r="D279" s="30"/>
       <c r="E279" s="30"/>
       <c r="F279" s="30" t="s">
@@ -12964,7 +13030,7 @@
       <c r="H279" s="30"/>
       <c r="I279" s="30"/>
     </row>
-    <row r="280" spans="2:14">
+    <row r="280" spans="2:14" x14ac:dyDescent="0.15">
       <c r="D280" s="30"/>
       <c r="E280" s="30"/>
       <c r="F280" s="30" t="s">
@@ -12974,7 +13040,7 @@
       <c r="H280" s="30"/>
       <c r="I280" s="30"/>
     </row>
-    <row r="281" spans="2:14">
+    <row r="281" spans="2:14" x14ac:dyDescent="0.15">
       <c r="D281" s="30"/>
       <c r="E281" s="30"/>
       <c r="F281" s="30"/>
@@ -12982,7 +13048,7 @@
       <c r="H281" s="30"/>
       <c r="I281" s="30"/>
     </row>
-    <row r="282" spans="2:14" s="47" customFormat="1">
+    <row r="282" spans="2:14" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B282" s="37"/>
       <c r="D282" s="41"/>
       <c r="E282" s="60" t="s">
@@ -12998,7 +13064,7 @@
       <c r="M282" s="62"/>
       <c r="N282" s="62"/>
     </row>
-    <row r="283" spans="2:14" s="47" customFormat="1">
+    <row r="283" spans="2:14" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B283" s="37"/>
       <c r="D283" s="41"/>
       <c r="E283" s="60"/>
@@ -13014,7 +13080,7 @@
       <c r="M283" s="62"/>
       <c r="N283" s="62"/>
     </row>
-    <row r="284" spans="2:14" s="47" customFormat="1">
+    <row r="284" spans="2:14" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B284" s="37"/>
       <c r="D284" s="41"/>
       <c r="E284" s="60"/>
@@ -13030,7 +13096,7 @@
       <c r="M284" s="62"/>
       <c r="N284" s="62"/>
     </row>
-    <row r="285" spans="2:14" s="47" customFormat="1">
+    <row r="285" spans="2:14" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B285" s="37"/>
       <c r="D285" s="41"/>
       <c r="E285" s="60"/>
@@ -13046,7 +13112,7 @@
       <c r="M285" s="62"/>
       <c r="N285" s="62"/>
     </row>
-    <row r="286" spans="2:14" s="47" customFormat="1">
+    <row r="286" spans="2:14" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B286" s="37"/>
       <c r="D286" s="41"/>
       <c r="E286" s="60"/>
@@ -13062,7 +13128,7 @@
       <c r="M286" s="62"/>
       <c r="N286" s="62"/>
     </row>
-    <row r="287" spans="2:14" s="47" customFormat="1">
+    <row r="287" spans="2:14" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B287" s="37"/>
       <c r="D287" s="41"/>
       <c r="E287" s="60"/>
@@ -13078,7 +13144,7 @@
       <c r="M287" s="62"/>
       <c r="N287" s="62"/>
     </row>
-    <row r="288" spans="2:14" s="47" customFormat="1">
+    <row r="288" spans="2:14" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B288" s="37"/>
       <c r="D288" s="41"/>
       <c r="E288" s="60"/>
@@ -13094,7 +13160,7 @@
       <c r="M288" s="62"/>
       <c r="N288" s="62"/>
     </row>
-    <row r="289" spans="1:14" s="47" customFormat="1">
+    <row r="289" spans="1:14" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A289" s="68" t="s">
         <v>704</v>
       </c>
@@ -13113,7 +13179,7 @@
       <c r="M289" s="62"/>
       <c r="N289" s="62"/>
     </row>
-    <row r="290" spans="1:14" s="47" customFormat="1">
+    <row r="290" spans="1:14" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A290" s="71" t="s">
         <v>726</v>
       </c>
@@ -13125,7 +13191,7 @@
       <c r="H290" s="41"/>
       <c r="I290" s="41"/>
     </row>
-    <row r="291" spans="1:14">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D291" s="30" t="s">
         <v>235</v>
       </c>
@@ -13135,7 +13201,7 @@
       <c r="H291" s="30"/>
       <c r="I291" s="30"/>
     </row>
-    <row r="292" spans="1:14">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D292" s="30"/>
       <c r="E292" s="30" t="s">
         <v>236</v>
@@ -13145,52 +13211,52 @@
       <c r="H292" s="30"/>
       <c r="I292" s="30"/>
     </row>
-    <row r="293" spans="1:14">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.15">
       <c r="E293" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="294" spans="1:14">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.15">
       <c r="E294" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="296" spans="1:14">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D296" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="297" spans="1:14">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.15">
       <c r="E297" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="298" spans="1:14">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.15">
       <c r="E298" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="300" spans="1:14">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D300" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="301" spans="1:14">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.15">
       <c r="E301" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="302" spans="1:14">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.15">
       <c r="E302" s="1" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="304" spans="1:14">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.15">
       <c r="E304" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="305" spans="1:12">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.15">
       <c r="D305" s="41"/>
       <c r="E305" s="41"/>
       <c r="F305" s="41" t="s">
@@ -13203,7 +13269,7 @@
       <c r="K305" s="41"/>
       <c r="L305" s="41"/>
     </row>
-    <row r="306" spans="1:12" s="38" customFormat="1">
+    <row r="306" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A306" s="47"/>
       <c r="B306" s="37"/>
       <c r="D306" s="41"/>
@@ -13216,7 +13282,7 @@
       <c r="K306" s="41"/>
       <c r="L306" s="41"/>
     </row>
-    <row r="307" spans="1:12" s="38" customFormat="1">
+    <row r="307" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A307" s="47"/>
       <c r="B307" s="37"/>
       <c r="D307" s="41" t="s">
@@ -13231,7 +13297,7 @@
       <c r="K307" s="41"/>
       <c r="L307" s="41"/>
     </row>
-    <row r="308" spans="1:12" s="38" customFormat="1">
+    <row r="308" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A308" s="47"/>
       <c r="B308" s="37"/>
       <c r="D308" s="41"/>
@@ -13246,7 +13312,7 @@
       <c r="K308" s="41"/>
       <c r="L308" s="41"/>
     </row>
-    <row r="309" spans="1:12" s="38" customFormat="1">
+    <row r="309" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A309" s="47"/>
       <c r="B309" s="37"/>
       <c r="D309" s="41"/>
@@ -13263,7 +13329,7 @@
       <c r="K309" s="41"/>
       <c r="L309" s="41"/>
     </row>
-    <row r="310" spans="1:12" s="38" customFormat="1">
+    <row r="310" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A310" s="47"/>
       <c r="B310" s="37"/>
       <c r="D310" s="41"/>
@@ -13276,7 +13342,7 @@
       <c r="K310" s="41"/>
       <c r="L310" s="41"/>
     </row>
-    <row r="311" spans="1:12" s="38" customFormat="1">
+    <row r="311" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A311" s="47"/>
       <c r="B311" s="37"/>
       <c r="D311" s="41"/>
@@ -13291,7 +13357,7 @@
       <c r="K311" s="41"/>
       <c r="L311" s="41"/>
     </row>
-    <row r="312" spans="1:12" s="38" customFormat="1">
+    <row r="312" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A312" s="47"/>
       <c r="B312" s="37"/>
       <c r="D312" s="41"/>
@@ -13306,7 +13372,7 @@
       <c r="K312" s="41"/>
       <c r="L312" s="41"/>
     </row>
-    <row r="313" spans="1:12" s="38" customFormat="1">
+    <row r="313" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A313" s="47"/>
       <c r="B313" s="37"/>
       <c r="D313" s="41"/>
@@ -13321,7 +13387,7 @@
       <c r="K313" s="41"/>
       <c r="L313" s="41"/>
     </row>
-    <row r="314" spans="1:12" s="38" customFormat="1">
+    <row r="314" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A314" s="47"/>
       <c r="B314" s="37"/>
       <c r="D314" s="41"/>
@@ -13336,7 +13402,7 @@
       <c r="K314" s="41"/>
       <c r="L314" s="41"/>
     </row>
-    <row r="315" spans="1:12" s="38" customFormat="1">
+    <row r="315" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A315" s="47"/>
       <c r="B315" s="37"/>
       <c r="D315" s="41"/>
@@ -13349,7 +13415,7 @@
       <c r="K315" s="41"/>
       <c r="L315" s="41"/>
     </row>
-    <row r="316" spans="1:12">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C316" s="1" t="s">
         <v>253</v>
       </c>
@@ -13363,7 +13429,7 @@
       <c r="K316" s="41"/>
       <c r="L316" s="41"/>
     </row>
-    <row r="317" spans="1:12">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.15">
       <c r="D317" s="41" t="s">
         <v>254</v>
       </c>
@@ -13376,7 +13442,7 @@
       <c r="K317" s="41"/>
       <c r="L317" s="41"/>
     </row>
-    <row r="318" spans="1:12" hidden="1">
+    <row r="318" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D318" s="41" t="s">
         <v>261</v>
       </c>
@@ -13391,7 +13457,7 @@
       <c r="K318" s="41"/>
       <c r="L318" s="41"/>
     </row>
-    <row r="319" spans="1:12" hidden="1">
+    <row r="319" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D319" s="41" t="s">
         <v>263</v>
       </c>
@@ -13406,7 +13472,7 @@
       <c r="K319" s="41"/>
       <c r="L319" s="41"/>
     </row>
-    <row r="320" spans="1:12" s="47" customFormat="1">
+    <row r="320" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B320" s="37"/>
       <c r="D320" s="41"/>
       <c r="E320" s="41" t="s">
@@ -13420,7 +13486,7 @@
       <c r="K320" s="41"/>
       <c r="L320" s="41"/>
     </row>
-    <row r="321" spans="2:12">
+    <row r="321" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D321" s="41" t="s">
         <v>604</v>
       </c>
@@ -13433,7 +13499,7 @@
       <c r="K321" s="41"/>
       <c r="L321" s="41"/>
     </row>
-    <row r="322" spans="2:12" s="47" customFormat="1">
+    <row r="322" spans="2:12" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B322" s="37"/>
       <c r="D322" s="41"/>
       <c r="E322" s="41" t="s">
@@ -13447,7 +13513,7 @@
       <c r="K322" s="41"/>
       <c r="L322" s="41"/>
     </row>
-    <row r="323" spans="2:12">
+    <row r="323" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D323" s="41"/>
       <c r="E323" s="41"/>
       <c r="F323" s="41"/>
@@ -13458,7 +13524,7 @@
       <c r="K323" s="41"/>
       <c r="L323" s="41"/>
     </row>
-    <row r="324" spans="2:12" s="47" customFormat="1">
+    <row r="324" spans="2:12" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B324" s="37"/>
       <c r="D324" s="41"/>
       <c r="E324" s="41" t="s">
@@ -13472,7 +13538,7 @@
       <c r="K324" s="41"/>
       <c r="L324" s="41"/>
     </row>
-    <row r="325" spans="2:12">
+    <row r="325" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D325" s="41"/>
       <c r="E325" s="41"/>
       <c r="F325" s="41" t="s">
@@ -13485,7 +13551,7 @@
       <c r="K325" s="41"/>
       <c r="L325" s="41"/>
     </row>
-    <row r="326" spans="2:12" s="47" customFormat="1">
+    <row r="326" spans="2:12" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B326" s="37"/>
       <c r="D326" s="41"/>
       <c r="E326" s="41" t="s">
@@ -13499,7 +13565,7 @@
       <c r="K326" s="41"/>
       <c r="L326" s="41"/>
     </row>
-    <row r="327" spans="2:12">
+    <row r="327" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D327" s="41"/>
       <c r="E327" s="41"/>
       <c r="F327" s="41" t="s">
@@ -13512,7 +13578,7 @@
       <c r="K327" s="41"/>
       <c r="L327" s="41"/>
     </row>
-    <row r="328" spans="2:12">
+    <row r="328" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D328" s="41"/>
       <c r="E328" s="41" t="s">
         <v>258</v>
@@ -13525,7 +13591,7 @@
       <c r="K328" s="41"/>
       <c r="L328" s="41"/>
     </row>
-    <row r="329" spans="2:12" s="47" customFormat="1">
+    <row r="329" spans="2:12" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B329" s="37"/>
       <c r="D329" s="41"/>
       <c r="E329" s="41"/>
@@ -13539,7 +13605,7 @@
       <c r="K329" s="41"/>
       <c r="L329" s="41"/>
     </row>
-    <row r="330" spans="2:12" s="47" customFormat="1">
+    <row r="330" spans="2:12" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B330" s="37"/>
       <c r="D330" s="41"/>
       <c r="E330" s="41"/>
@@ -13553,7 +13619,7 @@
       <c r="K330" s="41"/>
       <c r="L330" s="41"/>
     </row>
-    <row r="331" spans="2:12" s="47" customFormat="1">
+    <row r="331" spans="2:12" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B331" s="37"/>
       <c r="D331" s="41"/>
       <c r="E331" s="41" t="s">
@@ -13567,7 +13633,7 @@
       <c r="K331" s="41"/>
       <c r="L331" s="41"/>
     </row>
-    <row r="332" spans="2:12" s="47" customFormat="1">
+    <row r="332" spans="2:12" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B332" s="37"/>
       <c r="D332" s="41"/>
       <c r="E332" s="41"/>
@@ -13581,7 +13647,7 @@
       <c r="K332" s="41"/>
       <c r="L332" s="41"/>
     </row>
-    <row r="333" spans="2:12" s="47" customFormat="1">
+    <row r="333" spans="2:12" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B333" s="37"/>
       <c r="D333" s="41"/>
       <c r="E333" s="41"/>
@@ -13595,7 +13661,7 @@
       <c r="K333" s="41"/>
       <c r="L333" s="41"/>
     </row>
-    <row r="334" spans="2:12" s="47" customFormat="1">
+    <row r="334" spans="2:12" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B334" s="37"/>
       <c r="D334" s="41"/>
       <c r="E334" s="41"/>
@@ -13609,7 +13675,7 @@
       <c r="K334" s="41"/>
       <c r="L334" s="41"/>
     </row>
-    <row r="335" spans="2:12" s="47" customFormat="1">
+    <row r="335" spans="2:12" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B335" s="37"/>
       <c r="D335" s="41"/>
       <c r="E335" s="41"/>
@@ -13621,7 +13687,7 @@
       <c r="K335" s="41"/>
       <c r="L335" s="41"/>
     </row>
-    <row r="336" spans="2:12">
+    <row r="336" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C336" s="1" t="s">
         <v>244</v>
       </c>
@@ -13635,37 +13701,37 @@
       <c r="K336" s="41"/>
       <c r="L336" s="41"/>
     </row>
-    <row r="337" spans="3:8">
+    <row r="337" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D337" s="1" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="338" spans="3:8">
+    <row r="338" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D338" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="339" spans="3:8">
+    <row r="339" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D339" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="340" spans="3:8">
+    <row r="340" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D340" s="41" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="341" spans="3:8">
+    <row r="341" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D341" s="40" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="342" spans="3:8">
+    <row r="342" spans="3:8" x14ac:dyDescent="0.15">
       <c r="E342" s="40" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="344" spans="3:8">
+    <row r="344" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C344" s="43"/>
       <c r="D344" s="43"/>
       <c r="E344" s="43"/>
@@ -13673,7 +13739,7 @@
       <c r="G344" s="43"/>
       <c r="H344" s="40"/>
     </row>
-    <row r="345" spans="3:8">
+    <row r="345" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C345" s="43"/>
       <c r="D345" s="43"/>
       <c r="E345" s="43"/>
@@ -13681,7 +13747,7 @@
       <c r="G345" s="43"/>
       <c r="H345" s="43"/>
     </row>
-    <row r="346" spans="3:8">
+    <row r="346" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C346" s="43"/>
       <c r="D346" s="43"/>
       <c r="E346" s="43"/>
@@ -13689,7 +13755,7 @@
       <c r="G346" s="43"/>
       <c r="H346" s="43"/>
     </row>
-    <row r="347" spans="3:8">
+    <row r="347" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C347" s="43"/>
       <c r="D347" s="43"/>
       <c r="E347" s="43"/>
@@ -13697,7 +13763,7 @@
       <c r="G347" s="43"/>
       <c r="H347" s="43"/>
     </row>
-    <row r="348" spans="3:8">
+    <row r="348" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C348" s="43"/>
       <c r="D348" s="43"/>
       <c r="E348" s="43"/>
@@ -13705,7 +13771,7 @@
       <c r="G348" s="43"/>
       <c r="H348" s="43"/>
     </row>
-    <row r="349" spans="3:8">
+    <row r="349" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C349" s="43"/>
       <c r="D349" s="43"/>
       <c r="E349" s="43"/>
@@ -13713,7 +13779,7 @@
       <c r="G349" s="43"/>
       <c r="H349" s="43"/>
     </row>
-    <row r="350" spans="3:8">
+    <row r="350" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C350" s="43"/>
       <c r="D350" s="43"/>
       <c r="E350" s="43"/>
@@ -13721,7 +13787,7 @@
       <c r="G350" s="43"/>
       <c r="H350" s="43"/>
     </row>
-    <row r="351" spans="3:8">
+    <row r="351" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C351" s="43"/>
       <c r="D351" s="43"/>
       <c r="E351" s="43"/>
@@ -13729,7 +13795,7 @@
       <c r="G351" s="43"/>
       <c r="H351" s="43"/>
     </row>
-    <row r="352" spans="3:8">
+    <row r="352" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C352" s="43"/>
       <c r="D352" s="43"/>
       <c r="E352" s="43"/>
@@ -13737,7 +13803,7 @@
       <c r="G352" s="43"/>
       <c r="H352" s="43"/>
     </row>
-    <row r="353" spans="3:8">
+    <row r="353" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C353" s="43"/>
       <c r="D353" s="43"/>
       <c r="E353" s="43"/>
@@ -13745,7 +13811,7 @@
       <c r="G353" s="43"/>
       <c r="H353" s="43"/>
     </row>
-    <row r="354" spans="3:8">
+    <row r="354" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C354" s="43"/>
       <c r="D354" s="43"/>
       <c r="E354" s="43"/>
@@ -13753,7 +13819,7 @@
       <c r="G354" s="43"/>
       <c r="H354" s="43"/>
     </row>
-    <row r="356" spans="3:8">
+    <row r="356" spans="3:8" x14ac:dyDescent="0.15">
       <c r="E356" s="29"/>
     </row>
   </sheetData>
@@ -13780,7 +13846,7 @@
       <selection activeCell="I78" sqref="I78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="35.5" style="47" customWidth="1"/>
     <col min="2" max="2" width="8.875" style="11"/>
@@ -13791,22 +13857,22 @@
     <col min="16" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B2" s="11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D4" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D5" s="61" t="s">
         <v>664</v>
       </c>
@@ -13814,12 +13880,12 @@
       <c r="F5" s="62"/>
       <c r="G5" s="62"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="E8" s="41" t="s">
         <v>69</v>
       </c>
@@ -13833,7 +13899,7 @@
       <c r="M8" s="41"/>
       <c r="N8" s="41"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="E9" s="41" t="s">
         <v>70</v>
       </c>
@@ -13847,7 +13913,7 @@
       <c r="M9" s="41"/>
       <c r="N9" s="41"/>
     </row>
-    <row r="10" spans="1:14" s="38" customFormat="1">
+    <row r="10" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="47"/>
       <c r="B10" s="37"/>
       <c r="E10" s="41" t="s">
@@ -13863,7 +13929,7 @@
       <c r="M10" s="41"/>
       <c r="N10" s="41"/>
     </row>
-    <row r="11" spans="1:14" s="38" customFormat="1">
+    <row r="11" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="47"/>
       <c r="B11" s="37"/>
       <c r="E11" s="41" t="s">
@@ -13879,7 +13945,7 @@
       <c r="M11" s="41"/>
       <c r="N11" s="41"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="E12" s="41" t="s">
         <v>151</v>
       </c>
@@ -13893,7 +13959,7 @@
       <c r="M12" s="41"/>
       <c r="N12" s="41"/>
     </row>
-    <row r="13" spans="1:14" s="38" customFormat="1">
+    <row r="13" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="47"/>
       <c r="B13" s="37"/>
       <c r="E13" s="41"/>
@@ -13907,7 +13973,7 @@
       <c r="M13" s="41"/>
       <c r="N13" s="41"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="E14" s="41" t="s">
         <v>71</v>
       </c>
@@ -13921,7 +13987,7 @@
       <c r="M14" s="41"/>
       <c r="N14" s="41"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="E15" s="41"/>
       <c r="F15" s="41" t="s">
         <v>72</v>
@@ -13935,7 +14001,7 @@
       <c r="M15" s="41"/>
       <c r="N15" s="41"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="E16" s="41"/>
       <c r="F16" s="41" t="s">
         <v>73</v>
@@ -13949,7 +14015,7 @@
       <c r="M16" s="41"/>
       <c r="N16" s="41"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="E17" s="41"/>
       <c r="F17" s="41"/>
       <c r="G17" s="60" t="s">
@@ -13963,7 +14029,7 @@
       <c r="M17" s="41"/>
       <c r="N17" s="41"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="E18" s="41"/>
       <c r="F18" s="41"/>
       <c r="G18" s="41"/>
@@ -13977,7 +14043,7 @@
       <c r="M18" s="41"/>
       <c r="N18" s="41"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="68" t="s">
         <v>705</v>
       </c>
@@ -13994,7 +14060,7 @@
       <c r="M19" s="41"/>
       <c r="N19" s="41"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="71" t="s">
         <v>728</v>
       </c>
@@ -14011,7 +14077,7 @@
       <c r="M20" s="41"/>
       <c r="N20" s="41"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="E21" s="41"/>
       <c r="F21" s="41"/>
       <c r="G21" s="60" t="s">
@@ -14025,7 +14091,7 @@
       <c r="M21" s="41"/>
       <c r="N21" s="41"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="E22" s="41"/>
       <c r="F22" s="41"/>
       <c r="G22" s="41" t="s">
@@ -14039,7 +14105,7 @@
       <c r="M22" s="41"/>
       <c r="N22" s="41"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="E23" s="41"/>
       <c r="F23" s="41"/>
       <c r="G23" s="41"/>
@@ -14051,7 +14117,7 @@
       <c r="M23" s="41"/>
       <c r="N23" s="41"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="E24" s="41" t="s">
         <v>75</v>
       </c>
@@ -14065,7 +14131,7 @@
       <c r="M24" s="41"/>
       <c r="N24" s="41"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="E25" s="41"/>
       <c r="F25" s="41" t="s">
         <v>76</v>
@@ -14079,7 +14145,7 @@
       <c r="M25" s="41"/>
       <c r="N25" s="41"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="E26" s="41"/>
       <c r="F26" s="41"/>
       <c r="G26" s="41"/>
@@ -14091,7 +14157,7 @@
       <c r="M26" s="41"/>
       <c r="N26" s="41"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="E27" s="41" t="s">
         <v>77</v>
       </c>
@@ -14105,7 +14171,7 @@
       <c r="M27" s="41"/>
       <c r="N27" s="41"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="E28" s="41"/>
       <c r="F28" s="41" t="s">
         <v>88</v>
@@ -14119,7 +14185,7 @@
       <c r="M28" s="41"/>
       <c r="N28" s="41"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="E29" s="41"/>
       <c r="F29" s="41"/>
       <c r="G29" s="41" t="s">
@@ -14135,7 +14201,7 @@
       <c r="M29" s="41"/>
       <c r="N29" s="41"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="E30" s="41"/>
       <c r="F30" s="41"/>
       <c r="G30" s="41" t="s">
@@ -14151,7 +14217,7 @@
       <c r="M30" s="41"/>
       <c r="N30" s="41"/>
     </row>
-    <row r="31" spans="1:14" s="35" customFormat="1">
+    <row r="31" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="47"/>
       <c r="B31" s="36"/>
       <c r="E31" s="41"/>
@@ -14167,7 +14233,7 @@
       <c r="M31" s="41"/>
       <c r="N31" s="41"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="E32" s="41"/>
       <c r="F32" s="41"/>
       <c r="G32" s="41" t="s">
@@ -14183,7 +14249,7 @@
       <c r="M32" s="41"/>
       <c r="N32" s="41"/>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E33" s="41"/>
       <c r="F33" s="41"/>
       <c r="G33" s="41" t="s">
@@ -14199,7 +14265,7 @@
       <c r="M33" s="41"/>
       <c r="N33" s="41"/>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E34" s="41"/>
       <c r="F34" s="41"/>
       <c r="G34" s="41" t="s">
@@ -14215,25 +14281,25 @@
       <c r="M34" s="41"/>
       <c r="N34" s="41"/>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F35" s="15"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E36" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
       <c r="F37" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="F38" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
       <c r="G39" s="41" t="s">
         <v>292</v>
       </c>
@@ -14246,7 +14312,7 @@
       <c r="N39" s="41"/>
       <c r="O39" s="41"/>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
       <c r="G40" s="41"/>
       <c r="H40" s="41" t="s">
         <v>296</v>
@@ -14259,7 +14325,7 @@
       <c r="N40" s="41"/>
       <c r="O40" s="41"/>
     </row>
-    <row r="41" spans="1:15" s="38" customFormat="1">
+    <row r="41" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="47"/>
       <c r="B41" s="37"/>
       <c r="G41" s="41"/>
@@ -14274,7 +14340,7 @@
       <c r="N41" s="41"/>
       <c r="O41" s="41"/>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
       <c r="G42" s="41" t="s">
         <v>293</v>
       </c>
@@ -14287,7 +14353,7 @@
       <c r="N42" s="41"/>
       <c r="O42" s="41"/>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
       <c r="G43" s="41"/>
       <c r="H43" s="41" t="s">
         <v>296</v>
@@ -14300,7 +14366,7 @@
       <c r="N43" s="41"/>
       <c r="O43" s="41"/>
     </row>
-    <row r="44" spans="1:15" s="38" customFormat="1">
+    <row r="44" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="47"/>
       <c r="B44" s="37"/>
       <c r="G44" s="41"/>
@@ -14315,7 +14381,7 @@
       <c r="N44" s="41"/>
       <c r="O44" s="41"/>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
       <c r="G45" s="41" t="s">
         <v>294</v>
       </c>
@@ -14328,7 +14394,7 @@
       <c r="N45" s="41"/>
       <c r="O45" s="41"/>
     </row>
-    <row r="46" spans="1:15" s="38" customFormat="1">
+    <row r="46" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="47"/>
       <c r="B46" s="37"/>
       <c r="G46" s="41"/>
@@ -14343,7 +14409,7 @@
       <c r="N46" s="41"/>
       <c r="O46" s="41"/>
     </row>
-    <row r="47" spans="1:15" s="38" customFormat="1">
+    <row r="47" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="47"/>
       <c r="B47" s="37"/>
       <c r="G47" s="41"/>
@@ -14358,7 +14424,7 @@
       <c r="N47" s="41"/>
       <c r="O47" s="41"/>
     </row>
-    <row r="48" spans="1:15" s="38" customFormat="1">
+    <row r="48" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="47"/>
       <c r="B48" s="37"/>
       <c r="G48" s="41"/>
@@ -14373,7 +14439,7 @@
       <c r="N48" s="41"/>
       <c r="O48" s="41"/>
     </row>
-    <row r="49" spans="1:15" s="47" customFormat="1">
+    <row r="49" spans="1:15" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B49" s="37"/>
       <c r="G49" s="41"/>
       <c r="H49" s="41"/>
@@ -14385,7 +14451,7 @@
       <c r="N49" s="41"/>
       <c r="O49" s="41"/>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
       <c r="G50" s="41" t="s">
         <v>295</v>
       </c>
@@ -14398,7 +14464,7 @@
       <c r="N50" s="41"/>
       <c r="O50" s="41"/>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
       <c r="G51" s="41"/>
       <c r="H51" s="41" t="s">
         <v>296</v>
@@ -14411,7 +14477,7 @@
       <c r="N51" s="41"/>
       <c r="O51" s="41"/>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
       <c r="G52" s="41"/>
       <c r="H52" s="41" t="s">
         <v>521</v>
@@ -14424,7 +14490,7 @@
       <c r="N52" s="41"/>
       <c r="O52" s="41"/>
     </row>
-    <row r="53" spans="1:15" s="38" customFormat="1">
+    <row r="53" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="47"/>
       <c r="B53" s="37"/>
       <c r="G53" s="41"/>
@@ -14437,17 +14503,17 @@
       <c r="N53" s="41"/>
       <c r="O53" s="41"/>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E54" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
       <c r="F55" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
       <c r="F56" s="1" t="s">
         <v>92</v>
       </c>
@@ -14458,7 +14524,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
       <c r="F57" s="1" t="s">
         <v>94</v>
       </c>
@@ -14469,12 +14535,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
       <c r="F59" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E60" s="41"/>
       <c r="F60" s="41" t="s">
         <v>406</v>
@@ -14486,7 +14552,7 @@
       <c r="K60" s="41"/>
       <c r="L60" s="41"/>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E61" s="41"/>
       <c r="F61" s="41"/>
       <c r="G61" s="41"/>
@@ -14496,7 +14562,7 @@
       <c r="K61" s="41"/>
       <c r="L61" s="41"/>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E62" s="41"/>
       <c r="F62" s="41"/>
       <c r="G62" s="41"/>
@@ -14506,7 +14572,7 @@
       <c r="K62" s="41"/>
       <c r="L62" s="41"/>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E63" s="41"/>
       <c r="F63" s="41"/>
       <c r="G63" s="41"/>
@@ -14516,7 +14582,7 @@
       <c r="K63" s="41"/>
       <c r="L63" s="41"/>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C64" s="11" t="s">
         <v>98</v>
       </c>
@@ -14529,63 +14595,63 @@
       <c r="K64" s="41"/>
       <c r="L64" s="41"/>
     </row>
-    <row r="65" spans="2:12">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C65" s="11"/>
       <c r="D65" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="2:12">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C66" s="11"/>
       <c r="E66" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="67" spans="2:12">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C67" s="11"/>
       <c r="F67" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="2:12" s="47" customFormat="1">
+    <row r="68" spans="2:12" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B68" s="37"/>
       <c r="C68" s="37"/>
     </row>
-    <row r="69" spans="2:12" s="47" customFormat="1">
+    <row r="69" spans="2:12" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B69" s="37"/>
       <c r="C69" s="37"/>
     </row>
-    <row r="70" spans="2:12">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C70" s="11"/>
       <c r="D70" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="71" spans="2:12">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C71" s="11"/>
     </row>
-    <row r="72" spans="2:12">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C72" s="11"/>
     </row>
-    <row r="73" spans="2:12">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C73" s="11" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="74" spans="2:12">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C74" s="11"/>
       <c r="D74" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="75" spans="2:12">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C75" s="11"/>
     </row>
-    <row r="76" spans="2:12">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C76" s="11"/>
       <c r="K76" s="14"/>
     </row>
-    <row r="77" spans="2:12">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C77" s="11" t="s">
         <v>106</v>
       </c>
@@ -14593,7 +14659,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="78" spans="2:12">
+    <row r="78" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C78" s="11"/>
       <c r="D78" s="41" t="s">
         <v>408</v>
@@ -14607,7 +14673,7 @@
       </c>
       <c r="K78" s="86"/>
     </row>
-    <row r="79" spans="2:12">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C79" s="11"/>
       <c r="D79" s="41"/>
       <c r="E79" s="12"/>
@@ -14618,7 +14684,7 @@
       <c r="K79" s="86"/>
       <c r="L79" s="47"/>
     </row>
-    <row r="80" spans="2:12">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C80" s="11"/>
       <c r="D80" s="41"/>
       <c r="E80" s="12"/>
@@ -14627,7 +14693,7 @@
       <c r="K80" s="86"/>
       <c r="L80" s="47"/>
     </row>
-    <row r="81" spans="3:12">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="11"/>
       <c r="D81" s="41" t="s">
         <v>407</v>
@@ -14642,7 +14708,7 @@
       <c r="K81" s="86"/>
       <c r="L81" s="47"/>
     </row>
-    <row r="82" spans="3:12">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="11"/>
       <c r="D82" s="41"/>
       <c r="E82" s="12"/>
@@ -14653,14 +14719,14 @@
       <c r="K82" s="86"/>
       <c r="L82" s="47"/>
     </row>
-    <row r="83" spans="3:12">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C83" s="11"/>
       <c r="D83" s="41"/>
       <c r="I83" s="40"/>
       <c r="K83" s="86"/>
       <c r="L83" s="47"/>
     </row>
-    <row r="84" spans="3:12">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="11"/>
       <c r="D84" s="41" t="s">
         <v>407</v>
@@ -14675,7 +14741,7 @@
       <c r="K84" s="86"/>
       <c r="L84" s="47"/>
     </row>
-    <row r="85" spans="3:12">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="11"/>
       <c r="D85" s="41"/>
       <c r="E85" s="12"/>
@@ -14686,14 +14752,14 @@
       <c r="K85" s="86"/>
       <c r="L85" s="47"/>
     </row>
-    <row r="86" spans="3:12">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C86" s="11"/>
       <c r="D86" s="41"/>
       <c r="I86" s="40"/>
       <c r="K86" s="86"/>
       <c r="L86" s="47"/>
     </row>
-    <row r="87" spans="3:12">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="11"/>
       <c r="D87" s="41" t="s">
         <v>407</v>
@@ -14708,7 +14774,7 @@
       <c r="K87" s="86"/>
       <c r="L87" s="47"/>
     </row>
-    <row r="88" spans="3:12">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="11"/>
       <c r="D88" s="41"/>
       <c r="E88" s="12"/>
@@ -14719,14 +14785,14 @@
       <c r="K88" s="86"/>
       <c r="L88" s="47"/>
     </row>
-    <row r="89" spans="3:12">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C89" s="11"/>
       <c r="D89" s="41"/>
       <c r="I89" s="40"/>
       <c r="K89" s="86"/>
       <c r="L89" s="47"/>
     </row>
-    <row r="90" spans="3:12">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="11"/>
       <c r="D90" s="41" t="s">
         <v>407</v>
@@ -14741,7 +14807,7 @@
       <c r="K90" s="86"/>
       <c r="L90" s="47"/>
     </row>
-    <row r="91" spans="3:12">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="11"/>
       <c r="D91" s="41"/>
       <c r="E91" s="12"/>
@@ -14752,14 +14818,14 @@
       <c r="K91" s="86"/>
       <c r="L91" s="47"/>
     </row>
-    <row r="92" spans="3:12">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C92" s="11"/>
       <c r="D92" s="41"/>
       <c r="I92" s="40"/>
       <c r="K92" s="86"/>
       <c r="L92" s="47"/>
     </row>
-    <row r="93" spans="3:12">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="11"/>
       <c r="D93" s="41"/>
       <c r="E93" s="19" t="s">
@@ -14771,7 +14837,7 @@
       </c>
       <c r="L93" s="47"/>
     </row>
-    <row r="94" spans="3:12">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="11"/>
       <c r="D94" s="41"/>
       <c r="E94" s="12"/>
@@ -14782,14 +14848,14 @@
       <c r="K94" s="86"/>
       <c r="L94" s="47"/>
     </row>
-    <row r="95" spans="3:12">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C95" s="11"/>
       <c r="D95" s="41"/>
       <c r="I95" s="40"/>
       <c r="K95" s="82"/>
       <c r="L95" s="47"/>
     </row>
-    <row r="96" spans="3:12">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="11"/>
       <c r="D96" s="41" t="s">
         <v>410</v>
@@ -14804,7 +14870,7 @@
       <c r="K96" s="86"/>
       <c r="L96" s="47"/>
     </row>
-    <row r="97" spans="2:12">
+    <row r="97" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C97" s="11"/>
       <c r="D97" s="41"/>
       <c r="E97" s="12"/>
@@ -14815,13 +14881,13 @@
       <c r="K97" s="86"/>
       <c r="L97" s="47"/>
     </row>
-    <row r="98" spans="2:12">
+    <row r="98" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C98" s="11"/>
       <c r="D98" s="41"/>
       <c r="I98" s="40"/>
       <c r="L98" s="47"/>
     </row>
-    <row r="99" spans="2:12">
+    <row r="99" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C99" s="11"/>
       <c r="D99" s="41"/>
       <c r="E99" s="19" t="s">
@@ -14834,7 +14900,7 @@
       <c r="K99" s="86"/>
       <c r="L99" s="47"/>
     </row>
-    <row r="100" spans="2:12">
+    <row r="100" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C100" s="11"/>
       <c r="D100" s="41"/>
       <c r="E100" s="12"/>
@@ -14844,13 +14910,13 @@
       <c r="I100" s="40"/>
       <c r="K100" s="86"/>
     </row>
-    <row r="101" spans="2:12">
+    <row r="101" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C101" s="11"/>
       <c r="D101" s="41"/>
       <c r="I101" s="40"/>
       <c r="K101" s="86"/>
     </row>
-    <row r="102" spans="2:12">
+    <row r="102" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C102" s="11"/>
       <c r="D102" s="41" t="s">
         <v>409</v>
@@ -14864,7 +14930,7 @@
       </c>
       <c r="K102" s="86"/>
     </row>
-    <row r="103" spans="2:12">
+    <row r="103" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C103" s="11"/>
       <c r="D103" s="41"/>
       <c r="F103" s="1" t="s">
@@ -14873,13 +14939,13 @@
       <c r="I103" s="40"/>
       <c r="K103" s="86"/>
     </row>
-    <row r="104" spans="2:12">
+    <row r="104" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C104" s="11"/>
       <c r="D104" s="41"/>
       <c r="I104" s="40"/>
       <c r="K104" s="86"/>
     </row>
-    <row r="105" spans="2:12">
+    <row r="105" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C105" s="11"/>
       <c r="D105" s="60" t="s">
         <v>409</v>
@@ -14893,7 +14959,7 @@
       <c r="I105" s="40"/>
       <c r="K105" s="86"/>
     </row>
-    <row r="106" spans="2:12">
+    <row r="106" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C106" s="11"/>
       <c r="D106" s="60"/>
       <c r="E106" s="62"/>
@@ -14907,7 +14973,7 @@
       </c>
       <c r="K106" s="86"/>
     </row>
-    <row r="107" spans="2:12" s="47" customFormat="1">
+    <row r="107" spans="2:12" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B107" s="37"/>
       <c r="C107" s="37"/>
       <c r="D107" s="60"/>
@@ -14922,7 +14988,7 @@
       </c>
       <c r="K107" s="86"/>
     </row>
-    <row r="108" spans="2:12">
+    <row r="108" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C108" s="11"/>
       <c r="D108" s="60"/>
       <c r="E108" s="62"/>
@@ -14932,7 +14998,7 @@
       <c r="I108" s="90"/>
       <c r="K108" s="86"/>
     </row>
-    <row r="109" spans="2:12">
+    <row r="109" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C109" s="11"/>
       <c r="D109" s="60" t="s">
         <v>410</v>
@@ -14948,7 +15014,7 @@
       </c>
       <c r="K109" s="86"/>
     </row>
-    <row r="110" spans="2:12">
+    <row r="110" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C110" s="11"/>
       <c r="D110" s="60"/>
       <c r="E110" s="62"/>
@@ -14960,7 +15026,7 @@
       <c r="I110" s="90"/>
       <c r="K110" s="86"/>
     </row>
-    <row r="111" spans="2:12" s="47" customFormat="1">
+    <row r="111" spans="2:12" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B111" s="37"/>
       <c r="C111" s="37"/>
       <c r="D111" s="60"/>
@@ -14972,12 +15038,12 @@
       <c r="H111" s="28"/>
       <c r="I111" s="90"/>
     </row>
-    <row r="112" spans="2:12">
+    <row r="112" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C112" s="11"/>
       <c r="D112" s="41"/>
       <c r="I112" s="40"/>
     </row>
-    <row r="113" spans="3:11">
+    <row r="113" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C113" s="11"/>
       <c r="D113" s="41" t="s">
         <v>409</v>
@@ -14987,7 +15053,7 @@
       </c>
       <c r="I113" s="40"/>
     </row>
-    <row r="114" spans="3:11">
+    <row r="114" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C114" s="11"/>
       <c r="D114" s="41"/>
       <c r="F114" s="1" t="s">
@@ -14997,12 +15063,12 @@
         <v>326</v>
       </c>
     </row>
-    <row r="115" spans="3:11">
+    <row r="115" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C115" s="11"/>
       <c r="D115" s="41"/>
       <c r="I115" s="40"/>
     </row>
-    <row r="116" spans="3:11" hidden="1">
+    <row r="116" spans="3:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="C116" s="11"/>
       <c r="D116" s="41" t="s">
         <v>409</v>
@@ -15014,10 +15080,10 @@
         <v>322</v>
       </c>
       <c r="K116" s="86" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="117" spans="3:11" hidden="1">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="117" spans="3:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="C117" s="11"/>
       <c r="D117" s="41"/>
       <c r="F117" s="1" t="s">
@@ -15025,18 +15091,18 @@
       </c>
       <c r="I117" s="40"/>
       <c r="K117" s="86" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="118" spans="3:11" hidden="1">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="118" spans="3:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="C118" s="11"/>
       <c r="D118" s="41"/>
       <c r="I118" s="40"/>
       <c r="K118" s="86" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="119" spans="3:11" hidden="1">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="119" spans="3:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="C119" s="11"/>
       <c r="D119" s="41" t="s">
         <v>409</v>
@@ -15048,10 +15114,10 @@
         <v>323</v>
       </c>
       <c r="K119" s="86" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="120" spans="3:11" hidden="1">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="120" spans="3:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="C120" s="11"/>
       <c r="D120" s="41"/>
       <c r="F120" s="1" t="s">
@@ -15059,15 +15125,15 @@
       </c>
       <c r="I120" s="40"/>
       <c r="K120" s="86" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="121" spans="3:11">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="121" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C121" s="11"/>
       <c r="D121" s="41"/>
       <c r="I121" s="40"/>
     </row>
-    <row r="122" spans="3:11">
+    <row r="122" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C122" s="11"/>
       <c r="D122" s="41" t="s">
         <v>410</v>
@@ -15077,7 +15143,7 @@
       </c>
       <c r="I122" s="40"/>
     </row>
-    <row r="123" spans="3:11">
+    <row r="123" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C123" s="11"/>
       <c r="D123" s="41"/>
       <c r="F123" s="1" t="s">
@@ -15087,12 +15153,12 @@
         <v>861</v>
       </c>
     </row>
-    <row r="124" spans="3:11">
+    <row r="124" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C124" s="11"/>
       <c r="D124" s="41"/>
       <c r="I124" s="40"/>
     </row>
-    <row r="125" spans="3:11">
+    <row r="125" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C125" s="11"/>
       <c r="D125" s="41" t="s">
         <v>410</v>
@@ -15104,7 +15170,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="126" spans="3:11">
+    <row r="126" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C126" s="11"/>
       <c r="D126" s="41"/>
       <c r="F126" s="1" t="s">
@@ -15112,12 +15178,12 @@
       </c>
       <c r="I126" s="40"/>
     </row>
-    <row r="127" spans="3:11">
+    <row r="127" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C127" s="11"/>
       <c r="D127" s="41"/>
       <c r="I127" s="40"/>
     </row>
-    <row r="128" spans="3:11">
+    <row r="128" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C128" s="11"/>
       <c r="D128" s="41" t="s">
         <v>410</v>
@@ -15129,7 +15195,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C129" s="11"/>
       <c r="D129" s="25"/>
       <c r="F129" s="1" t="s">
@@ -15137,12 +15203,12 @@
       </c>
       <c r="I129" s="40"/>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C130" s="11"/>
       <c r="D130" s="25"/>
       <c r="I130" s="40"/>
     </row>
-    <row r="131" spans="1:9" s="47" customFormat="1" hidden="1">
+    <row r="131" spans="1:9" s="47" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A131" s="68" t="s">
         <v>706</v>
       </c>
@@ -15161,7 +15227,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="132" spans="1:9" s="47" customFormat="1" hidden="1">
+    <row r="132" spans="1:9" s="47" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A132" s="71" t="s">
         <v>730</v>
       </c>
@@ -15176,13 +15242,13 @@
       <c r="H132" s="55"/>
       <c r="I132" s="40"/>
     </row>
-    <row r="133" spans="1:9" s="47" customFormat="1" hidden="1">
+    <row r="133" spans="1:9" s="47" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B133" s="37"/>
       <c r="C133" s="37"/>
       <c r="D133" s="40"/>
       <c r="I133" s="40"/>
     </row>
-    <row r="134" spans="1:9" s="66" customFormat="1">
+    <row r="134" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A134" s="69" t="s">
         <v>709</v>
       </c>
@@ -15199,7 +15265,7 @@
       <c r="H134" s="62"/>
       <c r="I134" s="65"/>
     </row>
-    <row r="135" spans="1:9" s="66" customFormat="1">
+    <row r="135" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A135" s="69" t="s">
         <v>710</v>
       </c>
@@ -15216,7 +15282,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="136" spans="1:9" s="66" customFormat="1">
+    <row r="136" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B136" s="64"/>
       <c r="C136" s="64"/>
       <c r="D136" s="65"/>
@@ -15230,7 +15296,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="137" spans="1:9" s="66" customFormat="1">
+    <row r="137" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B137" s="64"/>
       <c r="C137" s="64"/>
       <c r="D137" s="65"/>
@@ -15240,7 +15306,7 @@
       <c r="H137" s="62"/>
       <c r="I137" s="65"/>
     </row>
-    <row r="138" spans="1:9" s="66" customFormat="1">
+    <row r="138" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B138" s="64"/>
       <c r="C138" s="64"/>
       <c r="D138" s="65"/>
@@ -15252,7 +15318,7 @@
       <c r="H138" s="62"/>
       <c r="I138" s="65"/>
     </row>
-    <row r="139" spans="1:9" s="66" customFormat="1">
+    <row r="139" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B139" s="64"/>
       <c r="C139" s="64"/>
       <c r="D139" s="65"/>
@@ -15263,10 +15329,10 @@
       <c r="G139" s="62"/>
       <c r="H139" s="62"/>
       <c r="I139" s="65" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" s="66" customFormat="1">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B140" s="64"/>
       <c r="C140" s="64"/>
       <c r="D140" s="65"/>
@@ -15277,10 +15343,10 @@
       <c r="G140" s="62"/>
       <c r="H140" s="62"/>
       <c r="I140" s="65" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" s="66" customFormat="1">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B141" s="64"/>
       <c r="C141" s="64"/>
       <c r="D141" s="65"/>
@@ -15290,7 +15356,7 @@
       <c r="H141" s="62"/>
       <c r="I141" s="65"/>
     </row>
-    <row r="142" spans="1:9" s="66" customFormat="1">
+    <row r="142" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B142" s="64"/>
       <c r="C142" s="64"/>
       <c r="D142" s="65" t="s">
@@ -15304,7 +15370,7 @@
       <c r="H142" s="62"/>
       <c r="I142" s="65"/>
     </row>
-    <row r="143" spans="1:9" s="66" customFormat="1">
+    <row r="143" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B143" s="64"/>
       <c r="C143" s="64"/>
       <c r="D143" s="65"/>
@@ -15315,10 +15381,10 @@
       <c r="G143" s="62"/>
       <c r="H143" s="62"/>
       <c r="I143" s="65" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" s="66" customFormat="1">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B144" s="64"/>
       <c r="C144" s="64"/>
       <c r="D144" s="65"/>
@@ -15329,10 +15395,10 @@
       <c r="G144" s="62"/>
       <c r="H144" s="62"/>
       <c r="I144" s="65" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="145" spans="2:9" s="66" customFormat="1">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B145" s="64"/>
       <c r="C145" s="64"/>
       <c r="D145" s="65"/>
@@ -15342,7 +15408,7 @@
       <c r="H145" s="62"/>
       <c r="I145" s="65"/>
     </row>
-    <row r="146" spans="2:9" s="66" customFormat="1">
+    <row r="146" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B146" s="64"/>
       <c r="C146" s="64"/>
       <c r="D146" s="65" t="s">
@@ -15356,7 +15422,7 @@
       <c r="H146" s="62"/>
       <c r="I146" s="65"/>
     </row>
-    <row r="147" spans="2:9" s="66" customFormat="1">
+    <row r="147" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B147" s="64"/>
       <c r="C147" s="64"/>
       <c r="D147" s="65"/>
@@ -15367,10 +15433,10 @@
       <c r="G147" s="62"/>
       <c r="H147" s="62"/>
       <c r="I147" s="65" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="148" spans="2:9" s="66" customFormat="1">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B148" s="64"/>
       <c r="C148" s="64"/>
       <c r="D148" s="65"/>
@@ -15381,10 +15447,10 @@
       <c r="G148" s="62"/>
       <c r="H148" s="62"/>
       <c r="I148" s="65" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" s="66" customFormat="1">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B149" s="64"/>
       <c r="C149" s="64"/>
       <c r="D149" s="65"/>
@@ -15395,10 +15461,10 @@
       <c r="G149" s="62"/>
       <c r="H149" s="62"/>
       <c r="I149" s="65" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9" s="66" customFormat="1">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B150" s="64"/>
       <c r="C150" s="64"/>
       <c r="D150" s="65"/>
@@ -15409,38 +15475,38 @@
       <c r="G150" s="62"/>
       <c r="H150" s="62"/>
       <c r="I150" s="65" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="151" spans="2:9" s="66" customFormat="1">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B151" s="64"/>
       <c r="C151" s="64"/>
       <c r="D151" s="65"/>
       <c r="E151" s="62"/>
       <c r="F151" s="88" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="G151" s="62"/>
       <c r="H151" s="62"/>
       <c r="I151" s="65" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="152" spans="2:9" s="66" customFormat="1">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="152" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B152" s="64"/>
       <c r="C152" s="64"/>
       <c r="D152" s="65"/>
       <c r="E152" s="62"/>
       <c r="F152" s="88" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="G152" s="62"/>
       <c r="H152" s="62"/>
       <c r="I152" s="65" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="153" spans="2:9" s="66" customFormat="1">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="153" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B153" s="64"/>
       <c r="C153" s="64"/>
       <c r="D153" s="65"/>
@@ -15450,7 +15516,7 @@
       <c r="H153" s="62"/>
       <c r="I153" s="65"/>
     </row>
-    <row r="154" spans="2:9" s="66" customFormat="1">
+    <row r="154" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B154" s="64"/>
       <c r="C154" s="64"/>
       <c r="D154" s="65" t="s">
@@ -15464,7 +15530,7 @@
       <c r="H154" s="62"/>
       <c r="I154" s="65"/>
     </row>
-    <row r="155" spans="2:9" s="66" customFormat="1">
+    <row r="155" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B155" s="64"/>
       <c r="C155" s="64"/>
       <c r="D155" s="65"/>
@@ -15476,7 +15542,7 @@
       <c r="H155" s="62"/>
       <c r="I155" s="65"/>
     </row>
-    <row r="156" spans="2:9" s="66" customFormat="1">
+    <row r="156" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B156" s="64"/>
       <c r="C156" s="64"/>
       <c r="D156" s="65"/>
@@ -15487,10 +15553,10 @@
       </c>
       <c r="H156" s="62"/>
       <c r="I156" s="65" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="157" spans="2:9" s="66" customFormat="1">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="157" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B157" s="64"/>
       <c r="C157" s="64"/>
       <c r="D157" s="65"/>
@@ -15501,10 +15567,10 @@
       </c>
       <c r="H157" s="62"/>
       <c r="I157" s="65" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="158" spans="2:9" s="66" customFormat="1">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="158" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B158" s="64"/>
       <c r="C158" s="64"/>
       <c r="D158" s="65"/>
@@ -15514,7 +15580,7 @@
       <c r="H158" s="62"/>
       <c r="I158" s="65"/>
     </row>
-    <row r="159" spans="2:9" s="66" customFormat="1">
+    <row r="159" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B159" s="64"/>
       <c r="C159" s="64"/>
       <c r="D159" s="65"/>
@@ -15526,7 +15592,7 @@
       <c r="H159" s="62"/>
       <c r="I159" s="65"/>
     </row>
-    <row r="160" spans="2:9" s="66" customFormat="1">
+    <row r="160" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B160" s="64"/>
       <c r="C160" s="64"/>
       <c r="D160" s="65"/>
@@ -15540,7 +15606,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="161" spans="1:9" s="66" customFormat="1">
+    <row r="161" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B161" s="64"/>
       <c r="C161" s="64"/>
       <c r="D161" s="65"/>
@@ -15552,7 +15618,7 @@
       <c r="H161" s="62"/>
       <c r="I161" s="65"/>
     </row>
-    <row r="162" spans="1:9" s="66" customFormat="1">
+    <row r="162" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B162" s="64"/>
       <c r="C162" s="64"/>
       <c r="D162" s="65"/>
@@ -15566,7 +15632,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="163" spans="1:9" s="66" customFormat="1">
+    <row r="163" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B163" s="64"/>
       <c r="C163" s="64"/>
       <c r="D163" s="65"/>
@@ -15578,7 +15644,7 @@
       <c r="H163" s="62"/>
       <c r="I163" s="65"/>
     </row>
-    <row r="164" spans="1:9" s="66" customFormat="1">
+    <row r="164" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B164" s="64"/>
       <c r="C164" s="64"/>
       <c r="D164" s="65"/>
@@ -15592,7 +15658,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="165" spans="1:9" s="66" customFormat="1">
+    <row r="165" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B165" s="64"/>
       <c r="C165" s="64"/>
       <c r="D165" s="65"/>
@@ -15602,7 +15668,7 @@
       <c r="H165" s="62"/>
       <c r="I165" s="65"/>
     </row>
-    <row r="166" spans="1:9" s="66" customFormat="1">
+    <row r="166" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B166" s="64"/>
       <c r="C166" s="64"/>
       <c r="D166" s="65" t="s">
@@ -15616,7 +15682,7 @@
       <c r="H166" s="62"/>
       <c r="I166" s="65"/>
     </row>
-    <row r="167" spans="1:9" s="66" customFormat="1">
+    <row r="167" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A167" s="69" t="s">
         <v>708</v>
       </c>
@@ -15633,7 +15699,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="168" spans="1:9" s="66" customFormat="1">
+    <row r="168" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A168" s="72" t="s">
         <v>733</v>
       </c>
@@ -15650,7 +15716,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="169" spans="1:9" s="66" customFormat="1">
+    <row r="169" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B169" s="64"/>
       <c r="C169" s="64"/>
       <c r="D169" s="65"/>
@@ -15660,7 +15726,7 @@
       <c r="H169" s="62"/>
       <c r="I169" s="65"/>
     </row>
-    <row r="170" spans="1:9" s="66" customFormat="1">
+    <row r="170" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B170" s="64"/>
       <c r="C170" s="64"/>
       <c r="D170" s="65" t="s">
@@ -15674,7 +15740,7 @@
       <c r="H170" s="62"/>
       <c r="I170" s="65"/>
     </row>
-    <row r="171" spans="1:9" s="66" customFormat="1">
+    <row r="171" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B171" s="64"/>
       <c r="C171" s="64"/>
       <c r="D171" s="65"/>
@@ -15685,10 +15751,10 @@
       <c r="G171" s="62"/>
       <c r="H171" s="62"/>
       <c r="I171" s="65" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" s="66" customFormat="1">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A172" s="69" t="s">
         <v>707</v>
       </c>
@@ -15702,10 +15768,10 @@
       <c r="G172" s="62"/>
       <c r="H172" s="62"/>
       <c r="I172" s="65" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" s="66" customFormat="1">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A173" s="72" t="s">
         <v>731</v>
       </c>
@@ -15718,7 +15784,7 @@
       <c r="H173" s="62"/>
       <c r="I173" s="65"/>
     </row>
-    <row r="174" spans="1:9" s="66" customFormat="1">
+    <row r="174" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B174" s="64"/>
       <c r="C174" s="64"/>
       <c r="D174" s="65"/>
@@ -15730,7 +15796,7 @@
       <c r="H174" s="62"/>
       <c r="I174" s="65"/>
     </row>
-    <row r="175" spans="1:9" s="66" customFormat="1">
+    <row r="175" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B175" s="64"/>
       <c r="C175" s="64"/>
       <c r="D175" s="65"/>
@@ -15744,13 +15810,13 @@
         <v>795</v>
       </c>
     </row>
-    <row r="176" spans="1:9" s="66" customFormat="1">
+    <row r="176" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B176" s="64"/>
       <c r="C176" s="64"/>
       <c r="D176" s="65"/>
       <c r="I176" s="65"/>
     </row>
-    <row r="177" spans="2:9" s="66" customFormat="1">
+    <row r="177" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B177" s="64"/>
       <c r="C177" s="64"/>
       <c r="D177" s="65"/>
@@ -15762,7 +15828,7 @@
       <c r="H177" s="28"/>
       <c r="I177" s="92"/>
     </row>
-    <row r="178" spans="2:9" s="66" customFormat="1">
+    <row r="178" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B178" s="64"/>
       <c r="C178" s="64"/>
       <c r="D178" s="65"/>
@@ -15776,7 +15842,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="179" spans="2:9" s="66" customFormat="1">
+    <row r="179" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B179" s="64"/>
       <c r="C179" s="64"/>
       <c r="D179" s="65"/>
@@ -15786,7 +15852,7 @@
       <c r="H179" s="28"/>
       <c r="I179" s="92"/>
     </row>
-    <row r="180" spans="2:9" s="66" customFormat="1">
+    <row r="180" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B180" s="64"/>
       <c r="C180" s="64"/>
       <c r="D180" s="65"/>
@@ -15798,7 +15864,7 @@
       <c r="H180" s="28"/>
       <c r="I180" s="92"/>
     </row>
-    <row r="181" spans="2:9" s="66" customFormat="1">
+    <row r="181" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B181" s="64"/>
       <c r="C181" s="64"/>
       <c r="D181" s="65"/>
@@ -15812,7 +15878,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="182" spans="2:9" s="66" customFormat="1">
+    <row r="182" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B182" s="64"/>
       <c r="C182" s="64"/>
       <c r="D182" s="65"/>
@@ -15826,7 +15892,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="183" spans="2:9" s="66" customFormat="1">
+    <row r="183" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B183" s="64"/>
       <c r="C183" s="64"/>
       <c r="D183" s="65"/>
@@ -15840,7 +15906,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="184" spans="2:9" s="66" customFormat="1">
+    <row r="184" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B184" s="64"/>
       <c r="C184" s="64"/>
       <c r="D184" s="65"/>
@@ -15854,7 +15920,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="185" spans="2:9" s="66" customFormat="1">
+    <row r="185" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B185" s="64"/>
       <c r="C185" s="64"/>
       <c r="D185" s="65"/>
@@ -15868,7 +15934,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="186" spans="2:9" s="66" customFormat="1">
+    <row r="186" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B186" s="64"/>
       <c r="C186" s="64"/>
       <c r="D186" s="65"/>
@@ -15878,7 +15944,7 @@
       <c r="H186" s="28"/>
       <c r="I186" s="92"/>
     </row>
-    <row r="187" spans="2:9" s="66" customFormat="1">
+    <row r="187" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B187" s="64"/>
       <c r="C187" s="64"/>
       <c r="D187" s="65"/>
@@ -15890,7 +15956,7 @@
       <c r="H187" s="28"/>
       <c r="I187" s="92"/>
     </row>
-    <row r="188" spans="2:9" s="66" customFormat="1">
+    <row r="188" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B188" s="64"/>
       <c r="C188" s="64"/>
       <c r="D188" s="65"/>
@@ -15901,24 +15967,24 @@
       <c r="G188" s="28"/>
       <c r="H188" s="28"/>
       <c r="I188" s="65" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="189" spans="2:9" s="66" customFormat="1">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="189" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B189" s="64"/>
       <c r="C189" s="64"/>
       <c r="D189" s="65"/>
       <c r="E189" s="28"/>
       <c r="F189" s="89" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G189" s="28"/>
       <c r="H189" s="28"/>
       <c r="I189" s="65" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="190" spans="2:9" s="66" customFormat="1">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="190" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B190" s="64"/>
       <c r="C190" s="64"/>
       <c r="D190" s="65"/>
@@ -15929,48 +15995,48 @@
       <c r="G190" s="28"/>
       <c r="H190" s="28"/>
       <c r="I190" s="65" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="191" spans="2:9" s="66" customFormat="1">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="191" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B191" s="64"/>
       <c r="C191" s="64"/>
       <c r="D191" s="65"/>
       <c r="F191" s="86" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I191" s="65" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="192" spans="2:9" s="66" customFormat="1">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="192" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B192" s="64"/>
       <c r="C192" s="64"/>
       <c r="D192" s="65"/>
     </row>
-    <row r="193" spans="2:10" s="66" customFormat="1">
+    <row r="193" spans="2:10" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B193" s="64"/>
       <c r="C193" s="64"/>
       <c r="D193" s="65"/>
     </row>
-    <row r="194" spans="2:10" s="66" customFormat="1">
+    <row r="194" spans="2:10" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B194" s="64"/>
       <c r="C194" s="64"/>
       <c r="D194" s="65"/>
     </row>
-    <row r="195" spans="2:10">
+    <row r="195" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C195" s="11"/>
       <c r="E195" s="18" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="196" spans="2:10">
+    <row r="196" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C196" s="11"/>
     </row>
-    <row r="197" spans="2:10">
+    <row r="197" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C197" s="11"/>
     </row>
-    <row r="198" spans="2:10">
+    <row r="198" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B198" s="78" t="s">
         <v>143</v>
       </c>
@@ -15983,7 +16049,7 @@
       <c r="I198" s="28"/>
       <c r="J198" s="28"/>
     </row>
-    <row r="199" spans="2:10">
+    <row r="199" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B199" s="78"/>
       <c r="C199" s="79" t="s">
         <v>783</v>
@@ -15996,7 +16062,7 @@
       <c r="I199" s="28"/>
       <c r="J199" s="28"/>
     </row>
-    <row r="200" spans="2:10">
+    <row r="200" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B200" s="78"/>
       <c r="C200" s="28"/>
       <c r="D200" s="79" t="s">
@@ -16009,7 +16075,7 @@
       <c r="I200" s="28"/>
       <c r="J200" s="28"/>
     </row>
-    <row r="201" spans="2:10">
+    <row r="201" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B201" s="78"/>
       <c r="C201" s="28"/>
       <c r="D201" s="79" t="s">
@@ -16022,7 +16088,7 @@
       <c r="I201" s="28"/>
       <c r="J201" s="28"/>
     </row>
-    <row r="202" spans="2:10">
+    <row r="202" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B202" s="78"/>
       <c r="C202" s="28"/>
       <c r="D202" s="28"/>
@@ -16053,33 +16119,33 @@
       <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="27" style="1" customWidth="1"/>
     <col min="2" max="3" width="8.875" style="11"/>
     <col min="4" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B2" s="11" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="2:13">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C3" s="22" t="s">
         <v>135</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
     </row>
-    <row r="4" spans="2:13">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C4" s="20"/>
       <c r="D4" s="24" t="s">
         <v>127</v>
       </c>
       <c r="E4" s="21"/>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C5" s="33"/>
       <c r="D5" s="34"/>
       <c r="E5" s="23" t="s">
@@ -16094,7 +16160,7 @@
       <c r="L5" s="30"/>
       <c r="M5" s="30"/>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C6" s="33"/>
       <c r="D6" s="34"/>
       <c r="E6" s="23" t="s">
@@ -16109,7 +16175,7 @@
       <c r="L6" s="30"/>
       <c r="M6" s="30"/>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C7" s="31"/>
       <c r="D7" s="30"/>
       <c r="E7" s="30"/>
@@ -16122,7 +16188,7 @@
       <c r="L7" s="30"/>
       <c r="M7" s="30"/>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C8" s="33"/>
       <c r="D8" s="24" t="s">
         <v>131</v>
@@ -16137,7 +16203,7 @@
       <c r="L8" s="30"/>
       <c r="M8" s="30"/>
     </row>
-    <row r="9" spans="2:13">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C9" s="33"/>
       <c r="D9" s="34"/>
       <c r="E9" s="23" t="s">
@@ -16152,7 +16218,7 @@
       <c r="L9" s="30"/>
       <c r="M9" s="30"/>
     </row>
-    <row r="10" spans="2:13">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C10" s="33"/>
       <c r="D10" s="34"/>
       <c r="E10" s="23" t="s">
@@ -16167,7 +16233,7 @@
       <c r="L10" s="30"/>
       <c r="M10" s="30"/>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C11" s="33"/>
       <c r="D11" s="24"/>
       <c r="E11" s="34"/>
@@ -16180,7 +16246,7 @@
       <c r="L11" s="30"/>
       <c r="M11" s="30"/>
     </row>
-    <row r="12" spans="2:13" hidden="1">
+    <row r="12" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="C12" s="18" t="s">
         <v>132</v>
       </c>
@@ -16195,7 +16261,7 @@
       <c r="L12" s="30"/>
       <c r="M12" s="30"/>
     </row>
-    <row r="13" spans="2:13" hidden="1">
+    <row r="13" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="C13" s="33"/>
       <c r="D13" s="24" t="s">
         <v>127</v>
@@ -16210,7 +16276,7 @@
       <c r="L13" s="30"/>
       <c r="M13" s="30"/>
     </row>
-    <row r="14" spans="2:13" hidden="1">
+    <row r="14" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="C14" s="33"/>
       <c r="D14" s="34"/>
       <c r="E14" s="23" t="s">
@@ -16225,7 +16291,7 @@
       <c r="L14" s="30"/>
       <c r="M14" s="30"/>
     </row>
-    <row r="15" spans="2:13" hidden="1">
+    <row r="15" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="C15" s="33"/>
       <c r="D15" s="34"/>
       <c r="E15" s="23" t="s">
@@ -16240,7 +16306,7 @@
       <c r="L15" s="30"/>
       <c r="M15" s="30"/>
     </row>
-    <row r="16" spans="2:13" hidden="1">
+    <row r="16" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="C16" s="31"/>
       <c r="D16" s="30"/>
       <c r="E16" s="30"/>
@@ -16253,7 +16319,7 @@
       <c r="L16" s="30"/>
       <c r="M16" s="30"/>
     </row>
-    <row r="17" spans="2:13" hidden="1">
+    <row r="17" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="C17" s="33"/>
       <c r="D17" s="24" t="s">
         <v>131</v>
@@ -16268,7 +16334,7 @@
       <c r="L17" s="30"/>
       <c r="M17" s="30"/>
     </row>
-    <row r="18" spans="2:13" hidden="1">
+    <row r="18" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="C18" s="33"/>
       <c r="D18" s="34"/>
       <c r="E18" s="23" t="s">
@@ -16283,7 +16349,7 @@
       <c r="L18" s="30"/>
       <c r="M18" s="30"/>
     </row>
-    <row r="19" spans="2:13" hidden="1">
+    <row r="19" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="C19" s="33"/>
       <c r="D19" s="34"/>
       <c r="E19" s="23" t="s">
@@ -16298,7 +16364,7 @@
       <c r="L19" s="30"/>
       <c r="M19" s="30"/>
     </row>
-    <row r="20" spans="2:13">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C20" s="31"/>
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
@@ -16311,7 +16377,7 @@
       <c r="L20" s="30"/>
       <c r="M20" s="30"/>
     </row>
-    <row r="21" spans="2:13">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B21" s="11" t="s">
         <v>139</v>
       </c>
@@ -16327,7 +16393,7 @@
       <c r="L21" s="30"/>
       <c r="M21" s="30"/>
     </row>
-    <row r="22" spans="2:13">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C22" s="24" t="s">
         <v>127</v>
       </c>
@@ -16342,7 +16408,7 @@
       <c r="L22" s="30"/>
       <c r="M22" s="30"/>
     </row>
-    <row r="23" spans="2:13">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C23" s="31"/>
       <c r="D23" s="30" t="s">
         <v>140</v>
@@ -16357,7 +16423,7 @@
       <c r="L23" s="30"/>
       <c r="M23" s="30"/>
     </row>
-    <row r="24" spans="2:13">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C24" s="31"/>
       <c r="D24" s="30" t="s">
         <v>173</v>
@@ -16372,7 +16438,7 @@
       <c r="L24" s="30"/>
       <c r="M24" s="30"/>
     </row>
-    <row r="25" spans="2:13">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C25" s="31"/>
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
@@ -16385,7 +16451,7 @@
       <c r="L25" s="30"/>
       <c r="M25" s="30"/>
     </row>
-    <row r="26" spans="2:13">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C26" s="31" t="s">
         <v>141</v>
       </c>
@@ -16400,7 +16466,7 @@
       <c r="L26" s="30"/>
       <c r="M26" s="30"/>
     </row>
-    <row r="27" spans="2:13">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C27" s="31"/>
       <c r="D27" s="30" t="s">
         <v>142</v>
@@ -16415,7 +16481,7 @@
       <c r="L27" s="30"/>
       <c r="M27" s="30"/>
     </row>
-    <row r="28" spans="2:13">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C28" s="31"/>
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
@@ -16428,7 +16494,7 @@
       <c r="L28" s="30"/>
       <c r="M28" s="30"/>
     </row>
-    <row r="29" spans="2:13" hidden="1">
+    <row r="29" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" s="22" t="s">
         <v>126</v>
       </c>
@@ -16444,7 +16510,7 @@
       <c r="L29" s="30"/>
       <c r="M29" s="30"/>
     </row>
-    <row r="30" spans="2:13" hidden="1">
+    <row r="30" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B30" s="20"/>
       <c r="C30" s="24" t="s">
         <v>127</v>
@@ -16460,7 +16526,7 @@
       <c r="L30" s="30"/>
       <c r="M30" s="30"/>
     </row>
-    <row r="31" spans="2:13" hidden="1">
+    <row r="31" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B31" s="20"/>
       <c r="C31" s="33"/>
       <c r="D31" s="23" t="s">
@@ -16476,7 +16542,7 @@
       <c r="L31" s="30"/>
       <c r="M31" s="30"/>
     </row>
-    <row r="32" spans="2:13" hidden="1">
+    <row r="32" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B32" s="20"/>
       <c r="C32" s="33"/>
       <c r="D32" s="23" t="s">
@@ -16492,7 +16558,7 @@
       <c r="L32" s="30"/>
       <c r="M32" s="30"/>
     </row>
-    <row r="33" spans="2:13" hidden="1">
+    <row r="33" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B33" s="20"/>
       <c r="C33" s="33"/>
       <c r="D33" s="23" t="s">
@@ -16508,7 +16574,7 @@
       <c r="L33" s="30"/>
       <c r="M33" s="30"/>
     </row>
-    <row r="34" spans="2:13" hidden="1">
+    <row r="34" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="C34" s="31"/>
       <c r="D34" s="30"/>
       <c r="E34" s="30"/>
@@ -16521,7 +16587,7 @@
       <c r="L34" s="30"/>
       <c r="M34" s="30"/>
     </row>
-    <row r="35" spans="2:13" hidden="1">
+    <row r="35" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B35" s="20"/>
       <c r="C35" s="24" t="s">
         <v>131</v>
@@ -16537,7 +16603,7 @@
       <c r="L35" s="30"/>
       <c r="M35" s="30"/>
     </row>
-    <row r="36" spans="2:13" hidden="1">
+    <row r="36" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B36" s="20"/>
       <c r="C36" s="33"/>
       <c r="D36" s="23" t="s">
@@ -16553,7 +16619,7 @@
       <c r="L36" s="30"/>
       <c r="M36" s="30"/>
     </row>
-    <row r="37" spans="2:13" hidden="1">
+    <row r="37" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B37" s="20"/>
       <c r="C37" s="33"/>
       <c r="D37" s="23" t="s">
@@ -16569,7 +16635,7 @@
       <c r="L37" s="30"/>
       <c r="M37" s="30"/>
     </row>
-    <row r="38" spans="2:13" s="47" customFormat="1">
+    <row r="38" spans="2:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="22" t="s">
         <v>683</v>
       </c>
@@ -16585,7 +16651,7 @@
       <c r="L38" s="41"/>
       <c r="M38" s="41"/>
     </row>
-    <row r="39" spans="2:13" s="47" customFormat="1">
+    <row r="39" spans="2:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="22"/>
       <c r="C39" s="18" t="s">
         <v>684</v>
@@ -16601,7 +16667,7 @@
       <c r="L39" s="41"/>
       <c r="M39" s="41"/>
     </row>
-    <row r="40" spans="2:13" s="47" customFormat="1">
+    <row r="40" spans="2:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="22"/>
       <c r="C40" s="18"/>
       <c r="D40" s="23" t="s">
@@ -16617,7 +16683,7 @@
       <c r="L40" s="41"/>
       <c r="M40" s="41"/>
     </row>
-    <row r="41" spans="2:13" s="47" customFormat="1">
+    <row r="41" spans="2:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="22"/>
       <c r="C41" s="18"/>
       <c r="D41" s="23" t="s">
@@ -16633,7 +16699,7 @@
       <c r="L41" s="41"/>
       <c r="M41" s="41"/>
     </row>
-    <row r="42" spans="2:13" s="47" customFormat="1">
+    <row r="42" spans="2:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="22"/>
       <c r="C42" s="18"/>
       <c r="D42" s="23"/>
@@ -16647,7 +16713,7 @@
       <c r="L42" s="41"/>
       <c r="M42" s="41"/>
     </row>
-    <row r="43" spans="2:13" s="47" customFormat="1">
+    <row r="43" spans="2:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="22"/>
       <c r="C43" s="18" t="s">
         <v>687</v>
@@ -16663,7 +16729,7 @@
       <c r="L43" s="41"/>
       <c r="M43" s="41"/>
     </row>
-    <row r="44" spans="2:13" s="47" customFormat="1">
+    <row r="44" spans="2:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="22"/>
       <c r="C44" s="18"/>
       <c r="D44" s="23" t="s">
@@ -16679,7 +16745,7 @@
       <c r="L44" s="41"/>
       <c r="M44" s="41"/>
     </row>
-    <row r="45" spans="2:13" s="47" customFormat="1">
+    <row r="45" spans="2:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="22"/>
       <c r="C45" s="18"/>
       <c r="D45" s="23"/>
@@ -16693,7 +16759,7 @@
       <c r="L45" s="41"/>
       <c r="M45" s="41"/>
     </row>
-    <row r="46" spans="2:13">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C46" s="31"/>
       <c r="D46" s="30"/>
       <c r="E46" s="30"/>
@@ -16706,7 +16772,7 @@
       <c r="L46" s="30"/>
       <c r="M46" s="30"/>
     </row>
-    <row r="47" spans="2:13">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B47" s="11" t="s">
         <v>566</v>
       </c>
@@ -16722,7 +16788,7 @@
       <c r="L47" s="30"/>
       <c r="M47" s="30"/>
     </row>
-    <row r="48" spans="2:13">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C48" s="24" t="s">
         <v>127</v>
       </c>
@@ -16737,18 +16803,18 @@
       <c r="L48" s="30"/>
       <c r="M48" s="30"/>
     </row>
-    <row r="49" spans="3:4">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C49" s="24"/>
       <c r="D49" s="1" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="50" spans="3:4">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C50" s="24" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="3:4">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D51" s="1" t="s">
         <v>569</v>
       </c>
@@ -16763,11 +16829,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T121"/>
   <sheetViews>
-    <sheetView topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
-    </sheetView>
+    <sheetView topLeftCell="B25" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.625" style="1" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" style="1"/>
@@ -16790,16 +16854,16 @@
     <col min="20" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
       <c r="O1" s="47"/>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>268</v>
       </c>
       <c r="P2" s="29"/>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="D3" s="1" t="s">
         <v>279</v>
       </c>
@@ -16823,7 +16887,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
         <v>337</v>
       </c>
@@ -16882,7 +16946,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5" s="29" t="s">
         <v>383</v>
       </c>
@@ -16938,7 +17002,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="E6" s="1"/>
       <c r="F6" s="27">
         <v>2</v>
@@ -16948,7 +17012,7 @@
         <v>841</v>
       </c>
       <c r="M6" s="87" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="N6" s="41" t="s">
         <v>842</v>
@@ -16962,7 +17026,7 @@
       <c r="S6" s="41"/>
       <c r="T6" s="41"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="E7" s="1"/>
       <c r="F7" s="27">
         <v>3</v>
@@ -16975,7 +17039,7 @@
         <v>843</v>
       </c>
       <c r="M7" s="87" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="N7" s="41" t="s">
         <v>844</v>
@@ -16989,7 +17053,7 @@
       <c r="S7" s="41"/>
       <c r="T7" s="41"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="I8" s="1">
         <v>1</v>
       </c>
@@ -16998,7 +17062,7 @@
         <v>845</v>
       </c>
       <c r="M8" s="87" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="N8" s="41" t="s">
         <v>846</v>
@@ -17012,7 +17076,7 @@
       <c r="S8" s="41"/>
       <c r="T8" s="41"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="I9" s="1">
         <v>1</v>
       </c>
@@ -17021,7 +17085,7 @@
         <v>847</v>
       </c>
       <c r="M9" s="87" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="N9" s="41" t="s">
         <v>844</v>
@@ -17035,13 +17099,13 @@
       <c r="S9" s="41"/>
       <c r="T9" s="41"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="K10" s="41"/>
       <c r="L10" s="86" t="s">
         <v>848</v>
       </c>
       <c r="M10" s="87" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="N10" s="87" t="s">
         <v>849</v>
@@ -17055,12 +17119,12 @@
       <c r="S10" s="41"/>
       <c r="T10" s="41"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="L11" s="86" t="s">
         <v>850</v>
       </c>
       <c r="M11" s="87" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="N11" s="41" t="s">
         <v>846</v>
@@ -17071,12 +17135,12 @@
       <c r="R11" s="1"/>
       <c r="S11" s="47"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="L12" s="86" t="s">
         <v>851</v>
       </c>
       <c r="M12" s="87" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="N12" s="86" t="s">
         <v>852</v>
@@ -17087,12 +17151,12 @@
       <c r="R12" s="1"/>
       <c r="S12" s="47"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="L13" s="86" t="s">
         <v>853</v>
       </c>
       <c r="M13" s="87" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="N13" s="87">
         <v>50</v>
@@ -17103,7 +17167,7 @@
       <c r="R13" s="1"/>
       <c r="S13" s="47"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="I14" s="1">
         <v>1</v>
       </c>
@@ -17111,7 +17175,7 @@
         <v>854</v>
       </c>
       <c r="M14" s="87" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="N14" s="87" t="s">
         <v>846</v>
@@ -17122,7 +17186,7 @@
       <c r="R14" s="1"/>
       <c r="S14" s="47"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="I15" s="1">
         <v>1</v>
       </c>
@@ -17130,7 +17194,7 @@
         <v>856</v>
       </c>
       <c r="M15" s="87" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="N15" s="87" t="s">
         <v>846</v>
@@ -17141,7 +17205,7 @@
       <c r="R15" s="1"/>
       <c r="S15" s="47"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="I16" s="1">
         <v>1</v>
       </c>
@@ -17149,7 +17213,7 @@
         <v>858</v>
       </c>
       <c r="M16" s="87" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="N16" s="87" t="s">
         <v>846</v>
@@ -17160,7 +17224,7 @@
       <c r="R16" s="1"/>
       <c r="S16" s="47"/>
     </row>
-    <row r="17" spans="4:19">
+    <row r="17" spans="4:19" x14ac:dyDescent="0.15">
       <c r="I17" s="1">
         <v>1</v>
       </c>
@@ -17168,7 +17232,7 @@
         <v>859</v>
       </c>
       <c r="M17" s="87" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="N17" s="87" t="s">
         <v>846</v>
@@ -17179,7 +17243,7 @@
       <c r="R17" s="1"/>
       <c r="S17" s="47"/>
     </row>
-    <row r="18" spans="4:19">
+    <row r="18" spans="4:19" x14ac:dyDescent="0.15">
       <c r="I18" s="1">
         <v>1</v>
       </c>
@@ -17187,14 +17251,14 @@
         <v>860</v>
       </c>
       <c r="M18" s="87" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="N18" s="87"/>
       <c r="O18" s="87"/>
       <c r="R18" s="1"/>
       <c r="S18" s="47"/>
     </row>
-    <row r="19" spans="4:19">
+    <row r="19" spans="4:19" x14ac:dyDescent="0.15">
       <c r="I19" s="1">
         <v>1</v>
       </c>
@@ -17202,7 +17266,7 @@
         <v>861</v>
       </c>
       <c r="M19" s="87" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="N19" s="87" t="s">
         <v>846</v>
@@ -17213,7 +17277,7 @@
       <c r="R19" s="1"/>
       <c r="S19" s="47"/>
     </row>
-    <row r="20" spans="4:19">
+    <row r="20" spans="4:19" x14ac:dyDescent="0.15">
       <c r="I20" s="1">
         <v>1</v>
       </c>
@@ -17221,7 +17285,7 @@
         <v>862</v>
       </c>
       <c r="M20" s="87" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="N20" s="87" t="s">
         <v>846</v>
@@ -17232,12 +17296,12 @@
       <c r="R20" s="1"/>
       <c r="S20" s="47"/>
     </row>
-    <row r="21" spans="4:19">
+    <row r="21" spans="4:19" x14ac:dyDescent="0.15">
       <c r="L21" s="86" t="s">
         <v>863</v>
       </c>
       <c r="M21" s="87" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N21" s="87" t="s">
         <v>846</v>
@@ -17248,14 +17312,14 @@
       <c r="R21" s="1"/>
       <c r="S21" s="47"/>
     </row>
-    <row r="22" spans="4:19" s="47" customFormat="1">
+    <row r="22" spans="4:19" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D22" s="49"/>
       <c r="E22" s="49"/>
       <c r="L22" s="82" t="s">
         <v>864</v>
       </c>
       <c r="M22" s="87" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="N22" s="87" t="s">
         <v>844</v>
@@ -17264,14 +17328,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="4:19" s="47" customFormat="1">
+    <row r="23" spans="4:19" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D23" s="49"/>
       <c r="E23" s="49"/>
       <c r="L23" s="86" t="s">
         <v>865</v>
       </c>
       <c r="M23" s="87" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="N23" s="87" t="s">
         <v>866</v>
@@ -17280,14 +17344,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="4:19" s="47" customFormat="1">
+    <row r="24" spans="4:19" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D24" s="49"/>
       <c r="E24" s="49"/>
       <c r="L24" s="86" t="s">
         <v>867</v>
       </c>
       <c r="M24" s="87" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="N24" s="87" t="s">
         <v>846</v>
@@ -17296,7 +17360,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="4:19" s="47" customFormat="1">
+    <row r="25" spans="4:19" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D25" s="49"/>
       <c r="E25" s="49"/>
       <c r="I25" s="47">
@@ -17306,7 +17370,7 @@
         <v>868</v>
       </c>
       <c r="M25" s="87" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="N25" s="87" t="s">
         <v>846</v>
@@ -17315,33 +17379,33 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="4:19" s="47" customFormat="1">
+    <row r="26" spans="4:19" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D26" s="49"/>
       <c r="E26" s="49"/>
       <c r="I26" s="47">
         <v>1</v>
       </c>
       <c r="L26" s="86" t="s">
+        <v>955</v>
+      </c>
+      <c r="M26" s="87" t="s">
         <v>869</v>
       </c>
-      <c r="M26" s="87" t="s">
+      <c r="N26" s="87" t="s">
         <v>870</v>
-      </c>
-      <c r="N26" s="87" t="s">
-        <v>871</v>
       </c>
       <c r="O26" s="87">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="4:19" s="47" customFormat="1">
+    <row r="27" spans="4:19" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D27" s="49"/>
       <c r="E27" s="49"/>
       <c r="L27" s="86" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="M27" s="87" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="N27" s="87" t="s">
         <v>846</v>
@@ -17350,17 +17414,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="4:19" s="47" customFormat="1">
+    <row r="28" spans="4:19" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D28" s="49"/>
       <c r="E28" s="49"/>
       <c r="I28" s="47">
         <v>1</v>
       </c>
       <c r="L28" s="86" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="M28" s="87" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="N28" s="87" t="s">
         <v>846</v>
@@ -17369,33 +17433,33 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="4:19" s="47" customFormat="1">
+    <row r="29" spans="4:19" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D29" s="49"/>
       <c r="E29" s="49"/>
       <c r="L29" s="86" t="s">
+        <v>873</v>
+      </c>
+      <c r="M29" s="87" t="s">
+        <v>939</v>
+      </c>
+      <c r="N29" s="86" t="s">
         <v>874</v>
-      </c>
-      <c r="M29" s="87" t="s">
-        <v>940</v>
-      </c>
-      <c r="N29" s="86" t="s">
-        <v>875</v>
       </c>
       <c r="O29" s="87">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="4:19" s="47" customFormat="1">
+    <row r="30" spans="4:19" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D30" s="49"/>
       <c r="E30" s="49"/>
       <c r="I30" s="47">
         <v>1</v>
       </c>
       <c r="L30" s="86" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="M30" s="87" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="N30" s="87" t="s">
         <v>846</v>
@@ -17404,14 +17468,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="4:19" s="47" customFormat="1">
+    <row r="31" spans="4:19" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D31" s="49"/>
       <c r="E31" s="49"/>
       <c r="L31" s="86" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="M31" s="87" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="N31" s="87" t="s">
         <v>844</v>
@@ -17420,17 +17484,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="4:19" s="47" customFormat="1">
+    <row r="32" spans="4:19" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D32" s="49"/>
       <c r="E32" s="49"/>
       <c r="I32" s="47">
         <v>1</v>
       </c>
       <c r="L32" s="86" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="M32" s="87" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="N32" s="87" t="s">
         <v>844</v>
@@ -17439,17 +17503,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="3:15" s="47" customFormat="1">
+    <row r="33" spans="3:15" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D33" s="49"/>
       <c r="E33" s="49"/>
       <c r="I33" s="47">
         <v>1</v>
       </c>
       <c r="L33" s="86" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="M33" s="87" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="N33" s="87" t="s">
         <v>844</v>
@@ -17458,14 +17522,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="3:15" s="47" customFormat="1">
+    <row r="34" spans="3:15" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D34" s="49"/>
       <c r="E34" s="49"/>
       <c r="L34" s="86" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="M34" s="87" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="N34" s="87" t="s">
         <v>844</v>
@@ -17474,53 +17538,53 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="3:15" s="47" customFormat="1">
+    <row r="35" spans="3:15" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D35" s="49"/>
       <c r="E35" s="49"/>
       <c r="L35" s="86" t="s">
+        <v>880</v>
+      </c>
+      <c r="M35" s="87" t="s">
+        <v>941</v>
+      </c>
+      <c r="N35" s="86" t="s">
         <v>881</v>
-      </c>
-      <c r="M35" s="87" t="s">
-        <v>942</v>
-      </c>
-      <c r="N35" s="86" t="s">
-        <v>882</v>
       </c>
       <c r="O35" s="87">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="3:15" s="47" customFormat="1">
+    <row r="36" spans="3:15" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D36" s="49"/>
       <c r="E36" s="49"/>
       <c r="L36" s="86" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="M36" s="87" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="N36" s="86"/>
       <c r="O36" s="87"/>
     </row>
-    <row r="37" spans="3:15">
+    <row r="37" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C37" s="38"/>
       <c r="E37" s="1"/>
       <c r="L37" s="86" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="M37" s="87" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="N37" s="86"/>
       <c r="O37" s="87"/>
     </row>
-    <row r="38" spans="3:15" s="47" customFormat="1">
+    <row r="38" spans="3:15" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D38" s="49"/>
       <c r="L38" s="86" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="M38" s="87" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="N38" s="87" t="s">
         <v>844</v>
@@ -17529,13 +17593,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="3:15" s="47" customFormat="1">
+    <row r="39" spans="3:15" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D39" s="49"/>
       <c r="L39" s="86" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="M39" s="87" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="N39" s="87" t="s">
         <v>846</v>
@@ -17544,16 +17608,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="3:15" s="47" customFormat="1">
+    <row r="40" spans="3:15" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D40" s="49"/>
       <c r="I40" s="47">
         <v>1</v>
       </c>
       <c r="L40" s="86" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="M40" s="87" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="N40" s="87" t="s">
         <v>846</v>
@@ -17562,16 +17626,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="3:15" s="47" customFormat="1">
+    <row r="41" spans="3:15" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D41" s="49"/>
       <c r="I41" s="47">
         <v>1</v>
       </c>
       <c r="L41" s="86" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="M41" s="87" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="N41" s="87" t="s">
         <v>846</v>
@@ -17580,16 +17644,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="3:15" s="47" customFormat="1">
+    <row r="42" spans="3:15" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D42" s="49"/>
       <c r="I42" s="47">
         <v>1</v>
       </c>
       <c r="L42" s="86" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="M42" s="87" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="N42" s="87" t="s">
         <v>846</v>
@@ -17598,13 +17662,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="3:15" s="47" customFormat="1">
+    <row r="43" spans="3:15" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D43" s="49"/>
       <c r="L43" s="86" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="M43" s="87" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="N43" s="87" t="s">
         <v>846</v>
@@ -17613,13 +17677,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="3:15" s="47" customFormat="1">
+    <row r="44" spans="3:15" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D44" s="49"/>
       <c r="L44" s="86" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="M44" s="87" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="N44" s="87" t="s">
         <v>846</v>
@@ -17628,13 +17692,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="3:15" s="47" customFormat="1">
+    <row r="45" spans="3:15" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D45" s="49"/>
       <c r="L45" s="86" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="M45" s="87" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="N45" s="87" t="s">
         <v>846</v>
@@ -17643,13 +17707,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="3:15" s="47" customFormat="1">
+    <row r="46" spans="3:15" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D46" s="49"/>
       <c r="L46" s="86" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="M46" s="87" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="N46" s="87" t="s">
         <v>846</v>
@@ -17658,12 +17722,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="3:15" s="47" customFormat="1">
+    <row r="47" spans="3:15" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="L47" s="86" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="M47" s="87" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="N47" s="87" t="s">
         <v>846</v>
@@ -17672,19 +17736,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="3:15" s="47" customFormat="1">
+    <row r="48" spans="3:15" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="L48" s="86" t="s">
+        <v>894</v>
+      </c>
+      <c r="M48" s="87" t="s">
         <v>895</v>
-      </c>
-      <c r="M48" s="87" t="s">
-        <v>896</v>
       </c>
       <c r="N48" s="87"/>
       <c r="O48" s="87">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C49" s="47"/>
       <c r="D49" s="47"/>
       <c r="E49" s="47"/>
@@ -17695,17 +17759,17 @@
       <c r="J49" s="47"/>
       <c r="K49" s="47"/>
       <c r="L49" s="86" t="s">
+        <v>896</v>
+      </c>
+      <c r="M49" s="87" t="s">
         <v>897</v>
-      </c>
-      <c r="M49" s="87" t="s">
-        <v>898</v>
       </c>
       <c r="N49" s="87"/>
       <c r="O49" s="87">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C50" s="47"/>
       <c r="D50" s="47"/>
       <c r="E50" s="47"/>
@@ -17716,19 +17780,19 @@
       <c r="J50" s="47"/>
       <c r="K50" s="47"/>
       <c r="L50" s="86" t="s">
+        <v>898</v>
+      </c>
+      <c r="M50" s="87" t="s">
         <v>899</v>
       </c>
-      <c r="M50" s="87" t="s">
+      <c r="N50" s="87" t="s">
         <v>900</v>
-      </c>
-      <c r="N50" s="87" t="s">
-        <v>901</v>
       </c>
       <c r="O50" s="87">
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C51" s="47"/>
       <c r="D51" s="47"/>
       <c r="E51" s="47"/>
@@ -17741,10 +17805,10 @@
       <c r="J51" s="47"/>
       <c r="K51" s="47"/>
       <c r="L51" s="86" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="M51" s="86" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="N51" s="87" t="s">
         <v>846</v>
@@ -17753,29 +17817,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C52" s="47"/>
       <c r="D52" s="47"/>
       <c r="E52" s="47"/>
       <c r="F52" s="47"/>
       <c r="G52" s="47"/>
       <c r="H52" s="47"/>
-      <c r="I52" s="47"/>
-      <c r="J52" s="47"/>
-      <c r="K52" s="47"/>
-    </row>
-    <row r="53" spans="1:18">
+      <c r="I52" s="28">
+        <v>1</v>
+      </c>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="89" t="s">
+        <v>956</v>
+      </c>
+      <c r="M52" s="89" t="s">
+        <v>957</v>
+      </c>
+      <c r="N52" s="89" t="s">
+        <v>958</v>
+      </c>
+      <c r="O52" s="89" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C53" s="47"/>
       <c r="D53" s="47"/>
       <c r="E53" s="47"/>
       <c r="F53" s="47"/>
       <c r="G53" s="47"/>
       <c r="H53" s="47"/>
-      <c r="I53" s="47"/>
-      <c r="J53" s="47"/>
-      <c r="K53" s="47"/>
-    </row>
-    <row r="54" spans="1:18">
+      <c r="I53" s="28">
+        <v>1</v>
+      </c>
+      <c r="J53" s="28"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="89" t="s">
+        <v>961</v>
+      </c>
+      <c r="M53" s="89" t="s">
+        <v>960</v>
+      </c>
+      <c r="N53" s="28"/>
+      <c r="O53" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.15">
       <c r="D54" s="47"/>
       <c r="E54" s="47"/>
       <c r="F54" s="47"/>
@@ -17785,7 +17875,7 @@
       <c r="J54" s="47"/>
       <c r="K54" s="47"/>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.15">
       <c r="D55" s="47"/>
       <c r="E55" s="47"/>
       <c r="F55" s="47"/>
@@ -17795,12 +17885,12 @@
       <c r="J55" s="47"/>
       <c r="K55" s="47"/>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B56" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="57" spans="1:18" s="11" customFormat="1" ht="15">
+    <row r="57" spans="1:18" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="C57" s="11" t="s">
         <v>25</v>
       </c>
@@ -17813,7 +17903,7 @@
       <c r="K57" s="37"/>
       <c r="R57" s="37"/>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A58" s="28" t="s">
         <v>335</v>
       </c>
@@ -17824,7 +17914,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A59" s="29" t="s">
         <v>411</v>
       </c>
@@ -17835,7 +17925,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C60" s="47" t="s">
         <v>527</v>
       </c>
@@ -17843,7 +17933,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C61" s="47" t="s">
         <v>528</v>
       </c>
@@ -17851,7 +17941,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A62" s="28" t="s">
         <v>336</v>
       </c>
@@ -17865,7 +17955,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A63" s="29" t="s">
         <v>412</v>
       </c>
@@ -17876,7 +17966,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C64" s="1" t="s">
         <v>154</v>
       </c>
@@ -17887,7 +17977,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="65" spans="3:9">
+    <row r="65" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C65" s="1" t="s">
         <v>159</v>
       </c>
@@ -17898,7 +17988,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="66" spans="3:9">
+    <row r="66" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C66" s="1" t="s">
         <v>158</v>
       </c>
@@ -17909,7 +17999,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="67" spans="3:9">
+    <row r="67" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C67" s="1" t="s">
         <v>157</v>
       </c>
@@ -17920,7 +18010,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="68" spans="3:9">
+    <row r="68" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C68" s="1" t="s">
         <v>156</v>
       </c>
@@ -17934,7 +18024,7 @@
       <c r="H68" s="41"/>
       <c r="I68" s="41"/>
     </row>
-    <row r="69" spans="3:9">
+    <row r="69" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C69" s="1" t="s">
         <v>155</v>
       </c>
@@ -17948,7 +18038,7 @@
       <c r="H69" s="41"/>
       <c r="I69" s="41"/>
     </row>
-    <row r="70" spans="3:9">
+    <row r="70" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C70" s="1" t="s">
         <v>529</v>
       </c>
@@ -17962,7 +18052,7 @@
       <c r="H70" s="41"/>
       <c r="I70" s="41"/>
     </row>
-    <row r="71" spans="3:9" s="47" customFormat="1">
+    <row r="71" spans="3:9" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C71" s="80" t="s">
         <v>799</v>
       </c>
@@ -17976,7 +18066,7 @@
       <c r="H71" s="41"/>
       <c r="I71" s="41"/>
     </row>
-    <row r="72" spans="3:9" s="47" customFormat="1">
+    <row r="72" spans="3:9" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C72" s="80" t="s">
         <v>800</v>
       </c>
@@ -17990,7 +18080,7 @@
       <c r="H72" s="41"/>
       <c r="I72" s="41"/>
     </row>
-    <row r="73" spans="3:9" s="47" customFormat="1">
+    <row r="73" spans="3:9" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C73" s="61" t="s">
         <v>668</v>
       </c>
@@ -18002,7 +18092,7 @@
       <c r="H73" s="41"/>
       <c r="I73" s="41"/>
     </row>
-    <row r="74" spans="3:9" s="47" customFormat="1">
+    <row r="74" spans="3:9" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C74" s="75" t="s">
         <v>767</v>
       </c>
@@ -18014,7 +18104,7 @@
       <c r="H74" s="41"/>
       <c r="I74" s="41"/>
     </row>
-    <row r="75" spans="3:9" s="47" customFormat="1">
+    <row r="75" spans="3:9" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C75" s="62" t="s">
         <v>628</v>
       </c>
@@ -18026,7 +18116,7 @@
       <c r="H75" s="41"/>
       <c r="I75" s="41"/>
     </row>
-    <row r="76" spans="3:9" s="47" customFormat="1">
+    <row r="76" spans="3:9" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C76" s="61" t="s">
         <v>678</v>
       </c>
@@ -18038,7 +18128,7 @@
       <c r="H76" s="41"/>
       <c r="I76" s="41"/>
     </row>
-    <row r="77" spans="3:9" s="47" customFormat="1">
+    <row r="77" spans="3:9" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C77" s="61" t="s">
         <v>670</v>
       </c>
@@ -18052,7 +18142,7 @@
       <c r="H77" s="41"/>
       <c r="I77" s="41"/>
     </row>
-    <row r="78" spans="3:9" s="47" customFormat="1">
+    <row r="78" spans="3:9" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C78" s="61" t="s">
         <v>679</v>
       </c>
@@ -18064,7 +18154,7 @@
       <c r="H78" s="41"/>
       <c r="I78" s="41"/>
     </row>
-    <row r="79" spans="3:9" s="47" customFormat="1">
+    <row r="79" spans="3:9" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C79" s="61" t="s">
         <v>671</v>
       </c>
@@ -18078,7 +18168,7 @@
       <c r="H79" s="41"/>
       <c r="I79" s="41"/>
     </row>
-    <row r="80" spans="3:9" s="47" customFormat="1">
+    <row r="80" spans="3:9" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C80" s="61" t="s">
         <v>680</v>
       </c>
@@ -18090,7 +18180,7 @@
       <c r="H80" s="41"/>
       <c r="I80" s="41"/>
     </row>
-    <row r="81" spans="3:9" s="47" customFormat="1">
+    <row r="81" spans="3:9" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C81" s="61" t="s">
         <v>672</v>
       </c>
@@ -18104,7 +18194,7 @@
       <c r="H81" s="41"/>
       <c r="I81" s="41"/>
     </row>
-    <row r="82" spans="3:9" s="47" customFormat="1">
+    <row r="82" spans="3:9" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C82" s="61" t="s">
         <v>673</v>
       </c>
@@ -18118,7 +18208,7 @@
       <c r="H82" s="41"/>
       <c r="I82" s="41"/>
     </row>
-    <row r="83" spans="3:9" s="47" customFormat="1">
+    <row r="83" spans="3:9" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C83" s="61" t="s">
         <v>681</v>
       </c>
@@ -18130,7 +18220,7 @@
       <c r="H83" s="41"/>
       <c r="I83" s="41"/>
     </row>
-    <row r="84" spans="3:9" s="47" customFormat="1">
+    <row r="84" spans="3:9" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C84" s="61" t="s">
         <v>682</v>
       </c>
@@ -18142,7 +18232,7 @@
       <c r="H84" s="41"/>
       <c r="I84" s="41"/>
     </row>
-    <row r="85" spans="3:9" s="47" customFormat="1">
+    <row r="85" spans="3:9" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C85" s="75" t="s">
         <v>756</v>
       </c>
@@ -18154,7 +18244,7 @@
       <c r="H85" s="41"/>
       <c r="I85" s="41"/>
     </row>
-    <row r="86" spans="3:9" s="47" customFormat="1">
+    <row r="86" spans="3:9" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C86" s="75" t="s">
         <v>757</v>
       </c>
@@ -18166,7 +18256,7 @@
       <c r="H86" s="41"/>
       <c r="I86" s="41"/>
     </row>
-    <row r="87" spans="3:9" s="47" customFormat="1">
+    <row r="87" spans="3:9" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C87" s="80" t="s">
         <v>796</v>
       </c>
@@ -18180,7 +18270,7 @@
       <c r="H87" s="41"/>
       <c r="I87" s="41"/>
     </row>
-    <row r="88" spans="3:9" s="47" customFormat="1">
+    <row r="88" spans="3:9" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C88" s="80" t="s">
         <v>797</v>
       </c>
@@ -18194,7 +18284,7 @@
       <c r="H88" s="41"/>
       <c r="I88" s="41"/>
     </row>
-    <row r="89" spans="3:9" s="47" customFormat="1">
+    <row r="89" spans="3:9" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C89" s="80" t="s">
         <v>798</v>
       </c>
@@ -18208,7 +18298,7 @@
       <c r="H89" s="41"/>
       <c r="I89" s="41"/>
     </row>
-    <row r="90" spans="3:9" s="47" customFormat="1">
+    <row r="90" spans="3:9" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C90" s="80" t="s">
         <v>791</v>
       </c>
@@ -18222,7 +18312,7 @@
       <c r="H90" s="41"/>
       <c r="I90" s="41"/>
     </row>
-    <row r="91" spans="3:9" s="47" customFormat="1">
+    <row r="91" spans="3:9" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C91" s="61" t="s">
         <v>675</v>
       </c>
@@ -18236,7 +18326,7 @@
       <c r="H91" s="41"/>
       <c r="I91" s="41"/>
     </row>
-    <row r="92" spans="3:9" s="47" customFormat="1">
+    <row r="92" spans="3:9" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C92" s="61" t="s">
         <v>676</v>
       </c>
@@ -18250,7 +18340,7 @@
       <c r="H92" s="41"/>
       <c r="I92" s="41"/>
     </row>
-    <row r="93" spans="3:9" s="47" customFormat="1">
+    <row r="93" spans="3:9" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C93" s="70" t="s">
         <v>732</v>
       </c>
@@ -18262,7 +18352,7 @@
       <c r="H93" s="41"/>
       <c r="I93" s="41"/>
     </row>
-    <row r="94" spans="3:9" s="47" customFormat="1">
+    <row r="94" spans="3:9" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C94" s="61" t="s">
         <v>677</v>
       </c>
@@ -18274,7 +18364,7 @@
       <c r="H94" s="41"/>
       <c r="I94" s="41"/>
     </row>
-    <row r="95" spans="3:9" s="47" customFormat="1">
+    <row r="95" spans="3:9" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C95" s="75" t="s">
         <v>760</v>
       </c>
@@ -18288,7 +18378,7 @@
       <c r="H95" s="41"/>
       <c r="I95" s="41"/>
     </row>
-    <row r="96" spans="3:9" s="47" customFormat="1">
+    <row r="96" spans="3:9" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C96" s="75" t="s">
         <v>762</v>
       </c>
@@ -18300,7 +18390,7 @@
       <c r="H96" s="41"/>
       <c r="I96" s="41"/>
     </row>
-    <row r="97" spans="1:14" s="47" customFormat="1">
+    <row r="97" spans="1:14" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C97" s="75" t="s">
         <v>763</v>
       </c>
@@ -18312,7 +18402,7 @@
       <c r="H97" s="41"/>
       <c r="I97" s="41"/>
     </row>
-    <row r="98" spans="1:14" s="47" customFormat="1">
+    <row r="98" spans="1:14" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C98" s="75" t="s">
         <v>764</v>
       </c>
@@ -18324,7 +18414,7 @@
       <c r="H98" s="41"/>
       <c r="I98" s="41"/>
     </row>
-    <row r="99" spans="1:14" s="47" customFormat="1">
+    <row r="99" spans="1:14" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C99" s="75" t="s">
         <v>765</v>
       </c>
@@ -18338,7 +18428,7 @@
       <c r="H99" s="41"/>
       <c r="I99" s="41"/>
     </row>
-    <row r="100" spans="1:14" s="47" customFormat="1">
+    <row r="100" spans="1:14" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C100" s="75" t="s">
         <v>766</v>
       </c>
@@ -18350,7 +18440,7 @@
       <c r="H100" s="41"/>
       <c r="I100" s="41"/>
     </row>
-    <row r="101" spans="1:14" s="47" customFormat="1">
+    <row r="101" spans="1:14" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C101" s="75" t="s">
         <v>769</v>
       </c>
@@ -18362,7 +18452,7 @@
       <c r="H101" s="41"/>
       <c r="I101" s="41"/>
     </row>
-    <row r="102" spans="1:14" s="47" customFormat="1">
+    <row r="102" spans="1:14" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C102" s="75" t="s">
         <v>770</v>
       </c>
@@ -18374,14 +18464,14 @@
       <c r="H102" s="41"/>
       <c r="I102" s="41"/>
     </row>
-    <row r="103" spans="1:14" s="47" customFormat="1">
+    <row r="103" spans="1:14" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D103" s="49"/>
       <c r="E103" s="49"/>
       <c r="G103" s="41"/>
       <c r="H103" s="41"/>
       <c r="I103" s="41"/>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C104" s="41"/>
       <c r="D104" s="52"/>
       <c r="E104" s="52"/>
@@ -18390,7 +18480,7 @@
       <c r="H104" s="41"/>
       <c r="I104" s="41"/>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B105" s="1" t="s">
         <v>267</v>
       </c>
@@ -18402,7 +18492,7 @@
       <c r="H105" s="41"/>
       <c r="I105" s="41"/>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C106" s="41" t="s">
         <v>245</v>
       </c>
@@ -18426,7 +18516,7 @@
       </c>
       <c r="N106" s="47"/>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A107" s="28" t="s">
         <v>339</v>
       </c>
@@ -18453,7 +18543,7 @@
       </c>
       <c r="N107" s="47"/>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A108" s="29" t="s">
         <v>415</v>
       </c>
@@ -18476,7 +18566,7 @@
       </c>
       <c r="N108" s="29"/>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C109" s="41"/>
       <c r="D109" s="52"/>
       <c r="E109" s="41" t="s">
@@ -18495,7 +18585,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C110" s="41"/>
       <c r="D110" s="52"/>
       <c r="E110" s="41" t="s">
@@ -18514,7 +18604,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C111" s="41"/>
       <c r="D111" s="52"/>
       <c r="E111" s="41" t="s">
@@ -18533,7 +18623,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C112" s="41"/>
       <c r="D112" s="52"/>
       <c r="E112" s="53" t="s">
@@ -18551,7 +18641,7 @@
       </c>
       <c r="L112" s="38"/>
     </row>
-    <row r="113" spans="2:18">
+    <row r="113" spans="2:18" x14ac:dyDescent="0.15">
       <c r="C113" s="41"/>
       <c r="D113" s="52"/>
       <c r="E113" s="52"/>
@@ -18560,7 +18650,7 @@
       <c r="H113" s="41"/>
       <c r="I113" s="41"/>
     </row>
-    <row r="114" spans="2:18" s="38" customFormat="1">
+    <row r="114" spans="2:18" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B114" s="38" t="s">
         <v>490</v>
       </c>
@@ -18573,7 +18663,7 @@
       <c r="I114" s="41"/>
       <c r="R114" s="47"/>
     </row>
-    <row r="115" spans="2:18" s="38" customFormat="1">
+    <row r="115" spans="2:18" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C115" s="41" t="s">
         <v>497</v>
       </c>
@@ -18587,7 +18677,7 @@
       <c r="I115" s="41"/>
       <c r="R115" s="47"/>
     </row>
-    <row r="116" spans="2:18" s="38" customFormat="1">
+    <row r="116" spans="2:18" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C116" s="41" t="s">
         <v>491</v>
       </c>
@@ -18601,7 +18691,7 @@
       <c r="I116" s="41"/>
       <c r="R116" s="47"/>
     </row>
-    <row r="117" spans="2:18" s="38" customFormat="1">
+    <row r="117" spans="2:18" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C117" s="41" t="s">
         <v>492</v>
       </c>
@@ -18615,7 +18705,7 @@
       <c r="I117" s="41"/>
       <c r="R117" s="47"/>
     </row>
-    <row r="118" spans="2:18" s="38" customFormat="1">
+    <row r="118" spans="2:18" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C118" s="41" t="s">
         <v>493</v>
       </c>
@@ -18629,7 +18719,7 @@
       <c r="I118" s="41"/>
       <c r="R118" s="47"/>
     </row>
-    <row r="119" spans="2:18" s="38" customFormat="1">
+    <row r="119" spans="2:18" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C119" s="41" t="s">
         <v>494</v>
       </c>
@@ -18643,7 +18733,7 @@
       <c r="I119" s="41"/>
       <c r="R119" s="47"/>
     </row>
-    <row r="120" spans="2:18" s="38" customFormat="1">
+    <row r="120" spans="2:18" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C120" s="41" t="s">
         <v>495</v>
       </c>
@@ -18657,7 +18747,7 @@
       <c r="I120" s="41"/>
       <c r="R120" s="47"/>
     </row>
-    <row r="121" spans="2:18" s="38" customFormat="1">
+    <row r="121" spans="2:18" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C121" s="41" t="s">
         <v>496</v>
       </c>
@@ -18683,111 +18773,111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B2" s="74" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="31" spans="3:4" s="47" customFormat="1">
+    <row r="31" spans="3:4" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C31" s="74" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="32" spans="3:4" s="47" customFormat="1">
+    <row r="32" spans="3:4" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D32" s="74" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="33" spans="2:4" s="47" customFormat="1"/>
-    <row r="34" spans="2:4" s="47" customFormat="1">
+    <row r="33" spans="2:4" s="47" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="2:4" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D34" s="74" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="36" spans="2:4">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B36" s="1" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="37" spans="2:4">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C37" s="1" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="39" spans="2:4" s="47" customFormat="1"/>
-    <row r="40" spans="2:4" s="47" customFormat="1"/>
-    <row r="41" spans="2:4" s="47" customFormat="1"/>
-    <row r="42" spans="2:4" s="47" customFormat="1"/>
-    <row r="43" spans="2:4" s="47" customFormat="1"/>
-    <row r="44" spans="2:4" s="47" customFormat="1"/>
-    <row r="45" spans="2:4" s="47" customFormat="1"/>
-    <row r="56" spans="2:5" s="47" customFormat="1">
+    <row r="39" spans="2:4" s="47" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="2:4" s="47" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="2:4" s="47" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="2:4" s="47" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="2:4" s="47" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="2:4" s="47" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="2:4" s="47" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="56" spans="2:5" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C56" s="74" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="57" spans="2:5" s="47" customFormat="1">
+    <row r="57" spans="2:5" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D57" s="74" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="58" spans="2:5" s="47" customFormat="1">
+    <row r="58" spans="2:5" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D58" s="74" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="59" spans="2:5" s="47" customFormat="1">
+    <row r="59" spans="2:5" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E59" s="74" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="60" spans="2:5" s="47" customFormat="1"/>
-    <row r="61" spans="2:5" s="47" customFormat="1"/>
-    <row r="63" spans="2:5">
+    <row r="60" spans="2:5" s="47" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="61" spans="2:5" s="47" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B63" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="64" spans="2:5">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C64" s="1" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="78" spans="3:4">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C78" s="74" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="79" spans="3:4">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D79" s="74" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="81" spans="4:4">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D81" s="74" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="83" spans="4:4">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D83" s="74" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="85" spans="4:4">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D85" s="74" t="s">
         <v>750</v>
       </c>
@@ -18803,11 +18893,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D48"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A31" sqref="A31:D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" style="47" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" style="47"/>
@@ -18815,17 +18905,17 @@
     <col min="4" max="16384" width="8.875" style="47"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="47" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B3" s="47" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C4" s="47" t="s">
         <v>545</v>
       </c>
@@ -18833,7 +18923,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C5" s="47" t="s">
         <v>546</v>
       </c>
@@ -18841,7 +18931,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C6" s="47" t="s">
         <v>547</v>
       </c>
@@ -18849,7 +18939,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C7" s="47" t="s">
         <v>548</v>
       </c>
@@ -18857,7 +18947,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C8" s="47" t="s">
         <v>549</v>
       </c>
@@ -18865,7 +18955,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C9" s="47" t="s">
         <v>550</v>
       </c>
@@ -18873,7 +18963,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C10" s="47" t="s">
         <v>551</v>
       </c>
@@ -18881,7 +18971,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C11" s="47" t="s">
         <v>552</v>
       </c>
@@ -18889,7 +18979,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C12" s="47" t="s">
         <v>553</v>
       </c>
@@ -18897,22 +18987,22 @@
         <v>558</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B15" s="47" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C16" s="47" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="47" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B22" s="47" t="s">
         <v>537</v>
       </c>
@@ -18920,12 +19010,12 @@
         <v>538</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="47" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B28" s="47" t="s">
         <v>540</v>
       </c>
@@ -18933,7 +19023,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B29" s="47" t="s">
         <v>542</v>
       </c>
@@ -18941,12 +19031,12 @@
         <v>541</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="83" customFormat="1">
+    <row r="31" spans="1:4" s="83" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="84" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="85" t="s">
         <v>817</v>
       </c>
@@ -18960,7 +19050,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C33" s="47" t="s">
         <v>829</v>
       </c>
@@ -18968,7 +19058,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C34" s="47" t="s">
         <v>831</v>
       </c>
@@ -18976,7 +19066,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B36" s="85" t="s">
         <v>833</v>
       </c>
@@ -18984,15 +19074,15 @@
         <v>834</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B37" s="85"/>
       <c r="D37" s="85"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B38" s="85"/>
       <c r="D38" s="85"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="85" t="s">
         <v>818</v>
       </c>
@@ -19006,7 +19096,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C42" s="85" t="s">
         <v>823</v>
       </c>
@@ -19014,7 +19104,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="85" t="s">
         <v>819</v>
       </c>
@@ -19039,17 +19129,17 @@
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C2" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D3" s="1" t="s">
         <v>215</v>
       </c>
@@ -19057,7 +19147,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D4" s="1" t="s">
         <v>218</v>
       </c>
@@ -19065,7 +19155,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D5" s="1" t="s">
         <v>219</v>
       </c>
@@ -19073,7 +19163,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="28" t="s">
         <v>338</v>
       </c>
@@ -19084,7 +19174,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="29" t="s">
         <v>423</v>
       </c>
@@ -19095,7 +19185,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D8" s="32" t="s">
         <v>222</v>
       </c>
@@ -19117,42 +19207,42 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C7" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C9" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C14" s="1" t="s">
         <v>284</v>
       </c>
@@ -19163,7 +19253,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C15" s="1" t="s">
         <v>287</v>
       </c>
@@ -19174,7 +19264,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>453</v>
       </c>
@@ -19182,7 +19272,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C21" s="45" t="s">
         <v>443</v>
       </c>

--- a/gd/任务系统/新版任务系统设计.xlsx
+++ b/gd/任务系统/新版任务系统设计.xlsx
@@ -34,39 +34,40 @@
     <definedName name="NUM">数据记录!$J$3:$J$5</definedName>
     <definedName name="操作类">基础规则!$D$122</definedName>
     <definedName name="成功">数据记录!$H$105:$H$153</definedName>
-    <definedName name="触发对话后其余背景蒙版蒙灰">UI逻辑!$C$245</definedName>
+    <definedName name="触发对话后其余背景蒙版蒙灰">UI逻辑!$C$251</definedName>
+    <definedName name="当该分页签中有可以完成的任务时_在分页签右上角显示红点提示">UI逻辑!$E$58:$J$59</definedName>
     <definedName name="当完成任意任务后_自动接取该任务后一个任务_任务配置表中顺序">基础规则!$E$10:$J$11</definedName>
-    <definedName name="对话界面出现时_点击屏幕任意位置_除跳过按钮区域__均响应跳过当前对话界面_不响应点击位置的其他功能">UI逻辑!$D$336</definedName>
+    <definedName name="对话界面出现时_点击屏幕任意位置_除跳过按钮区域__均响应跳过当前对话界面_不响应点击位置的其他功能">UI逻辑!$D$342</definedName>
     <definedName name="对话配置格式">数据记录!$B$157:$I$173</definedName>
     <definedName name="对话相关">数据记录!$S$2:$S$6</definedName>
-    <definedName name="对话组ID">UI逻辑!$D$316:$F$333</definedName>
+    <definedName name="对话组ID">UI逻辑!$D$322:$F$339</definedName>
     <definedName name="发言人立绘表情">数据记录!$H$158:$H$163</definedName>
     <definedName name="发言人名称">数据记录!$F$158:$G$164</definedName>
-    <definedName name="分页签开启规则">UI逻辑!$D$58:$I$62</definedName>
+    <definedName name="分页签开启规则">UI逻辑!$D$61:$I$65</definedName>
     <definedName name="服务器拆分">需求拆分!$C$4:$D$12</definedName>
     <definedName name="副本类">基础规则!$D$81:$I$82</definedName>
-    <definedName name="格式为__图标_数量_形式_其中数量显示在图标下侧_前两项分别显示金币、钻石_后续图标按照道具列表排序即可">UI逻辑!$E$120:$O$120</definedName>
+    <definedName name="格式为__图标_数量_形式_其中数量显示在图标下侧_前两项分别显示金币、钻石_后续图标按照道具列表排序即可">UI逻辑!$E$123:$O$123</definedName>
     <definedName name="合成打孔">基础规则!$D$183:$I$187</definedName>
     <definedName name="奖励">数据记录!$P$3:$R$5</definedName>
-    <definedName name="奖励内容中的图标无tips显示">UI逻辑!$E$225</definedName>
+    <definedName name="奖励内容中的图标无tips显示">UI逻辑!$E$228</definedName>
     <definedName name="奖励配置">数据记录!$O$2:$Q$8</definedName>
     <definedName name="界面特殊规则">基础规则!$B$195:$I$199</definedName>
     <definedName name="金币">基础规则!$G$39:$O$53</definedName>
     <definedName name="进行通天塔操作">基础规则!$E$100:$I$101</definedName>
     <definedName name="经验值最终结果X_reward表读取值_K_B">基础规则!$H$48:$K$48</definedName>
-    <definedName name="剧情对话以通关成功为判定标准_通关后不再播放_未通关再次进入该副本还会播放剧情对话">UI逻辑!$D$340</definedName>
+    <definedName name="剧情对话以通关成功为判定标准_通关后不再播放_未通关再次进入该副本还会播放剧情对话">UI逻辑!$D$346</definedName>
     <definedName name="可循环类的任务次数重置点为自然周期结束的0点_即日循环任务为每天0点刷新次数_暂定0点_如游戏整体规划刷新时间为其他时间则统一变更">基础规则!$F$59</definedName>
     <definedName name="类型划分">基础规则!$D$125:$J$181</definedName>
-    <definedName name="立绘需求">UI逻辑!$E$281:$N$288</definedName>
+    <definedName name="立绘需求">UI逻辑!$E$287:$N$294</definedName>
     <definedName name="立即前往按钮相应规则">基础规则!#REF!</definedName>
-    <definedName name="名称">UI逻辑!$E$324:$L$326</definedName>
+    <definedName name="名称">UI逻辑!$E$330:$L$332</definedName>
     <definedName name="内容固定_每个任务每天可以完成一次">任务类型!$D$24</definedName>
     <definedName name="配置形式遵循道具配置规则_详细见【道具文档】">基础规则!$I$52</definedName>
     <definedName name="配置形式遵循道具配置规则_详细见道具文档">基础规则!$I$52</definedName>
-    <definedName name="其中对局结束的剧情对话如果副本未通关则不播放_成功通关才播放结束的剧情对话">UI逻辑!$E$341</definedName>
+    <definedName name="其中对局结束的剧情对话如果副本未通关则不播放_成功通关才播放结束的剧情对话">UI逻辑!$E$347</definedName>
     <definedName name="去掉时效性">基础规则!$E$62</definedName>
-    <definedName name="任务出现为即时刷新_如果有前后连续关系的情况_则上一个消失后_下一个跟随刷出">UI逻辑!$F$183:$M$183</definedName>
-    <definedName name="任务对话相关">UI逻辑!$B$241:$M$341</definedName>
+    <definedName name="任务出现为即时刷新_如果有前后连续关系的情况_则上一个消失后_下一个跟随刷出">UI逻辑!$F$186:$M$186</definedName>
+    <definedName name="任务对话相关">UI逻辑!$B$247:$M$347</definedName>
     <definedName name="任务奖励">基础规则!$E$36:$I$51</definedName>
     <definedName name="任务奖励配置">数据记录!$O$2:$P$8</definedName>
     <definedName name="任务界面样式如下">UI逻辑!$C$2</definedName>
@@ -74,13 +75,14 @@
     <definedName name="任务配置格式">数据记录!$B$2:$S$21</definedName>
     <definedName name="任务配置格式更新">数据记录!$B$3:$R$95</definedName>
     <definedName name="任务配置数值">数据记录!$C$3:$K$7</definedName>
-    <definedName name="任务项奖励的图标无tips显示">UI逻辑!$E$126</definedName>
-    <definedName name="任务项进度">UI逻辑!$D$144:$L$153</definedName>
-    <definedName name="任务项内容格式">UI逻辑!$E$89:$L$110</definedName>
-    <definedName name="任务项内容刷新规则">UI逻辑!$E$180:$K$182</definedName>
-    <definedName name="任务消失后该行任务消失_该行任务下方的任务整体向上一动一个位置_后续关联任务出现后_仍然插入到前置任务消失的位置">UI逻辑!$G$183:$R$183</definedName>
+    <definedName name="任务图标提示规则">UI逻辑!$B$244:$H$245</definedName>
+    <definedName name="任务项奖励的图标无tips显示">UI逻辑!$E$129</definedName>
+    <definedName name="任务项进度">UI逻辑!$D$147:$L$156</definedName>
+    <definedName name="任务项内容格式">UI逻辑!$E$92:$L$113</definedName>
+    <definedName name="任务项内容刷新规则">UI逻辑!$E$183:$K$185</definedName>
+    <definedName name="任务消失后该行任务消失_该行任务下方的任务整体向上一动一个位置_后续关联任务出现后_仍然插入到前置任务消失的位置">UI逻辑!$G$186:$R$186</definedName>
     <definedName name="任务中涉及到数量相关的目标时_完成任务条件以真实获得数量为准">基础规则!$C$189:$I$191</definedName>
-    <definedName name="任务状态标识">UI逻辑!$D$155:$H$162</definedName>
+    <definedName name="任务状态标识">UI逻辑!$D$158:$H$165</definedName>
     <definedName name="三星">数据记录!$L$5:$O$6</definedName>
     <definedName name="三星完成章节">基础规则!$E$164:$I$166</definedName>
     <definedName name="时间">数据记录!$J$3:$K$5</definedName>
@@ -90,16 +92,16 @@
     <definedName name="数据记录">数据记录!$C$119:$G$150</definedName>
     <definedName name="数据记录啊">数据记录!$B$104:$H$153</definedName>
     <definedName name="体力">数据记录!$D$50:$T$51</definedName>
-    <definedName name="跳过按钮">UI逻辑!$D$306:$K$313</definedName>
+    <definedName name="跳过按钮">UI逻辑!$D$312:$K$319</definedName>
     <definedName name="通关限制">基础规则!#REF!</definedName>
     <definedName name="统一副本">基础规则!$D$81:$I$82</definedName>
     <definedName name="完成一定次数的时光之穴_金币">数据记录!$C$119:$G$150</definedName>
-    <definedName name="玩家在获得任务时_可能触发任务对话">UI逻辑!$C$242:$M$243</definedName>
-    <definedName name="显示格式为">UI逻辑!$E$217:$F$219</definedName>
+    <definedName name="玩家在获得任务时_可能触发任务对话">UI逻辑!$C$248:$M$249</definedName>
+    <definedName name="显示格式为">UI逻辑!$E$220:$F$222</definedName>
     <definedName name="限制条件">基础规则!$D$65:$I$70</definedName>
     <definedName name="循环性">数据记录!$I$5:$N$52</definedName>
-    <definedName name="已完成的任务_显示在对应分页的上方_多个已完成任务按照任务编号由小至大顺序从上至下显示">UI逻辑!$E$174:$M$174</definedName>
-    <definedName name="最多显示为4行_根据显示行数上下居中显示">UI逻辑!$E$124:$J$124</definedName>
+    <definedName name="已完成的任务_显示在对应分页的上方_多个已完成任务按照任务编号由小至大顺序从上至下显示">UI逻辑!$E$177:$M$177</definedName>
+    <definedName name="最多显示为4行_根据显示行数上下居中显示">UI逻辑!$E$127:$J$127</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -175,7 +177,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="1104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1762" uniqueCount="1110">
   <si>
     <t>文档名称</t>
   </si>
@@ -4521,12 +4523,36 @@
     <t>通关副本参数统一</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>任务图标提示规则</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>当有已完成的任务时，主界面中任务图标右上角显示红点提示</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>将主界面中关于任务图标的提示移到任务文档中</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>当该分页签中有可以完成的任务时，在分页签右上角显示红点提示</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>当可完成任务消失时，红点对应消失</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页签显示红点需求</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="40">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4814,6 +4840,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -4877,7 +4910,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5160,6 +5193,10 @@
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5209,13 +5246,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>426595</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>28374</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>134531</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5285,13 +5322,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>187</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>208869</xdr:colOff>
-      <xdr:row>203</xdr:row>
+      <xdr:row>206</xdr:row>
       <xdr:rowOff>113867</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6039,13 +6076,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6099,13 +6136,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>23813</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>138651</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6152,7 +6189,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031051" cy="334451"/>
@@ -6217,13 +6254,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>200026</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6277,13 +6314,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>186276</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>200026</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6330,7 +6367,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="334451"/>
@@ -6399,13 +6436,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>552449</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6459,13 +6496,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>271462</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>100551</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6512,7 +6549,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="334451"/>
@@ -6577,13 +6614,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>187</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6637,13 +6674,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>185</xdr:row>
+      <xdr:row>188</xdr:row>
       <xdr:rowOff>62451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>188</xdr:row>
+      <xdr:row>191</xdr:row>
       <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6690,7 +6727,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>184</xdr:row>
+      <xdr:row>187</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="748923" cy="334451"/>
@@ -6755,13 +6792,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>194</xdr:row>
+      <xdr:row>197</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6815,13 +6852,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:row>195</xdr:row>
       <xdr:rowOff>157701</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>193</xdr:row>
+      <xdr:row>196</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6868,7 +6905,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1595309" cy="334451"/>
@@ -6933,13 +6970,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>200</xdr:row>
+      <xdr:row>203</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>205</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6993,13 +7030,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>201</xdr:row>
+      <xdr:row>204</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>205</xdr:row>
       <xdr:rowOff>14826</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7046,7 +7083,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>201</xdr:row>
+      <xdr:row>204</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="748923" cy="334451"/>
@@ -7111,13 +7148,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>14689</xdr:colOff>
-      <xdr:row>248</xdr:row>
+      <xdr:row>254</xdr:row>
       <xdr:rowOff>56229</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>94105</xdr:colOff>
-      <xdr:row>258</xdr:row>
+      <xdr:row>264</xdr:row>
       <xdr:rowOff>123235</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7149,13 +7186,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>260</xdr:row>
+      <xdr:row>266</xdr:row>
       <xdr:rowOff>32013</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>84581</xdr:colOff>
-      <xdr:row>270</xdr:row>
+      <xdr:row>276</xdr:row>
       <xdr:rowOff>94660</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7319,13 +7356,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>234</xdr:row>
+      <xdr:row>237</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>594361</xdr:colOff>
-      <xdr:row>234</xdr:row>
+      <xdr:row>237</xdr:row>
       <xdr:rowOff>188976</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7363,13 +7400,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>235</xdr:row>
+      <xdr:row>238</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>594361</xdr:colOff>
-      <xdr:row>235</xdr:row>
+      <xdr:row>238</xdr:row>
       <xdr:rowOff>188976</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7407,13 +7444,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>301</xdr:row>
+      <xdr:row>307</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>259050</xdr:colOff>
-      <xdr:row>301</xdr:row>
+      <xdr:row>307</xdr:row>
       <xdr:rowOff>199050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7451,13 +7488,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>248</xdr:row>
+      <xdr:row>254</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>249</xdr:row>
+      <xdr:row>255</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7521,13 +7558,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>260</xdr:row>
+      <xdr:row>266</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>261</xdr:row>
+      <xdr:row>267</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7591,13 +7628,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>308</xdr:row>
+      <xdr:row>314</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>308</xdr:row>
+      <xdr:row>314</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7678,13 +7715,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>307</xdr:row>
+      <xdr:row>313</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>308</xdr:row>
+      <xdr:row>314</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7755,13 +7792,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>466726</xdr:colOff>
-      <xdr:row>195</xdr:row>
+      <xdr:row>198</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>257176</xdr:colOff>
-      <xdr:row>199</xdr:row>
+      <xdr:row>202</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7815,13 +7852,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>257176</xdr:colOff>
-      <xdr:row>197</xdr:row>
+      <xdr:row>200</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>198</xdr:row>
+      <xdr:row>201</xdr:row>
       <xdr:rowOff>5301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7868,7 +7905,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>197</xdr:row>
+      <xdr:row>200</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="748923" cy="334451"/>
@@ -7933,13 +7970,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561917</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>123765</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7971,13 +8008,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8031,13 +8068,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3156937</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>138651</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8084,7 +8121,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2266950</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="334451"/>
@@ -8153,13 +8190,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8213,13 +8250,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>576263</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>119601</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8266,7 +8303,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="748923" cy="334451"/>
@@ -8331,13 +8368,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>175953</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9309,10 +9346,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N108"/>
+  <dimension ref="A1:N125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N82" sqref="N82"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -10700,7 +10737,7 @@
       <c r="K80" s="8"/>
       <c r="L80" s="21"/>
     </row>
-    <row r="81" spans="1:14" s="46" customFormat="1">
+    <row r="81" spans="1:12" s="46" customFormat="1">
       <c r="A81" s="3"/>
       <c r="B81" s="47"/>
       <c r="C81" s="7"/>
@@ -10716,7 +10753,7 @@
       <c r="K81" s="8"/>
       <c r="L81" s="21"/>
     </row>
-    <row r="82" spans="1:14" s="46" customFormat="1">
+    <row r="82" spans="1:12" s="46" customFormat="1">
       <c r="A82" s="3"/>
       <c r="B82" s="47"/>
       <c r="C82" s="7"/>
@@ -10732,7 +10769,7 @@
       <c r="K82" s="8"/>
       <c r="L82" s="21"/>
     </row>
-    <row r="83" spans="1:14" s="46" customFormat="1">
+    <row r="83" spans="1:12" s="46" customFormat="1">
       <c r="A83" s="3"/>
       <c r="B83" s="47"/>
       <c r="C83" s="7"/>
@@ -10748,7 +10785,7 @@
       <c r="K83" s="8"/>
       <c r="L83" s="21"/>
     </row>
-    <row r="84" spans="1:14" s="46" customFormat="1">
+    <row r="84" spans="1:12" s="46" customFormat="1">
       <c r="A84" s="3"/>
       <c r="B84" s="47"/>
       <c r="C84" s="7"/>
@@ -10764,7 +10801,7 @@
       <c r="K84" s="8"/>
       <c r="L84" s="21"/>
     </row>
-    <row r="85" spans="1:14" s="46" customFormat="1">
+    <row r="85" spans="1:12" s="46" customFormat="1">
       <c r="A85" s="3"/>
       <c r="B85" s="47"/>
       <c r="C85" s="7"/>
@@ -10780,7 +10817,7 @@
       <c r="K85" s="8"/>
       <c r="L85" s="21"/>
     </row>
-    <row r="86" spans="1:14" s="46" customFormat="1">
+    <row r="86" spans="1:12" s="46" customFormat="1">
       <c r="A86" s="3"/>
       <c r="B86" s="47"/>
       <c r="C86" s="7"/>
@@ -10788,13 +10825,15 @@
       <c r="E86" s="9"/>
       <c r="F86" s="5"/>
       <c r="G86" s="47"/>
-      <c r="H86" s="47"/>
+      <c r="H86" s="49" t="s">
+        <v>1106</v>
+      </c>
       <c r="I86" s="47"/>
       <c r="J86" s="47"/>
       <c r="K86" s="8"/>
       <c r="L86" s="21"/>
     </row>
-    <row r="87" spans="1:14" s="46" customFormat="1">
+    <row r="87" spans="1:12" s="46" customFormat="1">
       <c r="A87" s="3"/>
       <c r="B87" s="47"/>
       <c r="C87" s="7"/>
@@ -10802,201 +10841,441 @@
       <c r="E87" s="9"/>
       <c r="F87" s="5"/>
       <c r="G87" s="47"/>
-      <c r="H87" s="47"/>
+      <c r="H87" s="49" t="s">
+        <v>1109</v>
+      </c>
       <c r="I87" s="47"/>
       <c r="J87" s="47"/>
       <c r="K87" s="8"/>
       <c r="L87" s="21"/>
     </row>
-    <row r="88" spans="1:14">
-      <c r="A88" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>21</v>
-      </c>
+    <row r="88" spans="1:12" s="46" customFormat="1">
+      <c r="A88" s="3"/>
+      <c r="B88" s="47"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="9"/>
       <c r="F88" s="5"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I88" s="4"/>
-      <c r="J88" s="4"/>
+      <c r="G88" s="47"/>
+      <c r="H88" s="47"/>
+      <c r="I88" s="47"/>
+      <c r="J88" s="47"/>
       <c r="K88" s="8"/>
-      <c r="L88" s="2"/>
-    </row>
-    <row r="89" spans="1:14" s="46" customFormat="1">
+      <c r="L88" s="21"/>
+    </row>
+    <row r="89" spans="1:12" s="46" customFormat="1">
       <c r="A89" s="3"/>
-      <c r="B89" s="47" t="s">
-        <v>718</v>
-      </c>
-      <c r="C89" s="7">
-        <v>42364</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>719</v>
-      </c>
-      <c r="E89" s="5"/>
+      <c r="B89" s="47"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="9"/>
       <c r="F89" s="5"/>
       <c r="G89" s="47"/>
-      <c r="H89" s="47" t="s">
-        <v>720</v>
-      </c>
+      <c r="H89" s="47"/>
       <c r="I89" s="47"/>
       <c r="J89" s="47"/>
       <c r="K89" s="8"/>
       <c r="L89" s="21"/>
     </row>
-    <row r="90" spans="1:14" s="46" customFormat="1">
+    <row r="90" spans="1:12" s="46" customFormat="1">
       <c r="A90" s="3"/>
       <c r="B90" s="47"/>
-      <c r="C90" s="5"/>
+      <c r="C90" s="7"/>
       <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
+      <c r="E90" s="9"/>
       <c r="F90" s="5"/>
       <c r="G90" s="47"/>
-      <c r="H90" s="49" t="s">
-        <v>721</v>
-      </c>
+      <c r="H90" s="47"/>
       <c r="I90" s="47"/>
       <c r="J90" s="47"/>
       <c r="K90" s="8"/>
       <c r="L90" s="21"/>
     </row>
-    <row r="91" spans="1:14" hidden="1">
-      <c r="B91" s="1" t="s">
+    <row r="91" spans="1:12" s="46" customFormat="1">
+      <c r="A91" s="3"/>
+      <c r="B91" s="47"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="47"/>
+      <c r="H91" s="47"/>
+      <c r="I91" s="47"/>
+      <c r="J91" s="47"/>
+      <c r="K91" s="8"/>
+      <c r="L91" s="21"/>
+    </row>
+    <row r="92" spans="1:12" s="46" customFormat="1">
+      <c r="A92" s="3"/>
+      <c r="B92" s="47"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="47"/>
+      <c r="H92" s="47"/>
+      <c r="I92" s="47"/>
+      <c r="J92" s="47"/>
+      <c r="K92" s="8"/>
+      <c r="L92" s="21"/>
+    </row>
+    <row r="93" spans="1:12" s="46" customFormat="1">
+      <c r="A93" s="3"/>
+      <c r="B93" s="47"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="47"/>
+      <c r="H93" s="47"/>
+      <c r="I93" s="47"/>
+      <c r="J93" s="47"/>
+      <c r="K93" s="8"/>
+      <c r="L93" s="21"/>
+    </row>
+    <row r="94" spans="1:12" s="46" customFormat="1">
+      <c r="A94" s="3"/>
+      <c r="B94" s="47"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="47"/>
+      <c r="H94" s="47"/>
+      <c r="I94" s="47"/>
+      <c r="J94" s="47"/>
+      <c r="K94" s="8"/>
+      <c r="L94" s="21"/>
+    </row>
+    <row r="95" spans="1:12" s="46" customFormat="1">
+      <c r="A95" s="3"/>
+      <c r="B95" s="47"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="47"/>
+      <c r="H95" s="47"/>
+      <c r="I95" s="47"/>
+      <c r="J95" s="47"/>
+      <c r="K95" s="8"/>
+      <c r="L95" s="21"/>
+    </row>
+    <row r="96" spans="1:12" s="46" customFormat="1">
+      <c r="A96" s="3"/>
+      <c r="B96" s="47"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="47"/>
+      <c r="H96" s="47"/>
+      <c r="I96" s="47"/>
+      <c r="J96" s="47"/>
+      <c r="K96" s="8"/>
+      <c r="L96" s="21"/>
+    </row>
+    <row r="97" spans="1:14" s="46" customFormat="1">
+      <c r="A97" s="3"/>
+      <c r="B97" s="47"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="47"/>
+      <c r="H97" s="47"/>
+      <c r="I97" s="47"/>
+      <c r="J97" s="47"/>
+      <c r="K97" s="8"/>
+      <c r="L97" s="21"/>
+    </row>
+    <row r="98" spans="1:14" s="46" customFormat="1">
+      <c r="A98" s="3"/>
+      <c r="B98" s="47"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="47"/>
+      <c r="H98" s="47"/>
+      <c r="I98" s="47"/>
+      <c r="J98" s="47"/>
+      <c r="K98" s="8"/>
+      <c r="L98" s="21"/>
+    </row>
+    <row r="99" spans="1:14" s="46" customFormat="1">
+      <c r="A99" s="3"/>
+      <c r="B99" s="47"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="47"/>
+      <c r="H99" s="47"/>
+      <c r="I99" s="47"/>
+      <c r="J99" s="47"/>
+      <c r="K99" s="8"/>
+      <c r="L99" s="21"/>
+    </row>
+    <row r="100" spans="1:14" s="46" customFormat="1">
+      <c r="A100" s="3"/>
+      <c r="B100" s="47"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="47"/>
+      <c r="H100" s="47"/>
+      <c r="I100" s="47"/>
+      <c r="J100" s="47"/>
+      <c r="K100" s="8"/>
+      <c r="L100" s="21"/>
+    </row>
+    <row r="101" spans="1:14" s="46" customFormat="1">
+      <c r="A101" s="3"/>
+      <c r="B101" s="47"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="47"/>
+      <c r="H101" s="47"/>
+      <c r="I101" s="47"/>
+      <c r="J101" s="47"/>
+      <c r="K101" s="8"/>
+      <c r="L101" s="21"/>
+    </row>
+    <row r="102" spans="1:14" s="46" customFormat="1">
+      <c r="A102" s="3"/>
+      <c r="B102" s="47"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="47"/>
+      <c r="H102" s="47"/>
+      <c r="I102" s="47"/>
+      <c r="J102" s="47"/>
+      <c r="K102" s="8"/>
+      <c r="L102" s="21"/>
+    </row>
+    <row r="103" spans="1:14" s="46" customFormat="1">
+      <c r="A103" s="3"/>
+      <c r="B103" s="47"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="47"/>
+      <c r="H103" s="47"/>
+      <c r="I103" s="47"/>
+      <c r="J103" s="47"/>
+      <c r="K103" s="8"/>
+      <c r="L103" s="21"/>
+    </row>
+    <row r="104" spans="1:14" s="46" customFormat="1">
+      <c r="A104" s="3"/>
+      <c r="B104" s="47"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="47"/>
+      <c r="H104" s="47"/>
+      <c r="I104" s="47"/>
+      <c r="J104" s="47"/>
+      <c r="K104" s="8"/>
+      <c r="L104" s="21"/>
+    </row>
+    <row r="105" spans="1:14">
+      <c r="A105" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F105" s="5"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="8"/>
+      <c r="L105" s="2"/>
+    </row>
+    <row r="106" spans="1:14" s="46" customFormat="1">
+      <c r="A106" s="3"/>
+      <c r="B106" s="47" t="s">
+        <v>718</v>
+      </c>
+      <c r="C106" s="7">
+        <v>42364</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="47"/>
+      <c r="H106" s="47" t="s">
+        <v>720</v>
+      </c>
+      <c r="I106" s="47"/>
+      <c r="J106" s="47"/>
+      <c r="K106" s="8"/>
+      <c r="L106" s="21"/>
+    </row>
+    <row r="107" spans="1:14" s="46" customFormat="1">
+      <c r="A107" s="3"/>
+      <c r="B107" s="47"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="47"/>
+      <c r="H107" s="49" t="s">
+        <v>721</v>
+      </c>
+      <c r="I107" s="47"/>
+      <c r="J107" s="47"/>
+      <c r="K107" s="8"/>
+      <c r="L107" s="21"/>
+    </row>
+    <row r="108" spans="1:14" hidden="1">
+      <c r="B108" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C91" s="45">
+      <c r="C108" s="45">
         <v>42161</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D108" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E108" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="H91" s="26" t="s">
+      <c r="H108" s="26" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="92" spans="1:14" hidden="1">
-      <c r="H92" s="26" t="s">
+    <row r="109" spans="1:14" hidden="1">
+      <c r="H109" s="26" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="93" spans="1:14" hidden="1">
-      <c r="H93" s="26" t="s">
+    <row r="110" spans="1:14" hidden="1">
+      <c r="H110" s="26" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="94" spans="1:14" hidden="1">
-      <c r="H94" s="26" t="s">
+    <row r="111" spans="1:14" hidden="1">
+      <c r="H111" s="26" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="95" spans="1:14" hidden="1">
-      <c r="H95" s="26" t="s">
+    <row r="112" spans="1:14" hidden="1">
+      <c r="H112" s="26" t="s">
         <v>444</v>
       </c>
-      <c r="L95" s="1" t="s">
+      <c r="L112" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="N95" s="1" t="s">
+      <c r="N112" s="1" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="96" spans="1:14" hidden="1">
-      <c r="H96" s="26" t="s">
+    <row r="113" spans="1:14" hidden="1">
+      <c r="H113" s="26" t="s">
         <v>445</v>
       </c>
-      <c r="N96" s="1" t="s">
+      <c r="N113" s="1" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="97" spans="1:14" hidden="1">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="49" t="s">
+    <row r="114" spans="1:14" hidden="1">
+      <c r="A114" s="2"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="49" t="s">
         <v>446</v>
       </c>
-      <c r="I97" s="2"/>
-      <c r="J97" s="2"/>
-      <c r="K97" s="2"/>
-      <c r="L97" s="10"/>
-      <c r="N97" s="1" t="s">
+      <c r="I114" s="2"/>
+      <c r="J114" s="2"/>
+      <c r="K114" s="2"/>
+      <c r="L114" s="10"/>
+      <c r="N114" s="1" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="98" spans="1:14" hidden="1">
-      <c r="H98" s="26" t="s">
+    <row r="115" spans="1:14" hidden="1">
+      <c r="H115" s="26" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="99" spans="1:14" hidden="1">
-      <c r="H99" s="26" t="s">
+    <row r="116" spans="1:14" hidden="1">
+      <c r="H116" s="26" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="100" spans="1:14" hidden="1">
-      <c r="H100" s="75" t="s">
+    <row r="117" spans="1:14" hidden="1">
+      <c r="H117" s="75" t="s">
         <v>449</v>
       </c>
-      <c r="L100" s="1" t="s">
+      <c r="L117" s="1" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="101" spans="1:14" hidden="1">
-      <c r="H101" s="26" t="s">
+    <row r="118" spans="1:14" hidden="1">
+      <c r="H118" s="26" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
-      <c r="H102" s="26" t="s">
+    <row r="119" spans="1:14">
+      <c r="H119" s="26" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
-      <c r="H103" s="26" t="s">
+    <row r="120" spans="1:14">
+      <c r="H120" s="26" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
-      <c r="H104" s="26" t="s">
+    <row r="121" spans="1:14">
+      <c r="H121" s="26" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
-      <c r="H105" s="26" t="s">
+    <row r="122" spans="1:14">
+      <c r="H122" s="26" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
-      <c r="H106" s="26" t="s">
+    <row r="123" spans="1:14">
+      <c r="H123" s="26" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
-      <c r="H107" s="26" t="s">
+    <row r="124" spans="1:14">
+      <c r="H124" s="26" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
-      <c r="H108" s="26" t="s">
+    <row r="125" spans="1:14">
+      <c r="H125" s="26" t="s">
         <v>754</v>
       </c>
     </row>
@@ -11029,16 +11308,16 @@
     <hyperlink ref="H38" location="是否可跳过" display="增加对话跳过的配置需求"/>
     <hyperlink ref="H39" location="分页签开启规则" display="补充分页签开启规则"/>
     <hyperlink ref="H40" location="_5.任务对话界面需求" display="补充跳过按钮美术需求"/>
-    <hyperlink ref="H91" location="当完成任意任务后_自动接取该任务后一个任务_任务配置表中顺序" display="任务组方式保留，刨除序号"/>
-    <hyperlink ref="H92" location="通关限制" display="接取条件是否需要通关副本"/>
-    <hyperlink ref="H93" location="对话配置格式" display="对话内容改为配置id"/>
-    <hyperlink ref="H94" location="NPC配置格式" display="对话相关NPC数据拆分"/>
-    <hyperlink ref="H96" location="奖励" display="任务奖励遵循通用配置方式"/>
-    <hyperlink ref="H97" location="时间" display="任务时效性配置拆开起止点"/>
-    <hyperlink ref="H98" location="对话界面出现时_点击屏幕任意位置_除跳过按钮区域__均响应跳过当前对话界面_不响应点击位置的其他功能" display="补充对话中下一步操作的响应范围"/>
-    <hyperlink ref="H99" location="任务项内容刷新规则" display="任务界面实时刷新"/>
-    <hyperlink ref="H101" location="已完成的任务_显示在对应分页的上方_多个已完成任务按照任务编号由小至大顺序从上至下显示" display="补充可完成的任务显示在上方的规则"/>
-    <hyperlink ref="H95" location="体力" display="时效性任务实现方法等待程序确认"/>
+    <hyperlink ref="H108" location="当完成任意任务后_自动接取该任务后一个任务_任务配置表中顺序" display="任务组方式保留，刨除序号"/>
+    <hyperlink ref="H109" location="通关限制" display="接取条件是否需要通关副本"/>
+    <hyperlink ref="H110" location="对话配置格式" display="对话内容改为配置id"/>
+    <hyperlink ref="H111" location="NPC配置格式" display="对话相关NPC数据拆分"/>
+    <hyperlink ref="H113" location="奖励" display="任务奖励遵循通用配置方式"/>
+    <hyperlink ref="H114" location="时间" display="任务时效性配置拆开起止点"/>
+    <hyperlink ref="H115" location="对话界面出现时_点击屏幕任意位置_除跳过按钮区域__均响应跳过当前对话界面_不响应点击位置的其他功能" display="补充对话中下一步操作的响应范围"/>
+    <hyperlink ref="H116" location="任务项内容刷新规则" display="任务界面实时刷新"/>
+    <hyperlink ref="H118" location="已完成的任务_显示在对应分页的上方_多个已完成任务按照任务编号由小至大顺序从上至下显示" display="补充可完成的任务显示在上方的规则"/>
+    <hyperlink ref="H112" location="体力" display="时效性任务实现方法等待程序确认"/>
     <hyperlink ref="H41" location="任务出现为即时刷新_如果有前后连续关系的情况_则上一个消失后_下一个跟随刷出" display="补充任务刷出为即时刷新"/>
     <hyperlink ref="H42" location="名称" display="完善对话配置格式"/>
     <hyperlink ref="H43" location="时效性配置需要有始有终_即需要配置起始点与终止点" display="完善时效性任务配置规则"/>
@@ -11058,14 +11337,14 @@
     <hyperlink ref="H66" location="玩家在获得任务时_可能触发任务对话" display="补充接取任务可能触发任务对话的需求"/>
     <hyperlink ref="H67" location="任务状态标识" display="任务状态部分逻辑变更"/>
     <hyperlink ref="H69" location="美术需求!A1" display="补充美术需求以及动画需求"/>
-    <hyperlink ref="H102" location="任务出现为即时刷新_如果有前后连续关系的情况_则上一个消失后_下一个跟随刷出" display="任务结束后对话出现逻辑"/>
-    <hyperlink ref="H103" location="格式为__图标_数量_形式_其中数量显示在图标下侧_前两项分别显示金币、钻石_后续图标按照道具列表排序即可" display="任务奖励位置排序规则"/>
-    <hyperlink ref="H104" location="限制条件" display="接任务条件去掉副本和玩法"/>
-    <hyperlink ref="H105" location="去掉时效性" display="去掉时效性需求"/>
-    <hyperlink ref="H90" location="界面特殊规则" display="任务跳转与道具指引一致"/>
-    <hyperlink ref="H106" location="类型划分" display="任务类型目标划分"/>
-    <hyperlink ref="H107" location="数据记录" display="数据记录中补充需要记录的内容"/>
-    <hyperlink ref="H108" location="任务目标" display="配表类型完善"/>
+    <hyperlink ref="H119" location="任务出现为即时刷新_如果有前后连续关系的情况_则上一个消失后_下一个跟随刷出" display="任务结束后对话出现逻辑"/>
+    <hyperlink ref="H120" location="格式为__图标_数量_形式_其中数量显示在图标下侧_前两项分别显示金币、钻石_后续图标按照道具列表排序即可" display="任务奖励位置排序规则"/>
+    <hyperlink ref="H121" location="限制条件" display="接任务条件去掉副本和玩法"/>
+    <hyperlink ref="H122" location="去掉时效性" display="去掉时效性需求"/>
+    <hyperlink ref="H107" location="界面特殊规则" display="任务跳转与道具指引一致"/>
+    <hyperlink ref="H123" location="类型划分" display="任务类型目标划分"/>
+    <hyperlink ref="H124" location="数据记录" display="数据记录中补充需要记录的内容"/>
+    <hyperlink ref="H125" location="任务目标" display="配表类型完善"/>
     <hyperlink ref="H71" location="_2015_12_26修改需求" display="补充任务拆分"/>
     <hyperlink ref="H72" location="循环性" display="任务目标参数确定"/>
     <hyperlink ref="H73" location="合成打孔" display="补充两个任务目标需求"/>
@@ -11080,6 +11359,8 @@
     <hyperlink ref="H83" location="任务中涉及到数量相关的目标时_完成任务条件以真实获得数量为准" display="数量超上限记录规则补充"/>
     <hyperlink ref="H84" location="_2016_1_13验收" display="添加任务验收"/>
     <hyperlink ref="H85" location="统一副本" display="通关副本参数统一"/>
+    <hyperlink ref="H86" location="任务图标提示规则" display="将主界面中关于任务图标的提示移到任务文档中"/>
+    <hyperlink ref="H87" location="当该分页签中有可以完成的任务时_在分页签右上角显示红点提示" display="分页签显示红点需求"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11300,10 +11581,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R355"/>
+  <dimension ref="A1:R361"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="K210" sqref="K210"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58:J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -11671,79 +11952,68 @@
       <c r="J57" s="25"/>
       <c r="K57" s="25"/>
     </row>
-    <row r="58" spans="1:11" s="37" customFormat="1">
-      <c r="A58" s="46"/>
+    <row r="58" spans="1:11" s="46" customFormat="1">
       <c r="B58" s="36"/>
       <c r="C58" s="39"/>
-      <c r="D58" s="40" t="s">
-        <v>417</v>
-      </c>
-      <c r="E58" s="40"/>
-      <c r="F58" s="40"/>
-      <c r="G58" s="40"/>
-      <c r="H58" s="40"/>
-      <c r="I58" s="40"/>
-      <c r="J58" s="39"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="88" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F58" s="88"/>
+      <c r="G58" s="88"/>
+      <c r="H58" s="88"/>
+      <c r="I58" s="88"/>
+      <c r="J58" s="88"/>
       <c r="K58" s="39"/>
     </row>
-    <row r="59" spans="1:11" s="37" customFormat="1">
-      <c r="A59" s="46"/>
+    <row r="59" spans="1:11" s="46" customFormat="1">
       <c r="B59" s="36"/>
       <c r="C59" s="39"/>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40" t="s">
-        <v>418</v>
-      </c>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="39"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="88" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F59" s="88"/>
+      <c r="G59" s="88"/>
+      <c r="H59" s="88"/>
+      <c r="I59" s="88"/>
+      <c r="J59" s="88"/>
       <c r="K59" s="39"/>
     </row>
-    <row r="60" spans="1:11" s="37" customFormat="1">
-      <c r="A60" s="46"/>
+    <row r="60" spans="1:11" s="46" customFormat="1">
       <c r="B60" s="36"/>
       <c r="C60" s="39"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="40" t="s">
-        <v>419</v>
-      </c>
-      <c r="F60" s="40">
-        <v>1</v>
-      </c>
-      <c r="G60" s="40"/>
-      <c r="H60" s="40"/>
-      <c r="I60" s="40"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="39"/>
+      <c r="I60" s="39"/>
       <c r="J60" s="39"/>
       <c r="K60" s="39"/>
     </row>
-    <row r="61" spans="1:11" s="37" customFormat="1">
+    <row r="61" spans="1:11" s="37" customFormat="1" hidden="1">
       <c r="A61" s="46"/>
       <c r="B61" s="36"/>
       <c r="C61" s="39"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="40" t="s">
-        <v>420</v>
-      </c>
-      <c r="F61" s="40">
-        <v>10</v>
-      </c>
-      <c r="G61" s="40" t="s">
-        <v>421</v>
-      </c>
+      <c r="D61" s="40" t="s">
+        <v>417</v>
+      </c>
+      <c r="E61" s="40"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="40"/>
       <c r="H61" s="40"/>
       <c r="I61" s="40"/>
       <c r="J61" s="39"/>
       <c r="K61" s="39"/>
     </row>
-    <row r="62" spans="1:11" s="37" customFormat="1">
+    <row r="62" spans="1:11" s="37" customFormat="1" hidden="1">
       <c r="A62" s="46"/>
       <c r="B62" s="36"/>
       <c r="C62" s="39"/>
       <c r="D62" s="40"/>
       <c r="E62" s="40" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F62" s="40"/>
       <c r="G62" s="40"/>
@@ -11752,73 +12022,76 @@
       <c r="J62" s="39"/>
       <c r="K62" s="39"/>
     </row>
-    <row r="63" spans="1:11" s="37" customFormat="1">
+    <row r="63" spans="1:11" s="37" customFormat="1" hidden="1">
       <c r="A63" s="46"/>
       <c r="B63" s="36"/>
       <c r="C63" s="39"/>
       <c r="D63" s="40"/>
-      <c r="E63" s="40"/>
-      <c r="F63" s="40"/>
+      <c r="E63" s="40" t="s">
+        <v>419</v>
+      </c>
+      <c r="F63" s="40">
+        <v>1</v>
+      </c>
       <c r="G63" s="40"/>
       <c r="H63" s="40"/>
       <c r="I63" s="40"/>
       <c r="J63" s="39"/>
       <c r="K63" s="39"/>
     </row>
-    <row r="64" spans="1:11">
-      <c r="C64" s="1" t="s">
+    <row r="64" spans="1:11" s="37" customFormat="1" hidden="1">
+      <c r="A64" s="46"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="40"/>
+      <c r="E64" s="40" t="s">
+        <v>420</v>
+      </c>
+      <c r="F64" s="40">
+        <v>10</v>
+      </c>
+      <c r="G64" s="40" t="s">
+        <v>421</v>
+      </c>
+      <c r="H64" s="40"/>
+      <c r="I64" s="40"/>
+      <c r="J64" s="39"/>
+      <c r="K64" s="39"/>
+    </row>
+    <row r="65" spans="1:16" s="37" customFormat="1" hidden="1">
+      <c r="A65" s="46"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="40" t="s">
+        <v>422</v>
+      </c>
+      <c r="F65" s="40"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="40"/>
+      <c r="I65" s="40"/>
+      <c r="J65" s="39"/>
+      <c r="K65" s="39"/>
+    </row>
+    <row r="66" spans="1:16" s="37" customFormat="1" hidden="1">
+      <c r="A66" s="46"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="40"/>
+      <c r="G66" s="40"/>
+      <c r="H66" s="40"/>
+      <c r="I66" s="40"/>
+      <c r="J66" s="39"/>
+      <c r="K66" s="39"/>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="C67" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="3:16">
-      <c r="C66" s="60"/>
-      <c r="D66" s="60"/>
-      <c r="E66" s="60"/>
-      <c r="F66" s="60"/>
-      <c r="G66" s="60"/>
-      <c r="H66" s="60"/>
-      <c r="I66" s="60"/>
-      <c r="J66" s="60"/>
-      <c r="K66" s="60"/>
-      <c r="L66" s="60"/>
-      <c r="M66" s="60"/>
-      <c r="N66" s="60"/>
-      <c r="O66" s="60"/>
-      <c r="P66" s="60"/>
-    </row>
-    <row r="67" spans="3:16">
-      <c r="C67" s="60"/>
-      <c r="D67" s="60"/>
-      <c r="E67" s="60"/>
-      <c r="F67" s="60"/>
-      <c r="G67" s="60"/>
-      <c r="H67" s="60"/>
-      <c r="I67" s="60"/>
-      <c r="J67" s="60"/>
-      <c r="K67" s="60"/>
-      <c r="L67" s="60"/>
-      <c r="M67" s="60"/>
-      <c r="N67" s="60"/>
-      <c r="O67" s="60"/>
-      <c r="P67" s="60"/>
-    </row>
-    <row r="68" spans="3:16">
-      <c r="C68" s="60"/>
-      <c r="D68" s="60"/>
-      <c r="E68" s="60"/>
-      <c r="F68" s="60"/>
-      <c r="G68" s="60"/>
-      <c r="H68" s="60"/>
-      <c r="I68" s="60"/>
-      <c r="J68" s="60"/>
-      <c r="K68" s="60"/>
-      <c r="L68" s="60"/>
-      <c r="M68" s="60"/>
-      <c r="N68" s="60"/>
-      <c r="O68" s="60"/>
-      <c r="P68" s="60"/>
-    </row>
-    <row r="69" spans="3:16">
+    <row r="69" spans="1:16">
       <c r="C69" s="60"/>
       <c r="D69" s="60"/>
       <c r="E69" s="60"/>
@@ -11834,7 +12107,7 @@
       <c r="O69" s="60"/>
       <c r="P69" s="60"/>
     </row>
-    <row r="70" spans="3:16">
+    <row r="70" spans="1:16">
       <c r="C70" s="60"/>
       <c r="D70" s="60"/>
       <c r="E70" s="60"/>
@@ -11850,7 +12123,7 @@
       <c r="O70" s="60"/>
       <c r="P70" s="60"/>
     </row>
-    <row r="71" spans="3:16">
+    <row r="71" spans="1:16">
       <c r="C71" s="60"/>
       <c r="D71" s="60"/>
       <c r="E71" s="60"/>
@@ -11866,7 +12139,7 @@
       <c r="O71" s="60"/>
       <c r="P71" s="60"/>
     </row>
-    <row r="72" spans="3:16">
+    <row r="72" spans="1:16">
       <c r="C72" s="60"/>
       <c r="D72" s="60"/>
       <c r="E72" s="60"/>
@@ -11882,7 +12155,7 @@
       <c r="O72" s="60"/>
       <c r="P72" s="60"/>
     </row>
-    <row r="73" spans="3:16">
+    <row r="73" spans="1:16">
       <c r="C73" s="60"/>
       <c r="D73" s="60"/>
       <c r="E73" s="60"/>
@@ -11898,7 +12171,7 @@
       <c r="O73" s="60"/>
       <c r="P73" s="60"/>
     </row>
-    <row r="74" spans="3:16">
+    <row r="74" spans="1:16">
       <c r="C74" s="60"/>
       <c r="D74" s="60"/>
       <c r="E74" s="60"/>
@@ -11914,7 +12187,7 @@
       <c r="O74" s="60"/>
       <c r="P74" s="60"/>
     </row>
-    <row r="75" spans="3:16">
+    <row r="75" spans="1:16">
       <c r="C75" s="60"/>
       <c r="D75" s="60"/>
       <c r="E75" s="60"/>
@@ -11930,54 +12203,69 @@
       <c r="O75" s="60"/>
       <c r="P75" s="60"/>
     </row>
-    <row r="76" spans="3:16">
-      <c r="D76" s="71" t="s">
+    <row r="76" spans="1:16">
+      <c r="C76" s="60"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="60"/>
+      <c r="F76" s="60"/>
+      <c r="G76" s="60"/>
+      <c r="H76" s="60"/>
+      <c r="I76" s="60"/>
+      <c r="J76" s="60"/>
+      <c r="K76" s="60"/>
+      <c r="L76" s="60"/>
+      <c r="M76" s="60"/>
+      <c r="N76" s="60"/>
+      <c r="O76" s="60"/>
+      <c r="P76" s="60"/>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="C77" s="60"/>
+      <c r="D77" s="60"/>
+      <c r="E77" s="60"/>
+      <c r="F77" s="60"/>
+      <c r="G77" s="60"/>
+      <c r="H77" s="60"/>
+      <c r="I77" s="60"/>
+      <c r="J77" s="60"/>
+      <c r="K77" s="60"/>
+      <c r="L77" s="60"/>
+      <c r="M77" s="60"/>
+      <c r="N77" s="60"/>
+      <c r="O77" s="60"/>
+      <c r="P77" s="60"/>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="C78" s="60"/>
+      <c r="D78" s="60"/>
+      <c r="E78" s="60"/>
+      <c r="F78" s="60"/>
+      <c r="G78" s="60"/>
+      <c r="H78" s="60"/>
+      <c r="I78" s="60"/>
+      <c r="J78" s="60"/>
+      <c r="K78" s="60"/>
+      <c r="L78" s="60"/>
+      <c r="M78" s="60"/>
+      <c r="N78" s="60"/>
+      <c r="O78" s="60"/>
+      <c r="P78" s="60"/>
+    </row>
+    <row r="79" spans="1:16">
+      <c r="D79" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="E76" s="71"/>
-      <c r="F76" s="29"/>
-      <c r="G76" s="29"/>
-      <c r="H76" s="29"/>
-      <c r="I76" s="29"/>
-      <c r="J76" s="29"/>
-    </row>
-    <row r="77" spans="3:16">
-      <c r="D77" s="71"/>
-      <c r="E77" s="71" t="s">
-        <v>32</v>
-      </c>
-      <c r="F77" s="29"/>
-      <c r="G77" s="29"/>
-      <c r="H77" s="29"/>
-      <c r="I77" s="29"/>
-      <c r="J77" s="29"/>
-    </row>
-    <row r="78" spans="3:16">
-      <c r="D78" s="71"/>
-      <c r="E78" s="71" t="s">
-        <v>397</v>
-      </c>
-      <c r="F78" s="29"/>
-      <c r="G78" s="29"/>
-      <c r="H78" s="29"/>
-      <c r="I78" s="29"/>
-      <c r="J78" s="29"/>
-    </row>
-    <row r="79" spans="3:16">
-      <c r="D79" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="E79" s="40"/>
+      <c r="E79" s="71"/>
       <c r="F79" s="29"/>
       <c r="G79" s="29"/>
       <c r="H79" s="29"/>
       <c r="I79" s="29"/>
       <c r="J79" s="29"/>
     </row>
-    <row r="80" spans="3:16">
-      <c r="D80" s="40"/>
-      <c r="E80" s="40" t="s">
-        <v>338</v>
+    <row r="80" spans="1:16">
+      <c r="D80" s="71"/>
+      <c r="E80" s="71" t="s">
+        <v>32</v>
       </c>
       <c r="F80" s="29"/>
       <c r="G80" s="29"/>
@@ -11986,25 +12274,21 @@
       <c r="J80" s="29"/>
     </row>
     <row r="81" spans="1:12">
-      <c r="A81" s="46" t="s">
-        <v>661</v>
-      </c>
-      <c r="D81" s="29"/>
-      <c r="E81" s="40"/>
-      <c r="F81" s="40"/>
+      <c r="D81" s="71"/>
+      <c r="E81" s="71" t="s">
+        <v>397</v>
+      </c>
+      <c r="F81" s="29"/>
       <c r="G81" s="29"/>
       <c r="H81" s="29"/>
       <c r="I81" s="29"/>
       <c r="J81" s="29"/>
     </row>
     <row r="82" spans="1:12">
-      <c r="A82" s="69" t="s">
-        <v>666</v>
-      </c>
-      <c r="D82" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E82" s="29"/>
+      <c r="D82" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="E82" s="40"/>
       <c r="F82" s="29"/>
       <c r="G82" s="29"/>
       <c r="H82" s="29"/>
@@ -12012,118 +12296,104 @@
       <c r="J82" s="29"/>
     </row>
     <row r="83" spans="1:12">
-      <c r="E83" s="1" t="s">
+      <c r="D83" s="40"/>
+      <c r="E83" s="40" t="s">
+        <v>338</v>
+      </c>
+      <c r="F83" s="29"/>
+      <c r="G83" s="29"/>
+      <c r="H83" s="29"/>
+      <c r="I83" s="29"/>
+      <c r="J83" s="29"/>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" s="46" t="s">
+        <v>661</v>
+      </c>
+      <c r="D84" s="29"/>
+      <c r="E84" s="40"/>
+      <c r="F84" s="40"/>
+      <c r="G84" s="29"/>
+      <c r="H84" s="29"/>
+      <c r="I84" s="29"/>
+      <c r="J84" s="29"/>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" s="69" t="s">
+        <v>666</v>
+      </c>
+      <c r="D85" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E85" s="29"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="29"/>
+      <c r="I85" s="29"/>
+      <c r="J85" s="29"/>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="E86" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
-      <c r="E84" s="92" t="s">
+    <row r="87" spans="1:12">
+      <c r="E87" s="92" t="s">
         <v>1004</v>
       </c>
-      <c r="F84" s="46"/>
-      <c r="G84" s="40"/>
-      <c r="H84" s="40"/>
-      <c r="I84" s="40"/>
-    </row>
-    <row r="85" spans="1:12" hidden="1">
-      <c r="E85" s="1" t="s">
+      <c r="F87" s="46"/>
+      <c r="G87" s="40"/>
+      <c r="H87" s="40"/>
+      <c r="I87" s="40"/>
+    </row>
+    <row r="88" spans="1:12" hidden="1">
+      <c r="E88" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="86" spans="1:12" hidden="1">
-      <c r="E86" s="1" t="s">
+    <row r="89" spans="1:12" hidden="1">
+      <c r="E89" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="1:12" hidden="1">
-      <c r="E87" s="1" t="s">
+    <row r="90" spans="1:12" hidden="1">
+      <c r="E90" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="88" spans="1:12" hidden="1"/>
-    <row r="89" spans="1:12" hidden="1">
-      <c r="E89" s="29" t="s">
+    <row r="91" spans="1:12" hidden="1"/>
+    <row r="92" spans="1:12" hidden="1">
+      <c r="E92" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="F89" s="29"/>
-      <c r="G89" s="29"/>
-      <c r="H89" s="29"/>
-      <c r="I89" s="29"/>
-      <c r="J89" s="29"/>
-      <c r="K89" s="29"/>
-      <c r="L89" s="29"/>
-    </row>
-    <row r="90" spans="1:12" hidden="1">
-      <c r="E90" s="29"/>
-      <c r="F90" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="G90" s="29"/>
-      <c r="H90" s="29"/>
-      <c r="I90" s="29"/>
-      <c r="J90" s="29"/>
-      <c r="K90" s="29"/>
-      <c r="L90" s="29"/>
-    </row>
-    <row r="91" spans="1:12" hidden="1">
-      <c r="E91" s="29"/>
-      <c r="F91" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="G91" s="29"/>
-      <c r="H91" s="29"/>
-      <c r="I91" s="29"/>
-      <c r="J91" s="29"/>
-      <c r="K91" s="29"/>
-      <c r="L91" s="29"/>
-    </row>
-    <row r="92" spans="1:12" hidden="1">
-      <c r="B92" s="36"/>
-      <c r="C92" s="37"/>
-      <c r="D92" s="37"/>
-      <c r="E92" s="29"/>
       <c r="F92" s="29"/>
-      <c r="G92" s="29" t="s">
-        <v>174</v>
-      </c>
+      <c r="G92" s="29"/>
       <c r="H92" s="29"/>
-      <c r="I92" s="29" t="s">
-        <v>198</v>
-      </c>
+      <c r="I92" s="29"/>
       <c r="J92" s="29"/>
       <c r="K92" s="29"/>
       <c r="L92" s="29"/>
     </row>
     <row r="93" spans="1:12" hidden="1">
-      <c r="B93" s="36"/>
-      <c r="C93" s="37"/>
-      <c r="D93" s="37"/>
       <c r="E93" s="29"/>
-      <c r="F93" s="29"/>
-      <c r="G93" s="29" t="s">
-        <v>175</v>
-      </c>
+      <c r="F93" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="G93" s="29"/>
       <c r="H93" s="29"/>
-      <c r="I93" s="29" t="s">
-        <v>199</v>
-      </c>
+      <c r="I93" s="29"/>
       <c r="J93" s="29"/>
       <c r="K93" s="29"/>
       <c r="L93" s="29"/>
     </row>
     <row r="94" spans="1:12" hidden="1">
-      <c r="B94" s="36"/>
-      <c r="C94" s="37"/>
-      <c r="D94" s="37"/>
       <c r="E94" s="29"/>
-      <c r="F94" s="29"/>
-      <c r="G94" s="29" t="s">
-        <v>176</v>
-      </c>
+      <c r="F94" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="G94" s="29"/>
       <c r="H94" s="29"/>
-      <c r="I94" s="29" t="s">
-        <v>200</v>
-      </c>
+      <c r="I94" s="29"/>
       <c r="J94" s="29"/>
       <c r="K94" s="29"/>
       <c r="L94" s="29"/>
@@ -12135,11 +12405,11 @@
       <c r="E95" s="29"/>
       <c r="F95" s="29"/>
       <c r="G95" s="29" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H95" s="29"/>
       <c r="I95" s="29" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J95" s="29"/>
       <c r="K95" s="29"/>
@@ -12150,12 +12420,14 @@
       <c r="C96" s="37"/>
       <c r="D96" s="37"/>
       <c r="E96" s="29"/>
-      <c r="F96" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="G96" s="29"/>
+      <c r="F96" s="29"/>
+      <c r="G96" s="29" t="s">
+        <v>175</v>
+      </c>
       <c r="H96" s="29"/>
-      <c r="I96" s="29"/>
+      <c r="I96" s="29" t="s">
+        <v>199</v>
+      </c>
       <c r="J96" s="29"/>
       <c r="K96" s="29"/>
       <c r="L96" s="29"/>
@@ -12167,11 +12439,11 @@
       <c r="E97" s="29"/>
       <c r="F97" s="29"/>
       <c r="G97" s="29" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H97" s="29"/>
       <c r="I97" s="29" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="J97" s="29"/>
       <c r="K97" s="29"/>
@@ -12184,11 +12456,11 @@
       <c r="E98" s="29"/>
       <c r="F98" s="29"/>
       <c r="G98" s="29" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H98" s="29"/>
       <c r="I98" s="29" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="J98" s="29"/>
       <c r="K98" s="29"/>
@@ -12200,7 +12472,7 @@
       <c r="D99" s="37"/>
       <c r="E99" s="29"/>
       <c r="F99" s="29" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="G99" s="29"/>
       <c r="H99" s="29"/>
@@ -12216,11 +12488,11 @@
       <c r="E100" s="29"/>
       <c r="F100" s="29"/>
       <c r="G100" s="29" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H100" s="29"/>
       <c r="I100" s="29" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J100" s="29"/>
       <c r="K100" s="29"/>
@@ -12231,12 +12503,14 @@
       <c r="C101" s="37"/>
       <c r="D101" s="37"/>
       <c r="E101" s="29"/>
-      <c r="F101" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="G101" s="29"/>
+      <c r="F101" s="29"/>
+      <c r="G101" s="29" t="s">
+        <v>181</v>
+      </c>
       <c r="H101" s="29"/>
-      <c r="I101" s="29"/>
+      <c r="I101" s="29" t="s">
+        <v>183</v>
+      </c>
       <c r="J101" s="29"/>
       <c r="K101" s="29"/>
       <c r="L101" s="29"/>
@@ -12246,14 +12520,12 @@
       <c r="C102" s="37"/>
       <c r="D102" s="37"/>
       <c r="E102" s="29"/>
-      <c r="F102" s="29"/>
-      <c r="G102" s="29" t="s">
-        <v>186</v>
-      </c>
+      <c r="F102" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="G102" s="29"/>
       <c r="H102" s="29"/>
-      <c r="I102" s="29" t="s">
-        <v>194</v>
-      </c>
+      <c r="I102" s="29"/>
       <c r="J102" s="29"/>
       <c r="K102" s="29"/>
       <c r="L102" s="29"/>
@@ -12263,50 +12535,46 @@
       <c r="C103" s="37"/>
       <c r="D103" s="37"/>
       <c r="E103" s="29"/>
-      <c r="F103" s="58" t="s">
-        <v>609</v>
-      </c>
-      <c r="G103" s="58"/>
-      <c r="H103" s="58"/>
-      <c r="I103" s="58"/>
-      <c r="J103" s="58"/>
+      <c r="F103" s="29"/>
+      <c r="G103" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="H103" s="29"/>
+      <c r="I103" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="J103" s="29"/>
       <c r="K103" s="29"/>
       <c r="L103" s="29"/>
     </row>
     <row r="104" spans="1:13" hidden="1">
-      <c r="A104" s="46" t="s">
-        <v>662</v>
-      </c>
       <c r="B104" s="36"/>
       <c r="C104" s="37"/>
       <c r="D104" s="37"/>
       <c r="E104" s="29"/>
-      <c r="F104" s="58"/>
-      <c r="G104" s="57" t="s">
-        <v>685</v>
-      </c>
-      <c r="H104" s="57"/>
-      <c r="I104" s="57" t="s">
-        <v>686</v>
-      </c>
-      <c r="J104" s="57"/>
-      <c r="K104" s="57"/>
+      <c r="F104" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="G104" s="29"/>
+      <c r="H104" s="29"/>
+      <c r="I104" s="29"/>
+      <c r="J104" s="29"/>
+      <c r="K104" s="29"/>
       <c r="L104" s="29"/>
     </row>
     <row r="105" spans="1:13" hidden="1">
-      <c r="A105" s="69" t="s">
-        <v>667</v>
-      </c>
       <c r="B105" s="36"/>
       <c r="C105" s="37"/>
       <c r="D105" s="37"/>
       <c r="E105" s="29"/>
-      <c r="F105" s="29" t="s">
-        <v>608</v>
-      </c>
-      <c r="G105" s="29"/>
+      <c r="F105" s="29"/>
+      <c r="G105" s="29" t="s">
+        <v>186</v>
+      </c>
       <c r="H105" s="29"/>
-      <c r="I105" s="29"/>
+      <c r="I105" s="29" t="s">
+        <v>194</v>
+      </c>
       <c r="J105" s="29"/>
       <c r="K105" s="29"/>
       <c r="L105" s="29"/>
@@ -12316,46 +12584,50 @@
       <c r="C106" s="37"/>
       <c r="D106" s="37"/>
       <c r="E106" s="29"/>
-      <c r="F106" s="29"/>
-      <c r="G106" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="H106" s="29"/>
-      <c r="I106" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="J106" s="29"/>
+      <c r="F106" s="58" t="s">
+        <v>609</v>
+      </c>
+      <c r="G106" s="58"/>
+      <c r="H106" s="58"/>
+      <c r="I106" s="58"/>
+      <c r="J106" s="58"/>
       <c r="K106" s="29"/>
       <c r="L106" s="29"/>
     </row>
     <row r="107" spans="1:13" hidden="1">
+      <c r="A107" s="46" t="s">
+        <v>662</v>
+      </c>
       <c r="B107" s="36"/>
       <c r="C107" s="37"/>
       <c r="D107" s="37"/>
       <c r="E107" s="29"/>
-      <c r="F107" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="G107" s="29"/>
-      <c r="H107" s="29"/>
-      <c r="I107" s="29"/>
-      <c r="J107" s="29"/>
-      <c r="K107" s="29"/>
+      <c r="F107" s="58"/>
+      <c r="G107" s="57" t="s">
+        <v>685</v>
+      </c>
+      <c r="H107" s="57"/>
+      <c r="I107" s="57" t="s">
+        <v>686</v>
+      </c>
+      <c r="J107" s="57"/>
+      <c r="K107" s="57"/>
       <c r="L107" s="29"/>
     </row>
     <row r="108" spans="1:13" hidden="1">
+      <c r="A108" s="69" t="s">
+        <v>667</v>
+      </c>
       <c r="B108" s="36"/>
       <c r="C108" s="37"/>
       <c r="D108" s="37"/>
       <c r="E108" s="29"/>
-      <c r="F108" s="29"/>
-      <c r="G108" s="29" t="s">
-        <v>189</v>
-      </c>
+      <c r="F108" s="29" t="s">
+        <v>608</v>
+      </c>
+      <c r="G108" s="29"/>
       <c r="H108" s="29"/>
-      <c r="I108" s="29" t="s">
-        <v>196</v>
-      </c>
+      <c r="I108" s="29"/>
       <c r="J108" s="29"/>
       <c r="K108" s="29"/>
       <c r="L108" s="29"/>
@@ -12365,71 +12637,79 @@
       <c r="C109" s="37"/>
       <c r="D109" s="37"/>
       <c r="E109" s="29"/>
-      <c r="F109" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="G109" s="29"/>
+      <c r="F109" s="29"/>
+      <c r="G109" s="29" t="s">
+        <v>188</v>
+      </c>
       <c r="H109" s="29"/>
-      <c r="I109" s="29"/>
+      <c r="I109" s="29" t="s">
+        <v>195</v>
+      </c>
       <c r="J109" s="29"/>
       <c r="K109" s="29"/>
       <c r="L109" s="29"/>
-      <c r="M109" s="29"/>
     </row>
     <row r="110" spans="1:13" hidden="1">
       <c r="B110" s="36"/>
       <c r="C110" s="37"/>
       <c r="D110" s="37"/>
       <c r="E110" s="29"/>
-      <c r="F110" s="29"/>
-      <c r="G110" s="29" t="s">
-        <v>190</v>
-      </c>
+      <c r="F110" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="G110" s="29"/>
       <c r="H110" s="29"/>
-      <c r="I110" s="29" t="s">
-        <v>197</v>
-      </c>
+      <c r="I110" s="29"/>
       <c r="J110" s="29"/>
       <c r="K110" s="29"/>
       <c r="L110" s="29"/>
-      <c r="M110" s="29"/>
     </row>
     <row r="111" spans="1:13" hidden="1">
+      <c r="B111" s="36"/>
+      <c r="C111" s="37"/>
+      <c r="D111" s="37"/>
       <c r="E111" s="29"/>
-      <c r="F111" s="29" t="s">
-        <v>339</v>
-      </c>
-      <c r="G111" s="29"/>
+      <c r="F111" s="29"/>
+      <c r="G111" s="29" t="s">
+        <v>189</v>
+      </c>
       <c r="H111" s="29"/>
-      <c r="I111" s="29"/>
+      <c r="I111" s="29" t="s">
+        <v>196</v>
+      </c>
       <c r="J111" s="29"/>
       <c r="K111" s="29"/>
       <c r="L111" s="29"/>
-      <c r="M111" s="29"/>
     </row>
     <row r="112" spans="1:13" hidden="1">
+      <c r="B112" s="36"/>
+      <c r="C112" s="37"/>
+      <c r="D112" s="37"/>
       <c r="E112" s="29"/>
-      <c r="F112" s="29"/>
-      <c r="G112" s="29" t="s">
-        <v>342</v>
-      </c>
+      <c r="F112" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="G112" s="29"/>
       <c r="H112" s="29"/>
-      <c r="I112" s="29" t="s">
-        <v>343</v>
-      </c>
+      <c r="I112" s="29"/>
       <c r="J112" s="29"/>
       <c r="K112" s="29"/>
       <c r="L112" s="29"/>
       <c r="M112" s="29"/>
     </row>
     <row r="113" spans="1:15" hidden="1">
+      <c r="B113" s="36"/>
+      <c r="C113" s="37"/>
+      <c r="D113" s="37"/>
       <c r="E113" s="29"/>
-      <c r="F113" s="29" t="s">
-        <v>340</v>
-      </c>
-      <c r="G113" s="29"/>
+      <c r="F113" s="29"/>
+      <c r="G113" s="29" t="s">
+        <v>190</v>
+      </c>
       <c r="H113" s="29"/>
-      <c r="I113" s="29"/>
+      <c r="I113" s="29" t="s">
+        <v>197</v>
+      </c>
       <c r="J113" s="29"/>
       <c r="K113" s="29"/>
       <c r="L113" s="29"/>
@@ -12437,14 +12717,12 @@
     </row>
     <row r="114" spans="1:15" hidden="1">
       <c r="E114" s="29"/>
-      <c r="F114" s="29"/>
-      <c r="G114" s="29" t="s">
-        <v>346</v>
-      </c>
+      <c r="F114" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="G114" s="29"/>
       <c r="H114" s="29"/>
-      <c r="I114" s="29" t="s">
-        <v>347</v>
-      </c>
+      <c r="I114" s="29"/>
       <c r="J114" s="29"/>
       <c r="K114" s="29"/>
       <c r="L114" s="29"/>
@@ -12452,12 +12730,14 @@
     </row>
     <row r="115" spans="1:15" hidden="1">
       <c r="E115" s="29"/>
-      <c r="F115" s="29" t="s">
-        <v>341</v>
-      </c>
-      <c r="G115" s="29"/>
+      <c r="F115" s="29"/>
+      <c r="G115" s="29" t="s">
+        <v>342</v>
+      </c>
       <c r="H115" s="29"/>
-      <c r="I115" s="29"/>
+      <c r="I115" s="29" t="s">
+        <v>343</v>
+      </c>
       <c r="J115" s="29"/>
       <c r="K115" s="29"/>
       <c r="L115" s="29"/>
@@ -12465,37 +12745,37 @@
     </row>
     <row r="116" spans="1:15" hidden="1">
       <c r="E116" s="29"/>
-      <c r="F116" s="29"/>
-      <c r="G116" s="29" t="s">
-        <v>344</v>
-      </c>
+      <c r="F116" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="G116" s="29"/>
       <c r="H116" s="29"/>
-      <c r="I116" s="29" t="s">
-        <v>345</v>
-      </c>
+      <c r="I116" s="29"/>
       <c r="J116" s="29"/>
       <c r="K116" s="29"/>
       <c r="L116" s="29"/>
       <c r="M116" s="29"/>
     </row>
-    <row r="117" spans="1:15" s="46" customFormat="1">
-      <c r="B117" s="36"/>
-      <c r="E117" s="40"/>
-      <c r="F117" s="40"/>
-      <c r="G117" s="40"/>
-      <c r="H117" s="40"/>
-      <c r="I117" s="40"/>
-      <c r="J117" s="40"/>
-      <c r="K117" s="40"/>
-      <c r="L117" s="40"/>
-      <c r="M117" s="40"/>
-    </row>
-    <row r="118" spans="1:15">
-      <c r="D118" s="1" t="s">
-        <v>36</v>
-      </c>
+    <row r="117" spans="1:15" hidden="1">
+      <c r="E117" s="29"/>
+      <c r="F117" s="29"/>
+      <c r="G117" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="H117" s="29"/>
+      <c r="I117" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="J117" s="29"/>
+      <c r="K117" s="29"/>
+      <c r="L117" s="29"/>
+      <c r="M117" s="29"/>
+    </row>
+    <row r="118" spans="1:15" hidden="1">
       <c r="E118" s="29"/>
-      <c r="F118" s="29"/>
+      <c r="F118" s="29" t="s">
+        <v>341</v>
+      </c>
       <c r="G118" s="29"/>
       <c r="H118" s="29"/>
       <c r="I118" s="29"/>
@@ -12504,29 +12784,37 @@
       <c r="L118" s="29"/>
       <c r="M118" s="29"/>
     </row>
-    <row r="119" spans="1:15">
-      <c r="E119" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15">
-      <c r="D120" s="29"/>
-      <c r="E120" s="57" t="s">
-        <v>726</v>
-      </c>
-      <c r="F120" s="57"/>
-      <c r="G120" s="57"/>
-      <c r="H120" s="57"/>
-      <c r="I120" s="57"/>
-      <c r="J120" s="57"/>
-      <c r="K120" s="57"/>
-      <c r="L120" s="57"/>
-      <c r="M120" s="27"/>
-      <c r="N120" s="27"/>
-      <c r="O120" s="27"/>
+    <row r="119" spans="1:15" hidden="1">
+      <c r="E119" s="29"/>
+      <c r="F119" s="29"/>
+      <c r="G119" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="H119" s="29"/>
+      <c r="I119" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="J119" s="29"/>
+      <c r="K119" s="29"/>
+      <c r="L119" s="29"/>
+      <c r="M119" s="29"/>
+    </row>
+    <row r="120" spans="1:15" s="46" customFormat="1">
+      <c r="B120" s="36"/>
+      <c r="E120" s="40"/>
+      <c r="F120" s="40"/>
+      <c r="G120" s="40"/>
+      <c r="H120" s="40"/>
+      <c r="I120" s="40"/>
+      <c r="J120" s="40"/>
+      <c r="K120" s="40"/>
+      <c r="L120" s="40"/>
+      <c r="M120" s="40"/>
     </row>
     <row r="121" spans="1:15">
-      <c r="D121" s="29"/>
+      <c r="D121" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="E121" s="29"/>
       <c r="F121" s="29"/>
       <c r="G121" s="29"/>
@@ -12535,39 +12823,32 @@
       <c r="J121" s="29"/>
       <c r="K121" s="29"/>
       <c r="L121" s="29"/>
-    </row>
-    <row r="122" spans="1:15" s="46" customFormat="1">
-      <c r="B122" s="36"/>
-      <c r="D122" s="40"/>
-      <c r="E122" s="40"/>
-      <c r="F122" s="40"/>
-      <c r="G122" s="40"/>
-      <c r="H122" s="40"/>
-      <c r="I122" s="40"/>
-      <c r="J122" s="40"/>
-      <c r="K122" s="40"/>
-      <c r="L122" s="40"/>
-    </row>
-    <row r="123" spans="1:15" s="46" customFormat="1">
-      <c r="B123" s="36"/>
-      <c r="D123" s="40"/>
-      <c r="E123" s="40"/>
-      <c r="F123" s="40"/>
-      <c r="G123" s="40"/>
-      <c r="H123" s="40"/>
-      <c r="I123" s="40"/>
-      <c r="J123" s="40"/>
-      <c r="K123" s="40"/>
-      <c r="L123" s="40"/>
+      <c r="M121" s="29"/>
+    </row>
+    <row r="122" spans="1:15">
+      <c r="E122" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
+      <c r="D123" s="29"/>
+      <c r="E123" s="57" t="s">
+        <v>726</v>
+      </c>
+      <c r="F123" s="57"/>
+      <c r="G123" s="57"/>
+      <c r="H123" s="57"/>
+      <c r="I123" s="57"/>
+      <c r="J123" s="57"/>
+      <c r="K123" s="57"/>
+      <c r="L123" s="57"/>
+      <c r="M123" s="27"/>
+      <c r="N123" s="27"/>
+      <c r="O123" s="27"/>
     </row>
     <row r="124" spans="1:15">
-      <c r="A124" s="66" t="s">
-        <v>647</v>
-      </c>
       <c r="D124" s="29"/>
-      <c r="E124" s="29" t="s">
-        <v>725</v>
-      </c>
+      <c r="E124" s="29"/>
       <c r="F124" s="29"/>
       <c r="G124" s="29"/>
       <c r="H124" s="29"/>
@@ -12576,38 +12857,38 @@
       <c r="K124" s="29"/>
       <c r="L124" s="29"/>
     </row>
-    <row r="125" spans="1:15">
-      <c r="A125" s="69" t="s">
-        <v>668</v>
-      </c>
-      <c r="D125" s="29"/>
-      <c r="E125" s="29" t="s">
-        <v>349</v>
-      </c>
-      <c r="F125" s="29"/>
-      <c r="G125" s="29"/>
-      <c r="H125" s="29"/>
-      <c r="I125" s="29"/>
-      <c r="J125" s="29"/>
-      <c r="K125" s="29"/>
-      <c r="L125" s="29"/>
-    </row>
-    <row r="126" spans="1:15">
-      <c r="D126" s="29"/>
-      <c r="E126" s="29" t="s">
-        <v>392</v>
-      </c>
-      <c r="F126" s="29"/>
-      <c r="G126" s="29"/>
-      <c r="H126" s="29"/>
-      <c r="I126" s="29"/>
-      <c r="J126" s="29"/>
-      <c r="K126" s="29"/>
-      <c r="L126" s="29"/>
+    <row r="125" spans="1:15" s="46" customFormat="1">
+      <c r="B125" s="36"/>
+      <c r="D125" s="40"/>
+      <c r="E125" s="40"/>
+      <c r="F125" s="40"/>
+      <c r="G125" s="40"/>
+      <c r="H125" s="40"/>
+      <c r="I125" s="40"/>
+      <c r="J125" s="40"/>
+      <c r="K125" s="40"/>
+      <c r="L125" s="40"/>
+    </row>
+    <row r="126" spans="1:15" s="46" customFormat="1">
+      <c r="B126" s="36"/>
+      <c r="D126" s="40"/>
+      <c r="E126" s="40"/>
+      <c r="F126" s="40"/>
+      <c r="G126" s="40"/>
+      <c r="H126" s="40"/>
+      <c r="I126" s="40"/>
+      <c r="J126" s="40"/>
+      <c r="K126" s="40"/>
+      <c r="L126" s="40"/>
     </row>
     <row r="127" spans="1:15">
+      <c r="A127" s="66" t="s">
+        <v>647</v>
+      </c>
       <c r="D127" s="29"/>
-      <c r="E127" s="29"/>
+      <c r="E127" s="29" t="s">
+        <v>725</v>
+      </c>
       <c r="F127" s="29"/>
       <c r="G127" s="29"/>
       <c r="H127" s="29"/>
@@ -12616,65 +12897,65 @@
       <c r="K127" s="29"/>
       <c r="L127" s="29"/>
     </row>
-    <row r="144" spans="4:12">
-      <c r="D144" s="95" t="s">
+    <row r="128" spans="1:15">
+      <c r="A128" s="69" t="s">
+        <v>668</v>
+      </c>
+      <c r="D128" s="29"/>
+      <c r="E128" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="F128" s="29"/>
+      <c r="G128" s="29"/>
+      <c r="H128" s="29"/>
+      <c r="I128" s="29"/>
+      <c r="J128" s="29"/>
+      <c r="K128" s="29"/>
+      <c r="L128" s="29"/>
+    </row>
+    <row r="129" spans="4:12">
+      <c r="D129" s="29"/>
+      <c r="E129" s="29" t="s">
+        <v>392</v>
+      </c>
+      <c r="F129" s="29"/>
+      <c r="G129" s="29"/>
+      <c r="H129" s="29"/>
+      <c r="I129" s="29"/>
+      <c r="J129" s="29"/>
+      <c r="K129" s="29"/>
+      <c r="L129" s="29"/>
+    </row>
+    <row r="130" spans="4:12">
+      <c r="D130" s="29"/>
+      <c r="E130" s="29"/>
+      <c r="F130" s="29"/>
+      <c r="G130" s="29"/>
+      <c r="H130" s="29"/>
+      <c r="I130" s="29"/>
+      <c r="J130" s="29"/>
+      <c r="K130" s="29"/>
+      <c r="L130" s="29"/>
+    </row>
+    <row r="147" spans="1:12">
+      <c r="D147" s="95" t="s">
         <v>610</v>
       </c>
-      <c r="E144" s="27"/>
-      <c r="F144" s="27"/>
-      <c r="G144" s="27"/>
-      <c r="H144" s="27"/>
-      <c r="I144" s="27"/>
-      <c r="J144" s="27"/>
-      <c r="K144" s="27"/>
-      <c r="L144" s="27"/>
-    </row>
-    <row r="145" spans="1:12">
-      <c r="D145" s="27"/>
-      <c r="E145" s="57" t="s">
+      <c r="E147" s="27"/>
+      <c r="F147" s="27"/>
+      <c r="G147" s="27"/>
+      <c r="H147" s="27"/>
+      <c r="I147" s="27"/>
+      <c r="J147" s="27"/>
+      <c r="K147" s="27"/>
+      <c r="L147" s="27"/>
+    </row>
+    <row r="148" spans="1:12">
+      <c r="D148" s="27"/>
+      <c r="E148" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="F145" s="57"/>
-      <c r="G145" s="57"/>
-      <c r="H145" s="57"/>
-      <c r="I145" s="57"/>
-      <c r="J145" s="57"/>
-      <c r="K145" s="57"/>
-      <c r="L145" s="27"/>
-    </row>
-    <row r="146" spans="1:12">
-      <c r="D146" s="27"/>
-      <c r="E146" s="57" t="s">
-        <v>169</v>
-      </c>
-      <c r="F146" s="57"/>
-      <c r="G146" s="57"/>
-      <c r="H146" s="57"/>
-      <c r="I146" s="57"/>
-      <c r="J146" s="57"/>
-      <c r="K146" s="57"/>
-      <c r="L146" s="27"/>
-    </row>
-    <row r="147" spans="1:12">
-      <c r="D147" s="27"/>
-      <c r="E147" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="F147" s="57"/>
-      <c r="G147" s="57"/>
-      <c r="H147" s="57"/>
-      <c r="I147" s="57"/>
-      <c r="J147" s="57"/>
-      <c r="K147" s="57"/>
-      <c r="L147" s="27"/>
-    </row>
-    <row r="148" spans="1:12">
-      <c r="B148" s="36"/>
-      <c r="D148" s="27"/>
-      <c r="E148" s="57"/>
-      <c r="F148" s="57" t="s">
-        <v>40</v>
-      </c>
+      <c r="F148" s="57"/>
       <c r="G148" s="57"/>
       <c r="H148" s="57"/>
       <c r="I148" s="57"/>
@@ -12683,10 +12964,9 @@
       <c r="L148" s="27"/>
     </row>
     <row r="149" spans="1:12">
-      <c r="B149" s="36"/>
       <c r="D149" s="27"/>
       <c r="E149" s="57" t="s">
-        <v>43</v>
+        <v>169</v>
       </c>
       <c r="F149" s="57"/>
       <c r="G149" s="57"/>
@@ -12697,12 +12977,11 @@
       <c r="L149" s="27"/>
     </row>
     <row r="150" spans="1:12">
-      <c r="B150" s="36"/>
       <c r="D150" s="27"/>
-      <c r="E150" s="57"/>
-      <c r="F150" s="57" t="s">
-        <v>41</v>
-      </c>
+      <c r="E150" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="F150" s="57"/>
       <c r="G150" s="57"/>
       <c r="H150" s="57"/>
       <c r="I150" s="57"/>
@@ -12715,7 +12994,7 @@
       <c r="D151" s="27"/>
       <c r="E151" s="57"/>
       <c r="F151" s="57" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G151" s="57"/>
       <c r="H151" s="57"/>
@@ -12725,11 +13004,12 @@
       <c r="L151" s="27"/>
     </row>
     <row r="152" spans="1:12">
+      <c r="B152" s="36"/>
       <c r="D152" s="27"/>
-      <c r="E152" s="57"/>
-      <c r="F152" s="57" t="s">
-        <v>350</v>
-      </c>
+      <c r="E152" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F152" s="57"/>
       <c r="G152" s="57"/>
       <c r="H152" s="57"/>
       <c r="I152" s="57"/>
@@ -12738,12 +13018,13 @@
       <c r="L152" s="27"/>
     </row>
     <row r="153" spans="1:12">
+      <c r="B153" s="36"/>
       <c r="D153" s="27"/>
       <c r="E153" s="57"/>
-      <c r="F153" s="57"/>
-      <c r="G153" s="57" t="s">
-        <v>351</v>
-      </c>
+      <c r="F153" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="G153" s="57"/>
       <c r="H153" s="57"/>
       <c r="I153" s="57"/>
       <c r="J153" s="57"/>
@@ -12751,65 +13032,59 @@
       <c r="L153" s="27"/>
     </row>
     <row r="154" spans="1:12">
-      <c r="E154" s="29"/>
-      <c r="F154" s="29"/>
-      <c r="G154" s="29"/>
-      <c r="H154" s="29"/>
-      <c r="I154" s="29"/>
-      <c r="J154" s="29"/>
-      <c r="K154" s="29"/>
-    </row>
-    <row r="155" spans="1:12" s="46" customFormat="1" hidden="1">
-      <c r="B155" s="36"/>
-      <c r="D155" s="59" t="s">
+      <c r="B154" s="36"/>
+      <c r="D154" s="27"/>
+      <c r="E154" s="57"/>
+      <c r="F154" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="G154" s="57"/>
+      <c r="H154" s="57"/>
+      <c r="I154" s="57"/>
+      <c r="J154" s="57"/>
+      <c r="K154" s="57"/>
+      <c r="L154" s="27"/>
+    </row>
+    <row r="155" spans="1:12">
+      <c r="D155" s="27"/>
+      <c r="E155" s="57"/>
+      <c r="F155" s="57" t="s">
+        <v>350</v>
+      </c>
+      <c r="G155" s="57"/>
+      <c r="H155" s="57"/>
+      <c r="I155" s="57"/>
+      <c r="J155" s="57"/>
+      <c r="K155" s="57"/>
+      <c r="L155" s="27"/>
+    </row>
+    <row r="156" spans="1:12">
+      <c r="D156" s="27"/>
+      <c r="E156" s="57"/>
+      <c r="F156" s="57"/>
+      <c r="G156" s="57" t="s">
+        <v>351</v>
+      </c>
+      <c r="H156" s="57"/>
+      <c r="I156" s="57"/>
+      <c r="J156" s="57"/>
+      <c r="K156" s="57"/>
+      <c r="L156" s="27"/>
+    </row>
+    <row r="157" spans="1:12">
+      <c r="E157" s="29"/>
+      <c r="F157" s="29"/>
+      <c r="G157" s="29"/>
+      <c r="H157" s="29"/>
+      <c r="I157" s="29"/>
+      <c r="J157" s="29"/>
+      <c r="K157" s="29"/>
+    </row>
+    <row r="158" spans="1:12" s="46" customFormat="1" hidden="1">
+      <c r="B158" s="36"/>
+      <c r="D158" s="59" t="s">
         <v>611</v>
       </c>
-      <c r="E155" s="58"/>
-      <c r="F155" s="58"/>
-      <c r="G155" s="58"/>
-      <c r="H155" s="58"/>
-      <c r="I155" s="40"/>
-      <c r="J155" s="40"/>
-      <c r="K155" s="40"/>
-    </row>
-    <row r="156" spans="1:12" s="46" customFormat="1" hidden="1">
-      <c r="A156" s="69" t="s">
-        <v>669</v>
-      </c>
-      <c r="B156" s="36"/>
-      <c r="D156" s="60"/>
-      <c r="E156" s="58" t="s">
-        <v>612</v>
-      </c>
-      <c r="F156" s="58"/>
-      <c r="G156" s="58"/>
-      <c r="H156" s="58"/>
-      <c r="I156" s="40"/>
-      <c r="J156" s="40"/>
-      <c r="K156" s="40"/>
-    </row>
-    <row r="157" spans="1:12" s="46" customFormat="1" hidden="1">
-      <c r="A157" s="66" t="s">
-        <v>648</v>
-      </c>
-      <c r="B157" s="36"/>
-      <c r="D157" s="60"/>
-      <c r="E157" s="58"/>
-      <c r="F157" s="58" t="s">
-        <v>613</v>
-      </c>
-      <c r="G157" s="58"/>
-      <c r="H157" s="58"/>
-      <c r="I157" s="40"/>
-      <c r="J157" s="40"/>
-      <c r="K157" s="40"/>
-    </row>
-    <row r="158" spans="1:12" s="46" customFormat="1" hidden="1">
-      <c r="A158" s="66" t="s">
-        <v>649</v>
-      </c>
-      <c r="B158" s="36"/>
-      <c r="D158" s="60"/>
       <c r="E158" s="58"/>
       <c r="F158" s="58"/>
       <c r="G158" s="58"/>
@@ -12820,11 +13095,13 @@
     </row>
     <row r="159" spans="1:12" s="46" customFormat="1" hidden="1">
       <c r="A159" s="69" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B159" s="36"/>
       <c r="D159" s="60"/>
-      <c r="E159" s="58"/>
+      <c r="E159" s="58" t="s">
+        <v>612</v>
+      </c>
       <c r="F159" s="58"/>
       <c r="G159" s="58"/>
       <c r="H159" s="58"/>
@@ -12833,11 +13110,14 @@
       <c r="K159" s="40"/>
     </row>
     <row r="160" spans="1:12" s="46" customFormat="1" hidden="1">
+      <c r="A160" s="66" t="s">
+        <v>648</v>
+      </c>
       <c r="B160" s="36"/>
       <c r="D160" s="60"/>
       <c r="E160" s="58"/>
       <c r="F160" s="58" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G160" s="58"/>
       <c r="H160" s="58"/>
@@ -12846,19 +13126,23 @@
       <c r="K160" s="40"/>
     </row>
     <row r="161" spans="1:12" s="46" customFormat="1" hidden="1">
+      <c r="A161" s="66" t="s">
+        <v>649</v>
+      </c>
       <c r="B161" s="36"/>
       <c r="D161" s="60"/>
       <c r="E161" s="58"/>
       <c r="F161" s="58"/>
-      <c r="G161" s="58" t="s">
-        <v>645</v>
-      </c>
+      <c r="G161" s="58"/>
       <c r="H161" s="58"/>
       <c r="I161" s="40"/>
       <c r="J161" s="40"/>
       <c r="K161" s="40"/>
     </row>
     <row r="162" spans="1:12" s="46" customFormat="1" hidden="1">
+      <c r="A162" s="69" t="s">
+        <v>670</v>
+      </c>
       <c r="B162" s="36"/>
       <c r="D162" s="60"/>
       <c r="E162" s="58"/>
@@ -12869,45 +13153,49 @@
       <c r="J162" s="40"/>
       <c r="K162" s="40"/>
     </row>
-    <row r="163" spans="1:12">
-      <c r="D163" s="1" t="s">
+    <row r="163" spans="1:12" s="46" customFormat="1" hidden="1">
+      <c r="B163" s="36"/>
+      <c r="D163" s="60"/>
+      <c r="E163" s="58"/>
+      <c r="F163" s="58" t="s">
+        <v>614</v>
+      </c>
+      <c r="G163" s="58"/>
+      <c r="H163" s="58"/>
+      <c r="I163" s="40"/>
+      <c r="J163" s="40"/>
+      <c r="K163" s="40"/>
+    </row>
+    <row r="164" spans="1:12" s="46" customFormat="1" hidden="1">
+      <c r="B164" s="36"/>
+      <c r="D164" s="60"/>
+      <c r="E164" s="58"/>
+      <c r="F164" s="58"/>
+      <c r="G164" s="58" t="s">
+        <v>645</v>
+      </c>
+      <c r="H164" s="58"/>
+      <c r="I164" s="40"/>
+      <c r="J164" s="40"/>
+      <c r="K164" s="40"/>
+    </row>
+    <row r="165" spans="1:12" s="46" customFormat="1" hidden="1">
+      <c r="B165" s="36"/>
+      <c r="D165" s="60"/>
+      <c r="E165" s="58"/>
+      <c r="F165" s="58"/>
+      <c r="G165" s="58"/>
+      <c r="H165" s="58"/>
+      <c r="I165" s="40"/>
+      <c r="J165" s="40"/>
+      <c r="K165" s="40"/>
+    </row>
+    <row r="166" spans="1:12">
+      <c r="D166" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E163" s="29"/>
-      <c r="F163" s="29"/>
-      <c r="G163" s="29"/>
-      <c r="H163" s="29"/>
-      <c r="I163" s="29"/>
-      <c r="J163" s="29"/>
-      <c r="K163" s="29"/>
-    </row>
-    <row r="164" spans="1:12">
-      <c r="E164" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="F164" s="29"/>
-      <c r="G164" s="29"/>
-      <c r="H164" s="29"/>
-      <c r="I164" s="29"/>
-      <c r="J164" s="29"/>
-      <c r="K164" s="29"/>
-    </row>
-    <row r="165" spans="1:12">
-      <c r="E165" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="F165" s="29"/>
-      <c r="G165" s="29"/>
-      <c r="H165" s="29"/>
-      <c r="I165" s="29"/>
-      <c r="J165" s="29"/>
-      <c r="K165" s="29"/>
-    </row>
-    <row r="166" spans="1:12">
       <c r="E166" s="29"/>
-      <c r="F166" s="29" t="s">
-        <v>48</v>
-      </c>
+      <c r="F166" s="29"/>
       <c r="G166" s="29"/>
       <c r="H166" s="29"/>
       <c r="I166" s="29"/>
@@ -12916,7 +13204,7 @@
     </row>
     <row r="167" spans="1:12">
       <c r="E167" s="29" t="s">
-        <v>352</v>
+        <v>45</v>
       </c>
       <c r="F167" s="29"/>
       <c r="G167" s="29"/>
@@ -12926,24 +13214,21 @@
       <c r="K167" s="29"/>
     </row>
     <row r="168" spans="1:12">
-      <c r="E168" s="29"/>
-      <c r="F168" s="29" t="s">
-        <v>49</v>
-      </c>
+      <c r="E168" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F168" s="29"/>
       <c r="G168" s="29"/>
       <c r="H168" s="29"/>
       <c r="I168" s="29"/>
       <c r="J168" s="29"/>
       <c r="K168" s="29"/>
-      <c r="L168" s="26" t="s">
-        <v>168</v>
-      </c>
     </row>
     <row r="169" spans="1:12">
-      <c r="E169" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="F169" s="29"/>
+      <c r="E169" s="29"/>
+      <c r="F169" s="29" t="s">
+        <v>48</v>
+      </c>
       <c r="G169" s="29"/>
       <c r="H169" s="29"/>
       <c r="I169" s="29"/>
@@ -12951,7 +13236,9 @@
       <c r="K169" s="29"/>
     </row>
     <row r="170" spans="1:12">
-      <c r="E170" s="29"/>
+      <c r="E170" s="29" t="s">
+        <v>352</v>
+      </c>
       <c r="F170" s="29"/>
       <c r="G170" s="29"/>
       <c r="H170" s="29"/>
@@ -12960,39 +13247,32 @@
       <c r="K170" s="29"/>
     </row>
     <row r="171" spans="1:12">
-      <c r="D171" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="E171" s="29"/>
-      <c r="F171" s="29"/>
+      <c r="F171" s="29" t="s">
+        <v>49</v>
+      </c>
       <c r="G171" s="29"/>
       <c r="H171" s="29"/>
       <c r="I171" s="29"/>
       <c r="J171" s="29"/>
       <c r="K171" s="29"/>
+      <c r="L171" s="26" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="172" spans="1:12">
-      <c r="A172" s="66" t="s">
-        <v>650</v>
-      </c>
-      <c r="E172" s="57" t="s">
-        <v>1005</v>
-      </c>
-      <c r="F172" s="57"/>
-      <c r="G172" s="57"/>
-      <c r="H172" s="57"/>
-      <c r="I172" s="57"/>
+      <c r="E172" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="F172" s="29"/>
+      <c r="G172" s="29"/>
+      <c r="H172" s="29"/>
+      <c r="I172" s="29"/>
       <c r="J172" s="29"/>
       <c r="K172" s="29"/>
     </row>
     <row r="173" spans="1:12">
-      <c r="A173" s="69" t="s">
-        <v>671</v>
-      </c>
-      <c r="D173" s="29"/>
-      <c r="E173" s="29" t="s">
-        <v>148</v>
-      </c>
+      <c r="E173" s="29"/>
       <c r="F173" s="29"/>
       <c r="G173" s="29"/>
       <c r="H173" s="29"/>
@@ -13000,268 +13280,270 @@
       <c r="J173" s="29"/>
       <c r="K173" s="29"/>
     </row>
-    <row r="174" spans="1:12" s="37" customFormat="1">
-      <c r="A174" s="46"/>
-      <c r="B174" s="36"/>
-      <c r="D174" s="40"/>
-      <c r="E174" s="40" t="s">
+    <row r="174" spans="1:12">
+      <c r="D174" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E174" s="29"/>
+      <c r="F174" s="29"/>
+      <c r="G174" s="29"/>
+      <c r="H174" s="29"/>
+      <c r="I174" s="29"/>
+      <c r="J174" s="29"/>
+      <c r="K174" s="29"/>
+    </row>
+    <row r="175" spans="1:12">
+      <c r="A175" s="66" t="s">
+        <v>650</v>
+      </c>
+      <c r="E175" s="57" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F175" s="57"/>
+      <c r="G175" s="57"/>
+      <c r="H175" s="57"/>
+      <c r="I175" s="57"/>
+      <c r="J175" s="29"/>
+      <c r="K175" s="29"/>
+    </row>
+    <row r="176" spans="1:12">
+      <c r="A176" s="69" t="s">
+        <v>671</v>
+      </c>
+      <c r="D176" s="29"/>
+      <c r="E176" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="F176" s="29"/>
+      <c r="G176" s="29"/>
+      <c r="H176" s="29"/>
+      <c r="I176" s="29"/>
+      <c r="J176" s="29"/>
+      <c r="K176" s="29"/>
+    </row>
+    <row r="177" spans="1:18" s="37" customFormat="1">
+      <c r="A177" s="46"/>
+      <c r="B177" s="36"/>
+      <c r="D177" s="40"/>
+      <c r="E177" s="40" t="s">
         <v>465</v>
       </c>
-      <c r="F174" s="40"/>
-      <c r="G174" s="40"/>
-      <c r="H174" s="40"/>
-      <c r="I174" s="40"/>
-      <c r="J174" s="40"/>
-      <c r="K174" s="40"/>
-    </row>
-    <row r="175" spans="1:12" s="37" customFormat="1">
-      <c r="A175" s="46"/>
-      <c r="B175" s="36"/>
-      <c r="D175" s="40"/>
-      <c r="E175" s="40"/>
-      <c r="F175" s="40"/>
-      <c r="G175" s="40"/>
-      <c r="H175" s="40"/>
-      <c r="I175" s="40"/>
-      <c r="J175" s="40"/>
-      <c r="K175" s="40"/>
-    </row>
-    <row r="176" spans="1:12">
-      <c r="D176" s="29"/>
-      <c r="E176" s="58" t="s">
-        <v>1006</v>
-      </c>
-      <c r="F176" s="58"/>
-      <c r="G176" s="58"/>
-      <c r="H176" s="58"/>
-      <c r="I176" s="58"/>
-      <c r="J176" s="58"/>
-      <c r="K176" s="29"/>
-    </row>
-    <row r="177" spans="1:18">
-      <c r="D177" s="29"/>
-      <c r="E177" s="29" t="s">
-        <v>353</v>
-      </c>
-      <c r="F177" s="29"/>
-      <c r="G177" s="29"/>
-      <c r="H177" s="29"/>
-      <c r="I177" s="29"/>
-      <c r="J177" s="29"/>
-    </row>
-    <row r="178" spans="1:18">
-      <c r="D178" s="29"/>
-      <c r="E178" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="F178" s="29"/>
-      <c r="G178" s="29"/>
-      <c r="H178" s="29"/>
-      <c r="I178" s="29"/>
-      <c r="J178" s="29"/>
+      <c r="F177" s="40"/>
+      <c r="G177" s="40"/>
+      <c r="H177" s="40"/>
+      <c r="I177" s="40"/>
+      <c r="J177" s="40"/>
+      <c r="K177" s="40"/>
+    </row>
+    <row r="178" spans="1:18" s="37" customFormat="1">
+      <c r="A178" s="46"/>
+      <c r="B178" s="36"/>
+      <c r="D178" s="40"/>
+      <c r="E178" s="40"/>
+      <c r="F178" s="40"/>
+      <c r="G178" s="40"/>
+      <c r="H178" s="40"/>
+      <c r="I178" s="40"/>
+      <c r="J178" s="40"/>
+      <c r="K178" s="40"/>
     </row>
     <row r="179" spans="1:18">
       <c r="D179" s="29"/>
-      <c r="E179" s="29"/>
-      <c r="F179" s="29"/>
-      <c r="G179" s="29"/>
-      <c r="H179" s="29"/>
-      <c r="I179" s="29"/>
-      <c r="J179" s="29"/>
-    </row>
-    <row r="180" spans="1:18" s="37" customFormat="1">
-      <c r="A180" s="46"/>
-      <c r="B180" s="36"/>
-      <c r="D180" s="40"/>
-      <c r="E180" s="40" t="s">
-        <v>464</v>
-      </c>
-      <c r="F180" s="40"/>
-      <c r="G180" s="40"/>
-      <c r="H180" s="40"/>
-      <c r="I180" s="40"/>
-      <c r="J180" s="40"/>
-    </row>
-    <row r="181" spans="1:18" s="37" customFormat="1">
-      <c r="A181" s="46"/>
-      <c r="B181" s="36"/>
-      <c r="D181" s="40"/>
-      <c r="E181" s="40"/>
-      <c r="F181" s="58" t="s">
-        <v>615</v>
-      </c>
-      <c r="G181" s="58"/>
-      <c r="H181" s="58"/>
-      <c r="I181" s="58"/>
-      <c r="J181" s="58"/>
-      <c r="K181" s="60"/>
-      <c r="L181" s="60"/>
-      <c r="M181" s="60"/>
-      <c r="N181" s="60"/>
-      <c r="O181" s="60"/>
-      <c r="P181" s="60"/>
-    </row>
-    <row r="182" spans="1:18" s="37" customFormat="1">
-      <c r="A182" s="46" t="s">
-        <v>663</v>
-      </c>
-      <c r="B182" s="36"/>
-      <c r="D182" s="40"/>
-      <c r="E182" s="40"/>
-      <c r="F182" s="58" t="s">
-        <v>616</v>
-      </c>
-      <c r="G182" s="58"/>
-      <c r="H182" s="58"/>
-      <c r="I182" s="58"/>
-      <c r="J182" s="58"/>
-      <c r="K182" s="60"/>
-      <c r="L182" s="60"/>
-      <c r="M182" s="60"/>
-      <c r="N182" s="60"/>
-      <c r="O182" s="60"/>
-      <c r="P182" s="60"/>
+      <c r="E179" s="58" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F179" s="58"/>
+      <c r="G179" s="58"/>
+      <c r="H179" s="58"/>
+      <c r="I179" s="58"/>
+      <c r="J179" s="58"/>
+      <c r="K179" s="29"/>
+    </row>
+    <row r="180" spans="1:18">
+      <c r="D180" s="29"/>
+      <c r="E180" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="F180" s="29"/>
+      <c r="G180" s="29"/>
+      <c r="H180" s="29"/>
+      <c r="I180" s="29"/>
+      <c r="J180" s="29"/>
+    </row>
+    <row r="181" spans="1:18">
+      <c r="D181" s="29"/>
+      <c r="E181" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="F181" s="29"/>
+      <c r="G181" s="29"/>
+      <c r="H181" s="29"/>
+      <c r="I181" s="29"/>
+      <c r="J181" s="29"/>
+    </row>
+    <row r="182" spans="1:18">
+      <c r="D182" s="29"/>
+      <c r="E182" s="29"/>
+      <c r="F182" s="29"/>
+      <c r="G182" s="29"/>
+      <c r="H182" s="29"/>
+      <c r="I182" s="29"/>
+      <c r="J182" s="29"/>
     </row>
     <row r="183" spans="1:18" s="37" customFormat="1">
-      <c r="A183" s="69" t="s">
-        <v>672</v>
-      </c>
+      <c r="A183" s="46"/>
       <c r="B183" s="36"/>
       <c r="D183" s="40"/>
-      <c r="E183" s="40"/>
+      <c r="E183" s="40" t="s">
+        <v>464</v>
+      </c>
       <c r="F183" s="40"/>
-      <c r="G183" s="57" t="s">
-        <v>723</v>
-      </c>
-      <c r="H183" s="57"/>
-      <c r="I183" s="57"/>
-      <c r="J183" s="57"/>
-      <c r="K183" s="27"/>
-      <c r="L183" s="27"/>
-      <c r="M183" s="27"/>
-      <c r="N183" s="27"/>
-      <c r="O183" s="27"/>
-      <c r="P183" s="27"/>
-      <c r="Q183" s="27"/>
-      <c r="R183" s="27"/>
+      <c r="G183" s="40"/>
+      <c r="H183" s="40"/>
+      <c r="I183" s="40"/>
+      <c r="J183" s="40"/>
     </row>
     <row r="184" spans="1:18" s="37" customFormat="1">
       <c r="A184" s="46"/>
       <c r="B184" s="36"/>
       <c r="D184" s="40"/>
       <c r="E184" s="40"/>
-      <c r="F184" s="40"/>
-      <c r="G184" s="40"/>
-      <c r="H184" s="40"/>
-      <c r="I184" s="40"/>
-      <c r="J184" s="40"/>
-    </row>
-    <row r="185" spans="1:18">
-      <c r="B185" s="61"/>
-      <c r="C185" s="60"/>
-    </row>
-    <row r="186" spans="1:18">
-      <c r="B186" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="C186" s="60"/>
-    </row>
-    <row r="187" spans="1:18">
-      <c r="A187" s="46" t="s">
-        <v>664</v>
-      </c>
-      <c r="B187" s="61"/>
-      <c r="C187" s="60" t="s">
-        <v>54</v>
-      </c>
+      <c r="F184" s="58" t="s">
+        <v>615</v>
+      </c>
+      <c r="G184" s="58"/>
+      <c r="H184" s="58"/>
+      <c r="I184" s="58"/>
+      <c r="J184" s="58"/>
+      <c r="K184" s="60"/>
+      <c r="L184" s="60"/>
+      <c r="M184" s="60"/>
+      <c r="N184" s="60"/>
+      <c r="O184" s="60"/>
+      <c r="P184" s="60"/>
+    </row>
+    <row r="185" spans="1:18" s="37" customFormat="1">
+      <c r="A185" s="46" t="s">
+        <v>663</v>
+      </c>
+      <c r="B185" s="36"/>
+      <c r="D185" s="40"/>
+      <c r="E185" s="40"/>
+      <c r="F185" s="58" t="s">
+        <v>616</v>
+      </c>
+      <c r="G185" s="58"/>
+      <c r="H185" s="58"/>
+      <c r="I185" s="58"/>
+      <c r="J185" s="58"/>
+      <c r="K185" s="60"/>
+      <c r="L185" s="60"/>
+      <c r="M185" s="60"/>
+      <c r="N185" s="60"/>
+      <c r="O185" s="60"/>
+      <c r="P185" s="60"/>
+    </row>
+    <row r="186" spans="1:18" s="37" customFormat="1">
+      <c r="A186" s="69" t="s">
+        <v>672</v>
+      </c>
+      <c r="B186" s="36"/>
+      <c r="D186" s="40"/>
+      <c r="E186" s="40"/>
+      <c r="F186" s="40"/>
+      <c r="G186" s="57" t="s">
+        <v>723</v>
+      </c>
+      <c r="H186" s="57"/>
+      <c r="I186" s="57"/>
+      <c r="J186" s="57"/>
+      <c r="K186" s="27"/>
+      <c r="L186" s="27"/>
+      <c r="M186" s="27"/>
+      <c r="N186" s="27"/>
+      <c r="O186" s="27"/>
+      <c r="P186" s="27"/>
+      <c r="Q186" s="27"/>
+      <c r="R186" s="27"/>
+    </row>
+    <row r="187" spans="1:18" s="37" customFormat="1">
+      <c r="A187" s="46"/>
+      <c r="B187" s="36"/>
+      <c r="D187" s="40"/>
+      <c r="E187" s="40"/>
+      <c r="F187" s="40"/>
+      <c r="G187" s="40"/>
+      <c r="H187" s="40"/>
+      <c r="I187" s="40"/>
+      <c r="J187" s="40"/>
     </row>
     <row r="188" spans="1:18">
-      <c r="A188" s="69" t="s">
-        <v>673</v>
-      </c>
       <c r="B188" s="61"/>
       <c r="C188" s="60"/>
     </row>
     <row r="189" spans="1:18">
-      <c r="A189" s="66" t="s">
+      <c r="B189" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C189" s="60"/>
+    </row>
+    <row r="190" spans="1:18">
+      <c r="A190" s="46" t="s">
+        <v>664</v>
+      </c>
+      <c r="B190" s="61"/>
+      <c r="C190" s="60" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="191" spans="1:18">
+      <c r="A191" s="69" t="s">
+        <v>673</v>
+      </c>
+      <c r="B191" s="61"/>
+      <c r="C191" s="60"/>
+    </row>
+    <row r="192" spans="1:18">
+      <c r="A192" s="66" t="s">
         <v>651</v>
       </c>
-      <c r="B189" s="61"/>
-      <c r="C189" s="60"/>
-    </row>
-    <row r="190" spans="1:18">
-      <c r="B190" s="61"/>
-      <c r="C190" s="60"/>
-    </row>
-    <row r="198" spans="2:11" s="46" customFormat="1">
-      <c r="B198" s="36"/>
-    </row>
-    <row r="199" spans="2:11" s="46" customFormat="1">
-      <c r="B199" s="36"/>
-    </row>
-    <row r="200" spans="2:11" s="46" customFormat="1">
-      <c r="B200" s="36"/>
-    </row>
-    <row r="201" spans="2:11" s="46" customFormat="1">
+      <c r="B192" s="61"/>
+      <c r="C192" s="60"/>
+    </row>
+    <row r="193" spans="2:3">
+      <c r="B193" s="61"/>
+      <c r="C193" s="60"/>
+    </row>
+    <row r="201" spans="2:3" s="46" customFormat="1">
       <c r="B201" s="36"/>
     </row>
-    <row r="202" spans="2:11" s="46" customFormat="1">
+    <row r="202" spans="2:3" s="46" customFormat="1">
       <c r="B202" s="36"/>
     </row>
-    <row r="203" spans="2:11" s="46" customFormat="1">
+    <row r="203" spans="2:3" s="46" customFormat="1">
       <c r="B203" s="36"/>
     </row>
-    <row r="204" spans="2:11" s="46" customFormat="1">
+    <row r="204" spans="2:3" s="46" customFormat="1">
       <c r="B204" s="36"/>
     </row>
-    <row r="205" spans="2:11" s="46" customFormat="1">
+    <row r="205" spans="2:3" s="46" customFormat="1">
       <c r="B205" s="36"/>
     </row>
-    <row r="207" spans="2:11">
-      <c r="C207" s="29"/>
-      <c r="D207" s="29" t="s">
-        <v>354</v>
-      </c>
-      <c r="E207" s="29"/>
-      <c r="F207" s="29"/>
-      <c r="G207" s="29"/>
-      <c r="H207" s="29"/>
-      <c r="I207" s="29"/>
-      <c r="J207" s="29"/>
-      <c r="K207" s="29"/>
-    </row>
-    <row r="208" spans="2:11">
-      <c r="C208" s="29"/>
-      <c r="D208" s="29"/>
-      <c r="E208" s="29" t="s">
-        <v>355</v>
-      </c>
-      <c r="F208" s="29"/>
-      <c r="G208" s="29"/>
-      <c r="H208" s="29"/>
-      <c r="I208" s="29"/>
-      <c r="J208" s="29"/>
-      <c r="K208" s="29"/>
-    </row>
-    <row r="209" spans="2:11">
-      <c r="C209" s="29"/>
-      <c r="D209" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="E209" s="29"/>
-      <c r="F209" s="29"/>
-      <c r="G209" s="29"/>
-      <c r="H209" s="29"/>
-      <c r="I209" s="29"/>
-      <c r="J209" s="29"/>
-      <c r="K209" s="29"/>
+    <row r="206" spans="2:3" s="46" customFormat="1">
+      <c r="B206" s="36"/>
+    </row>
+    <row r="207" spans="2:3" s="46" customFormat="1">
+      <c r="B207" s="36"/>
+    </row>
+    <row r="208" spans="2:3" s="46" customFormat="1">
+      <c r="B208" s="36"/>
     </row>
     <row r="210" spans="2:11">
       <c r="C210" s="29"/>
-      <c r="D210" s="29"/>
-      <c r="E210" s="29" t="s">
-        <v>357</v>
-      </c>
+      <c r="D210" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="E210" s="29"/>
       <c r="F210" s="29"/>
       <c r="G210" s="29"/>
       <c r="H210" s="29"/>
@@ -13271,10 +13553,10 @@
     </row>
     <row r="211" spans="2:11">
       <c r="C211" s="29"/>
-      <c r="D211" s="29" t="s">
-        <v>319</v>
-      </c>
-      <c r="E211" s="29"/>
+      <c r="D211" s="29"/>
+      <c r="E211" s="29" t="s">
+        <v>355</v>
+      </c>
       <c r="F211" s="29"/>
       <c r="G211" s="29"/>
       <c r="H211" s="29"/>
@@ -13284,13 +13566,11 @@
     </row>
     <row r="212" spans="2:11">
       <c r="C212" s="29"/>
-      <c r="D212" s="29"/>
-      <c r="E212" s="29" t="s">
-        <v>382</v>
-      </c>
-      <c r="F212" s="29" t="s">
-        <v>383</v>
-      </c>
+      <c r="D212" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="E212" s="29"/>
+      <c r="F212" s="29"/>
       <c r="G212" s="29"/>
       <c r="H212" s="29"/>
       <c r="I212" s="29"/>
@@ -13301,11 +13581,9 @@
       <c r="C213" s="29"/>
       <c r="D213" s="29"/>
       <c r="E213" s="29" t="s">
-        <v>386</v>
-      </c>
-      <c r="F213" s="29" t="s">
-        <v>384</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="F213" s="29"/>
       <c r="G213" s="29"/>
       <c r="H213" s="29"/>
       <c r="I213" s="29"/>
@@ -13314,7 +13592,9 @@
     </row>
     <row r="214" spans="2:11">
       <c r="C214" s="29"/>
-      <c r="D214" s="29"/>
+      <c r="D214" s="29" t="s">
+        <v>319</v>
+      </c>
       <c r="E214" s="29"/>
       <c r="F214" s="29"/>
       <c r="G214" s="29"/>
@@ -13325,11 +13605,13 @@
     </row>
     <row r="215" spans="2:11">
       <c r="C215" s="29"/>
-      <c r="D215" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="E215" s="40"/>
-      <c r="F215" s="40"/>
+      <c r="D215" s="29"/>
+      <c r="E215" s="29" t="s">
+        <v>382</v>
+      </c>
+      <c r="F215" s="29" t="s">
+        <v>383</v>
+      </c>
       <c r="G215" s="29"/>
       <c r="H215" s="29"/>
       <c r="I215" s="29"/>
@@ -13339,10 +13621,12 @@
     <row r="216" spans="2:11">
       <c r="C216" s="29"/>
       <c r="D216" s="29"/>
-      <c r="E216" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="F216" s="40"/>
+      <c r="E216" s="29" t="s">
+        <v>386</v>
+      </c>
+      <c r="F216" s="29" t="s">
+        <v>384</v>
+      </c>
       <c r="G216" s="29"/>
       <c r="H216" s="29"/>
       <c r="I216" s="29"/>
@@ -13352,10 +13636,8 @@
     <row r="217" spans="2:11">
       <c r="C217" s="29"/>
       <c r="D217" s="29"/>
-      <c r="E217" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="F217" s="40"/>
+      <c r="E217" s="29"/>
+      <c r="F217" s="29"/>
       <c r="G217" s="29"/>
       <c r="H217" s="29"/>
       <c r="I217" s="29"/>
@@ -13364,37 +13646,36 @@
     </row>
     <row r="218" spans="2:11">
       <c r="C218" s="29"/>
-      <c r="D218" s="29"/>
+      <c r="D218" s="29" t="s">
+        <v>55</v>
+      </c>
       <c r="E218" s="40"/>
-      <c r="F218" s="40" t="s">
-        <v>562</v>
-      </c>
+      <c r="F218" s="40"/>
       <c r="G218" s="29"/>
       <c r="H218" s="29"/>
       <c r="I218" s="29"/>
       <c r="J218" s="29"/>
       <c r="K218" s="29"/>
     </row>
-    <row r="219" spans="2:11" s="46" customFormat="1">
-      <c r="B219" s="36"/>
-      <c r="C219" s="40"/>
-      <c r="D219" s="40"/>
-      <c r="E219" s="40"/>
-      <c r="F219" s="40" t="s">
-        <v>563</v>
-      </c>
-      <c r="G219" s="40"/>
-      <c r="H219" s="40"/>
-      <c r="I219" s="40"/>
-      <c r="J219" s="40"/>
-      <c r="K219" s="40"/>
+    <row r="219" spans="2:11">
+      <c r="C219" s="29"/>
+      <c r="D219" s="29"/>
+      <c r="E219" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="F219" s="40"/>
+      <c r="G219" s="29"/>
+      <c r="H219" s="29"/>
+      <c r="I219" s="29"/>
+      <c r="J219" s="29"/>
+      <c r="K219" s="29"/>
     </row>
     <row r="220" spans="2:11">
       <c r="C220" s="29"/>
-      <c r="D220" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E220" s="40"/>
+      <c r="D220" s="29"/>
+      <c r="E220" s="40" t="s">
+        <v>57</v>
+      </c>
       <c r="F220" s="40"/>
       <c r="G220" s="29"/>
       <c r="H220" s="29"/>
@@ -13405,36 +13686,37 @@
     <row r="221" spans="2:11">
       <c r="C221" s="29"/>
       <c r="D221" s="29"/>
-      <c r="E221" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="F221" s="40"/>
+      <c r="E221" s="40"/>
+      <c r="F221" s="40" t="s">
+        <v>562</v>
+      </c>
       <c r="G221" s="29"/>
       <c r="H221" s="29"/>
       <c r="I221" s="29"/>
       <c r="J221" s="29"/>
       <c r="K221" s="29"/>
     </row>
-    <row r="222" spans="2:11">
-      <c r="C222" s="29"/>
-      <c r="D222" s="29"/>
-      <c r="E222" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="F222" s="29"/>
-      <c r="G222" s="29"/>
-      <c r="H222" s="29"/>
-      <c r="I222" s="29"/>
-      <c r="J222" s="29"/>
-      <c r="K222" s="29"/>
+    <row r="222" spans="2:11" s="46" customFormat="1">
+      <c r="B222" s="36"/>
+      <c r="C222" s="40"/>
+      <c r="D222" s="40"/>
+      <c r="E222" s="40"/>
+      <c r="F222" s="40" t="s">
+        <v>563</v>
+      </c>
+      <c r="G222" s="40"/>
+      <c r="H222" s="40"/>
+      <c r="I222" s="40"/>
+      <c r="J222" s="40"/>
+      <c r="K222" s="40"/>
     </row>
     <row r="223" spans="2:11">
       <c r="C223" s="29"/>
-      <c r="D223" s="29"/>
-      <c r="E223" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="F223" s="29"/>
+      <c r="D223" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E223" s="40"/>
+      <c r="F223" s="40"/>
       <c r="G223" s="29"/>
       <c r="H223" s="29"/>
       <c r="I223" s="29"/>
@@ -13444,10 +13726,10 @@
     <row r="224" spans="2:11">
       <c r="C224" s="29"/>
       <c r="D224" s="29"/>
-      <c r="E224" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="F224" s="29"/>
+      <c r="E224" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="F224" s="40"/>
       <c r="G224" s="29"/>
       <c r="H224" s="29"/>
       <c r="I224" s="29"/>
@@ -13458,7 +13740,7 @@
       <c r="C225" s="29"/>
       <c r="D225" s="29"/>
       <c r="E225" s="29" t="s">
-        <v>393</v>
+        <v>60</v>
       </c>
       <c r="F225" s="29"/>
       <c r="G225" s="29"/>
@@ -13469,10 +13751,10 @@
     </row>
     <row r="226" spans="2:12">
       <c r="C226" s="29"/>
-      <c r="D226" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="E226" s="29"/>
+      <c r="D226" s="29"/>
+      <c r="E226" s="29" t="s">
+        <v>38</v>
+      </c>
       <c r="F226" s="29"/>
       <c r="G226" s="29"/>
       <c r="H226" s="29"/>
@@ -13481,11 +13763,10 @@
       <c r="K226" s="29"/>
     </row>
     <row r="227" spans="2:12">
-      <c r="B227" s="30"/>
       <c r="C227" s="29"/>
       <c r="D227" s="29"/>
       <c r="E227" s="29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F227" s="29"/>
       <c r="G227" s="29"/>
@@ -13493,14 +13774,12 @@
       <c r="I227" s="29"/>
       <c r="J227" s="29"/>
       <c r="K227" s="29"/>
-      <c r="L227" s="29"/>
     </row>
     <row r="228" spans="2:12">
-      <c r="B228" s="30"/>
       <c r="C228" s="29"/>
       <c r="D228" s="29"/>
       <c r="E228" s="29" t="s">
-        <v>64</v>
+        <v>393</v>
       </c>
       <c r="F228" s="29"/>
       <c r="G228" s="29"/>
@@ -13508,13 +13787,11 @@
       <c r="I228" s="29"/>
       <c r="J228" s="29"/>
       <c r="K228" s="29"/>
-      <c r="L228" s="29"/>
     </row>
     <row r="229" spans="2:12">
-      <c r="B229" s="30"/>
       <c r="C229" s="29"/>
       <c r="D229" s="29" t="s">
-        <v>396</v>
+        <v>62</v>
       </c>
       <c r="E229" s="29"/>
       <c r="F229" s="29"/>
@@ -13523,21 +13800,18 @@
       <c r="I229" s="29"/>
       <c r="J229" s="29"/>
       <c r="K229" s="29"/>
-      <c r="L229" s="29"/>
     </row>
     <row r="230" spans="2:12">
       <c r="B230" s="30"/>
       <c r="C230" s="29"/>
       <c r="D230" s="29"/>
       <c r="E230" s="29" t="s">
-        <v>307</v>
+        <v>63</v>
       </c>
       <c r="F230" s="29"/>
       <c r="G230" s="29"/>
       <c r="H230" s="29"/>
-      <c r="I230" s="29" t="s">
-        <v>312</v>
-      </c>
+      <c r="I230" s="29"/>
       <c r="J230" s="29"/>
       <c r="K230" s="29"/>
       <c r="L230" s="29"/>
@@ -13546,32 +13820,28 @@
       <c r="B231" s="30"/>
       <c r="C231" s="29"/>
       <c r="D231" s="29"/>
-      <c r="E231" s="29"/>
-      <c r="F231" s="29" t="s">
-        <v>308</v>
-      </c>
+      <c r="E231" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="F231" s="29"/>
       <c r="G231" s="29"/>
       <c r="H231" s="29"/>
       <c r="I231" s="29"/>
-      <c r="J231" s="29" t="s">
-        <v>360</v>
-      </c>
+      <c r="J231" s="29"/>
       <c r="K231" s="29"/>
       <c r="L231" s="29"/>
     </row>
     <row r="232" spans="2:12">
       <c r="B232" s="30"/>
       <c r="C232" s="29"/>
-      <c r="D232" s="29"/>
-      <c r="E232" s="29" t="s">
-        <v>309</v>
-      </c>
+      <c r="D232" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="E232" s="29"/>
       <c r="F232" s="29"/>
       <c r="G232" s="29"/>
       <c r="H232" s="29"/>
-      <c r="I232" s="29" t="s">
-        <v>314</v>
-      </c>
+      <c r="I232" s="29"/>
       <c r="J232" s="29"/>
       <c r="K232" s="29"/>
       <c r="L232" s="29"/>
@@ -13580,16 +13850,16 @@
       <c r="B233" s="30"/>
       <c r="C233" s="29"/>
       <c r="D233" s="29"/>
-      <c r="E233" s="29"/>
-      <c r="F233" s="29" t="s">
-        <v>359</v>
-      </c>
+      <c r="E233" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="F233" s="29"/>
       <c r="G233" s="29"/>
       <c r="H233" s="29"/>
-      <c r="I233" s="29"/>
-      <c r="J233" s="29" t="s">
-        <v>315</v>
-      </c>
+      <c r="I233" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="J233" s="29"/>
       <c r="K233" s="29"/>
       <c r="L233" s="29"/>
     </row>
@@ -13597,16 +13867,16 @@
       <c r="B234" s="30"/>
       <c r="C234" s="29"/>
       <c r="D234" s="29"/>
-      <c r="E234" s="29" t="s">
-        <v>310</v>
-      </c>
-      <c r="F234" s="29"/>
+      <c r="E234" s="29"/>
+      <c r="F234" s="29" t="s">
+        <v>308</v>
+      </c>
       <c r="G234" s="29"/>
       <c r="H234" s="29"/>
-      <c r="I234" s="29" t="s">
-        <v>316</v>
-      </c>
-      <c r="J234" s="29"/>
+      <c r="I234" s="29"/>
+      <c r="J234" s="29" t="s">
+        <v>360</v>
+      </c>
       <c r="K234" s="29"/>
       <c r="L234" s="29"/>
     </row>
@@ -13614,16 +13884,16 @@
       <c r="B235" s="30"/>
       <c r="C235" s="29"/>
       <c r="D235" s="29"/>
-      <c r="E235" s="29"/>
-      <c r="F235" s="29" t="s">
-        <v>311</v>
-      </c>
+      <c r="E235" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="F235" s="29"/>
       <c r="G235" s="29"/>
       <c r="H235" s="29"/>
-      <c r="I235" s="29"/>
-      <c r="J235" s="29" t="s">
-        <v>317</v>
-      </c>
+      <c r="I235" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="J235" s="29"/>
       <c r="K235" s="29"/>
       <c r="L235" s="29"/>
     </row>
@@ -13631,15 +13901,15 @@
       <c r="B236" s="30"/>
       <c r="C236" s="29"/>
       <c r="D236" s="29"/>
-      <c r="E236" s="29" t="s">
-        <v>319</v>
-      </c>
-      <c r="F236" s="29"/>
+      <c r="E236" s="29"/>
+      <c r="F236" s="29" t="s">
+        <v>359</v>
+      </c>
       <c r="G236" s="29"/>
       <c r="H236" s="29"/>
       <c r="I236" s="29"/>
       <c r="J236" s="29" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K236" s="29"/>
       <c r="L236" s="29"/>
@@ -13648,13 +13918,15 @@
       <c r="B237" s="30"/>
       <c r="C237" s="29"/>
       <c r="D237" s="29"/>
-      <c r="E237" s="29"/>
-      <c r="F237" s="29" t="s">
-        <v>313</v>
-      </c>
+      <c r="E237" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="F237" s="29"/>
       <c r="G237" s="29"/>
       <c r="H237" s="29"/>
-      <c r="I237" s="29"/>
+      <c r="I237" s="29" t="s">
+        <v>316</v>
+      </c>
       <c r="J237" s="29"/>
       <c r="K237" s="29"/>
       <c r="L237" s="29"/>
@@ -13663,14 +13935,16 @@
       <c r="B238" s="30"/>
       <c r="C238" s="29"/>
       <c r="D238" s="29"/>
-      <c r="E238" s="29" t="s">
-        <v>320</v>
-      </c>
-      <c r="F238" s="29"/>
+      <c r="E238" s="29"/>
+      <c r="F238" s="29" t="s">
+        <v>311</v>
+      </c>
       <c r="G238" s="29"/>
       <c r="H238" s="29"/>
       <c r="I238" s="29"/>
-      <c r="J238" s="29"/>
+      <c r="J238" s="29" t="s">
+        <v>317</v>
+      </c>
       <c r="K238" s="29"/>
       <c r="L238" s="29"/>
     </row>
@@ -13678,14 +13952,16 @@
       <c r="B239" s="30"/>
       <c r="C239" s="29"/>
       <c r="D239" s="29"/>
-      <c r="E239" s="29"/>
-      <c r="F239" s="29" t="s">
-        <v>358</v>
-      </c>
+      <c r="E239" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="F239" s="29"/>
       <c r="G239" s="29"/>
       <c r="H239" s="29"/>
       <c r="I239" s="29"/>
-      <c r="J239" s="29"/>
+      <c r="J239" s="29" t="s">
+        <v>318</v>
+      </c>
       <c r="K239" s="29"/>
       <c r="L239" s="29"/>
     </row>
@@ -13694,7 +13970,9 @@
       <c r="C240" s="29"/>
       <c r="D240" s="29"/>
       <c r="E240" s="29"/>
-      <c r="F240" s="29"/>
+      <c r="F240" s="29" t="s">
+        <v>313</v>
+      </c>
       <c r="G240" s="29"/>
       <c r="H240" s="29"/>
       <c r="I240" s="29"/>
@@ -13703,15 +13981,12 @@
       <c r="L240" s="29"/>
     </row>
     <row r="241" spans="1:13">
-      <c r="A241" s="69" t="s">
-        <v>674</v>
-      </c>
-      <c r="B241" s="30" t="s">
-        <v>217</v>
-      </c>
+      <c r="B241" s="30"/>
       <c r="C241" s="29"/>
       <c r="D241" s="29"/>
-      <c r="E241" s="29"/>
+      <c r="E241" s="29" t="s">
+        <v>320</v>
+      </c>
       <c r="F241" s="29"/>
       <c r="G241" s="29"/>
       <c r="H241" s="29"/>
@@ -13720,276 +13995,269 @@
       <c r="K241" s="29"/>
       <c r="L241" s="29"/>
     </row>
-    <row r="242" spans="1:13" s="46" customFormat="1">
-      <c r="A242" s="66" t="s">
-        <v>652</v>
-      </c>
-      <c r="B242" s="41"/>
-      <c r="C242" s="58" t="s">
-        <v>642</v>
-      </c>
-      <c r="D242" s="58"/>
-      <c r="E242" s="58"/>
-      <c r="F242" s="58"/>
-      <c r="G242" s="58"/>
-      <c r="H242" s="58"/>
-      <c r="I242" s="58"/>
-      <c r="J242" s="58"/>
-      <c r="K242" s="58"/>
-      <c r="L242" s="58"/>
-      <c r="M242" s="60"/>
-    </row>
-    <row r="243" spans="1:13" s="46" customFormat="1">
-      <c r="A243" s="66" t="s">
-        <v>665</v>
-      </c>
-      <c r="B243" s="41"/>
-      <c r="C243" s="58"/>
-      <c r="D243" s="58" t="s">
-        <v>643</v>
-      </c>
-      <c r="E243" s="58"/>
-      <c r="F243" s="58"/>
-      <c r="G243" s="58"/>
-      <c r="H243" s="58"/>
-      <c r="I243" s="58"/>
-      <c r="J243" s="58"/>
-      <c r="K243" s="58"/>
-      <c r="L243" s="58"/>
-      <c r="M243" s="60"/>
-    </row>
-    <row r="244" spans="1:13">
-      <c r="A244" s="69" t="s">
-        <v>675</v>
-      </c>
-      <c r="B244" s="30"/>
-      <c r="C244" s="40" t="s">
-        <v>361</v>
-      </c>
-      <c r="D244" s="29"/>
-      <c r="E244" s="29"/>
-      <c r="F244" s="29"/>
-      <c r="G244" s="29"/>
-      <c r="H244" s="29"/>
-      <c r="I244" s="29"/>
-      <c r="J244" s="29"/>
-      <c r="K244" s="29"/>
-      <c r="L244" s="29"/>
-    </row>
-    <row r="245" spans="1:13" s="37" customFormat="1">
-      <c r="A245" s="66" t="s">
-        <v>653</v>
-      </c>
-      <c r="B245" s="41"/>
-      <c r="C245" s="40" t="s">
-        <v>412</v>
-      </c>
-      <c r="D245" s="40"/>
-      <c r="E245" s="40"/>
-      <c r="F245" s="40"/>
-      <c r="G245" s="40"/>
-      <c r="H245" s="40"/>
+    <row r="242" spans="1:13">
+      <c r="B242" s="30"/>
+      <c r="C242" s="29"/>
+      <c r="D242" s="29"/>
+      <c r="E242" s="29"/>
+      <c r="F242" s="29" t="s">
+        <v>358</v>
+      </c>
+      <c r="G242" s="29"/>
+      <c r="H242" s="29"/>
+      <c r="I242" s="29"/>
+      <c r="J242" s="29"/>
+      <c r="K242" s="29"/>
+      <c r="L242" s="29"/>
+    </row>
+    <row r="243" spans="1:13">
+      <c r="B243" s="30"/>
+      <c r="C243" s="29"/>
+      <c r="D243" s="29"/>
+      <c r="E243" s="29"/>
+      <c r="F243" s="29"/>
+      <c r="G243" s="29"/>
+      <c r="H243" s="29"/>
+      <c r="I243" s="29"/>
+      <c r="J243" s="29"/>
+      <c r="K243" s="29"/>
+      <c r="L243" s="29"/>
+    </row>
+    <row r="244" spans="1:13" s="46" customFormat="1">
+      <c r="B244" s="108" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C244" s="57"/>
+      <c r="D244" s="57"/>
+      <c r="E244" s="57"/>
+      <c r="F244" s="57"/>
+      <c r="G244" s="57"/>
+      <c r="H244" s="57"/>
+      <c r="I244" s="40"/>
+      <c r="J244" s="40"/>
+      <c r="K244" s="40"/>
+      <c r="L244" s="40"/>
+    </row>
+    <row r="245" spans="1:13" s="46" customFormat="1">
+      <c r="B245" s="108"/>
+      <c r="C245" s="109" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D245" s="109"/>
+      <c r="E245" s="109"/>
+      <c r="F245" s="109"/>
+      <c r="G245" s="109"/>
+      <c r="H245" s="57"/>
       <c r="I245" s="40"/>
       <c r="J245" s="40"/>
       <c r="K245" s="40"/>
       <c r="L245" s="40"/>
     </row>
-    <row r="246" spans="1:13">
-      <c r="B246" s="30"/>
-      <c r="C246" s="40" t="s">
+    <row r="246" spans="1:13" s="46" customFormat="1">
+      <c r="B246" s="41"/>
+      <c r="C246" s="40"/>
+      <c r="D246" s="40"/>
+      <c r="E246" s="40"/>
+      <c r="F246" s="40"/>
+      <c r="G246" s="40"/>
+      <c r="H246" s="40"/>
+      <c r="I246" s="40"/>
+      <c r="J246" s="40"/>
+      <c r="K246" s="40"/>
+      <c r="L246" s="40"/>
+    </row>
+    <row r="247" spans="1:13">
+      <c r="A247" s="69" t="s">
+        <v>674</v>
+      </c>
+      <c r="B247" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="C247" s="29"/>
+      <c r="D247" s="29"/>
+      <c r="E247" s="29"/>
+      <c r="F247" s="29"/>
+      <c r="G247" s="29"/>
+      <c r="H247" s="29"/>
+      <c r="I247" s="29"/>
+      <c r="J247" s="29"/>
+      <c r="K247" s="29"/>
+      <c r="L247" s="29"/>
+    </row>
+    <row r="248" spans="1:13" s="46" customFormat="1">
+      <c r="A248" s="66" t="s">
+        <v>652</v>
+      </c>
+      <c r="B248" s="41"/>
+      <c r="C248" s="58" t="s">
+        <v>642</v>
+      </c>
+      <c r="D248" s="58"/>
+      <c r="E248" s="58"/>
+      <c r="F248" s="58"/>
+      <c r="G248" s="58"/>
+      <c r="H248" s="58"/>
+      <c r="I248" s="58"/>
+      <c r="J248" s="58"/>
+      <c r="K248" s="58"/>
+      <c r="L248" s="58"/>
+      <c r="M248" s="60"/>
+    </row>
+    <row r="249" spans="1:13" s="46" customFormat="1">
+      <c r="A249" s="66" t="s">
+        <v>665</v>
+      </c>
+      <c r="B249" s="41"/>
+      <c r="C249" s="58"/>
+      <c r="D249" s="58" t="s">
+        <v>643</v>
+      </c>
+      <c r="E249" s="58"/>
+      <c r="F249" s="58"/>
+      <c r="G249" s="58"/>
+      <c r="H249" s="58"/>
+      <c r="I249" s="58"/>
+      <c r="J249" s="58"/>
+      <c r="K249" s="58"/>
+      <c r="L249" s="58"/>
+      <c r="M249" s="60"/>
+    </row>
+    <row r="250" spans="1:13">
+      <c r="A250" s="69" t="s">
+        <v>675</v>
+      </c>
+      <c r="B250" s="30"/>
+      <c r="C250" s="40" t="s">
+        <v>361</v>
+      </c>
+      <c r="D250" s="29"/>
+      <c r="E250" s="29"/>
+      <c r="F250" s="29"/>
+      <c r="G250" s="29"/>
+      <c r="H250" s="29"/>
+      <c r="I250" s="29"/>
+      <c r="J250" s="29"/>
+      <c r="K250" s="29"/>
+      <c r="L250" s="29"/>
+    </row>
+    <row r="251" spans="1:13" s="37" customFormat="1">
+      <c r="A251" s="66" t="s">
+        <v>653</v>
+      </c>
+      <c r="B251" s="41"/>
+      <c r="C251" s="40" t="s">
+        <v>412</v>
+      </c>
+      <c r="D251" s="40"/>
+      <c r="E251" s="40"/>
+      <c r="F251" s="40"/>
+      <c r="G251" s="40"/>
+      <c r="H251" s="40"/>
+      <c r="I251" s="40"/>
+      <c r="J251" s="40"/>
+      <c r="K251" s="40"/>
+      <c r="L251" s="40"/>
+    </row>
+    <row r="252" spans="1:13">
+      <c r="B252" s="30"/>
+      <c r="C252" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="D246" s="29"/>
-      <c r="E246" s="29"/>
-      <c r="F246" s="29"/>
-      <c r="G246" s="29"/>
-      <c r="H246" s="29"/>
-      <c r="I246" s="29"/>
-      <c r="J246" s="29"/>
-      <c r="K246" s="29"/>
-      <c r="L246" s="29"/>
-    </row>
-    <row r="247" spans="1:13">
-      <c r="C247" s="1" t="s">
+      <c r="D252" s="29"/>
+      <c r="E252" s="29"/>
+      <c r="F252" s="29"/>
+      <c r="G252" s="29"/>
+      <c r="H252" s="29"/>
+      <c r="I252" s="29"/>
+      <c r="J252" s="29"/>
+      <c r="K252" s="29"/>
+      <c r="L252" s="29"/>
+    </row>
+    <row r="253" spans="1:13">
+      <c r="C253" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="248" spans="1:13">
-      <c r="D248" s="1" t="s">
+    <row r="254" spans="1:13">
+      <c r="D254" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="260" spans="3:4">
-      <c r="D260" s="1" t="s">
+    <row r="266" spans="4:4">
+      <c r="D266" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="272" spans="3:4">
-      <c r="C272" s="1" t="s">
+    <row r="278" spans="2:14">
+      <c r="C278" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="274" spans="1:14">
-      <c r="D274" s="1" t="s">
+    <row r="280" spans="2:14">
+      <c r="D280" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="275" spans="1:14">
-      <c r="E275" s="1" t="s">
+    <row r="281" spans="2:14">
+      <c r="E281" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="276" spans="1:14">
-      <c r="D276" s="29"/>
-      <c r="E276" s="29" t="s">
+    <row r="282" spans="2:14">
+      <c r="D282" s="29"/>
+      <c r="E282" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="F276" s="29"/>
-      <c r="G276" s="29"/>
-      <c r="H276" s="29"/>
-      <c r="I276" s="29"/>
-    </row>
-    <row r="277" spans="1:14">
-      <c r="D277" s="29"/>
-      <c r="E277" s="29" t="s">
+      <c r="F282" s="29"/>
+      <c r="G282" s="29"/>
+      <c r="H282" s="29"/>
+      <c r="I282" s="29"/>
+    </row>
+    <row r="283" spans="2:14">
+      <c r="D283" s="29"/>
+      <c r="E283" s="29" t="s">
         <v>362</v>
       </c>
-      <c r="F277" s="29"/>
-      <c r="G277" s="29"/>
-      <c r="H277" s="29"/>
-      <c r="I277" s="29"/>
-    </row>
-    <row r="278" spans="1:14">
-      <c r="D278" s="29"/>
-      <c r="E278" s="29"/>
-      <c r="F278" s="29" t="s">
+      <c r="F283" s="29"/>
+      <c r="G283" s="29"/>
+      <c r="H283" s="29"/>
+      <c r="I283" s="29"/>
+    </row>
+    <row r="284" spans="2:14">
+      <c r="D284" s="29"/>
+      <c r="E284" s="29"/>
+      <c r="F284" s="29" t="s">
         <v>363</v>
       </c>
-      <c r="G278" s="29"/>
-      <c r="H278" s="29"/>
-      <c r="I278" s="29"/>
-    </row>
-    <row r="279" spans="1:14">
-      <c r="D279" s="29"/>
-      <c r="E279" s="29"/>
-      <c r="F279" s="29" t="s">
+      <c r="G284" s="29"/>
+      <c r="H284" s="29"/>
+      <c r="I284" s="29"/>
+    </row>
+    <row r="285" spans="2:14">
+      <c r="D285" s="29"/>
+      <c r="E285" s="29"/>
+      <c r="F285" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="G279" s="29"/>
-      <c r="H279" s="29"/>
-      <c r="I279" s="29"/>
-    </row>
-    <row r="280" spans="1:14">
-      <c r="D280" s="29"/>
-      <c r="E280" s="29"/>
-      <c r="F280" s="29"/>
-      <c r="G280" s="29"/>
-      <c r="H280" s="29"/>
-      <c r="I280" s="29"/>
-    </row>
-    <row r="281" spans="1:14" s="46" customFormat="1">
-      <c r="B281" s="36"/>
-      <c r="D281" s="40"/>
-      <c r="E281" s="58" t="s">
-        <v>592</v>
-      </c>
-      <c r="F281" s="58"/>
-      <c r="G281" s="58"/>
-      <c r="H281" s="58"/>
-      <c r="I281" s="58"/>
-      <c r="J281" s="60"/>
-      <c r="K281" s="60"/>
-      <c r="L281" s="60"/>
-      <c r="M281" s="60"/>
-      <c r="N281" s="60"/>
-    </row>
-    <row r="282" spans="1:14" s="46" customFormat="1">
-      <c r="B282" s="36"/>
-      <c r="D282" s="40"/>
-      <c r="E282" s="58"/>
-      <c r="F282" s="58" t="s">
-        <v>593</v>
-      </c>
-      <c r="G282" s="58"/>
-      <c r="H282" s="58"/>
-      <c r="I282" s="58"/>
-      <c r="J282" s="60"/>
-      <c r="K282" s="60"/>
-      <c r="L282" s="60"/>
-      <c r="M282" s="60"/>
-      <c r="N282" s="60"/>
-    </row>
-    <row r="283" spans="1:14" s="46" customFormat="1">
-      <c r="B283" s="36"/>
-      <c r="D283" s="40"/>
-      <c r="E283" s="58"/>
-      <c r="F283" s="58" t="s">
-        <v>595</v>
-      </c>
-      <c r="G283" s="58"/>
-      <c r="H283" s="58"/>
-      <c r="I283" s="58"/>
-      <c r="J283" s="60"/>
-      <c r="K283" s="60"/>
-      <c r="L283" s="60"/>
-      <c r="M283" s="60"/>
-      <c r="N283" s="60"/>
-    </row>
-    <row r="284" spans="1:14" s="46" customFormat="1">
-      <c r="B284" s="36"/>
-      <c r="D284" s="40"/>
-      <c r="E284" s="58"/>
-      <c r="F284" s="58"/>
-      <c r="G284" s="58" t="s">
-        <v>594</v>
-      </c>
-      <c r="H284" s="58"/>
-      <c r="I284" s="58"/>
-      <c r="J284" s="60"/>
-      <c r="K284" s="60"/>
-      <c r="L284" s="60"/>
-      <c r="M284" s="60"/>
-      <c r="N284" s="60"/>
-    </row>
-    <row r="285" spans="1:14" s="46" customFormat="1">
-      <c r="B285" s="36"/>
-      <c r="D285" s="40"/>
-      <c r="E285" s="58"/>
-      <c r="F285" s="58" t="s">
-        <v>596</v>
-      </c>
-      <c r="G285" s="58"/>
-      <c r="H285" s="58"/>
-      <c r="I285" s="58"/>
-      <c r="J285" s="60"/>
-      <c r="K285" s="60"/>
-      <c r="L285" s="60"/>
-      <c r="M285" s="60"/>
-      <c r="N285" s="60"/>
-    </row>
-    <row r="286" spans="1:14" s="46" customFormat="1">
-      <c r="B286" s="36"/>
-      <c r="D286" s="40"/>
-      <c r="E286" s="58"/>
-      <c r="F286" s="58"/>
-      <c r="G286" s="58" t="s">
-        <v>597</v>
-      </c>
-      <c r="H286" s="58"/>
-      <c r="I286" s="58"/>
-      <c r="J286" s="60"/>
-      <c r="K286" s="60"/>
-      <c r="L286" s="60"/>
-      <c r="M286" s="60"/>
-      <c r="N286" s="60"/>
-    </row>
-    <row r="287" spans="1:14" s="46" customFormat="1">
+      <c r="G285" s="29"/>
+      <c r="H285" s="29"/>
+      <c r="I285" s="29"/>
+    </row>
+    <row r="286" spans="2:14">
+      <c r="D286" s="29"/>
+      <c r="E286" s="29"/>
+      <c r="F286" s="29"/>
+      <c r="G286" s="29"/>
+      <c r="H286" s="29"/>
+      <c r="I286" s="29"/>
+    </row>
+    <row r="287" spans="2:14" s="46" customFormat="1">
       <c r="B287" s="36"/>
       <c r="D287" s="40"/>
-      <c r="E287" s="58"/>
-      <c r="F287" s="58" t="s">
-        <v>598</v>
-      </c>
+      <c r="E287" s="58" t="s">
+        <v>592</v>
+      </c>
+      <c r="F287" s="58"/>
       <c r="G287" s="58"/>
       <c r="H287" s="58"/>
       <c r="I287" s="58"/>
@@ -13999,15 +14267,12 @@
       <c r="M287" s="60"/>
       <c r="N287" s="60"/>
     </row>
-    <row r="288" spans="1:14" s="46" customFormat="1">
-      <c r="A288" s="66" t="s">
-        <v>654</v>
-      </c>
+    <row r="288" spans="2:14" s="46" customFormat="1">
       <c r="B288" s="36"/>
       <c r="D288" s="40"/>
       <c r="E288" s="58"/>
       <c r="F288" s="58" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="G288" s="58"/>
       <c r="H288" s="58"/>
@@ -14018,177 +14283,188 @@
       <c r="M288" s="60"/>
       <c r="N288" s="60"/>
     </row>
-    <row r="289" spans="1:12" s="46" customFormat="1">
-      <c r="A289" s="69" t="s">
-        <v>676</v>
-      </c>
+    <row r="289" spans="1:14" s="46" customFormat="1">
       <c r="B289" s="36"/>
       <c r="D289" s="40"/>
-      <c r="E289" s="40"/>
-      <c r="F289" s="40"/>
-      <c r="G289" s="40"/>
-      <c r="H289" s="40"/>
-      <c r="I289" s="40"/>
-    </row>
-    <row r="290" spans="1:12">
-      <c r="D290" s="29" t="s">
+      <c r="E289" s="58"/>
+      <c r="F289" s="58" t="s">
+        <v>595</v>
+      </c>
+      <c r="G289" s="58"/>
+      <c r="H289" s="58"/>
+      <c r="I289" s="58"/>
+      <c r="J289" s="60"/>
+      <c r="K289" s="60"/>
+      <c r="L289" s="60"/>
+      <c r="M289" s="60"/>
+      <c r="N289" s="60"/>
+    </row>
+    <row r="290" spans="1:14" s="46" customFormat="1">
+      <c r="B290" s="36"/>
+      <c r="D290" s="40"/>
+      <c r="E290" s="58"/>
+      <c r="F290" s="58"/>
+      <c r="G290" s="58" t="s">
+        <v>594</v>
+      </c>
+      <c r="H290" s="58"/>
+      <c r="I290" s="58"/>
+      <c r="J290" s="60"/>
+      <c r="K290" s="60"/>
+      <c r="L290" s="60"/>
+      <c r="M290" s="60"/>
+      <c r="N290" s="60"/>
+    </row>
+    <row r="291" spans="1:14" s="46" customFormat="1">
+      <c r="B291" s="36"/>
+      <c r="D291" s="40"/>
+      <c r="E291" s="58"/>
+      <c r="F291" s="58" t="s">
+        <v>596</v>
+      </c>
+      <c r="G291" s="58"/>
+      <c r="H291" s="58"/>
+      <c r="I291" s="58"/>
+      <c r="J291" s="60"/>
+      <c r="K291" s="60"/>
+      <c r="L291" s="60"/>
+      <c r="M291" s="60"/>
+      <c r="N291" s="60"/>
+    </row>
+    <row r="292" spans="1:14" s="46" customFormat="1">
+      <c r="B292" s="36"/>
+      <c r="D292" s="40"/>
+      <c r="E292" s="58"/>
+      <c r="F292" s="58"/>
+      <c r="G292" s="58" t="s">
+        <v>597</v>
+      </c>
+      <c r="H292" s="58"/>
+      <c r="I292" s="58"/>
+      <c r="J292" s="60"/>
+      <c r="K292" s="60"/>
+      <c r="L292" s="60"/>
+      <c r="M292" s="60"/>
+      <c r="N292" s="60"/>
+    </row>
+    <row r="293" spans="1:14" s="46" customFormat="1">
+      <c r="B293" s="36"/>
+      <c r="D293" s="40"/>
+      <c r="E293" s="58"/>
+      <c r="F293" s="58" t="s">
+        <v>598</v>
+      </c>
+      <c r="G293" s="58"/>
+      <c r="H293" s="58"/>
+      <c r="I293" s="58"/>
+      <c r="J293" s="60"/>
+      <c r="K293" s="60"/>
+      <c r="L293" s="60"/>
+      <c r="M293" s="60"/>
+      <c r="N293" s="60"/>
+    </row>
+    <row r="294" spans="1:14" s="46" customFormat="1">
+      <c r="A294" s="66" t="s">
+        <v>654</v>
+      </c>
+      <c r="B294" s="36"/>
+      <c r="D294" s="40"/>
+      <c r="E294" s="58"/>
+      <c r="F294" s="58" t="s">
+        <v>599</v>
+      </c>
+      <c r="G294" s="58"/>
+      <c r="H294" s="58"/>
+      <c r="I294" s="58"/>
+      <c r="J294" s="60"/>
+      <c r="K294" s="60"/>
+      <c r="L294" s="60"/>
+      <c r="M294" s="60"/>
+      <c r="N294" s="60"/>
+    </row>
+    <row r="295" spans="1:14" s="46" customFormat="1">
+      <c r="A295" s="69" t="s">
+        <v>676</v>
+      </c>
+      <c r="B295" s="36"/>
+      <c r="D295" s="40"/>
+      <c r="E295" s="40"/>
+      <c r="F295" s="40"/>
+      <c r="G295" s="40"/>
+      <c r="H295" s="40"/>
+      <c r="I295" s="40"/>
+    </row>
+    <row r="296" spans="1:14">
+      <c r="D296" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="E290" s="29"/>
-      <c r="F290" s="29"/>
-      <c r="G290" s="29"/>
-      <c r="H290" s="29"/>
-      <c r="I290" s="29"/>
-    </row>
-    <row r="291" spans="1:12">
-      <c r="D291" s="29"/>
-      <c r="E291" s="29" t="s">
+      <c r="E296" s="29"/>
+      <c r="F296" s="29"/>
+      <c r="G296" s="29"/>
+      <c r="H296" s="29"/>
+      <c r="I296" s="29"/>
+    </row>
+    <row r="297" spans="1:14">
+      <c r="D297" s="29"/>
+      <c r="E297" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="F291" s="29"/>
-      <c r="G291" s="29"/>
-      <c r="H291" s="29"/>
-      <c r="I291" s="29"/>
-    </row>
-    <row r="292" spans="1:12">
-      <c r="E292" s="1" t="s">
+      <c r="F297" s="29"/>
+      <c r="G297" s="29"/>
+      <c r="H297" s="29"/>
+      <c r="I297" s="29"/>
+    </row>
+    <row r="298" spans="1:14">
+      <c r="E298" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="293" spans="1:12">
-      <c r="E293" s="1" t="s">
+    <row r="299" spans="1:14">
+      <c r="E299" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="295" spans="1:12">
-      <c r="D295" s="1" t="s">
+    <row r="301" spans="1:14">
+      <c r="D301" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="296" spans="1:12">
-      <c r="E296" s="1" t="s">
+    <row r="302" spans="1:14">
+      <c r="E302" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="297" spans="1:12">
-      <c r="E297" s="1" t="s">
+    <row r="303" spans="1:14">
+      <c r="E303" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="299" spans="1:12">
-      <c r="D299" s="1" t="s">
+    <row r="305" spans="1:12">
+      <c r="D305" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="300" spans="1:12">
-      <c r="E300" s="1" t="s">
+    <row r="306" spans="1:12">
+      <c r="E306" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="301" spans="1:12">
-      <c r="E301" s="1" t="s">
+    <row r="307" spans="1:12">
+      <c r="E307" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="303" spans="1:12">
-      <c r="E303" s="1" t="s">
+    <row r="309" spans="1:12">
+      <c r="E309" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="304" spans="1:12">
-      <c r="D304" s="40"/>
-      <c r="E304" s="40"/>
-      <c r="F304" s="40" t="s">
+    <row r="310" spans="1:12">
+      <c r="D310" s="40"/>
+      <c r="E310" s="40"/>
+      <c r="F310" s="40" t="s">
         <v>367</v>
       </c>
-      <c r="G304" s="40"/>
-      <c r="H304" s="40"/>
-      <c r="I304" s="40"/>
-      <c r="J304" s="40"/>
-      <c r="K304" s="40"/>
-      <c r="L304" s="40"/>
-    </row>
-    <row r="305" spans="1:12" s="37" customFormat="1">
-      <c r="A305" s="46"/>
-      <c r="B305" s="36"/>
-      <c r="D305" s="40"/>
-      <c r="E305" s="40"/>
-      <c r="F305" s="40"/>
-      <c r="G305" s="40"/>
-      <c r="H305" s="40"/>
-      <c r="I305" s="40"/>
-      <c r="J305" s="40"/>
-      <c r="K305" s="40"/>
-      <c r="L305" s="40"/>
-    </row>
-    <row r="306" spans="1:12" s="37" customFormat="1">
-      <c r="A306" s="46"/>
-      <c r="B306" s="36"/>
-      <c r="D306" s="40" t="s">
-        <v>424</v>
-      </c>
-      <c r="E306" s="40"/>
-      <c r="F306" s="40"/>
-      <c r="G306" s="40"/>
-      <c r="H306" s="40"/>
-      <c r="I306" s="40"/>
-      <c r="J306" s="40"/>
-      <c r="K306" s="40"/>
-      <c r="L306" s="40"/>
-    </row>
-    <row r="307" spans="1:12" s="37" customFormat="1">
-      <c r="A307" s="46"/>
-      <c r="B307" s="36"/>
-      <c r="D307" s="40"/>
-      <c r="E307" s="40" t="s">
-        <v>425</v>
-      </c>
-      <c r="F307" s="40"/>
-      <c r="G307" s="40"/>
-      <c r="H307" s="40"/>
-      <c r="I307" s="40"/>
-      <c r="J307" s="40"/>
-      <c r="K307" s="40"/>
-      <c r="L307" s="40"/>
-    </row>
-    <row r="308" spans="1:12" s="37" customFormat="1">
-      <c r="A308" s="46"/>
-      <c r="B308" s="36"/>
-      <c r="D308" s="40"/>
-      <c r="E308" s="40" t="s">
-        <v>426</v>
-      </c>
-      <c r="F308" s="40"/>
-      <c r="G308" s="40"/>
-      <c r="H308" s="40"/>
-      <c r="I308" s="40" t="s">
-        <v>427</v>
-      </c>
-      <c r="J308" s="40"/>
-      <c r="K308" s="40"/>
-      <c r="L308" s="40"/>
-    </row>
-    <row r="309" spans="1:12" s="37" customFormat="1">
-      <c r="A309" s="46"/>
-      <c r="B309" s="36"/>
-      <c r="D309" s="40"/>
-      <c r="E309" s="40"/>
-      <c r="F309" s="40"/>
-      <c r="G309" s="40"/>
-      <c r="H309" s="40"/>
-      <c r="I309" s="40"/>
-      <c r="J309" s="40"/>
-      <c r="K309" s="40"/>
-      <c r="L309" s="40"/>
-    </row>
-    <row r="310" spans="1:12" s="37" customFormat="1">
-      <c r="A310" s="46"/>
-      <c r="B310" s="36"/>
-      <c r="D310" s="40"/>
-      <c r="E310" s="40" t="s">
-        <v>428</v>
-      </c>
-      <c r="F310" s="40"/>
       <c r="G310" s="40"/>
       <c r="H310" s="40"/>
       <c r="I310" s="40"/>
@@ -14201,9 +14477,7 @@
       <c r="B311" s="36"/>
       <c r="D311" s="40"/>
       <c r="E311" s="40"/>
-      <c r="F311" s="40" t="s">
-        <v>429</v>
-      </c>
+      <c r="F311" s="40"/>
       <c r="G311" s="40"/>
       <c r="H311" s="40"/>
       <c r="I311" s="40"/>
@@ -14214,10 +14488,10 @@
     <row r="312" spans="1:12" s="37" customFormat="1">
       <c r="A312" s="46"/>
       <c r="B312" s="36"/>
-      <c r="D312" s="40"/>
-      <c r="E312" s="40" t="s">
-        <v>430</v>
-      </c>
+      <c r="D312" s="40" t="s">
+        <v>424</v>
+      </c>
+      <c r="E312" s="40"/>
       <c r="F312" s="40"/>
       <c r="G312" s="40"/>
       <c r="H312" s="40"/>
@@ -14230,10 +14504,10 @@
       <c r="A313" s="46"/>
       <c r="B313" s="36"/>
       <c r="D313" s="40"/>
-      <c r="E313" s="40"/>
-      <c r="F313" s="40" t="s">
-        <v>431</v>
-      </c>
+      <c r="E313" s="40" t="s">
+        <v>425</v>
+      </c>
+      <c r="F313" s="40"/>
       <c r="G313" s="40"/>
       <c r="H313" s="40"/>
       <c r="I313" s="40"/>
@@ -14245,19 +14519,22 @@
       <c r="A314" s="46"/>
       <c r="B314" s="36"/>
       <c r="D314" s="40"/>
-      <c r="E314" s="40"/>
+      <c r="E314" s="40" t="s">
+        <v>426</v>
+      </c>
       <c r="F314" s="40"/>
       <c r="G314" s="40"/>
       <c r="H314" s="40"/>
-      <c r="I314" s="40"/>
+      <c r="I314" s="40" t="s">
+        <v>427</v>
+      </c>
       <c r="J314" s="40"/>
       <c r="K314" s="40"/>
       <c r="L314" s="40"/>
     </row>
-    <row r="315" spans="1:12">
-      <c r="C315" s="1" t="s">
-        <v>244</v>
-      </c>
+    <row r="315" spans="1:12" s="37" customFormat="1">
+      <c r="A315" s="46"/>
+      <c r="B315" s="36"/>
       <c r="D315" s="40"/>
       <c r="E315" s="40"/>
       <c r="F315" s="40"/>
@@ -14268,11 +14545,13 @@
       <c r="K315" s="40"/>
       <c r="L315" s="40"/>
     </row>
-    <row r="316" spans="1:12">
-      <c r="D316" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="E316" s="40"/>
+    <row r="316" spans="1:12" s="37" customFormat="1">
+      <c r="A316" s="46"/>
+      <c r="B316" s="36"/>
+      <c r="D316" s="40"/>
+      <c r="E316" s="40" t="s">
+        <v>428</v>
+      </c>
       <c r="F316" s="40"/>
       <c r="G316" s="40"/>
       <c r="H316" s="40"/>
@@ -14281,14 +14560,14 @@
       <c r="K316" s="40"/>
       <c r="L316" s="40"/>
     </row>
-    <row r="317" spans="1:12" hidden="1">
-      <c r="D317" s="40" t="s">
-        <v>252</v>
-      </c>
-      <c r="E317" s="40" t="s">
-        <v>253</v>
-      </c>
-      <c r="F317" s="40"/>
+    <row r="317" spans="1:12" s="37" customFormat="1">
+      <c r="A317" s="46"/>
+      <c r="B317" s="36"/>
+      <c r="D317" s="40"/>
+      <c r="E317" s="40"/>
+      <c r="F317" s="40" t="s">
+        <v>429</v>
+      </c>
       <c r="G317" s="40"/>
       <c r="H317" s="40"/>
       <c r="I317" s="40"/>
@@ -14296,12 +14575,12 @@
       <c r="K317" s="40"/>
       <c r="L317" s="40"/>
     </row>
-    <row r="318" spans="1:12" hidden="1">
-      <c r="D318" s="40" t="s">
-        <v>254</v>
-      </c>
+    <row r="318" spans="1:12" s="37" customFormat="1">
+      <c r="A318" s="46"/>
+      <c r="B318" s="36"/>
+      <c r="D318" s="40"/>
       <c r="E318" s="40" t="s">
-        <v>255</v>
+        <v>430</v>
       </c>
       <c r="F318" s="40"/>
       <c r="G318" s="40"/>
@@ -14311,13 +14590,14 @@
       <c r="K318" s="40"/>
       <c r="L318" s="40"/>
     </row>
-    <row r="319" spans="1:12" s="46" customFormat="1">
+    <row r="319" spans="1:12" s="37" customFormat="1">
+      <c r="A319" s="46"/>
       <c r="B319" s="36"/>
       <c r="D319" s="40"/>
-      <c r="E319" s="40" t="s">
-        <v>246</v>
-      </c>
-      <c r="F319" s="40"/>
+      <c r="E319" s="40"/>
+      <c r="F319" s="40" t="s">
+        <v>431</v>
+      </c>
       <c r="G319" s="40"/>
       <c r="H319" s="40"/>
       <c r="I319" s="40"/>
@@ -14325,10 +14605,10 @@
       <c r="K319" s="40"/>
       <c r="L319" s="40"/>
     </row>
-    <row r="320" spans="1:12">
-      <c r="D320" s="40" t="s">
-        <v>557</v>
-      </c>
+    <row r="320" spans="1:12" s="37" customFormat="1">
+      <c r="A320" s="46"/>
+      <c r="B320" s="36"/>
+      <c r="D320" s="40"/>
       <c r="E320" s="40"/>
       <c r="F320" s="40"/>
       <c r="G320" s="40"/>
@@ -14338,12 +14618,12 @@
       <c r="K320" s="40"/>
       <c r="L320" s="40"/>
     </row>
-    <row r="321" spans="2:12" s="46" customFormat="1">
-      <c r="B321" s="36"/>
+    <row r="321" spans="2:12">
+      <c r="C321" s="1" t="s">
+        <v>244</v>
+      </c>
       <c r="D321" s="40"/>
-      <c r="E321" s="40" t="s">
-        <v>558</v>
-      </c>
+      <c r="E321" s="40"/>
       <c r="F321" s="40"/>
       <c r="G321" s="40"/>
       <c r="H321" s="40"/>
@@ -14353,7 +14633,9 @@
       <c r="L321" s="40"/>
     </row>
     <row r="322" spans="2:12">
-      <c r="D322" s="40"/>
+      <c r="D322" s="40" t="s">
+        <v>245</v>
+      </c>
       <c r="E322" s="40"/>
       <c r="F322" s="40"/>
       <c r="G322" s="40"/>
@@ -14363,11 +14645,12 @@
       <c r="K322" s="40"/>
       <c r="L322" s="40"/>
     </row>
-    <row r="323" spans="2:12" s="46" customFormat="1">
-      <c r="B323" s="36"/>
-      <c r="D323" s="40"/>
+    <row r="323" spans="2:12" hidden="1">
+      <c r="D323" s="40" t="s">
+        <v>252</v>
+      </c>
       <c r="E323" s="40" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F323" s="40"/>
       <c r="G323" s="40"/>
@@ -14377,12 +14660,14 @@
       <c r="K323" s="40"/>
       <c r="L323" s="40"/>
     </row>
-    <row r="324" spans="2:12">
-      <c r="D324" s="40"/>
-      <c r="E324" s="40"/>
-      <c r="F324" s="40" t="s">
-        <v>250</v>
-      </c>
+    <row r="324" spans="2:12" hidden="1">
+      <c r="D324" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="E324" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="F324" s="40"/>
       <c r="G324" s="40"/>
       <c r="H324" s="40"/>
       <c r="I324" s="40"/>
@@ -14394,7 +14679,7 @@
       <c r="B325" s="36"/>
       <c r="D325" s="40"/>
       <c r="E325" s="40" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F325" s="40"/>
       <c r="G325" s="40"/>
@@ -14405,11 +14690,11 @@
       <c r="L325" s="40"/>
     </row>
     <row r="326" spans="2:12">
-      <c r="D326" s="40"/>
+      <c r="D326" s="40" t="s">
+        <v>557</v>
+      </c>
       <c r="E326" s="40"/>
-      <c r="F326" s="40" t="s">
-        <v>554</v>
-      </c>
+      <c r="F326" s="40"/>
       <c r="G326" s="40"/>
       <c r="H326" s="40"/>
       <c r="I326" s="40"/>
@@ -14417,10 +14702,11 @@
       <c r="K326" s="40"/>
       <c r="L326" s="40"/>
     </row>
-    <row r="327" spans="2:12">
+    <row r="327" spans="2:12" s="46" customFormat="1">
+      <c r="B327" s="36"/>
       <c r="D327" s="40"/>
       <c r="E327" s="40" t="s">
-        <v>249</v>
+        <v>558</v>
       </c>
       <c r="F327" s="40"/>
       <c r="G327" s="40"/>
@@ -14430,13 +14716,10 @@
       <c r="K327" s="40"/>
       <c r="L327" s="40"/>
     </row>
-    <row r="328" spans="2:12" s="46" customFormat="1">
-      <c r="B328" s="36"/>
+    <row r="328" spans="2:12">
       <c r="D328" s="40"/>
       <c r="E328" s="40"/>
-      <c r="F328" s="40" t="s">
-        <v>475</v>
-      </c>
+      <c r="F328" s="40"/>
       <c r="G328" s="40"/>
       <c r="H328" s="40"/>
       <c r="I328" s="40"/>
@@ -14447,10 +14730,10 @@
     <row r="329" spans="2:12" s="46" customFormat="1">
       <c r="B329" s="36"/>
       <c r="D329" s="40"/>
-      <c r="E329" s="40"/>
-      <c r="F329" s="40" t="s">
-        <v>476</v>
-      </c>
+      <c r="E329" s="40" t="s">
+        <v>247</v>
+      </c>
+      <c r="F329" s="40"/>
       <c r="G329" s="40"/>
       <c r="H329" s="40"/>
       <c r="I329" s="40"/>
@@ -14458,13 +14741,12 @@
       <c r="K329" s="40"/>
       <c r="L329" s="40"/>
     </row>
-    <row r="330" spans="2:12" s="46" customFormat="1">
-      <c r="B330" s="36"/>
+    <row r="330" spans="2:12">
       <c r="D330" s="40"/>
-      <c r="E330" s="40" t="s">
-        <v>555</v>
-      </c>
-      <c r="F330" s="40"/>
+      <c r="E330" s="40"/>
+      <c r="F330" s="40" t="s">
+        <v>250</v>
+      </c>
       <c r="G330" s="40"/>
       <c r="H330" s="40"/>
       <c r="I330" s="40"/>
@@ -14475,10 +14757,10 @@
     <row r="331" spans="2:12" s="46" customFormat="1">
       <c r="B331" s="36"/>
       <c r="D331" s="40"/>
-      <c r="E331" s="40"/>
-      <c r="F331" s="40" t="s">
-        <v>556</v>
-      </c>
+      <c r="E331" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="F331" s="40"/>
       <c r="G331" s="40"/>
       <c r="H331" s="40"/>
       <c r="I331" s="40"/>
@@ -14486,12 +14768,11 @@
       <c r="K331" s="40"/>
       <c r="L331" s="40"/>
     </row>
-    <row r="332" spans="2:12" s="46" customFormat="1">
-      <c r="B332" s="36"/>
+    <row r="332" spans="2:12">
       <c r="D332" s="40"/>
       <c r="E332" s="40"/>
       <c r="F332" s="40" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="G332" s="40"/>
       <c r="H332" s="40"/>
@@ -14500,13 +14781,12 @@
       <c r="K332" s="40"/>
       <c r="L332" s="40"/>
     </row>
-    <row r="333" spans="2:12" s="46" customFormat="1">
-      <c r="B333" s="36"/>
+    <row r="333" spans="2:12">
       <c r="D333" s="40"/>
-      <c r="E333" s="40"/>
-      <c r="F333" s="40" t="s">
-        <v>560</v>
-      </c>
+      <c r="E333" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="F333" s="40"/>
       <c r="G333" s="40"/>
       <c r="H333" s="40"/>
       <c r="I333" s="40"/>
@@ -14518,7 +14798,9 @@
       <c r="B334" s="36"/>
       <c r="D334" s="40"/>
       <c r="E334" s="40"/>
-      <c r="F334" s="40"/>
+      <c r="F334" s="40" t="s">
+        <v>475</v>
+      </c>
       <c r="G334" s="40"/>
       <c r="H334" s="40"/>
       <c r="I334" s="40"/>
@@ -14526,13 +14808,13 @@
       <c r="K334" s="40"/>
       <c r="L334" s="40"/>
     </row>
-    <row r="335" spans="2:12">
-      <c r="C335" s="1" t="s">
-        <v>235</v>
-      </c>
+    <row r="335" spans="2:12" s="46" customFormat="1">
+      <c r="B335" s="36"/>
       <c r="D335" s="40"/>
       <c r="E335" s="40"/>
-      <c r="F335" s="40"/>
+      <c r="F335" s="40" t="s">
+        <v>476</v>
+      </c>
       <c r="G335" s="40"/>
       <c r="H335" s="40"/>
       <c r="I335" s="40"/>
@@ -14540,93 +14822,127 @@
       <c r="K335" s="40"/>
       <c r="L335" s="40"/>
     </row>
-    <row r="336" spans="2:12">
-      <c r="D336" s="1" t="s">
+    <row r="336" spans="2:12" s="46" customFormat="1">
+      <c r="B336" s="36"/>
+      <c r="D336" s="40"/>
+      <c r="E336" s="40" t="s">
+        <v>555</v>
+      </c>
+      <c r="F336" s="40"/>
+      <c r="G336" s="40"/>
+      <c r="H336" s="40"/>
+      <c r="I336" s="40"/>
+      <c r="J336" s="40"/>
+      <c r="K336" s="40"/>
+      <c r="L336" s="40"/>
+    </row>
+    <row r="337" spans="2:12" s="46" customFormat="1">
+      <c r="B337" s="36"/>
+      <c r="D337" s="40"/>
+      <c r="E337" s="40"/>
+      <c r="F337" s="40" t="s">
+        <v>556</v>
+      </c>
+      <c r="G337" s="40"/>
+      <c r="H337" s="40"/>
+      <c r="I337" s="40"/>
+      <c r="J337" s="40"/>
+      <c r="K337" s="40"/>
+      <c r="L337" s="40"/>
+    </row>
+    <row r="338" spans="2:12" s="46" customFormat="1">
+      <c r="B338" s="36"/>
+      <c r="D338" s="40"/>
+      <c r="E338" s="40"/>
+      <c r="F338" s="40" t="s">
+        <v>559</v>
+      </c>
+      <c r="G338" s="40"/>
+      <c r="H338" s="40"/>
+      <c r="I338" s="40"/>
+      <c r="J338" s="40"/>
+      <c r="K338" s="40"/>
+      <c r="L338" s="40"/>
+    </row>
+    <row r="339" spans="2:12" s="46" customFormat="1">
+      <c r="B339" s="36"/>
+      <c r="D339" s="40"/>
+      <c r="E339" s="40"/>
+      <c r="F339" s="40" t="s">
+        <v>560</v>
+      </c>
+      <c r="G339" s="40"/>
+      <c r="H339" s="40"/>
+      <c r="I339" s="40"/>
+      <c r="J339" s="40"/>
+      <c r="K339" s="40"/>
+      <c r="L339" s="40"/>
+    </row>
+    <row r="340" spans="2:12" s="46" customFormat="1">
+      <c r="B340" s="36"/>
+      <c r="D340" s="40"/>
+      <c r="E340" s="40"/>
+      <c r="F340" s="40"/>
+      <c r="G340" s="40"/>
+      <c r="H340" s="40"/>
+      <c r="I340" s="40"/>
+      <c r="J340" s="40"/>
+      <c r="K340" s="40"/>
+      <c r="L340" s="40"/>
+    </row>
+    <row r="341" spans="2:12">
+      <c r="C341" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D341" s="40"/>
+      <c r="E341" s="40"/>
+      <c r="F341" s="40"/>
+      <c r="G341" s="40"/>
+      <c r="H341" s="40"/>
+      <c r="I341" s="40"/>
+      <c r="J341" s="40"/>
+      <c r="K341" s="40"/>
+      <c r="L341" s="40"/>
+    </row>
+    <row r="342" spans="2:12">
+      <c r="D342" s="1" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="337" spans="3:8">
-      <c r="D337" s="1" t="s">
+    <row r="343" spans="2:12">
+      <c r="D343" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="338" spans="3:8">
-      <c r="D338" s="1" t="s">
+    <row r="344" spans="2:12">
+      <c r="D344" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="339" spans="3:8">
-      <c r="D339" s="40" t="s">
+    <row r="345" spans="2:12">
+      <c r="D345" s="40" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="340" spans="3:8">
-      <c r="D340" s="39" t="s">
+    <row r="346" spans="2:12">
+      <c r="D346" s="39" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="341" spans="3:8">
-      <c r="E341" s="39" t="s">
+    <row r="347" spans="2:12">
+      <c r="E347" s="39" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="343" spans="3:8">
-      <c r="C343" s="42"/>
-      <c r="D343" s="42"/>
-      <c r="E343" s="42"/>
-      <c r="F343" s="42"/>
-      <c r="G343" s="42"/>
-      <c r="H343" s="39"/>
-    </row>
-    <row r="344" spans="3:8">
-      <c r="C344" s="42"/>
-      <c r="D344" s="42"/>
-      <c r="E344" s="42"/>
-      <c r="F344" s="42"/>
-      <c r="G344" s="42"/>
-      <c r="H344" s="42"/>
-    </row>
-    <row r="345" spans="3:8">
-      <c r="C345" s="42"/>
-      <c r="D345" s="42"/>
-      <c r="E345" s="42"/>
-      <c r="F345" s="42"/>
-      <c r="G345" s="42"/>
-      <c r="H345" s="42"/>
-    </row>
-    <row r="346" spans="3:8">
-      <c r="C346" s="42"/>
-      <c r="D346" s="42"/>
-      <c r="E346" s="42"/>
-      <c r="F346" s="42"/>
-      <c r="G346" s="42"/>
-      <c r="H346" s="42"/>
-    </row>
-    <row r="347" spans="3:8">
-      <c r="C347" s="42"/>
-      <c r="D347" s="42"/>
-      <c r="E347" s="42"/>
-      <c r="F347" s="42"/>
-      <c r="G347" s="42"/>
-      <c r="H347" s="42"/>
-    </row>
-    <row r="348" spans="3:8">
-      <c r="C348" s="42"/>
-      <c r="D348" s="42"/>
-      <c r="E348" s="42"/>
-      <c r="F348" s="42"/>
-      <c r="G348" s="42"/>
-      <c r="H348" s="42"/>
-    </row>
-    <row r="349" spans="3:8">
+    <row r="349" spans="2:12">
       <c r="C349" s="42"/>
       <c r="D349" s="42"/>
       <c r="E349" s="42"/>
       <c r="F349" s="42"/>
       <c r="G349" s="42"/>
-      <c r="H349" s="42"/>
-    </row>
-    <row r="350" spans="3:8">
+      <c r="H349" s="39"/>
+    </row>
+    <row r="350" spans="2:12">
       <c r="C350" s="42"/>
       <c r="D350" s="42"/>
       <c r="E350" s="42"/>
@@ -14634,7 +14950,7 @@
       <c r="G350" s="42"/>
       <c r="H350" s="42"/>
     </row>
-    <row r="351" spans="3:8">
+    <row r="351" spans="2:12">
       <c r="C351" s="42"/>
       <c r="D351" s="42"/>
       <c r="E351" s="42"/>
@@ -14642,7 +14958,7 @@
       <c r="G351" s="42"/>
       <c r="H351" s="42"/>
     </row>
-    <row r="352" spans="3:8">
+    <row r="352" spans="2:12">
       <c r="C352" s="42"/>
       <c r="D352" s="42"/>
       <c r="E352" s="42"/>
@@ -14658,18 +14974,66 @@
       <c r="G353" s="42"/>
       <c r="H353" s="42"/>
     </row>
+    <row r="354" spans="3:8">
+      <c r="C354" s="42"/>
+      <c r="D354" s="42"/>
+      <c r="E354" s="42"/>
+      <c r="F354" s="42"/>
+      <c r="G354" s="42"/>
+      <c r="H354" s="42"/>
+    </row>
     <row r="355" spans="3:8">
-      <c r="E355" s="28"/>
+      <c r="C355" s="42"/>
+      <c r="D355" s="42"/>
+      <c r="E355" s="42"/>
+      <c r="F355" s="42"/>
+      <c r="G355" s="42"/>
+      <c r="H355" s="42"/>
+    </row>
+    <row r="356" spans="3:8">
+      <c r="C356" s="42"/>
+      <c r="D356" s="42"/>
+      <c r="E356" s="42"/>
+      <c r="F356" s="42"/>
+      <c r="G356" s="42"/>
+      <c r="H356" s="42"/>
+    </row>
+    <row r="357" spans="3:8">
+      <c r="C357" s="42"/>
+      <c r="D357" s="42"/>
+      <c r="E357" s="42"/>
+      <c r="F357" s="42"/>
+      <c r="G357" s="42"/>
+      <c r="H357" s="42"/>
+    </row>
+    <row r="358" spans="3:8">
+      <c r="C358" s="42"/>
+      <c r="D358" s="42"/>
+      <c r="E358" s="42"/>
+      <c r="F358" s="42"/>
+      <c r="G358" s="42"/>
+      <c r="H358" s="42"/>
+    </row>
+    <row r="359" spans="3:8">
+      <c r="C359" s="42"/>
+      <c r="D359" s="42"/>
+      <c r="E359" s="42"/>
+      <c r="F359" s="42"/>
+      <c r="G359" s="42"/>
+      <c r="H359" s="42"/>
+    </row>
+    <row r="361" spans="3:8">
+      <c r="E361" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="A245:A1048576 A1:A243">
+  <conditionalFormatting sqref="A251:A1048576 A1:A249">
     <cfRule type="notContainsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="L168" location="界面特殊规则" display="详见【基础规则】分页"/>
+    <hyperlink ref="L171" location="界面特殊规则" display="详见【基础规则】分页"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/gd/任务系统/新版任务系统设计.xlsx
+++ b/gd/任务系统/新版任务系统设计.xlsx
@@ -83,6 +83,7 @@
     <definedName name="任务消失后该行任务消失_该行任务下方的任务整体向上一动一个位置_后续关联任务出现后_仍然插入到前置任务消失的位置">UI逻辑!$G$186:$R$186</definedName>
     <definedName name="任务中涉及到数量相关的目标时_完成任务条件以真实获得数量为准">基础规则!$C$189:$I$191</definedName>
     <definedName name="任务状态标识">UI逻辑!$D$158:$H$165</definedName>
+    <definedName name="如领取任务奖励后_角色升级_则">基础规则!$C$200:$H$202</definedName>
     <definedName name="三星">数据记录!$L$5:$O$6</definedName>
     <definedName name="三星完成章节">基础规则!$E$164:$I$166</definedName>
     <definedName name="时间">数据记录!$J$3:$K$5</definedName>
@@ -177,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1762" uniqueCount="1110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="1114">
   <si>
     <t>文档名称</t>
   </si>
@@ -249,339 +250,339 @@
   </si>
   <si>
     <t>新版任务系统设计</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>基于目前架构重新设计任务系统</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务组</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>界面标题</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>标题内容为： 任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务类型分页签</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务项</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务项图标</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>显示该任务项的对应图标</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务项名称</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务项内容</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>显示该任务的完成条件，描述性指引</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务项奖励</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>图标形式显示该任务奖励内容</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>其中N为奖励数量</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>1.当前任务可进行中，显示该任务项的完成进度</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>如完成3次任意关卡，当前已完成1次，则显示为1/3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>如限时任务，需要显示“时间未到”</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>此类情况下区分不同任务可自定义不可进行的原因，最多为4个汉字</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>2.当前任务不可进行，显示该任务项不可进行的原因</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务状态按钮</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>区分三种情况</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>1.该任务已完成，则显示领取奖励</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>3.该任务不可进行，则不显示任何按钮</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>点击后可以领取对应奖励</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>点击后可以进入完成该任务的对应位置</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务未完成时，显示任务项进度</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>主界面点击任务图标按钮，可以打开任务界面</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务界面样式如下</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>成功领取奖励后，会弹出任务奖励确认框</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>具体样式如下</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务名称</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>显示当前奖励所属的任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>显示格式为：</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>奖励内容</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>显示奖励内容</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>显示格式为图标*N</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>显示顺序与任务界面显示顺序一致</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>确认按钮</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>按钮显示为“好的”</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>点击按钮后，界面关闭</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>其他规则</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务基础属性</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务类型</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务类型用于标识该任务所属的类型</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>用于标识一类相互联系的任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>如某些任务是有前后关系的，则标识为同一个任务组</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务ID</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务的唯一标识，即任务编号，不用于显示使用（玩家不可见），全局唯一</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>取值范围为10000起，不同类型的任务取值区间不同</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>…</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务名称</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>用于显示任务的名称</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务状态</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>已完成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>不可进行</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>不可接取</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>不可接取的任务不显示，玩家不可见</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>可进行未完成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>可进行但还没有完成的任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>已经完成可以领取奖励的任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务奖励</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>用于标识交付该任务可以获得奖励</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>已交付</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务状态分为：不可接取、不可进行、可进行未完成、已完成、已交付 四种</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>已经领取奖励的任务，领取后不显示，玩家不可见</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>循环性</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>用于标识任务是否可以重复进行</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>普通</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>normal</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>日循环</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>daily</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>每个任务每天只能做一次，任务内容为固定内容</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>每个任务只能做一次，任务内容为固定内容</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务接取条件</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>可进行的任务均为自动接取并显示在对应任务界面中</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>如当前某个类型的任务数为0，则切换至该界面后，不显示任何任务项</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务交付条件</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>限制条件</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>等级限制</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>玩家达到某个等级后可以接取</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务达成后即可交付任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务目标</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>通关特定星级的副本</t>
@@ -609,35 +610,35 @@
   </si>
   <si>
     <t>完成一定次数的竞技场</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>进行时光之穴</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>进行大冒险</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>进行bossrush</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>进行稀有探索</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>完成一定次数的大冒险</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>完成一定次数的bossrush</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>完成一定次数的稀有探索</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>需求可扩展，后续开发新活动或者玩法可以直接调用</t>
@@ -680,675 +681,675 @@
   </si>
   <si>
     <t>剧情任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>日常任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>每天可以完成的固定的任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>接取条件</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>达到固定等级后，会自动接取</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>界面特殊规则</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>提升技能</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>升级装备</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>升级一定次数的宠物技能</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>升级一定次数的宠物装备</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>钻石买钱</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>进行一定次数的钻石买钱操作</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>显示顺序按照任务编号由小至大顺序从上至下显示</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>同一个任务组中的任务，只显示当前未完成且编号最小的任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>大冒险次数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>是否每天清空</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>是否记录累计值</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>是</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>yh</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>根据主策审核完善文档</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务入口</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>等待主界面设计完毕后回归补充</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务状态提示</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>当有任务可交付时，任务图标有状态提示</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>当有未做过的任务出现时，新手引导在任务图标以及任务界面位置进行提示</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>同时引导玩家进行副本体验</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>同时引导玩家进行精英难度副本体验</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>内容固定，每个任务每天可以完成一次</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>特定的伙伴达到某个品级时可以接取</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>接取后自动显示在任务界面中，并给予指引提示</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>各支线之间没有关联关系，可能同时存在多个支线任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>详见【基础规则】分页</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务项进度显示区分为两种情况</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务项内容根据所配置的格式以及对应任务的配置参数进行识别显示内容</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>如“逗比出世”任务，配置任务目标类型为“副本”，参数填写为“拯救妲己”的副本ID</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>则自动显示为：“完成关卡：第一章-拯救妲己”</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务项内容格式</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>通关副本</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>三星通关副本</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>通关精英副本</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>三星通关精英副本</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>副本次数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>副本指引</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>完成副本</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>完成精英副本</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>完成n次任意副本</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>完成n次任意精英副本</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>完成竞技场</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>完成n次竞技场挑战</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>完成大冒险</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>技能</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>完成时光之穴</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>升级技能</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>购买金币</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>竞技场</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>大冒险</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>消耗钻石</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>完成n次大冒险</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>完成n次时光之穴</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>升级n次技能</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>购买n次金币</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>通关副本：第X章-副本名称</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>三星通关副本：第X章-副本名称</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>通关精英副本：第X章-副本名称</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>三星通关精英副本：第X章-副本名称</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>现有需求如下</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>补充任务内容显示现有需求</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>设计备忘中记录主界面与新手引导对任务界面的提示需求</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>界面音效</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>事件</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>音效资源</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>待定</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>打开任务界面</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>关闭任务界面</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>点击任务类型分页签</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>领取任务奖励</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>点击未完成任务项</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>补充音效需求</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>变更每个日常任务的完成次数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>完善任务类型的描述</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务对话形式</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>对话大致形式如下</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>区分两个对话阵营，暂定为a与b</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>a阵营对话头像与名称位于屏幕左侧，如下图样式</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>b阵营对话头像与名称位于屏幕右侧，如下图样式</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>对话样式共包括 当前发言人头像，当前发言人名称，发言内容，下一步按钮</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>发言人头像</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>显示为当前发言人的头像</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>头像样式为2D立绘，大小为150*150</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>发言人名称</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>显示为当前发言人的名称</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>a阵营时名称位于头像右侧，间隔为10px，即名称最左侧的字符相距头像右边框10px</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>b阵营时名称位于头像左侧，间隔为10px，即名称最右侧的字符相距头像左边框10px</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>发言内容</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>显示在对话框主体位置，显示格式为左对齐</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>每行可显示30个汉字，最多显示为2行</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>用于提示点击界面可以跳过当前对话</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>根据配置阵营确定头像以及名称的显示位置</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>对话相关规则</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>对话id</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>speech_demo</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>阵营</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>a</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>你管呢</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>雪姬你看我好看吗？</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>我才不看</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>你大妹</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>对话相关配置结构</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>对话组ID</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>用于调用使用哪一组对话</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>阵营</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>内容</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>用于确定头像及名称的显示位置</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>点击界面后根据对话序号，由小到大依次显示对话内容</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>是否可跳过</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>用于确定是否出现跳过对话按钮</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>是否循环播放</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>用于确定该组对话是否只出现一次</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>补充任务对话相关内容</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务部分需要服务器记录的数据</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>对话配置格式</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务配置格式</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>补充任务配置格式</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>补充对话配置格式</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>日常任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>刀塔传奇</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>固定任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>奖励一致</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>盗梦英雄</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>固定任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>经验随等级增长而增长，每级75</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>雪姬你嘎哈呢</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>奖励分为金币（或其他同价值币种）、钻石（或其他同价值名称）、经验、道具奖励</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>金币</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>钻石</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>经验</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>道具</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>此类奖励为固定值奖励，即每条任务的奖励为固定值，不会随玩家等级等因素变化而变化</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>规定任务奖励的数量值</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>添加任务经验可变性规则</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>可循环类的任务次数重置点为自然周期结束的0点，即日循环任务为每天0点刷新次数(暂定0点，如游戏整体规划刷新时间为其他时间则统一变更)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.5</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>qc</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>yh</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>刷新时间统一</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>b</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>a</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>b</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>通关副本X次</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>level</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>petlevel</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>bossrush</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>explore</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>buycoin</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>对应配置参考，等待各系统确定名称后统一更改</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>adventure</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>通关3星级的指定副本</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>3stars</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务配置格式细化</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>取消前置对话</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>奖励配置优化</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务时效性描述细化</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>累计值是啥作用</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>清空是指日常任务么</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>多个奖励如何配置</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>点击立即前往</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>配置中未体现发言人是玩家如何配置</t>
@@ -1379,402 +1380,402 @@
     <rPh sb="14" eb="15">
       <t>pei'zhi</t>
     </rPh>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>窗口类型</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>一级窗口</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>控件类型</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>按钮</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>显示位置</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>出现/隐藏规则</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>始终显示</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>按钮文案</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>按钮操作</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>无特殊</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>按钮样式</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>普通</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>按下</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>音效</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>按钮效果</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>控件类型</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>标签页</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>显示位置</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>出现/隐藏规则</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>始终显示，默认选择剧情任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>点击后可选择对应类型任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>默认选择剧情任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>每次打开界面恢复默认</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>位于界面标题左下方</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>标签页效果</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>标签页文案</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>剧情任务/日常任务/列传任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>标签页操作</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>标签页样式</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>选中</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>显示形式</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>横向</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>显示该任务项的任务名称</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>角色等级</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>宠物等级</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>宠物品质</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>角色等级</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>角色等级达到X级</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>宠物品级数量</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>携带紫色品级的宠物达到x个</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>伙伴等级</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>携带的伙伴最高等级达到X级</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>已补充</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>显示顺序为：钻石、金币、经验、道具（道具图标按照道具表中的顺序）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>已知的任务原因</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>时间未到(领体力)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>2.该任务可进行未完成，则显示立刻前往</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>打开任务界面，默认显示第一个任务项</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>窗口类型</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>提示窗口</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>文案内容</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务奖励</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>点击后可以关闭提示界面</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>位于界面正下方</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>好的</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>玩家在交付任务时，可能触发任务对话</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>头像位置</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>a阵营头像位于界面左上方</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>b阵营头像位于界面右上方</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>下一步提示</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>样式为</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>位于界面右下角</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>位置</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务对话只会播放一次，已开始播放为节点，即只要开始播放即计算次数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>日常任务：30000-39999</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>未完成的任务在重置点全部删除，同时刷出新一天的任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>副本类</t>
   </si>
   <si>
     <t>活动类</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>操作类</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>统计成就</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>一般是的</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>b</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>都别BB了，我来</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>已补充，具体调用参数等程序决定</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>打开界面</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>关闭界面</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>事件</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>资源</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>待定</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>点击分页签</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>界面打开</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>会与其他界面打开音效重叠</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.6</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>qc</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>yh</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>qc文档分析后回归</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务项奖励的图标无tips显示</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>奖励内容中的图标无tips显示</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务项中道具图标无tips显示</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>奖励内容中道具图标无tips显示</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>确认按钮</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务图标根据任务确定，每个任务可以单独配置一个图标</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.7</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>qc</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>yh</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>完善时效性任务规则</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>目前不可进行只有时间未到的情况</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>此类奖励为可变值，即每条任务的奖励为一个与玩家等级有关的公式</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>前边UI没说这种不显示的情况
@@ -1782,205 +1783,205 @@
   </si>
   <si>
     <t>任务界面美术需求</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>插入当前之前的任务，直接略过
 插入当前之后的任务，可以做到
 插入当前正在进行的任务，则刷新当前任务即可</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>补充对应美术需求</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>解答qc文档分析内容</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>4.任务奖励界面需求</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>包括 提示标题样式、界面样式、按钮样式</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>5.任务对话界面需求</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>触发对话后其余背景蒙版蒙灰</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>添加任务对话美术需求</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>添加任务对话出现时背景蒙灰的规则</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>补充道具奖励的配置方式遵循道具文档</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>问题</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>分页签开启规则</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>每个页签对应一个开启等级</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>story</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>daily</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>（暂定）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>当对应页签未开启时，不显示该任务分页签</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>是否可跳过</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>跳过按钮</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>用于跳过当前对话内容</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>样式为</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>其他语言</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>位置</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>位于界面右上角</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>点击效果</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>点击后可以跳过当前的对话内容</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>增加对话跳过的相关规则</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>增加对话跳过的配置需求</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>补充分页签开启规则</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>包括 对话框边框、对话框底图、下一步对话按钮、背景遮罩蒙版、跳过按钮、头像示例、名称示例、对话内容示例</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>补充跳过按钮美术需求</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.7</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>程序、测试、策划、木木、mt</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>明确任务逻辑内容以及说明解决方法</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务组方式保留，刨除序号</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>接取条件是否需要通关副本</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>对话内容改为配置id</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>对话相关NPC数据拆分</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>时效性任务实现方法等待程序确认</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务奖励遵循通用配置方式</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务时效性配置拆开起止点</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>补充对话中下一步操作的响应范围</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务界面实时刷新</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>进入副本后，相关界面是否关闭</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>补充可完成的任务显示在上方的规则</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>当完成任意任务后，自动接取该任务后一个任务（任务配置表中顺序）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>如上一个任务未交付，则新任务不显示，但为已接取状态，可以进行</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>发言内容配置格式</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>speak_001</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>speak_002</t>
@@ -1999,155 +2000,155 @@
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>text</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>发言内容id</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>对话界面出现时，点击屏幕任意位置（除跳过按钮区域），均响应跳过当前对话界面，不响应点击位置的其他功能</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务项内容刷新规则</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>已完成的任务，显示在对应分页的上方，多个已完成任务按照任务编号由小至大顺序从上至下显示</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>非本文档需要解决内容</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>需要确定体力怎么领</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>目标</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>奖励</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>是否需要新加一项</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.7</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>qc</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>yh</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>补充任务刷出为即时刷新</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>发言内容ID</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>发言内容ID配置在对话内容表中，根据ID寻找对应发言内容</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>完善对话配置格式</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>完善时效性任务配置规则</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>通过通用奖励配置进行给予，配置中填写对应奖励ID即可</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>配置对应K值与B值，即可根据玩家等级进行计算最终经验数值</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>完善任务奖励配置规则</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>将任务配置参数变更为数据形式</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>petquality</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>arena</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>程序</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>服务器</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>做的时候再拆</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>所有内容</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>4d</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>策划</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>摆UI</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>2h</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>配置验收</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>增加需求拆分分页</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>统一任务目标与参数名称对应</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务配置、数据结构 3d</t>
@@ -2178,294 +2179,294 @@
   </si>
   <si>
     <t>3d</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>1d</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>1.5d</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>2d</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>1.5d</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>服务器程序任务拆分更新</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.7</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>qc</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>yh</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>完善三星挑战以及难度通关的任务目标配置</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.7</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>qc</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>首次通关奖励任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>玩家首次通关副本时，发放给玩家的奖励</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>第一个主线任务也是玩家进入游戏自动接取</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>同主线任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务列表UI部分逻辑验收</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务分页签名称不正确</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>上图中三个分页签应该分别为  剧情任务、日常任务、列传任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务名称位置多余显示了任务编号</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务描述中没有根据目标值读取变量值</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务项中的任务图标目前无法读取</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>奖励领取界面标题错误</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>上图中红色框中内容应该为固定文本 任务奖励</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>奖励领取界面任务名称位置错误</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>上图中红色框中内容应该为任务名称</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>当配置接取等级大于当前等级时也会显示该任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务奖励中的经验值未与任务表中的k和b值进行加成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务显示不完整</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>剧情任务只显示编号最小的1个任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>日常任务只显示编号最小的1个任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>列传任务只显示5个任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>经验值最终结果X=reward表读取值*K+B</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>补充经验值计算公式</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>发言人名称</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ui/talk/tusang</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ui/talk/xueji</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ui/talk/xueji</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ui/talk/tusang</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>角色形象</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>兔桑</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>雪姬</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>兔桑</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>雪姬</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>兔桑</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>玩家统一称呼</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>修改对话表格格式</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>发言人名称</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>立绘</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>发言人立绘资源</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>是否可跳过</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>用于配置该对话组ID是否可以被跳过</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>立绘资源大小为320*240（帆爷暂定），每个立绘资源独立存放</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>设计上尽量避免同一组对话出现的立绘资源过多（最好5个以内）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>对话配置更新以及立绘设计规范补充</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>完成任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务名称</t>
   </si>
   <si>
     <t>调整奖励领取界面任务名称排布样式</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>剧情对话以通关成功为判定标准，通关后不再播放，未通关再次进入该副本还会播放剧情对话</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>不可进行的任务显示在任务界面中，玩家可见但暂不可进行（如未到时间）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>补充剧情对话的触发条件</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.7</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>qc、程序</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>yh</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>其中对局结束的剧情对话如果副本未通关则不播放，成功通关才播放结束的剧情对话</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>副本结束剧情对话触发条件补充</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>去掉任务界面中没有任务时的提示</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>月卡</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>card</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务目标增加“月卡”类型</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>购买了月卡且月卡在有效期内</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>第一次充值</t>
@@ -2505,279 +2506,279 @@
   </si>
   <si>
     <t>立绘需求</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>立绘为两部分组成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>包含立绘的背景，角色除表情外的其他部分内容</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>主体</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>表情</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>包含立绘的表情</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>同一个立绘一般只需求一个主体，但可以有多个表情，表情的制作需要大小一致，方便替换</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>在同一组对话中，可能出现同样的立绘主体搭配不同表情的情况</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>完善立绘需求</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.8</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>qc</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>3fat</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>发言人立绘主体</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>发言人立绘表情</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ui/talk/small</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>对应立绘需求增加配置格式</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">时光之穴 </t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>通天塔</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务项进度</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务状态标识</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>显示在任务项前方，区分两种状态</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>已完成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>未完成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>当没有任务对话的情况下，交付的任务即刻消失，如有后续关联任务，则即时出现</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>当有任务对话的情况下，任务对话结束后，交付的任务消失，如有后续关联任务，则对话结束后，出现关联任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>目前分为：主线任务、日常任务、成就</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>主线任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>成就任务：40000-49999</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>进行通天塔操作</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>使用活力值</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>消耗一定活力值</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>进行一定次数的宝石镶嵌</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>完成一定次数的抽蛋（钻石）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>完成一定次数的抽蛋（金币）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>加入公会</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>商店刷新次数达到N次</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>合成一定次数宝石</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>累计购买礼包次数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>累计消耗活力值达到N</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>镶嵌了某种宝石</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>第一次抽到某种品质的宠物</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>累计抽蛋次数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>成就任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>名词解释</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>用于统计玩家的行为</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>由多个任务链组成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>街区条件</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>达到固定等级；副本进度达到某个程度</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>更新UI部分逻辑</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>完善任务逻辑</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>玩家在获得任务时，可能触发任务对话</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>当玩家达到任务接取条件时，如果触发任务对话，则新增的任务需要在任务对话关闭后才显示出来</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>补充接取任务可能触发任务对话的需求</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>不显示任何内容</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务状态部分逻辑变更</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>上下，上下这个顺序显示是么</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>只有这一种么？没有个进行中？</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>多语言</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>4个半？</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>跟程序确认下，这个是原来的通用框么？还是要新做一个框</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>获得任务触发对话应该是指其他任务的后续任务吧</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>如果是后续任务触发，那其实上面说的任务完成后触发对话就够用了？</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>立绘与表情的搭配是通过配置实现么？配置内容？</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>两个主线任务啥意思</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>这个是为了每天发月卡奖励用么？</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>这条改成合成规定种类的宝石比较好吧。方便扩展任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>这个改成购买指定物品（可配多个）比较好吧，方便扩展</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>充值类</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>这个建议改成充值达到N，也能实现首次购买</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>这个标着没用，美术才不管你呢，删了吧</t>
@@ -2793,103 +2794,103 @@
   </si>
   <si>
     <t>应该不会是第一个任务就触发吧/达到任务接取条件并且在任务界面吧</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>已删</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>其实是计算完成一次通天塔中的任意副本</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>对</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>没有，不显示已完成其实就是进行中</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>这个直接是个图，可以用done来表示</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>已修改</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>我写的就是这个意思吧？</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>不用</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>不一定，比如任务时10级可以接取，我刚升到10级</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>希望是在界面外也可以触发</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>这个商量下制作形式</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>支线任务：20000-29999</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>已删</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>主线任务：10000-19999</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>摁</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>这个可以哈</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>合成某个类型的宝石</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>不太明白</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>QC文档分析反馈</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>完成通天塔固定层数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>完成n次通天塔固定层数的副本</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务界面</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>动画需求</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>1.打开界面后任务项有右侧依次进入</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2905,47 +2906,47 @@
       </rPr>
       <t>.任务页签由界面底部向上弹出</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>动画需求</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>界面弹出为由小到大</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>弹出后领取界面有特效效果</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>可以是喝彩的闪光的样式</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>对话框出现和消失为渐入渐隐效果</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>下一步对话按钮有弹跳的动画效果</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>左侧立绘出现由左进入</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>右侧立绘出现由右进入</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>补充美术需求以及动画需求</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>工会相关</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2961,235 +2962,235 @@
       </rPr>
       <t>oss</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>公会祈福</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>公会送体力</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>首次加入</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>次数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>使用道具</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>使用某种道具达到一定次数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>货币相关</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>获得竞技场币数量</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>获得公会币数量</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>获得通天塔币数量</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>使用钻石</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>充值钻石</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>玩家属性</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>完成某个任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>携带某个品质的装备数量达到一定个数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>补充部分完成条件</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.8</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>qc、程序、铁马</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>立绘对话相关功能不在任务中明确</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务跳转与道具指引一致</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务结束后对话出现逻辑</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务消失后该行任务消失，该行任务下方的任务整体向上一动一个位置，后续关联任务出现后，仍然插入到前置任务消失的位置</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务奖励位置排序规则</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务项奖励最多同时出现5个</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>格式为： 图标+数量 形式，其中数量显示在图标下侧，前两项分别显示金币、钻石，后续图标按照道具列表排序即可</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>接任务条件去掉副本和玩法</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>去掉时效性需求</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>根据任务类型确定是否显示【立即前往】按钮</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>需要显示的类型包括 副本类任务、活动类任务、操作类任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>显示该按钮的任务点击后效果同道具tips产出功能逻辑</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>操作类</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>操作类</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务类型目标划分</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>buygift</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>societyfatigue</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>在商店中购买某个道具</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>paydiamond</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>uesdiamond</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>tower</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>是</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>是</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>数据记录中补充需要记录的内容</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>societypray</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>societyboss</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>buyitem</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>refreshcount</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>useitem</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>arenacoin</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>societycoin</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>towercoin</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>完成一定次数的时光之穴（金币）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>完成一定次数的时光之穴（经验）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>配表类型完善</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>2015/12/26修改需求</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>程序</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>策划</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3205,19 +3206,19 @@
       </rPr>
       <t>I</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务ui设计</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 1d</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务ui调整加动画设计</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3233,7 +3234,7 @@
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3249,7 +3250,7 @@
       </rPr>
       <t>debug</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3265,7 +3266,7 @@
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>摆放搭建UI界面（奖励提示界面）</t>
@@ -3284,11 +3285,11 @@
   </si>
   <si>
     <t>客户端</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>服务器端</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3304,63 +3305,63 @@
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.9</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>3fat</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>补充任务拆分</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>holecoin</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>holeexp</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>upskill</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>upequip</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>inlayall</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>inlaytype</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>synall</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>syntype</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>callpetstage</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>callequipstage</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>callitem</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3376,83 +3377,83 @@
       </rPr>
       <t>oprefresh</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>coinarena</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>coinsociety</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>cointower</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>quest</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>questtype</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>questcycle</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>equipstage</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务目标参数确定</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>第一次抽到某种品质的装备</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>第一次抽到某种道具</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>领取XXX（体力金钱啥都行）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>完成某类任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>usefatigue</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>eggcoin</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>eggdiamond</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>eggall</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>societyjoin</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>free</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>补充两个任务目标需求</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>#NUM</t>
@@ -4017,15 +4018,15 @@
   </si>
   <si>
     <t>更新任务配置格式</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>操作类</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>宠物合成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4041,19 +4042,19 @@
       </rPr>
       <t>D的宠物</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>petmix</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>装备打孔</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>进行一定次数的装备打孔操作</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4069,131 +4070,131 @@
       </rPr>
       <t>quipslot</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>循环性配置规则变更</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务项内容根据配置内容进行显示</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>同一个任务界面中，最多同时显示2个半完整的任务项</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>当该类型任务项超过2个时，可上下拖动已查看其他任务项</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>更新UI示意图</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>完成普通副本次数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>完成挑战副本次数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>升级技能次数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>升级装备次数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>购买金币次数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>商店购买道具ID次数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>商店刷新次数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>完成副本次数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>完成竞技场次数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>完成金币试炼次数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>完成经验试炼次数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>消耗活力值数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>使用某个道具次数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>镶嵌宝石次数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>合成宝石次数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>角色等级到x级</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>购买礼包次数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>离开工会次数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>服务器记录内容完善</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>计算次数方式</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>成功</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>进行过</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>补充任务项进度的相关规则</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>UI示意图更新</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>领取普通满星奖励</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>领取困难满星奖励</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4209,7 +4210,7 @@
       </rPr>
       <t>normal</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4225,23 +4226,23 @@
       </rPr>
       <t>hard</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>三星完成某个普通章节</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>三星完成某个困难章节</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>补充一个任务目标需求</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>通天塔某一层</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4257,139 +4258,139 @@
       </rPr>
       <t>ongtianta</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>完成通天塔层数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>成功</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>完成固定层数通天塔</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>完善通天塔任务目标</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>宠物等级到x级数量</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>完成循环类任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>携带某个品级的装备数量</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>加入公会次数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>携带某个品级的宠物数量</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>三星通关副本次数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>chapternarmal</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>chapterhard</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>满星通关某个挑战章节</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>满星通关某个普通章节</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>镶嵌某种宝石次数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>合成某种宝石次数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>充值钻石数量</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>使用钻石数量</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>金币抽蛋次数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>钻石抽蛋次数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>公会祈福次数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>公会boss次数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>公会体力次数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>装备打孔次数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>抽到某种品级的宠物次数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>抽到某种品级的装备次数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>抽到某种道具次数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>竞技场币获得数量</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>公会币获得数量</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>通天塔币获得数量</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>完成某个任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>宠物合成次数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>更新数据记录</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4405,154 +4406,170 @@
       </rPr>
       <t>D：mission_title</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务中涉及到数量相关的目标时，完成任务条件以真实获得数量为准</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>即当获得数量+当前已有数量超出上限范围时，超出部分不记录</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>如，金币上限100，当前有97，副本掉落5，则只记录3，超出的2不记录</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>数量超上限记录规则补充</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>2016/1/13验收</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>领取奖励界面样式错误</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>1位置应该是任务名称</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>2位置应该是任务描述以及完成情况</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 3位置应该是确定按钮</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>一</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>二</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>三</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务奖励</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务系统图标</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>当有可完成的任务时，任务图标没有红色点提示，应该和邮件的一样</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>go now后点击返回会出现界面重叠现象</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务跳转</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>未配置任务跳转的任务项还会显示跳转按钮</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>成就分页不显示任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>时限任务显示错误</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>不在领取时间内也应该显示该任务，只是显示时间未到</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>petmix</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>buycoin</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>usefatigue</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>已完成的任务没有显示在列表上方</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>添加任务验收</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>累计完成N次副本ID</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>instance</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>通关副本参数统一</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务图标提示规则</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>当有已完成的任务时，主界面中任务图标右上角显示红点提示</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>将主界面中关于任务图标的提示移到任务文档中</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>当该分页签中有可以完成的任务时，在分页签右上角显示红点提示</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>当可完成任务消失时，红点对应消失</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>分页签显示红点需求</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>如领取任务奖励后，角色升级，则</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果任务后有对话，则在对话播放完毕后弹出升级界面</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果任务后没有对话，则在奖励框关闭后弹出升级界面</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充领取奖励升级时界面弹出规则</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="41">
+  <fonts count="42">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4560,6 +4577,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4899,304 +4923,307 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="4" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="4" applyFont="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -9349,7 +9376,7 @@
   <dimension ref="A1:N125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G89" sqref="G89"/>
+      <selection activeCell="I92" sqref="I92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -10857,7 +10884,9 @@
       <c r="E88" s="9"/>
       <c r="F88" s="5"/>
       <c r="G88" s="47"/>
-      <c r="H88" s="47"/>
+      <c r="H88" s="49" t="s">
+        <v>1113</v>
+      </c>
       <c r="I88" s="47"/>
       <c r="J88" s="47"/>
       <c r="K88" s="8"/>
@@ -11280,7 +11309,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H13" location="任务项内容格式" display="补充任务内容显示现有需求"/>
     <hyperlink ref="H14" location="设计备忘!A1" display="设计备忘中记录主界面与新手引导对任务界面的提示需求"/>
@@ -11361,6 +11390,7 @@
     <hyperlink ref="H85" location="统一副本" display="通关副本参数统一"/>
     <hyperlink ref="H86" location="任务图标提示规则" display="将主界面中关于任务图标的提示移到任务文档中"/>
     <hyperlink ref="H87" location="当该分页签中有可以完成的任务时_在分页签右上角显示红点提示" display="分页签显示红点需求"/>
+    <hyperlink ref="H88" location="如领取任务奖励后_角色升级_则" display="补充领取奖励升级时界面弹出规则"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11573,7 +11603,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -11583,8 +11613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R361"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58:J59"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -15026,7 +15056,7 @@
       <c r="E361" s="28"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="A251:A1048576 A1:A249">
     <cfRule type="notContainsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
@@ -15043,10 +15073,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O199"/>
+  <dimension ref="A2:O202"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81:I82"/>
+    <sheetView topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="C200" sqref="C200:H202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -17365,8 +17395,38 @@
       <c r="I199" s="27"/>
       <c r="J199" s="27"/>
     </row>
+    <row r="200" spans="2:10">
+      <c r="C200" s="110" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D200" s="27"/>
+      <c r="E200" s="27"/>
+      <c r="F200" s="27"/>
+      <c r="G200" s="27"/>
+      <c r="H200" s="27"/>
+    </row>
+    <row r="201" spans="2:10">
+      <c r="C201" s="27"/>
+      <c r="D201" s="110" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E201" s="27"/>
+      <c r="F201" s="27"/>
+      <c r="G201" s="27"/>
+      <c r="H201" s="27"/>
+    </row>
+    <row r="202" spans="2:10">
+      <c r="C202" s="27"/>
+      <c r="D202" s="110" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E202" s="27"/>
+      <c r="F202" s="27"/>
+      <c r="G202" s="27"/>
+      <c r="H202" s="27"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
@@ -18086,7 +18146,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -24770,7 +24830,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -24891,7 +24951,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -25124,7 +25184,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -25202,7 +25262,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -25286,7 +25346,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/gd/任务系统/新版任务系统设计.xlsx
+++ b/gd/任务系统/新版任务系统设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -38,16 +38,17 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">数据记录!$C$7:$C$7</definedName>
     <definedName name="arena">数据记录!#REF!</definedName>
     <definedName name="difficulty">基础规则!#REF!</definedName>
-    <definedName name="eggcointen">基础规则!$D$106:$I$107</definedName>
-    <definedName name="holecoinenter">基础规则!$D$100:$I$101</definedName>
+    <definedName name="eggcointen">基础规则!$D$107:$I$108</definedName>
+    <definedName name="holecoinenter">基础规则!$D$101:$I$102</definedName>
     <definedName name="jointower">基础规则!#REF!</definedName>
     <definedName name="NPC配置格式">数据记录!#REF!</definedName>
     <definedName name="NUM">数据记录!$J$3:$J$5</definedName>
     <definedName name="PureGather">基础规则!#REF!</definedName>
+    <definedName name="star3">基础规则!$D$119:$K$119</definedName>
     <definedName name="操作类">基础规则!#REF!</definedName>
     <definedName name="成功">数据记录!#REF!</definedName>
     <definedName name="触发对话后其余背景蒙版蒙灰">[1]UI相关逻辑!$C$5</definedName>
-    <definedName name="穿装备">基础规则!$D$97:$I$97</definedName>
+    <definedName name="穿装备">基础规则!$D$98:$I$98</definedName>
     <definedName name="此类任务中一次性多连抽算作多次抽蛋操作_即10连抽算10次">基础规则!#REF!</definedName>
     <definedName name="当该分页签中有可以完成的任务时_在分页签右上角显示红点提示">UI逻辑!$E$58:$J$59</definedName>
     <definedName name="当完成任意任务后_自动接取该任务后一个任务_任务配置表中顺序">基础规则!$E$10:$J$11</definedName>
@@ -66,7 +67,7 @@
     <definedName name="奖励内容中的图标弹出的tips不显示获得途径指引功能">UI逻辑!$E$228:$J$228</definedName>
     <definedName name="奖励内容中的图标无tips显示">UI逻辑!$E$228</definedName>
     <definedName name="奖励配置">数据记录!$O$2:$Q$5</definedName>
-    <definedName name="界面特殊规则">基础规则!$B$135:$I$139</definedName>
+    <definedName name="界面特殊规则">基础规则!$B$141:$I$145</definedName>
     <definedName name="金币">基础规则!$G$39:$O$53</definedName>
     <definedName name="进行通天塔操作">基础规则!#REF!</definedName>
     <definedName name="进入试炼">基础规则!#REF!</definedName>
@@ -78,9 +79,10 @@
     <definedName name="立绘需求">[1]UI相关逻辑!$E$41:$N$48</definedName>
     <definedName name="立即前往按钮相应规则">基础规则!#REF!</definedName>
     <definedName name="领取章节满星奖励">基础规则!#REF!</definedName>
-    <definedName name="满星奖励">基础规则!$D$114:$I$115</definedName>
-    <definedName name="满星奖励需求">基础规则!$D$87:$I$88</definedName>
+    <definedName name="满星奖励">基础规则!$D$115:$I$116</definedName>
+    <definedName name="满星奖励需求">基础规则!$D$88:$I$89</definedName>
     <definedName name="名称">[1]UI相关逻辑!$E$84:$L$86</definedName>
+    <definedName name="目标参数中有___的可以配置多个_没有的不能配置多个">基础规则!$D$129:$H$130</definedName>
     <definedName name="内容固定_每个任务每天可以完成一次">任务类型!$D$24</definedName>
     <definedName name="配置形式遵循道具配置规则_详细见【道具文档】">基础规则!$I$52</definedName>
     <definedName name="配置形式遵循道具配置规则_详细见道具文档">基础规则!$I$52</definedName>
@@ -103,21 +105,21 @@
     <definedName name="任务项内容格式">UI逻辑!$E$92:$L$113</definedName>
     <definedName name="任务项内容刷新规则">UI逻辑!$E$183:$K$185</definedName>
     <definedName name="任务消失后该行任务消失_该行任务下方的任务整体向上一动一个位置_后续关联任务出现后_仍然插入到前置任务消失的位置">UI逻辑!$G$186:$R$186</definedName>
-    <definedName name="任务中如涉及有完成副本类任务时_如该类副本有扫荡操作_则扫荡操作完成的次数计入副本完成次数中">基础规则!$C$133:$K$133</definedName>
-    <definedName name="任务中涉及到数量相关的目标时_完成任务条件以真实获得数量为准">基础规则!$C$128:$I$130</definedName>
+    <definedName name="任务中如涉及有完成副本类任务时_如该类副本有扫荡操作_则扫荡操作完成的次数计入副本完成次数中">基础规则!$C$139:$K$139</definedName>
+    <definedName name="任务中涉及到数量相关的目标时_完成任务条件以真实获得数量为准">基础规则!$C$134:$I$136</definedName>
     <definedName name="任务状态标识">UI逻辑!$D$158:$H$165</definedName>
-    <definedName name="如领取任务奖励后_角色升级_则">基础规则!$C$140:$H$142</definedName>
+    <definedName name="如领取任务奖励后_角色升级_则">基础规则!$C$146:$H$148</definedName>
     <definedName name="三星">数据记录!$L$5:$O$5</definedName>
     <definedName name="三星完成章节">基础规则!#REF!</definedName>
-    <definedName name="十连抽">基础规则!$D$106:$I$107</definedName>
-    <definedName name="十连抽次数">基础规则!$D$93:$I$95</definedName>
-    <definedName name="十连抽算十次">基础规则!$J$91:$K$95</definedName>
-    <definedName name="十连抽算作10次操作">基础规则!$J$106:$K$108</definedName>
+    <definedName name="十连抽">基础规则!$D$107:$I$108</definedName>
+    <definedName name="十连抽次数">基础规则!$D$94:$I$96</definedName>
+    <definedName name="十连抽算十次">基础规则!$J$92:$K$96</definedName>
+    <definedName name="十连抽算作10次操作">基础规则!$J$107:$K$109</definedName>
     <definedName name="时间">数据记录!$J$3:$K$5</definedName>
     <definedName name="时效性">基础规则!#REF!</definedName>
     <definedName name="时效性配置需要有始有终_即需要配置起始点与终止点">基础规则!#REF!</definedName>
-    <definedName name="试练塔">基础规则!$D$88:$I$89</definedName>
-    <definedName name="试炼次数">基础规则!$D$100:$I$101</definedName>
+    <definedName name="试练塔">基础规则!$D$89:$I$90</definedName>
+    <definedName name="试炼次数">基础规则!$D$101:$I$102</definedName>
     <definedName name="是否可跳过">[1]配置结构!$D$2:$D$3</definedName>
     <definedName name="数据记录">数据记录!#REF!</definedName>
     <definedName name="数据记录啊">数据记录!#REF!</definedName>
@@ -182,7 +184,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="865">
   <si>
     <t>文档名称</t>
   </si>
@@ -254,335 +256,335 @@
   </si>
   <si>
     <t>新版任务系统设计</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>基于目前架构重新设计任务系统</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务组</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>界面标题</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>标题内容为： 任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务类型分页签</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务项</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务项图标</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>显示该任务项的对应图标</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务项名称</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务项内容</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>显示该任务的完成条件，描述性指引</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务项奖励</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>图标形式显示该任务奖励内容</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>其中N为奖励数量</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>1.当前任务可进行中，显示该任务项的完成进度</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>如完成3次任意关卡，当前已完成1次，则显示为1/3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>如限时任务，需要显示“时间未到”</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>此类情况下区分不同任务可自定义不可进行的原因，最多为4个汉字</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>2.当前任务不可进行，显示该任务项不可进行的原因</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务状态按钮</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>区分三种情况</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>1.该任务已完成，则显示领取奖励</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>3.该任务不可进行，则不显示任何按钮</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>点击后可以领取对应奖励</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>点击后可以进入完成该任务的对应位置</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务未完成时，显示任务项进度</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>主界面点击任务图标按钮，可以打开任务界面</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务界面样式如下</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>成功领取奖励后，会弹出任务奖励确认框</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>具体样式如下</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务名称</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>显示当前奖励所属的任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>显示格式为：</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>奖励内容</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>显示奖励内容</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>显示格式为图标*N</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>显示顺序与任务界面显示顺序一致</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>确认按钮</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>按钮显示为“好的”</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>点击按钮后，界面关闭</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>其他规则</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务基础属性</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务类型</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务类型用于标识该任务所属的类型</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>用于标识一类相互联系的任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>如某些任务是有前后关系的，则标识为同一个任务组</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务ID</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务的唯一标识，即任务编号，不用于显示使用（玩家不可见），全局唯一</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>取值范围为10000起，不同类型的任务取值区间不同</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>…</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务名称</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>用于显示任务的名称</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务状态</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>已完成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>不可进行</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>不可接取</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>不可接取的任务不显示，玩家不可见</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>可进行未完成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>可进行但还没有完成的任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>已经完成可以领取奖励的任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务奖励</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>用于标识交付该任务可以获得奖励</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>已交付</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务状态分为：不可接取、不可进行、可进行未完成、已完成、已交付 四种</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>已经领取奖励的任务，领取后不显示，玩家不可见</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>循环性</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>用于标识任务是否可以重复进行</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>普通</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>normal</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>日循环</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>daily</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>每个任务每天只能做一次，任务内容为固定内容</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>每个任务只能做一次，任务内容为固定内容</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务接取条件</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>可进行的任务均为自动接取并显示在对应任务界面中</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>如当前某个类型的任务数为0，则切换至该界面后，不显示任何任务项</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务交付条件</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>限制条件</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>等级限制</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>玩家达到某个等级后可以接取</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务达成后即可交付任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务目标</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>需求可扩展，后续开发新活动或者玩法可以直接调用</t>
@@ -625,731 +627,731 @@
   </si>
   <si>
     <t>剧情任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>日常任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>每天可以完成的固定的任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>接取条件</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>达到固定等级后，会自动接取</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>界面特殊规则</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>显示顺序按照任务编号由小至大顺序从上至下显示</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>同一个任务组中的任务，只显示当前未完成且编号最小的任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>yh</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>根据主策审核完善文档</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务入口</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>等待主界面设计完毕后回归补充</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务状态提示</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>当有任务可交付时，任务图标有状态提示</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>当有未做过的任务出现时，新手引导在任务图标以及任务界面位置进行提示</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>同时引导玩家进行副本体验</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>同时引导玩家进行精英难度副本体验</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>内容固定，每个任务每天可以完成一次</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>特定的伙伴达到某个品级时可以接取</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>接取后自动显示在任务界面中，并给予指引提示</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>各支线之间没有关联关系，可能同时存在多个支线任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>详见【基础规则】分页</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务项进度显示区分为两种情况</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务项内容根据所配置的格式以及对应任务的配置参数进行识别显示内容</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>如“逗比出世”任务，配置任务目标类型为“副本”，参数填写为“拯救妲己”的副本ID</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>则自动显示为：“完成关卡：第一章-拯救妲己”</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务项内容格式</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>通关副本</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>三星通关副本</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>通关精英副本</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>三星通关精英副本</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>副本次数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>副本指引</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>完成副本</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>完成精英副本</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>完成n次任意副本</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>完成n次任意精英副本</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>完成竞技场</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>完成n次竞技场挑战</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>完成大冒险</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>技能</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>完成时光之穴</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>升级技能</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>购买金币</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>竞技场</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>大冒险</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>消耗钻石</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>完成n次大冒险</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>完成n次时光之穴</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>升级n次技能</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>购买n次金币</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>通关副本：第X章-副本名称</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>三星通关副本：第X章-副本名称</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>通关精英副本：第X章-副本名称</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>三星通关精英副本：第X章-副本名称</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>现有需求如下</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>补充任务内容显示现有需求</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>设计备忘中记录主界面与新手引导对任务界面的提示需求</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>界面音效</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>事件</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>音效资源</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>待定</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>打开任务界面</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>关闭任务界面</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>点击任务类型分页签</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>领取任务奖励</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>点击未完成任务项</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>补充音效需求</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>变更每个日常任务的完成次数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>完善任务类型的描述</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>补充任务对话相关内容</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务配置格式</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>补充任务配置格式</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>补充对话配置格式</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>日常任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>刀塔传奇</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>固定任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>奖励一致</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>盗梦英雄</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>固定任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>经验随等级增长而增长，每级75</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>奖励分为金币（或其他同价值币种）、钻石（或其他同价值名称）、经验、道具奖励</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>金币</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>钻石</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>经验</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>道具</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>此类奖励为固定值奖励，即每条任务的奖励为固定值，不会随玩家等级等因素变化而变化</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>规定任务奖励的数量值</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>添加任务经验可变性规则</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>可循环类的任务次数重置点为自然周期结束的0点，即日循环任务为每天0点刷新次数(暂定0点，如游戏整体规划刷新时间为其他时间则统一变更)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.5</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>qc</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>yh</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>刷新时间统一</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务配置格式细化</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>取消前置对话</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>奖励配置优化</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务时效性描述细化</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>多个奖励如何配置</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>点击立即前往</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>窗口类型</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>一级窗口</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>控件类型</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>按钮</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>显示位置</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>出现/隐藏规则</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>始终显示</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>按钮文案</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>按钮操作</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>无特殊</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>按钮样式</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>普通</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>按下</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>音效</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>按钮效果</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>控件类型</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>标签页</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>显示位置</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>出现/隐藏规则</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>始终显示，默认选择剧情任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>点击后可选择对应类型任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>默认选择剧情任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>每次打开界面恢复默认</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>位于界面标题左下方</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>标签页效果</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>标签页文案</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>剧情任务/日常任务/列传任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>标签页操作</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>标签页样式</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>选中</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>显示形式</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>横向</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>显示该任务项的任务名称</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>角色等级</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>宠物等级</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>宠物品质</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>角色等级</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>角色等级达到X级</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>宠物品级数量</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>携带紫色品级的宠物达到x个</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>伙伴等级</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>携带的伙伴最高等级达到X级</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>已补充</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>显示顺序为：钻石、金币、经验、道具（道具图标按照道具表中的顺序）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>已知的任务原因</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>时间未到(领体力)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>2.该任务可进行未完成，则显示立刻前往</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>打开任务界面，默认显示第一个任务项</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>窗口类型</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>提示窗口</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>文案内容</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务奖励</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>点击后可以关闭提示界面</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>位于界面正下方</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>好的</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>日常任务：30000-39999</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>未完成的任务在重置点全部删除，同时刷出新一天的任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>打开界面</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>关闭界面</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>事件</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>资源</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>待定</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>点击分页签</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>界面打开</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>会与其他界面打开音效重叠</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.6</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>qc</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>yh</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>qc文档分析后回归</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务项奖励的图标无tips显示</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务项中道具图标无tips显示</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>奖励内容中道具图标无tips显示</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>确认按钮</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务图标根据任务确定，每个任务可以单独配置一个图标</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.7</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>qc</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>yh</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>完善时效性任务规则</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>目前不可进行只有时间未到的情况</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>此类奖励为可变值，即每条任务的奖励为一个与玩家等级有关的公式</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>前边UI没说这种不显示的情况
@@ -1357,269 +1359,269 @@
   </si>
   <si>
     <t>任务界面美术需求</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>插入当前之前的任务，直接略过
 插入当前之后的任务，可以做到
 插入当前正在进行的任务，则刷新当前任务即可</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>补充对应美术需求</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>解答qc文档分析内容</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>4.任务奖励界面需求</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>包括 提示标题样式、界面样式、按钮样式</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>添加任务对话美术需求</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>添加任务对话出现时背景蒙灰的规则</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>补充道具奖励的配置方式遵循道具文档</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>问题</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>分页签开启规则</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>每个页签对应一个开启等级</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>story</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>daily</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>（暂定）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>当对应页签未开启时，不显示该任务分页签</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>增加对话跳过的相关规则</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>增加对话跳过的配置需求</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>补充分页签开启规则</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>补充跳过按钮美术需求</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.7</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>程序、测试、策划、木木、mt</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>明确任务逻辑内容以及说明解决方法</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务组方式保留，刨除序号</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>接取条件是否需要通关副本</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>对话内容改为配置id</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>对话相关NPC数据拆分</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>时效性任务实现方法等待程序确认</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务奖励遵循通用配置方式</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务时效性配置拆开起止点</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>补充对话中下一步操作的响应范围</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务界面实时刷新</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>进入副本后，相关界面是否关闭</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>补充可完成的任务显示在上方的规则</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>当完成任意任务后，自动接取该任务后一个任务（任务配置表中顺序）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>如上一个任务未交付，则新任务不显示，但为已接取状态，可以进行</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务项内容刷新规则</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>已完成的任务，显示在对应分页的上方，多个已完成任务按照任务编号由小至大顺序从上至下显示</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>非本文档需要解决内容</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>需要确定体力怎么领</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>目标</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>奖励</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>是否需要新加一项</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.7</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>qc</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>yh</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>补充任务刷出为即时刷新</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>完善对话配置格式</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>完善时效性任务配置规则</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>通过通用奖励配置进行给予，配置中填写对应奖励ID即可</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>配置对应K值与B值，即可根据玩家等级进行计算最终经验数值</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>完善任务奖励配置规则</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>将任务配置参数变更为数据形式</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>程序</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>服务器</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>做的时候再拆</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>所有内容</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>4d</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>策划</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>摆UI</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>2h</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>配置验收</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>增加需求拆分分页</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>统一任务目标与参数名称对应</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务配置、数据结构 3d</t>
@@ -1650,198 +1652,198 @@
   </si>
   <si>
     <t>3d</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>1d</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>1.5d</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>2d</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>1.5d</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>服务器程序任务拆分更新</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.7</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>qc</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>yh</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>完善三星挑战以及难度通关的任务目标配置</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.7</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>qc</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>首次通关奖励任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>玩家首次通关副本时，发放给玩家的奖励</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>第一个主线任务也是玩家进入游戏自动接取</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>同主线任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务列表UI部分逻辑验收</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务分页签名称不正确</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>上图中三个分页签应该分别为  剧情任务、日常任务、列传任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务名称位置多余显示了任务编号</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务描述中没有根据目标值读取变量值</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务项中的任务图标目前无法读取</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>奖励领取界面标题错误</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>上图中红色框中内容应该为固定文本 任务奖励</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>奖励领取界面任务名称位置错误</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>上图中红色框中内容应该为任务名称</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>当配置接取等级大于当前等级时也会显示该任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务奖励中的经验值未与任务表中的k和b值进行加成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务显示不完整</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>剧情任务只显示编号最小的1个任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>日常任务只显示编号最小的1个任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>列传任务只显示5个任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>经验值最终结果X=reward表读取值*K+B</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>补充经验值计算公式</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>修改对话表格格式</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>对话配置更新以及立绘设计规范补充</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>完成任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务名称</t>
   </si>
   <si>
     <t>调整奖励领取界面任务名称排布样式</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>不可进行的任务显示在任务界面中，玩家可见但暂不可进行（如未到时间）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>补充剧情对话的触发条件</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.7</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>qc、程序</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>yh</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>副本结束剧情对话触发条件补充</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>去掉任务界面中没有任务时的提示</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务目标增加“月卡”类型</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>MT</t>
@@ -1860,139 +1862,139 @@
   </si>
   <si>
     <t>完善立绘需求</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.8</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>qc</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>3fat</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>对应立绘需求增加配置格式</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">时光之穴 </t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>通天塔</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务项进度</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务状态标识</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>显示在任务项前方，区分两种状态</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>已完成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>未完成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>当没有任务对话的情况下，交付的任务即刻消失，如有后续关联任务，则即时出现</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>当有任务对话的情况下，任务对话结束后，交付的任务消失，如有后续关联任务，则对话结束后，出现关联任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>目前分为：主线任务、日常任务、成就</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>主线任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>成就任务：40000-49999</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>成就任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>名词解释</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>用于统计玩家的行为</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>由多个任务链组成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>街区条件</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>达到固定等级；副本进度达到某个程度</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>更新UI部分逻辑</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>完善任务逻辑</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>补充接取任务可能触发任务对话的需求</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>不显示任何内容</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务状态部分逻辑变更</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>上下，上下这个顺序显示是么</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>只有这一种么？没有个进行中？</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>多语言</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>4个半？</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>跟程序确认下，这个是原来的通用框么？还是要新做一个框</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>两个主线任务啥意思</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>这个标着没用，美术才不管你呢，删了吧</t>
@@ -2008,71 +2010,71 @@
   </si>
   <si>
     <t>已删</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>其实是计算完成一次通天塔中的任意副本</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>对</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>没有，不显示已完成其实就是进行中</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>这个直接是个图，可以用done来表示</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>已修改</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>我写的就是这个意思吧？</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>不用</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>支线任务：20000-29999</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>已删</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>主线任务：10000-19999</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>QC文档分析反馈</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>完成通天塔固定层数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>完成n次通天塔固定层数的副本</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务界面</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>动画需求</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>1.打开界面后任务项有右侧依次进入</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2088,111 +2090,111 @@
       </rPr>
       <t>.任务页签由界面底部向上弹出</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>动画需求</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>界面弹出为由小到大</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>弹出后领取界面有特效效果</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>可以是喝彩的闪光的样式</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>补充美术需求以及动画需求</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>补充部分完成条件</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.8</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>qc、程序、铁马</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>立绘对话相关功能不在任务中明确</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务跳转与道具指引一致</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务结束后对话出现逻辑</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务消失后该行任务消失，该行任务下方的任务整体向上一动一个位置，后续关联任务出现后，仍然插入到前置任务消失的位置</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务奖励位置排序规则</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务项奖励最多同时出现5个</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>格式为： 图标+数量 形式，其中数量显示在图标下侧，前两项分别显示金币、钻石，后续图标按照道具列表排序即可</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>接任务条件去掉副本和玩法</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>去掉时效性需求</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>根据任务类型确定是否显示【立即前往】按钮</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>显示该按钮的任务点击后效果同道具tips产出功能逻辑</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务类型目标划分</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>数据记录中补充需要记录的内容</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>配表类型完善</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>2015/12/26修改需求</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>程序</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>策划</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2208,19 +2210,19 @@
       </rPr>
       <t>I</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务ui设计</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 1d</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务ui调整加动画设计</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2236,7 +2238,7 @@
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2252,7 +2254,7 @@
       </rPr>
       <t>debug</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2268,7 +2270,7 @@
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>摆放搭建UI界面（奖励提示界面）</t>
@@ -2287,11 +2289,11 @@
   </si>
   <si>
     <t>客户端</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>服务器端</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2307,27 +2309,27 @@
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.9</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>3fat</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>补充任务拆分</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务目标参数确定</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>补充两个任务目标需求</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>#NUM</t>
@@ -2468,9 +2470,6 @@
     <t>arena</t>
   </si>
   <si>
-    <t>useitem</t>
-  </si>
-  <si>
     <t>inlayall</t>
   </si>
   <si>
@@ -2501,9 +2500,6 @@
     <t>societyjoin</t>
   </si>
   <si>
-    <t>star3</t>
-  </si>
-  <si>
     <t>buygift</t>
   </si>
   <si>
@@ -2520,51 +2516,51 @@
   </si>
   <si>
     <t>更新任务配置格式</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>循环性配置规则变更</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务项内容根据配置内容进行显示</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>同一个任务界面中，最多同时显示2个半完整的任务项</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>当该类型任务项超过2个时，可上下拖动已查看其他任务项</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>更新UI示意图</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>服务器记录内容完善</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>补充任务项进度的相关规则</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>UI示意图更新</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>补充一个任务目标需求</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>完善通天塔任务目标</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>更新数据记录</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2580,351 +2576,1016 @@
       </rPr>
       <t>D：mission_title</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务中涉及到数量相关的目标时，完成任务条件以真实获得数量为准</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>即当获得数量+当前已有数量超出上限范围时，超出部分不记录</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>如，金币上限100，当前有97，副本掉落5，则只记录3，超出的2不记录</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>数量超上限记录规则补充</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>2016/1/13验收</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>领取奖励界面样式错误</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>1位置应该是任务名称</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>2位置应该是任务描述以及完成情况</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 3位置应该是确定按钮</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>一</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>二</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>三</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务奖励</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务系统图标</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>当有可完成的任务时，任务图标没有红色点提示，应该和邮件的一样</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>go now后点击返回会出现界面重叠现象</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务跳转</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>未配置任务跳转的任务项还会显示跳转按钮</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>成就分页不显示任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>时限任务显示错误</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>不在领取时间内也应该显示该任务，只是显示时间未到</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>已完成的任务没有显示在列表上方</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>添加任务验收</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>通关副本参数统一</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务图标提示规则</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>当有已完成的任务时，主界面中任务图标右上角显示红点提示</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>将主界面中关于任务图标的提示移到任务文档中</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>当该分页签中有可以完成的任务时，在分页签右上角显示红点提示</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>当可完成任务消失时，红点对应消失</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>分页签显示红点需求</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>如领取任务奖励后，角色升级，则</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>如果任务后有对话，则在对话播放完毕后弹出升级界面</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>如果任务后没有对话，则在奖励框关闭后弹出升级界面</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>补充领取奖励升级时界面弹出规则</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>奖励内容中的图标弹出的tips不显示获得途径指引功能</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>奖励界面道具图标tips不显示获得途径</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>将对话部分内容移到新文档中单独制作</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>补充满星奖励的目标需求</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务中如涉及有完成副本类任务时，如该类副本有扫荡操作，则扫荡操作完成的次数计入副本完成次数中</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>补充扫荡次数计入副本通关次数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>补充十连抽操作算作十次抽蛋</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>补充一个完成十连抽操作的任务目标</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>补充试炼需要进入任务目标的需求</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>补充通天塔需要进入任务目标的需求</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>将任务目标需求重新整理</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>配置表中配置跳转项则显示立即前往按钮，不配置即不显示</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置参数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成大冒险N次</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>equipstage-x</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>free</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费领取</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>hole</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>exp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>enter</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值钻石N个</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善任务目标描述</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=副本</t>
+  </si>
+  <si>
+    <t>2=合成</t>
+  </si>
+  <si>
+    <t>3=商店</t>
+  </si>
+  <si>
+    <t>4=商城</t>
+  </si>
+  <si>
+    <t>7=公会</t>
+  </si>
+  <si>
+    <t>1 = 普通商店</t>
+  </si>
+  <si>
+    <t>2 = 公会商店</t>
+  </si>
+  <si>
+    <t>3 = 通天塔商店</t>
+  </si>
+  <si>
+    <t>1 =  公会BOSS</t>
+  </si>
+  <si>
+    <t>2 =  公会任务</t>
+  </si>
+  <si>
+    <t>任务跳转引导规则</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>6=抽蛋</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>5=任务</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>副本I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=宠物界面</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 = 剧情分页</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 = 日常分页</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 = 成就分页</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>9=章节选择界面</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 = 宝石</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> = 材料</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0=背包</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> = 宝箱</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> = 消耗品</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> = 宝石</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> = 材料</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 =  收集宠物</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 =  拥有宠物</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 =  公会成员</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 =  公会列表</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 =  公会主界面</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 =  公会许愿</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1=钻石购买金币</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2=分解</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> = 装备</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> = 宠物</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转到对应阵容选择</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>选塔界面</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石合成界面</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料合成界面</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通商店界面</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会商店界面</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔商店界面</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城界面</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧情任务分页</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常任务分页</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>成就任务分页</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽蛋界面</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>此功能暂无，先不做</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入公会列表界面</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会主界面，如没有公会则跳转加入公会列表界面</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会许愿界面，如没有公会则跳转加入公会列表界面</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会成员列表，如没有公会则跳转加入公会列表界面</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会任务界面，如没有公会则跳转加入公会列表界面</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会boss分页，如没有公会则跳转加入公会列表界面</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有宠物列表</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集宠物界面</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包宝箱分页</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包消耗品分页</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包宝石分页</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包材料分页</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石购买金币确认框</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备分解界面</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物分解界面</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>大冒险界面</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>如副本未达到开启条件不会进行跳转，则弹出对应提示信息（见副本阵容选择）</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充任务跳转规则</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转参数格式为 数字+下划线+参数 形式</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字含义</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数含义</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场界面</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他跳转情况等待对应功能设计出之后进行补充</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充竞技场跳转</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 = PVP商店</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PVP商店界面</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>试炼界面</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>回去问下师叔，没有就不要了</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>师叔说了 可以有</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>13=活动</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 =  大冒险</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 =  竞技场</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 =  试炼</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 = 通天塔</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转增加一个活动项</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认副本章节可以跳转</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节对应难度的副本列表界面</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>统一试炼名称</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>er 0.9</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>z、小珍、小龙、阿木、兔桑雷神</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充任务拆分</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/1/29修改需求</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.5d</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>小龙：1d</t>
+  </si>
+  <si>
+    <t>师叔：0.5d</t>
+  </si>
+  <si>
+    <t>小珍：2d</t>
+  </si>
+  <si>
+    <t>任务跳转</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任务目标</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>通关试炼X副本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>N次也可以通过这个实现</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标类型</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标参数：X</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标量：N</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务目标</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>是否每天清空</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>是否记录累计值</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>计算次数方式</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>adventure</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成大冒险N次</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>是</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>成功</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>完成副本N次</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>进行竞技场N次</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>进行过</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>buycoin</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>购买金币N次</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>购买礼包N次</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>buyitem-x</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品id | 物品id</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店购买X道具N次</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>callequipstage-x</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>品级数字</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>抽到≥X品级的装备N个</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>callpetstage-x</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>抽到≥X品级的宠物N个</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>chapterhard-x</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节id</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>领取X困难章节的满星奖励</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>chapternormal-x</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>领取X普通章节的满星奖励</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>获得公会币N个</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>获得通天塔币N个</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>完成抽蛋N次</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>十连抽算作10次操作</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>完成金币抽蛋N次</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>eggcointen</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>eggcoin10</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>完成金币十连抽N次</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>十连抽算作1次操作</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>完成钻石抽蛋N次</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>eggdiamondten</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>eggdiamond10</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>完成钻石十连抽N次</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>完成装备打孔N次</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>equipstage-x</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>free</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费领取</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一只宠物穿过≥X品级的装备达到N个</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>完成挑战副本N次</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2950,45 +3611,31 @@
       </rPr>
       <t>enter</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>hole</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>exp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>enter</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入金币试炼N次</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入经验试炼N次</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>完成镶嵌宝石N次</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>inlaytype-x</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型数字 | 类型数字</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>完成镶嵌X类型宝石N次</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3004,757 +3651,206 @@
       </rPr>
       <t>-x</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本id | 副本id</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>通关X副本N次</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关通天塔X副本N次也可以通过这个实现</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>角色等级达到N级</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>试炼完成副本N次也通过这个实现</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>完成普通副本N次</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>paydiamond</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值钻石N个</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>petlevel-x</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物等级达到X级N个</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有过≥X级的宠物N个</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>历史有过即可</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>petmix</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>完成宠物合成N次</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>petstage-x</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>携带≥X品级的宠物N个</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有过≥X品级的宠物N个</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>quest-x</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务id</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>完成X任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>questcycle-x</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环数字 | 循环数字</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>完成X循环类任务N个</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>questtype-x</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>类数字 | 类数字</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>完成X类任务N个</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>完成商店手动刷新N次</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>完成公会bossN次</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>暂时没有此功能</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>完成公会体力赠送N次</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>加入公会N次</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>完成公会祈福N次</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>三星通关副本N次</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>合成宝石N个</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>“合成十个”算十个</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>syntype-x</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>合成X类型宝石N个</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>升级装备N次</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>升级技能N次</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>使用钻石N个</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>usefatigue</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>消耗活力值N个</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>useitem-x</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>使用X物品N个</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>完善任务目标描述</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>同一只宠物穿过≥X品级的装备达到N个</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关通天塔X副本N次也可以通过这个实现</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>1=副本</t>
-  </si>
-  <si>
-    <t>2=合成</t>
-  </si>
-  <si>
-    <t>3=商店</t>
-  </si>
-  <si>
-    <t>4=商城</t>
-  </si>
-  <si>
-    <t>7=公会</t>
-  </si>
-  <si>
-    <t>1 = 普通商店</t>
-  </si>
-  <si>
-    <t>2 = 公会商店</t>
-  </si>
-  <si>
-    <t>3 = 通天塔商店</t>
-  </si>
-  <si>
-    <t>1 =  公会BOSS</t>
-  </si>
-  <si>
-    <t>2 =  公会任务</t>
-  </si>
-  <si>
-    <t>任务跳转引导规则</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>6=抽蛋</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>5=任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>副本I</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>D</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>=宠物界面</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 = 剧情分页</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 = 日常分页</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 = 成就分页</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>9=章节选择界面</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 = 宝石</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> = 材料</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0=背包</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> = 宝箱</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> = 消耗品</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> = 宝石</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> = 材料</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 =  收集宠物</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 =  拥有宠物</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 =  公会成员</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 =  公会列表</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 =  公会主界面</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>6 =  公会许愿</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1=钻石购买金币</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2=分解</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> = 装备</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> = 宠物</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳转到对应阵容选择</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>选塔界面</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝石合成界面</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料合成界面</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通商店界面</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>公会商店界面</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>通天塔商店界面</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>商城界面</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>剧情任务分页</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>日常任务分页</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>成就任务分页</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽蛋界面</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>此功能暂无，先不做</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>加入公会列表界面</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>公会主界面，如没有公会则跳转加入公会列表界面</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>公会许愿界面，如没有公会则跳转加入公会列表界面</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>公会成员列表，如没有公会则跳转加入公会列表界面</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>公会任务界面，如没有公会则跳转加入公会列表界面</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>公会boss分页，如没有公会则跳转加入公会列表界面</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>拥有宠物列表</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>收集宠物界面</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>背包宝箱分页</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>背包消耗品分页</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>背包宝石分页</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>背包材料分页</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻石购买金币确认框</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备分解界面</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物分解界面</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>大冒险界面</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>如副本未达到开启条件不会进行跳转，则弹出对应提示信息（见副本阵容选择）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>补充任务跳转规则</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳转参数格式为 数字+下划线+参数 形式</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字含义</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数含义</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>竞技场界面</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他跳转情况等待对应功能设计出之后进行补充</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>补充竞技场跳转</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 = PVP商店</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>PVP商店界面</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>试炼界面</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>回去问下师叔，没有就不要了</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>商店购买X道具N次</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>师叔说了 可以有</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>13=活动</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 =  大冒险</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 =  竞技场</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 =  试炼</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 = 通天塔</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳转增加一个活动项</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认副本章节可以跳转</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>章节对应难度的副本列表界面</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入金币试炼N次</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入经验试炼N次</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>统一试炼名称</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>V</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>er 0.9</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>z</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>z、小珍、小龙、阿木、兔桑雷神</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>补充任务拆分</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016/1/29修改需求</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>策划</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>验收</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.5d</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>小龙：1d</t>
-  </si>
-  <si>
-    <t>师叔：0.5d</t>
-  </si>
-  <si>
-    <t>小珍：2d</t>
-  </si>
-  <si>
-    <t>任务跳转</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务目标</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标参数中有 | 的可以配置多个，没有的不能配置多个</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标量配置为n的可以配置任意≥1的整数，目标量配置为1的只能配置为1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置规范</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>三星通关X副本</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本id</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>三星通关副本目标修改</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>star3-x</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="39">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3762,6 +3858,20 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4081,297 +4191,300 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="4" applyFont="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -8648,8 +8761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="J103" sqref="J103"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -9933,7 +10046,7 @@
       <c r="F74" s="5"/>
       <c r="G74" s="40"/>
       <c r="H74" s="41" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="I74" s="40"/>
       <c r="J74" s="40"/>
@@ -9949,7 +10062,7 @@
       <c r="F75" s="5"/>
       <c r="G75" s="40"/>
       <c r="H75" s="41" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="I75" s="40"/>
       <c r="J75" s="40"/>
@@ -9965,7 +10078,7 @@
       <c r="F76" s="5"/>
       <c r="G76" s="40"/>
       <c r="H76" s="41" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="I76" s="40"/>
       <c r="J76" s="40"/>
@@ -9981,7 +10094,7 @@
       <c r="F77" s="5"/>
       <c r="G77" s="40"/>
       <c r="H77" s="41" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="I77" s="40"/>
       <c r="J77" s="40"/>
@@ -9997,7 +10110,7 @@
       <c r="F78" s="5"/>
       <c r="G78" s="40"/>
       <c r="H78" s="41" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="I78" s="40"/>
       <c r="J78" s="40"/>
@@ -10013,7 +10126,7 @@
       <c r="F79" s="5"/>
       <c r="G79" s="40"/>
       <c r="H79" s="40" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I79" s="40"/>
       <c r="J79" s="40"/>
@@ -10029,7 +10142,7 @@
       <c r="F80" s="5"/>
       <c r="G80" s="40"/>
       <c r="H80" s="41" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="I80" s="40"/>
       <c r="J80" s="40"/>
@@ -10045,7 +10158,7 @@
       <c r="F81" s="5"/>
       <c r="G81" s="40"/>
       <c r="H81" s="41" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="I81" s="40"/>
       <c r="J81" s="40"/>
@@ -10061,7 +10174,7 @@
       <c r="F82" s="5"/>
       <c r="G82" s="40"/>
       <c r="H82" s="41" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="I82" s="40"/>
       <c r="J82" s="40"/>
@@ -10077,7 +10190,7 @@
       <c r="F83" s="5"/>
       <c r="G83" s="40"/>
       <c r="H83" s="41" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="I83" s="40"/>
       <c r="J83" s="40"/>
@@ -10093,7 +10206,7 @@
       <c r="F84" s="5"/>
       <c r="G84" s="40"/>
       <c r="H84" s="41" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="I84" s="40"/>
       <c r="J84" s="40"/>
@@ -10109,7 +10222,7 @@
       <c r="F85" s="5"/>
       <c r="G85" s="40"/>
       <c r="H85" s="41" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="I85" s="40"/>
       <c r="J85" s="40"/>
@@ -10125,7 +10238,7 @@
       <c r="F86" s="5"/>
       <c r="G86" s="40"/>
       <c r="H86" s="41" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I86" s="40"/>
       <c r="J86" s="40"/>
@@ -10141,7 +10254,7 @@
       <c r="F87" s="5"/>
       <c r="G87" s="40"/>
       <c r="H87" s="41" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="I87" s="40"/>
       <c r="J87" s="40"/>
@@ -10157,7 +10270,7 @@
       <c r="F88" s="5"/>
       <c r="G88" s="40"/>
       <c r="H88" s="41" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="I88" s="40"/>
       <c r="J88" s="40"/>
@@ -10173,7 +10286,7 @@
       <c r="F89" s="5"/>
       <c r="G89" s="40"/>
       <c r="H89" s="41" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="I89" s="40"/>
       <c r="J89" s="40"/>
@@ -10189,7 +10302,7 @@
       <c r="F90" s="5"/>
       <c r="G90" s="40"/>
       <c r="H90" s="40" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="I90" s="40"/>
       <c r="J90" s="40"/>
@@ -10205,13 +10318,13 @@
         <v>42396</v>
       </c>
       <c r="D91" s="5"/>
-      <c r="E91" s="85"/>
+      <c r="E91" s="79"/>
       <c r="F91" s="5"/>
       <c r="G91" s="40" t="s">
         <v>529</v>
       </c>
       <c r="H91" s="41" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="I91" s="40"/>
       <c r="J91" s="40"/>
@@ -10227,7 +10340,7 @@
       <c r="F92" s="5"/>
       <c r="G92" s="40"/>
       <c r="H92" s="41" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="I92" s="40"/>
       <c r="J92" s="40"/>
@@ -10243,7 +10356,7 @@
       <c r="F93" s="5"/>
       <c r="G93" s="40"/>
       <c r="H93" s="41" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="I93" s="40"/>
       <c r="J93" s="40"/>
@@ -10259,7 +10372,7 @@
       <c r="F94" s="5"/>
       <c r="G94" s="40"/>
       <c r="H94" s="41" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="I94" s="40"/>
       <c r="J94" s="40"/>
@@ -10275,7 +10388,7 @@
       <c r="F95" s="5"/>
       <c r="G95" s="40"/>
       <c r="H95" s="41" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="I95" s="40"/>
       <c r="J95" s="40"/>
@@ -10291,7 +10404,7 @@
       <c r="F96" s="5"/>
       <c r="G96" s="40"/>
       <c r="H96" s="41" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="I96" s="40"/>
       <c r="J96" s="40"/>
@@ -10307,7 +10420,7 @@
       <c r="F97" s="5"/>
       <c r="G97" s="40"/>
       <c r="H97" s="41" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="I97" s="40"/>
       <c r="J97" s="40"/>
@@ -10323,7 +10436,7 @@
       <c r="F98" s="5"/>
       <c r="G98" s="40"/>
       <c r="H98" s="40" t="s">
-        <v>736</v>
+        <v>659</v>
       </c>
       <c r="I98" s="40"/>
       <c r="J98" s="40"/>
@@ -10339,7 +10452,7 @@
       <c r="F99" s="5"/>
       <c r="G99" s="40"/>
       <c r="H99" s="41" t="s">
-        <v>806</v>
+        <v>727</v>
       </c>
       <c r="I99" s="40"/>
       <c r="J99" s="40"/>
@@ -10355,7 +10468,7 @@
       <c r="F100" s="5"/>
       <c r="G100" s="40"/>
       <c r="H100" s="41" t="s">
-        <v>812</v>
+        <v>733</v>
       </c>
       <c r="I100" s="40"/>
       <c r="J100" s="40"/>
@@ -10371,7 +10484,7 @@
       <c r="F101" s="5"/>
       <c r="G101" s="40"/>
       <c r="H101" s="41" t="s">
-        <v>832</v>
+        <v>750</v>
       </c>
       <c r="I101" s="40"/>
       <c r="J101" s="40"/>
@@ -10386,7 +10499,9 @@
       <c r="E102" s="9"/>
       <c r="F102" s="5"/>
       <c r="G102" s="40"/>
-      <c r="H102" s="40"/>
+      <c r="H102" s="41" t="s">
+        <v>860</v>
+      </c>
       <c r="I102" s="40"/>
       <c r="J102" s="40"/>
       <c r="K102" s="8"/>
@@ -10400,7 +10515,9 @@
       <c r="E103" s="9"/>
       <c r="F103" s="5"/>
       <c r="G103" s="40"/>
-      <c r="H103" s="40"/>
+      <c r="H103" s="41" t="s">
+        <v>863</v>
+      </c>
       <c r="I103" s="40"/>
       <c r="J103" s="40"/>
       <c r="K103" s="8"/>
@@ -10736,34 +10853,34 @@
       </c>
     </row>
     <row r="134" spans="2:8">
-      <c r="B134" s="100" t="s">
-        <v>830</v>
+      <c r="B134" s="94" t="s">
+        <v>748</v>
       </c>
       <c r="C134" s="38">
         <v>42398</v>
       </c>
-      <c r="D134" s="100" t="s">
-        <v>831</v>
+      <c r="D134" s="94" t="s">
+        <v>749</v>
       </c>
       <c r="H134" s="20" t="s">
-        <v>824</v>
+        <v>744</v>
       </c>
     </row>
     <row r="135" spans="2:8">
       <c r="H135" s="20" t="s">
-        <v>825</v>
+        <v>745</v>
       </c>
     </row>
     <row r="136" spans="2:8">
       <c r="H136" s="20" t="s">
-        <v>829</v>
+        <v>747</v>
       </c>
     </row>
     <row r="137" spans="2:8">
-      <c r="H137" s="100"/>
+      <c r="H137" s="94"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H13" location="任务项内容格式" display="补充任务内容显示现有需求"/>
     <hyperlink ref="H14" location="设计备忘!A1" display="设计备忘中记录主界面与新手引导对任务界面的提示需求"/>
@@ -10859,6 +10976,8 @@
     <hyperlink ref="H135" location="_9_章节选择界面" display="确认副本章节可以跳转"/>
     <hyperlink ref="H136" location="holecoinenter" display="统一试炼名称"/>
     <hyperlink ref="H101" location="_2016_1_29修改需求" display="补充任务拆分"/>
+    <hyperlink ref="H102" location="目标参数中有___的可以配置多个_没有的不能配置多个" display="配置规范"/>
+    <hyperlink ref="H103" location="star3" display="三星通关副本目标修改"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -10993,90 +11112,90 @@
     </row>
     <row r="84" spans="1:4" s="21" customFormat="1">
       <c r="A84" s="66" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="B86" s="67" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="C87" s="67" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="C89" s="67" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D89" s="67" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="C91" s="67" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D91" s="67" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="C93" s="67" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D93" s="67" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="114" spans="2:3">
       <c r="B114" s="67" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="115" spans="2:3">
       <c r="C115" s="67" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="121" spans="2:3">
       <c r="B121" s="67" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="141" spans="2:3">
       <c r="B141" s="67" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="142" spans="2:3">
       <c r="C142" s="67" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="146" spans="2:3">
       <c r="B146" s="67" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="150" spans="2:3">
       <c r="B150" s="67" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="151" spans="2:3">
       <c r="C151" s="67" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="157" spans="2:3">
       <c r="B157" s="67" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <extLst>
@@ -11152,7 +11271,7 @@
     </row>
     <row r="37" spans="2:11">
       <c r="D37" s="65" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="38" spans="2:11">
@@ -11465,7 +11584,7 @@
       <c r="C58" s="32"/>
       <c r="D58" s="32"/>
       <c r="E58" s="61" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F58" s="61"/>
       <c r="G58" s="61"/>
@@ -11479,7 +11598,7 @@
       <c r="C59" s="32"/>
       <c r="D59" s="32"/>
       <c r="E59" s="61" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F59" s="61"/>
       <c r="G59" s="61"/>
@@ -11847,7 +11966,7 @@
     </row>
     <row r="87" spans="1:12">
       <c r="E87" s="63" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F87" s="39"/>
       <c r="G87" s="33"/>
@@ -12805,7 +12924,7 @@
         <v>462</v>
       </c>
       <c r="E175" s="46" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F175" s="46"/>
       <c r="G175" s="46"/>
@@ -12858,7 +12977,7 @@
     <row r="179" spans="1:18">
       <c r="D179" s="23"/>
       <c r="E179" s="47" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F179" s="47"/>
       <c r="G179" s="47"/>
@@ -13287,7 +13406,7 @@
       <c r="C228" s="23"/>
       <c r="D228" s="23"/>
       <c r="E228" s="46" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F228" s="46"/>
       <c r="G228" s="46"/>
@@ -13545,7 +13664,7 @@
     </row>
     <row r="245" spans="2:12" s="39" customFormat="1">
       <c r="B245" s="68" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C245" s="46"/>
       <c r="D245" s="46"/>
@@ -13561,7 +13680,7 @@
     <row r="246" spans="2:12" s="39" customFormat="1">
       <c r="B246" s="68"/>
       <c r="C246" s="69" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D246" s="69"/>
       <c r="E246" s="69"/>
@@ -13670,7 +13789,7 @@
       <c r="E362" s="22"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="A351:A1048576 A1:A247">
     <cfRule type="notContainsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
@@ -13692,10 +13811,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O142"/>
+  <dimension ref="A2:R148"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScaleNormal="100" zoomScalePageLayoutView="175" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100:I101"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" zoomScalePageLayoutView="175" workbookViewId="0">
+      <selection activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -13705,8 +13824,9 @@
     <col min="3" max="3" width="8.875" style="42"/>
     <col min="4" max="4" width="17" style="42" customWidth="1"/>
     <col min="5" max="5" width="13.5" style="42" customWidth="1"/>
-    <col min="6" max="6" width="19.375" style="42" customWidth="1"/>
-    <col min="7" max="8" width="8.875" style="42"/>
+    <col min="6" max="6" width="7.125" style="42" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="42" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="42" customWidth="1"/>
     <col min="9" max="9" width="14.125" style="42" customWidth="1"/>
     <col min="10" max="10" width="8.875" style="42"/>
     <col min="11" max="14" width="8.875" style="1"/>
@@ -14320,25 +14440,25 @@
       <c r="K64" s="33"/>
       <c r="L64" s="33"/>
     </row>
-    <row r="65" spans="2:12">
+    <row r="65" spans="2:13">
       <c r="C65" s="72"/>
       <c r="D65" s="42" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="66" spans="2:12">
+    <row r="66" spans="2:13">
       <c r="C66" s="72"/>
       <c r="E66" s="42" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="2:12">
+    <row r="67" spans="2:13">
       <c r="C67" s="72"/>
       <c r="F67" s="42" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="68" spans="2:12" s="39" customFormat="1">
+    <row r="68" spans="2:13" s="39" customFormat="1">
       <c r="B68" s="72"/>
       <c r="C68" s="72"/>
       <c r="D68" s="42"/>
@@ -14349,7 +14469,7 @@
       <c r="I68" s="42"/>
       <c r="J68" s="42"/>
     </row>
-    <row r="69" spans="2:12" s="39" customFormat="1">
+    <row r="69" spans="2:13" s="39" customFormat="1">
       <c r="B69" s="72"/>
       <c r="C69" s="72"/>
       <c r="D69" s="42"/>
@@ -14360,1043 +14480,1277 @@
       <c r="I69" s="42"/>
       <c r="J69" s="42"/>
     </row>
-    <row r="70" spans="2:12">
+    <row r="70" spans="2:13">
       <c r="C70" s="72"/>
       <c r="D70" s="42" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="2:12">
+    <row r="71" spans="2:13">
       <c r="C71" s="72"/>
     </row>
-    <row r="72" spans="2:12">
+    <row r="72" spans="2:13">
       <c r="C72" s="72"/>
     </row>
-    <row r="73" spans="2:12">
+    <row r="73" spans="2:13">
       <c r="C73" s="72" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="2:12">
+    <row r="74" spans="2:13">
       <c r="C74" s="72"/>
       <c r="D74" s="42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="75" spans="2:12">
+    <row r="75" spans="2:13">
       <c r="C75" s="72"/>
     </row>
-    <row r="76" spans="2:12">
+    <row r="76" spans="2:13">
       <c r="C76" s="72"/>
       <c r="K76" s="12"/>
     </row>
-    <row r="77" spans="2:12">
+    <row r="77" spans="2:13">
       <c r="C77" s="72" t="s">
         <v>105</v>
       </c>
       <c r="K77" s="42"/>
       <c r="L77" s="42"/>
     </row>
-    <row r="78" spans="2:12">
+    <row r="78" spans="2:13">
       <c r="C78" s="72"/>
       <c r="D78" s="73" t="s">
-        <v>655</v>
-      </c>
-      <c r="E78" s="73" t="s">
-        <v>656</v>
-      </c>
-      <c r="F78" s="73"/>
-      <c r="G78" s="74" t="s">
-        <v>657</v>
-      </c>
-      <c r="H78" s="74" t="s">
-        <v>658</v>
-      </c>
-      <c r="I78" s="73" t="s">
-        <v>659</v>
-      </c>
-      <c r="K78" s="79"/>
-    </row>
-    <row r="79" spans="2:12">
+        <v>764</v>
+      </c>
+      <c r="E78" s="98" t="s">
+        <v>765</v>
+      </c>
+      <c r="F78" s="98" t="s">
+        <v>766</v>
+      </c>
+      <c r="G78" s="73" t="s">
+        <v>767</v>
+      </c>
+      <c r="H78" s="73"/>
+      <c r="I78" s="74" t="s">
+        <v>768</v>
+      </c>
+      <c r="J78" s="74" t="s">
+        <v>769</v>
+      </c>
+      <c r="K78" s="73" t="s">
+        <v>770</v>
+      </c>
+      <c r="L78" s="42"/>
+      <c r="M78" s="98"/>
+    </row>
+    <row r="79" spans="2:13">
       <c r="C79" s="72"/>
       <c r="D79" s="75" t="s">
-        <v>660</v>
-      </c>
-      <c r="E79" s="75" t="s">
-        <v>661</v>
-      </c>
-      <c r="F79" s="76"/>
-      <c r="G79" s="76" t="s">
-        <v>662</v>
-      </c>
-      <c r="H79" s="76" t="s">
-        <v>662</v>
-      </c>
-      <c r="I79" s="42" t="s">
-        <v>663</v>
-      </c>
-      <c r="K79" s="79"/>
+        <v>771</v>
+      </c>
+      <c r="E79" s="98"/>
+      <c r="F79" s="98" t="s">
+        <v>772</v>
+      </c>
+      <c r="G79" s="75" t="s">
+        <v>653</v>
+      </c>
+      <c r="H79" s="76"/>
+      <c r="I79" s="76" t="s">
+        <v>773</v>
+      </c>
+      <c r="J79" s="76" t="s">
+        <v>773</v>
+      </c>
+      <c r="K79" s="42" t="s">
+        <v>774</v>
+      </c>
       <c r="L79" s="42"/>
-    </row>
-    <row r="80" spans="2:12">
+      <c r="M79" s="98"/>
+    </row>
+    <row r="80" spans="2:13">
       <c r="C80" s="72"/>
       <c r="D80" s="75" t="s">
         <v>577</v>
       </c>
-      <c r="E80" s="75" t="s">
-        <v>664</v>
-      </c>
-      <c r="F80" s="76"/>
-      <c r="G80" s="76" t="s">
-        <v>662</v>
-      </c>
-      <c r="H80" s="76" t="s">
-        <v>662</v>
-      </c>
-      <c r="I80" s="42" t="s">
-        <v>663</v>
-      </c>
-      <c r="K80" s="79"/>
-    </row>
-    <row r="81" spans="2:11" s="39" customFormat="1">
+      <c r="F80" s="42" t="s">
+        <v>775</v>
+      </c>
+      <c r="G80" s="75" t="s">
+        <v>776</v>
+      </c>
+      <c r="H80" s="76"/>
+      <c r="I80" s="76" t="s">
+        <v>773</v>
+      </c>
+      <c r="J80" s="76" t="s">
+        <v>773</v>
+      </c>
+      <c r="K80" s="42" t="s">
+        <v>774</v>
+      </c>
+      <c r="L80" s="42"/>
+      <c r="M80" s="98"/>
+    </row>
+    <row r="81" spans="2:13" s="39" customFormat="1">
       <c r="B81" s="72"/>
       <c r="C81" s="72"/>
       <c r="D81" s="75" t="s">
         <v>578</v>
       </c>
-      <c r="E81" s="75" t="s">
-        <v>665</v>
-      </c>
-      <c r="F81" s="76"/>
-      <c r="G81" s="76" t="s">
-        <v>662</v>
-      </c>
-      <c r="H81" s="76" t="s">
-        <v>662</v>
-      </c>
-      <c r="I81" s="42" t="s">
-        <v>666</v>
-      </c>
-      <c r="J81" s="42"/>
-      <c r="K81" s="79"/>
-    </row>
-    <row r="82" spans="2:11" s="39" customFormat="1">
+      <c r="E81" s="98"/>
+      <c r="F81" s="98" t="s">
+        <v>775</v>
+      </c>
+      <c r="G81" s="75" t="s">
+        <v>777</v>
+      </c>
+      <c r="H81" s="76"/>
+      <c r="I81" s="76" t="s">
+        <v>773</v>
+      </c>
+      <c r="J81" s="76" t="s">
+        <v>773</v>
+      </c>
+      <c r="K81" s="42" t="s">
+        <v>778</v>
+      </c>
+      <c r="L81" s="42"/>
+      <c r="M81" s="98"/>
+    </row>
+    <row r="82" spans="2:13" s="39" customFormat="1">
       <c r="B82" s="72"/>
       <c r="C82" s="72"/>
       <c r="D82" s="75" t="s">
-        <v>667</v>
-      </c>
-      <c r="E82" s="75" t="s">
-        <v>668</v>
-      </c>
-      <c r="F82" s="76"/>
-      <c r="G82" s="76" t="s">
-        <v>662</v>
-      </c>
-      <c r="H82" s="76" t="s">
-        <v>662</v>
-      </c>
-      <c r="I82" s="42" t="s">
-        <v>663</v>
-      </c>
-      <c r="J82" s="42"/>
-      <c r="K82" s="79"/>
-    </row>
-    <row r="83" spans="2:11" s="39" customFormat="1">
+        <v>779</v>
+      </c>
+      <c r="E82" s="98"/>
+      <c r="F82" s="98" t="s">
+        <v>775</v>
+      </c>
+      <c r="G82" s="75" t="s">
+        <v>780</v>
+      </c>
+      <c r="H82" s="76"/>
+      <c r="I82" s="76" t="s">
+        <v>773</v>
+      </c>
+      <c r="J82" s="76" t="s">
+        <v>773</v>
+      </c>
+      <c r="K82" s="42" t="s">
+        <v>774</v>
+      </c>
+      <c r="L82" s="42"/>
+      <c r="M82" s="98"/>
+    </row>
+    <row r="83" spans="2:13" s="39" customFormat="1">
       <c r="B83" s="72"/>
       <c r="C83" s="72"/>
       <c r="D83" s="75" t="s">
-        <v>591</v>
-      </c>
-      <c r="E83" s="75" t="s">
-        <v>669</v>
-      </c>
-      <c r="F83" s="76"/>
-      <c r="G83" s="76" t="s">
-        <v>662</v>
-      </c>
-      <c r="H83" s="76" t="s">
-        <v>662</v>
-      </c>
-      <c r="I83" s="42" t="s">
-        <v>663</v>
-      </c>
-      <c r="J83" s="42"/>
-      <c r="K83" s="79"/>
-    </row>
-    <row r="84" spans="2:11" s="39" customFormat="1">
+        <v>589</v>
+      </c>
+      <c r="E83" s="98"/>
+      <c r="F83" s="98" t="s">
+        <v>775</v>
+      </c>
+      <c r="G83" s="75" t="s">
+        <v>781</v>
+      </c>
+      <c r="H83" s="76"/>
+      <c r="I83" s="76" t="s">
+        <v>773</v>
+      </c>
+      <c r="J83" s="76" t="s">
+        <v>773</v>
+      </c>
+      <c r="K83" s="42" t="s">
+        <v>774</v>
+      </c>
+      <c r="L83" s="42"/>
+      <c r="M83" s="98"/>
+    </row>
+    <row r="84" spans="2:13" s="39" customFormat="1">
       <c r="B84" s="72"/>
       <c r="C84" s="72"/>
       <c r="D84" s="75" t="s">
-        <v>670</v>
-      </c>
-      <c r="E84" s="75" t="s">
-        <v>817</v>
-      </c>
-      <c r="F84" s="76"/>
-      <c r="G84" s="76"/>
-      <c r="H84" s="76" t="s">
-        <v>662</v>
-      </c>
-      <c r="I84" s="42" t="s">
-        <v>663</v>
-      </c>
-      <c r="J84" s="42"/>
-      <c r="K84" s="79"/>
-    </row>
-    <row r="85" spans="2:11" s="39" customFormat="1">
+        <v>782</v>
+      </c>
+      <c r="E84" s="98" t="s">
+        <v>783</v>
+      </c>
+      <c r="F84" s="98" t="s">
+        <v>775</v>
+      </c>
+      <c r="G84" s="75" t="s">
+        <v>784</v>
+      </c>
+      <c r="H84" s="76"/>
+      <c r="I84" s="76"/>
+      <c r="J84" s="76" t="s">
+        <v>773</v>
+      </c>
+      <c r="K84" s="42" t="s">
+        <v>774</v>
+      </c>
+      <c r="L84" s="42"/>
+      <c r="M84" s="98"/>
+    </row>
+    <row r="85" spans="2:13" s="39" customFormat="1">
       <c r="B85" s="72"/>
       <c r="C85" s="72"/>
       <c r="D85" s="75" t="s">
-        <v>671</v>
-      </c>
-      <c r="E85" s="75" t="s">
-        <v>672</v>
-      </c>
-      <c r="F85" s="76"/>
-      <c r="G85" s="76"/>
-      <c r="H85" s="76" t="s">
-        <v>662</v>
-      </c>
-      <c r="I85" s="42" t="s">
-        <v>663</v>
-      </c>
-      <c r="J85" s="42"/>
-      <c r="K85" s="79"/>
-    </row>
-    <row r="86" spans="2:11" s="39" customFormat="1">
+        <v>785</v>
+      </c>
+      <c r="E85" s="98" t="s">
+        <v>786</v>
+      </c>
+      <c r="F85" s="98" t="s">
+        <v>775</v>
+      </c>
+      <c r="G85" s="75" t="s">
+        <v>787</v>
+      </c>
+      <c r="H85" s="76"/>
+      <c r="I85" s="76"/>
+      <c r="J85" s="76" t="s">
+        <v>773</v>
+      </c>
+      <c r="K85" s="42" t="s">
+        <v>774</v>
+      </c>
+      <c r="L85" s="42"/>
+      <c r="M85" s="98"/>
+    </row>
+    <row r="86" spans="2:13" s="39" customFormat="1">
       <c r="B86" s="72"/>
       <c r="C86" s="72"/>
       <c r="D86" s="75" t="s">
-        <v>673</v>
-      </c>
-      <c r="E86" s="75" t="s">
-        <v>674</v>
-      </c>
-      <c r="F86" s="76"/>
-      <c r="G86" s="76"/>
-      <c r="H86" s="76" t="s">
-        <v>662</v>
-      </c>
-      <c r="I86" s="42" t="s">
-        <v>663</v>
-      </c>
-      <c r="J86" s="42"/>
-      <c r="K86" s="79"/>
-    </row>
-    <row r="87" spans="2:11" s="39" customFormat="1">
+        <v>788</v>
+      </c>
+      <c r="E86" s="98" t="s">
+        <v>786</v>
+      </c>
+      <c r="F86" s="98" t="s">
+        <v>775</v>
+      </c>
+      <c r="G86" s="75" t="s">
+        <v>789</v>
+      </c>
+      <c r="H86" s="76"/>
+      <c r="I86" s="76"/>
+      <c r="J86" s="76" t="s">
+        <v>773</v>
+      </c>
+      <c r="K86" s="42" t="s">
+        <v>774</v>
+      </c>
+      <c r="L86" s="42"/>
+      <c r="M86" s="98"/>
+    </row>
+    <row r="87" spans="2:13" s="39" customFormat="1">
       <c r="B87" s="72"/>
       <c r="C87" s="72"/>
       <c r="D87" s="77" t="s">
-        <v>675</v>
-      </c>
-      <c r="E87" s="77" t="s">
-        <v>676</v>
-      </c>
-      <c r="F87" s="78"/>
-      <c r="G87" s="78"/>
-      <c r="H87" s="78" t="s">
-        <v>662</v>
-      </c>
-      <c r="I87" s="46" t="s">
-        <v>663</v>
-      </c>
-      <c r="J87" s="42"/>
-      <c r="K87" s="79"/>
-    </row>
-    <row r="88" spans="2:11" s="39" customFormat="1">
+        <v>790</v>
+      </c>
+      <c r="E87" s="98" t="s">
+        <v>791</v>
+      </c>
+      <c r="F87" s="98">
+        <v>1</v>
+      </c>
+      <c r="G87" s="77" t="s">
+        <v>792</v>
+      </c>
+      <c r="H87" s="78"/>
+      <c r="I87" s="78"/>
+      <c r="J87" s="78" t="s">
+        <v>773</v>
+      </c>
+      <c r="K87" s="46" t="s">
+        <v>774</v>
+      </c>
+      <c r="L87" s="42"/>
+      <c r="M87" s="98"/>
+    </row>
+    <row r="88" spans="2:13" s="39" customFormat="1">
       <c r="B88" s="72"/>
       <c r="C88" s="72"/>
       <c r="D88" s="77" t="s">
-        <v>677</v>
-      </c>
-      <c r="E88" s="77" t="s">
-        <v>678</v>
-      </c>
-      <c r="F88" s="78"/>
-      <c r="G88" s="78"/>
-      <c r="H88" s="78" t="s">
-        <v>662</v>
-      </c>
-      <c r="I88" s="46" t="s">
-        <v>663</v>
-      </c>
-      <c r="J88" s="42"/>
-      <c r="K88" s="79"/>
-    </row>
-    <row r="89" spans="2:11" s="39" customFormat="1">
+        <v>793</v>
+      </c>
+      <c r="E88" s="98" t="s">
+        <v>791</v>
+      </c>
+      <c r="F88" s="98">
+        <v>1</v>
+      </c>
+      <c r="G88" s="77" t="s">
+        <v>794</v>
+      </c>
+      <c r="H88" s="78"/>
+      <c r="I88" s="78"/>
+      <c r="J88" s="78" t="s">
+        <v>773</v>
+      </c>
+      <c r="K88" s="46" t="s">
+        <v>774</v>
+      </c>
+      <c r="L88" s="42"/>
+      <c r="M88" s="98"/>
+    </row>
+    <row r="89" spans="2:13" s="39" customFormat="1">
       <c r="B89" s="72"/>
       <c r="C89" s="72"/>
       <c r="D89" s="75" t="s">
-        <v>594</v>
-      </c>
-      <c r="E89" s="75" t="s">
-        <v>679</v>
-      </c>
-      <c r="F89" s="76"/>
-      <c r="G89" s="76" t="s">
-        <v>662</v>
-      </c>
-      <c r="H89" s="76" t="s">
-        <v>662</v>
-      </c>
-      <c r="I89" s="42" t="s">
-        <v>663</v>
-      </c>
-      <c r="J89" s="42"/>
-      <c r="K89" s="79"/>
-    </row>
-    <row r="90" spans="2:11" s="39" customFormat="1">
+        <v>592</v>
+      </c>
+      <c r="E89" s="98"/>
+      <c r="F89" s="98" t="s">
+        <v>775</v>
+      </c>
+      <c r="G89" s="75" t="s">
+        <v>795</v>
+      </c>
+      <c r="H89" s="76"/>
+      <c r="I89" s="76" t="s">
+        <v>773</v>
+      </c>
+      <c r="J89" s="76" t="s">
+        <v>773</v>
+      </c>
+      <c r="K89" s="42" t="s">
+        <v>774</v>
+      </c>
+      <c r="L89" s="42"/>
+      <c r="M89" s="98"/>
+    </row>
+    <row r="90" spans="2:13" s="39" customFormat="1">
       <c r="B90" s="72"/>
       <c r="C90" s="72"/>
       <c r="D90" s="75" t="s">
-        <v>595</v>
-      </c>
-      <c r="E90" s="75" t="s">
-        <v>680</v>
-      </c>
-      <c r="F90" s="76"/>
-      <c r="G90" s="76"/>
-      <c r="H90" s="76" t="s">
-        <v>662</v>
-      </c>
-      <c r="I90" s="42" t="s">
-        <v>663</v>
-      </c>
-      <c r="J90" s="42"/>
-      <c r="K90" s="79"/>
-    </row>
-    <row r="91" spans="2:11" s="39" customFormat="1">
+        <v>593</v>
+      </c>
+      <c r="E90" s="98"/>
+      <c r="F90" s="98" t="s">
+        <v>775</v>
+      </c>
+      <c r="G90" s="75" t="s">
+        <v>796</v>
+      </c>
+      <c r="H90" s="76"/>
+      <c r="I90" s="76"/>
+      <c r="J90" s="76" t="s">
+        <v>773</v>
+      </c>
+      <c r="K90" s="42" t="s">
+        <v>774</v>
+      </c>
+      <c r="L90" s="42"/>
+      <c r="M90" s="98"/>
+    </row>
+    <row r="91" spans="2:13" s="39" customFormat="1">
       <c r="B91" s="72"/>
       <c r="C91" s="72"/>
       <c r="D91" s="75" t="s">
-        <v>593</v>
-      </c>
-      <c r="E91" s="75" t="s">
-        <v>681</v>
-      </c>
-      <c r="F91" s="76"/>
-      <c r="G91" s="76"/>
-      <c r="H91" s="76" t="s">
-        <v>662</v>
-      </c>
-      <c r="I91" s="42" t="s">
-        <v>663</v>
-      </c>
-      <c r="J91" s="46" t="s">
-        <v>682</v>
-      </c>
-      <c r="K91" s="82"/>
-    </row>
-    <row r="92" spans="2:11" s="39" customFormat="1">
+        <v>591</v>
+      </c>
+      <c r="E91" s="98"/>
+      <c r="F91" s="98" t="s">
+        <v>775</v>
+      </c>
+      <c r="G91" s="75" t="s">
+        <v>797</v>
+      </c>
+      <c r="H91" s="76"/>
+      <c r="I91" s="76"/>
+      <c r="J91" s="76" t="s">
+        <v>773</v>
+      </c>
+      <c r="K91" s="42" t="s">
+        <v>774</v>
+      </c>
+      <c r="L91" s="46" t="s">
+        <v>798</v>
+      </c>
+      <c r="M91" s="99"/>
+    </row>
+    <row r="92" spans="2:13" s="39" customFormat="1">
       <c r="B92" s="72"/>
       <c r="C92" s="72"/>
       <c r="D92" s="75" t="s">
-        <v>582</v>
-      </c>
-      <c r="E92" s="75" t="s">
-        <v>683</v>
-      </c>
-      <c r="F92" s="76"/>
-      <c r="G92" s="76" t="s">
-        <v>662</v>
-      </c>
-      <c r="H92" s="76" t="s">
-        <v>662</v>
-      </c>
-      <c r="I92" s="42" t="s">
-        <v>663</v>
-      </c>
-      <c r="J92" s="46" t="s">
-        <v>682</v>
-      </c>
-      <c r="K92" s="82"/>
-    </row>
-    <row r="93" spans="2:11" s="39" customFormat="1">
+        <v>581</v>
+      </c>
+      <c r="E92" s="98"/>
+      <c r="F92" s="98" t="s">
+        <v>775</v>
+      </c>
+      <c r="G92" s="75" t="s">
+        <v>799</v>
+      </c>
+      <c r="H92" s="76"/>
+      <c r="I92" s="76" t="s">
+        <v>773</v>
+      </c>
+      <c r="J92" s="76" t="s">
+        <v>773</v>
+      </c>
+      <c r="K92" s="42" t="s">
+        <v>774</v>
+      </c>
+      <c r="L92" s="46" t="s">
+        <v>798</v>
+      </c>
+      <c r="M92" s="99"/>
+    </row>
+    <row r="93" spans="2:13" s="39" customFormat="1">
       <c r="B93" s="72"/>
       <c r="C93" s="72"/>
-      <c r="D93" s="77" t="s">
-        <v>684</v>
-      </c>
-      <c r="E93" s="77" t="s">
-        <v>685</v>
-      </c>
-      <c r="F93" s="78"/>
-      <c r="G93" s="78" t="s">
-        <v>662</v>
-      </c>
-      <c r="H93" s="78" t="s">
-        <v>662</v>
-      </c>
-      <c r="I93" s="46" t="s">
-        <v>663</v>
-      </c>
-      <c r="J93" s="46" t="s">
-        <v>686</v>
-      </c>
-      <c r="K93" s="82"/>
-    </row>
-    <row r="94" spans="2:11">
+      <c r="D93" s="75" t="s">
+        <v>800</v>
+      </c>
+      <c r="E93" s="98"/>
+      <c r="F93" s="98" t="s">
+        <v>775</v>
+      </c>
+      <c r="G93" s="77" t="s">
+        <v>801</v>
+      </c>
+      <c r="H93" s="78"/>
+      <c r="I93" s="78" t="s">
+        <v>773</v>
+      </c>
+      <c r="J93" s="78" t="s">
+        <v>773</v>
+      </c>
+      <c r="K93" s="46" t="s">
+        <v>774</v>
+      </c>
+      <c r="L93" s="46" t="s">
+        <v>802</v>
+      </c>
+      <c r="M93" s="99"/>
+    </row>
+    <row r="94" spans="2:13" s="39" customFormat="1">
+      <c r="B94" s="72"/>
       <c r="C94" s="72"/>
       <c r="D94" s="75" t="s">
-        <v>583</v>
-      </c>
-      <c r="E94" s="75" t="s">
-        <v>687</v>
-      </c>
-      <c r="F94" s="76"/>
-      <c r="G94" s="76"/>
-      <c r="H94" s="76" t="s">
-        <v>662</v>
-      </c>
-      <c r="I94" s="42" t="s">
-        <v>663</v>
-      </c>
-      <c r="J94" s="46" t="s">
-        <v>682</v>
-      </c>
-      <c r="K94" s="82"/>
-    </row>
-    <row r="95" spans="2:11">
+        <v>582</v>
+      </c>
+      <c r="E94" s="42"/>
+      <c r="F94" s="42" t="s">
+        <v>775</v>
+      </c>
+      <c r="G94" s="75" t="s">
+        <v>803</v>
+      </c>
+      <c r="H94" s="76"/>
+      <c r="I94" s="76"/>
+      <c r="J94" s="76" t="s">
+        <v>773</v>
+      </c>
+      <c r="K94" s="42" t="s">
+        <v>774</v>
+      </c>
+      <c r="L94" s="46" t="s">
+        <v>798</v>
+      </c>
+      <c r="M94" s="99"/>
+    </row>
+    <row r="95" spans="2:13">
       <c r="C95" s="72"/>
-      <c r="D95" s="77" t="s">
-        <v>688</v>
-      </c>
-      <c r="E95" s="77" t="s">
-        <v>689</v>
-      </c>
-      <c r="F95" s="78"/>
-      <c r="G95" s="78"/>
-      <c r="H95" s="78" t="s">
-        <v>662</v>
-      </c>
-      <c r="I95" s="46" t="s">
-        <v>663</v>
-      </c>
-      <c r="J95" s="46" t="s">
-        <v>686</v>
-      </c>
-      <c r="K95" s="82"/>
-    </row>
-    <row r="96" spans="2:11">
+      <c r="D95" s="75" t="s">
+        <v>804</v>
+      </c>
+      <c r="F95" s="42" t="s">
+        <v>775</v>
+      </c>
+      <c r="G95" s="77" t="s">
+        <v>805</v>
+      </c>
+      <c r="H95" s="78"/>
+      <c r="I95" s="78"/>
+      <c r="J95" s="78" t="s">
+        <v>773</v>
+      </c>
+      <c r="K95" s="46" t="s">
+        <v>774</v>
+      </c>
+      <c r="L95" s="46" t="s">
+        <v>802</v>
+      </c>
+      <c r="M95" s="99"/>
+    </row>
+    <row r="96" spans="2:13">
       <c r="C96" s="72"/>
       <c r="D96" s="75" t="s">
-        <v>587</v>
-      </c>
-      <c r="E96" s="75" t="s">
-        <v>690</v>
-      </c>
-      <c r="F96" s="76"/>
-      <c r="G96" s="76" t="s">
-        <v>662</v>
-      </c>
-      <c r="H96" s="76" t="s">
-        <v>662</v>
-      </c>
-      <c r="I96" s="42" t="s">
-        <v>663</v>
-      </c>
-      <c r="K96" s="79"/>
-    </row>
-    <row r="97" spans="2:13">
+        <v>586</v>
+      </c>
+      <c r="F96" s="42" t="s">
+        <v>775</v>
+      </c>
+      <c r="G96" s="75" t="s">
+        <v>806</v>
+      </c>
+      <c r="H96" s="76"/>
+      <c r="I96" s="76" t="s">
+        <v>773</v>
+      </c>
+      <c r="J96" s="76" t="s">
+        <v>773</v>
+      </c>
+      <c r="K96" s="42" t="s">
+        <v>774</v>
+      </c>
+      <c r="L96" s="42"/>
+      <c r="M96" s="98"/>
+    </row>
+    <row r="97" spans="2:18">
       <c r="C97" s="72"/>
       <c r="D97" s="77" t="s">
-        <v>691</v>
-      </c>
-      <c r="E97" s="77" t="s">
-        <v>737</v>
-      </c>
-      <c r="F97" s="78"/>
-      <c r="G97" s="78" t="s">
-        <v>662</v>
-      </c>
-      <c r="H97" s="78" t="s">
-        <v>662</v>
-      </c>
-      <c r="I97" s="46" t="s">
-        <v>663</v>
-      </c>
-      <c r="K97" s="79"/>
-    </row>
-    <row r="98" spans="2:13">
+        <v>654</v>
+      </c>
+      <c r="E97" s="42" t="s">
+        <v>786</v>
+      </c>
+      <c r="F97" s="42" t="s">
+        <v>775</v>
+      </c>
+      <c r="G97" s="77" t="s">
+        <v>807</v>
+      </c>
+      <c r="H97" s="78"/>
+      <c r="J97" s="78" t="s">
+        <v>773</v>
+      </c>
+      <c r="K97" s="46" t="s">
+        <v>774</v>
+      </c>
+      <c r="L97" s="42"/>
+      <c r="M97" s="98"/>
+    </row>
+    <row r="98" spans="2:18">
       <c r="C98" s="72"/>
-      <c r="D98" s="84" t="s">
-        <v>692</v>
-      </c>
-      <c r="E98" s="84" t="s">
-        <v>693</v>
-      </c>
-      <c r="F98" s="84"/>
-      <c r="G98" s="81" t="s">
-        <v>662</v>
-      </c>
-      <c r="H98" s="81" t="s">
-        <v>662</v>
-      </c>
-      <c r="I98" s="42" t="s">
-        <v>663</v>
-      </c>
-      <c r="K98" s="79"/>
-    </row>
-    <row r="99" spans="2:13">
+      <c r="D98" s="100" t="s">
+        <v>655</v>
+      </c>
+      <c r="F98" s="42">
+        <v>1</v>
+      </c>
+      <c r="G98" s="100" t="s">
+        <v>656</v>
+      </c>
+      <c r="H98" s="100"/>
+      <c r="K98" s="42" t="s">
+        <v>774</v>
+      </c>
+      <c r="L98" s="42"/>
+      <c r="M98" s="98"/>
+    </row>
+    <row r="99" spans="2:18">
       <c r="C99" s="72"/>
-      <c r="D99" s="80" t="s">
+      <c r="D99" s="101" t="s">
         <v>573</v>
       </c>
-      <c r="E99" s="80" t="s">
-        <v>694</v>
-      </c>
-      <c r="F99" s="81"/>
-      <c r="G99" s="81" t="s">
-        <v>662</v>
-      </c>
-      <c r="H99" s="81" t="s">
-        <v>662</v>
-      </c>
-      <c r="I99" s="42" t="s">
-        <v>663</v>
-      </c>
-      <c r="K99" s="79"/>
-    </row>
-    <row r="100" spans="2:13">
+      <c r="F99" s="42" t="s">
+        <v>775</v>
+      </c>
+      <c r="G99" s="101" t="s">
+        <v>808</v>
+      </c>
+      <c r="H99" s="102"/>
+      <c r="I99" s="102" t="s">
+        <v>773</v>
+      </c>
+      <c r="J99" s="102" t="s">
+        <v>773</v>
+      </c>
+      <c r="K99" s="42" t="s">
+        <v>774</v>
+      </c>
+      <c r="L99" s="42"/>
+      <c r="M99" s="98"/>
+    </row>
+    <row r="100" spans="2:18">
       <c r="C100" s="72"/>
-      <c r="D100" s="83" t="s">
-        <v>695</v>
-      </c>
-      <c r="E100" s="46" t="s">
-        <v>827</v>
-      </c>
-      <c r="F100" s="78"/>
-      <c r="G100" s="78" t="s">
-        <v>662</v>
-      </c>
-      <c r="H100" s="78" t="s">
-        <v>662</v>
-      </c>
-      <c r="I100" s="46" t="s">
-        <v>666</v>
-      </c>
-      <c r="K100" s="79"/>
-    </row>
-    <row r="101" spans="2:13">
+      <c r="D100" s="103" t="s">
+        <v>809</v>
+      </c>
+      <c r="F100" s="42" t="s">
+        <v>775</v>
+      </c>
+      <c r="G100" s="46" t="s">
+        <v>810</v>
+      </c>
+      <c r="H100" s="78"/>
+      <c r="I100" s="78" t="s">
+        <v>773</v>
+      </c>
+      <c r="J100" s="78" t="s">
+        <v>773</v>
+      </c>
+      <c r="K100" s="46" t="s">
+        <v>778</v>
+      </c>
+      <c r="L100" s="42"/>
+      <c r="M100" s="98"/>
+    </row>
+    <row r="101" spans="2:18">
       <c r="C101" s="72"/>
-      <c r="D101" s="83" t="s">
-        <v>696</v>
-      </c>
-      <c r="E101" s="46" t="s">
-        <v>828</v>
-      </c>
-      <c r="F101" s="78"/>
-      <c r="G101" s="78" t="s">
-        <v>662</v>
-      </c>
-      <c r="H101" s="78" t="s">
-        <v>662</v>
-      </c>
-      <c r="I101" s="46" t="s">
-        <v>666</v>
-      </c>
-      <c r="K101" s="79"/>
-    </row>
-    <row r="102" spans="2:13">
+      <c r="D101" s="103" t="s">
+        <v>657</v>
+      </c>
+      <c r="F101" s="42" t="s">
+        <v>775</v>
+      </c>
+      <c r="G101" s="46" t="s">
+        <v>811</v>
+      </c>
+      <c r="H101" s="78"/>
+      <c r="I101" s="78" t="s">
+        <v>773</v>
+      </c>
+      <c r="J101" s="78" t="s">
+        <v>773</v>
+      </c>
+      <c r="K101" s="46" t="s">
+        <v>778</v>
+      </c>
+      <c r="L101" s="42"/>
+      <c r="M101" s="98"/>
+    </row>
+    <row r="102" spans="2:18">
       <c r="C102" s="72"/>
       <c r="D102" s="75" t="s">
-        <v>580</v>
-      </c>
-      <c r="E102" s="75" t="s">
-        <v>697</v>
-      </c>
-      <c r="F102" s="76"/>
-      <c r="G102" s="76"/>
-      <c r="H102" s="76" t="s">
-        <v>662</v>
-      </c>
-      <c r="I102" s="42" t="s">
-        <v>663</v>
-      </c>
-      <c r="K102" s="79"/>
-    </row>
-    <row r="103" spans="2:13">
+        <v>579</v>
+      </c>
+      <c r="F102" s="42" t="s">
+        <v>775</v>
+      </c>
+      <c r="G102" s="75" t="s">
+        <v>812</v>
+      </c>
+      <c r="H102" s="76"/>
+      <c r="I102" s="76"/>
+      <c r="J102" s="76" t="s">
+        <v>773</v>
+      </c>
+      <c r="K102" s="42" t="s">
+        <v>774</v>
+      </c>
+      <c r="L102" s="42"/>
+      <c r="M102" s="98"/>
+    </row>
+    <row r="103" spans="2:18">
       <c r="C103" s="72"/>
       <c r="D103" s="75" t="s">
-        <v>698</v>
-      </c>
-      <c r="E103" s="75" t="s">
-        <v>699</v>
-      </c>
-      <c r="F103" s="76"/>
-      <c r="G103" s="76"/>
-      <c r="H103" s="76" t="s">
-        <v>662</v>
-      </c>
-      <c r="I103" s="42" t="s">
-        <v>663</v>
-      </c>
-      <c r="K103" s="79"/>
-    </row>
-    <row r="104" spans="2:13">
+        <v>813</v>
+      </c>
+      <c r="E103" s="42" t="s">
+        <v>814</v>
+      </c>
+      <c r="F103" s="42" t="s">
+        <v>775</v>
+      </c>
+      <c r="G103" s="75" t="s">
+        <v>815</v>
+      </c>
+      <c r="H103" s="76"/>
+      <c r="I103" s="76"/>
+      <c r="J103" s="76" t="s">
+        <v>773</v>
+      </c>
+      <c r="K103" s="42" t="s">
+        <v>774</v>
+      </c>
+      <c r="L103" s="42"/>
+      <c r="M103" s="98"/>
+    </row>
+    <row r="104" spans="2:18">
       <c r="C104" s="72"/>
-      <c r="D104" s="80" t="s">
-        <v>700</v>
-      </c>
-      <c r="E104" s="80" t="s">
-        <v>701</v>
-      </c>
-      <c r="F104" s="81"/>
-      <c r="G104" s="81"/>
-      <c r="H104" s="81" t="s">
-        <v>662</v>
-      </c>
-      <c r="I104" s="42" t="s">
-        <v>663</v>
-      </c>
-      <c r="J104" s="46" t="s">
-        <v>738</v>
-      </c>
-      <c r="K104" s="82"/>
-      <c r="L104" s="21"/>
-      <c r="M104" s="21"/>
-    </row>
-    <row r="105" spans="2:13">
+      <c r="D104" s="101" t="s">
+        <v>816</v>
+      </c>
+      <c r="E104" s="42" t="s">
+        <v>817</v>
+      </c>
+      <c r="F104" s="42" t="s">
+        <v>775</v>
+      </c>
+      <c r="G104" s="101" t="s">
+        <v>818</v>
+      </c>
+      <c r="H104" s="102"/>
+      <c r="I104" s="102"/>
+      <c r="J104" s="102" t="s">
+        <v>773</v>
+      </c>
+      <c r="K104" s="42" t="s">
+        <v>774</v>
+      </c>
+      <c r="L104" s="46" t="s">
+        <v>819</v>
+      </c>
+      <c r="M104" s="99"/>
+    </row>
+    <row r="105" spans="2:18">
       <c r="C105" s="72"/>
       <c r="D105" s="75" t="s">
         <v>543</v>
       </c>
-      <c r="E105" s="75" t="s">
-        <v>702</v>
-      </c>
-      <c r="F105" s="76"/>
-      <c r="G105" s="76" t="s">
-        <v>662</v>
-      </c>
-      <c r="H105" s="76" t="s">
-        <v>662</v>
-      </c>
-      <c r="I105" s="42" t="s">
-        <v>663</v>
-      </c>
-      <c r="K105" s="79"/>
-    </row>
-    <row r="106" spans="2:13">
+      <c r="F105" s="42" t="s">
+        <v>775</v>
+      </c>
+      <c r="G105" s="75" t="s">
+        <v>820</v>
+      </c>
+      <c r="H105" s="76"/>
+      <c r="I105" s="102"/>
+      <c r="J105" s="76" t="s">
+        <v>773</v>
+      </c>
+      <c r="K105" s="42" t="s">
+        <v>774</v>
+      </c>
+      <c r="L105" s="46" t="s">
+        <v>821</v>
+      </c>
+      <c r="M105" s="99"/>
+      <c r="O105" s="97" t="s">
+        <v>763</v>
+      </c>
+      <c r="P105" s="21"/>
+      <c r="Q105" s="21"/>
+      <c r="R105" s="21"/>
+    </row>
+    <row r="106" spans="2:18">
       <c r="C106" s="72"/>
-      <c r="D106" s="80" t="s">
+      <c r="D106" s="101" t="s">
         <v>572</v>
       </c>
-      <c r="E106" s="80" t="s">
-        <v>703</v>
-      </c>
-      <c r="F106" s="81"/>
-      <c r="G106" s="81" t="s">
-        <v>662</v>
-      </c>
-      <c r="H106" s="81" t="s">
-        <v>662</v>
-      </c>
-      <c r="I106" s="42" t="s">
-        <v>663</v>
-      </c>
-      <c r="K106" s="79"/>
-    </row>
-    <row r="107" spans="2:13">
+      <c r="F106" s="42" t="s">
+        <v>775</v>
+      </c>
+      <c r="G106" s="101" t="s">
+        <v>822</v>
+      </c>
+      <c r="H106" s="102"/>
+      <c r="I106" s="102" t="s">
+        <v>773</v>
+      </c>
+      <c r="J106" s="102" t="s">
+        <v>773</v>
+      </c>
+      <c r="K106" s="42" t="s">
+        <v>774</v>
+      </c>
+      <c r="L106" s="42"/>
+      <c r="M106" s="98"/>
+    </row>
+    <row r="107" spans="2:18">
       <c r="C107" s="72"/>
       <c r="D107" s="75" t="s">
-        <v>704</v>
-      </c>
-      <c r="E107" s="75" t="s">
-        <v>705</v>
-      </c>
-      <c r="F107" s="76"/>
-      <c r="G107" s="76" t="s">
-        <v>662</v>
-      </c>
-      <c r="H107" s="76" t="s">
-        <v>662</v>
-      </c>
-      <c r="I107" s="42" t="s">
-        <v>663</v>
-      </c>
-      <c r="K107" s="79"/>
-    </row>
-    <row r="108" spans="2:13">
+        <v>823</v>
+      </c>
+      <c r="F107" s="42" t="s">
+        <v>775</v>
+      </c>
+      <c r="G107" s="75" t="s">
+        <v>658</v>
+      </c>
+      <c r="H107" s="76"/>
+      <c r="I107" s="76" t="s">
+        <v>773</v>
+      </c>
+      <c r="J107" s="76" t="s">
+        <v>773</v>
+      </c>
+      <c r="K107" s="42" t="s">
+        <v>774</v>
+      </c>
+      <c r="L107" s="42"/>
+      <c r="M107" s="98"/>
+    </row>
+    <row r="108" spans="2:18">
       <c r="C108" s="72"/>
       <c r="D108" s="75" t="s">
-        <v>706</v>
-      </c>
-      <c r="E108" s="75" t="s">
-        <v>707</v>
-      </c>
-      <c r="F108" s="76"/>
-      <c r="G108" s="76"/>
-      <c r="H108" s="76" t="s">
-        <v>662</v>
-      </c>
-      <c r="I108" s="42" t="s">
-        <v>663</v>
-      </c>
-      <c r="J108" s="46" t="s">
-        <v>708</v>
-      </c>
-      <c r="K108" s="82"/>
-    </row>
-    <row r="109" spans="2:13" s="39" customFormat="1">
-      <c r="B109" s="72"/>
+        <v>824</v>
+      </c>
+      <c r="E108" s="42" t="s">
+        <v>825</v>
+      </c>
+      <c r="F108" s="42" t="s">
+        <v>775</v>
+      </c>
+      <c r="G108" s="75" t="s">
+        <v>826</v>
+      </c>
+      <c r="H108" s="76"/>
+      <c r="I108" s="76"/>
+      <c r="J108" s="76" t="s">
+        <v>773</v>
+      </c>
+      <c r="K108" s="42" t="s">
+        <v>774</v>
+      </c>
+      <c r="L108" s="46" t="s">
+        <v>827</v>
+      </c>
+      <c r="M108" s="99"/>
+    </row>
+    <row r="109" spans="2:18">
       <c r="C109" s="72"/>
       <c r="D109" s="75" t="s">
-        <v>709</v>
-      </c>
-      <c r="E109" s="75" t="s">
-        <v>710</v>
-      </c>
-      <c r="F109" s="76"/>
-      <c r="G109" s="76"/>
-      <c r="H109" s="76" t="s">
-        <v>662</v>
-      </c>
-      <c r="I109" s="42" t="s">
-        <v>663</v>
-      </c>
-      <c r="J109" s="42"/>
-      <c r="K109" s="79"/>
-    </row>
-    <row r="110" spans="2:13" s="39" customFormat="1">
+        <v>828</v>
+      </c>
+      <c r="E109" s="100"/>
+      <c r="F109" s="100" t="s">
+        <v>775</v>
+      </c>
+      <c r="G109" s="75" t="s">
+        <v>829</v>
+      </c>
+      <c r="H109" s="76"/>
+      <c r="I109" s="76"/>
+      <c r="J109" s="76" t="s">
+        <v>773</v>
+      </c>
+      <c r="K109" s="42" t="s">
+        <v>774</v>
+      </c>
+      <c r="L109" s="42"/>
+      <c r="M109" s="98"/>
+    </row>
+    <row r="110" spans="2:18" s="39" customFormat="1">
       <c r="B110" s="72"/>
       <c r="C110" s="72"/>
       <c r="D110" s="75" t="s">
-        <v>711</v>
-      </c>
-      <c r="E110" s="75" t="s">
-        <v>712</v>
-      </c>
-      <c r="F110" s="76"/>
-      <c r="G110" s="76"/>
-      <c r="H110" s="76" t="s">
-        <v>662</v>
-      </c>
-      <c r="I110" s="42" t="s">
-        <v>663</v>
-      </c>
-      <c r="J110" s="42"/>
-      <c r="K110" s="79"/>
-    </row>
-    <row r="111" spans="2:13" s="39" customFormat="1">
+        <v>830</v>
+      </c>
+      <c r="E110" s="100" t="s">
+        <v>786</v>
+      </c>
+      <c r="F110" s="100" t="s">
+        <v>775</v>
+      </c>
+      <c r="G110" s="75" t="s">
+        <v>831</v>
+      </c>
+      <c r="H110" s="76"/>
+      <c r="I110" s="76"/>
+      <c r="J110" s="76" t="s">
+        <v>773</v>
+      </c>
+      <c r="K110" s="42" t="s">
+        <v>774</v>
+      </c>
+      <c r="L110" s="46" t="s">
+        <v>827</v>
+      </c>
+      <c r="M110" s="98"/>
+    </row>
+    <row r="111" spans="2:18" s="39" customFormat="1">
       <c r="B111" s="72"/>
       <c r="C111" s="72"/>
       <c r="D111" s="75" t="s">
-        <v>713</v>
-      </c>
-      <c r="E111" s="75" t="s">
-        <v>714</v>
-      </c>
-      <c r="F111" s="76"/>
-      <c r="G111" s="76"/>
-      <c r="H111" s="76" t="s">
-        <v>662</v>
-      </c>
-      <c r="I111" s="42" t="s">
-        <v>663</v>
-      </c>
-      <c r="J111" s="42"/>
-      <c r="K111" s="79"/>
-    </row>
-    <row r="112" spans="2:13">
+        <v>832</v>
+      </c>
+      <c r="E111" s="100" t="s">
+        <v>833</v>
+      </c>
+      <c r="F111" s="100">
+        <v>1</v>
+      </c>
+      <c r="G111" s="75" t="s">
+        <v>834</v>
+      </c>
+      <c r="H111" s="76"/>
+      <c r="I111" s="76"/>
+      <c r="J111" s="76" t="s">
+        <v>773</v>
+      </c>
+      <c r="K111" s="42" t="s">
+        <v>774</v>
+      </c>
+      <c r="L111" s="42"/>
+      <c r="M111" s="98"/>
+    </row>
+    <row r="112" spans="2:18" s="39" customFormat="1">
+      <c r="B112" s="72"/>
       <c r="C112" s="72"/>
       <c r="D112" s="75" t="s">
-        <v>715</v>
-      </c>
-      <c r="E112" s="75" t="s">
-        <v>716</v>
-      </c>
-      <c r="F112" s="76"/>
-      <c r="G112" s="76"/>
-      <c r="H112" s="76" t="s">
-        <v>662</v>
-      </c>
-      <c r="I112" s="42" t="s">
-        <v>663</v>
-      </c>
-      <c r="K112" s="79"/>
-    </row>
-    <row r="113" spans="2:11">
+        <v>835</v>
+      </c>
+      <c r="E112" s="42" t="s">
+        <v>836</v>
+      </c>
+      <c r="F112" s="42" t="s">
+        <v>775</v>
+      </c>
+      <c r="G112" s="75" t="s">
+        <v>837</v>
+      </c>
+      <c r="H112" s="76"/>
+      <c r="I112" s="76"/>
+      <c r="J112" s="76" t="s">
+        <v>773</v>
+      </c>
+      <c r="K112" s="42" t="s">
+        <v>774</v>
+      </c>
+      <c r="L112" s="42"/>
+      <c r="M112" s="98"/>
+    </row>
+    <row r="113" spans="2:13">
       <c r="C113" s="72"/>
       <c r="D113" s="75" t="s">
-        <v>717</v>
-      </c>
-      <c r="E113" s="75" t="s">
-        <v>718</v>
-      </c>
-      <c r="F113" s="76"/>
-      <c r="G113" s="76"/>
-      <c r="H113" s="76" t="s">
-        <v>662</v>
-      </c>
-      <c r="I113" s="42" t="s">
-        <v>663</v>
-      </c>
-      <c r="K113" s="79"/>
-    </row>
-    <row r="114" spans="2:11">
+        <v>838</v>
+      </c>
+      <c r="E113" s="42" t="s">
+        <v>839</v>
+      </c>
+      <c r="F113" s="42" t="s">
+        <v>775</v>
+      </c>
+      <c r="G113" s="75" t="s">
+        <v>840</v>
+      </c>
+      <c r="H113" s="76"/>
+      <c r="I113" s="76"/>
+      <c r="J113" s="76" t="s">
+        <v>773</v>
+      </c>
+      <c r="K113" s="42" t="s">
+        <v>774</v>
+      </c>
+      <c r="L113" s="42"/>
+      <c r="M113" s="98"/>
+    </row>
+    <row r="114" spans="2:13">
       <c r="C114" s="72"/>
       <c r="D114" s="75" t="s">
         <v>576</v>
       </c>
-      <c r="E114" s="75" t="s">
-        <v>719</v>
-      </c>
-      <c r="F114" s="76"/>
-      <c r="G114" s="76" t="s">
-        <v>662</v>
-      </c>
-      <c r="H114" s="76" t="s">
-        <v>662</v>
-      </c>
-      <c r="I114" s="42" t="s">
-        <v>663</v>
-      </c>
-      <c r="K114" s="79"/>
-    </row>
-    <row r="115" spans="2:11" s="39" customFormat="1">
-      <c r="B115" s="72"/>
+      <c r="F114" s="42" t="s">
+        <v>775</v>
+      </c>
+      <c r="G114" s="75" t="s">
+        <v>841</v>
+      </c>
+      <c r="H114" s="76"/>
+      <c r="I114" s="76" t="s">
+        <v>773</v>
+      </c>
+      <c r="J114" s="76" t="s">
+        <v>773</v>
+      </c>
+      <c r="K114" s="42" t="s">
+        <v>774</v>
+      </c>
+      <c r="L114" s="42"/>
+      <c r="M114" s="98"/>
+    </row>
+    <row r="115" spans="2:13">
       <c r="C115" s="72"/>
       <c r="D115" s="75" t="s">
-        <v>585</v>
-      </c>
-      <c r="E115" s="75" t="s">
-        <v>720</v>
-      </c>
-      <c r="F115" s="76"/>
-      <c r="G115" s="76"/>
-      <c r="H115" s="76" t="s">
-        <v>662</v>
-      </c>
-      <c r="I115" s="42" t="s">
-        <v>663</v>
-      </c>
-      <c r="J115" s="46" t="s">
-        <v>721</v>
-      </c>
-      <c r="K115" s="82"/>
-    </row>
-    <row r="116" spans="2:11">
+        <v>584</v>
+      </c>
+      <c r="E115" s="100"/>
+      <c r="F115" s="100" t="s">
+        <v>775</v>
+      </c>
+      <c r="G115" s="75" t="s">
+        <v>842</v>
+      </c>
+      <c r="H115" s="76"/>
+      <c r="I115" s="76"/>
+      <c r="J115" s="76" t="s">
+        <v>773</v>
+      </c>
+      <c r="K115" s="42" t="s">
+        <v>774</v>
+      </c>
+      <c r="L115" s="46" t="s">
+        <v>843</v>
+      </c>
+      <c r="M115" s="99"/>
+    </row>
+    <row r="116" spans="2:13" s="39" customFormat="1">
+      <c r="B116" s="72"/>
       <c r="C116" s="72"/>
       <c r="D116" s="75" t="s">
-        <v>586</v>
-      </c>
-      <c r="E116" s="75" t="s">
-        <v>722</v>
-      </c>
-      <c r="F116" s="76"/>
-      <c r="G116" s="76" t="s">
-        <v>662</v>
-      </c>
-      <c r="H116" s="76" t="s">
-        <v>662</v>
-      </c>
-      <c r="I116" s="42" t="s">
-        <v>663</v>
-      </c>
-      <c r="K116" s="79"/>
-    </row>
-    <row r="117" spans="2:11">
+        <v>585</v>
+      </c>
+      <c r="E116" s="42"/>
+      <c r="F116" s="42" t="s">
+        <v>775</v>
+      </c>
+      <c r="G116" s="75" t="s">
+        <v>844</v>
+      </c>
+      <c r="H116" s="76"/>
+      <c r="I116" s="76" t="s">
+        <v>773</v>
+      </c>
+      <c r="J116" s="76" t="s">
+        <v>773</v>
+      </c>
+      <c r="K116" s="42" t="s">
+        <v>774</v>
+      </c>
+      <c r="L116" s="42"/>
+      <c r="M116" s="98"/>
+    </row>
+    <row r="117" spans="2:13">
       <c r="C117" s="72"/>
       <c r="D117" s="75" t="s">
-        <v>589</v>
-      </c>
-      <c r="E117" s="75" t="s">
-        <v>723</v>
-      </c>
-      <c r="F117" s="76"/>
-      <c r="G117" s="76"/>
-      <c r="H117" s="76" t="s">
-        <v>662</v>
-      </c>
-      <c r="I117" s="42" t="s">
-        <v>663</v>
-      </c>
-      <c r="K117" s="79"/>
-    </row>
-    <row r="118" spans="2:11">
+        <v>588</v>
+      </c>
+      <c r="F117" s="42" t="s">
+        <v>775</v>
+      </c>
+      <c r="G117" s="75" t="s">
+        <v>845</v>
+      </c>
+      <c r="H117" s="76"/>
+      <c r="I117" s="76"/>
+      <c r="J117" s="76" t="s">
+        <v>773</v>
+      </c>
+      <c r="K117" s="42" t="s">
+        <v>774</v>
+      </c>
+      <c r="L117" s="42"/>
+      <c r="M117" s="98"/>
+    </row>
+    <row r="118" spans="2:13">
       <c r="C118" s="72"/>
       <c r="D118" s="75" t="s">
-        <v>584</v>
-      </c>
-      <c r="E118" s="75" t="s">
-        <v>724</v>
-      </c>
-      <c r="F118" s="76"/>
-      <c r="G118" s="76" t="s">
-        <v>662</v>
-      </c>
-      <c r="H118" s="76" t="s">
-        <v>662</v>
-      </c>
-      <c r="I118" s="42" t="s">
-        <v>663</v>
-      </c>
-      <c r="K118" s="79"/>
-    </row>
-    <row r="119" spans="2:11">
+        <v>583</v>
+      </c>
+      <c r="F118" s="42" t="s">
+        <v>775</v>
+      </c>
+      <c r="G118" s="75" t="s">
+        <v>846</v>
+      </c>
+      <c r="H118" s="76"/>
+      <c r="I118" s="76" t="s">
+        <v>773</v>
+      </c>
+      <c r="J118" s="76" t="s">
+        <v>773</v>
+      </c>
+      <c r="K118" s="42" t="s">
+        <v>774</v>
+      </c>
+      <c r="L118" s="42"/>
+      <c r="M118" s="98"/>
+    </row>
+    <row r="119" spans="2:13">
       <c r="C119" s="72"/>
-      <c r="D119" s="75" t="s">
-        <v>590</v>
-      </c>
-      <c r="E119" s="75" t="s">
-        <v>725</v>
-      </c>
-      <c r="F119" s="76"/>
-      <c r="G119" s="84"/>
-      <c r="H119" s="76" t="s">
-        <v>662</v>
-      </c>
-      <c r="I119" s="42" t="s">
-        <v>663</v>
-      </c>
-      <c r="K119" s="79"/>
-    </row>
-    <row r="120" spans="2:11">
+      <c r="D119" s="77" t="s">
+        <v>864</v>
+      </c>
+      <c r="E119" s="46" t="s">
+        <v>862</v>
+      </c>
+      <c r="F119" s="46">
+        <v>1</v>
+      </c>
+      <c r="G119" s="77" t="s">
+        <v>861</v>
+      </c>
+      <c r="H119" s="78"/>
+      <c r="I119" s="99"/>
+      <c r="J119" s="78" t="s">
+        <v>773</v>
+      </c>
+      <c r="K119" s="46" t="s">
+        <v>774</v>
+      </c>
+      <c r="L119" s="42"/>
+      <c r="M119" s="98"/>
+    </row>
+    <row r="120" spans="2:13">
       <c r="C120" s="72"/>
       <c r="D120" s="75" t="s">
-        <v>581</v>
-      </c>
-      <c r="E120" s="75" t="s">
-        <v>726</v>
-      </c>
-      <c r="F120" s="76"/>
-      <c r="G120" s="76" t="s">
-        <v>662</v>
-      </c>
-      <c r="H120" s="76" t="s">
-        <v>662</v>
-      </c>
-      <c r="I120" s="42" t="s">
-        <v>663</v>
-      </c>
-      <c r="J120" s="46" t="s">
-        <v>727</v>
-      </c>
-      <c r="K120" s="82"/>
-    </row>
-    <row r="121" spans="2:11">
+        <v>580</v>
+      </c>
+      <c r="F120" s="42" t="s">
+        <v>775</v>
+      </c>
+      <c r="G120" s="75" t="s">
+        <v>847</v>
+      </c>
+      <c r="H120" s="76"/>
+      <c r="I120" s="76" t="s">
+        <v>773</v>
+      </c>
+      <c r="J120" s="76" t="s">
+        <v>773</v>
+      </c>
+      <c r="K120" s="42" t="s">
+        <v>774</v>
+      </c>
+      <c r="L120" s="46" t="s">
+        <v>848</v>
+      </c>
+      <c r="M120" s="99"/>
+    </row>
+    <row r="121" spans="2:13">
       <c r="C121" s="72"/>
       <c r="D121" s="75" t="s">
-        <v>728</v>
-      </c>
-      <c r="E121" s="75" t="s">
-        <v>729</v>
-      </c>
-      <c r="F121" s="76"/>
-      <c r="G121" s="76"/>
-      <c r="H121" s="76" t="s">
-        <v>662</v>
-      </c>
-      <c r="I121" s="42" t="s">
-        <v>663</v>
-      </c>
-      <c r="J121" s="46" t="s">
-        <v>727</v>
-      </c>
-      <c r="K121" s="82"/>
-    </row>
-    <row r="122" spans="2:11">
+        <v>849</v>
+      </c>
+      <c r="E121" s="42" t="s">
+        <v>814</v>
+      </c>
+      <c r="F121" s="42" t="s">
+        <v>775</v>
+      </c>
+      <c r="G121" s="75" t="s">
+        <v>850</v>
+      </c>
+      <c r="H121" s="76"/>
+      <c r="I121" s="76"/>
+      <c r="J121" s="76" t="s">
+        <v>773</v>
+      </c>
+      <c r="K121" s="42" t="s">
+        <v>774</v>
+      </c>
+      <c r="L121" s="46" t="s">
+        <v>848</v>
+      </c>
+      <c r="M121" s="99"/>
+    </row>
+    <row r="122" spans="2:13">
       <c r="C122" s="72"/>
-      <c r="D122" s="80" t="s">
+      <c r="D122" s="101" t="s">
         <v>575</v>
       </c>
-      <c r="E122" s="80" t="s">
-        <v>730</v>
-      </c>
-      <c r="F122" s="81"/>
-      <c r="G122" s="81" t="s">
-        <v>662</v>
-      </c>
-      <c r="H122" s="81" t="s">
-        <v>662</v>
-      </c>
-      <c r="I122" s="42" t="s">
-        <v>666</v>
-      </c>
-      <c r="K122" s="79"/>
-    </row>
-    <row r="123" spans="2:11">
+      <c r="F122" s="42" t="s">
+        <v>775</v>
+      </c>
+      <c r="G122" s="101" t="s">
+        <v>851</v>
+      </c>
+      <c r="H122" s="102"/>
+      <c r="I122" s="102" t="s">
+        <v>773</v>
+      </c>
+      <c r="J122" s="102" t="s">
+        <v>773</v>
+      </c>
+      <c r="K122" s="42" t="s">
+        <v>778</v>
+      </c>
+      <c r="L122" s="42"/>
+      <c r="M122" s="98"/>
+    </row>
+    <row r="123" spans="2:13">
       <c r="C123" s="72"/>
-      <c r="D123" s="80" t="s">
+      <c r="D123" s="101" t="s">
         <v>574</v>
       </c>
-      <c r="E123" s="80" t="s">
-        <v>731</v>
-      </c>
-      <c r="F123" s="81"/>
-      <c r="G123" s="81" t="s">
-        <v>662</v>
-      </c>
-      <c r="H123" s="81" t="s">
-        <v>662</v>
-      </c>
-      <c r="I123" s="42" t="s">
-        <v>663</v>
-      </c>
-      <c r="K123" s="79"/>
-    </row>
-    <row r="124" spans="2:11">
+      <c r="F123" s="42" t="s">
+        <v>775</v>
+      </c>
+      <c r="G123" s="101" t="s">
+        <v>852</v>
+      </c>
+      <c r="H123" s="102"/>
+      <c r="I123" s="102" t="s">
+        <v>773</v>
+      </c>
+      <c r="J123" s="102" t="s">
+        <v>773</v>
+      </c>
+      <c r="K123" s="42" t="s">
+        <v>774</v>
+      </c>
+      <c r="L123" s="42"/>
+      <c r="M123" s="98"/>
+    </row>
+    <row r="124" spans="2:13">
       <c r="C124" s="72"/>
       <c r="D124" s="75" t="s">
-        <v>592</v>
-      </c>
-      <c r="E124" s="75" t="s">
-        <v>732</v>
-      </c>
-      <c r="F124" s="76"/>
-      <c r="G124" s="76" t="s">
-        <v>662</v>
-      </c>
-      <c r="H124" s="76" t="s">
-        <v>662</v>
-      </c>
-      <c r="I124" s="42" t="s">
-        <v>663</v>
-      </c>
-      <c r="K124" s="79"/>
-    </row>
-    <row r="125" spans="2:11">
+        <v>590</v>
+      </c>
+      <c r="F124" s="42" t="s">
+        <v>775</v>
+      </c>
+      <c r="G124" s="75" t="s">
+        <v>853</v>
+      </c>
+      <c r="H124" s="76"/>
+      <c r="I124" s="76" t="s">
+        <v>773</v>
+      </c>
+      <c r="J124" s="76" t="s">
+        <v>773</v>
+      </c>
+      <c r="K124" s="42" t="s">
+        <v>774</v>
+      </c>
+      <c r="L124" s="42"/>
+      <c r="M124" s="98"/>
+    </row>
+    <row r="125" spans="2:13">
       <c r="C125" s="72"/>
       <c r="D125" s="75" t="s">
-        <v>733</v>
-      </c>
-      <c r="E125" s="75" t="s">
-        <v>734</v>
-      </c>
-      <c r="F125" s="76"/>
-      <c r="G125" s="76" t="s">
-        <v>662</v>
-      </c>
-      <c r="H125" s="76" t="s">
-        <v>662</v>
-      </c>
-      <c r="I125" s="42" t="s">
-        <v>663</v>
-      </c>
-      <c r="K125" s="79"/>
-    </row>
-    <row r="126" spans="2:11">
+        <v>854</v>
+      </c>
+      <c r="F125" s="42" t="s">
+        <v>775</v>
+      </c>
+      <c r="G125" s="75" t="s">
+        <v>855</v>
+      </c>
+      <c r="H125" s="76"/>
+      <c r="I125" s="76" t="s">
+        <v>773</v>
+      </c>
+      <c r="J125" s="76" t="s">
+        <v>773</v>
+      </c>
+      <c r="K125" s="42" t="s">
+        <v>774</v>
+      </c>
+      <c r="L125" s="42"/>
+      <c r="M125" s="98"/>
+    </row>
+    <row r="126" spans="2:13">
       <c r="C126" s="72"/>
       <c r="D126" s="75" t="s">
-        <v>579</v>
-      </c>
-      <c r="E126" s="75" t="s">
-        <v>735</v>
-      </c>
-      <c r="F126" s="76"/>
-      <c r="G126" s="76" t="s">
-        <v>662</v>
-      </c>
-      <c r="H126" s="76" t="s">
-        <v>662</v>
-      </c>
-      <c r="I126" s="42" t="s">
-        <v>663</v>
-      </c>
-      <c r="K126" s="79"/>
-    </row>
-    <row r="127" spans="2:11" s="51" customFormat="1">
+        <v>856</v>
+      </c>
+      <c r="E126" s="42" t="s">
+        <v>783</v>
+      </c>
+      <c r="F126" s="42" t="s">
+        <v>775</v>
+      </c>
+      <c r="G126" s="75" t="s">
+        <v>857</v>
+      </c>
+      <c r="H126" s="76"/>
+      <c r="I126" s="76" t="s">
+        <v>773</v>
+      </c>
+      <c r="J126" s="76" t="s">
+        <v>773</v>
+      </c>
+      <c r="K126" s="42" t="s">
+        <v>774</v>
+      </c>
+      <c r="L126" s="42"/>
+      <c r="M126" s="98"/>
+    </row>
+    <row r="127" spans="2:13" s="51" customFormat="1">
       <c r="B127" s="72"/>
       <c r="C127" s="72"/>
       <c r="D127" s="42"/>
@@ -15407,11 +15761,9 @@
       <c r="I127" s="42"/>
       <c r="J127" s="42"/>
     </row>
-    <row r="128" spans="2:11" s="51" customFormat="1">
+    <row r="128" spans="2:13" s="51" customFormat="1">
       <c r="B128" s="72"/>
-      <c r="C128" s="72" t="s">
-        <v>609</v>
-      </c>
+      <c r="C128" s="72"/>
       <c r="D128" s="42"/>
       <c r="E128" s="42"/>
       <c r="F128" s="42"/>
@@ -15423,104 +15775,176 @@
     <row r="129" spans="2:11" s="51" customFormat="1">
       <c r="B129" s="72"/>
       <c r="C129" s="72"/>
-      <c r="D129" s="42" t="s">
-        <v>610</v>
-      </c>
-      <c r="E129" s="42"/>
-      <c r="F129" s="42"/>
-      <c r="G129" s="42"/>
-      <c r="H129" s="42"/>
+      <c r="D129" s="46" t="s">
+        <v>858</v>
+      </c>
+      <c r="E129" s="46"/>
+      <c r="F129" s="46"/>
+      <c r="G129" s="46"/>
+      <c r="H129" s="46"/>
       <c r="I129" s="42"/>
       <c r="J129" s="42"/>
     </row>
     <row r="130" spans="2:11" s="51" customFormat="1">
       <c r="B130" s="72"/>
       <c r="C130" s="72"/>
-      <c r="D130" s="42" t="s">
-        <v>611</v>
-      </c>
-      <c r="E130" s="42"/>
-      <c r="F130" s="42"/>
-      <c r="G130" s="42"/>
-      <c r="H130" s="42"/>
+      <c r="D130" s="46" t="s">
+        <v>859</v>
+      </c>
+      <c r="E130" s="46"/>
+      <c r="F130" s="46"/>
+      <c r="G130" s="46"/>
+      <c r="H130" s="46"/>
       <c r="I130" s="42"/>
       <c r="J130" s="42"/>
     </row>
-    <row r="131" spans="2:11">
+    <row r="131" spans="2:11" s="51" customFormat="1">
+      <c r="B131" s="72"/>
       <c r="C131" s="72"/>
-      <c r="E131" s="71" t="s">
+      <c r="D131" s="42"/>
+      <c r="E131" s="42"/>
+      <c r="F131" s="42"/>
+      <c r="G131" s="42"/>
+      <c r="H131" s="42"/>
+      <c r="I131" s="42"/>
+      <c r="J131" s="42"/>
+    </row>
+    <row r="132" spans="2:11" s="51" customFormat="1">
+      <c r="B132" s="72"/>
+      <c r="C132" s="72"/>
+      <c r="D132" s="42"/>
+      <c r="E132" s="42"/>
+      <c r="F132" s="42"/>
+      <c r="G132" s="42"/>
+      <c r="H132" s="42"/>
+      <c r="I132" s="42"/>
+      <c r="J132" s="42"/>
+    </row>
+    <row r="133" spans="2:11" s="51" customFormat="1">
+      <c r="B133" s="72"/>
+      <c r="C133" s="72"/>
+      <c r="D133" s="42"/>
+      <c r="E133" s="42"/>
+      <c r="F133" s="42"/>
+      <c r="G133" s="42"/>
+      <c r="H133" s="42"/>
+      <c r="I133" s="42"/>
+      <c r="J133" s="42"/>
+    </row>
+    <row r="134" spans="2:11" s="51" customFormat="1">
+      <c r="B134" s="72"/>
+      <c r="C134" s="72" t="s">
+        <v>607</v>
+      </c>
+      <c r="D134" s="42"/>
+      <c r="E134" s="42"/>
+      <c r="F134" s="42"/>
+      <c r="G134" s="42"/>
+      <c r="H134" s="42"/>
+      <c r="I134" s="42"/>
+      <c r="J134" s="42"/>
+    </row>
+    <row r="135" spans="2:11" s="51" customFormat="1">
+      <c r="B135" s="72"/>
+      <c r="C135" s="72"/>
+      <c r="D135" s="42" t="s">
+        <v>608</v>
+      </c>
+      <c r="E135" s="42"/>
+      <c r="F135" s="42"/>
+      <c r="G135" s="42"/>
+      <c r="H135" s="42"/>
+      <c r="I135" s="42"/>
+      <c r="J135" s="42"/>
+    </row>
+    <row r="136" spans="2:11" s="51" customFormat="1">
+      <c r="B136" s="72"/>
+      <c r="C136" s="72"/>
+      <c r="D136" s="42" t="s">
+        <v>609</v>
+      </c>
+      <c r="E136" s="42"/>
+      <c r="F136" s="42"/>
+      <c r="G136" s="42"/>
+      <c r="H136" s="42"/>
+      <c r="I136" s="42"/>
+      <c r="J136" s="42"/>
+    </row>
+    <row r="137" spans="2:11">
+      <c r="C137" s="72"/>
+      <c r="E137" s="71" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="132" spans="2:11">
-      <c r="C132" s="72"/>
-    </row>
-    <row r="133" spans="2:11" s="39" customFormat="1">
-      <c r="B133" s="72"/>
-      <c r="C133" s="68" t="s">
-        <v>647</v>
-      </c>
-      <c r="D133" s="46"/>
-      <c r="E133" s="46"/>
-      <c r="F133" s="46"/>
-      <c r="G133" s="46"/>
-      <c r="H133" s="46"/>
-      <c r="I133" s="46"/>
-      <c r="J133" s="46"/>
-      <c r="K133" s="21"/>
-    </row>
-    <row r="134" spans="2:11">
-      <c r="C134" s="72"/>
-    </row>
-    <row r="135" spans="2:11">
-      <c r="B135" s="72" t="s">
+    <row r="138" spans="2:11">
+      <c r="C138" s="72"/>
+    </row>
+    <row r="139" spans="2:11" s="39" customFormat="1">
+      <c r="B139" s="72"/>
+      <c r="C139" s="68" t="s">
+        <v>645</v>
+      </c>
+      <c r="D139" s="46"/>
+      <c r="E139" s="46"/>
+      <c r="F139" s="46"/>
+      <c r="G139" s="46"/>
+      <c r="H139" s="46"/>
+      <c r="I139" s="46"/>
+      <c r="J139" s="46"/>
+      <c r="K139" s="21"/>
+    </row>
+    <row r="140" spans="2:11">
+      <c r="C140" s="72"/>
+    </row>
+    <row r="141" spans="2:11">
+      <c r="B141" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="C135" s="72"/>
-    </row>
-    <row r="136" spans="2:11">
-      <c r="C136" s="42" t="s">
+      <c r="C141" s="72"/>
+    </row>
+    <row r="142" spans="2:11">
+      <c r="C142" s="42" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="137" spans="2:11">
-      <c r="D137" s="46" t="s">
-        <v>654</v>
-      </c>
-      <c r="E137" s="46"/>
-      <c r="F137" s="46"/>
-      <c r="G137" s="46"/>
-      <c r="H137" s="46"/>
-    </row>
-    <row r="138" spans="2:11">
-      <c r="D138" s="42" t="s">
+    <row r="143" spans="2:11">
+      <c r="D143" s="46" t="s">
+        <v>652</v>
+      </c>
+      <c r="E143" s="46"/>
+      <c r="F143" s="46"/>
+      <c r="G143" s="46"/>
+      <c r="H143" s="46"/>
+    </row>
+    <row r="144" spans="2:11">
+      <c r="D144" s="42" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="140" spans="2:11">
-      <c r="C140" s="42" t="s">
+    <row r="146" spans="3:4">
+      <c r="C146" s="42" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="147" spans="3:4">
+      <c r="D147" s="42" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="148" spans="3:4">
+      <c r="D148" s="42" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="141" spans="2:11">
-      <c r="D141" s="42" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="142" spans="2:11">
-      <c r="D142" s="42" t="s">
-        <v>641</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -16238,7 +16662,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -16253,8 +16677,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView topLeftCell="B9" zoomScaleNormal="100" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -16476,568 +16900,568 @@
     </row>
     <row r="7" spans="1:20" hidden="1">
       <c r="C7" s="62" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="B12" s="29" t="s">
-        <v>749</v>
+        <v>670</v>
       </c>
     </row>
     <row r="13" spans="1:20" s="39" customFormat="1">
       <c r="B13" s="29"/>
-      <c r="C13" s="87" t="s">
-        <v>807</v>
+      <c r="C13" s="81" t="s">
+        <v>728</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:20">
-      <c r="C14" s="88" t="s">
-        <v>808</v>
-      </c>
-      <c r="D14" s="88" t="s">
-        <v>809</v>
-      </c>
-      <c r="E14" s="88" t="s">
-        <v>775</v>
-      </c>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="86"/>
+      <c r="C14" s="82" t="s">
+        <v>729</v>
+      </c>
+      <c r="D14" s="82" t="s">
+        <v>730</v>
+      </c>
+      <c r="E14" s="82" t="s">
+        <v>696</v>
+      </c>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
     </row>
     <row r="15" spans="1:20">
-      <c r="C15" s="93" t="s">
-        <v>739</v>
-      </c>
-      <c r="D15" s="89" t="s">
-        <v>752</v>
-      </c>
-      <c r="E15" s="89" t="s">
-        <v>776</v>
-      </c>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="86"/>
+      <c r="C15" s="87" t="s">
+        <v>660</v>
+      </c>
+      <c r="D15" s="83" t="s">
+        <v>673</v>
+      </c>
+      <c r="E15" s="83" t="s">
+        <v>697</v>
+      </c>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
     </row>
     <row r="16" spans="1:20" s="39" customFormat="1">
-      <c r="C16" s="86" t="s">
-        <v>740</v>
-      </c>
-      <c r="D16" s="89" t="s">
-        <v>758</v>
-      </c>
-      <c r="E16" s="89" t="s">
-        <v>778</v>
-      </c>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="86"/>
+      <c r="C16" s="80" t="s">
+        <v>661</v>
+      </c>
+      <c r="D16" s="83" t="s">
+        <v>679</v>
+      </c>
+      <c r="E16" s="83" t="s">
+        <v>699</v>
+      </c>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
     </row>
     <row r="17" spans="2:13" s="39" customFormat="1">
-      <c r="D17" s="89" t="s">
-        <v>759</v>
-      </c>
-      <c r="E17" s="89" t="s">
-        <v>779</v>
-      </c>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="86"/>
+      <c r="D17" s="83" t="s">
+        <v>680</v>
+      </c>
+      <c r="E17" s="83" t="s">
+        <v>700</v>
+      </c>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
     </row>
     <row r="18" spans="2:13" s="39" customFormat="1">
-      <c r="C18" s="86" t="s">
-        <v>741</v>
-      </c>
-      <c r="D18" s="86" t="s">
-        <v>744</v>
-      </c>
-      <c r="E18" s="88" t="s">
-        <v>780</v>
-      </c>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-      <c r="J18" s="86"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="86"/>
+      <c r="C18" s="80" t="s">
+        <v>662</v>
+      </c>
+      <c r="D18" s="80" t="s">
+        <v>665</v>
+      </c>
+      <c r="E18" s="82" t="s">
+        <v>701</v>
+      </c>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="80"/>
     </row>
     <row r="19" spans="2:13" s="39" customFormat="1">
-      <c r="D19" s="86" t="s">
-        <v>745</v>
-      </c>
-      <c r="E19" s="88" t="s">
-        <v>781</v>
-      </c>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="86"/>
+      <c r="D19" s="80" t="s">
+        <v>666</v>
+      </c>
+      <c r="E19" s="82" t="s">
+        <v>702</v>
+      </c>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
     </row>
     <row r="20" spans="2:13" s="39" customFormat="1">
-      <c r="D20" s="86" t="s">
-        <v>746</v>
-      </c>
-      <c r="E20" s="88" t="s">
-        <v>782</v>
-      </c>
-      <c r="G20" s="86"/>
-      <c r="H20" s="86"/>
-      <c r="J20" s="86"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="86"/>
+      <c r="D20" s="80" t="s">
+        <v>667</v>
+      </c>
+      <c r="E20" s="82" t="s">
+        <v>703</v>
+      </c>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="80"/>
     </row>
     <row r="21" spans="2:13" s="39" customFormat="1">
-      <c r="D21" s="95" t="s">
-        <v>813</v>
-      </c>
-      <c r="E21" s="95" t="s">
-        <v>814</v>
-      </c>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="86"/>
+      <c r="D21" s="89" t="s">
+        <v>734</v>
+      </c>
+      <c r="E21" s="89" t="s">
+        <v>735</v>
+      </c>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="80"/>
     </row>
     <row r="22" spans="2:13" s="39" customFormat="1">
-      <c r="C22" s="86" t="s">
-        <v>742</v>
-      </c>
-      <c r="D22" s="86"/>
-      <c r="E22" s="88" t="s">
-        <v>783</v>
-      </c>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86"/>
-      <c r="J22" s="86"/>
-      <c r="K22" s="86"/>
-      <c r="L22" s="86"/>
+      <c r="C22" s="80" t="s">
+        <v>663</v>
+      </c>
+      <c r="D22" s="80"/>
+      <c r="E22" s="82" t="s">
+        <v>704</v>
+      </c>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="80"/>
     </row>
     <row r="23" spans="2:13">
-      <c r="C23" s="90" t="s">
-        <v>751</v>
-      </c>
-      <c r="D23" s="89" t="s">
-        <v>754</v>
-      </c>
-      <c r="E23" s="89" t="s">
-        <v>784</v>
-      </c>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="86"/>
+      <c r="C23" s="84" t="s">
+        <v>672</v>
+      </c>
+      <c r="D23" s="83" t="s">
+        <v>675</v>
+      </c>
+      <c r="E23" s="83" t="s">
+        <v>705</v>
+      </c>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
     </row>
     <row r="24" spans="2:13" s="39" customFormat="1">
       <c r="B24" s="51"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="89" t="s">
-        <v>755</v>
-      </c>
-      <c r="E24" s="89" t="s">
-        <v>785</v>
-      </c>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
-      <c r="J24" s="86"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="86"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="83" t="s">
+        <v>676</v>
+      </c>
+      <c r="E24" s="83" t="s">
+        <v>706</v>
+      </c>
+      <c r="G24" s="80"/>
+      <c r="H24" s="80"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="80"/>
     </row>
     <row r="25" spans="2:13" s="39" customFormat="1">
       <c r="B25" s="51"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="89" t="s">
-        <v>756</v>
-      </c>
-      <c r="E25" s="89" t="s">
-        <v>786</v>
-      </c>
-      <c r="G25" s="86"/>
-      <c r="H25" s="86"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="86"/>
-      <c r="L25" s="86"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="83" t="s">
+        <v>677</v>
+      </c>
+      <c r="E25" s="83" t="s">
+        <v>707</v>
+      </c>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="J25" s="80"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80"/>
     </row>
     <row r="26" spans="2:13">
-      <c r="C26" s="88" t="s">
-        <v>750</v>
-      </c>
-      <c r="E26" s="88" t="s">
-        <v>787</v>
-      </c>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="J26" s="86"/>
-      <c r="K26" s="86"/>
-      <c r="L26" s="86"/>
+      <c r="C26" s="82" t="s">
+        <v>671</v>
+      </c>
+      <c r="E26" s="82" t="s">
+        <v>708</v>
+      </c>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="80"/>
     </row>
     <row r="27" spans="2:13">
-      <c r="C27" s="93" t="s">
+      <c r="C27" s="87" t="s">
+        <v>664</v>
+      </c>
+      <c r="D27" s="88" t="s">
+        <v>668</v>
+      </c>
+      <c r="E27" s="88" t="s">
+        <v>715</v>
+      </c>
+      <c r="G27" s="85"/>
+      <c r="H27" s="85"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="85"/>
+      <c r="M27" s="85" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" s="39" customFormat="1">
+      <c r="C28" s="87"/>
+      <c r="D28" s="87" t="s">
+        <v>669</v>
+      </c>
+      <c r="E28" s="83" t="s">
+        <v>714</v>
+      </c>
+      <c r="G28" s="80"/>
+      <c r="H28" s="80"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="80"/>
+    </row>
+    <row r="29" spans="2:13" s="39" customFormat="1">
+      <c r="C29" s="87"/>
+      <c r="D29" s="83" t="s">
+        <v>688</v>
+      </c>
+      <c r="E29" s="83" t="s">
+        <v>713</v>
+      </c>
+      <c r="G29" s="80"/>
+      <c r="H29" s="80"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="80"/>
+    </row>
+    <row r="30" spans="2:13" s="39" customFormat="1">
+      <c r="C30" s="87"/>
+      <c r="D30" s="83" t="s">
+        <v>689</v>
+      </c>
+      <c r="E30" s="83" t="s">
+        <v>710</v>
+      </c>
+      <c r="G30" s="80"/>
+      <c r="H30" s="80"/>
+      <c r="J30" s="80"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="80"/>
+    </row>
+    <row r="31" spans="2:13" s="39" customFormat="1">
+      <c r="C31" s="87"/>
+      <c r="D31" s="83" t="s">
+        <v>690</v>
+      </c>
+      <c r="E31" s="83" t="s">
+        <v>711</v>
+      </c>
+      <c r="G31" s="80"/>
+      <c r="H31" s="80"/>
+      <c r="J31" s="80"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="80"/>
+    </row>
+    <row r="32" spans="2:13" s="39" customFormat="1">
+      <c r="C32" s="87"/>
+      <c r="D32" s="83" t="s">
+        <v>691</v>
+      </c>
+      <c r="E32" s="83" t="s">
+        <v>712</v>
+      </c>
+      <c r="G32" s="80"/>
+      <c r="H32" s="80"/>
+      <c r="J32" s="80"/>
+      <c r="K32" s="80"/>
+      <c r="L32" s="80"/>
+    </row>
+    <row r="33" spans="3:12">
+      <c r="C33" s="83" t="s">
+        <v>674</v>
+      </c>
+      <c r="D33" s="83" t="s">
+        <v>687</v>
+      </c>
+      <c r="E33" s="83" t="s">
+        <v>716</v>
+      </c>
+      <c r="G33" s="80"/>
+      <c r="H33" s="80"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="80"/>
+    </row>
+    <row r="34" spans="3:12">
+      <c r="C34" s="87"/>
+      <c r="D34" s="83" t="s">
+        <v>686</v>
+      </c>
+      <c r="E34" s="83" t="s">
+        <v>717</v>
+      </c>
+      <c r="G34" s="80"/>
+      <c r="H34" s="80"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="80"/>
+    </row>
+    <row r="35" spans="3:12">
+      <c r="C35" s="83" t="s">
+        <v>678</v>
+      </c>
+      <c r="D35" s="83"/>
+      <c r="E35" s="92" t="s">
+        <v>746</v>
+      </c>
+      <c r="F35" s="32" t="s">
+        <v>737</v>
+      </c>
+      <c r="G35" s="91"/>
+      <c r="H35" s="80"/>
+      <c r="J35" s="80"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="80"/>
+    </row>
+    <row r="36" spans="3:12">
+      <c r="C36" s="83" t="s">
+        <v>681</v>
+      </c>
+      <c r="D36" s="83" t="s">
+        <v>682</v>
+      </c>
+      <c r="E36" s="83" t="s">
+        <v>718</v>
+      </c>
+      <c r="F36" s="32"/>
+      <c r="G36" s="91" t="s">
+        <v>738</v>
+      </c>
+      <c r="H36" s="80"/>
+      <c r="J36" s="80"/>
+      <c r="K36" s="80"/>
+      <c r="L36" s="80"/>
+    </row>
+    <row r="37" spans="3:12">
+      <c r="C37" s="87"/>
+      <c r="D37" s="83" t="s">
+        <v>683</v>
+      </c>
+      <c r="E37" s="83" t="s">
+        <v>719</v>
+      </c>
+      <c r="G37" s="80"/>
+      <c r="H37" s="80"/>
+      <c r="J37" s="80"/>
+      <c r="K37" s="80"/>
+      <c r="L37" s="80"/>
+    </row>
+    <row r="38" spans="3:12">
+      <c r="C38" s="83"/>
+      <c r="D38" s="83" t="s">
+        <v>684</v>
+      </c>
+      <c r="E38" s="83" t="s">
+        <v>720</v>
+      </c>
+      <c r="G38" s="80"/>
+      <c r="H38" s="80"/>
+      <c r="J38" s="80"/>
+      <c r="K38" s="80"/>
+      <c r="L38" s="80"/>
+    </row>
+    <row r="39" spans="3:12">
+      <c r="C39" s="87"/>
+      <c r="D39" s="83" t="s">
+        <v>685</v>
+      </c>
+      <c r="E39" s="83" t="s">
+        <v>721</v>
+      </c>
+      <c r="G39" s="80"/>
+      <c r="H39" s="80"/>
+      <c r="J39" s="80"/>
+      <c r="K39" s="80"/>
+      <c r="L39" s="80"/>
+    </row>
+    <row r="40" spans="3:12">
+      <c r="C40" s="83" t="s">
+        <v>692</v>
+      </c>
+      <c r="D40" s="87"/>
+      <c r="E40" s="83" t="s">
+        <v>722</v>
+      </c>
+      <c r="G40" s="80"/>
+      <c r="H40" s="80"/>
+      <c r="J40" s="80"/>
+      <c r="K40" s="80"/>
+      <c r="L40" s="80"/>
+    </row>
+    <row r="41" spans="3:12">
+      <c r="C41" s="83" t="s">
+        <v>693</v>
+      </c>
+      <c r="D41" s="83" t="s">
+        <v>694</v>
+      </c>
+      <c r="E41" s="83" t="s">
+        <v>723</v>
+      </c>
+      <c r="G41" s="80"/>
+      <c r="H41" s="80"/>
+      <c r="J41" s="80"/>
+      <c r="K41" s="80"/>
+      <c r="L41" s="80"/>
+    </row>
+    <row r="42" spans="3:12">
+      <c r="C42" s="87"/>
+      <c r="D42" s="83" t="s">
+        <v>695</v>
+      </c>
+      <c r="E42" s="83" t="s">
+        <v>724</v>
+      </c>
+      <c r="G42" s="80"/>
+      <c r="H42" s="80"/>
+      <c r="J42" s="80"/>
+      <c r="K42" s="80"/>
+      <c r="L42" s="80"/>
+    </row>
+    <row r="43" spans="3:12" s="39" customFormat="1">
+      <c r="C43" s="93" t="s">
+        <v>739</v>
+      </c>
+      <c r="D43" s="93" t="s">
+        <v>740</v>
+      </c>
+      <c r="E43" s="93" t="s">
+        <v>725</v>
+      </c>
+      <c r="F43" s="90"/>
+      <c r="G43" s="80"/>
+      <c r="H43" s="80"/>
+      <c r="J43" s="80"/>
+      <c r="K43" s="80"/>
+      <c r="L43" s="80"/>
+    </row>
+    <row r="44" spans="3:12" s="39" customFormat="1">
+      <c r="C44" s="93"/>
+      <c r="D44" s="93" t="s">
+        <v>741</v>
+      </c>
+      <c r="E44" s="93" t="s">
+        <v>731</v>
+      </c>
+      <c r="F44" s="90"/>
+      <c r="G44" s="80"/>
+      <c r="H44" s="80"/>
+      <c r="J44" s="80"/>
+      <c r="K44" s="80"/>
+      <c r="L44" s="80"/>
+    </row>
+    <row r="45" spans="3:12" s="39" customFormat="1">
+      <c r="C45" s="93"/>
+      <c r="D45" s="93" t="s">
+        <v>742</v>
+      </c>
+      <c r="E45" s="93" t="s">
+        <v>736</v>
+      </c>
+      <c r="G45" s="80"/>
+      <c r="H45" s="80"/>
+      <c r="J45" s="80"/>
+      <c r="K45" s="80"/>
+      <c r="L45" s="80"/>
+    </row>
+    <row r="46" spans="3:12">
+      <c r="C46" s="93"/>
+      <c r="D46" s="93" t="s">
         <v>743</v>
       </c>
-      <c r="D27" s="94" t="s">
-        <v>747</v>
-      </c>
-      <c r="E27" s="94" t="s">
-        <v>794</v>
-      </c>
-      <c r="G27" s="91"/>
-      <c r="H27" s="91"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="92"/>
-      <c r="L27" s="91"/>
-      <c r="M27" s="91" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" s="39" customFormat="1">
-      <c r="C28" s="93"/>
-      <c r="D28" s="93" t="s">
-        <v>748</v>
-      </c>
-      <c r="E28" s="89" t="s">
-        <v>793</v>
-      </c>
-      <c r="G28" s="86"/>
-      <c r="H28" s="86"/>
-      <c r="J28" s="86"/>
-      <c r="K28" s="86"/>
-      <c r="L28" s="86"/>
-    </row>
-    <row r="29" spans="2:13" s="39" customFormat="1">
-      <c r="C29" s="93"/>
-      <c r="D29" s="89" t="s">
-        <v>767</v>
-      </c>
-      <c r="E29" s="89" t="s">
-        <v>792</v>
-      </c>
-      <c r="G29" s="86"/>
-      <c r="H29" s="86"/>
-      <c r="J29" s="86"/>
-      <c r="K29" s="86"/>
-      <c r="L29" s="86"/>
-    </row>
-    <row r="30" spans="2:13" s="39" customFormat="1">
-      <c r="C30" s="93"/>
-      <c r="D30" s="89" t="s">
-        <v>768</v>
-      </c>
-      <c r="E30" s="89" t="s">
-        <v>789</v>
-      </c>
-      <c r="G30" s="86"/>
-      <c r="H30" s="86"/>
-      <c r="J30" s="86"/>
-      <c r="K30" s="86"/>
-      <c r="L30" s="86"/>
-    </row>
-    <row r="31" spans="2:13" s="39" customFormat="1">
-      <c r="C31" s="93"/>
-      <c r="D31" s="89" t="s">
-        <v>769</v>
-      </c>
-      <c r="E31" s="89" t="s">
-        <v>790</v>
-      </c>
-      <c r="G31" s="86"/>
-      <c r="H31" s="86"/>
-      <c r="J31" s="86"/>
-      <c r="K31" s="86"/>
-      <c r="L31" s="86"/>
-    </row>
-    <row r="32" spans="2:13" s="39" customFormat="1">
-      <c r="C32" s="93"/>
-      <c r="D32" s="89" t="s">
-        <v>770</v>
-      </c>
-      <c r="E32" s="89" t="s">
-        <v>791</v>
-      </c>
-      <c r="G32" s="86"/>
-      <c r="H32" s="86"/>
-      <c r="J32" s="86"/>
-      <c r="K32" s="86"/>
-      <c r="L32" s="86"/>
-    </row>
-    <row r="33" spans="3:12">
-      <c r="C33" s="89" t="s">
-        <v>753</v>
-      </c>
-      <c r="D33" s="89" t="s">
-        <v>766</v>
-      </c>
-      <c r="E33" s="89" t="s">
-        <v>795</v>
-      </c>
-      <c r="G33" s="86"/>
-      <c r="H33" s="86"/>
-      <c r="J33" s="86"/>
-      <c r="K33" s="86"/>
-      <c r="L33" s="86"/>
-    </row>
-    <row r="34" spans="3:12">
-      <c r="C34" s="93"/>
-      <c r="D34" s="89" t="s">
-        <v>765</v>
-      </c>
-      <c r="E34" s="89" t="s">
-        <v>796</v>
-      </c>
-      <c r="G34" s="86"/>
-      <c r="H34" s="86"/>
-      <c r="J34" s="86"/>
-      <c r="K34" s="86"/>
-      <c r="L34" s="86"/>
-    </row>
-    <row r="35" spans="3:12">
-      <c r="C35" s="89" t="s">
-        <v>757</v>
-      </c>
-      <c r="D35" s="89"/>
-      <c r="E35" s="98" t="s">
-        <v>826</v>
-      </c>
-      <c r="F35" s="32" t="s">
-        <v>816</v>
-      </c>
-      <c r="G35" s="97"/>
-      <c r="H35" s="86"/>
-      <c r="J35" s="86"/>
-      <c r="K35" s="86"/>
-      <c r="L35" s="86"/>
-    </row>
-    <row r="36" spans="3:12">
-      <c r="C36" s="89" t="s">
-        <v>760</v>
-      </c>
-      <c r="D36" s="89" t="s">
-        <v>761</v>
-      </c>
-      <c r="E36" s="89" t="s">
-        <v>797</v>
-      </c>
-      <c r="F36" s="32"/>
-      <c r="G36" s="97" t="s">
-        <v>818</v>
-      </c>
-      <c r="H36" s="86"/>
-      <c r="J36" s="86"/>
-      <c r="K36" s="86"/>
-      <c r="L36" s="86"/>
-    </row>
-    <row r="37" spans="3:12">
-      <c r="C37" s="93"/>
-      <c r="D37" s="89" t="s">
-        <v>762</v>
-      </c>
-      <c r="E37" s="89" t="s">
-        <v>798</v>
-      </c>
-      <c r="G37" s="86"/>
-      <c r="H37" s="86"/>
-      <c r="J37" s="86"/>
-      <c r="K37" s="86"/>
-      <c r="L37" s="86"/>
-    </row>
-    <row r="38" spans="3:12">
-      <c r="C38" s="89"/>
-      <c r="D38" s="89" t="s">
-        <v>763</v>
-      </c>
-      <c r="E38" s="89" t="s">
-        <v>799</v>
-      </c>
-      <c r="G38" s="86"/>
-      <c r="H38" s="86"/>
-      <c r="J38" s="86"/>
-      <c r="K38" s="86"/>
-      <c r="L38" s="86"/>
-    </row>
-    <row r="39" spans="3:12">
-      <c r="C39" s="93"/>
-      <c r="D39" s="89" t="s">
-        <v>764</v>
-      </c>
-      <c r="E39" s="89" t="s">
-        <v>800</v>
-      </c>
-      <c r="G39" s="86"/>
-      <c r="H39" s="86"/>
-      <c r="J39" s="86"/>
-      <c r="K39" s="86"/>
-      <c r="L39" s="86"/>
-    </row>
-    <row r="40" spans="3:12">
-      <c r="C40" s="89" t="s">
-        <v>771</v>
-      </c>
-      <c r="D40" s="93"/>
-      <c r="E40" s="89" t="s">
-        <v>801</v>
-      </c>
-      <c r="G40" s="86"/>
-      <c r="H40" s="86"/>
-      <c r="J40" s="86"/>
-      <c r="K40" s="86"/>
-      <c r="L40" s="86"/>
-    </row>
-    <row r="41" spans="3:12">
-      <c r="C41" s="89" t="s">
-        <v>772</v>
-      </c>
-      <c r="D41" s="89" t="s">
-        <v>773</v>
-      </c>
-      <c r="E41" s="89" t="s">
-        <v>802</v>
-      </c>
-      <c r="G41" s="86"/>
-      <c r="H41" s="86"/>
-      <c r="J41" s="86"/>
-      <c r="K41" s="86"/>
-      <c r="L41" s="86"/>
-    </row>
-    <row r="42" spans="3:12">
-      <c r="C42" s="93"/>
-      <c r="D42" s="89" t="s">
-        <v>774</v>
-      </c>
-      <c r="E42" s="89" t="s">
-        <v>803</v>
-      </c>
-      <c r="G42" s="86"/>
-      <c r="H42" s="86"/>
-      <c r="J42" s="86"/>
-      <c r="K42" s="86"/>
-      <c r="L42" s="86"/>
-    </row>
-    <row r="43" spans="3:12" s="39" customFormat="1">
-      <c r="C43" s="99" t="s">
-        <v>819</v>
-      </c>
-      <c r="D43" s="99" t="s">
-        <v>820</v>
-      </c>
-      <c r="E43" s="99" t="s">
-        <v>804</v>
-      </c>
-      <c r="F43" s="96"/>
-      <c r="G43" s="86"/>
-      <c r="H43" s="86"/>
-      <c r="J43" s="86"/>
-      <c r="K43" s="86"/>
-      <c r="L43" s="86"/>
-    </row>
-    <row r="44" spans="3:12" s="39" customFormat="1">
-      <c r="C44" s="99"/>
-      <c r="D44" s="99" t="s">
-        <v>821</v>
-      </c>
-      <c r="E44" s="99" t="s">
-        <v>810</v>
-      </c>
-      <c r="F44" s="96"/>
-      <c r="G44" s="86"/>
-      <c r="H44" s="86"/>
-      <c r="J44" s="86"/>
-      <c r="K44" s="86"/>
-      <c r="L44" s="86"/>
-    </row>
-    <row r="45" spans="3:12" s="39" customFormat="1">
-      <c r="C45" s="99"/>
-      <c r="D45" s="99" t="s">
-        <v>822</v>
-      </c>
-      <c r="E45" s="99" t="s">
-        <v>815</v>
-      </c>
-      <c r="G45" s="86"/>
-      <c r="H45" s="86"/>
-      <c r="J45" s="86"/>
-      <c r="K45" s="86"/>
-      <c r="L45" s="86"/>
-    </row>
-    <row r="46" spans="3:12">
-      <c r="C46" s="99"/>
-      <c r="D46" s="99" t="s">
-        <v>823</v>
-      </c>
-      <c r="E46" s="99" t="s">
-        <v>777</v>
-      </c>
-      <c r="F46" s="86"/>
-      <c r="G46" s="86"/>
-      <c r="H46" s="86"/>
-      <c r="I46" s="86"/>
-      <c r="J46" s="86"/>
-      <c r="K46" s="86"/>
-      <c r="L46" s="86"/>
+      <c r="E46" s="93" t="s">
+        <v>698</v>
+      </c>
+      <c r="F46" s="80"/>
+      <c r="G46" s="80"/>
+      <c r="H46" s="80"/>
+      <c r="I46" s="80"/>
+      <c r="J46" s="80"/>
+      <c r="K46" s="80"/>
+      <c r="L46" s="80"/>
     </row>
     <row r="47" spans="3:12">
-      <c r="C47" s="88" t="s">
-        <v>805</v>
-      </c>
-      <c r="D47" s="86"/>
-      <c r="E47" s="86"/>
-      <c r="F47" s="86"/>
-      <c r="G47" s="86"/>
-      <c r="H47" s="86"/>
-      <c r="I47" s="86"/>
-      <c r="J47" s="86"/>
-      <c r="K47" s="86"/>
-      <c r="L47" s="86"/>
+      <c r="C47" s="82" t="s">
+        <v>726</v>
+      </c>
+      <c r="D47" s="80"/>
+      <c r="E47" s="80"/>
+      <c r="F47" s="80"/>
+      <c r="G47" s="80"/>
+      <c r="H47" s="80"/>
+      <c r="I47" s="80"/>
+      <c r="J47" s="80"/>
+      <c r="K47" s="80"/>
+      <c r="L47" s="80"/>
     </row>
     <row r="48" spans="3:12">
-      <c r="C48" s="95" t="s">
-        <v>811</v>
-      </c>
-      <c r="D48" s="86"/>
-      <c r="E48" s="86"/>
-      <c r="F48" s="86"/>
-      <c r="G48" s="86"/>
-      <c r="H48" s="86"/>
-      <c r="I48" s="86"/>
-      <c r="J48" s="86"/>
-      <c r="K48" s="86"/>
-      <c r="L48" s="86"/>
+      <c r="C48" s="89" t="s">
+        <v>732</v>
+      </c>
+      <c r="D48" s="80"/>
+      <c r="E48" s="80"/>
+      <c r="F48" s="80"/>
+      <c r="G48" s="80"/>
+      <c r="H48" s="80"/>
+      <c r="I48" s="80"/>
+      <c r="J48" s="80"/>
+      <c r="K48" s="80"/>
+      <c r="L48" s="80"/>
     </row>
     <row r="49" spans="3:12">
-      <c r="C49" s="86"/>
-      <c r="D49" s="86"/>
-      <c r="E49" s="86"/>
-      <c r="F49" s="86"/>
-      <c r="G49" s="86"/>
-      <c r="H49" s="86"/>
-      <c r="I49" s="86"/>
-      <c r="J49" s="86"/>
-      <c r="K49" s="86"/>
-      <c r="L49" s="86"/>
+      <c r="C49" s="80"/>
+      <c r="D49" s="80"/>
+      <c r="E49" s="80"/>
+      <c r="F49" s="80"/>
+      <c r="G49" s="80"/>
+      <c r="H49" s="80"/>
+      <c r="I49" s="80"/>
+      <c r="J49" s="80"/>
+      <c r="K49" s="80"/>
+      <c r="L49" s="80"/>
     </row>
     <row r="50" spans="3:12">
-      <c r="C50" s="86"/>
-      <c r="D50" s="86"/>
-      <c r="E50" s="86"/>
-      <c r="F50" s="86"/>
-      <c r="G50" s="86"/>
-      <c r="H50" s="86"/>
-      <c r="I50" s="86"/>
-      <c r="J50" s="86"/>
-      <c r="K50" s="86"/>
-      <c r="L50" s="86"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="80"/>
+      <c r="F50" s="80"/>
+      <c r="G50" s="80"/>
+      <c r="H50" s="80"/>
+      <c r="I50" s="80"/>
+      <c r="J50" s="80"/>
+      <c r="K50" s="80"/>
+      <c r="L50" s="80"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
@@ -17128,7 +17552,7 @@
     <row r="60" spans="3:5" s="39" customFormat="1"/>
     <row r="61" spans="3:5" s="39" customFormat="1"/>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <extLst>
@@ -17366,53 +17790,53 @@
       </c>
     </row>
     <row r="50" spans="1:4" s="21" customFormat="1">
-      <c r="A50" s="101" t="s">
-        <v>833</v>
+      <c r="A50" s="95" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="102" t="s">
-        <v>834</v>
-      </c>
-      <c r="B51" s="102" t="s">
-        <v>835</v>
-      </c>
-      <c r="C51" s="102" t="s">
-        <v>843</v>
+      <c r="A51" s="96" t="s">
+        <v>752</v>
+      </c>
+      <c r="B51" s="96" t="s">
+        <v>753</v>
+      </c>
+      <c r="C51" s="96" t="s">
+        <v>761</v>
       </c>
       <c r="D51" s="39" t="s">
-        <v>840</v>
+        <v>758</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="D52" s="39" t="s">
-        <v>841</v>
+        <v>759</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="B54" s="102" t="s">
-        <v>836</v>
-      </c>
-      <c r="C54" s="102" t="s">
-        <v>844</v>
+      <c r="B54" s="96" t="s">
+        <v>754</v>
+      </c>
+      <c r="C54" s="96" t="s">
+        <v>762</v>
       </c>
       <c r="D54" s="39" t="s">
-        <v>842</v>
+        <v>760</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="102" t="s">
-        <v>837</v>
-      </c>
-      <c r="C58" s="102" t="s">
-        <v>838</v>
-      </c>
-      <c r="D58" s="102" t="s">
-        <v>839</v>
+      <c r="A58" s="96" t="s">
+        <v>755</v>
+      </c>
+      <c r="C58" s="96" t="s">
+        <v>756</v>
+      </c>
+      <c r="D58" s="96" t="s">
+        <v>757</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -17495,7 +17919,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -17584,7 +18008,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>

--- a/gd/任务系统/新版任务系统设计.xlsx
+++ b/gd/任务系统/新版任务系统设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,7 @@
     <definedName name="_5.任务对话界面需求">[1]美术需求!$B$1:$L$12</definedName>
     <definedName name="_9_章节选择界面">数据记录!$C$35:$G$35</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">数据记录!$C$7:$C$7</definedName>
+    <definedName name="adventure">基础规则!$D$79:$K$79</definedName>
     <definedName name="arena">数据记录!#REF!</definedName>
     <definedName name="difficulty">基础规则!#REF!</definedName>
     <definedName name="eggcointen">基础规则!$D$107:$I$108</definedName>
@@ -137,7 +138,7 @@
     <definedName name="已完成的任务_显示在对应分页的上方_多个已完成任务按照任务编号由小至大顺序从上至下显示">UI逻辑!$E$177:$M$177</definedName>
     <definedName name="最多显示为4行_根据显示行数上下居中显示">UI逻辑!$E$127:$J$127</definedName>
   </definedNames>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -184,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="866">
   <si>
     <t>文档名称</t>
   </si>
@@ -2760,10 +2761,6 @@
   </si>
   <si>
     <t>配置表中配置跳转项则显示立即前往按钮，不配置即不显示</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成大冒险N次</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -3843,6 +3840,14 @@
   </si>
   <si>
     <t>star3-x</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>领取大冒险奖励N次</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善大冒险任务的完成条件</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -8761,8 +8766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N137"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="H105" sqref="H105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -10436,7 +10441,7 @@
       <c r="F98" s="5"/>
       <c r="G98" s="40"/>
       <c r="H98" s="40" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I98" s="40"/>
       <c r="J98" s="40"/>
@@ -10452,7 +10457,7 @@
       <c r="F99" s="5"/>
       <c r="G99" s="40"/>
       <c r="H99" s="41" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I99" s="40"/>
       <c r="J99" s="40"/>
@@ -10468,7 +10473,7 @@
       <c r="F100" s="5"/>
       <c r="G100" s="40"/>
       <c r="H100" s="41" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="I100" s="40"/>
       <c r="J100" s="40"/>
@@ -10484,7 +10489,7 @@
       <c r="F101" s="5"/>
       <c r="G101" s="40"/>
       <c r="H101" s="41" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I101" s="40"/>
       <c r="J101" s="40"/>
@@ -10500,7 +10505,7 @@
       <c r="F102" s="5"/>
       <c r="G102" s="40"/>
       <c r="H102" s="41" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="I102" s="40"/>
       <c r="J102" s="40"/>
@@ -10516,7 +10521,7 @@
       <c r="F103" s="5"/>
       <c r="G103" s="40"/>
       <c r="H103" s="41" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="I103" s="40"/>
       <c r="J103" s="40"/>
@@ -10531,7 +10536,9 @@
       <c r="E104" s="9"/>
       <c r="F104" s="5"/>
       <c r="G104" s="40"/>
-      <c r="H104" s="40"/>
+      <c r="H104" s="41" t="s">
+        <v>865</v>
+      </c>
       <c r="I104" s="40"/>
       <c r="J104" s="40"/>
       <c r="K104" s="8"/>
@@ -10854,26 +10861,26 @@
     </row>
     <row r="134" spans="2:8">
       <c r="B134" s="94" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C134" s="38">
         <v>42398</v>
       </c>
       <c r="D134" s="94" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H134" s="20" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="135" spans="2:8">
       <c r="H135" s="20" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="136" spans="2:8">
       <c r="H136" s="20" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="137" spans="2:8">
@@ -10978,6 +10985,7 @@
     <hyperlink ref="H101" location="_2016_1_29修改需求" display="补充任务拆分"/>
     <hyperlink ref="H102" location="目标参数中有___的可以配置多个_没有的不能配置多个" display="配置规范"/>
     <hyperlink ref="H103" location="star3" display="三星通关副本目标修改"/>
+    <hyperlink ref="H104" location="adventure" display="完善大冒险任务的完成条件"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -13813,8 +13821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" zoomScalePageLayoutView="175" workbookViewId="0">
-      <selection activeCell="G87" sqref="G87"/>
+    <sheetView topLeftCell="A73" zoomScaleNormal="100" zoomScalePageLayoutView="175" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -14520,51 +14528,51 @@
     <row r="78" spans="2:13">
       <c r="C78" s="72"/>
       <c r="D78" s="73" t="s">
+        <v>763</v>
+      </c>
+      <c r="E78" s="98" t="s">
         <v>764</v>
       </c>
-      <c r="E78" s="98" t="s">
+      <c r="F78" s="98" t="s">
         <v>765</v>
       </c>
-      <c r="F78" s="98" t="s">
+      <c r="G78" s="73" t="s">
         <v>766</v>
-      </c>
-      <c r="G78" s="73" t="s">
-        <v>767</v>
       </c>
       <c r="H78" s="73"/>
       <c r="I78" s="74" t="s">
+        <v>767</v>
+      </c>
+      <c r="J78" s="74" t="s">
         <v>768</v>
       </c>
-      <c r="J78" s="74" t="s">
+      <c r="K78" s="73" t="s">
         <v>769</v>
-      </c>
-      <c r="K78" s="73" t="s">
-        <v>770</v>
       </c>
       <c r="L78" s="42"/>
       <c r="M78" s="98"/>
     </row>
     <row r="79" spans="2:13">
       <c r="C79" s="72"/>
-      <c r="D79" s="75" t="s">
+      <c r="D79" s="77" t="s">
+        <v>770</v>
+      </c>
+      <c r="E79" s="99"/>
+      <c r="F79" s="99" t="s">
         <v>771</v>
       </c>
-      <c r="E79" s="98"/>
-      <c r="F79" s="98" t="s">
+      <c r="G79" s="77" t="s">
+        <v>864</v>
+      </c>
+      <c r="H79" s="78"/>
+      <c r="I79" s="78" t="s">
         <v>772</v>
       </c>
-      <c r="G79" s="75" t="s">
-        <v>653</v>
-      </c>
-      <c r="H79" s="76"/>
-      <c r="I79" s="76" t="s">
+      <c r="J79" s="78" t="s">
+        <v>772</v>
+      </c>
+      <c r="K79" s="46" t="s">
         <v>773</v>
-      </c>
-      <c r="J79" s="76" t="s">
-        <v>773</v>
-      </c>
-      <c r="K79" s="42" t="s">
-        <v>774</v>
       </c>
       <c r="L79" s="42"/>
       <c r="M79" s="98"/>
@@ -14575,20 +14583,20 @@
         <v>577</v>
       </c>
       <c r="F80" s="42" t="s">
+        <v>774</v>
+      </c>
+      <c r="G80" s="75" t="s">
         <v>775</v>
-      </c>
-      <c r="G80" s="75" t="s">
-        <v>776</v>
       </c>
       <c r="H80" s="76"/>
       <c r="I80" s="76" t="s">
+        <v>772</v>
+      </c>
+      <c r="J80" s="76" t="s">
+        <v>772</v>
+      </c>
+      <c r="K80" s="42" t="s">
         <v>773</v>
-      </c>
-      <c r="J80" s="76" t="s">
-        <v>773</v>
-      </c>
-      <c r="K80" s="42" t="s">
-        <v>774</v>
       </c>
       <c r="L80" s="42"/>
       <c r="M80" s="98"/>
@@ -14601,20 +14609,20 @@
       </c>
       <c r="E81" s="98"/>
       <c r="F81" s="98" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G81" s="75" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H81" s="76"/>
       <c r="I81" s="76" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="J81" s="76" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="K81" s="42" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="L81" s="42"/>
       <c r="M81" s="98"/>
@@ -14623,24 +14631,24 @@
       <c r="B82" s="72"/>
       <c r="C82" s="72"/>
       <c r="D82" s="75" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E82" s="98"/>
       <c r="F82" s="98" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G82" s="75" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H82" s="76"/>
       <c r="I82" s="76" t="s">
+        <v>772</v>
+      </c>
+      <c r="J82" s="76" t="s">
+        <v>772</v>
+      </c>
+      <c r="K82" s="42" t="s">
         <v>773</v>
-      </c>
-      <c r="J82" s="76" t="s">
-        <v>773</v>
-      </c>
-      <c r="K82" s="42" t="s">
-        <v>774</v>
       </c>
       <c r="L82" s="42"/>
       <c r="M82" s="98"/>
@@ -14653,20 +14661,20 @@
       </c>
       <c r="E83" s="98"/>
       <c r="F83" s="98" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G83" s="75" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H83" s="76"/>
       <c r="I83" s="76" t="s">
+        <v>772</v>
+      </c>
+      <c r="J83" s="76" t="s">
+        <v>772</v>
+      </c>
+      <c r="K83" s="42" t="s">
         <v>773</v>
-      </c>
-      <c r="J83" s="76" t="s">
-        <v>773</v>
-      </c>
-      <c r="K83" s="42" t="s">
-        <v>774</v>
       </c>
       <c r="L83" s="42"/>
       <c r="M83" s="98"/>
@@ -14675,24 +14683,24 @@
       <c r="B84" s="72"/>
       <c r="C84" s="72"/>
       <c r="D84" s="75" t="s">
+        <v>781</v>
+      </c>
+      <c r="E84" s="98" t="s">
         <v>782</v>
       </c>
-      <c r="E84" s="98" t="s">
+      <c r="F84" s="98" t="s">
+        <v>774</v>
+      </c>
+      <c r="G84" s="75" t="s">
         <v>783</v>
-      </c>
-      <c r="F84" s="98" t="s">
-        <v>775</v>
-      </c>
-      <c r="G84" s="75" t="s">
-        <v>784</v>
       </c>
       <c r="H84" s="76"/>
       <c r="I84" s="76"/>
       <c r="J84" s="76" t="s">
+        <v>772</v>
+      </c>
+      <c r="K84" s="42" t="s">
         <v>773</v>
-      </c>
-      <c r="K84" s="42" t="s">
-        <v>774</v>
       </c>
       <c r="L84" s="42"/>
       <c r="M84" s="98"/>
@@ -14701,24 +14709,24 @@
       <c r="B85" s="72"/>
       <c r="C85" s="72"/>
       <c r="D85" s="75" t="s">
+        <v>784</v>
+      </c>
+      <c r="E85" s="98" t="s">
         <v>785</v>
       </c>
-      <c r="E85" s="98" t="s">
+      <c r="F85" s="98" t="s">
+        <v>774</v>
+      </c>
+      <c r="G85" s="75" t="s">
         <v>786</v>
-      </c>
-      <c r="F85" s="98" t="s">
-        <v>775</v>
-      </c>
-      <c r="G85" s="75" t="s">
-        <v>787</v>
       </c>
       <c r="H85" s="76"/>
       <c r="I85" s="76"/>
       <c r="J85" s="76" t="s">
+        <v>772</v>
+      </c>
+      <c r="K85" s="42" t="s">
         <v>773</v>
-      </c>
-      <c r="K85" s="42" t="s">
-        <v>774</v>
       </c>
       <c r="L85" s="42"/>
       <c r="M85" s="98"/>
@@ -14727,24 +14735,24 @@
       <c r="B86" s="72"/>
       <c r="C86" s="72"/>
       <c r="D86" s="75" t="s">
+        <v>787</v>
+      </c>
+      <c r="E86" s="98" t="s">
+        <v>785</v>
+      </c>
+      <c r="F86" s="98" t="s">
+        <v>774</v>
+      </c>
+      <c r="G86" s="75" t="s">
         <v>788</v>
-      </c>
-      <c r="E86" s="98" t="s">
-        <v>786</v>
-      </c>
-      <c r="F86" s="98" t="s">
-        <v>775</v>
-      </c>
-      <c r="G86" s="75" t="s">
-        <v>789</v>
       </c>
       <c r="H86" s="76"/>
       <c r="I86" s="76"/>
       <c r="J86" s="76" t="s">
+        <v>772</v>
+      </c>
+      <c r="K86" s="42" t="s">
         <v>773</v>
-      </c>
-      <c r="K86" s="42" t="s">
-        <v>774</v>
       </c>
       <c r="L86" s="42"/>
       <c r="M86" s="98"/>
@@ -14753,24 +14761,24 @@
       <c r="B87" s="72"/>
       <c r="C87" s="72"/>
       <c r="D87" s="77" t="s">
+        <v>789</v>
+      </c>
+      <c r="E87" s="98" t="s">
         <v>790</v>
-      </c>
-      <c r="E87" s="98" t="s">
-        <v>791</v>
       </c>
       <c r="F87" s="98">
         <v>1</v>
       </c>
       <c r="G87" s="77" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H87" s="78"/>
       <c r="I87" s="78"/>
       <c r="J87" s="78" t="s">
+        <v>772</v>
+      </c>
+      <c r="K87" s="46" t="s">
         <v>773</v>
-      </c>
-      <c r="K87" s="46" t="s">
-        <v>774</v>
       </c>
       <c r="L87" s="42"/>
       <c r="M87" s="98"/>
@@ -14779,24 +14787,24 @@
       <c r="B88" s="72"/>
       <c r="C88" s="72"/>
       <c r="D88" s="77" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E88" s="98" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F88" s="98">
         <v>1</v>
       </c>
       <c r="G88" s="77" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H88" s="78"/>
       <c r="I88" s="78"/>
       <c r="J88" s="78" t="s">
+        <v>772</v>
+      </c>
+      <c r="K88" s="46" t="s">
         <v>773</v>
-      </c>
-      <c r="K88" s="46" t="s">
-        <v>774</v>
       </c>
       <c r="L88" s="42"/>
       <c r="M88" s="98"/>
@@ -14809,20 +14817,20 @@
       </c>
       <c r="E89" s="98"/>
       <c r="F89" s="98" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G89" s="75" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H89" s="76"/>
       <c r="I89" s="76" t="s">
+        <v>772</v>
+      </c>
+      <c r="J89" s="76" t="s">
+        <v>772</v>
+      </c>
+      <c r="K89" s="42" t="s">
         <v>773</v>
-      </c>
-      <c r="J89" s="76" t="s">
-        <v>773</v>
-      </c>
-      <c r="K89" s="42" t="s">
-        <v>774</v>
       </c>
       <c r="L89" s="42"/>
       <c r="M89" s="98"/>
@@ -14835,18 +14843,18 @@
       </c>
       <c r="E90" s="98"/>
       <c r="F90" s="98" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G90" s="75" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H90" s="76"/>
       <c r="I90" s="76"/>
       <c r="J90" s="76" t="s">
+        <v>772</v>
+      </c>
+      <c r="K90" s="42" t="s">
         <v>773</v>
-      </c>
-      <c r="K90" s="42" t="s">
-        <v>774</v>
       </c>
       <c r="L90" s="42"/>
       <c r="M90" s="98"/>
@@ -14859,21 +14867,21 @@
       </c>
       <c r="E91" s="98"/>
       <c r="F91" s="98" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G91" s="75" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H91" s="76"/>
       <c r="I91" s="76"/>
       <c r="J91" s="76" t="s">
+        <v>772</v>
+      </c>
+      <c r="K91" s="42" t="s">
         <v>773</v>
       </c>
-      <c r="K91" s="42" t="s">
-        <v>774</v>
-      </c>
       <c r="L91" s="46" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="M91" s="99"/>
     </row>
@@ -14885,23 +14893,23 @@
       </c>
       <c r="E92" s="98"/>
       <c r="F92" s="98" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G92" s="75" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H92" s="76"/>
       <c r="I92" s="76" t="s">
+        <v>772</v>
+      </c>
+      <c r="J92" s="76" t="s">
+        <v>772</v>
+      </c>
+      <c r="K92" s="42" t="s">
         <v>773</v>
       </c>
-      <c r="J92" s="76" t="s">
-        <v>773</v>
-      </c>
-      <c r="K92" s="42" t="s">
-        <v>774</v>
-      </c>
       <c r="L92" s="46" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="M92" s="99"/>
     </row>
@@ -14909,27 +14917,27 @@
       <c r="B93" s="72"/>
       <c r="C93" s="72"/>
       <c r="D93" s="75" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E93" s="98"/>
       <c r="F93" s="98" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G93" s="77" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H93" s="78"/>
       <c r="I93" s="78" t="s">
+        <v>772</v>
+      </c>
+      <c r="J93" s="78" t="s">
+        <v>772</v>
+      </c>
+      <c r="K93" s="46" t="s">
         <v>773</v>
       </c>
-      <c r="J93" s="78" t="s">
-        <v>773</v>
-      </c>
-      <c r="K93" s="46" t="s">
-        <v>774</v>
-      </c>
       <c r="L93" s="46" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="M93" s="99"/>
     </row>
@@ -14941,45 +14949,45 @@
       </c>
       <c r="E94" s="42"/>
       <c r="F94" s="42" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G94" s="75" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H94" s="76"/>
       <c r="I94" s="76"/>
       <c r="J94" s="76" t="s">
+        <v>772</v>
+      </c>
+      <c r="K94" s="42" t="s">
         <v>773</v>
       </c>
-      <c r="K94" s="42" t="s">
-        <v>774</v>
-      </c>
       <c r="L94" s="46" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="M94" s="99"/>
     </row>
     <row r="95" spans="2:13">
       <c r="C95" s="72"/>
       <c r="D95" s="75" t="s">
+        <v>803</v>
+      </c>
+      <c r="F95" s="42" t="s">
+        <v>774</v>
+      </c>
+      <c r="G95" s="77" t="s">
         <v>804</v>
-      </c>
-      <c r="F95" s="42" t="s">
-        <v>775</v>
-      </c>
-      <c r="G95" s="77" t="s">
-        <v>805</v>
       </c>
       <c r="H95" s="78"/>
       <c r="I95" s="78"/>
       <c r="J95" s="78" t="s">
+        <v>772</v>
+      </c>
+      <c r="K95" s="46" t="s">
         <v>773</v>
       </c>
-      <c r="K95" s="46" t="s">
-        <v>774</v>
-      </c>
       <c r="L95" s="46" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="M95" s="99"/>
     </row>
@@ -14989,20 +14997,20 @@
         <v>586</v>
       </c>
       <c r="F96" s="42" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G96" s="75" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H96" s="76"/>
       <c r="I96" s="76" t="s">
+        <v>772</v>
+      </c>
+      <c r="J96" s="76" t="s">
+        <v>772</v>
+      </c>
+      <c r="K96" s="42" t="s">
         <v>773</v>
-      </c>
-      <c r="J96" s="76" t="s">
-        <v>773</v>
-      </c>
-      <c r="K96" s="42" t="s">
-        <v>774</v>
       </c>
       <c r="L96" s="42"/>
       <c r="M96" s="98"/>
@@ -15010,23 +15018,23 @@
     <row r="97" spans="2:18">
       <c r="C97" s="72"/>
       <c r="D97" s="77" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E97" s="42" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F97" s="42" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G97" s="77" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H97" s="78"/>
       <c r="J97" s="78" t="s">
+        <v>772</v>
+      </c>
+      <c r="K97" s="46" t="s">
         <v>773</v>
-      </c>
-      <c r="K97" s="46" t="s">
-        <v>774</v>
       </c>
       <c r="L97" s="42"/>
       <c r="M97" s="98"/>
@@ -15034,17 +15042,17 @@
     <row r="98" spans="2:18">
       <c r="C98" s="72"/>
       <c r="D98" s="100" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F98" s="42">
         <v>1</v>
       </c>
       <c r="G98" s="100" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H98" s="100"/>
       <c r="K98" s="42" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="L98" s="42"/>
       <c r="M98" s="98"/>
@@ -15055,20 +15063,20 @@
         <v>573</v>
       </c>
       <c r="F99" s="42" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G99" s="101" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H99" s="102"/>
       <c r="I99" s="102" t="s">
+        <v>772</v>
+      </c>
+      <c r="J99" s="102" t="s">
+        <v>772</v>
+      </c>
+      <c r="K99" s="42" t="s">
         <v>773</v>
-      </c>
-      <c r="J99" s="102" t="s">
-        <v>773</v>
-      </c>
-      <c r="K99" s="42" t="s">
-        <v>774</v>
       </c>
       <c r="L99" s="42"/>
       <c r="M99" s="98"/>
@@ -15076,23 +15084,23 @@
     <row r="100" spans="2:18">
       <c r="C100" s="72"/>
       <c r="D100" s="103" t="s">
+        <v>808</v>
+      </c>
+      <c r="F100" s="42" t="s">
+        <v>774</v>
+      </c>
+      <c r="G100" s="46" t="s">
         <v>809</v>
-      </c>
-      <c r="F100" s="42" t="s">
-        <v>775</v>
-      </c>
-      <c r="G100" s="46" t="s">
-        <v>810</v>
       </c>
       <c r="H100" s="78"/>
       <c r="I100" s="78" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="J100" s="78" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="K100" s="46" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="L100" s="42"/>
       <c r="M100" s="98"/>
@@ -15100,23 +15108,23 @@
     <row r="101" spans="2:18">
       <c r="C101" s="72"/>
       <c r="D101" s="103" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F101" s="42" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G101" s="46" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H101" s="78"/>
       <c r="I101" s="78" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="J101" s="78" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="K101" s="46" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="L101" s="42"/>
       <c r="M101" s="98"/>
@@ -15127,18 +15135,18 @@
         <v>579</v>
       </c>
       <c r="F102" s="42" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G102" s="75" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H102" s="76"/>
       <c r="I102" s="76"/>
       <c r="J102" s="76" t="s">
+        <v>772</v>
+      </c>
+      <c r="K102" s="42" t="s">
         <v>773</v>
-      </c>
-      <c r="K102" s="42" t="s">
-        <v>774</v>
       </c>
       <c r="L102" s="42"/>
       <c r="M102" s="98"/>
@@ -15146,24 +15154,24 @@
     <row r="103" spans="2:18">
       <c r="C103" s="72"/>
       <c r="D103" s="75" t="s">
+        <v>812</v>
+      </c>
+      <c r="E103" s="42" t="s">
         <v>813</v>
       </c>
-      <c r="E103" s="42" t="s">
+      <c r="F103" s="42" t="s">
+        <v>774</v>
+      </c>
+      <c r="G103" s="75" t="s">
         <v>814</v>
-      </c>
-      <c r="F103" s="42" t="s">
-        <v>775</v>
-      </c>
-      <c r="G103" s="75" t="s">
